--- a/BR_Mailer/J030_COM_FSC/J030_Mailing_List - Excel.xlsx
+++ b/BR_Mailer/J030_COM_FSC/J030_Mailing_List - Excel.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\Business Reporting\ZDEV_BR_Scripts\BRPoSh\BR_Mailer\J030_COM_FSC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\Business Reporting\ZDEV\BR_Scripts\BRPoSh\BR_Mailer\J030_COM_FSC\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="861" uniqueCount="520">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1024" uniqueCount="519">
   <si>
     <t>msg</t>
   </si>
@@ -63,1014 +63,6 @@
     <t>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm</t>
   </si>
   <si>
-    <t>201703_CZ1SD_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201703_CZ1SD_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201703_CZ125_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201703_CZ125_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201703_CZ124_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201703_CZ124_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201703_QZ132_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201703_QZ132_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201703_CZ128_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201703_CZ128_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201703_CZ144_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201703_CZ144_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201703_CZ165_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201703_CZ165_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201703_QZ177_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201703_QZ177_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201703_QZ178_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201703_QZ178_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201703_CZ183_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201703_CZ183_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201703_CZ107_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201703_CZ107_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201703_QZ192_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201703_QZ192_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201703_CZ109_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201703_CZ109_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201703_AZ112_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201703_AZ112_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201703_CZ1CP_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201703_CZ1CP_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201703_CZ154_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201703_CZ154_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201703_CZ1KD_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201703_CZ1KD_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201703_QZ1CF_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201703_QZ1CF_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201703_CZ1EM_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201703_CZ1EM_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201703_QZ1DP_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201703_QZ1DP_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201703_CZ1DA_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201703_CZ1DA_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201703_QZ1LM_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201703_QZ1LM_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201703_CZ1EE_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201703_CZ1EE_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201703_AZ1EK_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201703_AZ1EK_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201703_AZ1FB_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201703_AZ1FB_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201703_CZ1FP_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201703_CZ1FP_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201703_QZ1FT_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201703_QZ1FT_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201703_QZ1FS_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201703_QZ1FS_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201703_QZ1FR_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201703_QZ1FR_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201703_QZ1GO_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201703_QZ1GO_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201703_AZ1KL_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201703_AZ1KL_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201703_QZ1KK_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201703_QZ1KK_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201703_CZ1DN_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201703_CZ1DN_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201703_QZ1EO_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201703_QZ1EO_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201703_CZ1CB_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201703_CZ1CB_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201703_CZ1B8_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201703_CZ1B8_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201703_CZ1C4_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201703_CZ1C4_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201703_QZ1D8_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201703_QZ1D8_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201703_CZ1SW_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201703_CZ1SW_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201703_QZ1AP_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201703_QZ1AP_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201703_CZ2CB_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201703_CZ2CB_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201703_CZ1CG_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201703_CZ1CG_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201703_AZ1PV_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201703_AZ1PV_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201703_CZ3CB_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201703_CZ3CB_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201703_CZ5CS_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201703_CZ5CS_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201703_CZ8JA_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201703_CZ8JA_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201703_QZ7DO_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201703_QZ7DO_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201703_CZ5TA_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201703_CZ5TA_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201703_CZ2LB_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201703_CZ2LB_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201703_CZ2GB_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201703_CZ2GB_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201703_CZ2LH_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201703_CZ2LH_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201703_CZ2NM_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201703_CZ2NM_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201703_QZ2SB_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201703_QZ2SB_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201703_CZ2BG_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201703_CZ2BG_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201703_CZ1SA_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201703_CZ1SA_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201703_WZ8JP_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201703_WZ8JP_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201703_WZ115_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201703_WZ115_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201703_WZ120_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201703_WZ120_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201703_WZ118_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201703_WZ118_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201703_WZ119_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201703_WZ119_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201703_WZ138_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201703_WZ138_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201703_WZ142_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201703_WZ142_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201703_WZ134_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201703_WZ134_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201703_WZ123_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201703_WZ123_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201703_WZ136_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201703_WZ136_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201703_WZ165_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201703_WZ165_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201703_WZ1FF_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201703_WZ1FF_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201703_WZ167_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201703_WZ167_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201703_WZ175_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201703_WZ175_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201703_WZ177_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201703_WZ177_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201703_WZ2BK_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201703_WZ2BK_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201703_WZ143_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201703_WZ143_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201703_WZ159_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201703_WZ159_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201703_WZ162_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201703_WZ162_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201703_WZ113_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201703_WZ113_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201703_WZ137_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201703_WZ137_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201703_WZ1G4_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201703_WZ1G4_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201703_WZ1CE_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201703_WZ1CE_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201703_WZBW1_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201703_WZBW1_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201703_WZ9TS_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201703_WZ9TS_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201703_WZ1HM_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201703_WZ1HM_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201703_WZ2RP_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201703_WZ2RP_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201703_WZ1TT_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201703_WZ1TT_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201703_WZ1AM_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201703_WZ1AM_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201703_WZ1JW_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201703_WZ1JW_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201703_WZ1MH_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201703_WZ1MH_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201703_WZ1TM_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201703_WZ1TM_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201703_WZ2AM_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201703_WZ2AM_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201703_WZ1SC_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201703_WZ1SC_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201703_WZ1PB_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201703_WZ1PB_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201703_WZ1JN_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201703_WZ1JN_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201703_WZ1MK_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201703_WZ1MK_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201703_WZ1CA_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201703_WZ1CA_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201703_WZ2TM_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201703_WZ2TM_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201703_WZ1BC_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201703_WZ1BC_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201703_WZ1JL_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201703_WZ1JL_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201703_WZ1JR_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201703_WZ1JR_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201703_WZ1AL_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201703_WZ1AL_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201703_WZ1MW_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201703_WZ1MW_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201703_WZ1MS_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201703_WZ1MS_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201703_WZ1DF_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201703_WZ1DF_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201703_CZ1GF_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201703_CZ1GF_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201703_QZ1BP_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201703_QZ1BP_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201703_CZ1JF_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201703_CZ1JF_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201703_AZ1CI_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201703_AZ1CI_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201703_CZ1KM_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201703_CZ1KM_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201703_CZ1OV_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201703_CZ1OV_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201703_QZ1JB_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201703_QZ1JB_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201703_QZ1BG_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201703_QZ1BG_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201703_CZ1TM_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201703_CZ1TM_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201703_QZ1BM_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201703_QZ1BM_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201703_QZ1MD_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201703_QZ1MD_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201703_AZ1JB_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201703_AZ1JB_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201703_CZ1AD_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201703_CZ1AD_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201703_CZ1FA_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201703_CZ1FA_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201703_CZ2SA_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201703_CZ2SA_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201703_QZ1JN_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201703_QZ1JN_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201703_QZ1SL_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201703_QZ1SL_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201703_AZ1CM_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201703_AZ1CM_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201703_CZ1CN_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201703_CZ1CN_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201703_AZ1YU_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201703_AZ1YU_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201703_AZ1WX_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201703_AZ1WX_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201703_AZ1XF_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201703_AZ1XF_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201703_AZ1XT_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201703_AZ1XT_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201703_AZ1YP_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201703_AZ1YP_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201703_QZ1XH_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201703_QZ1XH_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201703_QZ1TB_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201703_QZ1TB_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201703_QZ1TD_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201703_QZ1TD_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201703_QZ1TK_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201703_QZ1TK_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201703_QZ1YE_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201703_QZ1YE_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201703_QZ1TE_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201703_QZ1TE_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201703_QZ1TI_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201703_QZ1TI_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201703_CZ1YI_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201703_CZ1YI_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201703_CZ1YW_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201703_CZ1YW_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201703_CZ1UE_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201703_CZ1UE_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201703_CZ1MJ_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201703_CZ1MJ_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201703_CZ1VG_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201703_CZ1VG_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201703_CZ1VJ_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201703_CZ1VJ_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201703_CZ1MI_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201703_CZ1MI_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201703_CZ1XD_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201703_CZ1XD_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201703_CZ1XB_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201703_CZ1XB_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201703_CZ1WT_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201703_CZ1WT_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201703_CZ1XA_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201703_CZ1XA_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201703_WZ2KF_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201703_WZ2KF_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201703_WZ148_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201703_WZ148_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201703_WZ8GM_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201703_WZ8GM_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201703_WZ1BH_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201703_WZ1BH_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201703_WZ114_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201703_WZ114_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201703_WZ1A6_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201703_WZ1A6_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201703_WZ139_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201703_WZ139_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201703_CZ1VL_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201703_CZ1VL_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201703_CZ1VK_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201703_CZ1VK_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201703_CZ1LR_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201703_CZ1LR_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201703_CZ1UV_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201703_CZ1UV_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201703_CZ1WV_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201703_CZ1WV_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201703_CZ1UO_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201703_CZ1UO_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201703_CZ1XC_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201703_CZ1XC_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201703_CZ1YN_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201703_CZ1YN_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201703_CZ1UI_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201703_CZ1UI_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201703_CZ1UU_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201703_CZ1UU_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201703_CZ1UW_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201703_CZ1UW_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201703_CZ1VC_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201703_CZ1VC_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201703_CZ1UX_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201703_CZ1UX_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201703_CZ1UZ_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201703_CZ1UZ_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201703_WZ1CM_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201703_WZ1CM_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201703_WZ1JI_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201703_WZ1JI_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201703_WZ2MS_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201703_WZ2MS_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>Commission Summary and Details for March 2017</t>
-  </si>
-  <si>
-    <t>Stephane.Debernardi@henryschein.ca</t>
-  </si>
-  <si>
     <t>Diane.McChesney@henryschein.ca</t>
   </si>
   <si>
@@ -1233,9 +225,6 @@
     <t>Shannon.Aarts@henryschein.ca</t>
   </si>
   <si>
-    <t>Jenna.Plenert@henryschein.ca</t>
-  </si>
-  <si>
     <t>Vic.Goossen@henryschein.ca</t>
   </si>
   <si>
@@ -1278,9 +267,6 @@
     <t>Guy.Martin@henryschein.ca</t>
   </si>
   <si>
-    <t>Bronko.Kornhauzer@henryschein.ca</t>
-  </si>
-  <si>
     <t>Bev.Fredsberg@henryschein.ca</t>
   </si>
   <si>
@@ -1347,9 +333,6 @@
     <t>Martin.Kurek@henryschein.ca</t>
   </si>
   <si>
-    <t>Carla.Amero@henryschein.ca</t>
-  </si>
-  <si>
     <t>Teresa.McNeil@henryschein.ca</t>
   </si>
   <si>
@@ -1359,9 +342,6 @@
     <t>Julia.Lenton@henryschein.ca</t>
   </si>
   <si>
-    <t>Jo-Anne.Richardson@henryschein.ca</t>
-  </si>
-  <si>
     <t>Andre.Liew@henryschein.ca</t>
   </si>
   <si>
@@ -1425,9 +405,6 @@
     <t>Suzanne.Lebeau@henryschein.ca</t>
   </si>
   <si>
-    <t>Chris.Murray@henryschein.ca</t>
-  </si>
-  <si>
     <t>Warren.Hayes@henryschein.ca</t>
   </si>
   <si>
@@ -1575,10 +552,1030 @@
     <t>Megan.Schick@henryschein.ca</t>
   </si>
   <si>
-    <t>201703_QZ3JB_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201703_QZ3JB_CommissionDetail.pdf</t>
+    <t>Jonathan.McKnight@henryschein.ca</t>
+  </si>
+  <si>
+    <t>blank</t>
+  </si>
+  <si>
+    <t>ETU_MSG_FSC_Comm.htm</t>
+  </si>
+  <si>
+    <t>Jessica.Noad@henryschein.ca</t>
+  </si>
+  <si>
+    <t>Carla.Francis@henryschein.ca</t>
+  </si>
+  <si>
+    <t>Marie-Eve.Leclerc@henryschein.ca</t>
+  </si>
+  <si>
+    <t>Rob.Dilallo@henryschein.ca</t>
+  </si>
+  <si>
+    <t>Commission Summary and Details for August 2017</t>
+  </si>
+  <si>
+    <t>201708_CZ125_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201708_CZ125_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201708_CZ124_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201708_CZ124_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201708_QZ132_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201708_QZ132_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201708_CZ128_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201708_CZ128_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201708_CZ144_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201708_CZ144_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201708_CZ165_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201708_CZ165_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201708_QZ177_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201708_QZ177_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201708_QZ178_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201708_QZ178_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201708_CZ183_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201708_CZ183_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201708_CZ107_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201708_CZ107_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201708_QZ192_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201708_QZ192_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201708_CZ109_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201708_CZ109_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201708_AZ112_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201708_AZ112_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201708_CZ1CP_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201708_CZ1CP_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201708_CZ154_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201708_CZ154_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201708_CZ1KD_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201708_CZ1KD_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201708_QZ1CF_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201708_QZ1CF_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201708_CZ1EM_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201708_CZ1EM_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201708_QZ1DP_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201708_QZ1DP_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201708_CZ1DA_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201708_CZ1DA_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201708_QZ1LM_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201708_QZ1LM_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201708_CZ1EE_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201708_CZ1EE_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201708_AZ1EK_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201708_AZ1EK_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201708_AZ1FB_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201708_AZ1FB_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201708_CZ1FP_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201708_CZ1FP_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201708_QZ1FT_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201708_QZ1FT_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201708_QZ1FS_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201708_QZ1FS_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201708_QZ1FR_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201708_QZ1FR_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201708_QZ1GO_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201708_QZ1GO_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201708_AZ1KL_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201708_AZ1KL_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201708_QZ1KK_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201708_QZ1KK_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201708_CZ1DN_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201708_CZ1DN_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201708_QZ1EO_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201708_QZ1EO_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201708_CZ1CB_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201708_CZ1CB_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201708_CZ1B8_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201708_CZ1B8_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201708_CZ1C4_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201708_CZ1C4_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201708_QZ1D8_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201708_QZ1D8_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201708_CZ1SW_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201708_CZ1SW_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201708_QZ1AP_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201708_QZ1AP_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201708_CZ2CB_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201708_CZ2CB_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201708_CZ1CG_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201708_CZ1CG_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201708_AZ1PV_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201708_AZ1PV_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201708_CZ3CB_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201708_CZ3CB_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201708_CZ5CS_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201708_CZ5CS_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201708_CZ8JA_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201708_CZ8JA_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201708_QZ7JM_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201708_QZ7JM_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201708_QZ7DO_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201708_QZ7DO_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201708_CZ5TA_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201708_CZ5TA_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201708_CZ2LB_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201708_CZ2LB_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201708_CZ2GB_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201708_CZ2GB_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201708_CZ2LH_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201708_CZ2LH_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201708_CZ2NM_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201708_CZ2NM_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201708_QZ2SB_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201708_QZ2SB_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201708_CZ2BG_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201708_CZ2BG_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201708_CZ1SA_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201708_CZ1SA_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201708_WZ115_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201708_WZ115_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201708_WZ120_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201708_WZ120_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201708_WZ118_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201708_WZ118_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201708_WZ119_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201708_WZ119_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201708_WZ138_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201708_WZ138_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201708_WZ142_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201708_WZ142_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201708_WZ134_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201708_WZ134_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201708_WZ123_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201708_WZ123_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201708_WZ136_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201708_WZ136_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201708_WZ165_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201708_WZ165_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201708_WZ1FF_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201708_WZ1FF_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201708_WZ167_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201708_WZ167_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201708_WZ175_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201708_WZ175_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201708_WZ177_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201708_WZ177_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201708_WZ143_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201708_WZ143_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201708_WZ159_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201708_WZ159_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201708_WZ162_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201708_WZ162_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201708_WZ113_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201708_WZ113_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201708_WZ137_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201708_WZ137_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201708_WZ1G4_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201708_WZ1G4_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201708_WZ1CE_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201708_WZ1CE_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201708_WZBW1_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201708_WZBW1_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201708_WZ9TS_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201708_WZ9TS_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201708_WZ1HM_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201708_WZ1HM_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201708_WZ2RP_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201708_WZ2RP_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201708_WZ1TT_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201708_WZ1TT_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201708_WZ1AM_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201708_WZ1AM_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201708_WZ1JW_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201708_WZ1JW_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201708_WZ1MH_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201708_WZ1MH_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201708_WZ1TM_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201708_WZ1TM_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201708_WZ2AM_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201708_WZ2AM_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201708_WZ1SC_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201708_WZ1SC_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201708_WZ1PB_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201708_WZ1PB_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201708_WZ1JN_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201708_WZ1JN_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201708_WZ1MK_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201708_WZ1MK_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201708_WZ1CA_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201708_WZ1CA_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201708_WZ2TM_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201708_WZ2TM_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201708_WZ1BC_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201708_WZ1BC_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201708_WZ1JL_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201708_WZ1JL_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201708_WZ1AL_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201708_WZ1AL_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201708_WZ1MW_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201708_WZ1MW_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201708_WZ1MS_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201708_WZ1MS_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201708_WZ1DF_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201708_WZ1DF_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201708_CZ1GF_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201708_CZ1GF_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201708_QZ1BP_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201708_QZ1BP_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201708_CZ1JF_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201708_CZ1JF_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201708_AZ1CI_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201708_AZ1CI_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201708_CZ1KM_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201708_CZ1KM_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201708_CZ1OV_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201708_CZ1OV_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201708_QZ1JB_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201708_QZ1JB_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201708_QZ1BG_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201708_QZ1BG_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201708_CZ1TM_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201708_CZ1TM_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201708_QZ1BM_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201708_QZ1BM_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201708_QZ1MD_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201708_QZ1MD_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201708_AZ1JB_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201708_AZ1JB_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201708_CZ1AD_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201708_CZ1AD_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201708_QZ1ML_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201708_QZ1ML_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201708_CZ1FA_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201708_CZ1FA_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201708_CZ2SA_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201708_CZ2SA_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201708_QZ1JN_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201708_QZ1JN_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201708_QZ1SL_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201708_QZ1SL_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201708_CZ1CN_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201708_CZ1CN_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201708_AZ1YU_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201708_AZ1YU_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201708_AZ1WX_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201708_AZ1WX_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201708_AZ1XF_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201708_AZ1XF_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201708_AZ1XT_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201708_AZ1XT_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201708_AZ1YP_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201708_AZ1YP_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201708_QZ1XH_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201708_QZ1XH_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201708_QZ1TB_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201708_QZ1TB_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201708_QZ1TD_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201708_QZ1TD_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201708_QZ1TK_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201708_QZ1TK_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201708_QZ1YE_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201708_QZ1YE_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201708_QZ1TE_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201708_QZ1TE_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201708_QZ1TI_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201708_QZ1TI_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201708_CZ1YI_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201708_CZ1YI_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201708_CZ1YW_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201708_CZ1YW_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201708_CZ1UE_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201708_CZ1UE_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201708_CZ1MJ_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201708_CZ1MJ_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201708_CZ1VG_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201708_CZ1VG_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201708_CZ1VJ_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201708_CZ1VJ_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201708_CZ1MI_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201708_CZ1MI_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201708_CZ1XD_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201708_CZ1XD_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201708_CZ1XB_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201708_CZ1XB_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201708_CZ1WT_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201708_CZ1WT_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201708_CZ1XA_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201708_CZ1XA_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201708_WZ2KF_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201708_WZ2KF_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201708_WZ148_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201708_WZ148_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201708_WZ8GM_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201708_WZ8GM_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201708_WZ1BH_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201708_WZ1BH_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201708_WZ114_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201708_WZ114_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201708_WZ1A6_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201708_WZ1A6_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201708_WZ139_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201708_WZ139_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201708_CZ1VL_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201708_CZ1VL_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201708_CZ1VK_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201708_CZ1VK_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201708_CZ1LR_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201708_CZ1LR_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201708_CZ1UV_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201708_CZ1UV_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201708_CZ1WV_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201708_CZ1WV_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201708_CZ1UO_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201708_CZ1UO_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201708_CZ1XC_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201708_CZ1XC_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201708_CZ1YN_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201708_CZ1YN_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201708_CZ1UI_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201708_CZ1UI_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201708_CZ1UU_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201708_CZ1UU_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201708_CZ1UW_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201708_CZ1UW_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201708_CZ1VC_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201708_CZ1VC_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201708_CZ1UX_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201708_CZ1UX_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201708_CZ1UZ_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201708_CZ1UZ_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201708_WZ1CM_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201708_WZ1CM_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201708_WZ1JI_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201708_WZ1JI_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201708_QZ3JB_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201708_QZ3JB_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201708_WZ2MS_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201708_WZ2MS_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201708_WZ2JN_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201708_WZ2JN_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201708_CZ1RD_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201708_CZ1RD_CommissionDetail.pdf</t>
   </si>
 </sst>
 </file>
@@ -1601,7 +1598,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1611,12 +1608,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -1648,11 +1639,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Input" xfId="1" builtinId="20"/>
@@ -1935,11 +1925,9 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:N171"/>
+  <dimension ref="A1:N170"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A122" workbookViewId="0">
-      <selection activeCell="L133" sqref="L133:L134"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1982,7 +1970,10 @@
       <c r="I1" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="J1" t="s">
+        <v>178</v>
+      </c>
+      <c r="K1" t="s">
         <v>11</v>
       </c>
       <c r="L1" s="1" t="s">
@@ -1998,9 +1989,12 @@
       <c r="B2" s="2" t="s">
         <v>12</v>
       </c>
+      <c r="C2" t="s">
+        <v>179</v>
+      </c>
       <c r="D2" t="str">
         <f>D3</f>
-        <v>Commission Summary and Details for March 2017</v>
+        <v>Commission Summary and Details for August 2017</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -2010,29 +2004,34 @@
       </c>
       <c r="G2" t="str">
         <f>$K2&amp;"\"&amp;L2</f>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201703_CZ1SD_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_CZ125_CommissionSummary.pdf</v>
       </c>
       <c r="H2" t="str">
         <f>$K2&amp;"\"&amp;M2</f>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201703_CZ1SD_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_CZ125_CommissionDetail.pdf</v>
       </c>
       <c r="K2" t="s">
         <v>13</v>
       </c>
-      <c r="L2" t="s">
-        <v>14</v>
-      </c>
-      <c r="M2" t="s">
-        <v>15</v>
+      <c r="L2" t="str">
+        <f>L3</f>
+        <v>201708_CZ125_CommissionSummary.pdf</v>
+      </c>
+      <c r="M2" t="str">
+        <f>M3</f>
+        <v>201708_CZ125_CommissionDetail.pdf</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
       <c r="B3" t="s">
-        <v>349</v>
+        <v>14</v>
+      </c>
+      <c r="C3" t="s">
+        <v>179</v>
       </c>
       <c r="D3" t="s">
-        <v>348</v>
+        <v>184</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -2042,29 +2041,32 @@
       </c>
       <c r="G3" t="str">
         <f t="shared" ref="G3:G66" si="0">$K3&amp;"\"&amp;L3</f>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201703_CZ1SD_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_CZ125_CommissionSummary.pdf</v>
       </c>
       <c r="H3" t="str">
         <f t="shared" ref="H3:H66" si="1">$K3&amp;"\"&amp;M3</f>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201703_CZ1SD_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_CZ125_CommissionDetail.pdf</v>
       </c>
       <c r="K3" t="s">
         <v>13</v>
       </c>
       <c r="L3" t="s">
-        <v>14</v>
+        <v>185</v>
       </c>
       <c r="M3" t="s">
-        <v>15</v>
+        <v>186</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
       <c r="B4" t="s">
-        <v>350</v>
+        <v>15</v>
+      </c>
+      <c r="C4" t="s">
+        <v>179</v>
       </c>
       <c r="D4" t="s">
-        <v>348</v>
+        <v>184</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -2074,29 +2076,32 @@
       </c>
       <c r="G4" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201703_CZ125_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_CZ124_CommissionSummary.pdf</v>
       </c>
       <c r="H4" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201703_CZ125_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_CZ124_CommissionDetail.pdf</v>
       </c>
       <c r="K4" t="s">
         <v>13</v>
       </c>
       <c r="L4" t="s">
-        <v>16</v>
+        <v>187</v>
       </c>
       <c r="M4" t="s">
-        <v>17</v>
+        <v>188</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
       <c r="B5" t="s">
-        <v>351</v>
+        <v>16</v>
+      </c>
+      <c r="C5" t="s">
+        <v>179</v>
       </c>
       <c r="D5" t="s">
-        <v>348</v>
+        <v>184</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -2106,29 +2111,32 @@
       </c>
       <c r="G5" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201703_CZ124_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_QZ132_CommissionSummary.pdf</v>
       </c>
       <c r="H5" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201703_CZ124_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_QZ132_CommissionDetail.pdf</v>
       </c>
       <c r="K5" t="s">
         <v>13</v>
       </c>
       <c r="L5" t="s">
-        <v>18</v>
+        <v>189</v>
       </c>
       <c r="M5" t="s">
-        <v>19</v>
+        <v>190</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
       <c r="B6" t="s">
-        <v>352</v>
+        <v>17</v>
+      </c>
+      <c r="C6" t="s">
+        <v>179</v>
       </c>
       <c r="D6" t="s">
-        <v>348</v>
+        <v>184</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -2138,29 +2146,32 @@
       </c>
       <c r="G6" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201703_QZ132_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_CZ128_CommissionSummary.pdf</v>
       </c>
       <c r="H6" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201703_QZ132_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_CZ128_CommissionDetail.pdf</v>
       </c>
       <c r="K6" t="s">
         <v>13</v>
       </c>
       <c r="L6" t="s">
-        <v>20</v>
+        <v>191</v>
       </c>
       <c r="M6" t="s">
-        <v>21</v>
+        <v>192</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
       <c r="B7" t="s">
-        <v>353</v>
+        <v>18</v>
+      </c>
+      <c r="C7" t="s">
+        <v>179</v>
       </c>
       <c r="D7" t="s">
-        <v>348</v>
+        <v>184</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -2170,29 +2181,32 @@
       </c>
       <c r="G7" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201703_CZ128_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_CZ144_CommissionSummary.pdf</v>
       </c>
       <c r="H7" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201703_CZ128_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_CZ144_CommissionDetail.pdf</v>
       </c>
       <c r="K7" t="s">
         <v>13</v>
       </c>
       <c r="L7" t="s">
-        <v>22</v>
+        <v>193</v>
       </c>
       <c r="M7" t="s">
-        <v>23</v>
+        <v>194</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
       <c r="B8" t="s">
-        <v>354</v>
+        <v>19</v>
+      </c>
+      <c r="C8" t="s">
+        <v>179</v>
       </c>
       <c r="D8" t="s">
-        <v>348</v>
+        <v>184</v>
       </c>
       <c r="E8">
         <v>1</v>
@@ -2202,29 +2216,32 @@
       </c>
       <c r="G8" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201703_CZ144_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_CZ165_CommissionSummary.pdf</v>
       </c>
       <c r="H8" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201703_CZ144_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_CZ165_CommissionDetail.pdf</v>
       </c>
       <c r="K8" t="s">
         <v>13</v>
       </c>
       <c r="L8" t="s">
-        <v>24</v>
+        <v>195</v>
       </c>
       <c r="M8" t="s">
-        <v>25</v>
+        <v>196</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
       <c r="B9" t="s">
-        <v>355</v>
+        <v>20</v>
+      </c>
+      <c r="C9" t="s">
+        <v>179</v>
       </c>
       <c r="D9" t="s">
-        <v>348</v>
+        <v>184</v>
       </c>
       <c r="E9">
         <v>1</v>
@@ -2234,29 +2251,32 @@
       </c>
       <c r="G9" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201703_CZ165_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_QZ177_CommissionSummary.pdf</v>
       </c>
       <c r="H9" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201703_CZ165_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_QZ177_CommissionDetail.pdf</v>
       </c>
       <c r="K9" t="s">
         <v>13</v>
       </c>
       <c r="L9" t="s">
-        <v>26</v>
+        <v>197</v>
       </c>
       <c r="M9" t="s">
-        <v>27</v>
+        <v>198</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
       <c r="B10" t="s">
-        <v>356</v>
+        <v>21</v>
+      </c>
+      <c r="C10" t="s">
+        <v>179</v>
       </c>
       <c r="D10" t="s">
-        <v>348</v>
+        <v>184</v>
       </c>
       <c r="E10">
         <v>1</v>
@@ -2266,29 +2286,32 @@
       </c>
       <c r="G10" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201703_QZ177_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_QZ178_CommissionSummary.pdf</v>
       </c>
       <c r="H10" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201703_QZ177_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_QZ178_CommissionDetail.pdf</v>
       </c>
       <c r="K10" t="s">
         <v>13</v>
       </c>
       <c r="L10" t="s">
-        <v>28</v>
+        <v>199</v>
       </c>
       <c r="M10" t="s">
-        <v>29</v>
+        <v>200</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
       <c r="B11" t="s">
-        <v>357</v>
+        <v>22</v>
+      </c>
+      <c r="C11" t="s">
+        <v>179</v>
       </c>
       <c r="D11" t="s">
-        <v>348</v>
+        <v>184</v>
       </c>
       <c r="E11">
         <v>1</v>
@@ -2298,29 +2321,32 @@
       </c>
       <c r="G11" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201703_QZ178_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_CZ183_CommissionSummary.pdf</v>
       </c>
       <c r="H11" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201703_QZ178_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_CZ183_CommissionDetail.pdf</v>
       </c>
       <c r="K11" t="s">
         <v>13</v>
       </c>
       <c r="L11" t="s">
-        <v>30</v>
+        <v>201</v>
       </c>
       <c r="M11" t="s">
-        <v>31</v>
+        <v>202</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
       <c r="B12" t="s">
-        <v>358</v>
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
+        <v>179</v>
       </c>
       <c r="D12" t="s">
-        <v>348</v>
+        <v>184</v>
       </c>
       <c r="E12">
         <v>1</v>
@@ -2330,29 +2356,32 @@
       </c>
       <c r="G12" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201703_CZ183_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_CZ107_CommissionSummary.pdf</v>
       </c>
       <c r="H12" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201703_CZ183_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_CZ107_CommissionDetail.pdf</v>
       </c>
       <c r="K12" t="s">
         <v>13</v>
       </c>
       <c r="L12" t="s">
-        <v>32</v>
+        <v>203</v>
       </c>
       <c r="M12" t="s">
-        <v>33</v>
+        <v>204</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
       <c r="B13" t="s">
-        <v>359</v>
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>179</v>
       </c>
       <c r="D13" t="s">
-        <v>348</v>
+        <v>184</v>
       </c>
       <c r="E13">
         <v>1</v>
@@ -2362,29 +2391,32 @@
       </c>
       <c r="G13" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201703_CZ107_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_QZ192_CommissionSummary.pdf</v>
       </c>
       <c r="H13" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201703_CZ107_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_QZ192_CommissionDetail.pdf</v>
       </c>
       <c r="K13" t="s">
         <v>13</v>
       </c>
       <c r="L13" t="s">
-        <v>34</v>
+        <v>205</v>
       </c>
       <c r="M13" t="s">
-        <v>35</v>
+        <v>206</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
       <c r="B14" t="s">
-        <v>360</v>
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>179</v>
       </c>
       <c r="D14" t="s">
-        <v>348</v>
+        <v>184</v>
       </c>
       <c r="E14">
         <v>1</v>
@@ -2394,29 +2426,32 @@
       </c>
       <c r="G14" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201703_QZ192_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_CZ109_CommissionSummary.pdf</v>
       </c>
       <c r="H14" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201703_QZ192_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_CZ109_CommissionDetail.pdf</v>
       </c>
       <c r="K14" t="s">
         <v>13</v>
       </c>
       <c r="L14" t="s">
-        <v>36</v>
+        <v>207</v>
       </c>
       <c r="M14" t="s">
-        <v>37</v>
+        <v>208</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
       <c r="B15" t="s">
-        <v>361</v>
+        <v>26</v>
+      </c>
+      <c r="C15" t="s">
+        <v>179</v>
       </c>
       <c r="D15" t="s">
-        <v>348</v>
+        <v>184</v>
       </c>
       <c r="E15">
         <v>1</v>
@@ -2426,29 +2461,32 @@
       </c>
       <c r="G15" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201703_CZ109_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_AZ112_CommissionSummary.pdf</v>
       </c>
       <c r="H15" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201703_CZ109_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_AZ112_CommissionDetail.pdf</v>
       </c>
       <c r="K15" t="s">
         <v>13</v>
       </c>
       <c r="L15" t="s">
-        <v>38</v>
+        <v>209</v>
       </c>
       <c r="M15" t="s">
-        <v>39</v>
+        <v>210</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
       <c r="B16" t="s">
-        <v>362</v>
+        <v>27</v>
+      </c>
+      <c r="C16" t="s">
+        <v>179</v>
       </c>
       <c r="D16" t="s">
-        <v>348</v>
+        <v>184</v>
       </c>
       <c r="E16">
         <v>1</v>
@@ -2458,29 +2496,32 @@
       </c>
       <c r="G16" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201703_AZ112_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_CZ1CP_CommissionSummary.pdf</v>
       </c>
       <c r="H16" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201703_AZ112_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_CZ1CP_CommissionDetail.pdf</v>
       </c>
       <c r="K16" t="s">
         <v>13</v>
       </c>
       <c r="L16" t="s">
-        <v>40</v>
+        <v>211</v>
       </c>
       <c r="M16" t="s">
-        <v>41</v>
+        <v>212</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="2"/>
       <c r="B17" t="s">
-        <v>363</v>
+        <v>28</v>
+      </c>
+      <c r="C17" t="s">
+        <v>179</v>
       </c>
       <c r="D17" t="s">
-        <v>348</v>
+        <v>184</v>
       </c>
       <c r="E17">
         <v>1</v>
@@ -2490,29 +2531,32 @@
       </c>
       <c r="G17" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201703_CZ1CP_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_CZ154_CommissionSummary.pdf</v>
       </c>
       <c r="H17" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201703_CZ1CP_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_CZ154_CommissionDetail.pdf</v>
       </c>
       <c r="K17" t="s">
         <v>13</v>
       </c>
       <c r="L17" t="s">
-        <v>42</v>
+        <v>213</v>
       </c>
       <c r="M17" t="s">
-        <v>43</v>
+        <v>214</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
       <c r="B18" t="s">
-        <v>364</v>
+        <v>29</v>
+      </c>
+      <c r="C18" t="s">
+        <v>179</v>
       </c>
       <c r="D18" t="s">
-        <v>348</v>
+        <v>184</v>
       </c>
       <c r="E18">
         <v>1</v>
@@ -2522,29 +2566,32 @@
       </c>
       <c r="G18" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201703_CZ154_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_CZ1KD_CommissionSummary.pdf</v>
       </c>
       <c r="H18" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201703_CZ154_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_CZ1KD_CommissionDetail.pdf</v>
       </c>
       <c r="K18" t="s">
         <v>13</v>
       </c>
       <c r="L18" t="s">
-        <v>44</v>
+        <v>215</v>
       </c>
       <c r="M18" t="s">
-        <v>45</v>
+        <v>216</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="2"/>
       <c r="B19" t="s">
-        <v>365</v>
+        <v>30</v>
+      </c>
+      <c r="C19" t="s">
+        <v>179</v>
       </c>
       <c r="D19" t="s">
-        <v>348</v>
+        <v>184</v>
       </c>
       <c r="E19">
         <v>1</v>
@@ -2554,28 +2601,31 @@
       </c>
       <c r="G19" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201703_CZ1KD_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_QZ1CF_CommissionSummary.pdf</v>
       </c>
       <c r="H19" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201703_CZ1KD_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_QZ1CF_CommissionDetail.pdf</v>
       </c>
       <c r="K19" t="s">
         <v>13</v>
       </c>
       <c r="L19" t="s">
-        <v>46</v>
+        <v>217</v>
       </c>
       <c r="M19" t="s">
-        <v>47</v>
+        <v>218</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>366</v>
+        <v>31</v>
+      </c>
+      <c r="C20" t="s">
+        <v>179</v>
       </c>
       <c r="D20" t="s">
-        <v>348</v>
+        <v>184</v>
       </c>
       <c r="E20">
         <v>1</v>
@@ -2585,28 +2635,31 @@
       </c>
       <c r="G20" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201703_QZ1CF_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_CZ1EM_CommissionSummary.pdf</v>
       </c>
       <c r="H20" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201703_QZ1CF_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_CZ1EM_CommissionDetail.pdf</v>
       </c>
       <c r="K20" t="s">
         <v>13</v>
       </c>
       <c r="L20" t="s">
-        <v>48</v>
+        <v>219</v>
       </c>
       <c r="M20" t="s">
-        <v>49</v>
+        <v>220</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>367</v>
+        <v>32</v>
+      </c>
+      <c r="C21" t="s">
+        <v>179</v>
       </c>
       <c r="D21" t="s">
-        <v>348</v>
+        <v>184</v>
       </c>
       <c r="E21">
         <v>1</v>
@@ -2616,28 +2669,31 @@
       </c>
       <c r="G21" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201703_CZ1EM_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_QZ1DP_CommissionSummary.pdf</v>
       </c>
       <c r="H21" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201703_CZ1EM_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_QZ1DP_CommissionDetail.pdf</v>
       </c>
       <c r="K21" t="s">
         <v>13</v>
       </c>
       <c r="L21" t="s">
-        <v>50</v>
+        <v>221</v>
       </c>
       <c r="M21" t="s">
-        <v>51</v>
+        <v>222</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
-        <v>368</v>
+        <v>33</v>
+      </c>
+      <c r="C22" t="s">
+        <v>179</v>
       </c>
       <c r="D22" t="s">
-        <v>348</v>
+        <v>184</v>
       </c>
       <c r="E22">
         <v>1</v>
@@ -2647,28 +2703,31 @@
       </c>
       <c r="G22" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201703_QZ1DP_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_CZ1DA_CommissionSummary.pdf</v>
       </c>
       <c r="H22" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201703_QZ1DP_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_CZ1DA_CommissionDetail.pdf</v>
       </c>
       <c r="K22" t="s">
         <v>13</v>
       </c>
       <c r="L22" t="s">
-        <v>52</v>
+        <v>223</v>
       </c>
       <c r="M22" t="s">
-        <v>53</v>
+        <v>224</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
-        <v>369</v>
+        <v>34</v>
+      </c>
+      <c r="C23" t="s">
+        <v>179</v>
       </c>
       <c r="D23" t="s">
-        <v>348</v>
+        <v>184</v>
       </c>
       <c r="E23">
         <v>1</v>
@@ -2678,28 +2737,31 @@
       </c>
       <c r="G23" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201703_CZ1DA_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_QZ1LM_CommissionSummary.pdf</v>
       </c>
       <c r="H23" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201703_CZ1DA_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_QZ1LM_CommissionDetail.pdf</v>
       </c>
       <c r="K23" t="s">
         <v>13</v>
       </c>
       <c r="L23" t="s">
-        <v>54</v>
+        <v>225</v>
       </c>
       <c r="M23" t="s">
-        <v>55</v>
+        <v>226</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
-        <v>370</v>
+        <v>35</v>
+      </c>
+      <c r="C24" t="s">
+        <v>179</v>
       </c>
       <c r="D24" t="s">
-        <v>348</v>
+        <v>184</v>
       </c>
       <c r="E24">
         <v>1</v>
@@ -2709,28 +2771,31 @@
       </c>
       <c r="G24" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201703_QZ1LM_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_CZ1EE_CommissionSummary.pdf</v>
       </c>
       <c r="H24" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201703_QZ1LM_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_CZ1EE_CommissionDetail.pdf</v>
       </c>
       <c r="K24" t="s">
         <v>13</v>
       </c>
       <c r="L24" t="s">
-        <v>56</v>
+        <v>227</v>
       </c>
       <c r="M24" t="s">
-        <v>57</v>
+        <v>228</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
-        <v>371</v>
+        <v>36</v>
+      </c>
+      <c r="C25" t="s">
+        <v>179</v>
       </c>
       <c r="D25" t="s">
-        <v>348</v>
+        <v>184</v>
       </c>
       <c r="E25">
         <v>1</v>
@@ -2740,28 +2805,31 @@
       </c>
       <c r="G25" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201703_CZ1EE_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_AZ1EK_CommissionSummary.pdf</v>
       </c>
       <c r="H25" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201703_CZ1EE_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_AZ1EK_CommissionDetail.pdf</v>
       </c>
       <c r="K25" t="s">
         <v>13</v>
       </c>
       <c r="L25" t="s">
-        <v>58</v>
+        <v>229</v>
       </c>
       <c r="M25" t="s">
-        <v>59</v>
+        <v>230</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
-        <v>372</v>
+        <v>37</v>
+      </c>
+      <c r="C26" t="s">
+        <v>179</v>
       </c>
       <c r="D26" t="s">
-        <v>348</v>
+        <v>184</v>
       </c>
       <c r="E26">
         <v>1</v>
@@ -2771,28 +2839,31 @@
       </c>
       <c r="G26" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201703_AZ1EK_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_AZ1FB_CommissionSummary.pdf</v>
       </c>
       <c r="H26" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201703_AZ1EK_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_AZ1FB_CommissionDetail.pdf</v>
       </c>
       <c r="K26" t="s">
         <v>13</v>
       </c>
       <c r="L26" t="s">
-        <v>60</v>
+        <v>231</v>
       </c>
       <c r="M26" t="s">
-        <v>61</v>
+        <v>232</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
-        <v>373</v>
+        <v>38</v>
+      </c>
+      <c r="C27" t="s">
+        <v>179</v>
       </c>
       <c r="D27" t="s">
-        <v>348</v>
+        <v>184</v>
       </c>
       <c r="E27">
         <v>1</v>
@@ -2802,28 +2873,31 @@
       </c>
       <c r="G27" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201703_AZ1FB_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_CZ1FP_CommissionSummary.pdf</v>
       </c>
       <c r="H27" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201703_AZ1FB_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_CZ1FP_CommissionDetail.pdf</v>
       </c>
       <c r="K27" t="s">
         <v>13</v>
       </c>
       <c r="L27" t="s">
-        <v>62</v>
+        <v>233</v>
       </c>
       <c r="M27" t="s">
-        <v>63</v>
+        <v>234</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
-        <v>374</v>
+        <v>39</v>
+      </c>
+      <c r="C28" t="s">
+        <v>179</v>
       </c>
       <c r="D28" t="s">
-        <v>348</v>
+        <v>184</v>
       </c>
       <c r="E28">
         <v>1</v>
@@ -2833,28 +2907,31 @@
       </c>
       <c r="G28" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201703_CZ1FP_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_QZ1FT_CommissionSummary.pdf</v>
       </c>
       <c r="H28" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201703_CZ1FP_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_QZ1FT_CommissionDetail.pdf</v>
       </c>
       <c r="K28" t="s">
         <v>13</v>
       </c>
       <c r="L28" t="s">
-        <v>64</v>
+        <v>235</v>
       </c>
       <c r="M28" t="s">
-        <v>65</v>
+        <v>236</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
-        <v>375</v>
+        <v>40</v>
+      </c>
+      <c r="C29" t="s">
+        <v>179</v>
       </c>
       <c r="D29" t="s">
-        <v>348</v>
+        <v>184</v>
       </c>
       <c r="E29">
         <v>1</v>
@@ -2864,28 +2941,31 @@
       </c>
       <c r="G29" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201703_QZ1FT_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_QZ1FS_CommissionSummary.pdf</v>
       </c>
       <c r="H29" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201703_QZ1FT_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_QZ1FS_CommissionDetail.pdf</v>
       </c>
       <c r="K29" t="s">
         <v>13</v>
       </c>
       <c r="L29" t="s">
-        <v>66</v>
+        <v>237</v>
       </c>
       <c r="M29" t="s">
-        <v>67</v>
+        <v>238</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
-        <v>376</v>
+        <v>41</v>
+      </c>
+      <c r="C30" t="s">
+        <v>179</v>
       </c>
       <c r="D30" t="s">
-        <v>348</v>
+        <v>184</v>
       </c>
       <c r="E30">
         <v>1</v>
@@ -2895,28 +2975,31 @@
       </c>
       <c r="G30" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201703_QZ1FS_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_QZ1FR_CommissionSummary.pdf</v>
       </c>
       <c r="H30" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201703_QZ1FS_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_QZ1FR_CommissionDetail.pdf</v>
       </c>
       <c r="K30" t="s">
         <v>13</v>
       </c>
       <c r="L30" t="s">
-        <v>68</v>
+        <v>239</v>
       </c>
       <c r="M30" t="s">
-        <v>69</v>
+        <v>240</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
-        <v>377</v>
+        <v>42</v>
+      </c>
+      <c r="C31" t="s">
+        <v>179</v>
       </c>
       <c r="D31" t="s">
-        <v>348</v>
+        <v>184</v>
       </c>
       <c r="E31">
         <v>1</v>
@@ -2926,28 +3009,31 @@
       </c>
       <c r="G31" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201703_QZ1FR_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_QZ1GO_CommissionSummary.pdf</v>
       </c>
       <c r="H31" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201703_QZ1FR_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_QZ1GO_CommissionDetail.pdf</v>
       </c>
       <c r="K31" t="s">
         <v>13</v>
       </c>
       <c r="L31" t="s">
-        <v>70</v>
+        <v>241</v>
       </c>
       <c r="M31" t="s">
-        <v>71</v>
+        <v>242</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
-        <v>378</v>
+        <v>43</v>
+      </c>
+      <c r="C32" t="s">
+        <v>179</v>
       </c>
       <c r="D32" t="s">
-        <v>348</v>
+        <v>184</v>
       </c>
       <c r="E32">
         <v>1</v>
@@ -2957,28 +3043,31 @@
       </c>
       <c r="G32" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201703_QZ1GO_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_AZ1KL_CommissionSummary.pdf</v>
       </c>
       <c r="H32" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201703_QZ1GO_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_AZ1KL_CommissionDetail.pdf</v>
       </c>
       <c r="K32" t="s">
         <v>13</v>
       </c>
       <c r="L32" t="s">
-        <v>72</v>
+        <v>243</v>
       </c>
       <c r="M32" t="s">
-        <v>73</v>
+        <v>244</v>
       </c>
     </row>
     <row r="33" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
-        <v>379</v>
+        <v>44</v>
+      </c>
+      <c r="C33" t="s">
+        <v>179</v>
       </c>
       <c r="D33" t="s">
-        <v>348</v>
+        <v>184</v>
       </c>
       <c r="E33">
         <v>1</v>
@@ -2988,28 +3077,31 @@
       </c>
       <c r="G33" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201703_AZ1KL_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_QZ1KK_CommissionSummary.pdf</v>
       </c>
       <c r="H33" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201703_AZ1KL_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_QZ1KK_CommissionDetail.pdf</v>
       </c>
       <c r="K33" t="s">
         <v>13</v>
       </c>
       <c r="L33" t="s">
-        <v>74</v>
+        <v>245</v>
       </c>
       <c r="M33" t="s">
-        <v>75</v>
+        <v>246</v>
       </c>
     </row>
     <row r="34" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
-        <v>380</v>
+        <v>45</v>
+      </c>
+      <c r="C34" t="s">
+        <v>179</v>
       </c>
       <c r="D34" t="s">
-        <v>348</v>
+        <v>184</v>
       </c>
       <c r="E34">
         <v>1</v>
@@ -3019,28 +3111,31 @@
       </c>
       <c r="G34" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201703_QZ1KK_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_CZ1DN_CommissionSummary.pdf</v>
       </c>
       <c r="H34" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201703_QZ1KK_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_CZ1DN_CommissionDetail.pdf</v>
       </c>
       <c r="K34" t="s">
         <v>13</v>
       </c>
       <c r="L34" t="s">
-        <v>76</v>
+        <v>247</v>
       </c>
       <c r="M34" t="s">
-        <v>77</v>
+        <v>248</v>
       </c>
     </row>
     <row r="35" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
-        <v>381</v>
+        <v>46</v>
+      </c>
+      <c r="C35" t="s">
+        <v>179</v>
       </c>
       <c r="D35" t="s">
-        <v>348</v>
+        <v>184</v>
       </c>
       <c r="E35">
         <v>1</v>
@@ -3050,28 +3145,31 @@
       </c>
       <c r="G35" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201703_CZ1DN_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_QZ1EO_CommissionSummary.pdf</v>
       </c>
       <c r="H35" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201703_CZ1DN_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_QZ1EO_CommissionDetail.pdf</v>
       </c>
       <c r="K35" t="s">
         <v>13</v>
       </c>
       <c r="L35" t="s">
-        <v>78</v>
+        <v>249</v>
       </c>
       <c r="M35" t="s">
-        <v>79</v>
+        <v>250</v>
       </c>
     </row>
     <row r="36" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
-        <v>382</v>
+        <v>47</v>
+      </c>
+      <c r="C36" t="s">
+        <v>179</v>
       </c>
       <c r="D36" t="s">
-        <v>348</v>
+        <v>184</v>
       </c>
       <c r="E36">
         <v>1</v>
@@ -3081,28 +3179,31 @@
       </c>
       <c r="G36" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201703_QZ1EO_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_CZ1CB_CommissionSummary.pdf</v>
       </c>
       <c r="H36" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201703_QZ1EO_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_CZ1CB_CommissionDetail.pdf</v>
       </c>
       <c r="K36" t="s">
         <v>13</v>
       </c>
       <c r="L36" t="s">
-        <v>80</v>
+        <v>251</v>
       </c>
       <c r="M36" t="s">
-        <v>81</v>
+        <v>252</v>
       </c>
     </row>
     <row r="37" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
-        <v>383</v>
+        <v>48</v>
+      </c>
+      <c r="C37" t="s">
+        <v>179</v>
       </c>
       <c r="D37" t="s">
-        <v>348</v>
+        <v>184</v>
       </c>
       <c r="E37">
         <v>1</v>
@@ -3112,28 +3213,31 @@
       </c>
       <c r="G37" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201703_CZ1CB_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_CZ1B8_CommissionSummary.pdf</v>
       </c>
       <c r="H37" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201703_CZ1CB_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_CZ1B8_CommissionDetail.pdf</v>
       </c>
       <c r="K37" t="s">
         <v>13</v>
       </c>
       <c r="L37" t="s">
-        <v>82</v>
+        <v>253</v>
       </c>
       <c r="M37" t="s">
-        <v>83</v>
+        <v>254</v>
       </c>
     </row>
     <row r="38" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
-        <v>384</v>
+        <v>49</v>
+      </c>
+      <c r="C38" t="s">
+        <v>179</v>
       </c>
       <c r="D38" t="s">
-        <v>348</v>
+        <v>184</v>
       </c>
       <c r="E38">
         <v>1</v>
@@ -3143,28 +3247,31 @@
       </c>
       <c r="G38" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201703_CZ1B8_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_CZ1C4_CommissionSummary.pdf</v>
       </c>
       <c r="H38" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201703_CZ1B8_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_CZ1C4_CommissionDetail.pdf</v>
       </c>
       <c r="K38" t="s">
         <v>13</v>
       </c>
       <c r="L38" t="s">
-        <v>84</v>
+        <v>255</v>
       </c>
       <c r="M38" t="s">
-        <v>85</v>
+        <v>256</v>
       </c>
     </row>
     <row r="39" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
-        <v>385</v>
+        <v>50</v>
+      </c>
+      <c r="C39" t="s">
+        <v>179</v>
       </c>
       <c r="D39" t="s">
-        <v>348</v>
+        <v>184</v>
       </c>
       <c r="E39">
         <v>1</v>
@@ -3174,28 +3281,31 @@
       </c>
       <c r="G39" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201703_CZ1C4_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_QZ1D8_CommissionSummary.pdf</v>
       </c>
       <c r="H39" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201703_CZ1C4_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_QZ1D8_CommissionDetail.pdf</v>
       </c>
       <c r="K39" t="s">
         <v>13</v>
       </c>
       <c r="L39" t="s">
-        <v>86</v>
+        <v>257</v>
       </c>
       <c r="M39" t="s">
-        <v>87</v>
+        <v>258</v>
       </c>
     </row>
     <row r="40" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
-        <v>386</v>
+        <v>51</v>
+      </c>
+      <c r="C40" t="s">
+        <v>179</v>
       </c>
       <c r="D40" t="s">
-        <v>348</v>
+        <v>184</v>
       </c>
       <c r="E40">
         <v>1</v>
@@ -3205,28 +3315,31 @@
       </c>
       <c r="G40" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201703_QZ1D8_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_CZ1SW_CommissionSummary.pdf</v>
       </c>
       <c r="H40" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201703_QZ1D8_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_CZ1SW_CommissionDetail.pdf</v>
       </c>
       <c r="K40" t="s">
         <v>13</v>
       </c>
       <c r="L40" t="s">
-        <v>88</v>
+        <v>259</v>
       </c>
       <c r="M40" t="s">
-        <v>89</v>
+        <v>260</v>
       </c>
     </row>
     <row r="41" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
-        <v>387</v>
+        <v>52</v>
+      </c>
+      <c r="C41" t="s">
+        <v>179</v>
       </c>
       <c r="D41" t="s">
-        <v>348</v>
+        <v>184</v>
       </c>
       <c r="E41">
         <v>1</v>
@@ -3236,28 +3349,31 @@
       </c>
       <c r="G41" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201703_CZ1SW_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_QZ1AP_CommissionSummary.pdf</v>
       </c>
       <c r="H41" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201703_CZ1SW_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_QZ1AP_CommissionDetail.pdf</v>
       </c>
       <c r="K41" t="s">
         <v>13</v>
       </c>
       <c r="L41" t="s">
-        <v>90</v>
+        <v>261</v>
       </c>
       <c r="M41" t="s">
-        <v>91</v>
+        <v>262</v>
       </c>
     </row>
     <row r="42" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
-        <v>388</v>
+        <v>53</v>
+      </c>
+      <c r="C42" t="s">
+        <v>179</v>
       </c>
       <c r="D42" t="s">
-        <v>348</v>
+        <v>184</v>
       </c>
       <c r="E42">
         <v>1</v>
@@ -3267,28 +3383,31 @@
       </c>
       <c r="G42" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201703_QZ1AP_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_CZ2CB_CommissionSummary.pdf</v>
       </c>
       <c r="H42" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201703_QZ1AP_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_CZ2CB_CommissionDetail.pdf</v>
       </c>
       <c r="K42" t="s">
         <v>13</v>
       </c>
       <c r="L42" t="s">
-        <v>92</v>
+        <v>263</v>
       </c>
       <c r="M42" t="s">
-        <v>93</v>
+        <v>264</v>
       </c>
     </row>
     <row r="43" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
-        <v>389</v>
+        <v>54</v>
+      </c>
+      <c r="C43" t="s">
+        <v>179</v>
       </c>
       <c r="D43" t="s">
-        <v>348</v>
+        <v>184</v>
       </c>
       <c r="E43">
         <v>1</v>
@@ -3298,28 +3417,31 @@
       </c>
       <c r="G43" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201703_CZ2CB_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_CZ1CG_CommissionSummary.pdf</v>
       </c>
       <c r="H43" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201703_CZ2CB_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_CZ1CG_CommissionDetail.pdf</v>
       </c>
       <c r="K43" t="s">
         <v>13</v>
       </c>
       <c r="L43" t="s">
-        <v>94</v>
+        <v>265</v>
       </c>
       <c r="M43" t="s">
-        <v>95</v>
+        <v>266</v>
       </c>
     </row>
     <row r="44" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
-        <v>390</v>
+        <v>55</v>
+      </c>
+      <c r="C44" t="s">
+        <v>179</v>
       </c>
       <c r="D44" t="s">
-        <v>348</v>
+        <v>184</v>
       </c>
       <c r="E44">
         <v>1</v>
@@ -3329,28 +3451,31 @@
       </c>
       <c r="G44" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201703_CZ1CG_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_AZ1PV_CommissionSummary.pdf</v>
       </c>
       <c r="H44" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201703_CZ1CG_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_AZ1PV_CommissionDetail.pdf</v>
       </c>
       <c r="K44" t="s">
         <v>13</v>
       </c>
       <c r="L44" t="s">
-        <v>96</v>
+        <v>267</v>
       </c>
       <c r="M44" t="s">
-        <v>97</v>
+        <v>268</v>
       </c>
     </row>
     <row r="45" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
-        <v>391</v>
+        <v>56</v>
+      </c>
+      <c r="C45" t="s">
+        <v>179</v>
       </c>
       <c r="D45" t="s">
-        <v>348</v>
+        <v>184</v>
       </c>
       <c r="E45">
         <v>1</v>
@@ -3360,28 +3485,31 @@
       </c>
       <c r="G45" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201703_AZ1PV_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_CZ3CB_CommissionSummary.pdf</v>
       </c>
       <c r="H45" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201703_AZ1PV_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_CZ3CB_CommissionDetail.pdf</v>
       </c>
       <c r="K45" t="s">
         <v>13</v>
       </c>
       <c r="L45" t="s">
-        <v>98</v>
+        <v>269</v>
       </c>
       <c r="M45" t="s">
-        <v>99</v>
+        <v>270</v>
       </c>
     </row>
     <row r="46" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
-        <v>392</v>
+        <v>57</v>
+      </c>
+      <c r="C46" t="s">
+        <v>179</v>
       </c>
       <c r="D46" t="s">
-        <v>348</v>
+        <v>184</v>
       </c>
       <c r="E46">
         <v>1</v>
@@ -3391,28 +3519,31 @@
       </c>
       <c r="G46" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201703_CZ3CB_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_CZ5CS_CommissionSummary.pdf</v>
       </c>
       <c r="H46" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201703_CZ3CB_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_CZ5CS_CommissionDetail.pdf</v>
       </c>
       <c r="K46" t="s">
         <v>13</v>
       </c>
       <c r="L46" t="s">
-        <v>100</v>
+        <v>271</v>
       </c>
       <c r="M46" t="s">
-        <v>101</v>
+        <v>272</v>
       </c>
     </row>
     <row r="47" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
-        <v>393</v>
+        <v>58</v>
+      </c>
+      <c r="C47" t="s">
+        <v>179</v>
       </c>
       <c r="D47" t="s">
-        <v>348</v>
+        <v>184</v>
       </c>
       <c r="E47">
         <v>1</v>
@@ -3422,28 +3553,31 @@
       </c>
       <c r="G47" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201703_CZ5CS_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_CZ8JA_CommissionSummary.pdf</v>
       </c>
       <c r="H47" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201703_CZ5CS_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_CZ8JA_CommissionDetail.pdf</v>
       </c>
       <c r="K47" t="s">
         <v>13</v>
       </c>
       <c r="L47" t="s">
-        <v>102</v>
+        <v>273</v>
       </c>
       <c r="M47" t="s">
-        <v>103</v>
+        <v>274</v>
       </c>
     </row>
     <row r="48" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
-        <v>394</v>
+        <v>177</v>
+      </c>
+      <c r="C48" t="s">
+        <v>179</v>
       </c>
       <c r="D48" t="s">
-        <v>348</v>
+        <v>184</v>
       </c>
       <c r="E48">
         <v>1</v>
@@ -3453,28 +3587,31 @@
       </c>
       <c r="G48" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201703_CZ8JA_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_QZ7JM_CommissionSummary.pdf</v>
       </c>
       <c r="H48" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201703_CZ8JA_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_QZ7JM_CommissionDetail.pdf</v>
       </c>
       <c r="K48" t="s">
         <v>13</v>
       </c>
       <c r="L48" t="s">
-        <v>104</v>
+        <v>275</v>
       </c>
       <c r="M48" t="s">
-        <v>105</v>
+        <v>276</v>
       </c>
     </row>
     <row r="49" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
-        <v>395</v>
+        <v>59</v>
+      </c>
+      <c r="C49" t="s">
+        <v>179</v>
       </c>
       <c r="D49" t="s">
-        <v>348</v>
+        <v>184</v>
       </c>
       <c r="E49">
         <v>1</v>
@@ -3484,28 +3621,31 @@
       </c>
       <c r="G49" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201703_QZ7DO_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_QZ7DO_CommissionSummary.pdf</v>
       </c>
       <c r="H49" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201703_QZ7DO_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_QZ7DO_CommissionDetail.pdf</v>
       </c>
       <c r="K49" t="s">
         <v>13</v>
       </c>
       <c r="L49" t="s">
-        <v>106</v>
+        <v>277</v>
       </c>
       <c r="M49" t="s">
-        <v>107</v>
+        <v>278</v>
       </c>
     </row>
     <row r="50" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
-        <v>396</v>
+        <v>60</v>
+      </c>
+      <c r="C50" t="s">
+        <v>179</v>
       </c>
       <c r="D50" t="s">
-        <v>348</v>
+        <v>184</v>
       </c>
       <c r="E50">
         <v>1</v>
@@ -3515,28 +3655,31 @@
       </c>
       <c r="G50" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201703_CZ5TA_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_CZ5TA_CommissionSummary.pdf</v>
       </c>
       <c r="H50" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201703_CZ5TA_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_CZ5TA_CommissionDetail.pdf</v>
       </c>
       <c r="K50" t="s">
         <v>13</v>
       </c>
       <c r="L50" t="s">
-        <v>108</v>
+        <v>279</v>
       </c>
       <c r="M50" t="s">
-        <v>109</v>
+        <v>280</v>
       </c>
     </row>
     <row r="51" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
-        <v>397</v>
+        <v>61</v>
+      </c>
+      <c r="C51" t="s">
+        <v>179</v>
       </c>
       <c r="D51" t="s">
-        <v>348</v>
+        <v>184</v>
       </c>
       <c r="E51">
         <v>1</v>
@@ -3546,28 +3689,31 @@
       </c>
       <c r="G51" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201703_CZ2LB_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_CZ2LB_CommissionSummary.pdf</v>
       </c>
       <c r="H51" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201703_CZ2LB_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_CZ2LB_CommissionDetail.pdf</v>
       </c>
       <c r="K51" t="s">
         <v>13</v>
       </c>
       <c r="L51" t="s">
-        <v>110</v>
+        <v>281</v>
       </c>
       <c r="M51" t="s">
-        <v>111</v>
+        <v>282</v>
       </c>
     </row>
     <row r="52" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B52" t="s">
-        <v>398</v>
+        <v>62</v>
+      </c>
+      <c r="C52" t="s">
+        <v>179</v>
       </c>
       <c r="D52" t="s">
-        <v>348</v>
+        <v>184</v>
       </c>
       <c r="E52">
         <v>1</v>
@@ -3577,28 +3723,31 @@
       </c>
       <c r="G52" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201703_CZ2GB_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_CZ2GB_CommissionSummary.pdf</v>
       </c>
       <c r="H52" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201703_CZ2GB_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_CZ2GB_CommissionDetail.pdf</v>
       </c>
       <c r="K52" t="s">
         <v>13</v>
       </c>
       <c r="L52" t="s">
-        <v>112</v>
+        <v>283</v>
       </c>
       <c r="M52" t="s">
-        <v>113</v>
+        <v>284</v>
       </c>
     </row>
     <row r="53" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B53" t="s">
-        <v>399</v>
+        <v>63</v>
+      </c>
+      <c r="C53" t="s">
+        <v>179</v>
       </c>
       <c r="D53" t="s">
-        <v>348</v>
+        <v>184</v>
       </c>
       <c r="E53">
         <v>1</v>
@@ -3608,28 +3757,31 @@
       </c>
       <c r="G53" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201703_CZ2LH_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_CZ2LH_CommissionSummary.pdf</v>
       </c>
       <c r="H53" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201703_CZ2LH_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_CZ2LH_CommissionDetail.pdf</v>
       </c>
       <c r="K53" t="s">
         <v>13</v>
       </c>
       <c r="L53" t="s">
-        <v>114</v>
+        <v>285</v>
       </c>
       <c r="M53" t="s">
-        <v>115</v>
+        <v>286</v>
       </c>
     </row>
     <row r="54" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B54" t="s">
-        <v>400</v>
+        <v>64</v>
+      </c>
+      <c r="C54" t="s">
+        <v>179</v>
       </c>
       <c r="D54" t="s">
-        <v>348</v>
+        <v>184</v>
       </c>
       <c r="E54">
         <v>1</v>
@@ -3639,28 +3791,31 @@
       </c>
       <c r="G54" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201703_CZ2NM_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_CZ2NM_CommissionSummary.pdf</v>
       </c>
       <c r="H54" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201703_CZ2NM_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_CZ2NM_CommissionDetail.pdf</v>
       </c>
       <c r="K54" t="s">
         <v>13</v>
       </c>
       <c r="L54" t="s">
-        <v>116</v>
+        <v>287</v>
       </c>
       <c r="M54" t="s">
-        <v>117</v>
+        <v>288</v>
       </c>
     </row>
     <row r="55" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B55" t="s">
-        <v>401</v>
+        <v>65</v>
+      </c>
+      <c r="C55" t="s">
+        <v>179</v>
       </c>
       <c r="D55" t="s">
-        <v>348</v>
+        <v>184</v>
       </c>
       <c r="E55">
         <v>1</v>
@@ -3670,28 +3825,31 @@
       </c>
       <c r="G55" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201703_QZ2SB_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_QZ2SB_CommissionSummary.pdf</v>
       </c>
       <c r="H55" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201703_QZ2SB_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_QZ2SB_CommissionDetail.pdf</v>
       </c>
       <c r="K55" t="s">
         <v>13</v>
       </c>
       <c r="L55" t="s">
-        <v>118</v>
+        <v>289</v>
       </c>
       <c r="M55" t="s">
-        <v>119</v>
+        <v>290</v>
       </c>
     </row>
     <row r="56" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B56" t="s">
-        <v>402</v>
+        <v>66</v>
+      </c>
+      <c r="C56" t="s">
+        <v>179</v>
       </c>
       <c r="D56" t="s">
-        <v>348</v>
+        <v>184</v>
       </c>
       <c r="E56">
         <v>1</v>
@@ -3701,28 +3859,31 @@
       </c>
       <c r="G56" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201703_CZ2BG_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_CZ2BG_CommissionSummary.pdf</v>
       </c>
       <c r="H56" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201703_CZ2BG_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_CZ2BG_CommissionDetail.pdf</v>
       </c>
       <c r="K56" t="s">
         <v>13</v>
       </c>
       <c r="L56" t="s">
-        <v>120</v>
+        <v>291</v>
       </c>
       <c r="M56" t="s">
-        <v>121</v>
+        <v>292</v>
       </c>
     </row>
     <row r="57" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B57" t="s">
-        <v>403</v>
+        <v>67</v>
+      </c>
+      <c r="C57" t="s">
+        <v>179</v>
       </c>
       <c r="D57" t="s">
-        <v>348</v>
+        <v>184</v>
       </c>
       <c r="E57">
         <v>1</v>
@@ -3732,28 +3893,31 @@
       </c>
       <c r="G57" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201703_CZ1SA_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_CZ1SA_CommissionSummary.pdf</v>
       </c>
       <c r="H57" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201703_CZ1SA_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_CZ1SA_CommissionDetail.pdf</v>
       </c>
       <c r="K57" t="s">
         <v>13</v>
       </c>
       <c r="L57" t="s">
-        <v>122</v>
+        <v>293</v>
       </c>
       <c r="M57" t="s">
-        <v>123</v>
+        <v>294</v>
       </c>
     </row>
     <row r="58" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B58" t="s">
-        <v>404</v>
+        <v>68</v>
+      </c>
+      <c r="C58" t="s">
+        <v>179</v>
       </c>
       <c r="D58" t="s">
-        <v>348</v>
+        <v>184</v>
       </c>
       <c r="E58">
         <v>1</v>
@@ -3763,28 +3927,31 @@
       </c>
       <c r="G58" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201703_WZ8JP_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_WZ115_CommissionSummary.pdf</v>
       </c>
       <c r="H58" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201703_WZ8JP_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_WZ115_CommissionDetail.pdf</v>
       </c>
       <c r="K58" t="s">
         <v>13</v>
       </c>
       <c r="L58" t="s">
-        <v>124</v>
+        <v>295</v>
       </c>
       <c r="M58" t="s">
-        <v>125</v>
+        <v>296</v>
       </c>
     </row>
     <row r="59" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B59" t="s">
-        <v>405</v>
+        <v>69</v>
+      </c>
+      <c r="C59" t="s">
+        <v>179</v>
       </c>
       <c r="D59" t="s">
-        <v>348</v>
+        <v>184</v>
       </c>
       <c r="E59">
         <v>1</v>
@@ -3794,28 +3961,31 @@
       </c>
       <c r="G59" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201703_WZ115_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_WZ120_CommissionSummary.pdf</v>
       </c>
       <c r="H59" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201703_WZ115_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_WZ120_CommissionDetail.pdf</v>
       </c>
       <c r="K59" t="s">
         <v>13</v>
       </c>
       <c r="L59" t="s">
-        <v>126</v>
+        <v>297</v>
       </c>
       <c r="M59" t="s">
-        <v>127</v>
+        <v>298</v>
       </c>
     </row>
     <row r="60" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B60" t="s">
-        <v>406</v>
+        <v>70</v>
+      </c>
+      <c r="C60" t="s">
+        <v>179</v>
       </c>
       <c r="D60" t="s">
-        <v>348</v>
+        <v>184</v>
       </c>
       <c r="E60">
         <v>1</v>
@@ -3825,28 +3995,31 @@
       </c>
       <c r="G60" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201703_WZ120_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_WZ118_CommissionSummary.pdf</v>
       </c>
       <c r="H60" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201703_WZ120_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_WZ118_CommissionDetail.pdf</v>
       </c>
       <c r="K60" t="s">
         <v>13</v>
       </c>
       <c r="L60" t="s">
-        <v>128</v>
+        <v>299</v>
       </c>
       <c r="M60" t="s">
-        <v>129</v>
+        <v>300</v>
       </c>
     </row>
     <row r="61" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B61" t="s">
-        <v>407</v>
+        <v>71</v>
+      </c>
+      <c r="C61" t="s">
+        <v>179</v>
       </c>
       <c r="D61" t="s">
-        <v>348</v>
+        <v>184</v>
       </c>
       <c r="E61">
         <v>1</v>
@@ -3856,28 +4029,31 @@
       </c>
       <c r="G61" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201703_WZ118_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_WZ119_CommissionSummary.pdf</v>
       </c>
       <c r="H61" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201703_WZ118_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_WZ119_CommissionDetail.pdf</v>
       </c>
       <c r="K61" t="s">
         <v>13</v>
       </c>
       <c r="L61" t="s">
-        <v>130</v>
+        <v>301</v>
       </c>
       <c r="M61" t="s">
-        <v>131</v>
+        <v>302</v>
       </c>
     </row>
     <row r="62" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B62" t="s">
-        <v>408</v>
+        <v>72</v>
+      </c>
+      <c r="C62" t="s">
+        <v>179</v>
       </c>
       <c r="D62" t="s">
-        <v>348</v>
+        <v>184</v>
       </c>
       <c r="E62">
         <v>1</v>
@@ -3887,28 +4063,31 @@
       </c>
       <c r="G62" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201703_WZ119_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_WZ138_CommissionSummary.pdf</v>
       </c>
       <c r="H62" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201703_WZ119_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_WZ138_CommissionDetail.pdf</v>
       </c>
       <c r="K62" t="s">
         <v>13</v>
       </c>
       <c r="L62" t="s">
-        <v>132</v>
+        <v>303</v>
       </c>
       <c r="M62" t="s">
-        <v>133</v>
+        <v>304</v>
       </c>
     </row>
     <row r="63" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B63" t="s">
-        <v>409</v>
+        <v>73</v>
+      </c>
+      <c r="C63" t="s">
+        <v>179</v>
       </c>
       <c r="D63" t="s">
-        <v>348</v>
+        <v>184</v>
       </c>
       <c r="E63">
         <v>1</v>
@@ -3918,28 +4097,31 @@
       </c>
       <c r="G63" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201703_WZ138_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_WZ142_CommissionSummary.pdf</v>
       </c>
       <c r="H63" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201703_WZ138_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_WZ142_CommissionDetail.pdf</v>
       </c>
       <c r="K63" t="s">
         <v>13</v>
       </c>
       <c r="L63" t="s">
-        <v>134</v>
+        <v>305</v>
       </c>
       <c r="M63" t="s">
-        <v>135</v>
+        <v>306</v>
       </c>
     </row>
     <row r="64" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B64" t="s">
-        <v>410</v>
+        <v>74</v>
+      </c>
+      <c r="C64" t="s">
+        <v>179</v>
       </c>
       <c r="D64" t="s">
-        <v>348</v>
+        <v>184</v>
       </c>
       <c r="E64">
         <v>1</v>
@@ -3949,28 +4131,31 @@
       </c>
       <c r="G64" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201703_WZ142_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_WZ134_CommissionSummary.pdf</v>
       </c>
       <c r="H64" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201703_WZ142_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_WZ134_CommissionDetail.pdf</v>
       </c>
       <c r="K64" t="s">
         <v>13</v>
       </c>
       <c r="L64" t="s">
-        <v>136</v>
+        <v>307</v>
       </c>
       <c r="M64" t="s">
-        <v>137</v>
+        <v>308</v>
       </c>
     </row>
     <row r="65" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B65" t="s">
-        <v>411</v>
+        <v>75</v>
+      </c>
+      <c r="C65" t="s">
+        <v>179</v>
       </c>
       <c r="D65" t="s">
-        <v>348</v>
+        <v>184</v>
       </c>
       <c r="E65">
         <v>1</v>
@@ -3980,28 +4165,31 @@
       </c>
       <c r="G65" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201703_WZ134_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_WZ123_CommissionSummary.pdf</v>
       </c>
       <c r="H65" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201703_WZ134_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_WZ123_CommissionDetail.pdf</v>
       </c>
       <c r="K65" t="s">
         <v>13</v>
       </c>
       <c r="L65" t="s">
-        <v>138</v>
+        <v>309</v>
       </c>
       <c r="M65" t="s">
-        <v>139</v>
+        <v>310</v>
       </c>
     </row>
     <row r="66" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B66" t="s">
-        <v>412</v>
+        <v>76</v>
+      </c>
+      <c r="C66" t="s">
+        <v>179</v>
       </c>
       <c r="D66" t="s">
-        <v>348</v>
+        <v>184</v>
       </c>
       <c r="E66">
         <v>1</v>
@@ -4011,28 +4199,31 @@
       </c>
       <c r="G66" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201703_WZ123_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_WZ136_CommissionSummary.pdf</v>
       </c>
       <c r="H66" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201703_WZ123_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_WZ136_CommissionDetail.pdf</v>
       </c>
       <c r="K66" t="s">
         <v>13</v>
       </c>
       <c r="L66" t="s">
-        <v>140</v>
+        <v>311</v>
       </c>
       <c r="M66" t="s">
-        <v>141</v>
+        <v>312</v>
       </c>
     </row>
     <row r="67" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B67" t="s">
-        <v>413</v>
+        <v>77</v>
+      </c>
+      <c r="C67" t="s">
+        <v>179</v>
       </c>
       <c r="D67" t="s">
-        <v>348</v>
+        <v>184</v>
       </c>
       <c r="E67">
         <v>1</v>
@@ -4042,28 +4233,31 @@
       </c>
       <c r="G67" t="str">
         <f t="shared" ref="G67:G130" si="2">$K67&amp;"\"&amp;L67</f>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201703_WZ136_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_WZ165_CommissionSummary.pdf</v>
       </c>
       <c r="H67" t="str">
         <f t="shared" ref="H67:H130" si="3">$K67&amp;"\"&amp;M67</f>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201703_WZ136_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_WZ165_CommissionDetail.pdf</v>
       </c>
       <c r="K67" t="s">
         <v>13</v>
       </c>
       <c r="L67" t="s">
-        <v>142</v>
+        <v>313</v>
       </c>
       <c r="M67" t="s">
-        <v>143</v>
+        <v>314</v>
       </c>
     </row>
     <row r="68" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B68" t="s">
-        <v>414</v>
+        <v>78</v>
+      </c>
+      <c r="C68" t="s">
+        <v>179</v>
       </c>
       <c r="D68" t="s">
-        <v>348</v>
+        <v>184</v>
       </c>
       <c r="E68">
         <v>1</v>
@@ -4073,28 +4267,31 @@
       </c>
       <c r="G68" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201703_WZ165_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_WZ1FF_CommissionSummary.pdf</v>
       </c>
       <c r="H68" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201703_WZ165_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_WZ1FF_CommissionDetail.pdf</v>
       </c>
       <c r="K68" t="s">
         <v>13</v>
       </c>
       <c r="L68" t="s">
-        <v>144</v>
+        <v>315</v>
       </c>
       <c r="M68" t="s">
-        <v>145</v>
+        <v>316</v>
       </c>
     </row>
     <row r="69" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B69" t="s">
-        <v>415</v>
+        <v>79</v>
+      </c>
+      <c r="C69" t="s">
+        <v>179</v>
       </c>
       <c r="D69" t="s">
-        <v>348</v>
+        <v>184</v>
       </c>
       <c r="E69">
         <v>1</v>
@@ -4104,28 +4301,31 @@
       </c>
       <c r="G69" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201703_WZ1FF_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_WZ167_CommissionSummary.pdf</v>
       </c>
       <c r="H69" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201703_WZ1FF_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_WZ167_CommissionDetail.pdf</v>
       </c>
       <c r="K69" t="s">
         <v>13</v>
       </c>
       <c r="L69" t="s">
-        <v>146</v>
+        <v>317</v>
       </c>
       <c r="M69" t="s">
-        <v>147</v>
+        <v>318</v>
       </c>
     </row>
     <row r="70" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B70" t="s">
-        <v>416</v>
+        <v>80</v>
+      </c>
+      <c r="C70" t="s">
+        <v>179</v>
       </c>
       <c r="D70" t="s">
-        <v>348</v>
+        <v>184</v>
       </c>
       <c r="E70">
         <v>1</v>
@@ -4135,28 +4335,31 @@
       </c>
       <c r="G70" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201703_WZ167_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_WZ175_CommissionSummary.pdf</v>
       </c>
       <c r="H70" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201703_WZ167_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_WZ175_CommissionDetail.pdf</v>
       </c>
       <c r="K70" t="s">
         <v>13</v>
       </c>
       <c r="L70" t="s">
-        <v>148</v>
+        <v>319</v>
       </c>
       <c r="M70" t="s">
-        <v>149</v>
+        <v>320</v>
       </c>
     </row>
     <row r="71" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B71" t="s">
-        <v>417</v>
+        <v>81</v>
+      </c>
+      <c r="C71" t="s">
+        <v>179</v>
       </c>
       <c r="D71" t="s">
-        <v>348</v>
+        <v>184</v>
       </c>
       <c r="E71">
         <v>1</v>
@@ -4166,28 +4369,31 @@
       </c>
       <c r="G71" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201703_WZ175_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_WZ177_CommissionSummary.pdf</v>
       </c>
       <c r="H71" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201703_WZ175_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_WZ177_CommissionDetail.pdf</v>
       </c>
       <c r="K71" t="s">
         <v>13</v>
       </c>
       <c r="L71" t="s">
-        <v>150</v>
+        <v>321</v>
       </c>
       <c r="M71" t="s">
-        <v>151</v>
+        <v>322</v>
       </c>
     </row>
     <row r="72" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B72" t="s">
-        <v>418</v>
+        <v>82</v>
+      </c>
+      <c r="C72" t="s">
+        <v>179</v>
       </c>
       <c r="D72" t="s">
-        <v>348</v>
+        <v>184</v>
       </c>
       <c r="E72">
         <v>1</v>
@@ -4197,28 +4403,31 @@
       </c>
       <c r="G72" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201703_WZ177_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_WZ143_CommissionSummary.pdf</v>
       </c>
       <c r="H72" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201703_WZ177_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_WZ143_CommissionDetail.pdf</v>
       </c>
       <c r="K72" t="s">
         <v>13</v>
       </c>
       <c r="L72" t="s">
-        <v>152</v>
+        <v>323</v>
       </c>
       <c r="M72" t="s">
-        <v>153</v>
+        <v>324</v>
       </c>
     </row>
     <row r="73" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B73" t="s">
-        <v>419</v>
+        <v>83</v>
+      </c>
+      <c r="C73" t="s">
+        <v>179</v>
       </c>
       <c r="D73" t="s">
-        <v>348</v>
+        <v>184</v>
       </c>
       <c r="E73">
         <v>1</v>
@@ -4228,28 +4437,31 @@
       </c>
       <c r="G73" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201703_WZ2BK_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_WZ159_CommissionSummary.pdf</v>
       </c>
       <c r="H73" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201703_WZ2BK_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_WZ159_CommissionDetail.pdf</v>
       </c>
       <c r="K73" t="s">
         <v>13</v>
       </c>
       <c r="L73" t="s">
-        <v>154</v>
+        <v>325</v>
       </c>
       <c r="M73" t="s">
-        <v>155</v>
+        <v>326</v>
       </c>
     </row>
     <row r="74" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B74" t="s">
-        <v>420</v>
+        <v>84</v>
+      </c>
+      <c r="C74" t="s">
+        <v>179</v>
       </c>
       <c r="D74" t="s">
-        <v>348</v>
+        <v>184</v>
       </c>
       <c r="E74">
         <v>1</v>
@@ -4259,28 +4471,31 @@
       </c>
       <c r="G74" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201703_WZ143_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_WZ162_CommissionSummary.pdf</v>
       </c>
       <c r="H74" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201703_WZ143_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_WZ162_CommissionDetail.pdf</v>
       </c>
       <c r="K74" t="s">
         <v>13</v>
       </c>
       <c r="L74" t="s">
-        <v>156</v>
+        <v>327</v>
       </c>
       <c r="M74" t="s">
-        <v>157</v>
+        <v>328</v>
       </c>
     </row>
     <row r="75" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B75" t="s">
-        <v>421</v>
+        <v>85</v>
+      </c>
+      <c r="C75" t="s">
+        <v>179</v>
       </c>
       <c r="D75" t="s">
-        <v>348</v>
+        <v>184</v>
       </c>
       <c r="E75">
         <v>1</v>
@@ -4290,28 +4505,31 @@
       </c>
       <c r="G75" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201703_WZ159_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_WZ113_CommissionSummary.pdf</v>
       </c>
       <c r="H75" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201703_WZ159_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_WZ113_CommissionDetail.pdf</v>
       </c>
       <c r="K75" t="s">
         <v>13</v>
       </c>
       <c r="L75" t="s">
-        <v>158</v>
+        <v>329</v>
       </c>
       <c r="M75" t="s">
-        <v>159</v>
+        <v>330</v>
       </c>
     </row>
     <row r="76" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B76" t="s">
-        <v>422</v>
+        <v>86</v>
+      </c>
+      <c r="C76" t="s">
+        <v>179</v>
       </c>
       <c r="D76" t="s">
-        <v>348</v>
+        <v>184</v>
       </c>
       <c r="E76">
         <v>1</v>
@@ -4321,28 +4539,31 @@
       </c>
       <c r="G76" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201703_WZ162_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_WZ137_CommissionSummary.pdf</v>
       </c>
       <c r="H76" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201703_WZ162_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_WZ137_CommissionDetail.pdf</v>
       </c>
       <c r="K76" t="s">
         <v>13</v>
       </c>
       <c r="L76" t="s">
-        <v>160</v>
+        <v>331</v>
       </c>
       <c r="M76" t="s">
-        <v>161</v>
+        <v>332</v>
       </c>
     </row>
     <row r="77" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B77" t="s">
-        <v>423</v>
+        <v>87</v>
+      </c>
+      <c r="C77" t="s">
+        <v>179</v>
       </c>
       <c r="D77" t="s">
-        <v>348</v>
+        <v>184</v>
       </c>
       <c r="E77">
         <v>1</v>
@@ -4352,28 +4573,31 @@
       </c>
       <c r="G77" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201703_WZ113_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_WZ1G4_CommissionSummary.pdf</v>
       </c>
       <c r="H77" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201703_WZ113_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_WZ1G4_CommissionDetail.pdf</v>
       </c>
       <c r="K77" t="s">
         <v>13</v>
       </c>
       <c r="L77" t="s">
-        <v>162</v>
+        <v>333</v>
       </c>
       <c r="M77" t="s">
-        <v>163</v>
+        <v>334</v>
       </c>
     </row>
     <row r="78" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B78" t="s">
-        <v>424</v>
+        <v>88</v>
+      </c>
+      <c r="C78" t="s">
+        <v>179</v>
       </c>
       <c r="D78" t="s">
-        <v>348</v>
+        <v>184</v>
       </c>
       <c r="E78">
         <v>1</v>
@@ -4383,28 +4607,31 @@
       </c>
       <c r="G78" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201703_WZ137_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_WZ1CE_CommissionSummary.pdf</v>
       </c>
       <c r="H78" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201703_WZ137_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_WZ1CE_CommissionDetail.pdf</v>
       </c>
       <c r="K78" t="s">
         <v>13</v>
       </c>
       <c r="L78" t="s">
-        <v>164</v>
+        <v>335</v>
       </c>
       <c r="M78" t="s">
-        <v>165</v>
+        <v>336</v>
       </c>
     </row>
     <row r="79" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B79" t="s">
-        <v>425</v>
+        <v>89</v>
+      </c>
+      <c r="C79" t="s">
+        <v>179</v>
       </c>
       <c r="D79" t="s">
-        <v>348</v>
+        <v>184</v>
       </c>
       <c r="E79">
         <v>1</v>
@@ -4414,28 +4641,31 @@
       </c>
       <c r="G79" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201703_WZ1G4_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_WZBW1_CommissionSummary.pdf</v>
       </c>
       <c r="H79" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201703_WZ1G4_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_WZBW1_CommissionDetail.pdf</v>
       </c>
       <c r="K79" t="s">
         <v>13</v>
       </c>
       <c r="L79" t="s">
-        <v>166</v>
+        <v>337</v>
       </c>
       <c r="M79" t="s">
-        <v>167</v>
+        <v>338</v>
       </c>
     </row>
     <row r="80" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B80" t="s">
-        <v>426</v>
+        <v>90</v>
+      </c>
+      <c r="C80" t="s">
+        <v>179</v>
       </c>
       <c r="D80" t="s">
-        <v>348</v>
+        <v>184</v>
       </c>
       <c r="E80">
         <v>1</v>
@@ -4445,28 +4675,31 @@
       </c>
       <c r="G80" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201703_WZ1CE_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_WZ9TS_CommissionSummary.pdf</v>
       </c>
       <c r="H80" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201703_WZ1CE_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_WZ9TS_CommissionDetail.pdf</v>
       </c>
       <c r="K80" t="s">
         <v>13</v>
       </c>
       <c r="L80" t="s">
-        <v>168</v>
+        <v>339</v>
       </c>
       <c r="M80" t="s">
-        <v>169</v>
+        <v>340</v>
       </c>
     </row>
     <row r="81" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B81" t="s">
-        <v>427</v>
+        <v>91</v>
+      </c>
+      <c r="C81" t="s">
+        <v>179</v>
       </c>
       <c r="D81" t="s">
-        <v>348</v>
+        <v>184</v>
       </c>
       <c r="E81">
         <v>1</v>
@@ -4476,28 +4709,31 @@
       </c>
       <c r="G81" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201703_WZBW1_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_WZ1HM_CommissionSummary.pdf</v>
       </c>
       <c r="H81" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201703_WZBW1_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_WZ1HM_CommissionDetail.pdf</v>
       </c>
       <c r="K81" t="s">
         <v>13</v>
       </c>
       <c r="L81" t="s">
-        <v>170</v>
+        <v>341</v>
       </c>
       <c r="M81" t="s">
-        <v>171</v>
+        <v>342</v>
       </c>
     </row>
     <row r="82" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B82" t="s">
-        <v>428</v>
+        <v>92</v>
+      </c>
+      <c r="C82" t="s">
+        <v>179</v>
       </c>
       <c r="D82" t="s">
-        <v>348</v>
+        <v>184</v>
       </c>
       <c r="E82">
         <v>1</v>
@@ -4507,28 +4743,31 @@
       </c>
       <c r="G82" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201703_WZ9TS_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_WZ1HM_CommissionSummary.pdf</v>
       </c>
       <c r="H82" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201703_WZ9TS_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_WZ1HM_CommissionDetail.pdf</v>
       </c>
       <c r="K82" t="s">
         <v>13</v>
       </c>
       <c r="L82" t="s">
-        <v>172</v>
+        <v>341</v>
       </c>
       <c r="M82" t="s">
-        <v>173</v>
+        <v>342</v>
       </c>
     </row>
     <row r="83" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B83" t="s">
-        <v>429</v>
+        <v>93</v>
+      </c>
+      <c r="C83" t="s">
+        <v>179</v>
       </c>
       <c r="D83" t="s">
-        <v>348</v>
+        <v>184</v>
       </c>
       <c r="E83">
         <v>1</v>
@@ -4538,28 +4777,31 @@
       </c>
       <c r="G83" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201703_WZ1HM_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_WZ2RP_CommissionSummary.pdf</v>
       </c>
       <c r="H83" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201703_WZ1HM_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_WZ2RP_CommissionDetail.pdf</v>
       </c>
       <c r="K83" t="s">
         <v>13</v>
       </c>
       <c r="L83" t="s">
-        <v>174</v>
+        <v>343</v>
       </c>
       <c r="M83" t="s">
-        <v>175</v>
+        <v>344</v>
       </c>
     </row>
     <row r="84" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B84" t="s">
-        <v>430</v>
+        <v>94</v>
+      </c>
+      <c r="C84" t="s">
+        <v>179</v>
       </c>
       <c r="D84" t="s">
-        <v>348</v>
+        <v>184</v>
       </c>
       <c r="E84">
         <v>1</v>
@@ -4569,28 +4811,31 @@
       </c>
       <c r="G84" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201703_WZ1HM_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_WZ1TT_CommissionSummary.pdf</v>
       </c>
       <c r="H84" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201703_WZ1HM_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_WZ1TT_CommissionDetail.pdf</v>
       </c>
       <c r="K84" t="s">
         <v>13</v>
       </c>
       <c r="L84" t="s">
-        <v>174</v>
+        <v>345</v>
       </c>
       <c r="M84" t="s">
-        <v>175</v>
+        <v>346</v>
       </c>
     </row>
     <row r="85" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B85" t="s">
-        <v>431</v>
+        <v>95</v>
+      </c>
+      <c r="C85" t="s">
+        <v>179</v>
       </c>
       <c r="D85" t="s">
-        <v>348</v>
+        <v>184</v>
       </c>
       <c r="E85">
         <v>1</v>
@@ -4600,28 +4845,31 @@
       </c>
       <c r="G85" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201703_WZ2RP_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_WZ1AM_CommissionSummary.pdf</v>
       </c>
       <c r="H85" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201703_WZ2RP_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_WZ1AM_CommissionDetail.pdf</v>
       </c>
       <c r="K85" t="s">
         <v>13</v>
       </c>
       <c r="L85" t="s">
-        <v>176</v>
+        <v>347</v>
       </c>
       <c r="M85" t="s">
-        <v>177</v>
+        <v>348</v>
       </c>
     </row>
     <row r="86" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B86" t="s">
-        <v>432</v>
+        <v>96</v>
+      </c>
+      <c r="C86" t="s">
+        <v>179</v>
       </c>
       <c r="D86" t="s">
-        <v>348</v>
+        <v>184</v>
       </c>
       <c r="E86">
         <v>1</v>
@@ -4631,28 +4879,31 @@
       </c>
       <c r="G86" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201703_WZ1TT_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_WZ1JW_CommissionSummary.pdf</v>
       </c>
       <c r="H86" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201703_WZ1TT_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_WZ1JW_CommissionDetail.pdf</v>
       </c>
       <c r="K86" t="s">
         <v>13</v>
       </c>
       <c r="L86" t="s">
-        <v>178</v>
+        <v>349</v>
       </c>
       <c r="M86" t="s">
-        <v>179</v>
+        <v>350</v>
       </c>
     </row>
     <row r="87" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B87" t="s">
-        <v>433</v>
+        <v>97</v>
+      </c>
+      <c r="C87" t="s">
+        <v>179</v>
       </c>
       <c r="D87" t="s">
-        <v>348</v>
+        <v>184</v>
       </c>
       <c r="E87">
         <v>1</v>
@@ -4662,28 +4913,31 @@
       </c>
       <c r="G87" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201703_WZ1AM_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_WZ1MH_CommissionSummary.pdf</v>
       </c>
       <c r="H87" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201703_WZ1AM_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_WZ1MH_CommissionDetail.pdf</v>
       </c>
       <c r="K87" t="s">
         <v>13</v>
       </c>
       <c r="L87" t="s">
-        <v>180</v>
+        <v>351</v>
       </c>
       <c r="M87" t="s">
-        <v>181</v>
+        <v>352</v>
       </c>
     </row>
     <row r="88" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B88" t="s">
-        <v>434</v>
+        <v>98</v>
+      </c>
+      <c r="C88" t="s">
+        <v>179</v>
       </c>
       <c r="D88" t="s">
-        <v>348</v>
+        <v>184</v>
       </c>
       <c r="E88">
         <v>1</v>
@@ -4693,28 +4947,31 @@
       </c>
       <c r="G88" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201703_WZ1JW_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_WZ1TM_CommissionSummary.pdf</v>
       </c>
       <c r="H88" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201703_WZ1JW_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_WZ1TM_CommissionDetail.pdf</v>
       </c>
       <c r="K88" t="s">
         <v>13</v>
       </c>
       <c r="L88" t="s">
-        <v>182</v>
+        <v>353</v>
       </c>
       <c r="M88" t="s">
-        <v>183</v>
+        <v>354</v>
       </c>
     </row>
     <row r="89" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B89" t="s">
-        <v>435</v>
+        <v>99</v>
+      </c>
+      <c r="C89" t="s">
+        <v>179</v>
       </c>
       <c r="D89" t="s">
-        <v>348</v>
+        <v>184</v>
       </c>
       <c r="E89">
         <v>1</v>
@@ -4724,28 +4981,31 @@
       </c>
       <c r="G89" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201703_WZ1MH_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_WZ2AM_CommissionSummary.pdf</v>
       </c>
       <c r="H89" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201703_WZ1MH_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_WZ2AM_CommissionDetail.pdf</v>
       </c>
       <c r="K89" t="s">
         <v>13</v>
       </c>
       <c r="L89" t="s">
-        <v>184</v>
+        <v>355</v>
       </c>
       <c r="M89" t="s">
-        <v>185</v>
+        <v>356</v>
       </c>
     </row>
     <row r="90" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B90" t="s">
-        <v>436</v>
+        <v>100</v>
+      </c>
+      <c r="C90" t="s">
+        <v>179</v>
       </c>
       <c r="D90" t="s">
-        <v>348</v>
+        <v>184</v>
       </c>
       <c r="E90">
         <v>1</v>
@@ -4755,28 +5015,31 @@
       </c>
       <c r="G90" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201703_WZ1TM_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_WZ1SC_CommissionSummary.pdf</v>
       </c>
       <c r="H90" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201703_WZ1TM_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_WZ1SC_CommissionDetail.pdf</v>
       </c>
       <c r="K90" t="s">
         <v>13</v>
       </c>
       <c r="L90" t="s">
-        <v>186</v>
+        <v>357</v>
       </c>
       <c r="M90" t="s">
-        <v>187</v>
+        <v>358</v>
       </c>
     </row>
     <row r="91" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B91" t="s">
-        <v>437</v>
+        <v>101</v>
+      </c>
+      <c r="C91" t="s">
+        <v>179</v>
       </c>
       <c r="D91" t="s">
-        <v>348</v>
+        <v>184</v>
       </c>
       <c r="E91">
         <v>1</v>
@@ -4786,28 +5049,31 @@
       </c>
       <c r="G91" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201703_WZ2AM_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_WZ1PB_CommissionSummary.pdf</v>
       </c>
       <c r="H91" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201703_WZ2AM_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_WZ1PB_CommissionDetail.pdf</v>
       </c>
       <c r="K91" t="s">
         <v>13</v>
       </c>
       <c r="L91" t="s">
-        <v>188</v>
+        <v>359</v>
       </c>
       <c r="M91" t="s">
-        <v>189</v>
+        <v>360</v>
       </c>
     </row>
     <row r="92" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B92" t="s">
-        <v>438</v>
+        <v>102</v>
+      </c>
+      <c r="C92" t="s">
+        <v>179</v>
       </c>
       <c r="D92" t="s">
-        <v>348</v>
+        <v>184</v>
       </c>
       <c r="E92">
         <v>1</v>
@@ -4817,28 +5083,31 @@
       </c>
       <c r="G92" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201703_WZ1SC_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_WZ1JN_CommissionSummary.pdf</v>
       </c>
       <c r="H92" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201703_WZ1SC_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_WZ1JN_CommissionDetail.pdf</v>
       </c>
       <c r="K92" t="s">
         <v>13</v>
       </c>
       <c r="L92" t="s">
-        <v>190</v>
+        <v>361</v>
       </c>
       <c r="M92" t="s">
-        <v>191</v>
+        <v>362</v>
       </c>
     </row>
     <row r="93" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B93" t="s">
-        <v>439</v>
+        <v>103</v>
+      </c>
+      <c r="C93" t="s">
+        <v>179</v>
       </c>
       <c r="D93" t="s">
-        <v>348</v>
+        <v>184</v>
       </c>
       <c r="E93">
         <v>1</v>
@@ -4848,28 +5117,31 @@
       </c>
       <c r="G93" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201703_WZ1PB_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_WZ1MK_CommissionSummary.pdf</v>
       </c>
       <c r="H93" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201703_WZ1PB_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_WZ1MK_CommissionDetail.pdf</v>
       </c>
       <c r="K93" t="s">
         <v>13</v>
       </c>
       <c r="L93" t="s">
-        <v>192</v>
+        <v>363</v>
       </c>
       <c r="M93" t="s">
-        <v>193</v>
+        <v>364</v>
       </c>
     </row>
     <row r="94" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B94" t="s">
-        <v>440</v>
+        <v>181</v>
+      </c>
+      <c r="C94" t="s">
+        <v>179</v>
       </c>
       <c r="D94" t="s">
-        <v>348</v>
+        <v>184</v>
       </c>
       <c r="E94">
         <v>1</v>
@@ -4879,28 +5151,31 @@
       </c>
       <c r="G94" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201703_WZ1JN_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_WZ1CA_CommissionSummary.pdf</v>
       </c>
       <c r="H94" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201703_WZ1JN_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_WZ1CA_CommissionDetail.pdf</v>
       </c>
       <c r="K94" t="s">
         <v>13</v>
       </c>
       <c r="L94" t="s">
-        <v>194</v>
+        <v>365</v>
       </c>
       <c r="M94" t="s">
-        <v>195</v>
+        <v>366</v>
       </c>
     </row>
     <row r="95" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B95" t="s">
-        <v>441</v>
+        <v>104</v>
+      </c>
+      <c r="C95" t="s">
+        <v>179</v>
       </c>
       <c r="D95" t="s">
-        <v>348</v>
+        <v>184</v>
       </c>
       <c r="E95">
         <v>1</v>
@@ -4910,28 +5185,31 @@
       </c>
       <c r="G95" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201703_WZ1MK_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_WZ2TM_CommissionSummary.pdf</v>
       </c>
       <c r="H95" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201703_WZ1MK_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_WZ2TM_CommissionDetail.pdf</v>
       </c>
       <c r="K95" t="s">
         <v>13</v>
       </c>
       <c r="L95" t="s">
-        <v>196</v>
+        <v>367</v>
       </c>
       <c r="M95" t="s">
-        <v>197</v>
+        <v>368</v>
       </c>
     </row>
     <row r="96" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B96" t="s">
-        <v>442</v>
+        <v>105</v>
+      </c>
+      <c r="C96" t="s">
+        <v>179</v>
       </c>
       <c r="D96" t="s">
-        <v>348</v>
+        <v>184</v>
       </c>
       <c r="E96">
         <v>1</v>
@@ -4941,28 +5219,31 @@
       </c>
       <c r="G96" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201703_WZ1CA_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_WZ1BC_CommissionSummary.pdf</v>
       </c>
       <c r="H96" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201703_WZ1CA_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_WZ1BC_CommissionDetail.pdf</v>
       </c>
       <c r="K96" t="s">
         <v>13</v>
       </c>
       <c r="L96" t="s">
-        <v>198</v>
+        <v>369</v>
       </c>
       <c r="M96" t="s">
-        <v>199</v>
+        <v>370</v>
       </c>
     </row>
     <row r="97" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B97" t="s">
-        <v>443</v>
+        <v>106</v>
+      </c>
+      <c r="C97" t="s">
+        <v>179</v>
       </c>
       <c r="D97" t="s">
-        <v>348</v>
+        <v>184</v>
       </c>
       <c r="E97">
         <v>1</v>
@@ -4972,28 +5253,31 @@
       </c>
       <c r="G97" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201703_WZ2TM_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_WZ1JL_CommissionSummary.pdf</v>
       </c>
       <c r="H97" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201703_WZ2TM_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_WZ1JL_CommissionDetail.pdf</v>
       </c>
       <c r="K97" t="s">
         <v>13</v>
       </c>
       <c r="L97" t="s">
-        <v>200</v>
+        <v>371</v>
       </c>
       <c r="M97" t="s">
-        <v>201</v>
+        <v>372</v>
       </c>
     </row>
     <row r="98" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B98" t="s">
-        <v>444</v>
+        <v>107</v>
+      </c>
+      <c r="C98" t="s">
+        <v>179</v>
       </c>
       <c r="D98" t="s">
-        <v>348</v>
+        <v>184</v>
       </c>
       <c r="E98">
         <v>1</v>
@@ -5003,28 +5287,31 @@
       </c>
       <c r="G98" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201703_WZ1BC_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_WZ1AL_CommissionSummary.pdf</v>
       </c>
       <c r="H98" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201703_WZ1BC_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_WZ1AL_CommissionDetail.pdf</v>
       </c>
       <c r="K98" t="s">
         <v>13</v>
       </c>
       <c r="L98" t="s">
-        <v>202</v>
+        <v>373</v>
       </c>
       <c r="M98" t="s">
-        <v>203</v>
+        <v>374</v>
       </c>
     </row>
     <row r="99" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B99" t="s">
-        <v>445</v>
+        <v>108</v>
+      </c>
+      <c r="C99" t="s">
+        <v>179</v>
       </c>
       <c r="D99" t="s">
-        <v>348</v>
+        <v>184</v>
       </c>
       <c r="E99">
         <v>1</v>
@@ -5034,28 +5321,31 @@
       </c>
       <c r="G99" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201703_WZ1JL_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_WZ1MW_CommissionSummary.pdf</v>
       </c>
       <c r="H99" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201703_WZ1JL_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_WZ1MW_CommissionDetail.pdf</v>
       </c>
       <c r="K99" t="s">
         <v>13</v>
       </c>
       <c r="L99" t="s">
-        <v>204</v>
+        <v>375</v>
       </c>
       <c r="M99" t="s">
-        <v>205</v>
+        <v>376</v>
       </c>
     </row>
     <row r="100" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B100" t="s">
-        <v>446</v>
+        <v>109</v>
+      </c>
+      <c r="C100" t="s">
+        <v>179</v>
       </c>
       <c r="D100" t="s">
-        <v>348</v>
+        <v>184</v>
       </c>
       <c r="E100">
         <v>1</v>
@@ -5065,28 +5355,31 @@
       </c>
       <c r="G100" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201703_WZ1JR_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_WZ1MS_CommissionSummary.pdf</v>
       </c>
       <c r="H100" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201703_WZ1JR_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_WZ1MS_CommissionDetail.pdf</v>
       </c>
       <c r="K100" t="s">
         <v>13</v>
       </c>
       <c r="L100" t="s">
-        <v>206</v>
+        <v>377</v>
       </c>
       <c r="M100" t="s">
-        <v>207</v>
+        <v>378</v>
       </c>
     </row>
     <row r="101" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B101" t="s">
-        <v>447</v>
+        <v>110</v>
+      </c>
+      <c r="C101" t="s">
+        <v>179</v>
       </c>
       <c r="D101" t="s">
-        <v>348</v>
+        <v>184</v>
       </c>
       <c r="E101">
         <v>1</v>
@@ -5096,28 +5389,31 @@
       </c>
       <c r="G101" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201703_WZ1AL_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_WZ1DF_CommissionSummary.pdf</v>
       </c>
       <c r="H101" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201703_WZ1AL_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_WZ1DF_CommissionDetail.pdf</v>
       </c>
       <c r="K101" t="s">
         <v>13</v>
       </c>
       <c r="L101" t="s">
-        <v>208</v>
+        <v>379</v>
       </c>
       <c r="M101" t="s">
-        <v>209</v>
+        <v>380</v>
       </c>
     </row>
     <row r="102" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B102" t="s">
-        <v>448</v>
+        <v>111</v>
+      </c>
+      <c r="C102" t="s">
+        <v>179</v>
       </c>
       <c r="D102" t="s">
-        <v>348</v>
+        <v>184</v>
       </c>
       <c r="E102">
         <v>1</v>
@@ -5127,28 +5423,31 @@
       </c>
       <c r="G102" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201703_WZ1MW_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_CZ1GF_CommissionSummary.pdf</v>
       </c>
       <c r="H102" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201703_WZ1MW_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_CZ1GF_CommissionDetail.pdf</v>
       </c>
       <c r="K102" t="s">
         <v>13</v>
       </c>
       <c r="L102" t="s">
-        <v>210</v>
+        <v>381</v>
       </c>
       <c r="M102" t="s">
-        <v>211</v>
+        <v>382</v>
       </c>
     </row>
     <row r="103" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B103" t="s">
-        <v>449</v>
+        <v>112</v>
+      </c>
+      <c r="C103" t="s">
+        <v>179</v>
       </c>
       <c r="D103" t="s">
-        <v>348</v>
+        <v>184</v>
       </c>
       <c r="E103">
         <v>1</v>
@@ -5158,28 +5457,31 @@
       </c>
       <c r="G103" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201703_WZ1MS_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_QZ1BP_CommissionSummary.pdf</v>
       </c>
       <c r="H103" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201703_WZ1MS_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_QZ1BP_CommissionDetail.pdf</v>
       </c>
       <c r="K103" t="s">
         <v>13</v>
       </c>
       <c r="L103" t="s">
-        <v>212</v>
+        <v>383</v>
       </c>
       <c r="M103" t="s">
-        <v>213</v>
+        <v>384</v>
       </c>
     </row>
     <row r="104" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B104" t="s">
-        <v>450</v>
+        <v>113</v>
+      </c>
+      <c r="C104" t="s">
+        <v>179</v>
       </c>
       <c r="D104" t="s">
-        <v>348</v>
+        <v>184</v>
       </c>
       <c r="E104">
         <v>1</v>
@@ -5189,28 +5491,31 @@
       </c>
       <c r="G104" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201703_WZ1DF_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_CZ1JF_CommissionSummary.pdf</v>
       </c>
       <c r="H104" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201703_WZ1DF_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_CZ1JF_CommissionDetail.pdf</v>
       </c>
       <c r="K104" t="s">
         <v>13</v>
       </c>
       <c r="L104" t="s">
-        <v>214</v>
+        <v>385</v>
       </c>
       <c r="M104" t="s">
-        <v>215</v>
+        <v>386</v>
       </c>
     </row>
     <row r="105" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B105" t="s">
-        <v>451</v>
+        <v>114</v>
+      </c>
+      <c r="C105" t="s">
+        <v>179</v>
       </c>
       <c r="D105" t="s">
-        <v>348</v>
+        <v>184</v>
       </c>
       <c r="E105">
         <v>1</v>
@@ -5220,28 +5525,31 @@
       </c>
       <c r="G105" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201703_CZ1GF_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_AZ1CI_CommissionSummary.pdf</v>
       </c>
       <c r="H105" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201703_CZ1GF_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_AZ1CI_CommissionDetail.pdf</v>
       </c>
       <c r="K105" t="s">
         <v>13</v>
       </c>
       <c r="L105" t="s">
-        <v>216</v>
+        <v>387</v>
       </c>
       <c r="M105" t="s">
-        <v>217</v>
+        <v>388</v>
       </c>
     </row>
     <row r="106" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B106" t="s">
-        <v>452</v>
+        <v>115</v>
+      </c>
+      <c r="C106" t="s">
+        <v>179</v>
       </c>
       <c r="D106" t="s">
-        <v>348</v>
+        <v>184</v>
       </c>
       <c r="E106">
         <v>1</v>
@@ -5251,28 +5559,31 @@
       </c>
       <c r="G106" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201703_QZ1BP_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_CZ1KM_CommissionSummary.pdf</v>
       </c>
       <c r="H106" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201703_QZ1BP_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_CZ1KM_CommissionDetail.pdf</v>
       </c>
       <c r="K106" t="s">
         <v>13</v>
       </c>
       <c r="L106" t="s">
-        <v>218</v>
+        <v>389</v>
       </c>
       <c r="M106" t="s">
-        <v>219</v>
+        <v>390</v>
       </c>
     </row>
     <row r="107" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B107" t="s">
-        <v>453</v>
+        <v>116</v>
+      </c>
+      <c r="C107" t="s">
+        <v>179</v>
       </c>
       <c r="D107" t="s">
-        <v>348</v>
+        <v>184</v>
       </c>
       <c r="E107">
         <v>1</v>
@@ -5282,28 +5593,31 @@
       </c>
       <c r="G107" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201703_CZ1JF_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_CZ1OV_CommissionSummary.pdf</v>
       </c>
       <c r="H107" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201703_CZ1JF_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_CZ1OV_CommissionDetail.pdf</v>
       </c>
       <c r="K107" t="s">
         <v>13</v>
       </c>
       <c r="L107" t="s">
-        <v>220</v>
+        <v>391</v>
       </c>
       <c r="M107" t="s">
-        <v>221</v>
+        <v>392</v>
       </c>
     </row>
     <row r="108" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B108" t="s">
-        <v>454</v>
+        <v>117</v>
+      </c>
+      <c r="C108" t="s">
+        <v>179</v>
       </c>
       <c r="D108" t="s">
-        <v>348</v>
+        <v>184</v>
       </c>
       <c r="E108">
         <v>1</v>
@@ -5313,28 +5627,31 @@
       </c>
       <c r="G108" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201703_AZ1CI_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_QZ1JB_CommissionSummary.pdf</v>
       </c>
       <c r="H108" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201703_AZ1CI_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_QZ1JB_CommissionDetail.pdf</v>
       </c>
       <c r="K108" t="s">
         <v>13</v>
       </c>
       <c r="L108" t="s">
-        <v>222</v>
+        <v>393</v>
       </c>
       <c r="M108" t="s">
-        <v>223</v>
+        <v>394</v>
       </c>
     </row>
     <row r="109" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B109" t="s">
-        <v>455</v>
+        <v>118</v>
+      </c>
+      <c r="C109" t="s">
+        <v>179</v>
       </c>
       <c r="D109" t="s">
-        <v>348</v>
+        <v>184</v>
       </c>
       <c r="E109">
         <v>1</v>
@@ -5344,28 +5661,31 @@
       </c>
       <c r="G109" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201703_CZ1KM_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_QZ1BG_CommissionSummary.pdf</v>
       </c>
       <c r="H109" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201703_CZ1KM_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_QZ1BG_CommissionDetail.pdf</v>
       </c>
       <c r="K109" t="s">
         <v>13</v>
       </c>
       <c r="L109" t="s">
-        <v>224</v>
+        <v>395</v>
       </c>
       <c r="M109" t="s">
-        <v>225</v>
+        <v>396</v>
       </c>
     </row>
     <row r="110" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B110" t="s">
-        <v>456</v>
+        <v>119</v>
+      </c>
+      <c r="C110" t="s">
+        <v>179</v>
       </c>
       <c r="D110" t="s">
-        <v>348</v>
+        <v>184</v>
       </c>
       <c r="E110">
         <v>1</v>
@@ -5375,28 +5695,31 @@
       </c>
       <c r="G110" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201703_CZ1OV_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_CZ1TM_CommissionSummary.pdf</v>
       </c>
       <c r="H110" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201703_CZ1OV_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_CZ1TM_CommissionDetail.pdf</v>
       </c>
       <c r="K110" t="s">
         <v>13</v>
       </c>
       <c r="L110" t="s">
-        <v>226</v>
+        <v>397</v>
       </c>
       <c r="M110" t="s">
-        <v>227</v>
+        <v>398</v>
       </c>
     </row>
     <row r="111" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B111" t="s">
-        <v>457</v>
+        <v>120</v>
+      </c>
+      <c r="C111" t="s">
+        <v>179</v>
       </c>
       <c r="D111" t="s">
-        <v>348</v>
+        <v>184</v>
       </c>
       <c r="E111">
         <v>1</v>
@@ -5406,28 +5729,31 @@
       </c>
       <c r="G111" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201703_QZ1JB_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_QZ1BM_CommissionSummary.pdf</v>
       </c>
       <c r="H111" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201703_QZ1JB_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_QZ1BM_CommissionDetail.pdf</v>
       </c>
       <c r="K111" t="s">
         <v>13</v>
       </c>
       <c r="L111" t="s">
-        <v>228</v>
+        <v>399</v>
       </c>
       <c r="M111" t="s">
-        <v>229</v>
+        <v>400</v>
       </c>
     </row>
     <row r="112" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B112" t="s">
-        <v>458</v>
+        <v>121</v>
+      </c>
+      <c r="C112" t="s">
+        <v>179</v>
       </c>
       <c r="D112" t="s">
-        <v>348</v>
+        <v>184</v>
       </c>
       <c r="E112">
         <v>1</v>
@@ -5437,28 +5763,31 @@
       </c>
       <c r="G112" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201703_QZ1BG_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_QZ1MD_CommissionSummary.pdf</v>
       </c>
       <c r="H112" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201703_QZ1BG_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_QZ1MD_CommissionDetail.pdf</v>
       </c>
       <c r="K112" t="s">
         <v>13</v>
       </c>
       <c r="L112" t="s">
-        <v>230</v>
+        <v>401</v>
       </c>
       <c r="M112" t="s">
-        <v>231</v>
+        <v>402</v>
       </c>
     </row>
     <row r="113" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B113" t="s">
-        <v>459</v>
+        <v>122</v>
+      </c>
+      <c r="C113" t="s">
+        <v>179</v>
       </c>
       <c r="D113" t="s">
-        <v>348</v>
+        <v>184</v>
       </c>
       <c r="E113">
         <v>1</v>
@@ -5468,28 +5797,31 @@
       </c>
       <c r="G113" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201703_CZ1TM_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_AZ1JB_CommissionSummary.pdf</v>
       </c>
       <c r="H113" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201703_CZ1TM_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_AZ1JB_CommissionDetail.pdf</v>
       </c>
       <c r="K113" t="s">
         <v>13</v>
       </c>
       <c r="L113" t="s">
-        <v>232</v>
+        <v>403</v>
       </c>
       <c r="M113" t="s">
-        <v>233</v>
+        <v>404</v>
       </c>
     </row>
     <row r="114" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B114" t="s">
-        <v>460</v>
+        <v>123</v>
+      </c>
+      <c r="C114" t="s">
+        <v>179</v>
       </c>
       <c r="D114" t="s">
-        <v>348</v>
+        <v>184</v>
       </c>
       <c r="E114">
         <v>1</v>
@@ -5499,28 +5831,31 @@
       </c>
       <c r="G114" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201703_QZ1BM_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_CZ1AD_CommissionSummary.pdf</v>
       </c>
       <c r="H114" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201703_QZ1BM_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_CZ1AD_CommissionDetail.pdf</v>
       </c>
       <c r="K114" t="s">
         <v>13</v>
       </c>
       <c r="L114" t="s">
-        <v>234</v>
+        <v>405</v>
       </c>
       <c r="M114" t="s">
-        <v>235</v>
+        <v>406</v>
       </c>
     </row>
     <row r="115" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B115" t="s">
-        <v>461</v>
+        <v>182</v>
+      </c>
+      <c r="C115" t="s">
+        <v>179</v>
       </c>
       <c r="D115" t="s">
-        <v>348</v>
+        <v>184</v>
       </c>
       <c r="E115">
         <v>1</v>
@@ -5530,28 +5865,31 @@
       </c>
       <c r="G115" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201703_QZ1MD_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_QZ1ML_CommissionSummary.pdf</v>
       </c>
       <c r="H115" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201703_QZ1MD_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_QZ1ML_CommissionDetail.pdf</v>
       </c>
       <c r="K115" t="s">
         <v>13</v>
       </c>
       <c r="L115" t="s">
-        <v>236</v>
+        <v>407</v>
       </c>
       <c r="M115" t="s">
-        <v>237</v>
+        <v>408</v>
       </c>
     </row>
     <row r="116" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B116" t="s">
-        <v>462</v>
+        <v>124</v>
+      </c>
+      <c r="C116" t="s">
+        <v>179</v>
       </c>
       <c r="D116" t="s">
-        <v>348</v>
+        <v>184</v>
       </c>
       <c r="E116">
         <v>1</v>
@@ -5561,28 +5899,31 @@
       </c>
       <c r="G116" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201703_AZ1JB_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_CZ1FA_CommissionSummary.pdf</v>
       </c>
       <c r="H116" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201703_AZ1JB_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_CZ1FA_CommissionDetail.pdf</v>
       </c>
       <c r="K116" t="s">
         <v>13</v>
       </c>
       <c r="L116" t="s">
-        <v>238</v>
+        <v>409</v>
       </c>
       <c r="M116" t="s">
-        <v>239</v>
+        <v>410</v>
       </c>
     </row>
     <row r="117" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B117" t="s">
-        <v>463</v>
+        <v>125</v>
+      </c>
+      <c r="C117" t="s">
+        <v>179</v>
       </c>
       <c r="D117" t="s">
-        <v>348</v>
+        <v>184</v>
       </c>
       <c r="E117">
         <v>1</v>
@@ -5592,28 +5933,31 @@
       </c>
       <c r="G117" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201703_CZ1AD_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_CZ2SA_CommissionSummary.pdf</v>
       </c>
       <c r="H117" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201703_CZ1AD_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_CZ2SA_CommissionDetail.pdf</v>
       </c>
       <c r="K117" t="s">
         <v>13</v>
       </c>
       <c r="L117" t="s">
-        <v>240</v>
+        <v>411</v>
       </c>
       <c r="M117" t="s">
-        <v>241</v>
+        <v>412</v>
       </c>
     </row>
     <row r="118" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B118" t="s">
-        <v>464</v>
+        <v>126</v>
+      </c>
+      <c r="C118" t="s">
+        <v>179</v>
       </c>
       <c r="D118" t="s">
-        <v>348</v>
+        <v>184</v>
       </c>
       <c r="E118">
         <v>1</v>
@@ -5623,28 +5967,31 @@
       </c>
       <c r="G118" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201703_CZ1FA_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_QZ1JN_CommissionSummary.pdf</v>
       </c>
       <c r="H118" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201703_CZ1FA_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_QZ1JN_CommissionDetail.pdf</v>
       </c>
       <c r="K118" t="s">
         <v>13</v>
       </c>
       <c r="L118" t="s">
-        <v>242</v>
+        <v>413</v>
       </c>
       <c r="M118" t="s">
-        <v>243</v>
+        <v>414</v>
       </c>
     </row>
     <row r="119" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B119" t="s">
-        <v>465</v>
+        <v>127</v>
+      </c>
+      <c r="C119" t="s">
+        <v>179</v>
       </c>
       <c r="D119" t="s">
-        <v>348</v>
+        <v>184</v>
       </c>
       <c r="E119">
         <v>1</v>
@@ -5654,28 +6001,31 @@
       </c>
       <c r="G119" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201703_CZ2SA_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_QZ1SL_CommissionSummary.pdf</v>
       </c>
       <c r="H119" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201703_CZ2SA_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_QZ1SL_CommissionDetail.pdf</v>
       </c>
       <c r="K119" t="s">
         <v>13</v>
       </c>
       <c r="L119" t="s">
-        <v>244</v>
+        <v>415</v>
       </c>
       <c r="M119" t="s">
-        <v>245</v>
+        <v>416</v>
       </c>
     </row>
     <row r="120" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B120" t="s">
-        <v>466</v>
+        <v>128</v>
+      </c>
+      <c r="C120" t="s">
+        <v>179</v>
       </c>
       <c r="D120" t="s">
-        <v>348</v>
+        <v>184</v>
       </c>
       <c r="E120">
         <v>1</v>
@@ -5685,28 +6035,31 @@
       </c>
       <c r="G120" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201703_QZ1JN_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_CZ1CN_CommissionSummary.pdf</v>
       </c>
       <c r="H120" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201703_QZ1JN_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_CZ1CN_CommissionDetail.pdf</v>
       </c>
       <c r="K120" t="s">
         <v>13</v>
       </c>
       <c r="L120" t="s">
-        <v>246</v>
+        <v>417</v>
       </c>
       <c r="M120" t="s">
-        <v>247</v>
+        <v>418</v>
       </c>
     </row>
     <row r="121" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B121" t="s">
-        <v>467</v>
+        <v>129</v>
+      </c>
+      <c r="C121" t="s">
+        <v>179</v>
       </c>
       <c r="D121" t="s">
-        <v>348</v>
+        <v>184</v>
       </c>
       <c r="E121">
         <v>1</v>
@@ -5716,28 +6069,31 @@
       </c>
       <c r="G121" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201703_QZ1SL_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_AZ1YU_CommissionSummary.pdf</v>
       </c>
       <c r="H121" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201703_QZ1SL_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_AZ1YU_CommissionDetail.pdf</v>
       </c>
       <c r="K121" t="s">
         <v>13</v>
       </c>
       <c r="L121" t="s">
-        <v>248</v>
+        <v>419</v>
       </c>
       <c r="M121" t="s">
-        <v>249</v>
+        <v>420</v>
       </c>
     </row>
     <row r="122" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B122" t="s">
-        <v>468</v>
+        <v>130</v>
+      </c>
+      <c r="C122" t="s">
+        <v>179</v>
       </c>
       <c r="D122" t="s">
-        <v>348</v>
+        <v>184</v>
       </c>
       <c r="E122">
         <v>1</v>
@@ -5747,28 +6103,31 @@
       </c>
       <c r="G122" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201703_AZ1CM_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_AZ1WX_CommissionSummary.pdf</v>
       </c>
       <c r="H122" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201703_AZ1CM_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_AZ1WX_CommissionDetail.pdf</v>
       </c>
       <c r="K122" t="s">
         <v>13</v>
       </c>
       <c r="L122" t="s">
-        <v>250</v>
+        <v>421</v>
       </c>
       <c r="M122" t="s">
-        <v>251</v>
+        <v>422</v>
       </c>
     </row>
     <row r="123" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B123" t="s">
-        <v>469</v>
+        <v>131</v>
+      </c>
+      <c r="C123" t="s">
+        <v>179</v>
       </c>
       <c r="D123" t="s">
-        <v>348</v>
+        <v>184</v>
       </c>
       <c r="E123">
         <v>1</v>
@@ -5778,28 +6137,31 @@
       </c>
       <c r="G123" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201703_CZ1CN_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_AZ1XF_CommissionSummary.pdf</v>
       </c>
       <c r="H123" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201703_CZ1CN_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_AZ1XF_CommissionDetail.pdf</v>
       </c>
       <c r="K123" t="s">
         <v>13</v>
       </c>
       <c r="L123" t="s">
-        <v>252</v>
+        <v>423</v>
       </c>
       <c r="M123" t="s">
-        <v>253</v>
+        <v>424</v>
       </c>
     </row>
     <row r="124" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B124" t="s">
-        <v>470</v>
+        <v>132</v>
+      </c>
+      <c r="C124" t="s">
+        <v>179</v>
       </c>
       <c r="D124" t="s">
-        <v>348</v>
+        <v>184</v>
       </c>
       <c r="E124">
         <v>1</v>
@@ -5809,28 +6171,31 @@
       </c>
       <c r="G124" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201703_AZ1YU_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_AZ1XT_CommissionSummary.pdf</v>
       </c>
       <c r="H124" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201703_AZ1YU_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_AZ1XT_CommissionDetail.pdf</v>
       </c>
       <c r="K124" t="s">
         <v>13</v>
       </c>
       <c r="L124" t="s">
-        <v>254</v>
+        <v>425</v>
       </c>
       <c r="M124" t="s">
-        <v>255</v>
+        <v>426</v>
       </c>
     </row>
     <row r="125" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B125" t="s">
-        <v>471</v>
+        <v>133</v>
+      </c>
+      <c r="C125" t="s">
+        <v>179</v>
       </c>
       <c r="D125" t="s">
-        <v>348</v>
+        <v>184</v>
       </c>
       <c r="E125">
         <v>1</v>
@@ -5840,28 +6205,31 @@
       </c>
       <c r="G125" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201703_AZ1WX_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_AZ1YP_CommissionSummary.pdf</v>
       </c>
       <c r="H125" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201703_AZ1WX_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_AZ1YP_CommissionDetail.pdf</v>
       </c>
       <c r="K125" t="s">
         <v>13</v>
       </c>
       <c r="L125" t="s">
-        <v>256</v>
+        <v>427</v>
       </c>
       <c r="M125" t="s">
-        <v>257</v>
+        <v>428</v>
       </c>
     </row>
     <row r="126" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B126" t="s">
-        <v>472</v>
+        <v>134</v>
+      </c>
+      <c r="C126" t="s">
+        <v>179</v>
       </c>
       <c r="D126" t="s">
-        <v>348</v>
+        <v>184</v>
       </c>
       <c r="E126">
         <v>1</v>
@@ -5871,28 +6239,31 @@
       </c>
       <c r="G126" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201703_AZ1XF_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_QZ1XH_CommissionSummary.pdf</v>
       </c>
       <c r="H126" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201703_AZ1XF_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_QZ1XH_CommissionDetail.pdf</v>
       </c>
       <c r="K126" t="s">
         <v>13</v>
       </c>
       <c r="L126" t="s">
-        <v>258</v>
+        <v>429</v>
       </c>
       <c r="M126" t="s">
-        <v>259</v>
+        <v>430</v>
       </c>
     </row>
     <row r="127" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B127" t="s">
-        <v>473</v>
+        <v>135</v>
+      </c>
+      <c r="C127" t="s">
+        <v>179</v>
       </c>
       <c r="D127" t="s">
-        <v>348</v>
+        <v>184</v>
       </c>
       <c r="E127">
         <v>1</v>
@@ -5902,28 +6273,31 @@
       </c>
       <c r="G127" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201703_AZ1XT_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_QZ1TB_CommissionSummary.pdf</v>
       </c>
       <c r="H127" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201703_AZ1XT_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_QZ1TB_CommissionDetail.pdf</v>
       </c>
       <c r="K127" t="s">
         <v>13</v>
       </c>
       <c r="L127" t="s">
-        <v>260</v>
+        <v>431</v>
       </c>
       <c r="M127" t="s">
-        <v>261</v>
+        <v>432</v>
       </c>
     </row>
     <row r="128" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B128" t="s">
-        <v>474</v>
+        <v>136</v>
+      </c>
+      <c r="C128" t="s">
+        <v>179</v>
       </c>
       <c r="D128" t="s">
-        <v>348</v>
+        <v>184</v>
       </c>
       <c r="E128">
         <v>1</v>
@@ -5933,28 +6307,31 @@
       </c>
       <c r="G128" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201703_AZ1YP_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_QZ1TD_CommissionSummary.pdf</v>
       </c>
       <c r="H128" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201703_AZ1YP_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_QZ1TD_CommissionDetail.pdf</v>
       </c>
       <c r="K128" t="s">
         <v>13</v>
       </c>
       <c r="L128" t="s">
-        <v>262</v>
+        <v>433</v>
       </c>
       <c r="M128" t="s">
-        <v>263</v>
+        <v>434</v>
       </c>
     </row>
     <row r="129" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B129" t="s">
-        <v>475</v>
+        <v>137</v>
+      </c>
+      <c r="C129" t="s">
+        <v>179</v>
       </c>
       <c r="D129" t="s">
-        <v>348</v>
+        <v>184</v>
       </c>
       <c r="E129">
         <v>1</v>
@@ -5964,28 +6341,31 @@
       </c>
       <c r="G129" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201703_QZ1XH_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_QZ1TK_CommissionSummary.pdf</v>
       </c>
       <c r="H129" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201703_QZ1XH_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_QZ1TK_CommissionDetail.pdf</v>
       </c>
       <c r="K129" t="s">
         <v>13</v>
       </c>
       <c r="L129" t="s">
-        <v>264</v>
+        <v>435</v>
       </c>
       <c r="M129" t="s">
-        <v>265</v>
+        <v>436</v>
       </c>
     </row>
     <row r="130" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B130" t="s">
-        <v>476</v>
+        <v>138</v>
+      </c>
+      <c r="C130" t="s">
+        <v>179</v>
       </c>
       <c r="D130" t="s">
-        <v>348</v>
+        <v>184</v>
       </c>
       <c r="E130">
         <v>1</v>
@@ -5995,28 +6375,31 @@
       </c>
       <c r="G130" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201703_QZ1TB_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_QZ1YE_CommissionSummary.pdf</v>
       </c>
       <c r="H130" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201703_QZ1TB_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_QZ1YE_CommissionDetail.pdf</v>
       </c>
       <c r="K130" t="s">
         <v>13</v>
       </c>
       <c r="L130" t="s">
-        <v>266</v>
+        <v>437</v>
       </c>
       <c r="M130" t="s">
-        <v>267</v>
+        <v>438</v>
       </c>
     </row>
     <row r="131" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B131" t="s">
-        <v>477</v>
+        <v>139</v>
+      </c>
+      <c r="C131" t="s">
+        <v>179</v>
       </c>
       <c r="D131" t="s">
-        <v>348</v>
+        <v>184</v>
       </c>
       <c r="E131">
         <v>1</v>
@@ -6025,29 +6408,32 @@
         <v>2</v>
       </c>
       <c r="G131" t="str">
-        <f t="shared" ref="G131:G171" si="4">$K131&amp;"\"&amp;L131</f>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201703_QZ1TD_CommissionSummary.pdf</v>
+        <f t="shared" ref="G131:G170" si="4">$K131&amp;"\"&amp;L131</f>
+        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_QZ1TE_CommissionSummary.pdf</v>
       </c>
       <c r="H131" t="str">
-        <f t="shared" ref="H131:H171" si="5">$K131&amp;"\"&amp;M131</f>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201703_QZ1TD_CommissionDetail.pdf</v>
+        <f t="shared" ref="H131:H170" si="5">$K131&amp;"\"&amp;M131</f>
+        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_QZ1TE_CommissionDetail.pdf</v>
       </c>
       <c r="K131" t="s">
         <v>13</v>
       </c>
       <c r="L131" t="s">
-        <v>268</v>
+        <v>439</v>
       </c>
       <c r="M131" t="s">
-        <v>269</v>
+        <v>440</v>
       </c>
     </row>
     <row r="132" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B132" t="s">
-        <v>478</v>
+        <v>140</v>
+      </c>
+      <c r="C132" t="s">
+        <v>179</v>
       </c>
       <c r="D132" t="s">
-        <v>348</v>
+        <v>184</v>
       </c>
       <c r="E132">
         <v>1</v>
@@ -6057,28 +6443,31 @@
       </c>
       <c r="G132" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201703_QZ1TK_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_QZ1TI_CommissionSummary.pdf</v>
       </c>
       <c r="H132" t="str">
         <f t="shared" si="5"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201703_QZ1TK_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_QZ1TI_CommissionDetail.pdf</v>
       </c>
       <c r="K132" t="s">
         <v>13</v>
       </c>
       <c r="L132" t="s">
-        <v>270</v>
+        <v>441</v>
       </c>
       <c r="M132" t="s">
-        <v>271</v>
+        <v>442</v>
       </c>
     </row>
     <row r="133" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B133" t="s">
-        <v>479</v>
+        <v>141</v>
+      </c>
+      <c r="C133" t="s">
+        <v>179</v>
       </c>
       <c r="D133" t="s">
-        <v>348</v>
+        <v>184</v>
       </c>
       <c r="E133">
         <v>1</v>
@@ -6088,28 +6477,31 @@
       </c>
       <c r="G133" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201703_QZ1YE_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_CZ1YI_CommissionSummary.pdf</v>
       </c>
       <c r="H133" t="str">
         <f t="shared" si="5"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201703_QZ1YE_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_CZ1YI_CommissionDetail.pdf</v>
       </c>
       <c r="K133" t="s">
         <v>13</v>
       </c>
-      <c r="L133" s="3" t="s">
-        <v>272</v>
+      <c r="L133" t="s">
+        <v>443</v>
       </c>
       <c r="M133" t="s">
-        <v>273</v>
+        <v>444</v>
       </c>
     </row>
     <row r="134" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B134" t="s">
-        <v>480</v>
+        <v>142</v>
+      </c>
+      <c r="C134" t="s">
+        <v>179</v>
       </c>
       <c r="D134" t="s">
-        <v>348</v>
+        <v>184</v>
       </c>
       <c r="E134">
         <v>1</v>
@@ -6119,28 +6511,31 @@
       </c>
       <c r="G134" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201703_QZ1TE_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_CZ1YW_CommissionSummary.pdf</v>
       </c>
       <c r="H134" t="str">
         <f t="shared" si="5"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201703_QZ1TE_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_CZ1YW_CommissionDetail.pdf</v>
       </c>
       <c r="K134" t="s">
         <v>13</v>
       </c>
-      <c r="L134" s="3" t="s">
-        <v>274</v>
+      <c r="L134" t="s">
+        <v>445</v>
       </c>
       <c r="M134" t="s">
-        <v>275</v>
+        <v>446</v>
       </c>
     </row>
     <row r="135" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B135" t="s">
-        <v>481</v>
+        <v>143</v>
+      </c>
+      <c r="C135" t="s">
+        <v>179</v>
       </c>
       <c r="D135" t="s">
-        <v>348</v>
+        <v>184</v>
       </c>
       <c r="E135">
         <v>1</v>
@@ -6150,28 +6545,31 @@
       </c>
       <c r="G135" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201703_QZ1TI_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_CZ1UE_CommissionSummary.pdf</v>
       </c>
       <c r="H135" t="str">
         <f t="shared" si="5"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201703_QZ1TI_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_CZ1UE_CommissionDetail.pdf</v>
       </c>
       <c r="K135" t="s">
         <v>13</v>
       </c>
       <c r="L135" t="s">
-        <v>276</v>
+        <v>447</v>
       </c>
       <c r="M135" t="s">
-        <v>277</v>
+        <v>448</v>
       </c>
     </row>
     <row r="136" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B136" t="s">
-        <v>482</v>
+        <v>144</v>
+      </c>
+      <c r="C136" t="s">
+        <v>179</v>
       </c>
       <c r="D136" t="s">
-        <v>348</v>
+        <v>184</v>
       </c>
       <c r="E136">
         <v>1</v>
@@ -6181,28 +6579,31 @@
       </c>
       <c r="G136" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201703_CZ1YI_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_CZ1MJ_CommissionSummary.pdf</v>
       </c>
       <c r="H136" t="str">
         <f t="shared" si="5"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201703_CZ1YI_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_CZ1MJ_CommissionDetail.pdf</v>
       </c>
       <c r="K136" t="s">
         <v>13</v>
       </c>
       <c r="L136" t="s">
-        <v>278</v>
+        <v>449</v>
       </c>
       <c r="M136" t="s">
-        <v>279</v>
+        <v>450</v>
       </c>
     </row>
     <row r="137" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B137" t="s">
-        <v>483</v>
+        <v>145</v>
+      </c>
+      <c r="C137" t="s">
+        <v>179</v>
       </c>
       <c r="D137" t="s">
-        <v>348</v>
+        <v>184</v>
       </c>
       <c r="E137">
         <v>1</v>
@@ -6212,28 +6613,31 @@
       </c>
       <c r="G137" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201703_CZ1YW_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_CZ1VG_CommissionSummary.pdf</v>
       </c>
       <c r="H137" t="str">
         <f t="shared" si="5"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201703_CZ1YW_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_CZ1VG_CommissionDetail.pdf</v>
       </c>
       <c r="K137" t="s">
         <v>13</v>
       </c>
       <c r="L137" t="s">
-        <v>280</v>
+        <v>451</v>
       </c>
       <c r="M137" t="s">
-        <v>281</v>
+        <v>452</v>
       </c>
     </row>
     <row r="138" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B138" t="s">
-        <v>484</v>
+        <v>146</v>
+      </c>
+      <c r="C138" t="s">
+        <v>179</v>
       </c>
       <c r="D138" t="s">
-        <v>348</v>
+        <v>184</v>
       </c>
       <c r="E138">
         <v>1</v>
@@ -6243,28 +6647,31 @@
       </c>
       <c r="G138" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201703_CZ1UE_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_CZ1VJ_CommissionSummary.pdf</v>
       </c>
       <c r="H138" t="str">
         <f t="shared" si="5"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201703_CZ1UE_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_CZ1VJ_CommissionDetail.pdf</v>
       </c>
       <c r="K138" t="s">
         <v>13</v>
       </c>
       <c r="L138" t="s">
-        <v>282</v>
+        <v>453</v>
       </c>
       <c r="M138" t="s">
-        <v>283</v>
+        <v>454</v>
       </c>
     </row>
     <row r="139" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B139" t="s">
-        <v>485</v>
+        <v>147</v>
+      </c>
+      <c r="C139" t="s">
+        <v>179</v>
       </c>
       <c r="D139" t="s">
-        <v>348</v>
+        <v>184</v>
       </c>
       <c r="E139">
         <v>1</v>
@@ -6274,28 +6681,31 @@
       </c>
       <c r="G139" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201703_CZ1MJ_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_CZ1MI_CommissionSummary.pdf</v>
       </c>
       <c r="H139" t="str">
         <f t="shared" si="5"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201703_CZ1MJ_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_CZ1MI_CommissionDetail.pdf</v>
       </c>
       <c r="K139" t="s">
         <v>13</v>
       </c>
       <c r="L139" t="s">
-        <v>284</v>
+        <v>455</v>
       </c>
       <c r="M139" t="s">
-        <v>285</v>
+        <v>456</v>
       </c>
     </row>
     <row r="140" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B140" t="s">
-        <v>486</v>
+        <v>148</v>
+      </c>
+      <c r="C140" t="s">
+        <v>179</v>
       </c>
       <c r="D140" t="s">
-        <v>348</v>
+        <v>184</v>
       </c>
       <c r="E140">
         <v>1</v>
@@ -6305,28 +6715,31 @@
       </c>
       <c r="G140" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201703_CZ1VG_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_CZ1XD_CommissionSummary.pdf</v>
       </c>
       <c r="H140" t="str">
         <f t="shared" si="5"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201703_CZ1VG_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_CZ1XD_CommissionDetail.pdf</v>
       </c>
       <c r="K140" t="s">
         <v>13</v>
       </c>
       <c r="L140" t="s">
-        <v>286</v>
+        <v>457</v>
       </c>
       <c r="M140" t="s">
-        <v>287</v>
+        <v>458</v>
       </c>
     </row>
     <row r="141" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B141" t="s">
-        <v>487</v>
+        <v>149</v>
+      </c>
+      <c r="C141" t="s">
+        <v>179</v>
       </c>
       <c r="D141" t="s">
-        <v>348</v>
+        <v>184</v>
       </c>
       <c r="E141">
         <v>1</v>
@@ -6336,28 +6749,31 @@
       </c>
       <c r="G141" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201703_CZ1VJ_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_CZ1XB_CommissionSummary.pdf</v>
       </c>
       <c r="H141" t="str">
         <f t="shared" si="5"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201703_CZ1VJ_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_CZ1XB_CommissionDetail.pdf</v>
       </c>
       <c r="K141" t="s">
         <v>13</v>
       </c>
       <c r="L141" t="s">
-        <v>288</v>
+        <v>459</v>
       </c>
       <c r="M141" t="s">
-        <v>289</v>
+        <v>460</v>
       </c>
     </row>
     <row r="142" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B142" t="s">
-        <v>488</v>
+        <v>150</v>
+      </c>
+      <c r="C142" t="s">
+        <v>179</v>
       </c>
       <c r="D142" t="s">
-        <v>348</v>
+        <v>184</v>
       </c>
       <c r="E142">
         <v>1</v>
@@ -6367,28 +6783,31 @@
       </c>
       <c r="G142" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201703_CZ1MI_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_CZ1WT_CommissionSummary.pdf</v>
       </c>
       <c r="H142" t="str">
         <f t="shared" si="5"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201703_CZ1MI_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_CZ1WT_CommissionDetail.pdf</v>
       </c>
       <c r="K142" t="s">
         <v>13</v>
       </c>
       <c r="L142" t="s">
-        <v>290</v>
+        <v>461</v>
       </c>
       <c r="M142" t="s">
-        <v>291</v>
+        <v>462</v>
       </c>
     </row>
     <row r="143" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B143" t="s">
-        <v>489</v>
+        <v>151</v>
+      </c>
+      <c r="C143" t="s">
+        <v>179</v>
       </c>
       <c r="D143" t="s">
-        <v>348</v>
+        <v>184</v>
       </c>
       <c r="E143">
         <v>1</v>
@@ -6398,28 +6817,31 @@
       </c>
       <c r="G143" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201703_CZ1XD_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_CZ1XA_CommissionSummary.pdf</v>
       </c>
       <c r="H143" t="str">
         <f t="shared" si="5"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201703_CZ1XD_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_CZ1XA_CommissionDetail.pdf</v>
       </c>
       <c r="K143" t="s">
         <v>13</v>
       </c>
       <c r="L143" t="s">
-        <v>292</v>
+        <v>463</v>
       </c>
       <c r="M143" t="s">
-        <v>293</v>
+        <v>464</v>
       </c>
     </row>
     <row r="144" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B144" t="s">
-        <v>490</v>
+        <v>152</v>
+      </c>
+      <c r="C144" t="s">
+        <v>179</v>
       </c>
       <c r="D144" t="s">
-        <v>348</v>
+        <v>184</v>
       </c>
       <c r="E144">
         <v>1</v>
@@ -6429,28 +6851,31 @@
       </c>
       <c r="G144" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201703_CZ1XB_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_WZ2KF_CommissionSummary.pdf</v>
       </c>
       <c r="H144" t="str">
         <f t="shared" si="5"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201703_CZ1XB_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_WZ2KF_CommissionDetail.pdf</v>
       </c>
       <c r="K144" t="s">
         <v>13</v>
       </c>
       <c r="L144" t="s">
-        <v>294</v>
+        <v>465</v>
       </c>
       <c r="M144" t="s">
-        <v>295</v>
+        <v>466</v>
       </c>
     </row>
     <row r="145" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B145" t="s">
-        <v>491</v>
+        <v>153</v>
+      </c>
+      <c r="C145" t="s">
+        <v>179</v>
       </c>
       <c r="D145" t="s">
-        <v>348</v>
+        <v>184</v>
       </c>
       <c r="E145">
         <v>1</v>
@@ -6460,28 +6885,31 @@
       </c>
       <c r="G145" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201703_CZ1WT_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_WZ148_CommissionSummary.pdf</v>
       </c>
       <c r="H145" t="str">
         <f t="shared" si="5"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201703_CZ1WT_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_WZ148_CommissionDetail.pdf</v>
       </c>
       <c r="K145" t="s">
         <v>13</v>
       </c>
       <c r="L145" t="s">
-        <v>296</v>
+        <v>467</v>
       </c>
       <c r="M145" t="s">
-        <v>297</v>
+        <v>468</v>
       </c>
     </row>
     <row r="146" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B146" t="s">
-        <v>492</v>
+        <v>154</v>
+      </c>
+      <c r="C146" t="s">
+        <v>179</v>
       </c>
       <c r="D146" t="s">
-        <v>348</v>
+        <v>184</v>
       </c>
       <c r="E146">
         <v>1</v>
@@ -6491,28 +6919,31 @@
       </c>
       <c r="G146" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201703_CZ1XA_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_WZ8GM_CommissionSummary.pdf</v>
       </c>
       <c r="H146" t="str">
         <f t="shared" si="5"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201703_CZ1XA_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_WZ8GM_CommissionDetail.pdf</v>
       </c>
       <c r="K146" t="s">
         <v>13</v>
       </c>
       <c r="L146" t="s">
-        <v>298</v>
+        <v>469</v>
       </c>
       <c r="M146" t="s">
-        <v>299</v>
+        <v>470</v>
       </c>
     </row>
     <row r="147" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B147" t="s">
-        <v>493</v>
+        <v>155</v>
+      </c>
+      <c r="C147" t="s">
+        <v>179</v>
       </c>
       <c r="D147" t="s">
-        <v>348</v>
+        <v>184</v>
       </c>
       <c r="E147">
         <v>1</v>
@@ -6522,28 +6953,31 @@
       </c>
       <c r="G147" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201703_WZ2KF_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_WZ1BH_CommissionSummary.pdf</v>
       </c>
       <c r="H147" t="str">
         <f t="shared" si="5"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201703_WZ2KF_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_WZ1BH_CommissionDetail.pdf</v>
       </c>
       <c r="K147" t="s">
         <v>13</v>
       </c>
       <c r="L147" t="s">
-        <v>300</v>
+        <v>471</v>
       </c>
       <c r="M147" t="s">
-        <v>301</v>
+        <v>472</v>
       </c>
     </row>
     <row r="148" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B148" t="s">
-        <v>494</v>
+        <v>156</v>
+      </c>
+      <c r="C148" t="s">
+        <v>179</v>
       </c>
       <c r="D148" t="s">
-        <v>348</v>
+        <v>184</v>
       </c>
       <c r="E148">
         <v>1</v>
@@ -6553,28 +6987,31 @@
       </c>
       <c r="G148" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201703_WZ148_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_WZ114_CommissionSummary.pdf</v>
       </c>
       <c r="H148" t="str">
         <f t="shared" si="5"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201703_WZ148_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_WZ114_CommissionDetail.pdf</v>
       </c>
       <c r="K148" t="s">
         <v>13</v>
       </c>
       <c r="L148" t="s">
-        <v>302</v>
+        <v>473</v>
       </c>
       <c r="M148" t="s">
-        <v>303</v>
+        <v>474</v>
       </c>
     </row>
     <row r="149" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B149" t="s">
-        <v>495</v>
+        <v>157</v>
+      </c>
+      <c r="C149" t="s">
+        <v>179</v>
       </c>
       <c r="D149" t="s">
-        <v>348</v>
+        <v>184</v>
       </c>
       <c r="E149">
         <v>1</v>
@@ -6584,28 +7021,31 @@
       </c>
       <c r="G149" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201703_WZ8GM_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_WZ1A6_CommissionSummary.pdf</v>
       </c>
       <c r="H149" t="str">
         <f t="shared" si="5"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201703_WZ8GM_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_WZ1A6_CommissionDetail.pdf</v>
       </c>
       <c r="K149" t="s">
         <v>13</v>
       </c>
       <c r="L149" t="s">
-        <v>304</v>
+        <v>475</v>
       </c>
       <c r="M149" t="s">
-        <v>305</v>
+        <v>476</v>
       </c>
     </row>
     <row r="150" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B150" t="s">
-        <v>496</v>
+        <v>158</v>
+      </c>
+      <c r="C150" t="s">
+        <v>179</v>
       </c>
       <c r="D150" t="s">
-        <v>348</v>
+        <v>184</v>
       </c>
       <c r="E150">
         <v>1</v>
@@ -6615,28 +7055,31 @@
       </c>
       <c r="G150" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201703_WZ1BH_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_WZ139_CommissionSummary.pdf</v>
       </c>
       <c r="H150" t="str">
         <f t="shared" si="5"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201703_WZ1BH_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_WZ139_CommissionDetail.pdf</v>
       </c>
       <c r="K150" t="s">
         <v>13</v>
       </c>
       <c r="L150" t="s">
-        <v>306</v>
+        <v>477</v>
       </c>
       <c r="M150" t="s">
-        <v>307</v>
+        <v>478</v>
       </c>
     </row>
     <row r="151" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B151" t="s">
-        <v>497</v>
+        <v>159</v>
+      </c>
+      <c r="C151" t="s">
+        <v>179</v>
       </c>
       <c r="D151" t="s">
-        <v>348</v>
+        <v>184</v>
       </c>
       <c r="E151">
         <v>1</v>
@@ -6646,28 +7089,31 @@
       </c>
       <c r="G151" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201703_WZ114_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_CZ1VL_CommissionSummary.pdf</v>
       </c>
       <c r="H151" t="str">
         <f t="shared" si="5"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201703_WZ114_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_CZ1VL_CommissionDetail.pdf</v>
       </c>
       <c r="K151" t="s">
         <v>13</v>
       </c>
       <c r="L151" t="s">
-        <v>308</v>
+        <v>479</v>
       </c>
       <c r="M151" t="s">
-        <v>309</v>
+        <v>480</v>
       </c>
     </row>
     <row r="152" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B152" t="s">
-        <v>498</v>
+        <v>160</v>
+      </c>
+      <c r="C152" t="s">
+        <v>179</v>
       </c>
       <c r="D152" t="s">
-        <v>348</v>
+        <v>184</v>
       </c>
       <c r="E152">
         <v>1</v>
@@ -6677,28 +7123,31 @@
       </c>
       <c r="G152" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201703_WZ1A6_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_CZ1VK_CommissionSummary.pdf</v>
       </c>
       <c r="H152" t="str">
         <f t="shared" si="5"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201703_WZ1A6_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_CZ1VK_CommissionDetail.pdf</v>
       </c>
       <c r="K152" t="s">
         <v>13</v>
       </c>
       <c r="L152" t="s">
-        <v>310</v>
+        <v>481</v>
       </c>
       <c r="M152" t="s">
-        <v>311</v>
+        <v>482</v>
       </c>
     </row>
     <row r="153" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B153" t="s">
-        <v>499</v>
+        <v>161</v>
+      </c>
+      <c r="C153" t="s">
+        <v>179</v>
       </c>
       <c r="D153" t="s">
-        <v>348</v>
+        <v>184</v>
       </c>
       <c r="E153">
         <v>1</v>
@@ -6708,28 +7157,31 @@
       </c>
       <c r="G153" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201703_WZ139_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_CZ1LR_CommissionSummary.pdf</v>
       </c>
       <c r="H153" t="str">
         <f t="shared" si="5"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201703_WZ139_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_CZ1LR_CommissionDetail.pdf</v>
       </c>
       <c r="K153" t="s">
         <v>13</v>
       </c>
       <c r="L153" t="s">
-        <v>312</v>
+        <v>483</v>
       </c>
       <c r="M153" t="s">
-        <v>313</v>
+        <v>484</v>
       </c>
     </row>
     <row r="154" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B154" t="s">
-        <v>500</v>
+        <v>162</v>
+      </c>
+      <c r="C154" t="s">
+        <v>179</v>
       </c>
       <c r="D154" t="s">
-        <v>348</v>
+        <v>184</v>
       </c>
       <c r="E154">
         <v>1</v>
@@ -6739,28 +7191,31 @@
       </c>
       <c r="G154" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201703_CZ1VL_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_CZ1UV_CommissionSummary.pdf</v>
       </c>
       <c r="H154" t="str">
         <f t="shared" si="5"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201703_CZ1VL_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_CZ1UV_CommissionDetail.pdf</v>
       </c>
       <c r="K154" t="s">
         <v>13</v>
       </c>
       <c r="L154" t="s">
-        <v>314</v>
+        <v>485</v>
       </c>
       <c r="M154" t="s">
-        <v>315</v>
+        <v>486</v>
       </c>
     </row>
     <row r="155" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B155" t="s">
-        <v>501</v>
+        <v>163</v>
+      </c>
+      <c r="C155" t="s">
+        <v>179</v>
       </c>
       <c r="D155" t="s">
-        <v>348</v>
+        <v>184</v>
       </c>
       <c r="E155">
         <v>1</v>
@@ -6770,28 +7225,31 @@
       </c>
       <c r="G155" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201703_CZ1VK_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_CZ1WV_CommissionSummary.pdf</v>
       </c>
       <c r="H155" t="str">
         <f t="shared" si="5"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201703_CZ1VK_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_CZ1WV_CommissionDetail.pdf</v>
       </c>
       <c r="K155" t="s">
         <v>13</v>
       </c>
       <c r="L155" t="s">
-        <v>316</v>
+        <v>487</v>
       </c>
       <c r="M155" t="s">
-        <v>317</v>
+        <v>488</v>
       </c>
     </row>
     <row r="156" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B156" t="s">
-        <v>502</v>
+        <v>164</v>
+      </c>
+      <c r="C156" t="s">
+        <v>179</v>
       </c>
       <c r="D156" t="s">
-        <v>348</v>
+        <v>184</v>
       </c>
       <c r="E156">
         <v>1</v>
@@ -6801,28 +7259,31 @@
       </c>
       <c r="G156" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201703_CZ1LR_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_CZ1UO_CommissionSummary.pdf</v>
       </c>
       <c r="H156" t="str">
         <f t="shared" si="5"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201703_CZ1LR_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_CZ1UO_CommissionDetail.pdf</v>
       </c>
       <c r="K156" t="s">
         <v>13</v>
       </c>
       <c r="L156" t="s">
-        <v>318</v>
+        <v>489</v>
       </c>
       <c r="M156" t="s">
-        <v>319</v>
+        <v>490</v>
       </c>
     </row>
     <row r="157" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B157" t="s">
-        <v>503</v>
+        <v>165</v>
+      </c>
+      <c r="C157" t="s">
+        <v>179</v>
       </c>
       <c r="D157" t="s">
-        <v>348</v>
+        <v>184</v>
       </c>
       <c r="E157">
         <v>1</v>
@@ -6832,28 +7293,31 @@
       </c>
       <c r="G157" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201703_CZ1UV_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_CZ1XC_CommissionSummary.pdf</v>
       </c>
       <c r="H157" t="str">
         <f t="shared" si="5"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201703_CZ1UV_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_CZ1XC_CommissionDetail.pdf</v>
       </c>
       <c r="K157" t="s">
         <v>13</v>
       </c>
       <c r="L157" t="s">
-        <v>320</v>
+        <v>491</v>
       </c>
       <c r="M157" t="s">
-        <v>321</v>
+        <v>492</v>
       </c>
     </row>
     <row r="158" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B158" t="s">
-        <v>504</v>
+        <v>166</v>
+      </c>
+      <c r="C158" t="s">
+        <v>179</v>
       </c>
       <c r="D158" t="s">
-        <v>348</v>
+        <v>184</v>
       </c>
       <c r="E158">
         <v>1</v>
@@ -6863,28 +7327,31 @@
       </c>
       <c r="G158" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201703_CZ1WV_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_CZ1YN_CommissionSummary.pdf</v>
       </c>
       <c r="H158" t="str">
         <f t="shared" si="5"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201703_CZ1WV_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_CZ1YN_CommissionDetail.pdf</v>
       </c>
       <c r="K158" t="s">
         <v>13</v>
       </c>
       <c r="L158" t="s">
-        <v>322</v>
+        <v>493</v>
       </c>
       <c r="M158" t="s">
-        <v>323</v>
+        <v>494</v>
       </c>
     </row>
     <row r="159" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B159" t="s">
-        <v>505</v>
+        <v>167</v>
+      </c>
+      <c r="C159" t="s">
+        <v>179</v>
       </c>
       <c r="D159" t="s">
-        <v>348</v>
+        <v>184</v>
       </c>
       <c r="E159">
         <v>1</v>
@@ -6894,28 +7361,31 @@
       </c>
       <c r="G159" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201703_CZ1UO_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_CZ1UI_CommissionSummary.pdf</v>
       </c>
       <c r="H159" t="str">
         <f t="shared" si="5"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201703_CZ1UO_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_CZ1UI_CommissionDetail.pdf</v>
       </c>
       <c r="K159" t="s">
         <v>13</v>
       </c>
       <c r="L159" t="s">
-        <v>324</v>
+        <v>495</v>
       </c>
       <c r="M159" t="s">
-        <v>325</v>
+        <v>496</v>
       </c>
     </row>
     <row r="160" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B160" t="s">
-        <v>506</v>
+        <v>168</v>
+      </c>
+      <c r="C160" t="s">
+        <v>179</v>
       </c>
       <c r="D160" t="s">
-        <v>348</v>
+        <v>184</v>
       </c>
       <c r="E160">
         <v>1</v>
@@ -6925,28 +7395,31 @@
       </c>
       <c r="G160" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201703_CZ1XC_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_CZ1UU_CommissionSummary.pdf</v>
       </c>
       <c r="H160" t="str">
         <f t="shared" si="5"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201703_CZ1XC_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_CZ1UU_CommissionDetail.pdf</v>
       </c>
       <c r="K160" t="s">
         <v>13</v>
       </c>
       <c r="L160" t="s">
-        <v>326</v>
+        <v>497</v>
       </c>
       <c r="M160" t="s">
-        <v>327</v>
+        <v>498</v>
       </c>
     </row>
     <row r="161" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B161" t="s">
-        <v>507</v>
+        <v>169</v>
+      </c>
+      <c r="C161" t="s">
+        <v>179</v>
       </c>
       <c r="D161" t="s">
-        <v>348</v>
+        <v>184</v>
       </c>
       <c r="E161">
         <v>1</v>
@@ -6956,28 +7429,31 @@
       </c>
       <c r="G161" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201703_CZ1YN_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_CZ1UW_CommissionSummary.pdf</v>
       </c>
       <c r="H161" t="str">
         <f t="shared" si="5"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201703_CZ1YN_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_CZ1UW_CommissionDetail.pdf</v>
       </c>
       <c r="K161" t="s">
         <v>13</v>
       </c>
       <c r="L161" t="s">
-        <v>328</v>
+        <v>499</v>
       </c>
       <c r="M161" t="s">
-        <v>329</v>
+        <v>500</v>
       </c>
     </row>
     <row r="162" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B162" t="s">
-        <v>508</v>
+        <v>170</v>
+      </c>
+      <c r="C162" t="s">
+        <v>179</v>
       </c>
       <c r="D162" t="s">
-        <v>348</v>
+        <v>184</v>
       </c>
       <c r="E162">
         <v>1</v>
@@ -6987,28 +7463,31 @@
       </c>
       <c r="G162" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201703_CZ1UI_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_CZ1VC_CommissionSummary.pdf</v>
       </c>
       <c r="H162" t="str">
         <f t="shared" si="5"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201703_CZ1UI_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_CZ1VC_CommissionDetail.pdf</v>
       </c>
       <c r="K162" t="s">
         <v>13</v>
       </c>
       <c r="L162" t="s">
-        <v>330</v>
+        <v>501</v>
       </c>
       <c r="M162" t="s">
-        <v>331</v>
+        <v>502</v>
       </c>
     </row>
     <row r="163" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B163" t="s">
-        <v>509</v>
+        <v>171</v>
+      </c>
+      <c r="C163" t="s">
+        <v>179</v>
       </c>
       <c r="D163" t="s">
-        <v>348</v>
+        <v>184</v>
       </c>
       <c r="E163">
         <v>1</v>
@@ -7018,28 +7497,31 @@
       </c>
       <c r="G163" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201703_CZ1UU_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_CZ1UX_CommissionSummary.pdf</v>
       </c>
       <c r="H163" t="str">
         <f t="shared" si="5"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201703_CZ1UU_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_CZ1UX_CommissionDetail.pdf</v>
       </c>
       <c r="K163" t="s">
         <v>13</v>
       </c>
       <c r="L163" t="s">
-        <v>332</v>
+        <v>503</v>
       </c>
       <c r="M163" t="s">
-        <v>333</v>
+        <v>504</v>
       </c>
     </row>
     <row r="164" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B164" t="s">
-        <v>510</v>
+        <v>172</v>
+      </c>
+      <c r="C164" t="s">
+        <v>179</v>
       </c>
       <c r="D164" t="s">
-        <v>348</v>
+        <v>184</v>
       </c>
       <c r="E164">
         <v>1</v>
@@ -7049,28 +7531,31 @@
       </c>
       <c r="G164" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201703_CZ1UW_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_CZ1UZ_CommissionSummary.pdf</v>
       </c>
       <c r="H164" t="str">
         <f t="shared" si="5"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201703_CZ1UW_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_CZ1UZ_CommissionDetail.pdf</v>
       </c>
       <c r="K164" t="s">
         <v>13</v>
       </c>
       <c r="L164" t="s">
-        <v>334</v>
+        <v>505</v>
       </c>
       <c r="M164" t="s">
-        <v>335</v>
+        <v>506</v>
       </c>
     </row>
     <row r="165" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B165" t="s">
-        <v>511</v>
+        <v>173</v>
+      </c>
+      <c r="C165" t="s">
+        <v>179</v>
       </c>
       <c r="D165" t="s">
-        <v>348</v>
+        <v>184</v>
       </c>
       <c r="E165">
         <v>1</v>
@@ -7080,28 +7565,31 @@
       </c>
       <c r="G165" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201703_CZ1VC_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_WZ1CM_CommissionSummary.pdf</v>
       </c>
       <c r="H165" t="str">
         <f t="shared" si="5"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201703_CZ1VC_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_WZ1CM_CommissionDetail.pdf</v>
       </c>
       <c r="K165" t="s">
         <v>13</v>
       </c>
       <c r="L165" t="s">
-        <v>336</v>
+        <v>507</v>
       </c>
       <c r="M165" t="s">
-        <v>337</v>
+        <v>508</v>
       </c>
     </row>
     <row r="166" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B166" t="s">
-        <v>512</v>
+        <v>174</v>
+      </c>
+      <c r="C166" t="s">
+        <v>179</v>
       </c>
       <c r="D166" t="s">
-        <v>348</v>
+        <v>184</v>
       </c>
       <c r="E166">
         <v>1</v>
@@ -7111,28 +7599,31 @@
       </c>
       <c r="G166" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201703_CZ1UX_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_WZ1JI_CommissionSummary.pdf</v>
       </c>
       <c r="H166" t="str">
         <f t="shared" si="5"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201703_CZ1UX_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_WZ1JI_CommissionDetail.pdf</v>
       </c>
       <c r="K166" t="s">
         <v>13</v>
       </c>
       <c r="L166" t="s">
-        <v>338</v>
+        <v>509</v>
       </c>
       <c r="M166" t="s">
-        <v>339</v>
+        <v>510</v>
       </c>
     </row>
     <row r="167" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B167" t="s">
-        <v>513</v>
+        <v>175</v>
+      </c>
+      <c r="C167" t="s">
+        <v>179</v>
       </c>
       <c r="D167" t="s">
-        <v>348</v>
+        <v>184</v>
       </c>
       <c r="E167">
         <v>1</v>
@@ -7142,28 +7633,31 @@
       </c>
       <c r="G167" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201703_CZ1UZ_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_QZ3JB_CommissionSummary.pdf</v>
       </c>
       <c r="H167" t="str">
         <f t="shared" si="5"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201703_CZ1UZ_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_QZ3JB_CommissionDetail.pdf</v>
       </c>
       <c r="K167" t="s">
         <v>13</v>
       </c>
       <c r="L167" t="s">
-        <v>340</v>
+        <v>511</v>
       </c>
       <c r="M167" t="s">
-        <v>341</v>
+        <v>512</v>
       </c>
     </row>
     <row r="168" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B168" t="s">
-        <v>514</v>
+        <v>176</v>
+      </c>
+      <c r="C168" t="s">
+        <v>179</v>
       </c>
       <c r="D168" t="s">
-        <v>348</v>
+        <v>184</v>
       </c>
       <c r="E168">
         <v>1</v>
@@ -7173,28 +7667,31 @@
       </c>
       <c r="G168" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201703_WZ1CM_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_WZ2MS_CommissionSummary.pdf</v>
       </c>
       <c r="H168" t="str">
         <f t="shared" si="5"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201703_WZ1CM_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_WZ2MS_CommissionDetail.pdf</v>
       </c>
       <c r="K168" t="s">
         <v>13</v>
       </c>
       <c r="L168" t="s">
-        <v>342</v>
+        <v>513</v>
       </c>
       <c r="M168" t="s">
-        <v>343</v>
+        <v>514</v>
       </c>
     </row>
     <row r="169" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B169" t="s">
-        <v>515</v>
+        <v>180</v>
+      </c>
+      <c r="C169" t="s">
+        <v>179</v>
       </c>
       <c r="D169" t="s">
-        <v>348</v>
+        <v>184</v>
       </c>
       <c r="E169">
         <v>1</v>
@@ -7204,28 +7701,31 @@
       </c>
       <c r="G169" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201703_WZ1JI_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_WZ2JN_CommissionSummary.pdf</v>
       </c>
       <c r="H169" t="str">
         <f t="shared" si="5"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201703_WZ1JI_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_WZ2JN_CommissionDetail.pdf</v>
       </c>
       <c r="K169" t="s">
         <v>13</v>
       </c>
       <c r="L169" t="s">
-        <v>344</v>
+        <v>515</v>
       </c>
       <c r="M169" t="s">
-        <v>345</v>
+        <v>516</v>
       </c>
     </row>
     <row r="170" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B170" t="s">
-        <v>516</v>
+        <v>183</v>
+      </c>
+      <c r="C170" t="s">
+        <v>179</v>
       </c>
       <c r="D170" t="s">
-        <v>348</v>
+        <v>184</v>
       </c>
       <c r="E170">
         <v>1</v>
@@ -7235,51 +7735,20 @@
       </c>
       <c r="G170" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201703_QZ3JB_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_CZ1RD_CommissionSummary.pdf</v>
       </c>
       <c r="H170" t="str">
         <f t="shared" si="5"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201703_QZ3JB_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_CZ1RD_CommissionDetail.pdf</v>
       </c>
       <c r="K170" t="s">
         <v>13</v>
       </c>
       <c r="L170" t="s">
+        <v>517</v>
+      </c>
+      <c r="M170" t="s">
         <v>518</v>
-      </c>
-      <c r="M170" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="171" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B171" t="s">
-        <v>517</v>
-      </c>
-      <c r="D171" t="s">
-        <v>348</v>
-      </c>
-      <c r="E171">
-        <v>1</v>
-      </c>
-      <c r="F171">
-        <v>2</v>
-      </c>
-      <c r="G171" t="str">
-        <f t="shared" si="4"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201703_WZ2MS_CommissionSummary.pdf</v>
-      </c>
-      <c r="H171" t="str">
-        <f t="shared" si="5"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201703_WZ2MS_CommissionDetail.pdf</v>
-      </c>
-      <c r="K171" t="s">
-        <v>13</v>
-      </c>
-      <c r="L171" t="s">
-        <v>346</v>
-      </c>
-      <c r="M171" t="s">
-        <v>347</v>
       </c>
     </row>
   </sheetData>

--- a/BR_Mailer/J030_COM_FSC/J030_Mailing_List - Excel.xlsx
+++ b/BR_Mailer/J030_COM_FSC/J030_Mailing_List - Excel.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1024" uniqueCount="519">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1030" uniqueCount="522">
   <si>
     <t>msg</t>
   </si>
@@ -60,9 +60,6 @@
     <t>BusinessReporting.Canada@henryschein.ca</t>
   </si>
   <si>
-    <t>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm</t>
-  </si>
-  <si>
     <t>Diane.McChesney@henryschein.ca</t>
   </si>
   <si>
@@ -399,9 +396,6 @@
     <t>Simon.Archer@henryschein.ca</t>
   </si>
   <si>
-    <t>Julie.Noel@henryschein.ca</t>
-  </si>
-  <si>
     <t>Suzanne.Lebeau@henryschein.ca</t>
   </si>
   <si>
@@ -573,1009 +567,1024 @@
     <t>Rob.Dilallo@henryschein.ca</t>
   </si>
   <si>
-    <t>Commission Summary and Details for August 2017</t>
-  </si>
-  <si>
-    <t>201708_CZ125_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201708_CZ125_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201708_CZ124_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201708_CZ124_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201708_QZ132_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201708_QZ132_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201708_CZ128_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201708_CZ128_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201708_CZ144_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201708_CZ144_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201708_CZ165_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201708_CZ165_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201708_QZ177_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201708_QZ177_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201708_QZ178_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201708_QZ178_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201708_CZ183_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201708_CZ183_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201708_CZ107_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201708_CZ107_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201708_QZ192_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201708_QZ192_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201708_CZ109_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201708_CZ109_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201708_AZ112_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201708_AZ112_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201708_CZ1CP_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201708_CZ1CP_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201708_CZ154_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201708_CZ154_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201708_CZ1KD_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201708_CZ1KD_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201708_QZ1CF_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201708_QZ1CF_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201708_CZ1EM_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201708_CZ1EM_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201708_QZ1DP_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201708_QZ1DP_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201708_CZ1DA_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201708_CZ1DA_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201708_QZ1LM_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201708_QZ1LM_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201708_CZ1EE_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201708_CZ1EE_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201708_AZ1EK_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201708_AZ1EK_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201708_AZ1FB_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201708_AZ1FB_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201708_CZ1FP_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201708_CZ1FP_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201708_QZ1FT_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201708_QZ1FT_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201708_QZ1FS_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201708_QZ1FS_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201708_QZ1FR_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201708_QZ1FR_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201708_QZ1GO_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201708_QZ1GO_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201708_AZ1KL_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201708_AZ1KL_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201708_QZ1KK_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201708_QZ1KK_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201708_CZ1DN_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201708_CZ1DN_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201708_QZ1EO_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201708_QZ1EO_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201708_CZ1CB_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201708_CZ1CB_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201708_CZ1B8_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201708_CZ1B8_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201708_CZ1C4_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201708_CZ1C4_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201708_QZ1D8_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201708_QZ1D8_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201708_CZ1SW_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201708_CZ1SW_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201708_QZ1AP_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201708_QZ1AP_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201708_CZ2CB_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201708_CZ2CB_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201708_CZ1CG_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201708_CZ1CG_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201708_AZ1PV_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201708_AZ1PV_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201708_CZ3CB_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201708_CZ3CB_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201708_CZ5CS_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201708_CZ5CS_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201708_CZ8JA_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201708_CZ8JA_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201708_QZ7JM_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201708_QZ7JM_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201708_QZ7DO_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201708_QZ7DO_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201708_CZ5TA_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201708_CZ5TA_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201708_CZ2LB_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201708_CZ2LB_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201708_CZ2GB_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201708_CZ2GB_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201708_CZ2LH_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201708_CZ2LH_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201708_CZ2NM_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201708_CZ2NM_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201708_QZ2SB_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201708_QZ2SB_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201708_CZ2BG_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201708_CZ2BG_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201708_CZ1SA_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201708_CZ1SA_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201708_WZ115_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201708_WZ115_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201708_WZ120_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201708_WZ120_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201708_WZ118_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201708_WZ118_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201708_WZ119_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201708_WZ119_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201708_WZ138_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201708_WZ138_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201708_WZ142_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201708_WZ142_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201708_WZ134_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201708_WZ134_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201708_WZ123_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201708_WZ123_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201708_WZ136_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201708_WZ136_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201708_WZ165_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201708_WZ165_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201708_WZ1FF_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201708_WZ1FF_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201708_WZ167_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201708_WZ167_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201708_WZ175_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201708_WZ175_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201708_WZ177_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201708_WZ177_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201708_WZ143_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201708_WZ143_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201708_WZ159_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201708_WZ159_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201708_WZ162_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201708_WZ162_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201708_WZ113_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201708_WZ113_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201708_WZ137_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201708_WZ137_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201708_WZ1G4_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201708_WZ1G4_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201708_WZ1CE_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201708_WZ1CE_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201708_WZBW1_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201708_WZBW1_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201708_WZ9TS_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201708_WZ9TS_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201708_WZ1HM_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201708_WZ1HM_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201708_WZ2RP_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201708_WZ2RP_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201708_WZ1TT_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201708_WZ1TT_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201708_WZ1AM_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201708_WZ1AM_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201708_WZ1JW_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201708_WZ1JW_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201708_WZ1MH_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201708_WZ1MH_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201708_WZ1TM_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201708_WZ1TM_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201708_WZ2AM_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201708_WZ2AM_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201708_WZ1SC_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201708_WZ1SC_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201708_WZ1PB_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201708_WZ1PB_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201708_WZ1JN_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201708_WZ1JN_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201708_WZ1MK_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201708_WZ1MK_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201708_WZ1CA_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201708_WZ1CA_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201708_WZ2TM_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201708_WZ2TM_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201708_WZ1BC_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201708_WZ1BC_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201708_WZ1JL_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201708_WZ1JL_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201708_WZ1AL_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201708_WZ1AL_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201708_WZ1MW_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201708_WZ1MW_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201708_WZ1MS_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201708_WZ1MS_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201708_WZ1DF_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201708_WZ1DF_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201708_CZ1GF_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201708_CZ1GF_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201708_QZ1BP_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201708_QZ1BP_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201708_CZ1JF_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201708_CZ1JF_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201708_AZ1CI_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201708_AZ1CI_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201708_CZ1KM_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201708_CZ1KM_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201708_CZ1OV_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201708_CZ1OV_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201708_QZ1JB_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201708_QZ1JB_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201708_QZ1BG_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201708_QZ1BG_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201708_CZ1TM_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201708_CZ1TM_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201708_QZ1BM_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201708_QZ1BM_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201708_QZ1MD_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201708_QZ1MD_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201708_AZ1JB_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201708_AZ1JB_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201708_CZ1AD_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201708_CZ1AD_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201708_QZ1ML_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201708_QZ1ML_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201708_CZ1FA_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201708_CZ1FA_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201708_CZ2SA_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201708_CZ2SA_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201708_QZ1JN_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201708_QZ1JN_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201708_QZ1SL_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201708_QZ1SL_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201708_CZ1CN_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201708_CZ1CN_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201708_AZ1YU_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201708_AZ1YU_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201708_AZ1WX_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201708_AZ1WX_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201708_AZ1XF_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201708_AZ1XF_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201708_AZ1XT_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201708_AZ1XT_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201708_AZ1YP_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201708_AZ1YP_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201708_QZ1XH_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201708_QZ1XH_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201708_QZ1TB_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201708_QZ1TB_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201708_QZ1TD_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201708_QZ1TD_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201708_QZ1TK_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201708_QZ1TK_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201708_QZ1YE_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201708_QZ1YE_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201708_QZ1TE_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201708_QZ1TE_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201708_QZ1TI_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201708_QZ1TI_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201708_CZ1YI_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201708_CZ1YI_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201708_CZ1YW_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201708_CZ1YW_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201708_CZ1UE_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201708_CZ1UE_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201708_CZ1MJ_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201708_CZ1MJ_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201708_CZ1VG_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201708_CZ1VG_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201708_CZ1VJ_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201708_CZ1VJ_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201708_CZ1MI_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201708_CZ1MI_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201708_CZ1XD_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201708_CZ1XD_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201708_CZ1XB_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201708_CZ1XB_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201708_CZ1WT_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201708_CZ1WT_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201708_CZ1XA_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201708_CZ1XA_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201708_WZ2KF_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201708_WZ2KF_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201708_WZ148_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201708_WZ148_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201708_WZ8GM_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201708_WZ8GM_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201708_WZ1BH_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201708_WZ1BH_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201708_WZ114_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201708_WZ114_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201708_WZ1A6_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201708_WZ1A6_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201708_WZ139_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201708_WZ139_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201708_CZ1VL_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201708_CZ1VL_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201708_CZ1VK_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201708_CZ1VK_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201708_CZ1LR_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201708_CZ1LR_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201708_CZ1UV_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201708_CZ1UV_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201708_CZ1WV_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201708_CZ1WV_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201708_CZ1UO_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201708_CZ1UO_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201708_CZ1XC_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201708_CZ1XC_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201708_CZ1YN_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201708_CZ1YN_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201708_CZ1UI_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201708_CZ1UI_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201708_CZ1UU_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201708_CZ1UU_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201708_CZ1UW_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201708_CZ1UW_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201708_CZ1VC_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201708_CZ1VC_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201708_CZ1UX_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201708_CZ1UX_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201708_CZ1UZ_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201708_CZ1UZ_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201708_WZ1CM_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201708_WZ1CM_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201708_WZ1JI_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201708_WZ1JI_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201708_QZ3JB_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201708_QZ3JB_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201708_WZ2MS_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201708_WZ2MS_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201708_WZ2JN_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201708_WZ2JN_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201708_CZ1RD_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201708_CZ1RD_CommissionDetail.pdf</t>
+    <t>Stephane.Debernardi@henryschein.ca</t>
+  </si>
+  <si>
+    <t>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm</t>
+  </si>
+  <si>
+    <t>Jenna.Plenert@henryschein.ca</t>
+  </si>
+  <si>
+    <t>Commission Summary and Details for October 2017</t>
+  </si>
+  <si>
+    <t>201710_CZ1SD_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201710_CZ1SD_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201710_CZ125_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201710_CZ125_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201710_CZ124_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201710_CZ124_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201710_QZ132_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201710_QZ132_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201710_CZ128_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201710_CZ128_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201710_CZ144_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201710_CZ144_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201710_CZ165_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201710_CZ165_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201710_QZ178_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201710_QZ178_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201710_CZ183_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201710_CZ183_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201710_CZ107_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201710_CZ107_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201710_QZ192_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201710_QZ192_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201710_CZ109_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201710_CZ109_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201710_AZ112_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201710_AZ112_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201710_CZ1CP_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201710_CZ1CP_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201710_CZ154_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201710_CZ154_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201710_CZ1KD_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201710_CZ1KD_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201710_QZ1CF_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201710_QZ1CF_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201710_CZ1EM_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201710_CZ1EM_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201710_QZ1DP_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201710_QZ1DP_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201710_CZ1DA_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201710_CZ1DA_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201710_QZ1LM_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201710_QZ1LM_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201710_CZ1EE_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201710_CZ1EE_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201710_AZ1EK_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201710_AZ1EK_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201710_AZ1FB_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201710_AZ1FB_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201710_CZ1FP_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201710_CZ1FP_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201710_QZ1FT_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201710_QZ1FT_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201710_QZ1FS_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201710_QZ1FS_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201710_QZ1FR_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201710_QZ1FR_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201710_QZ1GO_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201710_QZ1GO_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201710_AZ1KL_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201710_AZ1KL_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201710_QZ1KK_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201710_QZ1KK_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201710_CZ1DN_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201710_CZ1DN_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201710_QZ1EO_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201710_QZ1EO_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201710_CZ1CB_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201710_CZ1CB_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201710_CZ1B8_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201710_CZ1B8_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201710_CZ1C4_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201710_CZ1C4_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201710_QZ1D8_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201710_QZ1D8_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201710_CZ1SW_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201710_CZ1SW_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201710_QZ1AP_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201710_QZ1AP_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201710_CZ2CB_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201710_CZ2CB_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201710_CZ1CG_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201710_CZ1CG_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201710_AZ1PV_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201710_AZ1PV_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201710_CZ3CB_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201710_CZ3CB_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201710_CZ5CS_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201710_CZ5CS_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201710_CZ8JA_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201710_CZ8JA_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201710_QZ7JM_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201710_QZ7JM_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201710_QZ7DO_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201710_QZ7DO_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201710_CZ5TA_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201710_CZ5TA_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201710_CZ2LB_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201710_CZ2LB_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201710_CZ2GB_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201710_CZ2GB_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201710_CZ2LH_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201710_CZ2LH_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201710_CZ2NM_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201710_CZ2NM_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201710_QZ2SB_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201710_QZ2SB_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201710_CZ2BG_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201710_CZ2BG_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201710_CZ1SA_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201710_CZ1SA_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201710_WZ115_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201710_WZ115_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201710_WZ120_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201710_WZ120_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201710_WZ118_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201710_WZ118_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201710_WZ119_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201710_WZ119_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201710_WZ138_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201710_WZ138_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201710_WZ142_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201710_WZ142_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201710_WZ134_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201710_WZ134_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201710_WZ123_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201710_WZ123_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201710_WZ136_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201710_WZ136_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201710_WZ165_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201710_WZ165_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201710_WZ1FF_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201710_WZ1FF_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201710_WZ167_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201710_WZ167_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201710_WZ175_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201710_WZ175_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201710_WZ177_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201710_WZ177_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201710_WZ143_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201710_WZ143_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201710_WZ159_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201710_WZ159_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201710_WZ162_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201710_WZ162_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201710_WZ113_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201710_WZ113_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201710_WZ137_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201710_WZ137_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201710_WZ1G4_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201710_WZ1G4_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201710_WZ1CE_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201710_WZ1CE_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201710_WZBW1_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201710_WZBW1_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201710_WZ9TS_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201710_WZ9TS_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201710_WZ1HM_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201710_WZ1HM_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201710_WZ2RP_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201710_WZ2RP_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201710_WZ1TT_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201710_WZ1TT_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201710_WZ1AM_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201710_WZ1AM_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201710_WZ1JW_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201710_WZ1JW_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201710_WZ1MH_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201710_WZ1MH_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201710_WZ1TM_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201710_WZ1TM_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201710_WZ2AM_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201710_WZ2AM_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201710_WZ1SC_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201710_WZ1SC_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201710_WZ1PB_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201710_WZ1PB_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201710_WZ1JN_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201710_WZ1JN_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201710_WZ1MK_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201710_WZ1MK_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201710_WZ1CA_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201710_WZ1CA_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201710_WZ2TM_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201710_WZ2TM_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201710_WZ1BC_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201710_WZ1BC_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201710_WZ1JL_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201710_WZ1JL_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201710_WZ1AL_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201710_WZ1AL_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201710_WZ1MW_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201710_WZ1MW_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201710_WZ1MS_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201710_WZ1MS_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201710_WZ1DF_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201710_WZ1DF_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201710_WZ1JI_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201710_WZ1JI_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201710_WZ1CM_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201710_WZ1CM_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201710_WZ2MS_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201710_WZ2MS_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201710_WZ2JN_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201710_WZ2JN_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201710_CZ1RD_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201710_CZ1RD_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201710_CZ1GF_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201710_CZ1GF_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201710_QZ1BP_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201710_QZ1BP_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201710_CZ1JF_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201710_CZ1JF_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201710_AZ1CI_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201710_AZ1CI_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201710_CZ1KM_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201710_CZ1KM_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201710_CZ1OV_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201710_CZ1OV_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201710_QZ1JB_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201710_QZ1JB_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201710_QZ1BG_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201710_QZ1BG_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201710_CZ1TM_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201710_CZ1TM_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201710_QZ177_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201710_QZ177_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201710_QZ1BM_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201710_QZ1BM_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201710_QZ1MD_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201710_QZ1MD_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201710_AZ1JB_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201710_AZ1JB_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201710_CZ1AD_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201710_CZ1AD_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201710_QZ1ML_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201710_QZ1ML_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201710_CZ1FA_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201710_CZ1FA_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201710_CZ2SA_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201710_CZ2SA_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201710_QZ1SL_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201710_QZ1SL_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201710_QZ3JB_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201710_QZ3JB_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201710_CZ1CN_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201710_CZ1CN_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201710_AZ1YU_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201710_AZ1YU_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201710_AZ1WX_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201710_AZ1WX_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201710_AZ1XF_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201710_AZ1XF_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201710_AZ1XT_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201710_AZ1XT_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201710_AZ1YP_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201710_AZ1YP_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201710_QZ1XH_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201710_QZ1XH_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201710_QZ1TB_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201710_QZ1TB_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201710_QZ1TD_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201710_QZ1TD_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201710_QZ1TK_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201710_QZ1TK_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201710_QZ1YE_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201710_QZ1YE_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201710_QZ1TE_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201710_QZ1TE_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201710_QZ1TI_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201710_QZ1TI_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201710_CZ1YI_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201710_CZ1YI_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201710_CZ1YW_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201710_CZ1YW_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201710_CZ1UE_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201710_CZ1UE_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201710_CZ1MJ_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201710_CZ1MJ_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201710_CZ1VG_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201710_CZ1VG_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201710_CZ1VJ_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201710_CZ1VJ_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201710_CZ1MI_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201710_CZ1MI_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201710_CZ1XD_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201710_CZ1XD_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201710_CZ1XB_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201710_CZ1XB_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201710_CZ1WT_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201710_CZ1WT_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201710_CZ1XA_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201710_CZ1XA_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201710_WZ2KF_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201710_WZ2KF_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201710_WZ148_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201710_WZ148_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201710_WZ8GM_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201710_WZ8GM_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201710_WZ1BH_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201710_WZ1BH_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201710_WZ114_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201710_WZ114_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201710_WZ1A6_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201710_WZ1A6_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201710_WZ139_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201710_WZ139_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201710_CZ1VL_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201710_CZ1VL_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201710_CZ1VK_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201710_CZ1VK_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201710_CZ1LR_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201710_CZ1LR_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201710_CZ1UV_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201710_CZ1UV_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201710_CZ1WV_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201710_CZ1WV_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201710_CZ1UO_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201710_CZ1UO_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201710_CZ1XC_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201710_CZ1XC_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201710_CZ1YN_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201710_CZ1YN_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201710_CZ1UI_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201710_CZ1UI_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201710_CZ1UU_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201710_CZ1UU_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201710_CZ1UW_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201710_CZ1UW_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201710_CZ1VC_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201710_CZ1VC_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201710_CZ1UX_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201710_CZ1UX_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201710_CZ1UZ_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201710_CZ1UZ_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201710_WZ8JP_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201710_WZ8JP_CommissionDetail.pdf</t>
   </si>
 </sst>
 </file>
@@ -1925,7 +1934,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:N170"/>
+  <dimension ref="A1:N171"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1971,7 +1980,7 @@
         <v>8</v>
       </c>
       <c r="J1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="K1" t="s">
         <v>11</v>
@@ -1990,11 +1999,11 @@
         <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D2" t="str">
         <f>D3</f>
-        <v>Commission Summary and Details for August 2017</v>
+        <v>Commission Summary and Details for October 2017</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -2004,34 +2013,34 @@
       </c>
       <c r="G2" t="str">
         <f>$K2&amp;"\"&amp;L2</f>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_CZ125_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_CZ1SD_CommissionSummary.pdf</v>
       </c>
       <c r="H2" t="str">
         <f>$K2&amp;"\"&amp;M2</f>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_CZ125_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_CZ1SD_CommissionDetail.pdf</v>
       </c>
       <c r="K2" t="s">
-        <v>13</v>
+        <v>183</v>
       </c>
       <c r="L2" t="str">
         <f>L3</f>
-        <v>201708_CZ125_CommissionSummary.pdf</v>
+        <v>201710_CZ1SD_CommissionSummary.pdf</v>
       </c>
       <c r="M2" t="str">
         <f>M3</f>
-        <v>201708_CZ125_CommissionDetail.pdf</v>
+        <v>201710_CZ1SD_CommissionDetail.pdf</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
       <c r="B3" t="s">
-        <v>14</v>
+        <v>182</v>
       </c>
       <c r="C3" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D3" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -2041,32 +2050,32 @@
       </c>
       <c r="G3" t="str">
         <f t="shared" ref="G3:G66" si="0">$K3&amp;"\"&amp;L3</f>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_CZ125_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_CZ1SD_CommissionSummary.pdf</v>
       </c>
       <c r="H3" t="str">
         <f t="shared" ref="H3:H66" si="1">$K3&amp;"\"&amp;M3</f>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_CZ125_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_CZ1SD_CommissionDetail.pdf</v>
       </c>
       <c r="K3" t="s">
-        <v>13</v>
+        <v>183</v>
       </c>
       <c r="L3" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="M3" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
       <c r="B4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C4" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D4" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -2076,32 +2085,32 @@
       </c>
       <c r="G4" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_CZ124_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_CZ125_CommissionSummary.pdf</v>
       </c>
       <c r="H4" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_CZ124_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_CZ125_CommissionDetail.pdf</v>
       </c>
       <c r="K4" t="s">
-        <v>13</v>
+        <v>183</v>
       </c>
       <c r="L4" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="M4" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
       <c r="B5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C5" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D5" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -2111,32 +2120,32 @@
       </c>
       <c r="G5" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_QZ132_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_CZ124_CommissionSummary.pdf</v>
       </c>
       <c r="H5" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_QZ132_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_CZ124_CommissionDetail.pdf</v>
       </c>
       <c r="K5" t="s">
-        <v>13</v>
+        <v>183</v>
       </c>
       <c r="L5" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="M5" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
       <c r="B6" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C6" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D6" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -2146,32 +2155,32 @@
       </c>
       <c r="G6" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_CZ128_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_QZ132_CommissionSummary.pdf</v>
       </c>
       <c r="H6" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_CZ128_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_QZ132_CommissionDetail.pdf</v>
       </c>
       <c r="K6" t="s">
-        <v>13</v>
+        <v>183</v>
       </c>
       <c r="L6" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="M6" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
       <c r="B7" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C7" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -2181,32 +2190,32 @@
       </c>
       <c r="G7" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_CZ144_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_CZ128_CommissionSummary.pdf</v>
       </c>
       <c r="H7" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_CZ144_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_CZ128_CommissionDetail.pdf</v>
       </c>
       <c r="K7" t="s">
-        <v>13</v>
+        <v>183</v>
       </c>
       <c r="L7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="M7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
       <c r="B8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C8" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D8" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E8">
         <v>1</v>
@@ -2216,32 +2225,32 @@
       </c>
       <c r="G8" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_CZ165_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_CZ144_CommissionSummary.pdf</v>
       </c>
       <c r="H8" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_CZ165_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_CZ144_CommissionDetail.pdf</v>
       </c>
       <c r="K8" t="s">
-        <v>13</v>
+        <v>183</v>
       </c>
       <c r="L8" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="M8" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
       <c r="B9" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C9" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D9" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E9">
         <v>1</v>
@@ -2251,32 +2260,32 @@
       </c>
       <c r="G9" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_QZ177_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_CZ165_CommissionSummary.pdf</v>
       </c>
       <c r="H9" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_QZ177_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_CZ165_CommissionDetail.pdf</v>
       </c>
       <c r="K9" t="s">
-        <v>13</v>
+        <v>183</v>
       </c>
       <c r="L9" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="M9" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
       <c r="B10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C10" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D10" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E10">
         <v>1</v>
@@ -2286,32 +2295,32 @@
       </c>
       <c r="G10" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_QZ178_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_QZ178_CommissionSummary.pdf</v>
       </c>
       <c r="H10" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_QZ178_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_QZ178_CommissionDetail.pdf</v>
       </c>
       <c r="K10" t="s">
-        <v>13</v>
+        <v>183</v>
       </c>
       <c r="L10" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="M10" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
       <c r="B11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C11" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D11" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E11">
         <v>1</v>
@@ -2321,32 +2330,32 @@
       </c>
       <c r="G11" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_CZ183_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_CZ183_CommissionSummary.pdf</v>
       </c>
       <c r="H11" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_CZ183_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_CZ183_CommissionDetail.pdf</v>
       </c>
       <c r="K11" t="s">
-        <v>13</v>
+        <v>183</v>
       </c>
       <c r="L11" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="M11" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C12" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D12" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E12">
         <v>1</v>
@@ -2356,32 +2365,32 @@
       </c>
       <c r="G12" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_CZ107_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_CZ107_CommissionSummary.pdf</v>
       </c>
       <c r="H12" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_CZ107_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_CZ107_CommissionDetail.pdf</v>
       </c>
       <c r="K12" t="s">
-        <v>13</v>
+        <v>183</v>
       </c>
       <c r="L12" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="M12" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C13" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D13" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E13">
         <v>1</v>
@@ -2391,32 +2400,32 @@
       </c>
       <c r="G13" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_QZ192_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_QZ192_CommissionSummary.pdf</v>
       </c>
       <c r="H13" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_QZ192_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_QZ192_CommissionDetail.pdf</v>
       </c>
       <c r="K13" t="s">
-        <v>13</v>
+        <v>183</v>
       </c>
       <c r="L13" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="M13" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C14" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D14" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E14">
         <v>1</v>
@@ -2426,32 +2435,32 @@
       </c>
       <c r="G14" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_CZ109_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_CZ109_CommissionSummary.pdf</v>
       </c>
       <c r="H14" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_CZ109_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_CZ109_CommissionDetail.pdf</v>
       </c>
       <c r="K14" t="s">
-        <v>13</v>
+        <v>183</v>
       </c>
       <c r="L14" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="M14" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
       <c r="B15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D15" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E15">
         <v>1</v>
@@ -2461,32 +2470,32 @@
       </c>
       <c r="G15" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_AZ112_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_AZ112_CommissionSummary.pdf</v>
       </c>
       <c r="H15" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_AZ112_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_AZ112_CommissionDetail.pdf</v>
       </c>
       <c r="K15" t="s">
-        <v>13</v>
+        <v>183</v>
       </c>
       <c r="L15" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="M15" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
       <c r="B16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C16" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D16" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E16">
         <v>1</v>
@@ -2496,32 +2505,32 @@
       </c>
       <c r="G16" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_CZ1CP_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_CZ1CP_CommissionSummary.pdf</v>
       </c>
       <c r="H16" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_CZ1CP_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_CZ1CP_CommissionDetail.pdf</v>
       </c>
       <c r="K16" t="s">
-        <v>13</v>
+        <v>183</v>
       </c>
       <c r="L16" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="M16" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="2"/>
       <c r="B17" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C17" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D17" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E17">
         <v>1</v>
@@ -2531,32 +2540,32 @@
       </c>
       <c r="G17" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_CZ154_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_CZ154_CommissionSummary.pdf</v>
       </c>
       <c r="H17" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_CZ154_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_CZ154_CommissionDetail.pdf</v>
       </c>
       <c r="K17" t="s">
-        <v>13</v>
+        <v>183</v>
       </c>
       <c r="L17" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="M17" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
       <c r="B18" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C18" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D18" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E18">
         <v>1</v>
@@ -2566,32 +2575,32 @@
       </c>
       <c r="G18" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_CZ1KD_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_CZ1KD_CommissionSummary.pdf</v>
       </c>
       <c r="H18" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_CZ1KD_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_CZ1KD_CommissionDetail.pdf</v>
       </c>
       <c r="K18" t="s">
-        <v>13</v>
+        <v>183</v>
       </c>
       <c r="L18" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="M18" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="2"/>
       <c r="B19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C19" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D19" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E19">
         <v>1</v>
@@ -2601,31 +2610,31 @@
       </c>
       <c r="G19" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_QZ1CF_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_QZ1CF_CommissionSummary.pdf</v>
       </c>
       <c r="H19" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_QZ1CF_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_QZ1CF_CommissionDetail.pdf</v>
       </c>
       <c r="K19" t="s">
-        <v>13</v>
+        <v>183</v>
       </c>
       <c r="L19" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="M19" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C20" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D20" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E20">
         <v>1</v>
@@ -2635,31 +2644,31 @@
       </c>
       <c r="G20" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_CZ1EM_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_CZ1EM_CommissionSummary.pdf</v>
       </c>
       <c r="H20" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_CZ1EM_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_CZ1EM_CommissionDetail.pdf</v>
       </c>
       <c r="K20" t="s">
-        <v>13</v>
+        <v>183</v>
       </c>
       <c r="L20" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="M20" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C21" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D21" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E21">
         <v>1</v>
@@ -2669,31 +2678,31 @@
       </c>
       <c r="G21" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_QZ1DP_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_QZ1DP_CommissionSummary.pdf</v>
       </c>
       <c r="H21" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_QZ1DP_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_QZ1DP_CommissionDetail.pdf</v>
       </c>
       <c r="K21" t="s">
-        <v>13</v>
+        <v>183</v>
       </c>
       <c r="L21" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="M21" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C22" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D22" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E22">
         <v>1</v>
@@ -2703,31 +2712,31 @@
       </c>
       <c r="G22" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_CZ1DA_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_CZ1DA_CommissionSummary.pdf</v>
       </c>
       <c r="H22" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_CZ1DA_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_CZ1DA_CommissionDetail.pdf</v>
       </c>
       <c r="K22" t="s">
-        <v>13</v>
+        <v>183</v>
       </c>
       <c r="L22" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="M22" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C23" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D23" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E23">
         <v>1</v>
@@ -2737,31 +2746,31 @@
       </c>
       <c r="G23" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_QZ1LM_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_QZ1LM_CommissionSummary.pdf</v>
       </c>
       <c r="H23" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_QZ1LM_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_QZ1LM_CommissionDetail.pdf</v>
       </c>
       <c r="K23" t="s">
-        <v>13</v>
+        <v>183</v>
       </c>
       <c r="L23" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="M23" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C24" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D24" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E24">
         <v>1</v>
@@ -2771,31 +2780,31 @@
       </c>
       <c r="G24" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_CZ1EE_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_CZ1EE_CommissionSummary.pdf</v>
       </c>
       <c r="H24" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_CZ1EE_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_CZ1EE_CommissionDetail.pdf</v>
       </c>
       <c r="K24" t="s">
-        <v>13</v>
+        <v>183</v>
       </c>
       <c r="L24" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="M24" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C25" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D25" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E25">
         <v>1</v>
@@ -2805,31 +2814,31 @@
       </c>
       <c r="G25" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_AZ1EK_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_AZ1EK_CommissionSummary.pdf</v>
       </c>
       <c r="H25" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_AZ1EK_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_AZ1EK_CommissionDetail.pdf</v>
       </c>
       <c r="K25" t="s">
-        <v>13</v>
+        <v>183</v>
       </c>
       <c r="L25" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="M25" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C26" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D26" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E26">
         <v>1</v>
@@ -2839,31 +2848,31 @@
       </c>
       <c r="G26" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_AZ1FB_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_AZ1FB_CommissionSummary.pdf</v>
       </c>
       <c r="H26" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_AZ1FB_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_AZ1FB_CommissionDetail.pdf</v>
       </c>
       <c r="K26" t="s">
-        <v>13</v>
+        <v>183</v>
       </c>
       <c r="L26" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="M26" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C27" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D27" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E27">
         <v>1</v>
@@ -2873,31 +2882,31 @@
       </c>
       <c r="G27" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_CZ1FP_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_CZ1FP_CommissionSummary.pdf</v>
       </c>
       <c r="H27" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_CZ1FP_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_CZ1FP_CommissionDetail.pdf</v>
       </c>
       <c r="K27" t="s">
-        <v>13</v>
+        <v>183</v>
       </c>
       <c r="L27" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="M27" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C28" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D28" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E28">
         <v>1</v>
@@ -2907,31 +2916,31 @@
       </c>
       <c r="G28" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_QZ1FT_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_QZ1FT_CommissionSummary.pdf</v>
       </c>
       <c r="H28" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_QZ1FT_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_QZ1FT_CommissionDetail.pdf</v>
       </c>
       <c r="K28" t="s">
-        <v>13</v>
+        <v>183</v>
       </c>
       <c r="L28" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="M28" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C29" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D29" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E29">
         <v>1</v>
@@ -2941,31 +2950,31 @@
       </c>
       <c r="G29" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_QZ1FS_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_QZ1FS_CommissionSummary.pdf</v>
       </c>
       <c r="H29" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_QZ1FS_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_QZ1FS_CommissionDetail.pdf</v>
       </c>
       <c r="K29" t="s">
-        <v>13</v>
+        <v>183</v>
       </c>
       <c r="L29" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="M29" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C30" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D30" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E30">
         <v>1</v>
@@ -2975,31 +2984,31 @@
       </c>
       <c r="G30" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_QZ1FR_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_QZ1FR_CommissionSummary.pdf</v>
       </c>
       <c r="H30" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_QZ1FR_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_QZ1FR_CommissionDetail.pdf</v>
       </c>
       <c r="K30" t="s">
-        <v>13</v>
+        <v>183</v>
       </c>
       <c r="L30" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="M30" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C31" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D31" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E31">
         <v>1</v>
@@ -3009,31 +3018,31 @@
       </c>
       <c r="G31" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_QZ1GO_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_QZ1GO_CommissionSummary.pdf</v>
       </c>
       <c r="H31" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_QZ1GO_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_QZ1GO_CommissionDetail.pdf</v>
       </c>
       <c r="K31" t="s">
-        <v>13</v>
+        <v>183</v>
       </c>
       <c r="L31" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="M31" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C32" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D32" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E32">
         <v>1</v>
@@ -3043,31 +3052,31 @@
       </c>
       <c r="G32" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_AZ1KL_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_AZ1KL_CommissionSummary.pdf</v>
       </c>
       <c r="H32" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_AZ1KL_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_AZ1KL_CommissionDetail.pdf</v>
       </c>
       <c r="K32" t="s">
-        <v>13</v>
+        <v>183</v>
       </c>
       <c r="L32" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="M32" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="33" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C33" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D33" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E33">
         <v>1</v>
@@ -3077,31 +3086,31 @@
       </c>
       <c r="G33" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_QZ1KK_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_QZ1KK_CommissionSummary.pdf</v>
       </c>
       <c r="H33" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_QZ1KK_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_QZ1KK_CommissionDetail.pdf</v>
       </c>
       <c r="K33" t="s">
-        <v>13</v>
+        <v>183</v>
       </c>
       <c r="L33" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="M33" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="34" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C34" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D34" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E34">
         <v>1</v>
@@ -3111,31 +3120,31 @@
       </c>
       <c r="G34" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_CZ1DN_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_CZ1DN_CommissionSummary.pdf</v>
       </c>
       <c r="H34" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_CZ1DN_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_CZ1DN_CommissionDetail.pdf</v>
       </c>
       <c r="K34" t="s">
-        <v>13</v>
+        <v>183</v>
       </c>
       <c r="L34" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="M34" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="35" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C35" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D35" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E35">
         <v>1</v>
@@ -3145,31 +3154,31 @@
       </c>
       <c r="G35" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_QZ1EO_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_QZ1EO_CommissionSummary.pdf</v>
       </c>
       <c r="H35" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_QZ1EO_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_QZ1EO_CommissionDetail.pdf</v>
       </c>
       <c r="K35" t="s">
-        <v>13</v>
+        <v>183</v>
       </c>
       <c r="L35" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="M35" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="36" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C36" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D36" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E36">
         <v>1</v>
@@ -3179,31 +3188,31 @@
       </c>
       <c r="G36" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_CZ1CB_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_CZ1CB_CommissionSummary.pdf</v>
       </c>
       <c r="H36" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_CZ1CB_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_CZ1CB_CommissionDetail.pdf</v>
       </c>
       <c r="K36" t="s">
-        <v>13</v>
+        <v>183</v>
       </c>
       <c r="L36" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="M36" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="37" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C37" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D37" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E37">
         <v>1</v>
@@ -3213,31 +3222,31 @@
       </c>
       <c r="G37" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_CZ1B8_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_CZ1B8_CommissionSummary.pdf</v>
       </c>
       <c r="H37" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_CZ1B8_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_CZ1B8_CommissionDetail.pdf</v>
       </c>
       <c r="K37" t="s">
-        <v>13</v>
+        <v>183</v>
       </c>
       <c r="L37" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="M37" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="38" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C38" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D38" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E38">
         <v>1</v>
@@ -3247,31 +3256,31 @@
       </c>
       <c r="G38" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_CZ1C4_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_CZ1C4_CommissionSummary.pdf</v>
       </c>
       <c r="H38" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_CZ1C4_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_CZ1C4_CommissionDetail.pdf</v>
       </c>
       <c r="K38" t="s">
-        <v>13</v>
+        <v>183</v>
       </c>
       <c r="L38" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="M38" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="39" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C39" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D39" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E39">
         <v>1</v>
@@ -3281,31 +3290,31 @@
       </c>
       <c r="G39" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_QZ1D8_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_QZ1D8_CommissionSummary.pdf</v>
       </c>
       <c r="H39" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_QZ1D8_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_QZ1D8_CommissionDetail.pdf</v>
       </c>
       <c r="K39" t="s">
-        <v>13</v>
+        <v>183</v>
       </c>
       <c r="L39" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="M39" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="40" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C40" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D40" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E40">
         <v>1</v>
@@ -3315,31 +3324,31 @@
       </c>
       <c r="G40" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_CZ1SW_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_CZ1SW_CommissionSummary.pdf</v>
       </c>
       <c r="H40" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_CZ1SW_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_CZ1SW_CommissionDetail.pdf</v>
       </c>
       <c r="K40" t="s">
-        <v>13</v>
+        <v>183</v>
       </c>
       <c r="L40" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="M40" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="41" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C41" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D41" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E41">
         <v>1</v>
@@ -3349,31 +3358,31 @@
       </c>
       <c r="G41" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_QZ1AP_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_QZ1AP_CommissionSummary.pdf</v>
       </c>
       <c r="H41" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_QZ1AP_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_QZ1AP_CommissionDetail.pdf</v>
       </c>
       <c r="K41" t="s">
-        <v>13</v>
+        <v>183</v>
       </c>
       <c r="L41" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="M41" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
     <row r="42" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C42" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D42" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E42">
         <v>1</v>
@@ -3383,31 +3392,31 @@
       </c>
       <c r="G42" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_CZ2CB_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_CZ2CB_CommissionSummary.pdf</v>
       </c>
       <c r="H42" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_CZ2CB_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_CZ2CB_CommissionDetail.pdf</v>
       </c>
       <c r="K42" t="s">
-        <v>13</v>
+        <v>183</v>
       </c>
       <c r="L42" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="M42" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="43" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C43" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D43" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E43">
         <v>1</v>
@@ -3417,31 +3426,31 @@
       </c>
       <c r="G43" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_CZ1CG_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_CZ1CG_CommissionSummary.pdf</v>
       </c>
       <c r="H43" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_CZ1CG_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_CZ1CG_CommissionDetail.pdf</v>
       </c>
       <c r="K43" t="s">
-        <v>13</v>
+        <v>183</v>
       </c>
       <c r="L43" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="M43" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
     </row>
     <row r="44" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C44" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D44" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E44">
         <v>1</v>
@@ -3451,31 +3460,31 @@
       </c>
       <c r="G44" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_AZ1PV_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_AZ1PV_CommissionSummary.pdf</v>
       </c>
       <c r="H44" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_AZ1PV_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_AZ1PV_CommissionDetail.pdf</v>
       </c>
       <c r="K44" t="s">
-        <v>13</v>
+        <v>183</v>
       </c>
       <c r="L44" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="M44" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="45" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C45" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D45" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E45">
         <v>1</v>
@@ -3485,31 +3494,31 @@
       </c>
       <c r="G45" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_CZ3CB_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_CZ3CB_CommissionSummary.pdf</v>
       </c>
       <c r="H45" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_CZ3CB_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_CZ3CB_CommissionDetail.pdf</v>
       </c>
       <c r="K45" t="s">
-        <v>13</v>
+        <v>183</v>
       </c>
       <c r="L45" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="M45" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
     </row>
     <row r="46" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C46" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D46" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E46">
         <v>1</v>
@@ -3519,31 +3528,31 @@
       </c>
       <c r="G46" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_CZ5CS_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_CZ5CS_CommissionSummary.pdf</v>
       </c>
       <c r="H46" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_CZ5CS_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_CZ5CS_CommissionDetail.pdf</v>
       </c>
       <c r="K46" t="s">
-        <v>13</v>
+        <v>183</v>
       </c>
       <c r="L46" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="M46" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
     </row>
     <row r="47" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C47" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D47" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E47">
         <v>1</v>
@@ -3553,31 +3562,31 @@
       </c>
       <c r="G47" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_CZ8JA_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_CZ8JA_CommissionSummary.pdf</v>
       </c>
       <c r="H47" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_CZ8JA_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_CZ8JA_CommissionDetail.pdf</v>
       </c>
       <c r="K47" t="s">
-        <v>13</v>
+        <v>183</v>
       </c>
       <c r="L47" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="M47" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
     </row>
     <row r="48" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C48" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D48" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E48">
         <v>1</v>
@@ -3587,31 +3596,31 @@
       </c>
       <c r="G48" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_QZ7JM_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_QZ7JM_CommissionSummary.pdf</v>
       </c>
       <c r="H48" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_QZ7JM_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_QZ7JM_CommissionDetail.pdf</v>
       </c>
       <c r="K48" t="s">
-        <v>13</v>
+        <v>183</v>
       </c>
       <c r="L48" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="M48" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
     </row>
     <row r="49" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C49" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D49" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E49">
         <v>1</v>
@@ -3621,31 +3630,31 @@
       </c>
       <c r="G49" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_QZ7DO_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_QZ7DO_CommissionSummary.pdf</v>
       </c>
       <c r="H49" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_QZ7DO_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_QZ7DO_CommissionDetail.pdf</v>
       </c>
       <c r="K49" t="s">
-        <v>13</v>
+        <v>183</v>
       </c>
       <c r="L49" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="M49" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
     </row>
     <row r="50" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C50" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D50" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E50">
         <v>1</v>
@@ -3655,31 +3664,31 @@
       </c>
       <c r="G50" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_CZ5TA_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_CZ5TA_CommissionSummary.pdf</v>
       </c>
       <c r="H50" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_CZ5TA_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_CZ5TA_CommissionDetail.pdf</v>
       </c>
       <c r="K50" t="s">
-        <v>13</v>
+        <v>183</v>
       </c>
       <c r="L50" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="M50" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
     <row r="51" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C51" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D51" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E51">
         <v>1</v>
@@ -3689,31 +3698,31 @@
       </c>
       <c r="G51" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_CZ2LB_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_CZ2LB_CommissionSummary.pdf</v>
       </c>
       <c r="H51" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_CZ2LB_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_CZ2LB_CommissionDetail.pdf</v>
       </c>
       <c r="K51" t="s">
-        <v>13</v>
+        <v>183</v>
       </c>
       <c r="L51" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="M51" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
     </row>
     <row r="52" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B52" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C52" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D52" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E52">
         <v>1</v>
@@ -3723,31 +3732,31 @@
       </c>
       <c r="G52" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_CZ2GB_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_CZ2GB_CommissionSummary.pdf</v>
       </c>
       <c r="H52" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_CZ2GB_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_CZ2GB_CommissionDetail.pdf</v>
       </c>
       <c r="K52" t="s">
-        <v>13</v>
+        <v>183</v>
       </c>
       <c r="L52" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="M52" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
     </row>
     <row r="53" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B53" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C53" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D53" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E53">
         <v>1</v>
@@ -3757,31 +3766,31 @@
       </c>
       <c r="G53" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_CZ2LH_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_CZ2LH_CommissionSummary.pdf</v>
       </c>
       <c r="H53" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_CZ2LH_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_CZ2LH_CommissionDetail.pdf</v>
       </c>
       <c r="K53" t="s">
-        <v>13</v>
+        <v>183</v>
       </c>
       <c r="L53" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="M53" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
     </row>
     <row r="54" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B54" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C54" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D54" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E54">
         <v>1</v>
@@ -3791,31 +3800,31 @@
       </c>
       <c r="G54" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_CZ2NM_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_CZ2NM_CommissionSummary.pdf</v>
       </c>
       <c r="H54" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_CZ2NM_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_CZ2NM_CommissionDetail.pdf</v>
       </c>
       <c r="K54" t="s">
-        <v>13</v>
+        <v>183</v>
       </c>
       <c r="L54" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="M54" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
     </row>
     <row r="55" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B55" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C55" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D55" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E55">
         <v>1</v>
@@ -3825,31 +3834,31 @@
       </c>
       <c r="G55" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_QZ2SB_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_QZ2SB_CommissionSummary.pdf</v>
       </c>
       <c r="H55" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_QZ2SB_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_QZ2SB_CommissionDetail.pdf</v>
       </c>
       <c r="K55" t="s">
-        <v>13</v>
+        <v>183</v>
       </c>
       <c r="L55" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="M55" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
     </row>
     <row r="56" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B56" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C56" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D56" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E56">
         <v>1</v>
@@ -3859,31 +3868,31 @@
       </c>
       <c r="G56" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_CZ2BG_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_CZ2BG_CommissionSummary.pdf</v>
       </c>
       <c r="H56" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_CZ2BG_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_CZ2BG_CommissionDetail.pdf</v>
       </c>
       <c r="K56" t="s">
-        <v>13</v>
+        <v>183</v>
       </c>
       <c r="L56" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="M56" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="57" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B57" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C57" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D57" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E57">
         <v>1</v>
@@ -3893,31 +3902,31 @@
       </c>
       <c r="G57" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_CZ1SA_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_CZ1SA_CommissionSummary.pdf</v>
       </c>
       <c r="H57" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_CZ1SA_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_CZ1SA_CommissionDetail.pdf</v>
       </c>
       <c r="K57" t="s">
-        <v>13</v>
+        <v>183</v>
       </c>
       <c r="L57" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="M57" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
     </row>
     <row r="58" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B58" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C58" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D58" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E58">
         <v>1</v>
@@ -3927,31 +3936,31 @@
       </c>
       <c r="G58" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_WZ115_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_WZ115_CommissionSummary.pdf</v>
       </c>
       <c r="H58" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_WZ115_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_WZ115_CommissionDetail.pdf</v>
       </c>
       <c r="K58" t="s">
-        <v>13</v>
+        <v>183</v>
       </c>
       <c r="L58" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="M58" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
     </row>
     <row r="59" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B59" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C59" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D59" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E59">
         <v>1</v>
@@ -3961,31 +3970,31 @@
       </c>
       <c r="G59" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_WZ120_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_WZ120_CommissionSummary.pdf</v>
       </c>
       <c r="H59" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_WZ120_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_WZ120_CommissionDetail.pdf</v>
       </c>
       <c r="K59" t="s">
-        <v>13</v>
+        <v>183</v>
       </c>
       <c r="L59" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="M59" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
     </row>
     <row r="60" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B60" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C60" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D60" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E60">
         <v>1</v>
@@ -3995,31 +4004,31 @@
       </c>
       <c r="G60" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_WZ118_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_WZ118_CommissionSummary.pdf</v>
       </c>
       <c r="H60" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_WZ118_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_WZ118_CommissionDetail.pdf</v>
       </c>
       <c r="K60" t="s">
-        <v>13</v>
+        <v>183</v>
       </c>
       <c r="L60" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="M60" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="61" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B61" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C61" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D61" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E61">
         <v>1</v>
@@ -4029,31 +4038,31 @@
       </c>
       <c r="G61" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_WZ119_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_WZ119_CommissionSummary.pdf</v>
       </c>
       <c r="H61" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_WZ119_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_WZ119_CommissionDetail.pdf</v>
       </c>
       <c r="K61" t="s">
-        <v>13</v>
+        <v>183</v>
       </c>
       <c r="L61" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="M61" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
     </row>
     <row r="62" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B62" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C62" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D62" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E62">
         <v>1</v>
@@ -4063,31 +4072,31 @@
       </c>
       <c r="G62" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_WZ138_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_WZ138_CommissionSummary.pdf</v>
       </c>
       <c r="H62" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_WZ138_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_WZ138_CommissionDetail.pdf</v>
       </c>
       <c r="K62" t="s">
-        <v>13</v>
+        <v>183</v>
       </c>
       <c r="L62" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="M62" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
     </row>
     <row r="63" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B63" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C63" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D63" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E63">
         <v>1</v>
@@ -4097,31 +4106,31 @@
       </c>
       <c r="G63" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_WZ142_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_WZ142_CommissionSummary.pdf</v>
       </c>
       <c r="H63" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_WZ142_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_WZ142_CommissionDetail.pdf</v>
       </c>
       <c r="K63" t="s">
-        <v>13</v>
+        <v>183</v>
       </c>
       <c r="L63" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="M63" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
     </row>
     <row r="64" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B64" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C64" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D64" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E64">
         <v>1</v>
@@ -4131,31 +4140,31 @@
       </c>
       <c r="G64" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_WZ134_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_WZ134_CommissionSummary.pdf</v>
       </c>
       <c r="H64" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_WZ134_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_WZ134_CommissionDetail.pdf</v>
       </c>
       <c r="K64" t="s">
-        <v>13</v>
+        <v>183</v>
       </c>
       <c r="L64" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="M64" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
     </row>
     <row r="65" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B65" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C65" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D65" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E65">
         <v>1</v>
@@ -4165,31 +4174,31 @@
       </c>
       <c r="G65" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_WZ123_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_WZ123_CommissionSummary.pdf</v>
       </c>
       <c r="H65" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_WZ123_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_WZ123_CommissionDetail.pdf</v>
       </c>
       <c r="K65" t="s">
-        <v>13</v>
+        <v>183</v>
       </c>
       <c r="L65" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="M65" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="66" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B66" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C66" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D66" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E66">
         <v>1</v>
@@ -4199,31 +4208,31 @@
       </c>
       <c r="G66" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_WZ136_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_WZ136_CommissionSummary.pdf</v>
       </c>
       <c r="H66" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_WZ136_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_WZ136_CommissionDetail.pdf</v>
       </c>
       <c r="K66" t="s">
-        <v>13</v>
+        <v>183</v>
       </c>
       <c r="L66" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="M66" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
     </row>
     <row r="67" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B67" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C67" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D67" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E67">
         <v>1</v>
@@ -4233,31 +4242,31 @@
       </c>
       <c r="G67" t="str">
         <f t="shared" ref="G67:G130" si="2">$K67&amp;"\"&amp;L67</f>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_WZ165_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_WZ165_CommissionSummary.pdf</v>
       </c>
       <c r="H67" t="str">
         <f t="shared" ref="H67:H130" si="3">$K67&amp;"\"&amp;M67</f>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_WZ165_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_WZ165_CommissionDetail.pdf</v>
       </c>
       <c r="K67" t="s">
-        <v>13</v>
+        <v>183</v>
       </c>
       <c r="L67" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="M67" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
     </row>
     <row r="68" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B68" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C68" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D68" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E68">
         <v>1</v>
@@ -4267,31 +4276,31 @@
       </c>
       <c r="G68" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_WZ1FF_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_WZ1FF_CommissionSummary.pdf</v>
       </c>
       <c r="H68" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_WZ1FF_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_WZ1FF_CommissionDetail.pdf</v>
       </c>
       <c r="K68" t="s">
-        <v>13</v>
+        <v>183</v>
       </c>
       <c r="L68" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="M68" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
     </row>
     <row r="69" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B69" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C69" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D69" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E69">
         <v>1</v>
@@ -4301,31 +4310,31 @@
       </c>
       <c r="G69" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_WZ167_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_WZ167_CommissionSummary.pdf</v>
       </c>
       <c r="H69" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_WZ167_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_WZ167_CommissionDetail.pdf</v>
       </c>
       <c r="K69" t="s">
-        <v>13</v>
+        <v>183</v>
       </c>
       <c r="L69" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="M69" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="70" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B70" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C70" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D70" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E70">
         <v>1</v>
@@ -4335,31 +4344,31 @@
       </c>
       <c r="G70" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_WZ175_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_WZ175_CommissionSummary.pdf</v>
       </c>
       <c r="H70" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_WZ175_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_WZ175_CommissionDetail.pdf</v>
       </c>
       <c r="K70" t="s">
-        <v>13</v>
+        <v>183</v>
       </c>
       <c r="L70" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="M70" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="71" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B71" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C71" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D71" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E71">
         <v>1</v>
@@ -4369,31 +4378,31 @@
       </c>
       <c r="G71" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_WZ177_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_WZ177_CommissionSummary.pdf</v>
       </c>
       <c r="H71" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_WZ177_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_WZ177_CommissionDetail.pdf</v>
       </c>
       <c r="K71" t="s">
-        <v>13</v>
+        <v>183</v>
       </c>
       <c r="L71" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="M71" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="72" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B72" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C72" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D72" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E72">
         <v>1</v>
@@ -4403,31 +4412,31 @@
       </c>
       <c r="G72" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_WZ143_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_WZ143_CommissionSummary.pdf</v>
       </c>
       <c r="H72" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_WZ143_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_WZ143_CommissionDetail.pdf</v>
       </c>
       <c r="K72" t="s">
-        <v>13</v>
+        <v>183</v>
       </c>
       <c r="L72" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="M72" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="73" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B73" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C73" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D73" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E73">
         <v>1</v>
@@ -4437,31 +4446,31 @@
       </c>
       <c r="G73" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_WZ159_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_WZ159_CommissionSummary.pdf</v>
       </c>
       <c r="H73" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_WZ159_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_WZ159_CommissionDetail.pdf</v>
       </c>
       <c r="K73" t="s">
-        <v>13</v>
+        <v>183</v>
       </c>
       <c r="L73" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="M73" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
     </row>
     <row r="74" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B74" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C74" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D74" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E74">
         <v>1</v>
@@ -4471,31 +4480,31 @@
       </c>
       <c r="G74" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_WZ162_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_WZ162_CommissionSummary.pdf</v>
       </c>
       <c r="H74" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_WZ162_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_WZ162_CommissionDetail.pdf</v>
       </c>
       <c r="K74" t="s">
-        <v>13</v>
+        <v>183</v>
       </c>
       <c r="L74" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="M74" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
     </row>
     <row r="75" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B75" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C75" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D75" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E75">
         <v>1</v>
@@ -4505,31 +4514,31 @@
       </c>
       <c r="G75" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_WZ113_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_WZ113_CommissionSummary.pdf</v>
       </c>
       <c r="H75" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_WZ113_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_WZ113_CommissionDetail.pdf</v>
       </c>
       <c r="K75" t="s">
-        <v>13</v>
+        <v>183</v>
       </c>
       <c r="L75" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="M75" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
     </row>
     <row r="76" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B76" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C76" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D76" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E76">
         <v>1</v>
@@ -4539,31 +4548,31 @@
       </c>
       <c r="G76" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_WZ137_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_WZ137_CommissionSummary.pdf</v>
       </c>
       <c r="H76" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_WZ137_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_WZ137_CommissionDetail.pdf</v>
       </c>
       <c r="K76" t="s">
-        <v>13</v>
+        <v>183</v>
       </c>
       <c r="L76" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="M76" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
     </row>
     <row r="77" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B77" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C77" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D77" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E77">
         <v>1</v>
@@ -4573,31 +4582,31 @@
       </c>
       <c r="G77" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_WZ1G4_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_WZ1G4_CommissionSummary.pdf</v>
       </c>
       <c r="H77" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_WZ1G4_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_WZ1G4_CommissionDetail.pdf</v>
       </c>
       <c r="K77" t="s">
-        <v>13</v>
+        <v>183</v>
       </c>
       <c r="L77" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="M77" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
     </row>
     <row r="78" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B78" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C78" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D78" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E78">
         <v>1</v>
@@ -4607,31 +4616,31 @@
       </c>
       <c r="G78" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_WZ1CE_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_WZ1CE_CommissionSummary.pdf</v>
       </c>
       <c r="H78" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_WZ1CE_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_WZ1CE_CommissionDetail.pdf</v>
       </c>
       <c r="K78" t="s">
-        <v>13</v>
+        <v>183</v>
       </c>
       <c r="L78" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="M78" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
     </row>
     <row r="79" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B79" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C79" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D79" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E79">
         <v>1</v>
@@ -4641,31 +4650,31 @@
       </c>
       <c r="G79" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_WZBW1_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_WZBW1_CommissionSummary.pdf</v>
       </c>
       <c r="H79" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_WZBW1_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_WZBW1_CommissionDetail.pdf</v>
       </c>
       <c r="K79" t="s">
-        <v>13</v>
+        <v>183</v>
       </c>
       <c r="L79" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="M79" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
     </row>
     <row r="80" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B80" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C80" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D80" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E80">
         <v>1</v>
@@ -4675,31 +4684,31 @@
       </c>
       <c r="G80" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_WZ9TS_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_WZ9TS_CommissionSummary.pdf</v>
       </c>
       <c r="H80" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_WZ9TS_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_WZ9TS_CommissionDetail.pdf</v>
       </c>
       <c r="K80" t="s">
-        <v>13</v>
+        <v>183</v>
       </c>
       <c r="L80" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="M80" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
     </row>
     <row r="81" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B81" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C81" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D81" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E81">
         <v>1</v>
@@ -4709,31 +4718,31 @@
       </c>
       <c r="G81" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_WZ1HM_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_WZ1HM_CommissionSummary.pdf</v>
       </c>
       <c r="H81" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_WZ1HM_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_WZ1HM_CommissionDetail.pdf</v>
       </c>
       <c r="K81" t="s">
-        <v>13</v>
+        <v>183</v>
       </c>
       <c r="L81" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="M81" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
     </row>
     <row r="82" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B82" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C82" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D82" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E82">
         <v>1</v>
@@ -4743,31 +4752,31 @@
       </c>
       <c r="G82" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_WZ1HM_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_WZ1HM_CommissionSummary.pdf</v>
       </c>
       <c r="H82" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_WZ1HM_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_WZ1HM_CommissionDetail.pdf</v>
       </c>
       <c r="K82" t="s">
-        <v>13</v>
+        <v>183</v>
       </c>
       <c r="L82" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="M82" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
     </row>
     <row r="83" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B83" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C83" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D83" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E83">
         <v>1</v>
@@ -4777,31 +4786,31 @@
       </c>
       <c r="G83" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_WZ2RP_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_WZ2RP_CommissionSummary.pdf</v>
       </c>
       <c r="H83" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_WZ2RP_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_WZ2RP_CommissionDetail.pdf</v>
       </c>
       <c r="K83" t="s">
-        <v>13</v>
+        <v>183</v>
       </c>
       <c r="L83" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="M83" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
     </row>
     <row r="84" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B84" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C84" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D84" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E84">
         <v>1</v>
@@ -4811,31 +4820,31 @@
       </c>
       <c r="G84" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_WZ1TT_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_WZ1TT_CommissionSummary.pdf</v>
       </c>
       <c r="H84" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_WZ1TT_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_WZ1TT_CommissionDetail.pdf</v>
       </c>
       <c r="K84" t="s">
-        <v>13</v>
+        <v>183</v>
       </c>
       <c r="L84" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="M84" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
     </row>
     <row r="85" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B85" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C85" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D85" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E85">
         <v>1</v>
@@ -4845,31 +4854,31 @@
       </c>
       <c r="G85" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_WZ1AM_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_WZ1AM_CommissionSummary.pdf</v>
       </c>
       <c r="H85" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_WZ1AM_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_WZ1AM_CommissionDetail.pdf</v>
       </c>
       <c r="K85" t="s">
-        <v>13</v>
+        <v>183</v>
       </c>
       <c r="L85" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="M85" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
     </row>
     <row r="86" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B86" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C86" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D86" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E86">
         <v>1</v>
@@ -4879,31 +4888,31 @@
       </c>
       <c r="G86" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_WZ1JW_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_WZ1JW_CommissionSummary.pdf</v>
       </c>
       <c r="H86" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_WZ1JW_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_WZ1JW_CommissionDetail.pdf</v>
       </c>
       <c r="K86" t="s">
-        <v>13</v>
+        <v>183</v>
       </c>
       <c r="L86" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="M86" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
     </row>
     <row r="87" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B87" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C87" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D87" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E87">
         <v>1</v>
@@ -4913,31 +4922,31 @@
       </c>
       <c r="G87" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_WZ1MH_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_WZ1MH_CommissionSummary.pdf</v>
       </c>
       <c r="H87" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_WZ1MH_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_WZ1MH_CommissionDetail.pdf</v>
       </c>
       <c r="K87" t="s">
-        <v>13</v>
+        <v>183</v>
       </c>
       <c r="L87" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="M87" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
     </row>
     <row r="88" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B88" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C88" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D88" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E88">
         <v>1</v>
@@ -4947,31 +4956,31 @@
       </c>
       <c r="G88" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_WZ1TM_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_WZ1TM_CommissionSummary.pdf</v>
       </c>
       <c r="H88" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_WZ1TM_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_WZ1TM_CommissionDetail.pdf</v>
       </c>
       <c r="K88" t="s">
-        <v>13</v>
+        <v>183</v>
       </c>
       <c r="L88" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="M88" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
     </row>
     <row r="89" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B89" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C89" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D89" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E89">
         <v>1</v>
@@ -4981,31 +4990,31 @@
       </c>
       <c r="G89" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_WZ2AM_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_WZ2AM_CommissionSummary.pdf</v>
       </c>
       <c r="H89" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_WZ2AM_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_WZ2AM_CommissionDetail.pdf</v>
       </c>
       <c r="K89" t="s">
-        <v>13</v>
+        <v>183</v>
       </c>
       <c r="L89" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="M89" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
     </row>
     <row r="90" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B90" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C90" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D90" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E90">
         <v>1</v>
@@ -5015,31 +5024,31 @@
       </c>
       <c r="G90" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_WZ1SC_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_WZ1SC_CommissionSummary.pdf</v>
       </c>
       <c r="H90" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_WZ1SC_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_WZ1SC_CommissionDetail.pdf</v>
       </c>
       <c r="K90" t="s">
-        <v>13</v>
+        <v>183</v>
       </c>
       <c r="L90" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="M90" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
     </row>
     <row r="91" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B91" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C91" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D91" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E91">
         <v>1</v>
@@ -5049,31 +5058,31 @@
       </c>
       <c r="G91" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_WZ1PB_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_WZ1PB_CommissionSummary.pdf</v>
       </c>
       <c r="H91" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_WZ1PB_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_WZ1PB_CommissionDetail.pdf</v>
       </c>
       <c r="K91" t="s">
-        <v>13</v>
+        <v>183</v>
       </c>
       <c r="L91" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="M91" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
     </row>
     <row r="92" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B92" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C92" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D92" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E92">
         <v>1</v>
@@ -5083,31 +5092,31 @@
       </c>
       <c r="G92" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_WZ1JN_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_WZ1JN_CommissionSummary.pdf</v>
       </c>
       <c r="H92" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_WZ1JN_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_WZ1JN_CommissionDetail.pdf</v>
       </c>
       <c r="K92" t="s">
-        <v>13</v>
+        <v>183</v>
       </c>
       <c r="L92" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="M92" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
     </row>
     <row r="93" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B93" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C93" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D93" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E93">
         <v>1</v>
@@ -5117,31 +5126,31 @@
       </c>
       <c r="G93" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_WZ1MK_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_WZ1MK_CommissionSummary.pdf</v>
       </c>
       <c r="H93" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_WZ1MK_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_WZ1MK_CommissionDetail.pdf</v>
       </c>
       <c r="K93" t="s">
-        <v>13</v>
+        <v>183</v>
       </c>
       <c r="L93" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="M93" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
     </row>
     <row r="94" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B94" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C94" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D94" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E94">
         <v>1</v>
@@ -5151,31 +5160,31 @@
       </c>
       <c r="G94" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_WZ1CA_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_WZ1CA_CommissionSummary.pdf</v>
       </c>
       <c r="H94" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_WZ1CA_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_WZ1CA_CommissionDetail.pdf</v>
       </c>
       <c r="K94" t="s">
-        <v>13</v>
+        <v>183</v>
       </c>
       <c r="L94" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="M94" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
     </row>
     <row r="95" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B95" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C95" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D95" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E95">
         <v>1</v>
@@ -5185,31 +5194,31 @@
       </c>
       <c r="G95" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_WZ2TM_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_WZ2TM_CommissionSummary.pdf</v>
       </c>
       <c r="H95" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_WZ2TM_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_WZ2TM_CommissionDetail.pdf</v>
       </c>
       <c r="K95" t="s">
-        <v>13</v>
+        <v>183</v>
       </c>
       <c r="L95" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="M95" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
     </row>
     <row r="96" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B96" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C96" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D96" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E96">
         <v>1</v>
@@ -5219,31 +5228,31 @@
       </c>
       <c r="G96" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_WZ1BC_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_WZ1BC_CommissionSummary.pdf</v>
       </c>
       <c r="H96" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_WZ1BC_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_WZ1BC_CommissionDetail.pdf</v>
       </c>
       <c r="K96" t="s">
-        <v>13</v>
+        <v>183</v>
       </c>
       <c r="L96" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="M96" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
     </row>
     <row r="97" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B97" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C97" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D97" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E97">
         <v>1</v>
@@ -5253,31 +5262,31 @@
       </c>
       <c r="G97" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_WZ1JL_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_WZ1JL_CommissionSummary.pdf</v>
       </c>
       <c r="H97" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_WZ1JL_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_WZ1JL_CommissionDetail.pdf</v>
       </c>
       <c r="K97" t="s">
-        <v>13</v>
+        <v>183</v>
       </c>
       <c r="L97" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="M97" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
     </row>
     <row r="98" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B98" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C98" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D98" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E98">
         <v>1</v>
@@ -5287,31 +5296,31 @@
       </c>
       <c r="G98" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_WZ1AL_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_WZ1AL_CommissionSummary.pdf</v>
       </c>
       <c r="H98" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_WZ1AL_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_WZ1AL_CommissionDetail.pdf</v>
       </c>
       <c r="K98" t="s">
-        <v>13</v>
+        <v>183</v>
       </c>
       <c r="L98" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="M98" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
     </row>
     <row r="99" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B99" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C99" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D99" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E99">
         <v>1</v>
@@ -5321,31 +5330,31 @@
       </c>
       <c r="G99" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_WZ1MW_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_WZ1MW_CommissionSummary.pdf</v>
       </c>
       <c r="H99" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_WZ1MW_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_WZ1MW_CommissionDetail.pdf</v>
       </c>
       <c r="K99" t="s">
-        <v>13</v>
+        <v>183</v>
       </c>
       <c r="L99" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="M99" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
     </row>
     <row r="100" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B100" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C100" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D100" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E100">
         <v>1</v>
@@ -5355,31 +5364,31 @@
       </c>
       <c r="G100" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_WZ1MS_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_WZ1MS_CommissionSummary.pdf</v>
       </c>
       <c r="H100" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_WZ1MS_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_WZ1MS_CommissionDetail.pdf</v>
       </c>
       <c r="K100" t="s">
-        <v>13</v>
+        <v>183</v>
       </c>
       <c r="L100" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="M100" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
     </row>
     <row r="101" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B101" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C101" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D101" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E101">
         <v>1</v>
@@ -5389,31 +5398,31 @@
       </c>
       <c r="G101" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_WZ1DF_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_WZ1DF_CommissionSummary.pdf</v>
       </c>
       <c r="H101" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_WZ1DF_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_WZ1DF_CommissionDetail.pdf</v>
       </c>
       <c r="K101" t="s">
-        <v>13</v>
+        <v>183</v>
       </c>
       <c r="L101" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="M101" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
     </row>
     <row r="102" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B102" t="s">
-        <v>111</v>
+        <v>172</v>
       </c>
       <c r="C102" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D102" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E102">
         <v>1</v>
@@ -5423,31 +5432,31 @@
       </c>
       <c r="G102" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_CZ1GF_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_WZ1JI_CommissionSummary.pdf</v>
       </c>
       <c r="H102" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_CZ1GF_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_WZ1JI_CommissionDetail.pdf</v>
       </c>
       <c r="K102" t="s">
-        <v>13</v>
+        <v>183</v>
       </c>
       <c r="L102" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="M102" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
     </row>
     <row r="103" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B103" t="s">
-        <v>112</v>
+        <v>171</v>
       </c>
       <c r="C103" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D103" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E103">
         <v>1</v>
@@ -5457,31 +5466,31 @@
       </c>
       <c r="G103" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_QZ1BP_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_WZ1CM_CommissionSummary.pdf</v>
       </c>
       <c r="H103" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_QZ1BP_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_WZ1CM_CommissionDetail.pdf</v>
       </c>
       <c r="K103" t="s">
-        <v>13</v>
+        <v>183</v>
       </c>
       <c r="L103" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="M103" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
     </row>
     <row r="104" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B104" t="s">
-        <v>113</v>
+        <v>174</v>
       </c>
       <c r="C104" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D104" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E104">
         <v>1</v>
@@ -5491,31 +5500,31 @@
       </c>
       <c r="G104" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_CZ1JF_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_WZ2MS_CommissionSummary.pdf</v>
       </c>
       <c r="H104" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_CZ1JF_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_WZ2MS_CommissionDetail.pdf</v>
       </c>
       <c r="K104" t="s">
-        <v>13</v>
+        <v>183</v>
       </c>
       <c r="L104" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="M104" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
     </row>
     <row r="105" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B105" t="s">
-        <v>114</v>
+        <v>178</v>
       </c>
       <c r="C105" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D105" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E105">
         <v>1</v>
@@ -5525,31 +5534,31 @@
       </c>
       <c r="G105" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_AZ1CI_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_WZ2JN_CommissionSummary.pdf</v>
       </c>
       <c r="H105" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_AZ1CI_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_WZ2JN_CommissionDetail.pdf</v>
       </c>
       <c r="K105" t="s">
-        <v>13</v>
+        <v>183</v>
       </c>
       <c r="L105" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="M105" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
     </row>
     <row r="106" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B106" t="s">
-        <v>115</v>
+        <v>181</v>
       </c>
       <c r="C106" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D106" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E106">
         <v>1</v>
@@ -5559,31 +5568,31 @@
       </c>
       <c r="G106" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_CZ1KM_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_CZ1RD_CommissionSummary.pdf</v>
       </c>
       <c r="H106" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_CZ1KM_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_CZ1RD_CommissionDetail.pdf</v>
       </c>
       <c r="K106" t="s">
-        <v>13</v>
+        <v>183</v>
       </c>
       <c r="L106" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="M106" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
     </row>
     <row r="107" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B107" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="C107" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D107" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E107">
         <v>1</v>
@@ -5593,31 +5602,31 @@
       </c>
       <c r="G107" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_CZ1OV_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_CZ1GF_CommissionSummary.pdf</v>
       </c>
       <c r="H107" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_CZ1OV_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_CZ1GF_CommissionDetail.pdf</v>
       </c>
       <c r="K107" t="s">
-        <v>13</v>
+        <v>183</v>
       </c>
       <c r="L107" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="M107" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="108" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B108" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="C108" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D108" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E108">
         <v>1</v>
@@ -5627,31 +5636,31 @@
       </c>
       <c r="G108" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_QZ1JB_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_QZ1BP_CommissionSummary.pdf</v>
       </c>
       <c r="H108" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_QZ1JB_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_QZ1BP_CommissionDetail.pdf</v>
       </c>
       <c r="K108" t="s">
-        <v>13</v>
+        <v>183</v>
       </c>
       <c r="L108" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="M108" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
     </row>
     <row r="109" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B109" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="C109" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D109" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E109">
         <v>1</v>
@@ -5661,31 +5670,31 @@
       </c>
       <c r="G109" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_QZ1BG_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_CZ1JF_CommissionSummary.pdf</v>
       </c>
       <c r="H109" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_QZ1BG_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_CZ1JF_CommissionDetail.pdf</v>
       </c>
       <c r="K109" t="s">
-        <v>13</v>
+        <v>183</v>
       </c>
       <c r="L109" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="M109" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="110" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B110" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="C110" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D110" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E110">
         <v>1</v>
@@ -5695,31 +5704,31 @@
       </c>
       <c r="G110" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_CZ1TM_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_AZ1CI_CommissionSummary.pdf</v>
       </c>
       <c r="H110" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_CZ1TM_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_AZ1CI_CommissionDetail.pdf</v>
       </c>
       <c r="K110" t="s">
-        <v>13</v>
+        <v>183</v>
       </c>
       <c r="L110" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="M110" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
     </row>
     <row r="111" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B111" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="C111" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D111" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E111">
         <v>1</v>
@@ -5729,31 +5738,31 @@
       </c>
       <c r="G111" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_QZ1BM_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_CZ1KM_CommissionSummary.pdf</v>
       </c>
       <c r="H111" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_QZ1BM_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_CZ1KM_CommissionDetail.pdf</v>
       </c>
       <c r="K111" t="s">
-        <v>13</v>
+        <v>183</v>
       </c>
       <c r="L111" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="M111" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
     </row>
     <row r="112" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B112" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="C112" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D112" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E112">
         <v>1</v>
@@ -5763,31 +5772,31 @@
       </c>
       <c r="G112" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_QZ1MD_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_CZ1OV_CommissionSummary.pdf</v>
       </c>
       <c r="H112" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_QZ1MD_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_CZ1OV_CommissionDetail.pdf</v>
       </c>
       <c r="K112" t="s">
-        <v>13</v>
+        <v>183</v>
       </c>
       <c r="L112" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="M112" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
     </row>
     <row r="113" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B113" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="C113" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D113" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E113">
         <v>1</v>
@@ -5797,31 +5806,31 @@
       </c>
       <c r="G113" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_AZ1JB_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_QZ1JB_CommissionSummary.pdf</v>
       </c>
       <c r="H113" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_AZ1JB_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_QZ1JB_CommissionDetail.pdf</v>
       </c>
       <c r="K113" t="s">
-        <v>13</v>
+        <v>183</v>
       </c>
       <c r="L113" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="M113" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
     </row>
     <row r="114" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B114" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="C114" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D114" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E114">
         <v>1</v>
@@ -5831,31 +5840,31 @@
       </c>
       <c r="G114" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_CZ1AD_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_QZ1BG_CommissionSummary.pdf</v>
       </c>
       <c r="H114" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_CZ1AD_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_QZ1BG_CommissionDetail.pdf</v>
       </c>
       <c r="K114" t="s">
-        <v>13</v>
+        <v>183</v>
       </c>
       <c r="L114" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="M114" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
     </row>
     <row r="115" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B115" t="s">
-        <v>182</v>
+        <v>118</v>
       </c>
       <c r="C115" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D115" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E115">
         <v>1</v>
@@ -5865,31 +5874,31 @@
       </c>
       <c r="G115" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_QZ1ML_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_CZ1TM_CommissionSummary.pdf</v>
       </c>
       <c r="H115" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_QZ1ML_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_CZ1TM_CommissionDetail.pdf</v>
       </c>
       <c r="K115" t="s">
-        <v>13</v>
+        <v>183</v>
       </c>
       <c r="L115" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="M115" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
     </row>
     <row r="116" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B116" t="s">
-        <v>124</v>
+        <v>19</v>
       </c>
       <c r="C116" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D116" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E116">
         <v>1</v>
@@ -5899,31 +5908,31 @@
       </c>
       <c r="G116" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_CZ1FA_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_QZ177_CommissionSummary.pdf</v>
       </c>
       <c r="H116" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_CZ1FA_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_QZ177_CommissionDetail.pdf</v>
       </c>
       <c r="K116" t="s">
-        <v>13</v>
+        <v>183</v>
       </c>
       <c r="L116" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="M116" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
     </row>
     <row r="117" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B117" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="C117" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D117" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E117">
         <v>1</v>
@@ -5933,31 +5942,31 @@
       </c>
       <c r="G117" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_CZ2SA_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_QZ1BM_CommissionSummary.pdf</v>
       </c>
       <c r="H117" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_CZ2SA_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_QZ1BM_CommissionDetail.pdf</v>
       </c>
       <c r="K117" t="s">
-        <v>13</v>
+        <v>183</v>
       </c>
       <c r="L117" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="M117" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
     </row>
     <row r="118" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B118" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="C118" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D118" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E118">
         <v>1</v>
@@ -5967,31 +5976,31 @@
       </c>
       <c r="G118" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_QZ1JN_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_QZ1MD_CommissionSummary.pdf</v>
       </c>
       <c r="H118" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_QZ1JN_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_QZ1MD_CommissionDetail.pdf</v>
       </c>
       <c r="K118" t="s">
-        <v>13</v>
+        <v>183</v>
       </c>
       <c r="L118" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="M118" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
     </row>
     <row r="119" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B119" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="C119" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D119" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E119">
         <v>1</v>
@@ -6001,31 +6010,31 @@
       </c>
       <c r="G119" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_QZ1SL_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_AZ1JB_CommissionSummary.pdf</v>
       </c>
       <c r="H119" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_QZ1SL_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_AZ1JB_CommissionDetail.pdf</v>
       </c>
       <c r="K119" t="s">
-        <v>13</v>
+        <v>183</v>
       </c>
       <c r="L119" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="M119" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
     </row>
     <row r="120" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B120" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="C120" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D120" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E120">
         <v>1</v>
@@ -6035,31 +6044,31 @@
       </c>
       <c r="G120" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_CZ1CN_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_CZ1AD_CommissionSummary.pdf</v>
       </c>
       <c r="H120" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_CZ1CN_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_CZ1AD_CommissionDetail.pdf</v>
       </c>
       <c r="K120" t="s">
-        <v>13</v>
+        <v>183</v>
       </c>
       <c r="L120" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="M120" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
     </row>
     <row r="121" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B121" t="s">
-        <v>129</v>
+        <v>180</v>
       </c>
       <c r="C121" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D121" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E121">
         <v>1</v>
@@ -6069,31 +6078,31 @@
       </c>
       <c r="G121" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_AZ1YU_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_QZ1ML_CommissionSummary.pdf</v>
       </c>
       <c r="H121" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_AZ1YU_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_QZ1ML_CommissionDetail.pdf</v>
       </c>
       <c r="K121" t="s">
-        <v>13</v>
+        <v>183</v>
       </c>
       <c r="L121" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="M121" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
     </row>
     <row r="122" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B122" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="C122" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D122" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E122">
         <v>1</v>
@@ -6103,31 +6112,31 @@
       </c>
       <c r="G122" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_AZ1WX_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_CZ1FA_CommissionSummary.pdf</v>
       </c>
       <c r="H122" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_AZ1WX_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_CZ1FA_CommissionDetail.pdf</v>
       </c>
       <c r="K122" t="s">
-        <v>13</v>
+        <v>183</v>
       </c>
       <c r="L122" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="M122" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
     </row>
     <row r="123" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B123" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="C123" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D123" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E123">
         <v>1</v>
@@ -6137,31 +6146,31 @@
       </c>
       <c r="G123" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_AZ1XF_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_CZ2SA_CommissionSummary.pdf</v>
       </c>
       <c r="H123" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_AZ1XF_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_CZ2SA_CommissionDetail.pdf</v>
       </c>
       <c r="K123" t="s">
-        <v>13</v>
+        <v>183</v>
       </c>
       <c r="L123" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="M123" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
     </row>
     <row r="124" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B124" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="C124" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D124" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E124">
         <v>1</v>
@@ -6171,31 +6180,31 @@
       </c>
       <c r="G124" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_AZ1XT_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_QZ1SL_CommissionSummary.pdf</v>
       </c>
       <c r="H124" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_AZ1XT_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_QZ1SL_CommissionDetail.pdf</v>
       </c>
       <c r="K124" t="s">
-        <v>13</v>
+        <v>183</v>
       </c>
       <c r="L124" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="M124" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="125" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B125" t="s">
-        <v>133</v>
+        <v>173</v>
       </c>
       <c r="C125" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D125" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E125">
         <v>1</v>
@@ -6205,31 +6214,31 @@
       </c>
       <c r="G125" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_AZ1YP_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_QZ3JB_CommissionSummary.pdf</v>
       </c>
       <c r="H125" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_AZ1YP_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_QZ3JB_CommissionDetail.pdf</v>
       </c>
       <c r="K125" t="s">
-        <v>13</v>
+        <v>183</v>
       </c>
       <c r="L125" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="M125" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
     </row>
     <row r="126" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B126" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="C126" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D126" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E126">
         <v>1</v>
@@ -6239,31 +6248,31 @@
       </c>
       <c r="G126" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_QZ1XH_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_CZ1CN_CommissionSummary.pdf</v>
       </c>
       <c r="H126" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_QZ1XH_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_CZ1CN_CommissionDetail.pdf</v>
       </c>
       <c r="K126" t="s">
-        <v>13</v>
+        <v>183</v>
       </c>
       <c r="L126" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="M126" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
     </row>
     <row r="127" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B127" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="C127" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D127" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E127">
         <v>1</v>
@@ -6273,31 +6282,31 @@
       </c>
       <c r="G127" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_QZ1TB_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_AZ1YU_CommissionSummary.pdf</v>
       </c>
       <c r="H127" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_QZ1TB_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_AZ1YU_CommissionDetail.pdf</v>
       </c>
       <c r="K127" t="s">
-        <v>13</v>
+        <v>183</v>
       </c>
       <c r="L127" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="M127" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
     </row>
     <row r="128" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B128" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="C128" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D128" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E128">
         <v>1</v>
@@ -6307,31 +6316,31 @@
       </c>
       <c r="G128" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_QZ1TD_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_AZ1WX_CommissionSummary.pdf</v>
       </c>
       <c r="H128" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_QZ1TD_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_AZ1WX_CommissionDetail.pdf</v>
       </c>
       <c r="K128" t="s">
-        <v>13</v>
+        <v>183</v>
       </c>
       <c r="L128" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="M128" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
     </row>
     <row r="129" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B129" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="C129" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D129" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E129">
         <v>1</v>
@@ -6341,31 +6350,31 @@
       </c>
       <c r="G129" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_QZ1TK_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_AZ1XF_CommissionSummary.pdf</v>
       </c>
       <c r="H129" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_QZ1TK_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_AZ1XF_CommissionDetail.pdf</v>
       </c>
       <c r="K129" t="s">
-        <v>13</v>
+        <v>183</v>
       </c>
       <c r="L129" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="M129" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
     </row>
     <row r="130" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B130" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="C130" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D130" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E130">
         <v>1</v>
@@ -6375,31 +6384,31 @@
       </c>
       <c r="G130" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_QZ1YE_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_AZ1XT_CommissionSummary.pdf</v>
       </c>
       <c r="H130" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_QZ1YE_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_AZ1XT_CommissionDetail.pdf</v>
       </c>
       <c r="K130" t="s">
-        <v>13</v>
+        <v>183</v>
       </c>
       <c r="L130" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="M130" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
     </row>
     <row r="131" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B131" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="C131" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D131" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E131">
         <v>1</v>
@@ -6409,31 +6418,31 @@
       </c>
       <c r="G131" t="str">
         <f t="shared" ref="G131:G170" si="4">$K131&amp;"\"&amp;L131</f>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_QZ1TE_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_AZ1YP_CommissionSummary.pdf</v>
       </c>
       <c r="H131" t="str">
         <f t="shared" ref="H131:H170" si="5">$K131&amp;"\"&amp;M131</f>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_QZ1TE_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_AZ1YP_CommissionDetail.pdf</v>
       </c>
       <c r="K131" t="s">
-        <v>13</v>
+        <v>183</v>
       </c>
       <c r="L131" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="M131" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
     </row>
     <row r="132" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B132" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="C132" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D132" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E132">
         <v>1</v>
@@ -6443,31 +6452,31 @@
       </c>
       <c r="G132" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_QZ1TI_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_QZ1XH_CommissionSummary.pdf</v>
       </c>
       <c r="H132" t="str">
         <f t="shared" si="5"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_QZ1TI_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_QZ1XH_CommissionDetail.pdf</v>
       </c>
       <c r="K132" t="s">
-        <v>13</v>
+        <v>183</v>
       </c>
       <c r="L132" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="M132" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
     </row>
     <row r="133" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B133" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="C133" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D133" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E133">
         <v>1</v>
@@ -6477,31 +6486,31 @@
       </c>
       <c r="G133" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_CZ1YI_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_QZ1TB_CommissionSummary.pdf</v>
       </c>
       <c r="H133" t="str">
         <f t="shared" si="5"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_CZ1YI_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_QZ1TB_CommissionDetail.pdf</v>
       </c>
       <c r="K133" t="s">
-        <v>13</v>
+        <v>183</v>
       </c>
       <c r="L133" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="M133" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="134" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B134" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="C134" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D134" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E134">
         <v>1</v>
@@ -6511,31 +6520,31 @@
       </c>
       <c r="G134" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_CZ1YW_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_QZ1TD_CommissionSummary.pdf</v>
       </c>
       <c r="H134" t="str">
         <f t="shared" si="5"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_CZ1YW_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_QZ1TD_CommissionDetail.pdf</v>
       </c>
       <c r="K134" t="s">
-        <v>13</v>
+        <v>183</v>
       </c>
       <c r="L134" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="M134" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
     </row>
     <row r="135" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B135" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="C135" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D135" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E135">
         <v>1</v>
@@ -6545,31 +6554,31 @@
       </c>
       <c r="G135" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_CZ1UE_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_QZ1TK_CommissionSummary.pdf</v>
       </c>
       <c r="H135" t="str">
         <f t="shared" si="5"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_CZ1UE_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_QZ1TK_CommissionDetail.pdf</v>
       </c>
       <c r="K135" t="s">
-        <v>13</v>
+        <v>183</v>
       </c>
       <c r="L135" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="M135" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
     </row>
     <row r="136" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B136" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="C136" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D136" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E136">
         <v>1</v>
@@ -6579,31 +6588,31 @@
       </c>
       <c r="G136" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_CZ1MJ_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_QZ1YE_CommissionSummary.pdf</v>
       </c>
       <c r="H136" t="str">
         <f t="shared" si="5"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_CZ1MJ_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_QZ1YE_CommissionDetail.pdf</v>
       </c>
       <c r="K136" t="s">
-        <v>13</v>
+        <v>183</v>
       </c>
       <c r="L136" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="M136" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
     </row>
     <row r="137" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B137" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="C137" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D137" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E137">
         <v>1</v>
@@ -6613,31 +6622,31 @@
       </c>
       <c r="G137" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_CZ1VG_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_QZ1TE_CommissionSummary.pdf</v>
       </c>
       <c r="H137" t="str">
         <f t="shared" si="5"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_CZ1VG_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_QZ1TE_CommissionDetail.pdf</v>
       </c>
       <c r="K137" t="s">
-        <v>13</v>
+        <v>183</v>
       </c>
       <c r="L137" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="M137" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
     </row>
     <row r="138" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B138" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="C138" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D138" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E138">
         <v>1</v>
@@ -6647,31 +6656,31 @@
       </c>
       <c r="G138" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_CZ1VJ_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_QZ1TI_CommissionSummary.pdf</v>
       </c>
       <c r="H138" t="str">
         <f t="shared" si="5"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_CZ1VJ_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_QZ1TI_CommissionDetail.pdf</v>
       </c>
       <c r="K138" t="s">
-        <v>13</v>
+        <v>183</v>
       </c>
       <c r="L138" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="M138" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
     </row>
     <row r="139" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B139" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="C139" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D139" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E139">
         <v>1</v>
@@ -6681,31 +6690,31 @@
       </c>
       <c r="G139" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_CZ1MI_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_CZ1YI_CommissionSummary.pdf</v>
       </c>
       <c r="H139" t="str">
         <f t="shared" si="5"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_CZ1MI_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_CZ1YI_CommissionDetail.pdf</v>
       </c>
       <c r="K139" t="s">
-        <v>13</v>
+        <v>183</v>
       </c>
       <c r="L139" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="M139" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
     </row>
     <row r="140" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B140" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="C140" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D140" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E140">
         <v>1</v>
@@ -6715,31 +6724,31 @@
       </c>
       <c r="G140" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_CZ1XD_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_CZ1YW_CommissionSummary.pdf</v>
       </c>
       <c r="H140" t="str">
         <f t="shared" si="5"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_CZ1XD_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_CZ1YW_CommissionDetail.pdf</v>
       </c>
       <c r="K140" t="s">
-        <v>13</v>
+        <v>183</v>
       </c>
       <c r="L140" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="M140" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
     </row>
     <row r="141" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B141" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="C141" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D141" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E141">
         <v>1</v>
@@ -6749,31 +6758,31 @@
       </c>
       <c r="G141" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_CZ1XB_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_CZ1UE_CommissionSummary.pdf</v>
       </c>
       <c r="H141" t="str">
         <f t="shared" si="5"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_CZ1XB_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_CZ1UE_CommissionDetail.pdf</v>
       </c>
       <c r="K141" t="s">
-        <v>13</v>
+        <v>183</v>
       </c>
       <c r="L141" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="M141" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
     </row>
     <row r="142" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B142" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="C142" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D142" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E142">
         <v>1</v>
@@ -6783,31 +6792,31 @@
       </c>
       <c r="G142" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_CZ1WT_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_CZ1MJ_CommissionSummary.pdf</v>
       </c>
       <c r="H142" t="str">
         <f t="shared" si="5"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_CZ1WT_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_CZ1MJ_CommissionDetail.pdf</v>
       </c>
       <c r="K142" t="s">
-        <v>13</v>
+        <v>183</v>
       </c>
       <c r="L142" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="M142" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
     </row>
     <row r="143" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B143" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="C143" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D143" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E143">
         <v>1</v>
@@ -6817,31 +6826,31 @@
       </c>
       <c r="G143" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_CZ1XA_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_CZ1VG_CommissionSummary.pdf</v>
       </c>
       <c r="H143" t="str">
         <f t="shared" si="5"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_CZ1XA_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_CZ1VG_CommissionDetail.pdf</v>
       </c>
       <c r="K143" t="s">
-        <v>13</v>
+        <v>183</v>
       </c>
       <c r="L143" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="M143" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
     </row>
     <row r="144" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B144" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="C144" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D144" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E144">
         <v>1</v>
@@ -6851,31 +6860,31 @@
       </c>
       <c r="G144" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_WZ2KF_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_CZ1VJ_CommissionSummary.pdf</v>
       </c>
       <c r="H144" t="str">
         <f t="shared" si="5"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_WZ2KF_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_CZ1VJ_CommissionDetail.pdf</v>
       </c>
       <c r="K144" t="s">
-        <v>13</v>
+        <v>183</v>
       </c>
       <c r="L144" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="M144" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
     </row>
     <row r="145" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B145" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="C145" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D145" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E145">
         <v>1</v>
@@ -6885,31 +6894,31 @@
       </c>
       <c r="G145" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_WZ148_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_CZ1MI_CommissionSummary.pdf</v>
       </c>
       <c r="H145" t="str">
         <f t="shared" si="5"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_WZ148_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_CZ1MI_CommissionDetail.pdf</v>
       </c>
       <c r="K145" t="s">
-        <v>13</v>
+        <v>183</v>
       </c>
       <c r="L145" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="M145" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
     </row>
     <row r="146" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B146" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="C146" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D146" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E146">
         <v>1</v>
@@ -6919,31 +6928,31 @@
       </c>
       <c r="G146" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_WZ8GM_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_CZ1XD_CommissionSummary.pdf</v>
       </c>
       <c r="H146" t="str">
         <f t="shared" si="5"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_WZ8GM_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_CZ1XD_CommissionDetail.pdf</v>
       </c>
       <c r="K146" t="s">
-        <v>13</v>
+        <v>183</v>
       </c>
       <c r="L146" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="M146" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
     </row>
     <row r="147" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B147" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="C147" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D147" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E147">
         <v>1</v>
@@ -6953,31 +6962,31 @@
       </c>
       <c r="G147" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_WZ1BH_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_CZ1XB_CommissionSummary.pdf</v>
       </c>
       <c r="H147" t="str">
         <f t="shared" si="5"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_WZ1BH_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_CZ1XB_CommissionDetail.pdf</v>
       </c>
       <c r="K147" t="s">
-        <v>13</v>
+        <v>183</v>
       </c>
       <c r="L147" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="M147" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="148" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B148" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="C148" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D148" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E148">
         <v>1</v>
@@ -6987,31 +6996,31 @@
       </c>
       <c r="G148" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_WZ114_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_CZ1WT_CommissionSummary.pdf</v>
       </c>
       <c r="H148" t="str">
         <f t="shared" si="5"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_WZ114_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_CZ1WT_CommissionDetail.pdf</v>
       </c>
       <c r="K148" t="s">
-        <v>13</v>
+        <v>183</v>
       </c>
       <c r="L148" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="M148" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="149" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B149" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="C149" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D149" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E149">
         <v>1</v>
@@ -7021,31 +7030,31 @@
       </c>
       <c r="G149" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_WZ1A6_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_CZ1XA_CommissionSummary.pdf</v>
       </c>
       <c r="H149" t="str">
         <f t="shared" si="5"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_WZ1A6_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_CZ1XA_CommissionDetail.pdf</v>
       </c>
       <c r="K149" t="s">
-        <v>13</v>
+        <v>183</v>
       </c>
       <c r="L149" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="M149" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="150" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B150" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="C150" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D150" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E150">
         <v>1</v>
@@ -7055,31 +7064,31 @@
       </c>
       <c r="G150" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_WZ139_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_WZ2KF_CommissionSummary.pdf</v>
       </c>
       <c r="H150" t="str">
         <f t="shared" si="5"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_WZ139_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_WZ2KF_CommissionDetail.pdf</v>
       </c>
       <c r="K150" t="s">
-        <v>13</v>
+        <v>183</v>
       </c>
       <c r="L150" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="M150" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="151" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B151" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="C151" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D151" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E151">
         <v>1</v>
@@ -7089,31 +7098,31 @@
       </c>
       <c r="G151" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_CZ1VL_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_WZ148_CommissionSummary.pdf</v>
       </c>
       <c r="H151" t="str">
         <f t="shared" si="5"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_CZ1VL_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_WZ148_CommissionDetail.pdf</v>
       </c>
       <c r="K151" t="s">
-        <v>13</v>
+        <v>183</v>
       </c>
       <c r="L151" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="M151" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="152" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B152" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="C152" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D152" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E152">
         <v>1</v>
@@ -7123,31 +7132,31 @@
       </c>
       <c r="G152" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_CZ1VK_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_WZ8GM_CommissionSummary.pdf</v>
       </c>
       <c r="H152" t="str">
         <f t="shared" si="5"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_CZ1VK_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_WZ8GM_CommissionDetail.pdf</v>
       </c>
       <c r="K152" t="s">
-        <v>13</v>
+        <v>183</v>
       </c>
       <c r="L152" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="M152" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row r="153" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B153" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="C153" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D153" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E153">
         <v>1</v>
@@ -7157,31 +7166,31 @@
       </c>
       <c r="G153" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_CZ1LR_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_WZ1BH_CommissionSummary.pdf</v>
       </c>
       <c r="H153" t="str">
         <f t="shared" si="5"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_CZ1LR_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_WZ1BH_CommissionDetail.pdf</v>
       </c>
       <c r="K153" t="s">
-        <v>13</v>
+        <v>183</v>
       </c>
       <c r="L153" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="M153" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
     </row>
     <row r="154" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B154" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="C154" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D154" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E154">
         <v>1</v>
@@ -7191,31 +7200,31 @@
       </c>
       <c r="G154" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_CZ1UV_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_WZ114_CommissionSummary.pdf</v>
       </c>
       <c r="H154" t="str">
         <f t="shared" si="5"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_CZ1UV_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_WZ114_CommissionDetail.pdf</v>
       </c>
       <c r="K154" t="s">
-        <v>13</v>
+        <v>183</v>
       </c>
       <c r="L154" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="M154" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
     </row>
     <row r="155" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B155" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="C155" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D155" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E155">
         <v>1</v>
@@ -7225,31 +7234,31 @@
       </c>
       <c r="G155" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_CZ1WV_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_WZ1A6_CommissionSummary.pdf</v>
       </c>
       <c r="H155" t="str">
         <f t="shared" si="5"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_CZ1WV_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_WZ1A6_CommissionDetail.pdf</v>
       </c>
       <c r="K155" t="s">
-        <v>13</v>
+        <v>183</v>
       </c>
       <c r="L155" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="M155" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="156" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B156" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="C156" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D156" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E156">
         <v>1</v>
@@ -7259,31 +7268,31 @@
       </c>
       <c r="G156" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_CZ1UO_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_WZ139_CommissionSummary.pdf</v>
       </c>
       <c r="H156" t="str">
         <f t="shared" si="5"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_CZ1UO_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_WZ139_CommissionDetail.pdf</v>
       </c>
       <c r="K156" t="s">
-        <v>13</v>
+        <v>183</v>
       </c>
       <c r="L156" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="M156" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="157" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B157" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="C157" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D157" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E157">
         <v>1</v>
@@ -7293,31 +7302,31 @@
       </c>
       <c r="G157" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_CZ1XC_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_CZ1VL_CommissionSummary.pdf</v>
       </c>
       <c r="H157" t="str">
         <f t="shared" si="5"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_CZ1XC_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_CZ1VL_CommissionDetail.pdf</v>
       </c>
       <c r="K157" t="s">
-        <v>13</v>
+        <v>183</v>
       </c>
       <c r="L157" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="M157" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="158" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B158" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="C158" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D158" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E158">
         <v>1</v>
@@ -7327,31 +7336,31 @@
       </c>
       <c r="G158" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_CZ1YN_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_CZ1VK_CommissionSummary.pdf</v>
       </c>
       <c r="H158" t="str">
         <f t="shared" si="5"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_CZ1YN_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_CZ1VK_CommissionDetail.pdf</v>
       </c>
       <c r="K158" t="s">
-        <v>13</v>
+        <v>183</v>
       </c>
       <c r="L158" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="M158" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="159" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B159" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="C159" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D159" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E159">
         <v>1</v>
@@ -7361,31 +7370,31 @@
       </c>
       <c r="G159" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_CZ1UI_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_CZ1LR_CommissionSummary.pdf</v>
       </c>
       <c r="H159" t="str">
         <f t="shared" si="5"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_CZ1UI_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_CZ1LR_CommissionDetail.pdf</v>
       </c>
       <c r="K159" t="s">
-        <v>13</v>
+        <v>183</v>
       </c>
       <c r="L159" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="M159" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="160" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B160" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="C160" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D160" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E160">
         <v>1</v>
@@ -7395,31 +7404,31 @@
       </c>
       <c r="G160" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_CZ1UU_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_CZ1UV_CommissionSummary.pdf</v>
       </c>
       <c r="H160" t="str">
         <f t="shared" si="5"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_CZ1UU_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_CZ1UV_CommissionDetail.pdf</v>
       </c>
       <c r="K160" t="s">
-        <v>13</v>
+        <v>183</v>
       </c>
       <c r="L160" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="M160" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="161" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B161" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="C161" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D161" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E161">
         <v>1</v>
@@ -7429,31 +7438,31 @@
       </c>
       <c r="G161" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_CZ1UW_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_CZ1WV_CommissionSummary.pdf</v>
       </c>
       <c r="H161" t="str">
         <f t="shared" si="5"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_CZ1UW_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_CZ1WV_CommissionDetail.pdf</v>
       </c>
       <c r="K161" t="s">
-        <v>13</v>
+        <v>183</v>
       </c>
       <c r="L161" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="M161" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="162" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B162" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="C162" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D162" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E162">
         <v>1</v>
@@ -7463,31 +7472,31 @@
       </c>
       <c r="G162" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_CZ1VC_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_CZ1UO_CommissionSummary.pdf</v>
       </c>
       <c r="H162" t="str">
         <f t="shared" si="5"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_CZ1VC_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_CZ1UO_CommissionDetail.pdf</v>
       </c>
       <c r="K162" t="s">
-        <v>13</v>
+        <v>183</v>
       </c>
       <c r="L162" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="M162" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="163" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B163" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="C163" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D163" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E163">
         <v>1</v>
@@ -7497,31 +7506,31 @@
       </c>
       <c r="G163" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_CZ1UX_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_CZ1XC_CommissionSummary.pdf</v>
       </c>
       <c r="H163" t="str">
         <f t="shared" si="5"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_CZ1UX_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_CZ1XC_CommissionDetail.pdf</v>
       </c>
       <c r="K163" t="s">
-        <v>13</v>
+        <v>183</v>
       </c>
       <c r="L163" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="M163" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
     </row>
     <row r="164" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B164" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="C164" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D164" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E164">
         <v>1</v>
@@ -7531,31 +7540,31 @@
       </c>
       <c r="G164" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_CZ1UZ_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_CZ1YN_CommissionSummary.pdf</v>
       </c>
       <c r="H164" t="str">
         <f t="shared" si="5"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_CZ1UZ_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_CZ1YN_CommissionDetail.pdf</v>
       </c>
       <c r="K164" t="s">
-        <v>13</v>
+        <v>183</v>
       </c>
       <c r="L164" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="M164" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
     </row>
     <row r="165" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B165" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="C165" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D165" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E165">
         <v>1</v>
@@ -7565,31 +7574,31 @@
       </c>
       <c r="G165" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_WZ1CM_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_CZ1UI_CommissionSummary.pdf</v>
       </c>
       <c r="H165" t="str">
         <f t="shared" si="5"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_WZ1CM_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_CZ1UI_CommissionDetail.pdf</v>
       </c>
       <c r="K165" t="s">
-        <v>13</v>
+        <v>183</v>
       </c>
       <c r="L165" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="M165" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
     </row>
     <row r="166" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B166" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="C166" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D166" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E166">
         <v>1</v>
@@ -7599,31 +7608,31 @@
       </c>
       <c r="G166" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_WZ1JI_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_CZ1UU_CommissionSummary.pdf</v>
       </c>
       <c r="H166" t="str">
         <f t="shared" si="5"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_WZ1JI_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_CZ1UU_CommissionDetail.pdf</v>
       </c>
       <c r="K166" t="s">
-        <v>13</v>
+        <v>183</v>
       </c>
       <c r="L166" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="M166" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
     </row>
     <row r="167" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B167" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="C167" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D167" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E167">
         <v>1</v>
@@ -7633,31 +7642,31 @@
       </c>
       <c r="G167" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_QZ3JB_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_CZ1UW_CommissionSummary.pdf</v>
       </c>
       <c r="H167" t="str">
         <f t="shared" si="5"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_QZ3JB_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_CZ1UW_CommissionDetail.pdf</v>
       </c>
       <c r="K167" t="s">
-        <v>13</v>
+        <v>183</v>
       </c>
       <c r="L167" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="M167" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
     </row>
     <row r="168" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B168" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="C168" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D168" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E168">
         <v>1</v>
@@ -7667,31 +7676,31 @@
       </c>
       <c r="G168" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_WZ2MS_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_CZ1VC_CommissionSummary.pdf</v>
       </c>
       <c r="H168" t="str">
         <f t="shared" si="5"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_WZ2MS_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_CZ1VC_CommissionDetail.pdf</v>
       </c>
       <c r="K168" t="s">
-        <v>13</v>
+        <v>183</v>
       </c>
       <c r="L168" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="M168" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
     </row>
     <row r="169" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B169" t="s">
-        <v>180</v>
+        <v>169</v>
       </c>
       <c r="C169" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D169" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E169">
         <v>1</v>
@@ -7701,31 +7710,31 @@
       </c>
       <c r="G169" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_WZ2JN_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_CZ1UX_CommissionSummary.pdf</v>
       </c>
       <c r="H169" t="str">
         <f t="shared" si="5"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_WZ2JN_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_CZ1UX_CommissionDetail.pdf</v>
       </c>
       <c r="K169" t="s">
-        <v>13</v>
+        <v>183</v>
       </c>
       <c r="L169" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="M169" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
     </row>
     <row r="170" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B170" t="s">
-        <v>183</v>
+        <v>170</v>
       </c>
       <c r="C170" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D170" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E170">
         <v>1</v>
@@ -7735,20 +7744,54 @@
       </c>
       <c r="G170" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_CZ1RD_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_CZ1UZ_CommissionSummary.pdf</v>
       </c>
       <c r="H170" t="str">
         <f t="shared" si="5"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Comm\201708_CZ1RD_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_CZ1UZ_CommissionDetail.pdf</v>
       </c>
       <c r="K170" t="s">
-        <v>13</v>
+        <v>183</v>
       </c>
       <c r="L170" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="M170" t="s">
-        <v>518</v>
+        <v>519</v>
+      </c>
+    </row>
+    <row r="171" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B171" t="s">
+        <v>184</v>
+      </c>
+      <c r="C171" t="s">
+        <v>177</v>
+      </c>
+      <c r="D171" t="s">
+        <v>185</v>
+      </c>
+      <c r="E171">
+        <v>1</v>
+      </c>
+      <c r="F171">
+        <v>2</v>
+      </c>
+      <c r="G171" t="str">
+        <f t="shared" ref="G171" si="6">$K171&amp;"\"&amp;L171</f>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_WZ8JP_CommissionSummary.pdf</v>
+      </c>
+      <c r="H171" t="str">
+        <f t="shared" ref="H171" si="7">$K171&amp;"\"&amp;M171</f>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_WZ8JP_CommissionDetail.pdf</v>
+      </c>
+      <c r="K171" t="s">
+        <v>183</v>
+      </c>
+      <c r="L171" t="s">
+        <v>520</v>
+      </c>
+      <c r="M171" t="s">
+        <v>521</v>
       </c>
     </row>
   </sheetData>

--- a/BR_Mailer/J030_COM_FSC/J030_Mailing_List - Excel.xlsx
+++ b/BR_Mailer/J030_COM_FSC/J030_Mailing_List - Excel.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1030" uniqueCount="522">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1018" uniqueCount="516">
   <si>
     <t>msg</t>
   </si>
@@ -90,9 +90,6 @@
     <t>Steve.Sale@henryschein.ca</t>
   </si>
   <si>
-    <t>Christian.Marsolais@henryschein.ca</t>
-  </si>
-  <si>
     <t>Rob.Munden@henryschein.ca</t>
   </si>
   <si>
@@ -387,9 +384,6 @@
     <t>Janice.Bruce@henryschein.ca</t>
   </si>
   <si>
-    <t>Alexandra.Zern@henryschein.ca</t>
-  </si>
-  <si>
     <t>Famida.Abrahim@henryschein.ca</t>
   </si>
   <si>
@@ -576,1015 +570,1003 @@
     <t>Jenna.Plenert@henryschein.ca</t>
   </si>
   <si>
-    <t>Commission Summary and Details for October 2017</t>
-  </si>
-  <si>
-    <t>201710_CZ1SD_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201710_CZ1SD_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201710_CZ125_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201710_CZ125_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201710_CZ124_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201710_CZ124_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201710_QZ132_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201710_QZ132_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201710_CZ128_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201710_CZ128_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201710_CZ144_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201710_CZ144_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201710_CZ165_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201710_CZ165_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201710_QZ178_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201710_QZ178_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201710_CZ183_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201710_CZ183_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201710_CZ107_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201710_CZ107_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201710_QZ192_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201710_QZ192_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201710_CZ109_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201710_CZ109_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201710_AZ112_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201710_AZ112_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201710_CZ1CP_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201710_CZ1CP_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201710_CZ154_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201710_CZ154_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201710_CZ1KD_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201710_CZ1KD_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201710_QZ1CF_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201710_QZ1CF_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201710_CZ1EM_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201710_CZ1EM_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201710_QZ1DP_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201710_QZ1DP_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201710_CZ1DA_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201710_CZ1DA_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201710_QZ1LM_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201710_QZ1LM_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201710_CZ1EE_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201710_CZ1EE_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201710_AZ1EK_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201710_AZ1EK_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201710_AZ1FB_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201710_AZ1FB_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201710_CZ1FP_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201710_CZ1FP_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201710_QZ1FT_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201710_QZ1FT_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201710_QZ1FS_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201710_QZ1FS_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201710_QZ1FR_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201710_QZ1FR_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201710_QZ1GO_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201710_QZ1GO_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201710_AZ1KL_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201710_AZ1KL_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201710_QZ1KK_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201710_QZ1KK_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201710_CZ1DN_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201710_CZ1DN_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201710_QZ1EO_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201710_QZ1EO_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201710_CZ1CB_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201710_CZ1CB_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201710_CZ1B8_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201710_CZ1B8_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201710_CZ1C4_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201710_CZ1C4_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201710_QZ1D8_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201710_QZ1D8_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201710_CZ1SW_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201710_CZ1SW_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201710_QZ1AP_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201710_QZ1AP_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201710_CZ2CB_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201710_CZ2CB_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201710_CZ1CG_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201710_CZ1CG_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201710_AZ1PV_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201710_AZ1PV_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201710_CZ3CB_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201710_CZ3CB_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201710_CZ5CS_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201710_CZ5CS_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201710_CZ8JA_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201710_CZ8JA_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201710_QZ7JM_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201710_QZ7JM_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201710_QZ7DO_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201710_QZ7DO_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201710_CZ5TA_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201710_CZ5TA_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201710_CZ2LB_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201710_CZ2LB_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201710_CZ2GB_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201710_CZ2GB_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201710_CZ2LH_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201710_CZ2LH_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201710_CZ2NM_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201710_CZ2NM_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201710_QZ2SB_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201710_QZ2SB_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201710_CZ2BG_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201710_CZ2BG_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201710_CZ1SA_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201710_CZ1SA_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201710_WZ115_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201710_WZ115_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201710_WZ120_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201710_WZ120_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201710_WZ118_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201710_WZ118_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201710_WZ119_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201710_WZ119_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201710_WZ138_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201710_WZ138_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201710_WZ142_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201710_WZ142_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201710_WZ134_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201710_WZ134_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201710_WZ123_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201710_WZ123_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201710_WZ136_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201710_WZ136_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201710_WZ165_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201710_WZ165_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201710_WZ1FF_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201710_WZ1FF_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201710_WZ167_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201710_WZ167_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201710_WZ175_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201710_WZ175_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201710_WZ177_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201710_WZ177_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201710_WZ143_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201710_WZ143_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201710_WZ159_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201710_WZ159_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201710_WZ162_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201710_WZ162_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201710_WZ113_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201710_WZ113_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201710_WZ137_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201710_WZ137_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201710_WZ1G4_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201710_WZ1G4_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201710_WZ1CE_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201710_WZ1CE_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201710_WZBW1_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201710_WZBW1_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201710_WZ9TS_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201710_WZ9TS_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201710_WZ1HM_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201710_WZ1HM_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201710_WZ2RP_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201710_WZ2RP_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201710_WZ1TT_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201710_WZ1TT_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201710_WZ1AM_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201710_WZ1AM_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201710_WZ1JW_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201710_WZ1JW_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201710_WZ1MH_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201710_WZ1MH_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201710_WZ1TM_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201710_WZ1TM_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201710_WZ2AM_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201710_WZ2AM_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201710_WZ1SC_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201710_WZ1SC_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201710_WZ1PB_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201710_WZ1PB_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201710_WZ1JN_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201710_WZ1JN_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201710_WZ1MK_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201710_WZ1MK_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201710_WZ1CA_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201710_WZ1CA_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201710_WZ2TM_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201710_WZ2TM_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201710_WZ1BC_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201710_WZ1BC_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201710_WZ1JL_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201710_WZ1JL_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201710_WZ1AL_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201710_WZ1AL_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201710_WZ1MW_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201710_WZ1MW_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201710_WZ1MS_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201710_WZ1MS_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201710_WZ1DF_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201710_WZ1DF_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201710_WZ1JI_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201710_WZ1JI_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201710_WZ1CM_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201710_WZ1CM_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201710_WZ2MS_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201710_WZ2MS_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201710_WZ2JN_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201710_WZ2JN_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201710_CZ1RD_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201710_CZ1RD_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201710_CZ1GF_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201710_CZ1GF_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201710_QZ1BP_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201710_QZ1BP_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201710_CZ1JF_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201710_CZ1JF_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201710_AZ1CI_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201710_AZ1CI_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201710_CZ1KM_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201710_CZ1KM_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201710_CZ1OV_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201710_CZ1OV_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201710_QZ1JB_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201710_QZ1JB_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201710_QZ1BG_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201710_QZ1BG_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201710_CZ1TM_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201710_CZ1TM_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201710_QZ177_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201710_QZ177_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201710_QZ1BM_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201710_QZ1BM_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201710_QZ1MD_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201710_QZ1MD_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201710_AZ1JB_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201710_AZ1JB_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201710_CZ1AD_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201710_CZ1AD_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201710_QZ1ML_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201710_QZ1ML_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201710_CZ1FA_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201710_CZ1FA_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201710_CZ2SA_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201710_CZ2SA_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201710_QZ1SL_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201710_QZ1SL_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201710_QZ3JB_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201710_QZ3JB_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201710_CZ1CN_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201710_CZ1CN_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201710_AZ1YU_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201710_AZ1YU_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201710_AZ1WX_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201710_AZ1WX_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201710_AZ1XF_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201710_AZ1XF_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201710_AZ1XT_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201710_AZ1XT_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201710_AZ1YP_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201710_AZ1YP_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201710_QZ1XH_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201710_QZ1XH_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201710_QZ1TB_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201710_QZ1TB_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201710_QZ1TD_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201710_QZ1TD_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201710_QZ1TK_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201710_QZ1TK_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201710_QZ1YE_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201710_QZ1YE_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201710_QZ1TE_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201710_QZ1TE_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201710_QZ1TI_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201710_QZ1TI_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201710_CZ1YI_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201710_CZ1YI_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201710_CZ1YW_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201710_CZ1YW_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201710_CZ1UE_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201710_CZ1UE_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201710_CZ1MJ_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201710_CZ1MJ_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201710_CZ1VG_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201710_CZ1VG_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201710_CZ1VJ_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201710_CZ1VJ_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201710_CZ1MI_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201710_CZ1MI_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201710_CZ1XD_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201710_CZ1XD_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201710_CZ1XB_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201710_CZ1XB_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201710_CZ1WT_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201710_CZ1WT_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201710_CZ1XA_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201710_CZ1XA_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201710_WZ2KF_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201710_WZ2KF_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201710_WZ148_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201710_WZ148_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201710_WZ8GM_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201710_WZ8GM_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201710_WZ1BH_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201710_WZ1BH_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201710_WZ114_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201710_WZ114_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201710_WZ1A6_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201710_WZ1A6_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201710_WZ139_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201710_WZ139_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201710_CZ1VL_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201710_CZ1VL_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201710_CZ1VK_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201710_CZ1VK_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201710_CZ1LR_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201710_CZ1LR_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201710_CZ1UV_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201710_CZ1UV_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201710_CZ1WV_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201710_CZ1WV_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201710_CZ1UO_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201710_CZ1UO_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201710_CZ1XC_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201710_CZ1XC_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201710_CZ1YN_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201710_CZ1YN_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201710_CZ1UI_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201710_CZ1UI_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201710_CZ1UU_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201710_CZ1UU_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201710_CZ1UW_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201710_CZ1UW_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201710_CZ1VC_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201710_CZ1VC_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201710_CZ1UX_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201710_CZ1UX_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201710_CZ1UZ_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201710_CZ1UZ_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201710_WZ8JP_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201710_WZ8JP_CommissionDetail.pdf</t>
+    <t>Commission Summary and Details for November 2017</t>
+  </si>
+  <si>
+    <t>201711_CZ1SD_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201711_CZ1SD_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201711_CZ125_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201711_CZ125_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201711_CZ124_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201711_CZ124_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201711_QZ132_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201711_QZ132_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201711_CZ128_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201711_CZ128_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201711_CZ144_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201711_CZ144_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201711_CZ165_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201711_CZ165_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201711_QZ178_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201711_QZ178_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201711_CZ183_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201711_CZ183_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201711_CZ107_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201711_CZ107_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201711_CZ109_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201711_CZ109_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201711_AZ112_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201711_AZ112_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201711_CZ1CP_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201711_CZ1CP_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201711_CZ154_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201711_CZ154_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201711_CZ1KD_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201711_CZ1KD_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201711_QZ1CF_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201711_QZ1CF_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201711_CZ1EM_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201711_CZ1EM_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201711_QZ1DP_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201711_QZ1DP_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201711_CZ1DA_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201711_CZ1DA_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201711_QZ1LM_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201711_QZ1LM_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201711_CZ1EE_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201711_CZ1EE_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201711_AZ1EK_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201711_AZ1EK_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201711_AZ1FB_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201711_AZ1FB_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201711_CZ1FP_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201711_CZ1FP_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201711_QZ1FT_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201711_QZ1FT_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201711_QZ1FS_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201711_QZ1FS_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201711_QZ1FR_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201711_QZ1FR_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201711_QZ1GO_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201711_QZ1GO_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201711_AZ1KL_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201711_AZ1KL_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201711_QZ1KK_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201711_QZ1KK_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201711_CZ1DN_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201711_CZ1DN_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201711_QZ1EO_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201711_QZ1EO_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201711_CZ1CB_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201711_CZ1CB_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201711_CZ1B8_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201711_CZ1B8_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201711_CZ1C4_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201711_CZ1C4_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201711_QZ1D8_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201711_QZ1D8_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201711_CZ1SW_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201711_CZ1SW_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201711_QZ1AP_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201711_QZ1AP_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201711_CZ2CB_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201711_CZ2CB_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201711_CZ1CG_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201711_CZ1CG_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201711_AZ1PV_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201711_AZ1PV_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201711_CZ3CB_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201711_CZ3CB_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201711_CZ5CS_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201711_CZ5CS_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201711_CZ8JA_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201711_CZ8JA_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201711_QZ7JM_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201711_QZ7JM_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201711_QZ7DO_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201711_QZ7DO_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201711_CZ5TA_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201711_CZ5TA_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201711_CZ2LB_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201711_CZ2LB_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201711_CZ2GB_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201711_CZ2GB_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201711_CZ2LH_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201711_CZ2LH_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201711_CZ2NM_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201711_CZ2NM_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201711_QZ2SB_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201711_QZ2SB_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201711_CZ2BG_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201711_CZ2BG_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201711_CZ1SA_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201711_CZ1SA_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201711_WZ115_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201711_WZ115_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201711_WZ120_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201711_WZ120_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201711_WZ118_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201711_WZ118_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201711_WZ119_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201711_WZ119_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201711_WZ138_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201711_WZ138_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201711_WZ142_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201711_WZ142_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201711_WZ134_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201711_WZ134_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201711_WZ123_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201711_WZ123_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201711_WZ136_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201711_WZ136_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201711_WZ165_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201711_WZ165_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201711_WZ1FF_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201711_WZ1FF_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201711_WZ167_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201711_WZ167_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201711_WZ175_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201711_WZ175_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201711_WZ177_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201711_WZ177_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201711_WZ143_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201711_WZ143_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201711_WZ159_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201711_WZ159_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201711_WZ162_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201711_WZ162_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201711_WZ113_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201711_WZ113_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201711_WZ137_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201711_WZ137_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201711_WZ1G4_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201711_WZ1G4_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201711_WZ1CE_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201711_WZ1CE_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201711_WZBW1_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201711_WZBW1_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201711_WZ9TS_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201711_WZ9TS_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201711_WZ1HM_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201711_WZ1HM_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201711_WZ2RP_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201711_WZ2RP_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201711_WZ1TT_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201711_WZ1TT_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201711_WZ1AM_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201711_WZ1AM_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201711_WZ1JW_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201711_WZ1JW_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201711_WZ1MH_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201711_WZ1MH_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201711_WZ1TM_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201711_WZ1TM_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201711_WZ2AM_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201711_WZ2AM_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201711_WZ1SC_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201711_WZ1SC_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201711_WZ1PB_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201711_WZ1PB_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201711_WZ1JN_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201711_WZ1JN_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201711_WZ1MK_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201711_WZ1MK_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201711_WZ1CA_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201711_WZ1CA_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201711_WZ2TM_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201711_WZ2TM_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201711_WZ1BC_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201711_WZ1BC_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201711_WZ1JL_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201711_WZ1JL_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201711_WZ1AL_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201711_WZ1AL_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201711_WZ1MW_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201711_WZ1MW_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201711_WZ1MS_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201711_WZ1MS_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201711_WZ1DF_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201711_WZ1DF_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201711_WZ1JI_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201711_WZ1JI_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201711_WZ1CM_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201711_WZ1CM_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201711_WZ2MS_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201711_WZ2MS_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201711_WZ2JN_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201711_WZ2JN_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201711_CZ1RD_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201711_CZ1RD_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201711_CZ1GF_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201711_CZ1GF_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201711_QZ1BP_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201711_QZ1BP_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201711_CZ1JF_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201711_CZ1JF_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201711_AZ1CI_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201711_AZ1CI_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201711_CZ1KM_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201711_CZ1KM_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201711_CZ1OV_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201711_CZ1OV_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201711_QZ1JB_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201711_QZ1JB_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201711_QZ1BG_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201711_QZ1BG_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201711_CZ1TM_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201711_CZ1TM_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201711_QZ177_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201711_QZ177_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201711_QZ1BM_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201711_QZ1BM_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201711_QZ1MD_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201711_QZ1MD_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201711_AZ1JB_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201711_AZ1JB_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201711_QZ1ML_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201711_QZ1ML_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201711_CZ1FA_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201711_CZ1FA_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201711_CZ2SA_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201711_CZ2SA_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201711_QZ1SL_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201711_QZ1SL_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201711_QZ3JB_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201711_QZ3JB_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201711_CZ1CN_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201711_CZ1CN_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201711_AZ1YU_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201711_AZ1YU_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201711_AZ1WX_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201711_AZ1WX_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201711_AZ1XF_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201711_AZ1XF_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201711_AZ1XT_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201711_AZ1XT_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201711_AZ1YP_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201711_AZ1YP_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201711_QZ1XH_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201711_QZ1XH_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201711_QZ1TB_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201711_QZ1TB_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201711_QZ1TD_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201711_QZ1TD_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201711_QZ1TK_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201711_QZ1TK_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201711_QZ1YE_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201711_QZ1YE_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201711_QZ1TE_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201711_QZ1TE_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201711_QZ1TI_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201711_QZ1TI_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201711_CZ1YI_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201711_CZ1YI_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201711_CZ1YW_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201711_CZ1YW_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201711_CZ1UE_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201711_CZ1UE_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201711_CZ1MJ_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201711_CZ1MJ_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201711_CZ1VG_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201711_CZ1VG_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201711_CZ1VJ_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201711_CZ1VJ_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201711_CZ1MI_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201711_CZ1MI_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201711_CZ1XD_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201711_CZ1XD_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201711_CZ1XB_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201711_CZ1XB_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201711_CZ1WT_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201711_CZ1WT_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201711_CZ1XA_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201711_CZ1XA_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201711_WZ2KF_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201711_WZ2KF_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201711_WZ148_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201711_WZ148_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201711_WZ8GM_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201711_WZ8GM_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201711_WZ1BH_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201711_WZ1BH_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201711_WZ114_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201711_WZ114_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201711_WZ1A6_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201711_WZ1A6_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201711_WZ139_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201711_WZ139_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201711_CZ1VL_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201711_CZ1VL_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201711_CZ1VK_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201711_CZ1VK_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201711_CZ1LR_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201711_CZ1LR_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201711_CZ1UV_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201711_CZ1UV_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201711_CZ1WV_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201711_CZ1WV_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201711_CZ1UO_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201711_CZ1UO_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201711_CZ1XC_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201711_CZ1XC_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201711_CZ1YN_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201711_CZ1YN_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201711_CZ1UI_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201711_CZ1UI_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201711_CZ1UU_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201711_CZ1UU_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201711_CZ1UW_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201711_CZ1UW_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201711_CZ1VC_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201711_CZ1VC_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201711_CZ1UX_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201711_CZ1UX_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201711_CZ1UZ_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201711_CZ1UZ_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201711_WZ8JP_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201711_WZ8JP_CommissionDetail.pdf</t>
   </si>
 </sst>
 </file>
@@ -1934,7 +1916,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:N171"/>
+  <dimension ref="A1:N169"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1980,7 +1962,7 @@
         <v>8</v>
       </c>
       <c r="J1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="K1" t="s">
         <v>11</v>
@@ -1999,11 +1981,11 @@
         <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D2" t="str">
         <f>D3</f>
-        <v>Commission Summary and Details for October 2017</v>
+        <v>Commission Summary and Details for November 2017</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -2013,34 +1995,34 @@
       </c>
       <c r="G2" t="str">
         <f>$K2&amp;"\"&amp;L2</f>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_CZ1SD_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_CZ1SD_CommissionSummary.pdf</v>
       </c>
       <c r="H2" t="str">
         <f>$K2&amp;"\"&amp;M2</f>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_CZ1SD_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_CZ1SD_CommissionDetail.pdf</v>
       </c>
       <c r="K2" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="L2" t="str">
         <f>L3</f>
-        <v>201710_CZ1SD_CommissionSummary.pdf</v>
+        <v>201711_CZ1SD_CommissionSummary.pdf</v>
       </c>
       <c r="M2" t="str">
         <f>M3</f>
-        <v>201710_CZ1SD_CommissionDetail.pdf</v>
+        <v>201711_CZ1SD_CommissionDetail.pdf</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
       <c r="B3" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C3" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D3" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -2050,20 +2032,20 @@
       </c>
       <c r="G3" t="str">
         <f t="shared" ref="G3:G66" si="0">$K3&amp;"\"&amp;L3</f>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_CZ1SD_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_CZ1SD_CommissionSummary.pdf</v>
       </c>
       <c r="H3" t="str">
         <f t="shared" ref="H3:H66" si="1">$K3&amp;"\"&amp;M3</f>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_CZ1SD_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_CZ1SD_CommissionDetail.pdf</v>
       </c>
       <c r="K3" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="L3" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="M3" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
@@ -2072,10 +2054,10 @@
         <v>13</v>
       </c>
       <c r="C4" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D4" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -2085,20 +2067,20 @@
       </c>
       <c r="G4" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_CZ125_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_CZ125_CommissionSummary.pdf</v>
       </c>
       <c r="H4" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_CZ125_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_CZ125_CommissionDetail.pdf</v>
       </c>
       <c r="K4" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="L4" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="M4" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
@@ -2107,10 +2089,10 @@
         <v>14</v>
       </c>
       <c r="C5" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D5" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -2120,20 +2102,20 @@
       </c>
       <c r="G5" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_CZ124_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_CZ124_CommissionSummary.pdf</v>
       </c>
       <c r="H5" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_CZ124_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_CZ124_CommissionDetail.pdf</v>
       </c>
       <c r="K5" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="L5" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="M5" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
@@ -2142,10 +2124,10 @@
         <v>15</v>
       </c>
       <c r="C6" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D6" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -2155,20 +2137,20 @@
       </c>
       <c r="G6" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_QZ132_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_QZ132_CommissionSummary.pdf</v>
       </c>
       <c r="H6" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_QZ132_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_QZ132_CommissionDetail.pdf</v>
       </c>
       <c r="K6" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="L6" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="M6" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
@@ -2177,10 +2159,10 @@
         <v>16</v>
       </c>
       <c r="C7" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D7" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -2190,20 +2172,20 @@
       </c>
       <c r="G7" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_CZ128_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_CZ128_CommissionSummary.pdf</v>
       </c>
       <c r="H7" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_CZ128_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_CZ128_CommissionDetail.pdf</v>
       </c>
       <c r="K7" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="L7" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="M7" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
@@ -2212,10 +2194,10 @@
         <v>17</v>
       </c>
       <c r="C8" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D8" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E8">
         <v>1</v>
@@ -2225,20 +2207,20 @@
       </c>
       <c r="G8" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_CZ144_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_CZ144_CommissionSummary.pdf</v>
       </c>
       <c r="H8" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_CZ144_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_CZ144_CommissionDetail.pdf</v>
       </c>
       <c r="K8" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="L8" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="M8" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
@@ -2247,10 +2229,10 @@
         <v>18</v>
       </c>
       <c r="C9" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D9" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E9">
         <v>1</v>
@@ -2260,20 +2242,20 @@
       </c>
       <c r="G9" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_CZ165_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_CZ165_CommissionSummary.pdf</v>
       </c>
       <c r="H9" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_CZ165_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_CZ165_CommissionDetail.pdf</v>
       </c>
       <c r="K9" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="L9" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="M9" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
@@ -2282,10 +2264,10 @@
         <v>20</v>
       </c>
       <c r="C10" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D10" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E10">
         <v>1</v>
@@ -2295,20 +2277,20 @@
       </c>
       <c r="G10" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_QZ178_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_QZ178_CommissionSummary.pdf</v>
       </c>
       <c r="H10" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_QZ178_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_QZ178_CommissionDetail.pdf</v>
       </c>
       <c r="K10" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="L10" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="M10" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
@@ -2317,10 +2299,10 @@
         <v>21</v>
       </c>
       <c r="C11" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D11" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E11">
         <v>1</v>
@@ -2330,20 +2312,20 @@
       </c>
       <c r="G11" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_CZ183_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_CZ183_CommissionSummary.pdf</v>
       </c>
       <c r="H11" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_CZ183_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_CZ183_CommissionDetail.pdf</v>
       </c>
       <c r="K11" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="L11" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="M11" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
@@ -2352,10 +2334,10 @@
         <v>22</v>
       </c>
       <c r="C12" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D12" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E12">
         <v>1</v>
@@ -2365,20 +2347,20 @@
       </c>
       <c r="G12" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_CZ107_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_CZ107_CommissionSummary.pdf</v>
       </c>
       <c r="H12" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_CZ107_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_CZ107_CommissionDetail.pdf</v>
       </c>
       <c r="K12" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="L12" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="M12" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
@@ -2387,10 +2369,10 @@
         <v>23</v>
       </c>
       <c r="C13" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D13" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E13">
         <v>1</v>
@@ -2400,20 +2382,20 @@
       </c>
       <c r="G13" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_QZ192_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_CZ109_CommissionSummary.pdf</v>
       </c>
       <c r="H13" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_QZ192_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_CZ109_CommissionDetail.pdf</v>
       </c>
       <c r="K13" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="L13" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="M13" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
@@ -2422,10 +2404,10 @@
         <v>24</v>
       </c>
       <c r="C14" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D14" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E14">
         <v>1</v>
@@ -2435,20 +2417,20 @@
       </c>
       <c r="G14" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_CZ109_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_AZ112_CommissionSummary.pdf</v>
       </c>
       <c r="H14" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_CZ109_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_AZ112_CommissionDetail.pdf</v>
       </c>
       <c r="K14" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="L14" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="M14" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
@@ -2457,10 +2439,10 @@
         <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D15" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E15">
         <v>1</v>
@@ -2470,20 +2452,20 @@
       </c>
       <c r="G15" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_AZ112_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_CZ1CP_CommissionSummary.pdf</v>
       </c>
       <c r="H15" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_AZ112_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_CZ1CP_CommissionDetail.pdf</v>
       </c>
       <c r="K15" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="L15" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="M15" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
@@ -2492,10 +2474,10 @@
         <v>26</v>
       </c>
       <c r="C16" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D16" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E16">
         <v>1</v>
@@ -2505,20 +2487,20 @@
       </c>
       <c r="G16" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_CZ1CP_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_CZ154_CommissionSummary.pdf</v>
       </c>
       <c r="H16" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_CZ1CP_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_CZ154_CommissionDetail.pdf</v>
       </c>
       <c r="K16" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="L16" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="M16" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
@@ -2527,10 +2509,10 @@
         <v>27</v>
       </c>
       <c r="C17" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D17" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E17">
         <v>1</v>
@@ -2540,20 +2522,20 @@
       </c>
       <c r="G17" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_CZ154_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_CZ1KD_CommissionSummary.pdf</v>
       </c>
       <c r="H17" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_CZ154_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_CZ1KD_CommissionDetail.pdf</v>
       </c>
       <c r="K17" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="L17" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="M17" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
@@ -2562,10 +2544,10 @@
         <v>28</v>
       </c>
       <c r="C18" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D18" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E18">
         <v>1</v>
@@ -2575,20 +2557,20 @@
       </c>
       <c r="G18" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_CZ1KD_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_QZ1CF_CommissionSummary.pdf</v>
       </c>
       <c r="H18" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_CZ1KD_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_QZ1CF_CommissionDetail.pdf</v>
       </c>
       <c r="K18" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="L18" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="M18" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
@@ -2597,10 +2579,10 @@
         <v>29</v>
       </c>
       <c r="C19" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D19" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E19">
         <v>1</v>
@@ -2610,20 +2592,20 @@
       </c>
       <c r="G19" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_QZ1CF_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_CZ1EM_CommissionSummary.pdf</v>
       </c>
       <c r="H19" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_QZ1CF_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_CZ1EM_CommissionDetail.pdf</v>
       </c>
       <c r="K19" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="L19" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="M19" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
@@ -2631,10 +2613,10 @@
         <v>30</v>
       </c>
       <c r="C20" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D20" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E20">
         <v>1</v>
@@ -2644,20 +2626,20 @@
       </c>
       <c r="G20" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_CZ1EM_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_QZ1DP_CommissionSummary.pdf</v>
       </c>
       <c r="H20" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_CZ1EM_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_QZ1DP_CommissionDetail.pdf</v>
       </c>
       <c r="K20" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="L20" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="M20" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
@@ -2665,10 +2647,10 @@
         <v>31</v>
       </c>
       <c r="C21" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D21" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E21">
         <v>1</v>
@@ -2678,20 +2660,20 @@
       </c>
       <c r="G21" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_QZ1DP_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_CZ1DA_CommissionSummary.pdf</v>
       </c>
       <c r="H21" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_QZ1DP_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_CZ1DA_CommissionDetail.pdf</v>
       </c>
       <c r="K21" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="L21" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="M21" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
@@ -2699,10 +2681,10 @@
         <v>32</v>
       </c>
       <c r="C22" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D22" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E22">
         <v>1</v>
@@ -2712,20 +2694,20 @@
       </c>
       <c r="G22" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_CZ1DA_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_QZ1LM_CommissionSummary.pdf</v>
       </c>
       <c r="H22" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_CZ1DA_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_QZ1LM_CommissionDetail.pdf</v>
       </c>
       <c r="K22" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="L22" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="M22" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
@@ -2733,10 +2715,10 @@
         <v>33</v>
       </c>
       <c r="C23" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D23" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E23">
         <v>1</v>
@@ -2746,20 +2728,20 @@
       </c>
       <c r="G23" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_QZ1LM_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_CZ1EE_CommissionSummary.pdf</v>
       </c>
       <c r="H23" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_QZ1LM_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_CZ1EE_CommissionDetail.pdf</v>
       </c>
       <c r="K23" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="L23" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="M23" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
@@ -2767,10 +2749,10 @@
         <v>34</v>
       </c>
       <c r="C24" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D24" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E24">
         <v>1</v>
@@ -2780,20 +2762,20 @@
       </c>
       <c r="G24" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_CZ1EE_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_AZ1EK_CommissionSummary.pdf</v>
       </c>
       <c r="H24" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_CZ1EE_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_AZ1EK_CommissionDetail.pdf</v>
       </c>
       <c r="K24" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="L24" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="M24" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
@@ -2801,10 +2783,10 @@
         <v>35</v>
       </c>
       <c r="C25" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D25" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E25">
         <v>1</v>
@@ -2814,20 +2796,20 @@
       </c>
       <c r="G25" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_AZ1EK_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_AZ1FB_CommissionSummary.pdf</v>
       </c>
       <c r="H25" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_AZ1EK_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_AZ1FB_CommissionDetail.pdf</v>
       </c>
       <c r="K25" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="L25" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="M25" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
@@ -2835,10 +2817,10 @@
         <v>36</v>
       </c>
       <c r="C26" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D26" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E26">
         <v>1</v>
@@ -2848,20 +2830,20 @@
       </c>
       <c r="G26" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_AZ1FB_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_CZ1FP_CommissionSummary.pdf</v>
       </c>
       <c r="H26" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_AZ1FB_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_CZ1FP_CommissionDetail.pdf</v>
       </c>
       <c r="K26" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="L26" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="M26" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
@@ -2869,10 +2851,10 @@
         <v>37</v>
       </c>
       <c r="C27" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D27" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E27">
         <v>1</v>
@@ -2882,20 +2864,20 @@
       </c>
       <c r="G27" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_CZ1FP_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_QZ1FT_CommissionSummary.pdf</v>
       </c>
       <c r="H27" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_CZ1FP_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_QZ1FT_CommissionDetail.pdf</v>
       </c>
       <c r="K27" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="L27" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="M27" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
@@ -2903,10 +2885,10 @@
         <v>38</v>
       </c>
       <c r="C28" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D28" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E28">
         <v>1</v>
@@ -2916,20 +2898,20 @@
       </c>
       <c r="G28" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_QZ1FT_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_QZ1FS_CommissionSummary.pdf</v>
       </c>
       <c r="H28" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_QZ1FT_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_QZ1FS_CommissionDetail.pdf</v>
       </c>
       <c r="K28" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="L28" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="M28" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
@@ -2937,10 +2919,10 @@
         <v>39</v>
       </c>
       <c r="C29" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D29" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E29">
         <v>1</v>
@@ -2950,20 +2932,20 @@
       </c>
       <c r="G29" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_QZ1FS_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_QZ1FR_CommissionSummary.pdf</v>
       </c>
       <c r="H29" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_QZ1FS_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_QZ1FR_CommissionDetail.pdf</v>
       </c>
       <c r="K29" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="L29" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="M29" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
@@ -2971,10 +2953,10 @@
         <v>40</v>
       </c>
       <c r="C30" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D30" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E30">
         <v>1</v>
@@ -2984,20 +2966,20 @@
       </c>
       <c r="G30" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_QZ1FR_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_QZ1GO_CommissionSummary.pdf</v>
       </c>
       <c r="H30" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_QZ1FR_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_QZ1GO_CommissionDetail.pdf</v>
       </c>
       <c r="K30" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="L30" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="M30" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
@@ -3005,10 +2987,10 @@
         <v>41</v>
       </c>
       <c r="C31" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D31" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E31">
         <v>1</v>
@@ -3018,20 +3000,20 @@
       </c>
       <c r="G31" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_QZ1GO_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_AZ1KL_CommissionSummary.pdf</v>
       </c>
       <c r="H31" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_QZ1GO_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_AZ1KL_CommissionDetail.pdf</v>
       </c>
       <c r="K31" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="L31" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="M31" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
@@ -3039,10 +3021,10 @@
         <v>42</v>
       </c>
       <c r="C32" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D32" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E32">
         <v>1</v>
@@ -3052,20 +3034,20 @@
       </c>
       <c r="G32" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_AZ1KL_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_QZ1KK_CommissionSummary.pdf</v>
       </c>
       <c r="H32" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_AZ1KL_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_QZ1KK_CommissionDetail.pdf</v>
       </c>
       <c r="K32" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="L32" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="M32" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="33" spans="2:13" x14ac:dyDescent="0.25">
@@ -3073,10 +3055,10 @@
         <v>43</v>
       </c>
       <c r="C33" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D33" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E33">
         <v>1</v>
@@ -3086,20 +3068,20 @@
       </c>
       <c r="G33" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_QZ1KK_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_CZ1DN_CommissionSummary.pdf</v>
       </c>
       <c r="H33" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_QZ1KK_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_CZ1DN_CommissionDetail.pdf</v>
       </c>
       <c r="K33" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="L33" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="M33" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="34" spans="2:13" x14ac:dyDescent="0.25">
@@ -3107,10 +3089,10 @@
         <v>44</v>
       </c>
       <c r="C34" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D34" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E34">
         <v>1</v>
@@ -3120,20 +3102,20 @@
       </c>
       <c r="G34" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_CZ1DN_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_QZ1EO_CommissionSummary.pdf</v>
       </c>
       <c r="H34" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_CZ1DN_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_QZ1EO_CommissionDetail.pdf</v>
       </c>
       <c r="K34" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="L34" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="M34" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="35" spans="2:13" x14ac:dyDescent="0.25">
@@ -3141,10 +3123,10 @@
         <v>45</v>
       </c>
       <c r="C35" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D35" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E35">
         <v>1</v>
@@ -3154,20 +3136,20 @@
       </c>
       <c r="G35" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_QZ1EO_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_CZ1CB_CommissionSummary.pdf</v>
       </c>
       <c r="H35" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_QZ1EO_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_CZ1CB_CommissionDetail.pdf</v>
       </c>
       <c r="K35" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="L35" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="M35" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="36" spans="2:13" x14ac:dyDescent="0.25">
@@ -3175,10 +3157,10 @@
         <v>46</v>
       </c>
       <c r="C36" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D36" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E36">
         <v>1</v>
@@ -3188,20 +3170,20 @@
       </c>
       <c r="G36" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_CZ1CB_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_CZ1B8_CommissionSummary.pdf</v>
       </c>
       <c r="H36" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_CZ1CB_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_CZ1B8_CommissionDetail.pdf</v>
       </c>
       <c r="K36" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="L36" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="M36" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="37" spans="2:13" x14ac:dyDescent="0.25">
@@ -3209,10 +3191,10 @@
         <v>47</v>
       </c>
       <c r="C37" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D37" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E37">
         <v>1</v>
@@ -3222,20 +3204,20 @@
       </c>
       <c r="G37" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_CZ1B8_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_CZ1C4_CommissionSummary.pdf</v>
       </c>
       <c r="H37" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_CZ1B8_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_CZ1C4_CommissionDetail.pdf</v>
       </c>
       <c r="K37" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="L37" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="M37" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="38" spans="2:13" x14ac:dyDescent="0.25">
@@ -3243,10 +3225,10 @@
         <v>48</v>
       </c>
       <c r="C38" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D38" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E38">
         <v>1</v>
@@ -3256,20 +3238,20 @@
       </c>
       <c r="G38" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_CZ1C4_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_QZ1D8_CommissionSummary.pdf</v>
       </c>
       <c r="H38" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_CZ1C4_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_QZ1D8_CommissionDetail.pdf</v>
       </c>
       <c r="K38" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="L38" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="M38" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="39" spans="2:13" x14ac:dyDescent="0.25">
@@ -3277,10 +3259,10 @@
         <v>49</v>
       </c>
       <c r="C39" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D39" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E39">
         <v>1</v>
@@ -3290,20 +3272,20 @@
       </c>
       <c r="G39" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_QZ1D8_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_CZ1SW_CommissionSummary.pdf</v>
       </c>
       <c r="H39" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_QZ1D8_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_CZ1SW_CommissionDetail.pdf</v>
       </c>
       <c r="K39" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="L39" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="M39" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="40" spans="2:13" x14ac:dyDescent="0.25">
@@ -3311,10 +3293,10 @@
         <v>50</v>
       </c>
       <c r="C40" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D40" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E40">
         <v>1</v>
@@ -3324,20 +3306,20 @@
       </c>
       <c r="G40" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_CZ1SW_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_QZ1AP_CommissionSummary.pdf</v>
       </c>
       <c r="H40" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_CZ1SW_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_QZ1AP_CommissionDetail.pdf</v>
       </c>
       <c r="K40" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="L40" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="M40" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="41" spans="2:13" x14ac:dyDescent="0.25">
@@ -3345,10 +3327,10 @@
         <v>51</v>
       </c>
       <c r="C41" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D41" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E41">
         <v>1</v>
@@ -3358,20 +3340,20 @@
       </c>
       <c r="G41" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_QZ1AP_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_CZ2CB_CommissionSummary.pdf</v>
       </c>
       <c r="H41" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_QZ1AP_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_CZ2CB_CommissionDetail.pdf</v>
       </c>
       <c r="K41" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="L41" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="M41" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="42" spans="2:13" x14ac:dyDescent="0.25">
@@ -3379,10 +3361,10 @@
         <v>52</v>
       </c>
       <c r="C42" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D42" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E42">
         <v>1</v>
@@ -3392,20 +3374,20 @@
       </c>
       <c r="G42" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_CZ2CB_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_CZ1CG_CommissionSummary.pdf</v>
       </c>
       <c r="H42" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_CZ2CB_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_CZ1CG_CommissionDetail.pdf</v>
       </c>
       <c r="K42" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="L42" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="M42" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="43" spans="2:13" x14ac:dyDescent="0.25">
@@ -3413,10 +3395,10 @@
         <v>53</v>
       </c>
       <c r="C43" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D43" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E43">
         <v>1</v>
@@ -3426,20 +3408,20 @@
       </c>
       <c r="G43" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_CZ1CG_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_AZ1PV_CommissionSummary.pdf</v>
       </c>
       <c r="H43" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_CZ1CG_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_AZ1PV_CommissionDetail.pdf</v>
       </c>
       <c r="K43" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="L43" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="M43" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="44" spans="2:13" x14ac:dyDescent="0.25">
@@ -3447,10 +3429,10 @@
         <v>54</v>
       </c>
       <c r="C44" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D44" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E44">
         <v>1</v>
@@ -3460,20 +3442,20 @@
       </c>
       <c r="G44" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_AZ1PV_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_CZ3CB_CommissionSummary.pdf</v>
       </c>
       <c r="H44" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_AZ1PV_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_CZ3CB_CommissionDetail.pdf</v>
       </c>
       <c r="K44" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="L44" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="M44" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="45" spans="2:13" x14ac:dyDescent="0.25">
@@ -3481,10 +3463,10 @@
         <v>55</v>
       </c>
       <c r="C45" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D45" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E45">
         <v>1</v>
@@ -3494,20 +3476,20 @@
       </c>
       <c r="G45" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_CZ3CB_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_CZ5CS_CommissionSummary.pdf</v>
       </c>
       <c r="H45" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_CZ3CB_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_CZ5CS_CommissionDetail.pdf</v>
       </c>
       <c r="K45" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="L45" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="M45" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="46" spans="2:13" x14ac:dyDescent="0.25">
@@ -3515,10 +3497,10 @@
         <v>56</v>
       </c>
       <c r="C46" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D46" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E46">
         <v>1</v>
@@ -3528,31 +3510,31 @@
       </c>
       <c r="G46" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_CZ5CS_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_CZ8JA_CommissionSummary.pdf</v>
       </c>
       <c r="H46" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_CZ5CS_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_CZ8JA_CommissionDetail.pdf</v>
       </c>
       <c r="K46" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="L46" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="M46" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="47" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
-        <v>57</v>
+        <v>173</v>
       </c>
       <c r="C47" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D47" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E47">
         <v>1</v>
@@ -3562,31 +3544,31 @@
       </c>
       <c r="G47" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_CZ8JA_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_QZ7JM_CommissionSummary.pdf</v>
       </c>
       <c r="H47" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_CZ8JA_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_QZ7JM_CommissionDetail.pdf</v>
       </c>
       <c r="K47" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="L47" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="M47" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="48" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
-        <v>175</v>
+        <v>57</v>
       </c>
       <c r="C48" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D48" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E48">
         <v>1</v>
@@ -3596,20 +3578,20 @@
       </c>
       <c r="G48" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_QZ7JM_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_QZ7DO_CommissionSummary.pdf</v>
       </c>
       <c r="H48" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_QZ7JM_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_QZ7DO_CommissionDetail.pdf</v>
       </c>
       <c r="K48" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="L48" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="M48" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="49" spans="2:13" x14ac:dyDescent="0.25">
@@ -3617,10 +3599,10 @@
         <v>58</v>
       </c>
       <c r="C49" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D49" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E49">
         <v>1</v>
@@ -3630,20 +3612,20 @@
       </c>
       <c r="G49" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_QZ7DO_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_CZ5TA_CommissionSummary.pdf</v>
       </c>
       <c r="H49" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_QZ7DO_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_CZ5TA_CommissionDetail.pdf</v>
       </c>
       <c r="K49" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="L49" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="M49" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="50" spans="2:13" x14ac:dyDescent="0.25">
@@ -3651,10 +3633,10 @@
         <v>59</v>
       </c>
       <c r="C50" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D50" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E50">
         <v>1</v>
@@ -3664,20 +3646,20 @@
       </c>
       <c r="G50" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_CZ5TA_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_CZ2LB_CommissionSummary.pdf</v>
       </c>
       <c r="H50" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_CZ5TA_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_CZ2LB_CommissionDetail.pdf</v>
       </c>
       <c r="K50" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="L50" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="M50" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="51" spans="2:13" x14ac:dyDescent="0.25">
@@ -3685,10 +3667,10 @@
         <v>60</v>
       </c>
       <c r="C51" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D51" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E51">
         <v>1</v>
@@ -3698,20 +3680,20 @@
       </c>
       <c r="G51" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_CZ2LB_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_CZ2GB_CommissionSummary.pdf</v>
       </c>
       <c r="H51" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_CZ2LB_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_CZ2GB_CommissionDetail.pdf</v>
       </c>
       <c r="K51" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="L51" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="M51" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="52" spans="2:13" x14ac:dyDescent="0.25">
@@ -3719,10 +3701,10 @@
         <v>61</v>
       </c>
       <c r="C52" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D52" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E52">
         <v>1</v>
@@ -3732,20 +3714,20 @@
       </c>
       <c r="G52" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_CZ2GB_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_CZ2LH_CommissionSummary.pdf</v>
       </c>
       <c r="H52" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_CZ2GB_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_CZ2LH_CommissionDetail.pdf</v>
       </c>
       <c r="K52" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="L52" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="M52" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="53" spans="2:13" x14ac:dyDescent="0.25">
@@ -3753,10 +3735,10 @@
         <v>62</v>
       </c>
       <c r="C53" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D53" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E53">
         <v>1</v>
@@ -3766,20 +3748,20 @@
       </c>
       <c r="G53" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_CZ2LH_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_CZ2NM_CommissionSummary.pdf</v>
       </c>
       <c r="H53" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_CZ2LH_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_CZ2NM_CommissionDetail.pdf</v>
       </c>
       <c r="K53" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="L53" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="M53" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="54" spans="2:13" x14ac:dyDescent="0.25">
@@ -3787,10 +3769,10 @@
         <v>63</v>
       </c>
       <c r="C54" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D54" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E54">
         <v>1</v>
@@ -3800,20 +3782,20 @@
       </c>
       <c r="G54" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_CZ2NM_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_QZ2SB_CommissionSummary.pdf</v>
       </c>
       <c r="H54" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_CZ2NM_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_QZ2SB_CommissionDetail.pdf</v>
       </c>
       <c r="K54" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="L54" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="M54" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="55" spans="2:13" x14ac:dyDescent="0.25">
@@ -3821,10 +3803,10 @@
         <v>64</v>
       </c>
       <c r="C55" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D55" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E55">
         <v>1</v>
@@ -3834,20 +3816,20 @@
       </c>
       <c r="G55" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_QZ2SB_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_CZ2BG_CommissionSummary.pdf</v>
       </c>
       <c r="H55" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_QZ2SB_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_CZ2BG_CommissionDetail.pdf</v>
       </c>
       <c r="K55" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="L55" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="M55" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="56" spans="2:13" x14ac:dyDescent="0.25">
@@ -3855,10 +3837,10 @@
         <v>65</v>
       </c>
       <c r="C56" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D56" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E56">
         <v>1</v>
@@ -3868,20 +3850,20 @@
       </c>
       <c r="G56" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_CZ2BG_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_CZ1SA_CommissionSummary.pdf</v>
       </c>
       <c r="H56" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_CZ2BG_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_CZ1SA_CommissionDetail.pdf</v>
       </c>
       <c r="K56" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="L56" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="M56" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="57" spans="2:13" x14ac:dyDescent="0.25">
@@ -3889,10 +3871,10 @@
         <v>66</v>
       </c>
       <c r="C57" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D57" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E57">
         <v>1</v>
@@ -3902,20 +3884,20 @@
       </c>
       <c r="G57" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_CZ1SA_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_WZ115_CommissionSummary.pdf</v>
       </c>
       <c r="H57" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_CZ1SA_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_WZ115_CommissionDetail.pdf</v>
       </c>
       <c r="K57" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="L57" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="M57" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="58" spans="2:13" x14ac:dyDescent="0.25">
@@ -3923,10 +3905,10 @@
         <v>67</v>
       </c>
       <c r="C58" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D58" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E58">
         <v>1</v>
@@ -3936,20 +3918,20 @@
       </c>
       <c r="G58" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_WZ115_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_WZ120_CommissionSummary.pdf</v>
       </c>
       <c r="H58" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_WZ115_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_WZ120_CommissionDetail.pdf</v>
       </c>
       <c r="K58" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="L58" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="M58" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="59" spans="2:13" x14ac:dyDescent="0.25">
@@ -3957,10 +3939,10 @@
         <v>68</v>
       </c>
       <c r="C59" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D59" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E59">
         <v>1</v>
@@ -3970,20 +3952,20 @@
       </c>
       <c r="G59" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_WZ120_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_WZ118_CommissionSummary.pdf</v>
       </c>
       <c r="H59" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_WZ120_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_WZ118_CommissionDetail.pdf</v>
       </c>
       <c r="K59" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="L59" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="M59" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="60" spans="2:13" x14ac:dyDescent="0.25">
@@ -3991,10 +3973,10 @@
         <v>69</v>
       </c>
       <c r="C60" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D60" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E60">
         <v>1</v>
@@ -4004,20 +3986,20 @@
       </c>
       <c r="G60" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_WZ118_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_WZ119_CommissionSummary.pdf</v>
       </c>
       <c r="H60" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_WZ118_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_WZ119_CommissionDetail.pdf</v>
       </c>
       <c r="K60" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="L60" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="M60" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="61" spans="2:13" x14ac:dyDescent="0.25">
@@ -4025,10 +4007,10 @@
         <v>70</v>
       </c>
       <c r="C61" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D61" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E61">
         <v>1</v>
@@ -4038,20 +4020,20 @@
       </c>
       <c r="G61" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_WZ119_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_WZ138_CommissionSummary.pdf</v>
       </c>
       <c r="H61" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_WZ119_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_WZ138_CommissionDetail.pdf</v>
       </c>
       <c r="K61" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="L61" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="M61" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="62" spans="2:13" x14ac:dyDescent="0.25">
@@ -4059,10 +4041,10 @@
         <v>71</v>
       </c>
       <c r="C62" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D62" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E62">
         <v>1</v>
@@ -4072,20 +4054,20 @@
       </c>
       <c r="G62" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_WZ138_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_WZ142_CommissionSummary.pdf</v>
       </c>
       <c r="H62" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_WZ138_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_WZ142_CommissionDetail.pdf</v>
       </c>
       <c r="K62" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="L62" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="M62" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
     </row>
     <row r="63" spans="2:13" x14ac:dyDescent="0.25">
@@ -4093,10 +4075,10 @@
         <v>72</v>
       </c>
       <c r="C63" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D63" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E63">
         <v>1</v>
@@ -4106,20 +4088,20 @@
       </c>
       <c r="G63" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_WZ142_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_WZ134_CommissionSummary.pdf</v>
       </c>
       <c r="H63" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_WZ142_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_WZ134_CommissionDetail.pdf</v>
       </c>
       <c r="K63" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="L63" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="M63" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="64" spans="2:13" x14ac:dyDescent="0.25">
@@ -4127,10 +4109,10 @@
         <v>73</v>
       </c>
       <c r="C64" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D64" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E64">
         <v>1</v>
@@ -4140,20 +4122,20 @@
       </c>
       <c r="G64" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_WZ134_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_WZ123_CommissionSummary.pdf</v>
       </c>
       <c r="H64" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_WZ134_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_WZ123_CommissionDetail.pdf</v>
       </c>
       <c r="K64" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="L64" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="M64" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
     </row>
     <row r="65" spans="2:13" x14ac:dyDescent="0.25">
@@ -4161,10 +4143,10 @@
         <v>74</v>
       </c>
       <c r="C65" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D65" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E65">
         <v>1</v>
@@ -4174,20 +4156,20 @@
       </c>
       <c r="G65" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_WZ123_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_WZ136_CommissionSummary.pdf</v>
       </c>
       <c r="H65" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_WZ123_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_WZ136_CommissionDetail.pdf</v>
       </c>
       <c r="K65" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="L65" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="M65" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
     </row>
     <row r="66" spans="2:13" x14ac:dyDescent="0.25">
@@ -4195,10 +4177,10 @@
         <v>75</v>
       </c>
       <c r="C66" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D66" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E66">
         <v>1</v>
@@ -4208,20 +4190,20 @@
       </c>
       <c r="G66" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_WZ136_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_WZ165_CommissionSummary.pdf</v>
       </c>
       <c r="H66" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_WZ136_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_WZ165_CommissionDetail.pdf</v>
       </c>
       <c r="K66" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="L66" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="M66" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
     </row>
     <row r="67" spans="2:13" x14ac:dyDescent="0.25">
@@ -4229,10 +4211,10 @@
         <v>76</v>
       </c>
       <c r="C67" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D67" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E67">
         <v>1</v>
@@ -4242,20 +4224,20 @@
       </c>
       <c r="G67" t="str">
         <f t="shared" ref="G67:G130" si="2">$K67&amp;"\"&amp;L67</f>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_WZ165_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_WZ1FF_CommissionSummary.pdf</v>
       </c>
       <c r="H67" t="str">
         <f t="shared" ref="H67:H130" si="3">$K67&amp;"\"&amp;M67</f>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_WZ165_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_WZ1FF_CommissionDetail.pdf</v>
       </c>
       <c r="K67" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="L67" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="M67" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="68" spans="2:13" x14ac:dyDescent="0.25">
@@ -4263,10 +4245,10 @@
         <v>77</v>
       </c>
       <c r="C68" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D68" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E68">
         <v>1</v>
@@ -4276,20 +4258,20 @@
       </c>
       <c r="G68" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_WZ1FF_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_WZ167_CommissionSummary.pdf</v>
       </c>
       <c r="H68" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_WZ1FF_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_WZ167_CommissionDetail.pdf</v>
       </c>
       <c r="K68" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="L68" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="M68" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
     </row>
     <row r="69" spans="2:13" x14ac:dyDescent="0.25">
@@ -4297,10 +4279,10 @@
         <v>78</v>
       </c>
       <c r="C69" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D69" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E69">
         <v>1</v>
@@ -4310,20 +4292,20 @@
       </c>
       <c r="G69" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_WZ167_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_WZ175_CommissionSummary.pdf</v>
       </c>
       <c r="H69" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_WZ167_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_WZ175_CommissionDetail.pdf</v>
       </c>
       <c r="K69" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="L69" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="M69" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
     </row>
     <row r="70" spans="2:13" x14ac:dyDescent="0.25">
@@ -4331,10 +4313,10 @@
         <v>79</v>
       </c>
       <c r="C70" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D70" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E70">
         <v>1</v>
@@ -4344,20 +4326,20 @@
       </c>
       <c r="G70" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_WZ175_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_WZ177_CommissionSummary.pdf</v>
       </c>
       <c r="H70" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_WZ175_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_WZ177_CommissionDetail.pdf</v>
       </c>
       <c r="K70" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="L70" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="M70" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="71" spans="2:13" x14ac:dyDescent="0.25">
@@ -4365,10 +4347,10 @@
         <v>80</v>
       </c>
       <c r="C71" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D71" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E71">
         <v>1</v>
@@ -4378,20 +4360,20 @@
       </c>
       <c r="G71" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_WZ177_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_WZ143_CommissionSummary.pdf</v>
       </c>
       <c r="H71" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_WZ177_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_WZ143_CommissionDetail.pdf</v>
       </c>
       <c r="K71" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="L71" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="M71" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
     <row r="72" spans="2:13" x14ac:dyDescent="0.25">
@@ -4399,10 +4381,10 @@
         <v>81</v>
       </c>
       <c r="C72" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D72" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E72">
         <v>1</v>
@@ -4412,20 +4394,20 @@
       </c>
       <c r="G72" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_WZ143_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_WZ159_CommissionSummary.pdf</v>
       </c>
       <c r="H72" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_WZ143_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_WZ159_CommissionDetail.pdf</v>
       </c>
       <c r="K72" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="L72" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="M72" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
     <row r="73" spans="2:13" x14ac:dyDescent="0.25">
@@ -4433,10 +4415,10 @@
         <v>82</v>
       </c>
       <c r="C73" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D73" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E73">
         <v>1</v>
@@ -4446,20 +4428,20 @@
       </c>
       <c r="G73" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_WZ159_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_WZ162_CommissionSummary.pdf</v>
       </c>
       <c r="H73" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_WZ159_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_WZ162_CommissionDetail.pdf</v>
       </c>
       <c r="K73" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="L73" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="M73" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
     </row>
     <row r="74" spans="2:13" x14ac:dyDescent="0.25">
@@ -4467,10 +4449,10 @@
         <v>83</v>
       </c>
       <c r="C74" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D74" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E74">
         <v>1</v>
@@ -4480,20 +4462,20 @@
       </c>
       <c r="G74" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_WZ162_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_WZ113_CommissionSummary.pdf</v>
       </c>
       <c r="H74" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_WZ162_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_WZ113_CommissionDetail.pdf</v>
       </c>
       <c r="K74" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="L74" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="M74" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
     </row>
     <row r="75" spans="2:13" x14ac:dyDescent="0.25">
@@ -4501,10 +4483,10 @@
         <v>84</v>
       </c>
       <c r="C75" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D75" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E75">
         <v>1</v>
@@ -4514,20 +4496,20 @@
       </c>
       <c r="G75" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_WZ113_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_WZ137_CommissionSummary.pdf</v>
       </c>
       <c r="H75" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_WZ113_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_WZ137_CommissionDetail.pdf</v>
       </c>
       <c r="K75" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="L75" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="M75" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="76" spans="2:13" x14ac:dyDescent="0.25">
@@ -4535,10 +4517,10 @@
         <v>85</v>
       </c>
       <c r="C76" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D76" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E76">
         <v>1</v>
@@ -4548,20 +4530,20 @@
       </c>
       <c r="G76" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_WZ137_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_WZ1G4_CommissionSummary.pdf</v>
       </c>
       <c r="H76" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_WZ137_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_WZ1G4_CommissionDetail.pdf</v>
       </c>
       <c r="K76" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="L76" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="M76" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="77" spans="2:13" x14ac:dyDescent="0.25">
@@ -4569,10 +4551,10 @@
         <v>86</v>
       </c>
       <c r="C77" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D77" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E77">
         <v>1</v>
@@ -4582,20 +4564,20 @@
       </c>
       <c r="G77" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_WZ1G4_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_WZ1CE_CommissionSummary.pdf</v>
       </c>
       <c r="H77" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_WZ1G4_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_WZ1CE_CommissionDetail.pdf</v>
       </c>
       <c r="K77" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="L77" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="M77" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
     </row>
     <row r="78" spans="2:13" x14ac:dyDescent="0.25">
@@ -4603,10 +4585,10 @@
         <v>87</v>
       </c>
       <c r="C78" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D78" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E78">
         <v>1</v>
@@ -4616,20 +4598,20 @@
       </c>
       <c r="G78" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_WZ1CE_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_WZBW1_CommissionSummary.pdf</v>
       </c>
       <c r="H78" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_WZ1CE_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_WZBW1_CommissionDetail.pdf</v>
       </c>
       <c r="K78" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="L78" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="M78" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
     </row>
     <row r="79" spans="2:13" x14ac:dyDescent="0.25">
@@ -4637,10 +4619,10 @@
         <v>88</v>
       </c>
       <c r="C79" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D79" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E79">
         <v>1</v>
@@ -4650,20 +4632,20 @@
       </c>
       <c r="G79" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_WZBW1_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_WZ9TS_CommissionSummary.pdf</v>
       </c>
       <c r="H79" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_WZBW1_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_WZ9TS_CommissionDetail.pdf</v>
       </c>
       <c r="K79" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="L79" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="M79" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
     </row>
     <row r="80" spans="2:13" x14ac:dyDescent="0.25">
@@ -4671,10 +4653,10 @@
         <v>89</v>
       </c>
       <c r="C80" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D80" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E80">
         <v>1</v>
@@ -4684,20 +4666,20 @@
       </c>
       <c r="G80" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_WZ9TS_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_WZ1HM_CommissionSummary.pdf</v>
       </c>
       <c r="H80" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_WZ9TS_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_WZ1HM_CommissionDetail.pdf</v>
       </c>
       <c r="K80" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="L80" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="M80" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="81" spans="2:13" x14ac:dyDescent="0.25">
@@ -4705,10 +4687,10 @@
         <v>90</v>
       </c>
       <c r="C81" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D81" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E81">
         <v>1</v>
@@ -4718,20 +4700,20 @@
       </c>
       <c r="G81" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_WZ1HM_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_WZ1HM_CommissionSummary.pdf</v>
       </c>
       <c r="H81" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_WZ1HM_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_WZ1HM_CommissionDetail.pdf</v>
       </c>
       <c r="K81" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="L81" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="M81" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
     </row>
     <row r="82" spans="2:13" x14ac:dyDescent="0.25">
@@ -4739,10 +4721,10 @@
         <v>91</v>
       </c>
       <c r="C82" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D82" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E82">
         <v>1</v>
@@ -4752,20 +4734,20 @@
       </c>
       <c r="G82" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_WZ1HM_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_WZ2RP_CommissionSummary.pdf</v>
       </c>
       <c r="H82" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_WZ1HM_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_WZ2RP_CommissionDetail.pdf</v>
       </c>
       <c r="K82" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="L82" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="M82" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="83" spans="2:13" x14ac:dyDescent="0.25">
@@ -4773,10 +4755,10 @@
         <v>92</v>
       </c>
       <c r="C83" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D83" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E83">
         <v>1</v>
@@ -4786,20 +4768,20 @@
       </c>
       <c r="G83" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_WZ2RP_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_WZ1TT_CommissionSummary.pdf</v>
       </c>
       <c r="H83" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_WZ2RP_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_WZ1TT_CommissionDetail.pdf</v>
       </c>
       <c r="K83" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="L83" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="M83" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
     </row>
     <row r="84" spans="2:13" x14ac:dyDescent="0.25">
@@ -4807,10 +4789,10 @@
         <v>93</v>
       </c>
       <c r="C84" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D84" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E84">
         <v>1</v>
@@ -4820,20 +4802,20 @@
       </c>
       <c r="G84" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_WZ1TT_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_WZ1AM_CommissionSummary.pdf</v>
       </c>
       <c r="H84" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_WZ1TT_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_WZ1AM_CommissionDetail.pdf</v>
       </c>
       <c r="K84" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="L84" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="M84" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
     </row>
     <row r="85" spans="2:13" x14ac:dyDescent="0.25">
@@ -4841,10 +4823,10 @@
         <v>94</v>
       </c>
       <c r="C85" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D85" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E85">
         <v>1</v>
@@ -4854,20 +4836,20 @@
       </c>
       <c r="G85" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_WZ1AM_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_WZ1JW_CommissionSummary.pdf</v>
       </c>
       <c r="H85" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_WZ1AM_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_WZ1JW_CommissionDetail.pdf</v>
       </c>
       <c r="K85" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="L85" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="M85" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
     </row>
     <row r="86" spans="2:13" x14ac:dyDescent="0.25">
@@ -4875,10 +4857,10 @@
         <v>95</v>
       </c>
       <c r="C86" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D86" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E86">
         <v>1</v>
@@ -4888,20 +4870,20 @@
       </c>
       <c r="G86" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_WZ1JW_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_WZ1MH_CommissionSummary.pdf</v>
       </c>
       <c r="H86" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_WZ1JW_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_WZ1MH_CommissionDetail.pdf</v>
       </c>
       <c r="K86" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="L86" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="M86" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
     </row>
     <row r="87" spans="2:13" x14ac:dyDescent="0.25">
@@ -4909,10 +4891,10 @@
         <v>96</v>
       </c>
       <c r="C87" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D87" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E87">
         <v>1</v>
@@ -4922,20 +4904,20 @@
       </c>
       <c r="G87" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_WZ1MH_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_WZ1TM_CommissionSummary.pdf</v>
       </c>
       <c r="H87" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_WZ1MH_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_WZ1TM_CommissionDetail.pdf</v>
       </c>
       <c r="K87" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="L87" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="M87" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
     </row>
     <row r="88" spans="2:13" x14ac:dyDescent="0.25">
@@ -4943,10 +4925,10 @@
         <v>97</v>
       </c>
       <c r="C88" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D88" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E88">
         <v>1</v>
@@ -4956,20 +4938,20 @@
       </c>
       <c r="G88" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_WZ1TM_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_WZ2AM_CommissionSummary.pdf</v>
       </c>
       <c r="H88" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_WZ1TM_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_WZ2AM_CommissionDetail.pdf</v>
       </c>
       <c r="K88" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="L88" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="M88" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
     </row>
     <row r="89" spans="2:13" x14ac:dyDescent="0.25">
@@ -4977,10 +4959,10 @@
         <v>98</v>
       </c>
       <c r="C89" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D89" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E89">
         <v>1</v>
@@ -4990,20 +4972,20 @@
       </c>
       <c r="G89" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_WZ2AM_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_WZ1SC_CommissionSummary.pdf</v>
       </c>
       <c r="H89" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_WZ2AM_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_WZ1SC_CommissionDetail.pdf</v>
       </c>
       <c r="K89" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="L89" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="M89" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="90" spans="2:13" x14ac:dyDescent="0.25">
@@ -5011,10 +4993,10 @@
         <v>99</v>
       </c>
       <c r="C90" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D90" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E90">
         <v>1</v>
@@ -5024,20 +5006,20 @@
       </c>
       <c r="G90" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_WZ1SC_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_WZ1PB_CommissionSummary.pdf</v>
       </c>
       <c r="H90" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_WZ1SC_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_WZ1PB_CommissionDetail.pdf</v>
       </c>
       <c r="K90" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="L90" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="M90" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
     </row>
     <row r="91" spans="2:13" x14ac:dyDescent="0.25">
@@ -5045,10 +5027,10 @@
         <v>100</v>
       </c>
       <c r="C91" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D91" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E91">
         <v>1</v>
@@ -5058,20 +5040,20 @@
       </c>
       <c r="G91" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_WZ1PB_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_WZ1JN_CommissionSummary.pdf</v>
       </c>
       <c r="H91" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_WZ1PB_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_WZ1JN_CommissionDetail.pdf</v>
       </c>
       <c r="K91" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="L91" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="M91" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
     </row>
     <row r="92" spans="2:13" x14ac:dyDescent="0.25">
@@ -5079,10 +5061,10 @@
         <v>101</v>
       </c>
       <c r="C92" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D92" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E92">
         <v>1</v>
@@ -5092,31 +5074,31 @@
       </c>
       <c r="G92" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_WZ1JN_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_WZ1MK_CommissionSummary.pdf</v>
       </c>
       <c r="H92" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_WZ1JN_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_WZ1MK_CommissionDetail.pdf</v>
       </c>
       <c r="K92" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="L92" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="M92" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
     </row>
     <row r="93" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B93" t="s">
-        <v>102</v>
+        <v>177</v>
       </c>
       <c r="C93" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D93" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E93">
         <v>1</v>
@@ -5126,31 +5108,31 @@
       </c>
       <c r="G93" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_WZ1MK_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_WZ1CA_CommissionSummary.pdf</v>
       </c>
       <c r="H93" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_WZ1MK_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_WZ1CA_CommissionDetail.pdf</v>
       </c>
       <c r="K93" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="L93" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="M93" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
     </row>
     <row r="94" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B94" t="s">
-        <v>179</v>
+        <v>102</v>
       </c>
       <c r="C94" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D94" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E94">
         <v>1</v>
@@ -5160,20 +5142,20 @@
       </c>
       <c r="G94" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_WZ1CA_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_WZ2TM_CommissionSummary.pdf</v>
       </c>
       <c r="H94" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_WZ1CA_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_WZ2TM_CommissionDetail.pdf</v>
       </c>
       <c r="K94" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="L94" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="M94" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="95" spans="2:13" x14ac:dyDescent="0.25">
@@ -5181,10 +5163,10 @@
         <v>103</v>
       </c>
       <c r="C95" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D95" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E95">
         <v>1</v>
@@ -5194,20 +5176,20 @@
       </c>
       <c r="G95" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_WZ2TM_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_WZ1BC_CommissionSummary.pdf</v>
       </c>
       <c r="H95" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_WZ2TM_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_WZ1BC_CommissionDetail.pdf</v>
       </c>
       <c r="K95" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="L95" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="M95" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
     </row>
     <row r="96" spans="2:13" x14ac:dyDescent="0.25">
@@ -5215,10 +5197,10 @@
         <v>104</v>
       </c>
       <c r="C96" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D96" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E96">
         <v>1</v>
@@ -5228,20 +5210,20 @@
       </c>
       <c r="G96" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_WZ1BC_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_WZ1JL_CommissionSummary.pdf</v>
       </c>
       <c r="H96" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_WZ1BC_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_WZ1JL_CommissionDetail.pdf</v>
       </c>
       <c r="K96" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="L96" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="M96" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
     </row>
     <row r="97" spans="2:13" x14ac:dyDescent="0.25">
@@ -5249,10 +5231,10 @@
         <v>105</v>
       </c>
       <c r="C97" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D97" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E97">
         <v>1</v>
@@ -5262,20 +5244,20 @@
       </c>
       <c r="G97" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_WZ1JL_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_WZ1AL_CommissionSummary.pdf</v>
       </c>
       <c r="H97" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_WZ1JL_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_WZ1AL_CommissionDetail.pdf</v>
       </c>
       <c r="K97" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="L97" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="M97" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
     </row>
     <row r="98" spans="2:13" x14ac:dyDescent="0.25">
@@ -5283,10 +5265,10 @@
         <v>106</v>
       </c>
       <c r="C98" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D98" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E98">
         <v>1</v>
@@ -5296,20 +5278,20 @@
       </c>
       <c r="G98" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_WZ1AL_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_WZ1MW_CommissionSummary.pdf</v>
       </c>
       <c r="H98" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_WZ1AL_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_WZ1MW_CommissionDetail.pdf</v>
       </c>
       <c r="K98" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="L98" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="M98" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
     </row>
     <row r="99" spans="2:13" x14ac:dyDescent="0.25">
@@ -5317,10 +5299,10 @@
         <v>107</v>
       </c>
       <c r="C99" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D99" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E99">
         <v>1</v>
@@ -5330,20 +5312,20 @@
       </c>
       <c r="G99" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_WZ1MW_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_WZ1MS_CommissionSummary.pdf</v>
       </c>
       <c r="H99" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_WZ1MW_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_WZ1MS_CommissionDetail.pdf</v>
       </c>
       <c r="K99" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="L99" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="M99" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
     </row>
     <row r="100" spans="2:13" x14ac:dyDescent="0.25">
@@ -5351,10 +5333,10 @@
         <v>108</v>
       </c>
       <c r="C100" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D100" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E100">
         <v>1</v>
@@ -5364,31 +5346,31 @@
       </c>
       <c r="G100" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_WZ1MS_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_WZ1DF_CommissionSummary.pdf</v>
       </c>
       <c r="H100" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_WZ1MS_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_WZ1DF_CommissionDetail.pdf</v>
       </c>
       <c r="K100" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="L100" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="M100" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
     </row>
     <row r="101" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B101" t="s">
-        <v>109</v>
+        <v>170</v>
       </c>
       <c r="C101" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D101" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E101">
         <v>1</v>
@@ -5398,31 +5380,31 @@
       </c>
       <c r="G101" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_WZ1DF_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_WZ1JI_CommissionSummary.pdf</v>
       </c>
       <c r="H101" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_WZ1DF_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_WZ1JI_CommissionDetail.pdf</v>
       </c>
       <c r="K101" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="L101" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="M101" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="102" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B102" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C102" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D102" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E102">
         <v>1</v>
@@ -5432,31 +5414,31 @@
       </c>
       <c r="G102" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_WZ1JI_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_WZ1CM_CommissionSummary.pdf</v>
       </c>
       <c r="H102" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_WZ1JI_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_WZ1CM_CommissionDetail.pdf</v>
       </c>
       <c r="K102" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="L102" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="M102" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
     </row>
     <row r="103" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B103" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C103" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D103" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E103">
         <v>1</v>
@@ -5466,31 +5448,31 @@
       </c>
       <c r="G103" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_WZ1CM_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_WZ2MS_CommissionSummary.pdf</v>
       </c>
       <c r="H103" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_WZ1CM_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_WZ2MS_CommissionDetail.pdf</v>
       </c>
       <c r="K103" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="L103" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="M103" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
     </row>
     <row r="104" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B104" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="C104" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D104" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E104">
         <v>1</v>
@@ -5500,31 +5482,31 @@
       </c>
       <c r="G104" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_WZ2MS_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_WZ2JN_CommissionSummary.pdf</v>
       </c>
       <c r="H104" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_WZ2MS_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_WZ2JN_CommissionDetail.pdf</v>
       </c>
       <c r="K104" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="L104" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="M104" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
     </row>
     <row r="105" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B105" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C105" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D105" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E105">
         <v>1</v>
@@ -5534,31 +5516,31 @@
       </c>
       <c r="G105" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_WZ2JN_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_CZ1RD_CommissionSummary.pdf</v>
       </c>
       <c r="H105" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_WZ2JN_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_CZ1RD_CommissionDetail.pdf</v>
       </c>
       <c r="K105" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="L105" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="M105" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
     </row>
     <row r="106" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B106" t="s">
-        <v>181</v>
+        <v>109</v>
       </c>
       <c r="C106" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D106" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E106">
         <v>1</v>
@@ -5568,20 +5550,20 @@
       </c>
       <c r="G106" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_CZ1RD_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_CZ1GF_CommissionSummary.pdf</v>
       </c>
       <c r="H106" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_CZ1RD_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_CZ1GF_CommissionDetail.pdf</v>
       </c>
       <c r="K106" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="L106" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="M106" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
     </row>
     <row r="107" spans="2:13" x14ac:dyDescent="0.25">
@@ -5589,10 +5571,10 @@
         <v>110</v>
       </c>
       <c r="C107" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D107" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E107">
         <v>1</v>
@@ -5602,20 +5584,20 @@
       </c>
       <c r="G107" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_CZ1GF_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_QZ1BP_CommissionSummary.pdf</v>
       </c>
       <c r="H107" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_CZ1GF_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_QZ1BP_CommissionDetail.pdf</v>
       </c>
       <c r="K107" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="L107" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="M107" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
     </row>
     <row r="108" spans="2:13" x14ac:dyDescent="0.25">
@@ -5623,10 +5605,10 @@
         <v>111</v>
       </c>
       <c r="C108" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D108" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E108">
         <v>1</v>
@@ -5636,20 +5618,20 @@
       </c>
       <c r="G108" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_QZ1BP_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_CZ1JF_CommissionSummary.pdf</v>
       </c>
       <c r="H108" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_QZ1BP_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_CZ1JF_CommissionDetail.pdf</v>
       </c>
       <c r="K108" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="L108" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="M108" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
     </row>
     <row r="109" spans="2:13" x14ac:dyDescent="0.25">
@@ -5657,10 +5639,10 @@
         <v>112</v>
       </c>
       <c r="C109" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D109" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E109">
         <v>1</v>
@@ -5670,20 +5652,20 @@
       </c>
       <c r="G109" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_CZ1JF_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_AZ1CI_CommissionSummary.pdf</v>
       </c>
       <c r="H109" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_CZ1JF_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_AZ1CI_CommissionDetail.pdf</v>
       </c>
       <c r="K109" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="L109" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="M109" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="110" spans="2:13" x14ac:dyDescent="0.25">
@@ -5691,10 +5673,10 @@
         <v>113</v>
       </c>
       <c r="C110" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D110" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E110">
         <v>1</v>
@@ -5704,20 +5686,20 @@
       </c>
       <c r="G110" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_AZ1CI_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_CZ1KM_CommissionSummary.pdf</v>
       </c>
       <c r="H110" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_AZ1CI_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_CZ1KM_CommissionDetail.pdf</v>
       </c>
       <c r="K110" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="L110" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="M110" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
     </row>
     <row r="111" spans="2:13" x14ac:dyDescent="0.25">
@@ -5725,10 +5707,10 @@
         <v>114</v>
       </c>
       <c r="C111" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D111" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E111">
         <v>1</v>
@@ -5738,20 +5720,20 @@
       </c>
       <c r="G111" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_CZ1KM_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_CZ1OV_CommissionSummary.pdf</v>
       </c>
       <c r="H111" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_CZ1KM_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_CZ1OV_CommissionDetail.pdf</v>
       </c>
       <c r="K111" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="L111" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="M111" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
     </row>
     <row r="112" spans="2:13" x14ac:dyDescent="0.25">
@@ -5759,10 +5741,10 @@
         <v>115</v>
       </c>
       <c r="C112" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D112" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E112">
         <v>1</v>
@@ -5772,20 +5754,20 @@
       </c>
       <c r="G112" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_CZ1OV_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_QZ1JB_CommissionSummary.pdf</v>
       </c>
       <c r="H112" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_CZ1OV_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_QZ1JB_CommissionDetail.pdf</v>
       </c>
       <c r="K112" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="L112" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="M112" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
     </row>
     <row r="113" spans="2:13" x14ac:dyDescent="0.25">
@@ -5793,10 +5775,10 @@
         <v>116</v>
       </c>
       <c r="C113" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D113" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E113">
         <v>1</v>
@@ -5806,20 +5788,20 @@
       </c>
       <c r="G113" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_QZ1JB_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_QZ1BG_CommissionSummary.pdf</v>
       </c>
       <c r="H113" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_QZ1JB_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_QZ1BG_CommissionDetail.pdf</v>
       </c>
       <c r="K113" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="L113" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="M113" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
     </row>
     <row r="114" spans="2:13" x14ac:dyDescent="0.25">
@@ -5827,10 +5809,10 @@
         <v>117</v>
       </c>
       <c r="C114" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D114" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E114">
         <v>1</v>
@@ -5840,31 +5822,31 @@
       </c>
       <c r="G114" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_QZ1BG_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_CZ1TM_CommissionSummary.pdf</v>
       </c>
       <c r="H114" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_QZ1BG_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_CZ1TM_CommissionDetail.pdf</v>
       </c>
       <c r="K114" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="L114" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="M114" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
     </row>
     <row r="115" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B115" t="s">
-        <v>118</v>
+        <v>19</v>
       </c>
       <c r="C115" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D115" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E115">
         <v>1</v>
@@ -5874,31 +5856,31 @@
       </c>
       <c r="G115" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_CZ1TM_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_QZ177_CommissionSummary.pdf</v>
       </c>
       <c r="H115" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_CZ1TM_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_QZ177_CommissionDetail.pdf</v>
       </c>
       <c r="K115" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="L115" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="M115" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
     </row>
     <row r="116" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B116" t="s">
-        <v>19</v>
+        <v>118</v>
       </c>
       <c r="C116" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D116" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E116">
         <v>1</v>
@@ -5908,20 +5890,20 @@
       </c>
       <c r="G116" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_QZ177_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_QZ1BM_CommissionSummary.pdf</v>
       </c>
       <c r="H116" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_QZ177_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_QZ1BM_CommissionDetail.pdf</v>
       </c>
       <c r="K116" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="L116" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="M116" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
     </row>
     <row r="117" spans="2:13" x14ac:dyDescent="0.25">
@@ -5929,10 +5911,10 @@
         <v>119</v>
       </c>
       <c r="C117" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D117" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E117">
         <v>1</v>
@@ -5942,20 +5924,20 @@
       </c>
       <c r="G117" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_QZ1BM_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_QZ1MD_CommissionSummary.pdf</v>
       </c>
       <c r="H117" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_QZ1BM_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_QZ1MD_CommissionDetail.pdf</v>
       </c>
       <c r="K117" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="L117" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="M117" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
     </row>
     <row r="118" spans="2:13" x14ac:dyDescent="0.25">
@@ -5963,10 +5945,10 @@
         <v>120</v>
       </c>
       <c r="C118" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D118" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E118">
         <v>1</v>
@@ -5976,31 +5958,31 @@
       </c>
       <c r="G118" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_QZ1MD_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_AZ1JB_CommissionSummary.pdf</v>
       </c>
       <c r="H118" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_QZ1MD_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_AZ1JB_CommissionDetail.pdf</v>
       </c>
       <c r="K118" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="L118" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="M118" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
     </row>
     <row r="119" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B119" t="s">
-        <v>121</v>
+        <v>178</v>
       </c>
       <c r="C119" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D119" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E119">
         <v>1</v>
@@ -6010,31 +5992,31 @@
       </c>
       <c r="G119" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_AZ1JB_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_QZ1ML_CommissionSummary.pdf</v>
       </c>
       <c r="H119" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_AZ1JB_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_QZ1ML_CommissionDetail.pdf</v>
       </c>
       <c r="K119" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="L119" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="M119" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
     </row>
     <row r="120" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B120" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C120" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D120" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E120">
         <v>1</v>
@@ -6044,31 +6026,31 @@
       </c>
       <c r="G120" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_CZ1AD_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_CZ1FA_CommissionSummary.pdf</v>
       </c>
       <c r="H120" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_CZ1AD_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_CZ1FA_CommissionDetail.pdf</v>
       </c>
       <c r="K120" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="L120" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="M120" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
     </row>
     <row r="121" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B121" t="s">
-        <v>180</v>
+        <v>122</v>
       </c>
       <c r="C121" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D121" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E121">
         <v>1</v>
@@ -6078,20 +6060,20 @@
       </c>
       <c r="G121" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_QZ1ML_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_CZ2SA_CommissionSummary.pdf</v>
       </c>
       <c r="H121" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_QZ1ML_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_CZ2SA_CommissionDetail.pdf</v>
       </c>
       <c r="K121" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="L121" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="M121" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
     </row>
     <row r="122" spans="2:13" x14ac:dyDescent="0.25">
@@ -6099,10 +6081,10 @@
         <v>123</v>
       </c>
       <c r="C122" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D122" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E122">
         <v>1</v>
@@ -6112,31 +6094,31 @@
       </c>
       <c r="G122" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_CZ1FA_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_QZ1SL_CommissionSummary.pdf</v>
       </c>
       <c r="H122" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_CZ1FA_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_QZ1SL_CommissionDetail.pdf</v>
       </c>
       <c r="K122" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="L122" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="M122" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
     </row>
     <row r="123" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B123" t="s">
-        <v>124</v>
+        <v>171</v>
       </c>
       <c r="C123" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D123" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E123">
         <v>1</v>
@@ -6146,31 +6128,31 @@
       </c>
       <c r="G123" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_CZ2SA_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_QZ3JB_CommissionSummary.pdf</v>
       </c>
       <c r="H123" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_CZ2SA_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_QZ3JB_CommissionDetail.pdf</v>
       </c>
       <c r="K123" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="L123" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="M123" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
     </row>
     <row r="124" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B124" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C124" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D124" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E124">
         <v>1</v>
@@ -6180,31 +6162,31 @@
       </c>
       <c r="G124" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_QZ1SL_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_CZ1CN_CommissionSummary.pdf</v>
       </c>
       <c r="H124" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_QZ1SL_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_CZ1CN_CommissionDetail.pdf</v>
       </c>
       <c r="K124" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="L124" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="M124" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
     </row>
     <row r="125" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B125" t="s">
-        <v>173</v>
+        <v>125</v>
       </c>
       <c r="C125" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D125" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E125">
         <v>1</v>
@@ -6214,20 +6196,20 @@
       </c>
       <c r="G125" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_QZ3JB_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_AZ1YU_CommissionSummary.pdf</v>
       </c>
       <c r="H125" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_QZ3JB_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_AZ1YU_CommissionDetail.pdf</v>
       </c>
       <c r="K125" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="L125" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="M125" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
     </row>
     <row r="126" spans="2:13" x14ac:dyDescent="0.25">
@@ -6235,10 +6217,10 @@
         <v>126</v>
       </c>
       <c r="C126" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D126" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E126">
         <v>1</v>
@@ -6248,20 +6230,20 @@
       </c>
       <c r="G126" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_CZ1CN_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_AZ1WX_CommissionSummary.pdf</v>
       </c>
       <c r="H126" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_CZ1CN_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_AZ1WX_CommissionDetail.pdf</v>
       </c>
       <c r="K126" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="L126" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="M126" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
     </row>
     <row r="127" spans="2:13" x14ac:dyDescent="0.25">
@@ -6269,10 +6251,10 @@
         <v>127</v>
       </c>
       <c r="C127" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D127" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E127">
         <v>1</v>
@@ -6282,20 +6264,20 @@
       </c>
       <c r="G127" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_AZ1YU_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_AZ1XF_CommissionSummary.pdf</v>
       </c>
       <c r="H127" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_AZ1YU_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_AZ1XF_CommissionDetail.pdf</v>
       </c>
       <c r="K127" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="L127" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="M127" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
     </row>
     <row r="128" spans="2:13" x14ac:dyDescent="0.25">
@@ -6303,10 +6285,10 @@
         <v>128</v>
       </c>
       <c r="C128" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D128" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E128">
         <v>1</v>
@@ -6316,20 +6298,20 @@
       </c>
       <c r="G128" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_AZ1WX_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_AZ1XT_CommissionSummary.pdf</v>
       </c>
       <c r="H128" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_AZ1WX_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_AZ1XT_CommissionDetail.pdf</v>
       </c>
       <c r="K128" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="L128" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="M128" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
     </row>
     <row r="129" spans="2:13" x14ac:dyDescent="0.25">
@@ -6337,10 +6319,10 @@
         <v>129</v>
       </c>
       <c r="C129" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D129" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E129">
         <v>1</v>
@@ -6350,20 +6332,20 @@
       </c>
       <c r="G129" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_AZ1XF_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_AZ1YP_CommissionSummary.pdf</v>
       </c>
       <c r="H129" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_AZ1XF_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_AZ1YP_CommissionDetail.pdf</v>
       </c>
       <c r="K129" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="L129" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="M129" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
     </row>
     <row r="130" spans="2:13" x14ac:dyDescent="0.25">
@@ -6371,10 +6353,10 @@
         <v>130</v>
       </c>
       <c r="C130" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D130" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E130">
         <v>1</v>
@@ -6384,20 +6366,20 @@
       </c>
       <c r="G130" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_AZ1XT_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_QZ1XH_CommissionSummary.pdf</v>
       </c>
       <c r="H130" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_AZ1XT_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_QZ1XH_CommissionDetail.pdf</v>
       </c>
       <c r="K130" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="L130" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="M130" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
     </row>
     <row r="131" spans="2:13" x14ac:dyDescent="0.25">
@@ -6405,10 +6387,10 @@
         <v>131</v>
       </c>
       <c r="C131" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D131" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E131">
         <v>1</v>
@@ -6417,21 +6399,21 @@
         <v>2</v>
       </c>
       <c r="G131" t="str">
-        <f t="shared" ref="G131:G170" si="4">$K131&amp;"\"&amp;L131</f>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_AZ1YP_CommissionSummary.pdf</v>
+        <f t="shared" ref="G131:G169" si="4">$K131&amp;"\"&amp;L131</f>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_QZ1TB_CommissionSummary.pdf</v>
       </c>
       <c r="H131" t="str">
-        <f t="shared" ref="H131:H170" si="5">$K131&amp;"\"&amp;M131</f>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_AZ1YP_CommissionDetail.pdf</v>
+        <f t="shared" ref="H131:H169" si="5">$K131&amp;"\"&amp;M131</f>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_QZ1TB_CommissionDetail.pdf</v>
       </c>
       <c r="K131" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="L131" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="M131" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="132" spans="2:13" x14ac:dyDescent="0.25">
@@ -6439,10 +6421,10 @@
         <v>132</v>
       </c>
       <c r="C132" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D132" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E132">
         <v>1</v>
@@ -6452,20 +6434,20 @@
       </c>
       <c r="G132" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_QZ1XH_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_QZ1TD_CommissionSummary.pdf</v>
       </c>
       <c r="H132" t="str">
         <f t="shared" si="5"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_QZ1XH_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_QZ1TD_CommissionDetail.pdf</v>
       </c>
       <c r="K132" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="L132" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="M132" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
     </row>
     <row r="133" spans="2:13" x14ac:dyDescent="0.25">
@@ -6473,10 +6455,10 @@
         <v>133</v>
       </c>
       <c r="C133" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D133" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E133">
         <v>1</v>
@@ -6486,20 +6468,20 @@
       </c>
       <c r="G133" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_QZ1TB_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_QZ1TK_CommissionSummary.pdf</v>
       </c>
       <c r="H133" t="str">
         <f t="shared" si="5"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_QZ1TB_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_QZ1TK_CommissionDetail.pdf</v>
       </c>
       <c r="K133" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="L133" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="M133" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
     </row>
     <row r="134" spans="2:13" x14ac:dyDescent="0.25">
@@ -6507,10 +6489,10 @@
         <v>134</v>
       </c>
       <c r="C134" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D134" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E134">
         <v>1</v>
@@ -6520,20 +6502,20 @@
       </c>
       <c r="G134" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_QZ1TD_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_QZ1YE_CommissionSummary.pdf</v>
       </c>
       <c r="H134" t="str">
         <f t="shared" si="5"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_QZ1TD_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_QZ1YE_CommissionDetail.pdf</v>
       </c>
       <c r="K134" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="L134" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="M134" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="135" spans="2:13" x14ac:dyDescent="0.25">
@@ -6541,10 +6523,10 @@
         <v>135</v>
       </c>
       <c r="C135" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D135" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E135">
         <v>1</v>
@@ -6554,20 +6536,20 @@
       </c>
       <c r="G135" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_QZ1TK_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_QZ1TE_CommissionSummary.pdf</v>
       </c>
       <c r="H135" t="str">
         <f t="shared" si="5"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_QZ1TK_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_QZ1TE_CommissionDetail.pdf</v>
       </c>
       <c r="K135" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="L135" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="M135" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
     </row>
     <row r="136" spans="2:13" x14ac:dyDescent="0.25">
@@ -6575,10 +6557,10 @@
         <v>136</v>
       </c>
       <c r="C136" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D136" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E136">
         <v>1</v>
@@ -6588,20 +6570,20 @@
       </c>
       <c r="G136" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_QZ1YE_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_QZ1TI_CommissionSummary.pdf</v>
       </c>
       <c r="H136" t="str">
         <f t="shared" si="5"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_QZ1YE_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_QZ1TI_CommissionDetail.pdf</v>
       </c>
       <c r="K136" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="L136" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="M136" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
     </row>
     <row r="137" spans="2:13" x14ac:dyDescent="0.25">
@@ -6609,10 +6591,10 @@
         <v>137</v>
       </c>
       <c r="C137" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D137" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E137">
         <v>1</v>
@@ -6622,20 +6604,20 @@
       </c>
       <c r="G137" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_QZ1TE_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_CZ1YI_CommissionSummary.pdf</v>
       </c>
       <c r="H137" t="str">
         <f t="shared" si="5"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_QZ1TE_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_CZ1YI_CommissionDetail.pdf</v>
       </c>
       <c r="K137" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="L137" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="M137" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="138" spans="2:13" x14ac:dyDescent="0.25">
@@ -6643,10 +6625,10 @@
         <v>138</v>
       </c>
       <c r="C138" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D138" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E138">
         <v>1</v>
@@ -6656,20 +6638,20 @@
       </c>
       <c r="G138" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_QZ1TI_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_CZ1YW_CommissionSummary.pdf</v>
       </c>
       <c r="H138" t="str">
         <f t="shared" si="5"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_QZ1TI_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_CZ1YW_CommissionDetail.pdf</v>
       </c>
       <c r="K138" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="L138" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="M138" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
     </row>
     <row r="139" spans="2:13" x14ac:dyDescent="0.25">
@@ -6677,10 +6659,10 @@
         <v>139</v>
       </c>
       <c r="C139" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D139" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E139">
         <v>1</v>
@@ -6690,20 +6672,20 @@
       </c>
       <c r="G139" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_CZ1YI_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_CZ1UE_CommissionSummary.pdf</v>
       </c>
       <c r="H139" t="str">
         <f t="shared" si="5"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_CZ1YI_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_CZ1UE_CommissionDetail.pdf</v>
       </c>
       <c r="K139" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="L139" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="M139" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="140" spans="2:13" x14ac:dyDescent="0.25">
@@ -6711,10 +6693,10 @@
         <v>140</v>
       </c>
       <c r="C140" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D140" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E140">
         <v>1</v>
@@ -6724,20 +6706,20 @@
       </c>
       <c r="G140" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_CZ1YW_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_CZ1MJ_CommissionSummary.pdf</v>
       </c>
       <c r="H140" t="str">
         <f t="shared" si="5"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_CZ1YW_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_CZ1MJ_CommissionDetail.pdf</v>
       </c>
       <c r="K140" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="L140" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="M140" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
     </row>
     <row r="141" spans="2:13" x14ac:dyDescent="0.25">
@@ -6745,10 +6727,10 @@
         <v>141</v>
       </c>
       <c r="C141" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D141" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E141">
         <v>1</v>
@@ -6758,20 +6740,20 @@
       </c>
       <c r="G141" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_CZ1UE_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_CZ1VG_CommissionSummary.pdf</v>
       </c>
       <c r="H141" t="str">
         <f t="shared" si="5"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_CZ1UE_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_CZ1VG_CommissionDetail.pdf</v>
       </c>
       <c r="K141" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="L141" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="M141" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
     </row>
     <row r="142" spans="2:13" x14ac:dyDescent="0.25">
@@ -6779,10 +6761,10 @@
         <v>142</v>
       </c>
       <c r="C142" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D142" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E142">
         <v>1</v>
@@ -6792,20 +6774,20 @@
       </c>
       <c r="G142" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_CZ1MJ_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_CZ1VJ_CommissionSummary.pdf</v>
       </c>
       <c r="H142" t="str">
         <f t="shared" si="5"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_CZ1MJ_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_CZ1VJ_CommissionDetail.pdf</v>
       </c>
       <c r="K142" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="L142" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="M142" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
     </row>
     <row r="143" spans="2:13" x14ac:dyDescent="0.25">
@@ -6813,10 +6795,10 @@
         <v>143</v>
       </c>
       <c r="C143" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D143" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E143">
         <v>1</v>
@@ -6826,20 +6808,20 @@
       </c>
       <c r="G143" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_CZ1VG_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_CZ1MI_CommissionSummary.pdf</v>
       </c>
       <c r="H143" t="str">
         <f t="shared" si="5"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_CZ1VG_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_CZ1MI_CommissionDetail.pdf</v>
       </c>
       <c r="K143" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="L143" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="M143" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
     </row>
     <row r="144" spans="2:13" x14ac:dyDescent="0.25">
@@ -6847,10 +6829,10 @@
         <v>144</v>
       </c>
       <c r="C144" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D144" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E144">
         <v>1</v>
@@ -6860,20 +6842,20 @@
       </c>
       <c r="G144" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_CZ1VJ_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_CZ1XD_CommissionSummary.pdf</v>
       </c>
       <c r="H144" t="str">
         <f t="shared" si="5"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_CZ1VJ_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_CZ1XD_CommissionDetail.pdf</v>
       </c>
       <c r="K144" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="L144" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="M144" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
     </row>
     <row r="145" spans="2:13" x14ac:dyDescent="0.25">
@@ -6881,10 +6863,10 @@
         <v>145</v>
       </c>
       <c r="C145" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D145" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E145">
         <v>1</v>
@@ -6894,20 +6876,20 @@
       </c>
       <c r="G145" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_CZ1MI_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_CZ1XB_CommissionSummary.pdf</v>
       </c>
       <c r="H145" t="str">
         <f t="shared" si="5"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_CZ1MI_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_CZ1XB_CommissionDetail.pdf</v>
       </c>
       <c r="K145" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="L145" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="M145" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
     </row>
     <row r="146" spans="2:13" x14ac:dyDescent="0.25">
@@ -6915,10 +6897,10 @@
         <v>146</v>
       </c>
       <c r="C146" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D146" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E146">
         <v>1</v>
@@ -6928,20 +6910,20 @@
       </c>
       <c r="G146" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_CZ1XD_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_CZ1WT_CommissionSummary.pdf</v>
       </c>
       <c r="H146" t="str">
         <f t="shared" si="5"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_CZ1XD_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_CZ1WT_CommissionDetail.pdf</v>
       </c>
       <c r="K146" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="L146" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="M146" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
     </row>
     <row r="147" spans="2:13" x14ac:dyDescent="0.25">
@@ -6949,10 +6931,10 @@
         <v>147</v>
       </c>
       <c r="C147" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D147" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E147">
         <v>1</v>
@@ -6962,20 +6944,20 @@
       </c>
       <c r="G147" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_CZ1XB_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_CZ1XA_CommissionSummary.pdf</v>
       </c>
       <c r="H147" t="str">
         <f t="shared" si="5"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_CZ1XB_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_CZ1XA_CommissionDetail.pdf</v>
       </c>
       <c r="K147" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="L147" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="M147" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
     </row>
     <row r="148" spans="2:13" x14ac:dyDescent="0.25">
@@ -6983,10 +6965,10 @@
         <v>148</v>
       </c>
       <c r="C148" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D148" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E148">
         <v>1</v>
@@ -6996,20 +6978,20 @@
       </c>
       <c r="G148" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_CZ1WT_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_WZ2KF_CommissionSummary.pdf</v>
       </c>
       <c r="H148" t="str">
         <f t="shared" si="5"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_CZ1WT_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_WZ2KF_CommissionDetail.pdf</v>
       </c>
       <c r="K148" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="L148" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="M148" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
     </row>
     <row r="149" spans="2:13" x14ac:dyDescent="0.25">
@@ -7017,10 +6999,10 @@
         <v>149</v>
       </c>
       <c r="C149" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D149" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E149">
         <v>1</v>
@@ -7030,20 +7012,20 @@
       </c>
       <c r="G149" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_CZ1XA_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_WZ148_CommissionSummary.pdf</v>
       </c>
       <c r="H149" t="str">
         <f t="shared" si="5"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_CZ1XA_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_WZ148_CommissionDetail.pdf</v>
       </c>
       <c r="K149" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="L149" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="M149" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
     </row>
     <row r="150" spans="2:13" x14ac:dyDescent="0.25">
@@ -7051,10 +7033,10 @@
         <v>150</v>
       </c>
       <c r="C150" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D150" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E150">
         <v>1</v>
@@ -7064,20 +7046,20 @@
       </c>
       <c r="G150" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_WZ2KF_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_WZ8GM_CommissionSummary.pdf</v>
       </c>
       <c r="H150" t="str">
         <f t="shared" si="5"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_WZ2KF_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_WZ8GM_CommissionDetail.pdf</v>
       </c>
       <c r="K150" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="L150" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="M150" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
     </row>
     <row r="151" spans="2:13" x14ac:dyDescent="0.25">
@@ -7085,10 +7067,10 @@
         <v>151</v>
       </c>
       <c r="C151" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D151" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E151">
         <v>1</v>
@@ -7098,20 +7080,20 @@
       </c>
       <c r="G151" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_WZ148_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_WZ1BH_CommissionSummary.pdf</v>
       </c>
       <c r="H151" t="str">
         <f t="shared" si="5"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_WZ148_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_WZ1BH_CommissionDetail.pdf</v>
       </c>
       <c r="K151" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="L151" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="M151" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
     </row>
     <row r="152" spans="2:13" x14ac:dyDescent="0.25">
@@ -7119,10 +7101,10 @@
         <v>152</v>
       </c>
       <c r="C152" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D152" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E152">
         <v>1</v>
@@ -7132,20 +7114,20 @@
       </c>
       <c r="G152" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_WZ8GM_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_WZ114_CommissionSummary.pdf</v>
       </c>
       <c r="H152" t="str">
         <f t="shared" si="5"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_WZ8GM_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_WZ114_CommissionDetail.pdf</v>
       </c>
       <c r="K152" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="L152" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="M152" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
     </row>
     <row r="153" spans="2:13" x14ac:dyDescent="0.25">
@@ -7153,10 +7135,10 @@
         <v>153</v>
       </c>
       <c r="C153" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D153" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E153">
         <v>1</v>
@@ -7166,20 +7148,20 @@
       </c>
       <c r="G153" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_WZ1BH_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_WZ1A6_CommissionSummary.pdf</v>
       </c>
       <c r="H153" t="str">
         <f t="shared" si="5"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_WZ1BH_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_WZ1A6_CommissionDetail.pdf</v>
       </c>
       <c r="K153" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="L153" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="M153" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
     </row>
     <row r="154" spans="2:13" x14ac:dyDescent="0.25">
@@ -7187,10 +7169,10 @@
         <v>154</v>
       </c>
       <c r="C154" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D154" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E154">
         <v>1</v>
@@ -7200,20 +7182,20 @@
       </c>
       <c r="G154" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_WZ114_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_WZ139_CommissionSummary.pdf</v>
       </c>
       <c r="H154" t="str">
         <f t="shared" si="5"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_WZ114_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_WZ139_CommissionDetail.pdf</v>
       </c>
       <c r="K154" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="L154" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="M154" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
     </row>
     <row r="155" spans="2:13" x14ac:dyDescent="0.25">
@@ -7221,10 +7203,10 @@
         <v>155</v>
       </c>
       <c r="C155" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D155" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E155">
         <v>1</v>
@@ -7234,20 +7216,20 @@
       </c>
       <c r="G155" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_WZ1A6_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_CZ1VL_CommissionSummary.pdf</v>
       </c>
       <c r="H155" t="str">
         <f t="shared" si="5"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_WZ1A6_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_CZ1VL_CommissionDetail.pdf</v>
       </c>
       <c r="K155" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="L155" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="M155" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
     </row>
     <row r="156" spans="2:13" x14ac:dyDescent="0.25">
@@ -7255,10 +7237,10 @@
         <v>156</v>
       </c>
       <c r="C156" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D156" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E156">
         <v>1</v>
@@ -7268,20 +7250,20 @@
       </c>
       <c r="G156" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_WZ139_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_CZ1VK_CommissionSummary.pdf</v>
       </c>
       <c r="H156" t="str">
         <f t="shared" si="5"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_WZ139_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_CZ1VK_CommissionDetail.pdf</v>
       </c>
       <c r="K156" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="L156" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="M156" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
     </row>
     <row r="157" spans="2:13" x14ac:dyDescent="0.25">
@@ -7289,10 +7271,10 @@
         <v>157</v>
       </c>
       <c r="C157" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D157" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E157">
         <v>1</v>
@@ -7302,20 +7284,20 @@
       </c>
       <c r="G157" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_CZ1VL_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_CZ1LR_CommissionSummary.pdf</v>
       </c>
       <c r="H157" t="str">
         <f t="shared" si="5"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_CZ1VL_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_CZ1LR_CommissionDetail.pdf</v>
       </c>
       <c r="K157" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="L157" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="M157" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
     </row>
     <row r="158" spans="2:13" x14ac:dyDescent="0.25">
@@ -7323,10 +7305,10 @@
         <v>158</v>
       </c>
       <c r="C158" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D158" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E158">
         <v>1</v>
@@ -7336,20 +7318,20 @@
       </c>
       <c r="G158" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_CZ1VK_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_CZ1UV_CommissionSummary.pdf</v>
       </c>
       <c r="H158" t="str">
         <f t="shared" si="5"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_CZ1VK_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_CZ1UV_CommissionDetail.pdf</v>
       </c>
       <c r="K158" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="L158" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="M158" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
     </row>
     <row r="159" spans="2:13" x14ac:dyDescent="0.25">
@@ -7357,10 +7339,10 @@
         <v>159</v>
       </c>
       <c r="C159" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D159" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E159">
         <v>1</v>
@@ -7370,20 +7352,20 @@
       </c>
       <c r="G159" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_CZ1LR_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_CZ1WV_CommissionSummary.pdf</v>
       </c>
       <c r="H159" t="str">
         <f t="shared" si="5"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_CZ1LR_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_CZ1WV_CommissionDetail.pdf</v>
       </c>
       <c r="K159" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="L159" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="M159" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
     </row>
     <row r="160" spans="2:13" x14ac:dyDescent="0.25">
@@ -7391,10 +7373,10 @@
         <v>160</v>
       </c>
       <c r="C160" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D160" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E160">
         <v>1</v>
@@ -7404,20 +7386,20 @@
       </c>
       <c r="G160" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_CZ1UV_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_CZ1UO_CommissionSummary.pdf</v>
       </c>
       <c r="H160" t="str">
         <f t="shared" si="5"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_CZ1UV_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_CZ1UO_CommissionDetail.pdf</v>
       </c>
       <c r="K160" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="L160" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="M160" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
     </row>
     <row r="161" spans="2:13" x14ac:dyDescent="0.25">
@@ -7425,10 +7407,10 @@
         <v>161</v>
       </c>
       <c r="C161" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D161" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E161">
         <v>1</v>
@@ -7438,20 +7420,20 @@
       </c>
       <c r="G161" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_CZ1WV_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_CZ1XC_CommissionSummary.pdf</v>
       </c>
       <c r="H161" t="str">
         <f t="shared" si="5"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_CZ1WV_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_CZ1XC_CommissionDetail.pdf</v>
       </c>
       <c r="K161" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="L161" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="M161" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
     </row>
     <row r="162" spans="2:13" x14ac:dyDescent="0.25">
@@ -7459,10 +7441,10 @@
         <v>162</v>
       </c>
       <c r="C162" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D162" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E162">
         <v>1</v>
@@ -7472,20 +7454,20 @@
       </c>
       <c r="G162" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_CZ1UO_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_CZ1YN_CommissionSummary.pdf</v>
       </c>
       <c r="H162" t="str">
         <f t="shared" si="5"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_CZ1UO_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_CZ1YN_CommissionDetail.pdf</v>
       </c>
       <c r="K162" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="L162" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="M162" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
     </row>
     <row r="163" spans="2:13" x14ac:dyDescent="0.25">
@@ -7493,10 +7475,10 @@
         <v>163</v>
       </c>
       <c r="C163" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D163" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E163">
         <v>1</v>
@@ -7506,20 +7488,20 @@
       </c>
       <c r="G163" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_CZ1XC_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_CZ1UI_CommissionSummary.pdf</v>
       </c>
       <c r="H163" t="str">
         <f t="shared" si="5"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_CZ1XC_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_CZ1UI_CommissionDetail.pdf</v>
       </c>
       <c r="K163" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="L163" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="M163" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
     </row>
     <row r="164" spans="2:13" x14ac:dyDescent="0.25">
@@ -7527,10 +7509,10 @@
         <v>164</v>
       </c>
       <c r="C164" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D164" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E164">
         <v>1</v>
@@ -7540,20 +7522,20 @@
       </c>
       <c r="G164" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_CZ1YN_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_CZ1UU_CommissionSummary.pdf</v>
       </c>
       <c r="H164" t="str">
         <f t="shared" si="5"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_CZ1YN_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_CZ1UU_CommissionDetail.pdf</v>
       </c>
       <c r="K164" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="L164" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="M164" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="165" spans="2:13" x14ac:dyDescent="0.25">
@@ -7561,10 +7543,10 @@
         <v>165</v>
       </c>
       <c r="C165" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D165" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E165">
         <v>1</v>
@@ -7574,20 +7556,20 @@
       </c>
       <c r="G165" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_CZ1UI_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_CZ1UW_CommissionSummary.pdf</v>
       </c>
       <c r="H165" t="str">
         <f t="shared" si="5"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_CZ1UI_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_CZ1UW_CommissionDetail.pdf</v>
       </c>
       <c r="K165" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="L165" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="M165" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
     </row>
     <row r="166" spans="2:13" x14ac:dyDescent="0.25">
@@ -7595,10 +7577,10 @@
         <v>166</v>
       </c>
       <c r="C166" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D166" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E166">
         <v>1</v>
@@ -7608,20 +7590,20 @@
       </c>
       <c r="G166" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_CZ1UU_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_CZ1VC_CommissionSummary.pdf</v>
       </c>
       <c r="H166" t="str">
         <f t="shared" si="5"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_CZ1UU_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_CZ1VC_CommissionDetail.pdf</v>
       </c>
       <c r="K166" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="L166" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="M166" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
     </row>
     <row r="167" spans="2:13" x14ac:dyDescent="0.25">
@@ -7629,10 +7611,10 @@
         <v>167</v>
       </c>
       <c r="C167" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D167" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E167">
         <v>1</v>
@@ -7642,20 +7624,20 @@
       </c>
       <c r="G167" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_CZ1UW_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_CZ1UX_CommissionSummary.pdf</v>
       </c>
       <c r="H167" t="str">
         <f t="shared" si="5"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_CZ1UW_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_CZ1UX_CommissionDetail.pdf</v>
       </c>
       <c r="K167" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="L167" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="M167" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
     </row>
     <row r="168" spans="2:13" x14ac:dyDescent="0.25">
@@ -7663,10 +7645,10 @@
         <v>168</v>
       </c>
       <c r="C168" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D168" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E168">
         <v>1</v>
@@ -7676,31 +7658,31 @@
       </c>
       <c r="G168" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_CZ1VC_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_CZ1UZ_CommissionSummary.pdf</v>
       </c>
       <c r="H168" t="str">
         <f t="shared" si="5"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_CZ1VC_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_CZ1UZ_CommissionDetail.pdf</v>
       </c>
       <c r="K168" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="L168" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="M168" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
     </row>
     <row r="169" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B169" t="s">
-        <v>169</v>
+        <v>182</v>
       </c>
       <c r="C169" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D169" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E169">
         <v>1</v>
@@ -7710,88 +7692,20 @@
       </c>
       <c r="G169" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_CZ1UX_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_WZ8JP_CommissionSummary.pdf</v>
       </c>
       <c r="H169" t="str">
         <f t="shared" si="5"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_CZ1UX_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_WZ8JP_CommissionDetail.pdf</v>
       </c>
       <c r="K169" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="L169" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="M169" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="170" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B170" t="s">
-        <v>170</v>
-      </c>
-      <c r="C170" t="s">
-        <v>177</v>
-      </c>
-      <c r="D170" t="s">
-        <v>185</v>
-      </c>
-      <c r="E170">
-        <v>1</v>
-      </c>
-      <c r="F170">
-        <v>2</v>
-      </c>
-      <c r="G170" t="str">
-        <f t="shared" si="4"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_CZ1UZ_CommissionSummary.pdf</v>
-      </c>
-      <c r="H170" t="str">
-        <f t="shared" si="5"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_CZ1UZ_CommissionDetail.pdf</v>
-      </c>
-      <c r="K170" t="s">
-        <v>183</v>
-      </c>
-      <c r="L170" t="s">
-        <v>518</v>
-      </c>
-      <c r="M170" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="171" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B171" t="s">
-        <v>184</v>
-      </c>
-      <c r="C171" t="s">
-        <v>177</v>
-      </c>
-      <c r="D171" t="s">
-        <v>185</v>
-      </c>
-      <c r="E171">
-        <v>1</v>
-      </c>
-      <c r="F171">
-        <v>2</v>
-      </c>
-      <c r="G171" t="str">
-        <f t="shared" ref="G171" si="6">$K171&amp;"\"&amp;L171</f>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_WZ8JP_CommissionSummary.pdf</v>
-      </c>
-      <c r="H171" t="str">
-        <f t="shared" ref="H171" si="7">$K171&amp;"\"&amp;M171</f>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201710_WZ8JP_CommissionDetail.pdf</v>
-      </c>
-      <c r="K171" t="s">
-        <v>183</v>
-      </c>
-      <c r="L171" t="s">
-        <v>520</v>
-      </c>
-      <c r="M171" t="s">
-        <v>521</v>
+        <v>515</v>
       </c>
     </row>
   </sheetData>

--- a/BR_Mailer/J030_COM_FSC/J030_Mailing_List - Excel.xlsx
+++ b/BR_Mailer/J030_COM_FSC/J030_Mailing_List - Excel.xlsx
@@ -135,9 +135,6 @@
     <t>Maryse.Turgeon@henryschein.ca</t>
   </si>
   <si>
-    <t>Alain.Maranda@henryschein.ca</t>
-  </si>
-  <si>
     <t>Jacques.Goulet@henryschein.ca</t>
   </si>
   <si>
@@ -570,1003 +567,1006 @@
     <t>Jenna.Plenert@henryschein.ca</t>
   </si>
   <si>
-    <t>Commission Summary and Details for November 2017</t>
-  </si>
-  <si>
-    <t>201711_CZ1SD_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201711_CZ1SD_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201711_CZ125_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201711_CZ125_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201711_CZ124_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201711_CZ124_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201711_QZ132_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201711_QZ132_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201711_CZ128_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201711_CZ128_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201711_CZ144_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201711_CZ144_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201711_CZ165_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201711_CZ165_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201711_QZ178_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201711_QZ178_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201711_CZ183_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201711_CZ183_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201711_CZ107_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201711_CZ107_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201711_CZ109_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201711_CZ109_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201711_AZ112_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201711_AZ112_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201711_CZ1CP_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201711_CZ1CP_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201711_CZ154_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201711_CZ154_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201711_CZ1KD_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201711_CZ1KD_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201711_QZ1CF_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201711_QZ1CF_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201711_CZ1EM_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201711_CZ1EM_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201711_QZ1DP_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201711_QZ1DP_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201711_CZ1DA_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201711_CZ1DA_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201711_QZ1LM_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201711_QZ1LM_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201711_CZ1EE_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201711_CZ1EE_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201711_AZ1EK_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201711_AZ1EK_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201711_AZ1FB_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201711_AZ1FB_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201711_CZ1FP_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201711_CZ1FP_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201711_QZ1FT_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201711_QZ1FT_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201711_QZ1FS_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201711_QZ1FS_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201711_QZ1FR_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201711_QZ1FR_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201711_QZ1GO_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201711_QZ1GO_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201711_AZ1KL_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201711_AZ1KL_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201711_QZ1KK_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201711_QZ1KK_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201711_CZ1DN_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201711_CZ1DN_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201711_QZ1EO_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201711_QZ1EO_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201711_CZ1CB_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201711_CZ1CB_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201711_CZ1B8_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201711_CZ1B8_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201711_CZ1C4_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201711_CZ1C4_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201711_QZ1D8_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201711_QZ1D8_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201711_CZ1SW_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201711_CZ1SW_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201711_QZ1AP_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201711_QZ1AP_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201711_CZ2CB_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201711_CZ2CB_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201711_CZ1CG_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201711_CZ1CG_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201711_AZ1PV_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201711_AZ1PV_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201711_CZ3CB_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201711_CZ3CB_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201711_CZ5CS_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201711_CZ5CS_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201711_CZ8JA_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201711_CZ8JA_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201711_QZ7JM_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201711_QZ7JM_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201711_QZ7DO_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201711_QZ7DO_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201711_CZ5TA_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201711_CZ5TA_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201711_CZ2LB_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201711_CZ2LB_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201711_CZ2GB_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201711_CZ2GB_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201711_CZ2LH_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201711_CZ2LH_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201711_CZ2NM_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201711_CZ2NM_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201711_QZ2SB_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201711_QZ2SB_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201711_CZ2BG_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201711_CZ2BG_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201711_CZ1SA_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201711_CZ1SA_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201711_WZ115_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201711_WZ115_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201711_WZ120_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201711_WZ120_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201711_WZ118_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201711_WZ118_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201711_WZ119_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201711_WZ119_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201711_WZ138_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201711_WZ138_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201711_WZ142_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201711_WZ142_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201711_WZ134_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201711_WZ134_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201711_WZ123_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201711_WZ123_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201711_WZ136_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201711_WZ136_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201711_WZ165_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201711_WZ165_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201711_WZ1FF_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201711_WZ1FF_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201711_WZ167_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201711_WZ167_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201711_WZ175_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201711_WZ175_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201711_WZ177_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201711_WZ177_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201711_WZ143_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201711_WZ143_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201711_WZ159_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201711_WZ159_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201711_WZ162_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201711_WZ162_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201711_WZ113_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201711_WZ113_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201711_WZ137_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201711_WZ137_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201711_WZ1G4_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201711_WZ1G4_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201711_WZ1CE_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201711_WZ1CE_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201711_WZBW1_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201711_WZBW1_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201711_WZ9TS_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201711_WZ9TS_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201711_WZ1HM_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201711_WZ1HM_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201711_WZ2RP_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201711_WZ2RP_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201711_WZ1TT_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201711_WZ1TT_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201711_WZ1AM_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201711_WZ1AM_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201711_WZ1JW_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201711_WZ1JW_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201711_WZ1MH_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201711_WZ1MH_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201711_WZ1TM_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201711_WZ1TM_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201711_WZ2AM_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201711_WZ2AM_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201711_WZ1SC_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201711_WZ1SC_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201711_WZ1PB_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201711_WZ1PB_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201711_WZ1JN_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201711_WZ1JN_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201711_WZ1MK_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201711_WZ1MK_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201711_WZ1CA_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201711_WZ1CA_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201711_WZ2TM_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201711_WZ2TM_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201711_WZ1BC_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201711_WZ1BC_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201711_WZ1JL_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201711_WZ1JL_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201711_WZ1AL_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201711_WZ1AL_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201711_WZ1MW_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201711_WZ1MW_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201711_WZ1MS_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201711_WZ1MS_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201711_WZ1DF_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201711_WZ1DF_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201711_WZ1JI_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201711_WZ1JI_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201711_WZ1CM_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201711_WZ1CM_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201711_WZ2MS_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201711_WZ2MS_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201711_WZ2JN_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201711_WZ2JN_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201711_CZ1RD_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201711_CZ1RD_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201711_CZ1GF_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201711_CZ1GF_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201711_QZ1BP_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201711_QZ1BP_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201711_CZ1JF_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201711_CZ1JF_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201711_AZ1CI_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201711_AZ1CI_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201711_CZ1KM_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201711_CZ1KM_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201711_CZ1OV_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201711_CZ1OV_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201711_QZ1JB_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201711_QZ1JB_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201711_QZ1BG_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201711_QZ1BG_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201711_CZ1TM_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201711_CZ1TM_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201711_QZ177_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201711_QZ177_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201711_QZ1BM_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201711_QZ1BM_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201711_QZ1MD_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201711_QZ1MD_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201711_AZ1JB_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201711_AZ1JB_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201711_QZ1ML_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201711_QZ1ML_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201711_CZ1FA_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201711_CZ1FA_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201711_CZ2SA_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201711_CZ2SA_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201711_QZ1SL_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201711_QZ1SL_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201711_QZ3JB_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201711_QZ3JB_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201711_CZ1CN_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201711_CZ1CN_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201711_AZ1YU_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201711_AZ1YU_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201711_AZ1WX_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201711_AZ1WX_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201711_AZ1XF_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201711_AZ1XF_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201711_AZ1XT_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201711_AZ1XT_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201711_AZ1YP_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201711_AZ1YP_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201711_QZ1XH_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201711_QZ1XH_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201711_QZ1TB_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201711_QZ1TB_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201711_QZ1TD_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201711_QZ1TD_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201711_QZ1TK_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201711_QZ1TK_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201711_QZ1YE_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201711_QZ1YE_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201711_QZ1TE_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201711_QZ1TE_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201711_QZ1TI_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201711_QZ1TI_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201711_CZ1YI_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201711_CZ1YI_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201711_CZ1YW_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201711_CZ1YW_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201711_CZ1UE_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201711_CZ1UE_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201711_CZ1MJ_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201711_CZ1MJ_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201711_CZ1VG_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201711_CZ1VG_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201711_CZ1VJ_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201711_CZ1VJ_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201711_CZ1MI_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201711_CZ1MI_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201711_CZ1XD_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201711_CZ1XD_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201711_CZ1XB_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201711_CZ1XB_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201711_CZ1WT_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201711_CZ1WT_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201711_CZ1XA_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201711_CZ1XA_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201711_WZ2KF_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201711_WZ2KF_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201711_WZ148_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201711_WZ148_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201711_WZ8GM_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201711_WZ8GM_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201711_WZ1BH_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201711_WZ1BH_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201711_WZ114_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201711_WZ114_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201711_WZ1A6_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201711_WZ1A6_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201711_WZ139_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201711_WZ139_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201711_CZ1VL_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201711_CZ1VL_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201711_CZ1VK_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201711_CZ1VK_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201711_CZ1LR_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201711_CZ1LR_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201711_CZ1UV_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201711_CZ1UV_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201711_CZ1WV_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201711_CZ1WV_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201711_CZ1UO_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201711_CZ1UO_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201711_CZ1XC_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201711_CZ1XC_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201711_CZ1YN_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201711_CZ1YN_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201711_CZ1UI_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201711_CZ1UI_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201711_CZ1UU_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201711_CZ1UU_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201711_CZ1UW_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201711_CZ1UW_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201711_CZ1VC_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201711_CZ1VC_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201711_CZ1UX_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201711_CZ1UX_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201711_CZ1UZ_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201711_CZ1UZ_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201711_WZ8JP_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201711_WZ8JP_CommissionDetail.pdf</t>
+    <t>Alexandra.Zern@henryschein.ca</t>
+  </si>
+  <si>
+    <t>Commission Summary and Details for December 2017</t>
+  </si>
+  <si>
+    <t>201712_CZ1SD_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201712_CZ1SD_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201712_CZ125_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201712_CZ125_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201712_CZ124_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201712_CZ124_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201712_QZ132_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201712_QZ132_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201712_CZ128_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201712_CZ128_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201712_CZ144_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201712_CZ144_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201712_CZ165_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201712_CZ165_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201712_QZ178_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201712_QZ178_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201712_CZ183_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201712_CZ183_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201712_CZ107_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201712_CZ107_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201712_CZ109_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201712_CZ109_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201712_AZ112_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201712_AZ112_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201712_CZ1CP_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201712_CZ1CP_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201712_CZ154_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201712_CZ154_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201712_CZ1KD_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201712_CZ1KD_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201712_QZ1CF_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201712_QZ1CF_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201712_CZ1EM_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201712_CZ1EM_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201712_QZ1DP_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201712_QZ1DP_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201712_CZ1DA_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201712_CZ1DA_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201712_QZ1LM_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201712_QZ1LM_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201712_CZ1EE_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201712_CZ1EE_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201712_AZ1EK_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201712_AZ1EK_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201712_AZ1FB_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201712_AZ1FB_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201712_CZ1FP_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201712_CZ1FP_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201712_QZ1FT_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201712_QZ1FT_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201712_QZ1FR_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201712_QZ1FR_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201712_QZ1GO_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201712_QZ1GO_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201712_AZ1KL_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201712_AZ1KL_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201712_QZ1KK_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201712_QZ1KK_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201712_CZ1DN_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201712_CZ1DN_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201712_QZ1EO_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201712_QZ1EO_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201712_CZ1CB_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201712_CZ1CB_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201712_CZ1B8_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201712_CZ1B8_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201712_CZ1C4_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201712_CZ1C4_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201712_QZ1D8_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201712_QZ1D8_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201712_CZ1SW_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201712_CZ1SW_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201712_QZ1AP_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201712_QZ1AP_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201712_CZ2CB_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201712_CZ2CB_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201712_CZ1CG_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201712_CZ1CG_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201712_AZ1PV_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201712_AZ1PV_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201712_CZ3CB_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201712_CZ3CB_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201712_CZ5CS_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201712_CZ5CS_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201712_CZ8JA_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201712_CZ8JA_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201712_QZ7JM_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201712_QZ7JM_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201712_QZ7DO_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201712_QZ7DO_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201712_CZ5TA_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201712_CZ5TA_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201712_CZ2LB_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201712_CZ2LB_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201712_CZ2GB_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201712_CZ2GB_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201712_CZ2LH_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201712_CZ2LH_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201712_CZ2NM_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201712_CZ2NM_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201712_QZ2SB_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201712_QZ2SB_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201712_CZ2BG_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201712_CZ2BG_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201712_CZ1SA_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201712_CZ1SA_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201712_WZ115_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201712_WZ115_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201712_WZ120_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201712_WZ120_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201712_WZ118_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201712_WZ118_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201712_WZ119_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201712_WZ119_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201712_WZ138_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201712_WZ138_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201712_WZ142_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201712_WZ142_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201712_WZ134_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201712_WZ134_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201712_WZ123_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201712_WZ123_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201712_WZ136_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201712_WZ136_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201712_WZ165_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201712_WZ165_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201712_WZ1FF_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201712_WZ1FF_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201712_WZ167_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201712_WZ167_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201712_WZ175_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201712_WZ175_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201712_WZ177_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201712_WZ177_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201712_WZ143_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201712_WZ143_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201712_WZ159_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201712_WZ159_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201712_WZ162_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201712_WZ162_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201712_WZ113_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201712_WZ113_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201712_WZ137_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201712_WZ137_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201712_WZ1G4_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201712_WZ1G4_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201712_WZ1CE_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201712_WZ1CE_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201712_WZBW1_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201712_WZBW1_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201712_WZ9TS_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201712_WZ9TS_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201712_WZ1HM_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201712_WZ1HM_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201712_WZ2RP_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201712_WZ2RP_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201712_WZ1TT_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201712_WZ1TT_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201712_WZ1AM_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201712_WZ1AM_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201712_WZ1JW_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201712_WZ1JW_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201712_WZ1MH_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201712_WZ1MH_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201712_WZ1TM_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201712_WZ1TM_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201712_WZ2AM_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201712_WZ2AM_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201712_WZ1SC_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201712_WZ1SC_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201712_WZ1PB_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201712_WZ1PB_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201712_WZ1JN_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201712_WZ1JN_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201712_WZ1MK_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201712_WZ1MK_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201712_WZ1CA_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201712_WZ1CA_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201712_WZ2TM_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201712_WZ2TM_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201712_WZ1BC_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201712_WZ1BC_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201712_WZ1JL_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201712_WZ1JL_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201712_WZ1AL_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201712_WZ1AL_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201712_WZ1MW_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201712_WZ1MW_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201712_WZ1MS_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201712_WZ1MS_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201712_WZ1DF_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201712_WZ1DF_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201712_WZ1JI_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201712_WZ1JI_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201712_WZ1CM_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201712_WZ1CM_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201712_WZ2MS_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201712_WZ2MS_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201712_WZ2JN_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201712_WZ2JN_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201712_CZ1RD_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201712_CZ1RD_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201712_CZ1GF_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201712_CZ1GF_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201712_QZ1BP_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201712_QZ1BP_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201712_CZ1JF_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201712_CZ1JF_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201712_AZ1CI_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201712_AZ1CI_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201712_CZ1KM_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201712_CZ1KM_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201712_CZ1OV_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201712_CZ1OV_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201712_QZ1JB_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201712_QZ1JB_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201712_QZ1BG_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201712_QZ1BG_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201712_CZ1TM_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201712_CZ1TM_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201712_QZ177_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201712_QZ177_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201712_QZ1BM_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201712_QZ1BM_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201712_QZ1MD_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201712_QZ1MD_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201712_AZ1JB_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201712_AZ1JB_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201712_CZ1AD_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201712_CZ1AD_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201712_QZ1ML_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201712_QZ1ML_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201712_CZ1FA_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201712_CZ1FA_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201712_CZ2SA_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201712_CZ2SA_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201712_QZ1SL_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201712_QZ1SL_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201712_QZ3JB_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201712_QZ3JB_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201712_CZ1CN_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201712_CZ1CN_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201712_AZ1YU_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201712_AZ1YU_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201712_AZ1WX_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201712_AZ1WX_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201712_AZ1XF_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201712_AZ1XF_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201712_AZ1XT_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201712_AZ1XT_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201712_AZ1YP_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201712_AZ1YP_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201712_QZ1XH_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201712_QZ1XH_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201712_QZ1TB_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201712_QZ1TB_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201712_QZ1TD_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201712_QZ1TD_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201712_QZ1TK_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201712_QZ1TK_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201712_QZ1YE_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201712_QZ1YE_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201712_QZ1TE_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201712_QZ1TE_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201712_QZ1TI_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201712_QZ1TI_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201712_CZ1YI_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201712_CZ1YI_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201712_CZ1YW_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201712_CZ1YW_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201712_CZ1UE_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201712_CZ1UE_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201712_CZ1MJ_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201712_CZ1MJ_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201712_CZ1VG_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201712_CZ1VG_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201712_CZ1VJ_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201712_CZ1VJ_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201712_CZ1MI_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201712_CZ1MI_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201712_CZ1XD_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201712_CZ1XD_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201712_CZ1XB_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201712_CZ1XB_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201712_CZ1WT_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201712_CZ1WT_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201712_CZ1XA_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201712_CZ1XA_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201712_WZ2KF_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201712_WZ2KF_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201712_WZ148_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201712_WZ148_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201712_WZ8GM_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201712_WZ8GM_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201712_WZ1BH_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201712_WZ1BH_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201712_WZ114_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201712_WZ114_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201712_WZ1A6_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201712_WZ1A6_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201712_WZ139_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201712_WZ139_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201712_CZ1VL_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201712_CZ1VL_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201712_CZ1VK_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201712_CZ1VK_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201712_CZ1LR_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201712_CZ1LR_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201712_CZ1UV_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201712_CZ1UV_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201712_CZ1WV_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201712_CZ1WV_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201712_CZ1UO_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201712_CZ1UO_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201712_CZ1XC_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201712_CZ1XC_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201712_CZ1YN_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201712_CZ1YN_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201712_CZ1UI_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201712_CZ1UI_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201712_CZ1UU_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201712_CZ1UU_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201712_CZ1UW_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201712_CZ1UW_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201712_CZ1VC_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201712_CZ1VC_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201712_CZ1UX_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201712_CZ1UX_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201712_CZ1UZ_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201712_CZ1UZ_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201712_WZ8JP_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201712_WZ8JP_CommissionDetail.pdf</t>
   </si>
 </sst>
 </file>
@@ -1962,7 +1962,7 @@
         <v>8</v>
       </c>
       <c r="J1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="K1" t="s">
         <v>11</v>
@@ -1981,11 +1981,11 @@
         <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D2" t="str">
         <f>D3</f>
-        <v>Commission Summary and Details for November 2017</v>
+        <v>Commission Summary and Details for December 2017</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -1995,31 +1995,31 @@
       </c>
       <c r="G2" t="str">
         <f>$K2&amp;"\"&amp;L2</f>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_CZ1SD_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_CZ1SD_CommissionSummary.pdf</v>
       </c>
       <c r="H2" t="str">
         <f>$K2&amp;"\"&amp;M2</f>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_CZ1SD_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_CZ1SD_CommissionDetail.pdf</v>
       </c>
       <c r="K2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="L2" t="str">
         <f>L3</f>
-        <v>201711_CZ1SD_CommissionSummary.pdf</v>
+        <v>201712_CZ1SD_CommissionSummary.pdf</v>
       </c>
       <c r="M2" t="str">
         <f>M3</f>
-        <v>201711_CZ1SD_CommissionDetail.pdf</v>
+        <v>201712_CZ1SD_CommissionDetail.pdf</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
       <c r="B3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D3" t="s">
         <v>183</v>
@@ -2032,14 +2032,14 @@
       </c>
       <c r="G3" t="str">
         <f t="shared" ref="G3:G66" si="0">$K3&amp;"\"&amp;L3</f>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_CZ1SD_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_CZ1SD_CommissionSummary.pdf</v>
       </c>
       <c r="H3" t="str">
         <f t="shared" ref="H3:H66" si="1">$K3&amp;"\"&amp;M3</f>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_CZ1SD_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_CZ1SD_CommissionDetail.pdf</v>
       </c>
       <c r="K3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="L3" t="s">
         <v>184</v>
@@ -2054,7 +2054,7 @@
         <v>13</v>
       </c>
       <c r="C4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D4" t="s">
         <v>183</v>
@@ -2067,14 +2067,14 @@
       </c>
       <c r="G4" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_CZ125_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_CZ125_CommissionSummary.pdf</v>
       </c>
       <c r="H4" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_CZ125_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_CZ125_CommissionDetail.pdf</v>
       </c>
       <c r="K4" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="L4" t="s">
         <v>186</v>
@@ -2089,7 +2089,7 @@
         <v>14</v>
       </c>
       <c r="C5" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D5" t="s">
         <v>183</v>
@@ -2102,14 +2102,14 @@
       </c>
       <c r="G5" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_CZ124_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_CZ124_CommissionSummary.pdf</v>
       </c>
       <c r="H5" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_CZ124_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_CZ124_CommissionDetail.pdf</v>
       </c>
       <c r="K5" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="L5" t="s">
         <v>188</v>
@@ -2124,7 +2124,7 @@
         <v>15</v>
       </c>
       <c r="C6" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D6" t="s">
         <v>183</v>
@@ -2137,14 +2137,14 @@
       </c>
       <c r="G6" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_QZ132_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_QZ132_CommissionSummary.pdf</v>
       </c>
       <c r="H6" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_QZ132_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_QZ132_CommissionDetail.pdf</v>
       </c>
       <c r="K6" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="L6" t="s">
         <v>190</v>
@@ -2159,7 +2159,7 @@
         <v>16</v>
       </c>
       <c r="C7" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D7" t="s">
         <v>183</v>
@@ -2172,14 +2172,14 @@
       </c>
       <c r="G7" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_CZ128_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_CZ128_CommissionSummary.pdf</v>
       </c>
       <c r="H7" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_CZ128_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_CZ128_CommissionDetail.pdf</v>
       </c>
       <c r="K7" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="L7" t="s">
         <v>192</v>
@@ -2194,7 +2194,7 @@
         <v>17</v>
       </c>
       <c r="C8" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D8" t="s">
         <v>183</v>
@@ -2207,14 +2207,14 @@
       </c>
       <c r="G8" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_CZ144_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_CZ144_CommissionSummary.pdf</v>
       </c>
       <c r="H8" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_CZ144_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_CZ144_CommissionDetail.pdf</v>
       </c>
       <c r="K8" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="L8" t="s">
         <v>194</v>
@@ -2229,7 +2229,7 @@
         <v>18</v>
       </c>
       <c r="C9" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D9" t="s">
         <v>183</v>
@@ -2242,14 +2242,14 @@
       </c>
       <c r="G9" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_CZ165_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_CZ165_CommissionSummary.pdf</v>
       </c>
       <c r="H9" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_CZ165_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_CZ165_CommissionDetail.pdf</v>
       </c>
       <c r="K9" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="L9" t="s">
         <v>196</v>
@@ -2264,7 +2264,7 @@
         <v>20</v>
       </c>
       <c r="C10" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D10" t="s">
         <v>183</v>
@@ -2277,14 +2277,14 @@
       </c>
       <c r="G10" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_QZ178_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_QZ178_CommissionSummary.pdf</v>
       </c>
       <c r="H10" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_QZ178_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_QZ178_CommissionDetail.pdf</v>
       </c>
       <c r="K10" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="L10" t="s">
         <v>198</v>
@@ -2299,7 +2299,7 @@
         <v>21</v>
       </c>
       <c r="C11" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D11" t="s">
         <v>183</v>
@@ -2312,14 +2312,14 @@
       </c>
       <c r="G11" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_CZ183_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_CZ183_CommissionSummary.pdf</v>
       </c>
       <c r="H11" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_CZ183_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_CZ183_CommissionDetail.pdf</v>
       </c>
       <c r="K11" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="L11" t="s">
         <v>200</v>
@@ -2334,7 +2334,7 @@
         <v>22</v>
       </c>
       <c r="C12" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D12" t="s">
         <v>183</v>
@@ -2347,14 +2347,14 @@
       </c>
       <c r="G12" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_CZ107_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_CZ107_CommissionSummary.pdf</v>
       </c>
       <c r="H12" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_CZ107_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_CZ107_CommissionDetail.pdf</v>
       </c>
       <c r="K12" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="L12" t="s">
         <v>202</v>
@@ -2369,7 +2369,7 @@
         <v>23</v>
       </c>
       <c r="C13" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D13" t="s">
         <v>183</v>
@@ -2382,14 +2382,14 @@
       </c>
       <c r="G13" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_CZ109_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_CZ109_CommissionSummary.pdf</v>
       </c>
       <c r="H13" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_CZ109_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_CZ109_CommissionDetail.pdf</v>
       </c>
       <c r="K13" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="L13" t="s">
         <v>204</v>
@@ -2404,7 +2404,7 @@
         <v>24</v>
       </c>
       <c r="C14" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D14" t="s">
         <v>183</v>
@@ -2417,14 +2417,14 @@
       </c>
       <c r="G14" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_AZ112_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_AZ112_CommissionSummary.pdf</v>
       </c>
       <c r="H14" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_AZ112_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_AZ112_CommissionDetail.pdf</v>
       </c>
       <c r="K14" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="L14" t="s">
         <v>206</v>
@@ -2439,7 +2439,7 @@
         <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D15" t="s">
         <v>183</v>
@@ -2452,14 +2452,14 @@
       </c>
       <c r="G15" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_CZ1CP_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_CZ1CP_CommissionSummary.pdf</v>
       </c>
       <c r="H15" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_CZ1CP_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_CZ1CP_CommissionDetail.pdf</v>
       </c>
       <c r="K15" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="L15" t="s">
         <v>208</v>
@@ -2474,7 +2474,7 @@
         <v>26</v>
       </c>
       <c r="C16" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D16" t="s">
         <v>183</v>
@@ -2487,14 +2487,14 @@
       </c>
       <c r="G16" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_CZ154_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_CZ154_CommissionSummary.pdf</v>
       </c>
       <c r="H16" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_CZ154_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_CZ154_CommissionDetail.pdf</v>
       </c>
       <c r="K16" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="L16" t="s">
         <v>210</v>
@@ -2509,7 +2509,7 @@
         <v>27</v>
       </c>
       <c r="C17" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D17" t="s">
         <v>183</v>
@@ -2522,14 +2522,14 @@
       </c>
       <c r="G17" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_CZ1KD_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_CZ1KD_CommissionSummary.pdf</v>
       </c>
       <c r="H17" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_CZ1KD_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_CZ1KD_CommissionDetail.pdf</v>
       </c>
       <c r="K17" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="L17" t="s">
         <v>212</v>
@@ -2544,7 +2544,7 @@
         <v>28</v>
       </c>
       <c r="C18" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D18" t="s">
         <v>183</v>
@@ -2557,14 +2557,14 @@
       </c>
       <c r="G18" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_QZ1CF_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_QZ1CF_CommissionSummary.pdf</v>
       </c>
       <c r="H18" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_QZ1CF_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_QZ1CF_CommissionDetail.pdf</v>
       </c>
       <c r="K18" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="L18" t="s">
         <v>214</v>
@@ -2579,7 +2579,7 @@
         <v>29</v>
       </c>
       <c r="C19" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D19" t="s">
         <v>183</v>
@@ -2592,14 +2592,14 @@
       </c>
       <c r="G19" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_CZ1EM_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_CZ1EM_CommissionSummary.pdf</v>
       </c>
       <c r="H19" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_CZ1EM_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_CZ1EM_CommissionDetail.pdf</v>
       </c>
       <c r="K19" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="L19" t="s">
         <v>216</v>
@@ -2613,7 +2613,7 @@
         <v>30</v>
       </c>
       <c r="C20" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D20" t="s">
         <v>183</v>
@@ -2626,14 +2626,14 @@
       </c>
       <c r="G20" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_QZ1DP_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_QZ1DP_CommissionSummary.pdf</v>
       </c>
       <c r="H20" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_QZ1DP_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_QZ1DP_CommissionDetail.pdf</v>
       </c>
       <c r="K20" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="L20" t="s">
         <v>218</v>
@@ -2647,7 +2647,7 @@
         <v>31</v>
       </c>
       <c r="C21" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D21" t="s">
         <v>183</v>
@@ -2660,14 +2660,14 @@
       </c>
       <c r="G21" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_CZ1DA_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_CZ1DA_CommissionSummary.pdf</v>
       </c>
       <c r="H21" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_CZ1DA_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_CZ1DA_CommissionDetail.pdf</v>
       </c>
       <c r="K21" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="L21" t="s">
         <v>220</v>
@@ -2681,7 +2681,7 @@
         <v>32</v>
       </c>
       <c r="C22" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D22" t="s">
         <v>183</v>
@@ -2694,14 +2694,14 @@
       </c>
       <c r="G22" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_QZ1LM_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_QZ1LM_CommissionSummary.pdf</v>
       </c>
       <c r="H22" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_QZ1LM_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_QZ1LM_CommissionDetail.pdf</v>
       </c>
       <c r="K22" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="L22" t="s">
         <v>222</v>
@@ -2715,7 +2715,7 @@
         <v>33</v>
       </c>
       <c r="C23" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D23" t="s">
         <v>183</v>
@@ -2728,14 +2728,14 @@
       </c>
       <c r="G23" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_CZ1EE_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_CZ1EE_CommissionSummary.pdf</v>
       </c>
       <c r="H23" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_CZ1EE_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_CZ1EE_CommissionDetail.pdf</v>
       </c>
       <c r="K23" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="L23" t="s">
         <v>224</v>
@@ -2749,7 +2749,7 @@
         <v>34</v>
       </c>
       <c r="C24" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D24" t="s">
         <v>183</v>
@@ -2762,14 +2762,14 @@
       </c>
       <c r="G24" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_AZ1EK_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_AZ1EK_CommissionSummary.pdf</v>
       </c>
       <c r="H24" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_AZ1EK_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_AZ1EK_CommissionDetail.pdf</v>
       </c>
       <c r="K24" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="L24" t="s">
         <v>226</v>
@@ -2783,7 +2783,7 @@
         <v>35</v>
       </c>
       <c r="C25" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D25" t="s">
         <v>183</v>
@@ -2796,14 +2796,14 @@
       </c>
       <c r="G25" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_AZ1FB_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_AZ1FB_CommissionSummary.pdf</v>
       </c>
       <c r="H25" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_AZ1FB_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_AZ1FB_CommissionDetail.pdf</v>
       </c>
       <c r="K25" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="L25" t="s">
         <v>228</v>
@@ -2817,7 +2817,7 @@
         <v>36</v>
       </c>
       <c r="C26" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D26" t="s">
         <v>183</v>
@@ -2830,14 +2830,14 @@
       </c>
       <c r="G26" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_CZ1FP_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_CZ1FP_CommissionSummary.pdf</v>
       </c>
       <c r="H26" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_CZ1FP_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_CZ1FP_CommissionDetail.pdf</v>
       </c>
       <c r="K26" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="L26" t="s">
         <v>230</v>
@@ -2851,7 +2851,7 @@
         <v>37</v>
       </c>
       <c r="C27" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D27" t="s">
         <v>183</v>
@@ -2864,14 +2864,14 @@
       </c>
       <c r="G27" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_QZ1FT_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_QZ1FT_CommissionSummary.pdf</v>
       </c>
       <c r="H27" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_QZ1FT_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_QZ1FT_CommissionDetail.pdf</v>
       </c>
       <c r="K27" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="L27" t="s">
         <v>232</v>
@@ -2885,7 +2885,7 @@
         <v>38</v>
       </c>
       <c r="C28" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D28" t="s">
         <v>183</v>
@@ -2898,14 +2898,14 @@
       </c>
       <c r="G28" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_QZ1FS_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_QZ1FR_CommissionSummary.pdf</v>
       </c>
       <c r="H28" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_QZ1FS_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_QZ1FR_CommissionDetail.pdf</v>
       </c>
       <c r="K28" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="L28" t="s">
         <v>234</v>
@@ -2919,7 +2919,7 @@
         <v>39</v>
       </c>
       <c r="C29" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D29" t="s">
         <v>183</v>
@@ -2932,14 +2932,14 @@
       </c>
       <c r="G29" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_QZ1FR_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_QZ1GO_CommissionSummary.pdf</v>
       </c>
       <c r="H29" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_QZ1FR_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_QZ1GO_CommissionDetail.pdf</v>
       </c>
       <c r="K29" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="L29" t="s">
         <v>236</v>
@@ -2953,7 +2953,7 @@
         <v>40</v>
       </c>
       <c r="C30" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D30" t="s">
         <v>183</v>
@@ -2966,14 +2966,14 @@
       </c>
       <c r="G30" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_QZ1GO_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_AZ1KL_CommissionSummary.pdf</v>
       </c>
       <c r="H30" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_QZ1GO_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_AZ1KL_CommissionDetail.pdf</v>
       </c>
       <c r="K30" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="L30" t="s">
         <v>238</v>
@@ -2987,7 +2987,7 @@
         <v>41</v>
       </c>
       <c r="C31" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D31" t="s">
         <v>183</v>
@@ -3000,14 +3000,14 @@
       </c>
       <c r="G31" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_AZ1KL_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_QZ1KK_CommissionSummary.pdf</v>
       </c>
       <c r="H31" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_AZ1KL_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_QZ1KK_CommissionDetail.pdf</v>
       </c>
       <c r="K31" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="L31" t="s">
         <v>240</v>
@@ -3021,7 +3021,7 @@
         <v>42</v>
       </c>
       <c r="C32" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D32" t="s">
         <v>183</v>
@@ -3034,14 +3034,14 @@
       </c>
       <c r="G32" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_QZ1KK_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_CZ1DN_CommissionSummary.pdf</v>
       </c>
       <c r="H32" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_QZ1KK_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_CZ1DN_CommissionDetail.pdf</v>
       </c>
       <c r="K32" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="L32" t="s">
         <v>242</v>
@@ -3055,7 +3055,7 @@
         <v>43</v>
       </c>
       <c r="C33" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D33" t="s">
         <v>183</v>
@@ -3068,14 +3068,14 @@
       </c>
       <c r="G33" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_CZ1DN_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_QZ1EO_CommissionSummary.pdf</v>
       </c>
       <c r="H33" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_CZ1DN_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_QZ1EO_CommissionDetail.pdf</v>
       </c>
       <c r="K33" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="L33" t="s">
         <v>244</v>
@@ -3089,7 +3089,7 @@
         <v>44</v>
       </c>
       <c r="C34" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D34" t="s">
         <v>183</v>
@@ -3102,14 +3102,14 @@
       </c>
       <c r="G34" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_QZ1EO_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_CZ1CB_CommissionSummary.pdf</v>
       </c>
       <c r="H34" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_QZ1EO_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_CZ1CB_CommissionDetail.pdf</v>
       </c>
       <c r="K34" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="L34" t="s">
         <v>246</v>
@@ -3123,7 +3123,7 @@
         <v>45</v>
       </c>
       <c r="C35" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D35" t="s">
         <v>183</v>
@@ -3136,14 +3136,14 @@
       </c>
       <c r="G35" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_CZ1CB_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_CZ1B8_CommissionSummary.pdf</v>
       </c>
       <c r="H35" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_CZ1CB_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_CZ1B8_CommissionDetail.pdf</v>
       </c>
       <c r="K35" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="L35" t="s">
         <v>248</v>
@@ -3157,7 +3157,7 @@
         <v>46</v>
       </c>
       <c r="C36" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D36" t="s">
         <v>183</v>
@@ -3170,14 +3170,14 @@
       </c>
       <c r="G36" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_CZ1B8_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_CZ1C4_CommissionSummary.pdf</v>
       </c>
       <c r="H36" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_CZ1B8_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_CZ1C4_CommissionDetail.pdf</v>
       </c>
       <c r="K36" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="L36" t="s">
         <v>250</v>
@@ -3191,7 +3191,7 @@
         <v>47</v>
       </c>
       <c r="C37" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D37" t="s">
         <v>183</v>
@@ -3204,14 +3204,14 @@
       </c>
       <c r="G37" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_CZ1C4_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_QZ1D8_CommissionSummary.pdf</v>
       </c>
       <c r="H37" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_CZ1C4_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_QZ1D8_CommissionDetail.pdf</v>
       </c>
       <c r="K37" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="L37" t="s">
         <v>252</v>
@@ -3225,7 +3225,7 @@
         <v>48</v>
       </c>
       <c r="C38" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D38" t="s">
         <v>183</v>
@@ -3238,14 +3238,14 @@
       </c>
       <c r="G38" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_QZ1D8_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_CZ1SW_CommissionSummary.pdf</v>
       </c>
       <c r="H38" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_QZ1D8_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_CZ1SW_CommissionDetail.pdf</v>
       </c>
       <c r="K38" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="L38" t="s">
         <v>254</v>
@@ -3259,7 +3259,7 @@
         <v>49</v>
       </c>
       <c r="C39" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D39" t="s">
         <v>183</v>
@@ -3272,14 +3272,14 @@
       </c>
       <c r="G39" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_CZ1SW_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_QZ1AP_CommissionSummary.pdf</v>
       </c>
       <c r="H39" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_CZ1SW_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_QZ1AP_CommissionDetail.pdf</v>
       </c>
       <c r="K39" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="L39" t="s">
         <v>256</v>
@@ -3293,7 +3293,7 @@
         <v>50</v>
       </c>
       <c r="C40" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D40" t="s">
         <v>183</v>
@@ -3306,14 +3306,14 @@
       </c>
       <c r="G40" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_QZ1AP_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_CZ2CB_CommissionSummary.pdf</v>
       </c>
       <c r="H40" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_QZ1AP_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_CZ2CB_CommissionDetail.pdf</v>
       </c>
       <c r="K40" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="L40" t="s">
         <v>258</v>
@@ -3327,7 +3327,7 @@
         <v>51</v>
       </c>
       <c r="C41" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D41" t="s">
         <v>183</v>
@@ -3340,14 +3340,14 @@
       </c>
       <c r="G41" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_CZ2CB_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_CZ1CG_CommissionSummary.pdf</v>
       </c>
       <c r="H41" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_CZ2CB_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_CZ1CG_CommissionDetail.pdf</v>
       </c>
       <c r="K41" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="L41" t="s">
         <v>260</v>
@@ -3361,7 +3361,7 @@
         <v>52</v>
       </c>
       <c r="C42" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D42" t="s">
         <v>183</v>
@@ -3374,14 +3374,14 @@
       </c>
       <c r="G42" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_CZ1CG_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_AZ1PV_CommissionSummary.pdf</v>
       </c>
       <c r="H42" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_CZ1CG_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_AZ1PV_CommissionDetail.pdf</v>
       </c>
       <c r="K42" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="L42" t="s">
         <v>262</v>
@@ -3395,7 +3395,7 @@
         <v>53</v>
       </c>
       <c r="C43" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D43" t="s">
         <v>183</v>
@@ -3408,14 +3408,14 @@
       </c>
       <c r="G43" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_AZ1PV_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_CZ3CB_CommissionSummary.pdf</v>
       </c>
       <c r="H43" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_AZ1PV_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_CZ3CB_CommissionDetail.pdf</v>
       </c>
       <c r="K43" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="L43" t="s">
         <v>264</v>
@@ -3429,7 +3429,7 @@
         <v>54</v>
       </c>
       <c r="C44" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D44" t="s">
         <v>183</v>
@@ -3442,14 +3442,14 @@
       </c>
       <c r="G44" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_CZ3CB_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_CZ5CS_CommissionSummary.pdf</v>
       </c>
       <c r="H44" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_CZ3CB_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_CZ5CS_CommissionDetail.pdf</v>
       </c>
       <c r="K44" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="L44" t="s">
         <v>266</v>
@@ -3463,7 +3463,7 @@
         <v>55</v>
       </c>
       <c r="C45" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D45" t="s">
         <v>183</v>
@@ -3476,14 +3476,14 @@
       </c>
       <c r="G45" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_CZ5CS_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_CZ8JA_CommissionSummary.pdf</v>
       </c>
       <c r="H45" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_CZ5CS_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_CZ8JA_CommissionDetail.pdf</v>
       </c>
       <c r="K45" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="L45" t="s">
         <v>268</v>
@@ -3494,10 +3494,10 @@
     </row>
     <row r="46" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
-        <v>56</v>
+        <v>172</v>
       </c>
       <c r="C46" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D46" t="s">
         <v>183</v>
@@ -3510,14 +3510,14 @@
       </c>
       <c r="G46" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_CZ8JA_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_QZ7JM_CommissionSummary.pdf</v>
       </c>
       <c r="H46" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_CZ8JA_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_QZ7JM_CommissionDetail.pdf</v>
       </c>
       <c r="K46" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="L46" t="s">
         <v>270</v>
@@ -3528,10 +3528,10 @@
     </row>
     <row r="47" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
-        <v>173</v>
+        <v>56</v>
       </c>
       <c r="C47" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D47" t="s">
         <v>183</v>
@@ -3544,14 +3544,14 @@
       </c>
       <c r="G47" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_QZ7JM_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_QZ7DO_CommissionSummary.pdf</v>
       </c>
       <c r="H47" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_QZ7JM_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_QZ7DO_CommissionDetail.pdf</v>
       </c>
       <c r="K47" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="L47" t="s">
         <v>272</v>
@@ -3565,7 +3565,7 @@
         <v>57</v>
       </c>
       <c r="C48" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D48" t="s">
         <v>183</v>
@@ -3578,14 +3578,14 @@
       </c>
       <c r="G48" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_QZ7DO_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_CZ5TA_CommissionSummary.pdf</v>
       </c>
       <c r="H48" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_QZ7DO_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_CZ5TA_CommissionDetail.pdf</v>
       </c>
       <c r="K48" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="L48" t="s">
         <v>274</v>
@@ -3599,7 +3599,7 @@
         <v>58</v>
       </c>
       <c r="C49" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D49" t="s">
         <v>183</v>
@@ -3612,14 +3612,14 @@
       </c>
       <c r="G49" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_CZ5TA_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_CZ2LB_CommissionSummary.pdf</v>
       </c>
       <c r="H49" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_CZ5TA_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_CZ2LB_CommissionDetail.pdf</v>
       </c>
       <c r="K49" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="L49" t="s">
         <v>276</v>
@@ -3633,7 +3633,7 @@
         <v>59</v>
       </c>
       <c r="C50" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D50" t="s">
         <v>183</v>
@@ -3646,14 +3646,14 @@
       </c>
       <c r="G50" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_CZ2LB_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_CZ2GB_CommissionSummary.pdf</v>
       </c>
       <c r="H50" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_CZ2LB_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_CZ2GB_CommissionDetail.pdf</v>
       </c>
       <c r="K50" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="L50" t="s">
         <v>278</v>
@@ -3667,7 +3667,7 @@
         <v>60</v>
       </c>
       <c r="C51" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D51" t="s">
         <v>183</v>
@@ -3680,14 +3680,14 @@
       </c>
       <c r="G51" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_CZ2GB_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_CZ2LH_CommissionSummary.pdf</v>
       </c>
       <c r="H51" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_CZ2GB_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_CZ2LH_CommissionDetail.pdf</v>
       </c>
       <c r="K51" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="L51" t="s">
         <v>280</v>
@@ -3701,7 +3701,7 @@
         <v>61</v>
       </c>
       <c r="C52" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D52" t="s">
         <v>183</v>
@@ -3714,14 +3714,14 @@
       </c>
       <c r="G52" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_CZ2LH_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_CZ2NM_CommissionSummary.pdf</v>
       </c>
       <c r="H52" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_CZ2LH_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_CZ2NM_CommissionDetail.pdf</v>
       </c>
       <c r="K52" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="L52" t="s">
         <v>282</v>
@@ -3735,7 +3735,7 @@
         <v>62</v>
       </c>
       <c r="C53" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D53" t="s">
         <v>183</v>
@@ -3748,14 +3748,14 @@
       </c>
       <c r="G53" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_CZ2NM_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_QZ2SB_CommissionSummary.pdf</v>
       </c>
       <c r="H53" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_CZ2NM_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_QZ2SB_CommissionDetail.pdf</v>
       </c>
       <c r="K53" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="L53" t="s">
         <v>284</v>
@@ -3769,7 +3769,7 @@
         <v>63</v>
       </c>
       <c r="C54" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D54" t="s">
         <v>183</v>
@@ -3782,14 +3782,14 @@
       </c>
       <c r="G54" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_QZ2SB_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_CZ2BG_CommissionSummary.pdf</v>
       </c>
       <c r="H54" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_QZ2SB_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_CZ2BG_CommissionDetail.pdf</v>
       </c>
       <c r="K54" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="L54" t="s">
         <v>286</v>
@@ -3803,7 +3803,7 @@
         <v>64</v>
       </c>
       <c r="C55" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D55" t="s">
         <v>183</v>
@@ -3816,14 +3816,14 @@
       </c>
       <c r="G55" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_CZ2BG_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_CZ1SA_CommissionSummary.pdf</v>
       </c>
       <c r="H55" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_CZ2BG_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_CZ1SA_CommissionDetail.pdf</v>
       </c>
       <c r="K55" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="L55" t="s">
         <v>288</v>
@@ -3837,7 +3837,7 @@
         <v>65</v>
       </c>
       <c r="C56" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D56" t="s">
         <v>183</v>
@@ -3850,14 +3850,14 @@
       </c>
       <c r="G56" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_CZ1SA_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_WZ115_CommissionSummary.pdf</v>
       </c>
       <c r="H56" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_CZ1SA_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_WZ115_CommissionDetail.pdf</v>
       </c>
       <c r="K56" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="L56" t="s">
         <v>290</v>
@@ -3871,7 +3871,7 @@
         <v>66</v>
       </c>
       <c r="C57" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D57" t="s">
         <v>183</v>
@@ -3884,14 +3884,14 @@
       </c>
       <c r="G57" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_WZ115_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_WZ120_CommissionSummary.pdf</v>
       </c>
       <c r="H57" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_WZ115_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_WZ120_CommissionDetail.pdf</v>
       </c>
       <c r="K57" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="L57" t="s">
         <v>292</v>
@@ -3905,7 +3905,7 @@
         <v>67</v>
       </c>
       <c r="C58" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D58" t="s">
         <v>183</v>
@@ -3918,14 +3918,14 @@
       </c>
       <c r="G58" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_WZ120_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_WZ118_CommissionSummary.pdf</v>
       </c>
       <c r="H58" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_WZ120_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_WZ118_CommissionDetail.pdf</v>
       </c>
       <c r="K58" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="L58" t="s">
         <v>294</v>
@@ -3939,7 +3939,7 @@
         <v>68</v>
       </c>
       <c r="C59" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D59" t="s">
         <v>183</v>
@@ -3952,14 +3952,14 @@
       </c>
       <c r="G59" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_WZ118_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_WZ119_CommissionSummary.pdf</v>
       </c>
       <c r="H59" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_WZ118_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_WZ119_CommissionDetail.pdf</v>
       </c>
       <c r="K59" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="L59" t="s">
         <v>296</v>
@@ -3973,7 +3973,7 @@
         <v>69</v>
       </c>
       <c r="C60" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D60" t="s">
         <v>183</v>
@@ -3986,14 +3986,14 @@
       </c>
       <c r="G60" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_WZ119_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_WZ138_CommissionSummary.pdf</v>
       </c>
       <c r="H60" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_WZ119_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_WZ138_CommissionDetail.pdf</v>
       </c>
       <c r="K60" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="L60" t="s">
         <v>298</v>
@@ -4007,7 +4007,7 @@
         <v>70</v>
       </c>
       <c r="C61" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D61" t="s">
         <v>183</v>
@@ -4020,14 +4020,14 @@
       </c>
       <c r="G61" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_WZ138_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_WZ142_CommissionSummary.pdf</v>
       </c>
       <c r="H61" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_WZ138_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_WZ142_CommissionDetail.pdf</v>
       </c>
       <c r="K61" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="L61" t="s">
         <v>300</v>
@@ -4041,7 +4041,7 @@
         <v>71</v>
       </c>
       <c r="C62" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D62" t="s">
         <v>183</v>
@@ -4054,14 +4054,14 @@
       </c>
       <c r="G62" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_WZ142_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_WZ134_CommissionSummary.pdf</v>
       </c>
       <c r="H62" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_WZ142_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_WZ134_CommissionDetail.pdf</v>
       </c>
       <c r="K62" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="L62" t="s">
         <v>302</v>
@@ -4075,7 +4075,7 @@
         <v>72</v>
       </c>
       <c r="C63" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D63" t="s">
         <v>183</v>
@@ -4088,14 +4088,14 @@
       </c>
       <c r="G63" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_WZ134_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_WZ123_CommissionSummary.pdf</v>
       </c>
       <c r="H63" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_WZ134_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_WZ123_CommissionDetail.pdf</v>
       </c>
       <c r="K63" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="L63" t="s">
         <v>304</v>
@@ -4109,7 +4109,7 @@
         <v>73</v>
       </c>
       <c r="C64" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D64" t="s">
         <v>183</v>
@@ -4122,14 +4122,14 @@
       </c>
       <c r="G64" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_WZ123_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_WZ136_CommissionSummary.pdf</v>
       </c>
       <c r="H64" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_WZ123_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_WZ136_CommissionDetail.pdf</v>
       </c>
       <c r="K64" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="L64" t="s">
         <v>306</v>
@@ -4143,7 +4143,7 @@
         <v>74</v>
       </c>
       <c r="C65" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D65" t="s">
         <v>183</v>
@@ -4156,14 +4156,14 @@
       </c>
       <c r="G65" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_WZ136_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_WZ165_CommissionSummary.pdf</v>
       </c>
       <c r="H65" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_WZ136_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_WZ165_CommissionDetail.pdf</v>
       </c>
       <c r="K65" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="L65" t="s">
         <v>308</v>
@@ -4177,7 +4177,7 @@
         <v>75</v>
       </c>
       <c r="C66" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D66" t="s">
         <v>183</v>
@@ -4190,14 +4190,14 @@
       </c>
       <c r="G66" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_WZ165_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_WZ1FF_CommissionSummary.pdf</v>
       </c>
       <c r="H66" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_WZ165_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_WZ1FF_CommissionDetail.pdf</v>
       </c>
       <c r="K66" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="L66" t="s">
         <v>310</v>
@@ -4211,7 +4211,7 @@
         <v>76</v>
       </c>
       <c r="C67" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D67" t="s">
         <v>183</v>
@@ -4224,14 +4224,14 @@
       </c>
       <c r="G67" t="str">
         <f t="shared" ref="G67:G130" si="2">$K67&amp;"\"&amp;L67</f>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_WZ1FF_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_WZ167_CommissionSummary.pdf</v>
       </c>
       <c r="H67" t="str">
         <f t="shared" ref="H67:H130" si="3">$K67&amp;"\"&amp;M67</f>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_WZ1FF_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_WZ167_CommissionDetail.pdf</v>
       </c>
       <c r="K67" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="L67" t="s">
         <v>312</v>
@@ -4245,7 +4245,7 @@
         <v>77</v>
       </c>
       <c r="C68" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D68" t="s">
         <v>183</v>
@@ -4258,14 +4258,14 @@
       </c>
       <c r="G68" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_WZ167_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_WZ175_CommissionSummary.pdf</v>
       </c>
       <c r="H68" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_WZ167_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_WZ175_CommissionDetail.pdf</v>
       </c>
       <c r="K68" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="L68" t="s">
         <v>314</v>
@@ -4279,7 +4279,7 @@
         <v>78</v>
       </c>
       <c r="C69" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D69" t="s">
         <v>183</v>
@@ -4292,14 +4292,14 @@
       </c>
       <c r="G69" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_WZ175_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_WZ177_CommissionSummary.pdf</v>
       </c>
       <c r="H69" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_WZ175_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_WZ177_CommissionDetail.pdf</v>
       </c>
       <c r="K69" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="L69" t="s">
         <v>316</v>
@@ -4313,7 +4313,7 @@
         <v>79</v>
       </c>
       <c r="C70" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D70" t="s">
         <v>183</v>
@@ -4326,14 +4326,14 @@
       </c>
       <c r="G70" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_WZ177_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_WZ143_CommissionSummary.pdf</v>
       </c>
       <c r="H70" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_WZ177_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_WZ143_CommissionDetail.pdf</v>
       </c>
       <c r="K70" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="L70" t="s">
         <v>318</v>
@@ -4347,7 +4347,7 @@
         <v>80</v>
       </c>
       <c r="C71" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D71" t="s">
         <v>183</v>
@@ -4360,14 +4360,14 @@
       </c>
       <c r="G71" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_WZ143_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_WZ159_CommissionSummary.pdf</v>
       </c>
       <c r="H71" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_WZ143_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_WZ159_CommissionDetail.pdf</v>
       </c>
       <c r="K71" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="L71" t="s">
         <v>320</v>
@@ -4381,7 +4381,7 @@
         <v>81</v>
       </c>
       <c r="C72" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D72" t="s">
         <v>183</v>
@@ -4394,14 +4394,14 @@
       </c>
       <c r="G72" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_WZ159_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_WZ162_CommissionSummary.pdf</v>
       </c>
       <c r="H72" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_WZ159_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_WZ162_CommissionDetail.pdf</v>
       </c>
       <c r="K72" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="L72" t="s">
         <v>322</v>
@@ -4415,7 +4415,7 @@
         <v>82</v>
       </c>
       <c r="C73" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D73" t="s">
         <v>183</v>
@@ -4428,14 +4428,14 @@
       </c>
       <c r="G73" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_WZ162_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_WZ113_CommissionSummary.pdf</v>
       </c>
       <c r="H73" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_WZ162_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_WZ113_CommissionDetail.pdf</v>
       </c>
       <c r="K73" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="L73" t="s">
         <v>324</v>
@@ -4449,7 +4449,7 @@
         <v>83</v>
       </c>
       <c r="C74" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D74" t="s">
         <v>183</v>
@@ -4462,14 +4462,14 @@
       </c>
       <c r="G74" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_WZ113_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_WZ137_CommissionSummary.pdf</v>
       </c>
       <c r="H74" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_WZ113_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_WZ137_CommissionDetail.pdf</v>
       </c>
       <c r="K74" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="L74" t="s">
         <v>326</v>
@@ -4483,7 +4483,7 @@
         <v>84</v>
       </c>
       <c r="C75" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D75" t="s">
         <v>183</v>
@@ -4496,14 +4496,14 @@
       </c>
       <c r="G75" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_WZ137_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_WZ1G4_CommissionSummary.pdf</v>
       </c>
       <c r="H75" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_WZ137_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_WZ1G4_CommissionDetail.pdf</v>
       </c>
       <c r="K75" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="L75" t="s">
         <v>328</v>
@@ -4517,7 +4517,7 @@
         <v>85</v>
       </c>
       <c r="C76" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D76" t="s">
         <v>183</v>
@@ -4530,14 +4530,14 @@
       </c>
       <c r="G76" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_WZ1G4_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_WZ1CE_CommissionSummary.pdf</v>
       </c>
       <c r="H76" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_WZ1G4_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_WZ1CE_CommissionDetail.pdf</v>
       </c>
       <c r="K76" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="L76" t="s">
         <v>330</v>
@@ -4551,7 +4551,7 @@
         <v>86</v>
       </c>
       <c r="C77" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D77" t="s">
         <v>183</v>
@@ -4564,14 +4564,14 @@
       </c>
       <c r="G77" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_WZ1CE_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_WZBW1_CommissionSummary.pdf</v>
       </c>
       <c r="H77" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_WZ1CE_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_WZBW1_CommissionDetail.pdf</v>
       </c>
       <c r="K77" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="L77" t="s">
         <v>332</v>
@@ -4585,7 +4585,7 @@
         <v>87</v>
       </c>
       <c r="C78" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D78" t="s">
         <v>183</v>
@@ -4598,14 +4598,14 @@
       </c>
       <c r="G78" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_WZBW1_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_WZ9TS_CommissionSummary.pdf</v>
       </c>
       <c r="H78" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_WZBW1_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_WZ9TS_CommissionDetail.pdf</v>
       </c>
       <c r="K78" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="L78" t="s">
         <v>334</v>
@@ -4619,7 +4619,7 @@
         <v>88</v>
       </c>
       <c r="C79" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D79" t="s">
         <v>183</v>
@@ -4632,14 +4632,14 @@
       </c>
       <c r="G79" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_WZ9TS_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_WZ1HM_CommissionSummary.pdf</v>
       </c>
       <c r="H79" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_WZ9TS_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_WZ1HM_CommissionDetail.pdf</v>
       </c>
       <c r="K79" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="L79" t="s">
         <v>336</v>
@@ -4653,7 +4653,7 @@
         <v>89</v>
       </c>
       <c r="C80" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D80" t="s">
         <v>183</v>
@@ -4666,20 +4666,20 @@
       </c>
       <c r="G80" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_WZ1HM_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_WZ1HM_CommissionSummary.pdf</v>
       </c>
       <c r="H80" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_WZ1HM_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_WZ1HM_CommissionDetail.pdf</v>
       </c>
       <c r="K80" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="L80" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="M80" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
     </row>
     <row r="81" spans="2:13" x14ac:dyDescent="0.25">
@@ -4687,7 +4687,7 @@
         <v>90</v>
       </c>
       <c r="C81" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D81" t="s">
         <v>183</v>
@@ -4700,14 +4700,14 @@
       </c>
       <c r="G81" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_WZ1HM_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_WZ2RP_CommissionSummary.pdf</v>
       </c>
       <c r="H81" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_WZ1HM_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_WZ2RP_CommissionDetail.pdf</v>
       </c>
       <c r="K81" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="L81" t="s">
         <v>338</v>
@@ -4721,7 +4721,7 @@
         <v>91</v>
       </c>
       <c r="C82" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D82" t="s">
         <v>183</v>
@@ -4734,14 +4734,14 @@
       </c>
       <c r="G82" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_WZ2RP_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_WZ1TT_CommissionSummary.pdf</v>
       </c>
       <c r="H82" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_WZ2RP_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_WZ1TT_CommissionDetail.pdf</v>
       </c>
       <c r="K82" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="L82" t="s">
         <v>340</v>
@@ -4755,7 +4755,7 @@
         <v>92</v>
       </c>
       <c r="C83" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D83" t="s">
         <v>183</v>
@@ -4768,14 +4768,14 @@
       </c>
       <c r="G83" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_WZ1TT_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_WZ1AM_CommissionSummary.pdf</v>
       </c>
       <c r="H83" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_WZ1TT_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_WZ1AM_CommissionDetail.pdf</v>
       </c>
       <c r="K83" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="L83" t="s">
         <v>342</v>
@@ -4789,7 +4789,7 @@
         <v>93</v>
       </c>
       <c r="C84" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D84" t="s">
         <v>183</v>
@@ -4802,14 +4802,14 @@
       </c>
       <c r="G84" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_WZ1AM_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_WZ1JW_CommissionSummary.pdf</v>
       </c>
       <c r="H84" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_WZ1AM_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_WZ1JW_CommissionDetail.pdf</v>
       </c>
       <c r="K84" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="L84" t="s">
         <v>344</v>
@@ -4823,7 +4823,7 @@
         <v>94</v>
       </c>
       <c r="C85" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D85" t="s">
         <v>183</v>
@@ -4836,14 +4836,14 @@
       </c>
       <c r="G85" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_WZ1JW_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_WZ1MH_CommissionSummary.pdf</v>
       </c>
       <c r="H85" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_WZ1JW_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_WZ1MH_CommissionDetail.pdf</v>
       </c>
       <c r="K85" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="L85" t="s">
         <v>346</v>
@@ -4857,7 +4857,7 @@
         <v>95</v>
       </c>
       <c r="C86" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D86" t="s">
         <v>183</v>
@@ -4870,14 +4870,14 @@
       </c>
       <c r="G86" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_WZ1MH_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_WZ1TM_CommissionSummary.pdf</v>
       </c>
       <c r="H86" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_WZ1MH_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_WZ1TM_CommissionDetail.pdf</v>
       </c>
       <c r="K86" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="L86" t="s">
         <v>348</v>
@@ -4891,7 +4891,7 @@
         <v>96</v>
       </c>
       <c r="C87" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D87" t="s">
         <v>183</v>
@@ -4904,14 +4904,14 @@
       </c>
       <c r="G87" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_WZ1TM_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_WZ2AM_CommissionSummary.pdf</v>
       </c>
       <c r="H87" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_WZ1TM_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_WZ2AM_CommissionDetail.pdf</v>
       </c>
       <c r="K87" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="L87" t="s">
         <v>350</v>
@@ -4925,7 +4925,7 @@
         <v>97</v>
       </c>
       <c r="C88" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D88" t="s">
         <v>183</v>
@@ -4938,14 +4938,14 @@
       </c>
       <c r="G88" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_WZ2AM_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_WZ1SC_CommissionSummary.pdf</v>
       </c>
       <c r="H88" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_WZ2AM_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_WZ1SC_CommissionDetail.pdf</v>
       </c>
       <c r="K88" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="L88" t="s">
         <v>352</v>
@@ -4959,7 +4959,7 @@
         <v>98</v>
       </c>
       <c r="C89" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D89" t="s">
         <v>183</v>
@@ -4972,14 +4972,14 @@
       </c>
       <c r="G89" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_WZ1SC_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_WZ1PB_CommissionSummary.pdf</v>
       </c>
       <c r="H89" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_WZ1SC_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_WZ1PB_CommissionDetail.pdf</v>
       </c>
       <c r="K89" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="L89" t="s">
         <v>354</v>
@@ -4993,7 +4993,7 @@
         <v>99</v>
       </c>
       <c r="C90" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D90" t="s">
         <v>183</v>
@@ -5006,14 +5006,14 @@
       </c>
       <c r="G90" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_WZ1PB_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_WZ1JN_CommissionSummary.pdf</v>
       </c>
       <c r="H90" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_WZ1PB_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_WZ1JN_CommissionDetail.pdf</v>
       </c>
       <c r="K90" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="L90" t="s">
         <v>356</v>
@@ -5027,7 +5027,7 @@
         <v>100</v>
       </c>
       <c r="C91" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D91" t="s">
         <v>183</v>
@@ -5040,14 +5040,14 @@
       </c>
       <c r="G91" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_WZ1JN_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_WZ1MK_CommissionSummary.pdf</v>
       </c>
       <c r="H91" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_WZ1JN_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_WZ1MK_CommissionDetail.pdf</v>
       </c>
       <c r="K91" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="L91" t="s">
         <v>358</v>
@@ -5058,10 +5058,10 @@
     </row>
     <row r="92" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B92" t="s">
-        <v>101</v>
+        <v>176</v>
       </c>
       <c r="C92" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D92" t="s">
         <v>183</v>
@@ -5074,14 +5074,14 @@
       </c>
       <c r="G92" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_WZ1MK_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_WZ1CA_CommissionSummary.pdf</v>
       </c>
       <c r="H92" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_WZ1MK_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_WZ1CA_CommissionDetail.pdf</v>
       </c>
       <c r="K92" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="L92" t="s">
         <v>360</v>
@@ -5092,10 +5092,10 @@
     </row>
     <row r="93" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B93" t="s">
-        <v>177</v>
+        <v>101</v>
       </c>
       <c r="C93" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D93" t="s">
         <v>183</v>
@@ -5108,14 +5108,14 @@
       </c>
       <c r="G93" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_WZ1CA_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_WZ2TM_CommissionSummary.pdf</v>
       </c>
       <c r="H93" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_WZ1CA_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_WZ2TM_CommissionDetail.pdf</v>
       </c>
       <c r="K93" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="L93" t="s">
         <v>362</v>
@@ -5129,7 +5129,7 @@
         <v>102</v>
       </c>
       <c r="C94" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D94" t="s">
         <v>183</v>
@@ -5142,14 +5142,14 @@
       </c>
       <c r="G94" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_WZ2TM_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_WZ1BC_CommissionSummary.pdf</v>
       </c>
       <c r="H94" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_WZ2TM_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_WZ1BC_CommissionDetail.pdf</v>
       </c>
       <c r="K94" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="L94" t="s">
         <v>364</v>
@@ -5163,7 +5163,7 @@
         <v>103</v>
       </c>
       <c r="C95" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D95" t="s">
         <v>183</v>
@@ -5176,14 +5176,14 @@
       </c>
       <c r="G95" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_WZ1BC_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_WZ1JL_CommissionSummary.pdf</v>
       </c>
       <c r="H95" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_WZ1BC_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_WZ1JL_CommissionDetail.pdf</v>
       </c>
       <c r="K95" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="L95" t="s">
         <v>366</v>
@@ -5197,7 +5197,7 @@
         <v>104</v>
       </c>
       <c r="C96" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D96" t="s">
         <v>183</v>
@@ -5210,14 +5210,14 @@
       </c>
       <c r="G96" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_WZ1JL_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_WZ1AL_CommissionSummary.pdf</v>
       </c>
       <c r="H96" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_WZ1JL_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_WZ1AL_CommissionDetail.pdf</v>
       </c>
       <c r="K96" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="L96" t="s">
         <v>368</v>
@@ -5231,7 +5231,7 @@
         <v>105</v>
       </c>
       <c r="C97" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D97" t="s">
         <v>183</v>
@@ -5244,14 +5244,14 @@
       </c>
       <c r="G97" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_WZ1AL_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_WZ1MW_CommissionSummary.pdf</v>
       </c>
       <c r="H97" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_WZ1AL_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_WZ1MW_CommissionDetail.pdf</v>
       </c>
       <c r="K97" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="L97" t="s">
         <v>370</v>
@@ -5265,7 +5265,7 @@
         <v>106</v>
       </c>
       <c r="C98" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D98" t="s">
         <v>183</v>
@@ -5278,14 +5278,14 @@
       </c>
       <c r="G98" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_WZ1MW_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_WZ1MS_CommissionSummary.pdf</v>
       </c>
       <c r="H98" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_WZ1MW_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_WZ1MS_CommissionDetail.pdf</v>
       </c>
       <c r="K98" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="L98" t="s">
         <v>372</v>
@@ -5299,7 +5299,7 @@
         <v>107</v>
       </c>
       <c r="C99" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D99" t="s">
         <v>183</v>
@@ -5312,14 +5312,14 @@
       </c>
       <c r="G99" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_WZ1MS_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_WZ1DF_CommissionSummary.pdf</v>
       </c>
       <c r="H99" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_WZ1MS_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_WZ1DF_CommissionDetail.pdf</v>
       </c>
       <c r="K99" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="L99" t="s">
         <v>374</v>
@@ -5330,10 +5330,10 @@
     </row>
     <row r="100" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B100" t="s">
-        <v>108</v>
+        <v>169</v>
       </c>
       <c r="C100" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D100" t="s">
         <v>183</v>
@@ -5346,14 +5346,14 @@
       </c>
       <c r="G100" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_WZ1DF_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_WZ1JI_CommissionSummary.pdf</v>
       </c>
       <c r="H100" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_WZ1DF_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_WZ1JI_CommissionDetail.pdf</v>
       </c>
       <c r="K100" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="L100" t="s">
         <v>376</v>
@@ -5364,10 +5364,10 @@
     </row>
     <row r="101" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B101" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C101" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D101" t="s">
         <v>183</v>
@@ -5380,14 +5380,14 @@
       </c>
       <c r="G101" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_WZ1JI_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_WZ1CM_CommissionSummary.pdf</v>
       </c>
       <c r="H101" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_WZ1JI_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_WZ1CM_CommissionDetail.pdf</v>
       </c>
       <c r="K101" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="L101" t="s">
         <v>378</v>
@@ -5398,10 +5398,10 @@
     </row>
     <row r="102" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B102" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="C102" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D102" t="s">
         <v>183</v>
@@ -5414,14 +5414,14 @@
       </c>
       <c r="G102" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_WZ1CM_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_WZ2MS_CommissionSummary.pdf</v>
       </c>
       <c r="H102" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_WZ1CM_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_WZ2MS_CommissionDetail.pdf</v>
       </c>
       <c r="K102" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="L102" t="s">
         <v>380</v>
@@ -5432,10 +5432,10 @@
     </row>
     <row r="103" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B103" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="C103" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D103" t="s">
         <v>183</v>
@@ -5448,14 +5448,14 @@
       </c>
       <c r="G103" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_WZ2MS_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_WZ2JN_CommissionSummary.pdf</v>
       </c>
       <c r="H103" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_WZ2MS_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_WZ2JN_CommissionDetail.pdf</v>
       </c>
       <c r="K103" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="L103" t="s">
         <v>382</v>
@@ -5466,10 +5466,10 @@
     </row>
     <row r="104" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B104" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="C104" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D104" t="s">
         <v>183</v>
@@ -5482,14 +5482,14 @@
       </c>
       <c r="G104" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_WZ2JN_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_CZ1RD_CommissionSummary.pdf</v>
       </c>
       <c r="H104" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_WZ2JN_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_CZ1RD_CommissionDetail.pdf</v>
       </c>
       <c r="K104" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="L104" t="s">
         <v>384</v>
@@ -5500,10 +5500,10 @@
     </row>
     <row r="105" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B105" t="s">
-        <v>179</v>
+        <v>108</v>
       </c>
       <c r="C105" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D105" t="s">
         <v>183</v>
@@ -5516,14 +5516,14 @@
       </c>
       <c r="G105" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_CZ1RD_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_CZ1GF_CommissionSummary.pdf</v>
       </c>
       <c r="H105" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_CZ1RD_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_CZ1GF_CommissionDetail.pdf</v>
       </c>
       <c r="K105" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="L105" t="s">
         <v>386</v>
@@ -5537,7 +5537,7 @@
         <v>109</v>
       </c>
       <c r="C106" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D106" t="s">
         <v>183</v>
@@ -5550,14 +5550,14 @@
       </c>
       <c r="G106" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_CZ1GF_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_QZ1BP_CommissionSummary.pdf</v>
       </c>
       <c r="H106" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_CZ1GF_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_QZ1BP_CommissionDetail.pdf</v>
       </c>
       <c r="K106" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="L106" t="s">
         <v>388</v>
@@ -5571,7 +5571,7 @@
         <v>110</v>
       </c>
       <c r="C107" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D107" t="s">
         <v>183</v>
@@ -5584,14 +5584,14 @@
       </c>
       <c r="G107" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_QZ1BP_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_CZ1JF_CommissionSummary.pdf</v>
       </c>
       <c r="H107" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_QZ1BP_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_CZ1JF_CommissionDetail.pdf</v>
       </c>
       <c r="K107" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="L107" t="s">
         <v>390</v>
@@ -5605,7 +5605,7 @@
         <v>111</v>
       </c>
       <c r="C108" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D108" t="s">
         <v>183</v>
@@ -5618,14 +5618,14 @@
       </c>
       <c r="G108" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_CZ1JF_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_AZ1CI_CommissionSummary.pdf</v>
       </c>
       <c r="H108" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_CZ1JF_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_AZ1CI_CommissionDetail.pdf</v>
       </c>
       <c r="K108" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="L108" t="s">
         <v>392</v>
@@ -5639,7 +5639,7 @@
         <v>112</v>
       </c>
       <c r="C109" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D109" t="s">
         <v>183</v>
@@ -5652,14 +5652,14 @@
       </c>
       <c r="G109" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_AZ1CI_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_CZ1KM_CommissionSummary.pdf</v>
       </c>
       <c r="H109" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_AZ1CI_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_CZ1KM_CommissionDetail.pdf</v>
       </c>
       <c r="K109" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="L109" t="s">
         <v>394</v>
@@ -5673,7 +5673,7 @@
         <v>113</v>
       </c>
       <c r="C110" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D110" t="s">
         <v>183</v>
@@ -5686,14 +5686,14 @@
       </c>
       <c r="G110" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_CZ1KM_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_CZ1OV_CommissionSummary.pdf</v>
       </c>
       <c r="H110" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_CZ1KM_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_CZ1OV_CommissionDetail.pdf</v>
       </c>
       <c r="K110" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="L110" t="s">
         <v>396</v>
@@ -5707,7 +5707,7 @@
         <v>114</v>
       </c>
       <c r="C111" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D111" t="s">
         <v>183</v>
@@ -5720,14 +5720,14 @@
       </c>
       <c r="G111" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_CZ1OV_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_QZ1JB_CommissionSummary.pdf</v>
       </c>
       <c r="H111" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_CZ1OV_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_QZ1JB_CommissionDetail.pdf</v>
       </c>
       <c r="K111" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="L111" t="s">
         <v>398</v>
@@ -5741,7 +5741,7 @@
         <v>115</v>
       </c>
       <c r="C112" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D112" t="s">
         <v>183</v>
@@ -5754,14 +5754,14 @@
       </c>
       <c r="G112" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_QZ1JB_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_QZ1BG_CommissionSummary.pdf</v>
       </c>
       <c r="H112" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_QZ1JB_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_QZ1BG_CommissionDetail.pdf</v>
       </c>
       <c r="K112" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="L112" t="s">
         <v>400</v>
@@ -5775,7 +5775,7 @@
         <v>116</v>
       </c>
       <c r="C113" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D113" t="s">
         <v>183</v>
@@ -5788,14 +5788,14 @@
       </c>
       <c r="G113" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_QZ1BG_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_CZ1TM_CommissionSummary.pdf</v>
       </c>
       <c r="H113" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_QZ1BG_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_CZ1TM_CommissionDetail.pdf</v>
       </c>
       <c r="K113" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="L113" t="s">
         <v>402</v>
@@ -5806,10 +5806,10 @@
     </row>
     <row r="114" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B114" t="s">
-        <v>117</v>
+        <v>19</v>
       </c>
       <c r="C114" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D114" t="s">
         <v>183</v>
@@ -5822,14 +5822,14 @@
       </c>
       <c r="G114" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_CZ1TM_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_QZ177_CommissionSummary.pdf</v>
       </c>
       <c r="H114" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_CZ1TM_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_QZ177_CommissionDetail.pdf</v>
       </c>
       <c r="K114" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="L114" t="s">
         <v>404</v>
@@ -5840,10 +5840,10 @@
     </row>
     <row r="115" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B115" t="s">
-        <v>19</v>
+        <v>117</v>
       </c>
       <c r="C115" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D115" t="s">
         <v>183</v>
@@ -5856,14 +5856,14 @@
       </c>
       <c r="G115" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_QZ177_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_QZ1BM_CommissionSummary.pdf</v>
       </c>
       <c r="H115" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_QZ177_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_QZ1BM_CommissionDetail.pdf</v>
       </c>
       <c r="K115" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="L115" t="s">
         <v>406</v>
@@ -5877,7 +5877,7 @@
         <v>118</v>
       </c>
       <c r="C116" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D116" t="s">
         <v>183</v>
@@ -5890,14 +5890,14 @@
       </c>
       <c r="G116" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_QZ1BM_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_QZ1MD_CommissionSummary.pdf</v>
       </c>
       <c r="H116" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_QZ1BM_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_QZ1MD_CommissionDetail.pdf</v>
       </c>
       <c r="K116" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="L116" t="s">
         <v>408</v>
@@ -5911,7 +5911,7 @@
         <v>119</v>
       </c>
       <c r="C117" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D117" t="s">
         <v>183</v>
@@ -5924,14 +5924,14 @@
       </c>
       <c r="G117" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_QZ1MD_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_AZ1JB_CommissionSummary.pdf</v>
       </c>
       <c r="H117" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_QZ1MD_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_AZ1JB_CommissionDetail.pdf</v>
       </c>
       <c r="K117" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="L117" t="s">
         <v>410</v>
@@ -5942,10 +5942,10 @@
     </row>
     <row r="118" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B118" t="s">
-        <v>120</v>
+        <v>182</v>
       </c>
       <c r="C118" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D118" t="s">
         <v>183</v>
@@ -5958,14 +5958,14 @@
       </c>
       <c r="G118" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_AZ1JB_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_CZ1AD_CommissionSummary.pdf</v>
       </c>
       <c r="H118" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_AZ1JB_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_CZ1AD_CommissionDetail.pdf</v>
       </c>
       <c r="K118" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="L118" t="s">
         <v>412</v>
@@ -5976,10 +5976,10 @@
     </row>
     <row r="119" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B119" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C119" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D119" t="s">
         <v>183</v>
@@ -5992,14 +5992,14 @@
       </c>
       <c r="G119" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_QZ1ML_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_QZ1ML_CommissionSummary.pdf</v>
       </c>
       <c r="H119" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_QZ1ML_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_QZ1ML_CommissionDetail.pdf</v>
       </c>
       <c r="K119" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="L119" t="s">
         <v>414</v>
@@ -6010,10 +6010,10 @@
     </row>
     <row r="120" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B120" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C120" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D120" t="s">
         <v>183</v>
@@ -6026,14 +6026,14 @@
       </c>
       <c r="G120" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_CZ1FA_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_CZ1FA_CommissionSummary.pdf</v>
       </c>
       <c r="H120" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_CZ1FA_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_CZ1FA_CommissionDetail.pdf</v>
       </c>
       <c r="K120" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="L120" t="s">
         <v>416</v>
@@ -6044,10 +6044,10 @@
     </row>
     <row r="121" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B121" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C121" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D121" t="s">
         <v>183</v>
@@ -6060,14 +6060,14 @@
       </c>
       <c r="G121" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_CZ2SA_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_CZ2SA_CommissionSummary.pdf</v>
       </c>
       <c r="H121" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_CZ2SA_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_CZ2SA_CommissionDetail.pdf</v>
       </c>
       <c r="K121" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="L121" t="s">
         <v>418</v>
@@ -6078,10 +6078,10 @@
     </row>
     <row r="122" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B122" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C122" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D122" t="s">
         <v>183</v>
@@ -6094,14 +6094,14 @@
       </c>
       <c r="G122" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_QZ1SL_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_QZ1SL_CommissionSummary.pdf</v>
       </c>
       <c r="H122" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_QZ1SL_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_QZ1SL_CommissionDetail.pdf</v>
       </c>
       <c r="K122" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="L122" t="s">
         <v>420</v>
@@ -6112,10 +6112,10 @@
     </row>
     <row r="123" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B123" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C123" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D123" t="s">
         <v>183</v>
@@ -6128,14 +6128,14 @@
       </c>
       <c r="G123" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_QZ3JB_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_QZ3JB_CommissionSummary.pdf</v>
       </c>
       <c r="H123" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_QZ3JB_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_QZ3JB_CommissionDetail.pdf</v>
       </c>
       <c r="K123" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="L123" t="s">
         <v>422</v>
@@ -6146,10 +6146,10 @@
     </row>
     <row r="124" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B124" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C124" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D124" t="s">
         <v>183</v>
@@ -6162,14 +6162,14 @@
       </c>
       <c r="G124" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_CZ1CN_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_CZ1CN_CommissionSummary.pdf</v>
       </c>
       <c r="H124" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_CZ1CN_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_CZ1CN_CommissionDetail.pdf</v>
       </c>
       <c r="K124" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="L124" t="s">
         <v>424</v>
@@ -6180,10 +6180,10 @@
     </row>
     <row r="125" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B125" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C125" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D125" t="s">
         <v>183</v>
@@ -6196,14 +6196,14 @@
       </c>
       <c r="G125" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_AZ1YU_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_AZ1YU_CommissionSummary.pdf</v>
       </c>
       <c r="H125" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_AZ1YU_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_AZ1YU_CommissionDetail.pdf</v>
       </c>
       <c r="K125" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="L125" t="s">
         <v>426</v>
@@ -6214,10 +6214,10 @@
     </row>
     <row r="126" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B126" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C126" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D126" t="s">
         <v>183</v>
@@ -6230,14 +6230,14 @@
       </c>
       <c r="G126" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_AZ1WX_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_AZ1WX_CommissionSummary.pdf</v>
       </c>
       <c r="H126" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_AZ1WX_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_AZ1WX_CommissionDetail.pdf</v>
       </c>
       <c r="K126" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="L126" t="s">
         <v>428</v>
@@ -6248,10 +6248,10 @@
     </row>
     <row r="127" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B127" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C127" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D127" t="s">
         <v>183</v>
@@ -6264,14 +6264,14 @@
       </c>
       <c r="G127" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_AZ1XF_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_AZ1XF_CommissionSummary.pdf</v>
       </c>
       <c r="H127" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_AZ1XF_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_AZ1XF_CommissionDetail.pdf</v>
       </c>
       <c r="K127" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="L127" t="s">
         <v>430</v>
@@ -6282,10 +6282,10 @@
     </row>
     <row r="128" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B128" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C128" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D128" t="s">
         <v>183</v>
@@ -6298,14 +6298,14 @@
       </c>
       <c r="G128" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_AZ1XT_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_AZ1XT_CommissionSummary.pdf</v>
       </c>
       <c r="H128" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_AZ1XT_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_AZ1XT_CommissionDetail.pdf</v>
       </c>
       <c r="K128" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="L128" t="s">
         <v>432</v>
@@ -6316,10 +6316,10 @@
     </row>
     <row r="129" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B129" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C129" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D129" t="s">
         <v>183</v>
@@ -6332,14 +6332,14 @@
       </c>
       <c r="G129" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_AZ1YP_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_AZ1YP_CommissionSummary.pdf</v>
       </c>
       <c r="H129" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_AZ1YP_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_AZ1YP_CommissionDetail.pdf</v>
       </c>
       <c r="K129" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="L129" t="s">
         <v>434</v>
@@ -6350,10 +6350,10 @@
     </row>
     <row r="130" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B130" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C130" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D130" t="s">
         <v>183</v>
@@ -6366,14 +6366,14 @@
       </c>
       <c r="G130" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_QZ1XH_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_QZ1XH_CommissionSummary.pdf</v>
       </c>
       <c r="H130" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_QZ1XH_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_QZ1XH_CommissionDetail.pdf</v>
       </c>
       <c r="K130" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="L130" t="s">
         <v>436</v>
@@ -6384,10 +6384,10 @@
     </row>
     <row r="131" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B131" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C131" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D131" t="s">
         <v>183</v>
@@ -6400,14 +6400,14 @@
       </c>
       <c r="G131" t="str">
         <f t="shared" ref="G131:G169" si="4">$K131&amp;"\"&amp;L131</f>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_QZ1TB_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_QZ1TB_CommissionSummary.pdf</v>
       </c>
       <c r="H131" t="str">
         <f t="shared" ref="H131:H169" si="5">$K131&amp;"\"&amp;M131</f>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_QZ1TB_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_QZ1TB_CommissionDetail.pdf</v>
       </c>
       <c r="K131" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="L131" t="s">
         <v>438</v>
@@ -6418,10 +6418,10 @@
     </row>
     <row r="132" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B132" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C132" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D132" t="s">
         <v>183</v>
@@ -6434,14 +6434,14 @@
       </c>
       <c r="G132" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_QZ1TD_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_QZ1TD_CommissionSummary.pdf</v>
       </c>
       <c r="H132" t="str">
         <f t="shared" si="5"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_QZ1TD_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_QZ1TD_CommissionDetail.pdf</v>
       </c>
       <c r="K132" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="L132" t="s">
         <v>440</v>
@@ -6452,10 +6452,10 @@
     </row>
     <row r="133" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B133" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C133" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D133" t="s">
         <v>183</v>
@@ -6468,14 +6468,14 @@
       </c>
       <c r="G133" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_QZ1TK_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_QZ1TK_CommissionSummary.pdf</v>
       </c>
       <c r="H133" t="str">
         <f t="shared" si="5"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_QZ1TK_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_QZ1TK_CommissionDetail.pdf</v>
       </c>
       <c r="K133" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="L133" t="s">
         <v>442</v>
@@ -6486,10 +6486,10 @@
     </row>
     <row r="134" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B134" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C134" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D134" t="s">
         <v>183</v>
@@ -6502,14 +6502,14 @@
       </c>
       <c r="G134" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_QZ1YE_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_QZ1YE_CommissionSummary.pdf</v>
       </c>
       <c r="H134" t="str">
         <f t="shared" si="5"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_QZ1YE_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_QZ1YE_CommissionDetail.pdf</v>
       </c>
       <c r="K134" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="L134" t="s">
         <v>444</v>
@@ -6520,10 +6520,10 @@
     </row>
     <row r="135" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B135" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C135" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D135" t="s">
         <v>183</v>
@@ -6536,14 +6536,14 @@
       </c>
       <c r="G135" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_QZ1TE_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_QZ1TE_CommissionSummary.pdf</v>
       </c>
       <c r="H135" t="str">
         <f t="shared" si="5"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_QZ1TE_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_QZ1TE_CommissionDetail.pdf</v>
       </c>
       <c r="K135" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="L135" t="s">
         <v>446</v>
@@ -6554,10 +6554,10 @@
     </row>
     <row r="136" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B136" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C136" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D136" t="s">
         <v>183</v>
@@ -6570,14 +6570,14 @@
       </c>
       <c r="G136" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_QZ1TI_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_QZ1TI_CommissionSummary.pdf</v>
       </c>
       <c r="H136" t="str">
         <f t="shared" si="5"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_QZ1TI_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_QZ1TI_CommissionDetail.pdf</v>
       </c>
       <c r="K136" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="L136" t="s">
         <v>448</v>
@@ -6588,10 +6588,10 @@
     </row>
     <row r="137" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B137" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C137" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D137" t="s">
         <v>183</v>
@@ -6604,14 +6604,14 @@
       </c>
       <c r="G137" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_CZ1YI_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_CZ1YI_CommissionSummary.pdf</v>
       </c>
       <c r="H137" t="str">
         <f t="shared" si="5"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_CZ1YI_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_CZ1YI_CommissionDetail.pdf</v>
       </c>
       <c r="K137" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="L137" t="s">
         <v>450</v>
@@ -6622,10 +6622,10 @@
     </row>
     <row r="138" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B138" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C138" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D138" t="s">
         <v>183</v>
@@ -6638,14 +6638,14 @@
       </c>
       <c r="G138" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_CZ1YW_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_CZ1YW_CommissionSummary.pdf</v>
       </c>
       <c r="H138" t="str">
         <f t="shared" si="5"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_CZ1YW_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_CZ1YW_CommissionDetail.pdf</v>
       </c>
       <c r="K138" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="L138" t="s">
         <v>452</v>
@@ -6656,10 +6656,10 @@
     </row>
     <row r="139" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B139" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C139" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D139" t="s">
         <v>183</v>
@@ -6672,14 +6672,14 @@
       </c>
       <c r="G139" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_CZ1UE_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_CZ1UE_CommissionSummary.pdf</v>
       </c>
       <c r="H139" t="str">
         <f t="shared" si="5"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_CZ1UE_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_CZ1UE_CommissionDetail.pdf</v>
       </c>
       <c r="K139" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="L139" t="s">
         <v>454</v>
@@ -6690,10 +6690,10 @@
     </row>
     <row r="140" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B140" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C140" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D140" t="s">
         <v>183</v>
@@ -6706,14 +6706,14 @@
       </c>
       <c r="G140" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_CZ1MJ_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_CZ1MJ_CommissionSummary.pdf</v>
       </c>
       <c r="H140" t="str">
         <f t="shared" si="5"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_CZ1MJ_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_CZ1MJ_CommissionDetail.pdf</v>
       </c>
       <c r="K140" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="L140" t="s">
         <v>456</v>
@@ -6724,10 +6724,10 @@
     </row>
     <row r="141" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B141" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C141" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D141" t="s">
         <v>183</v>
@@ -6740,14 +6740,14 @@
       </c>
       <c r="G141" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_CZ1VG_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_CZ1VG_CommissionSummary.pdf</v>
       </c>
       <c r="H141" t="str">
         <f t="shared" si="5"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_CZ1VG_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_CZ1VG_CommissionDetail.pdf</v>
       </c>
       <c r="K141" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="L141" t="s">
         <v>458</v>
@@ -6758,10 +6758,10 @@
     </row>
     <row r="142" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B142" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C142" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D142" t="s">
         <v>183</v>
@@ -6774,14 +6774,14 @@
       </c>
       <c r="G142" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_CZ1VJ_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_CZ1VJ_CommissionSummary.pdf</v>
       </c>
       <c r="H142" t="str">
         <f t="shared" si="5"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_CZ1VJ_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_CZ1VJ_CommissionDetail.pdf</v>
       </c>
       <c r="K142" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="L142" t="s">
         <v>460</v>
@@ -6792,10 +6792,10 @@
     </row>
     <row r="143" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B143" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C143" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D143" t="s">
         <v>183</v>
@@ -6808,14 +6808,14 @@
       </c>
       <c r="G143" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_CZ1MI_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_CZ1MI_CommissionSummary.pdf</v>
       </c>
       <c r="H143" t="str">
         <f t="shared" si="5"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_CZ1MI_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_CZ1MI_CommissionDetail.pdf</v>
       </c>
       <c r="K143" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="L143" t="s">
         <v>462</v>
@@ -6826,10 +6826,10 @@
     </row>
     <row r="144" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B144" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C144" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D144" t="s">
         <v>183</v>
@@ -6842,14 +6842,14 @@
       </c>
       <c r="G144" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_CZ1XD_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_CZ1XD_CommissionSummary.pdf</v>
       </c>
       <c r="H144" t="str">
         <f t="shared" si="5"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_CZ1XD_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_CZ1XD_CommissionDetail.pdf</v>
       </c>
       <c r="K144" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="L144" t="s">
         <v>464</v>
@@ -6860,10 +6860,10 @@
     </row>
     <row r="145" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B145" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C145" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D145" t="s">
         <v>183</v>
@@ -6876,14 +6876,14 @@
       </c>
       <c r="G145" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_CZ1XB_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_CZ1XB_CommissionSummary.pdf</v>
       </c>
       <c r="H145" t="str">
         <f t="shared" si="5"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_CZ1XB_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_CZ1XB_CommissionDetail.pdf</v>
       </c>
       <c r="K145" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="L145" t="s">
         <v>466</v>
@@ -6894,10 +6894,10 @@
     </row>
     <row r="146" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B146" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C146" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D146" t="s">
         <v>183</v>
@@ -6910,14 +6910,14 @@
       </c>
       <c r="G146" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_CZ1WT_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_CZ1WT_CommissionSummary.pdf</v>
       </c>
       <c r="H146" t="str">
         <f t="shared" si="5"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_CZ1WT_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_CZ1WT_CommissionDetail.pdf</v>
       </c>
       <c r="K146" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="L146" t="s">
         <v>468</v>
@@ -6928,10 +6928,10 @@
     </row>
     <row r="147" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B147" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C147" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D147" t="s">
         <v>183</v>
@@ -6944,14 +6944,14 @@
       </c>
       <c r="G147" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_CZ1XA_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_CZ1XA_CommissionSummary.pdf</v>
       </c>
       <c r="H147" t="str">
         <f t="shared" si="5"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_CZ1XA_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_CZ1XA_CommissionDetail.pdf</v>
       </c>
       <c r="K147" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="L147" t="s">
         <v>470</v>
@@ -6962,10 +6962,10 @@
     </row>
     <row r="148" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B148" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C148" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D148" t="s">
         <v>183</v>
@@ -6978,14 +6978,14 @@
       </c>
       <c r="G148" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_WZ2KF_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_WZ2KF_CommissionSummary.pdf</v>
       </c>
       <c r="H148" t="str">
         <f t="shared" si="5"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_WZ2KF_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_WZ2KF_CommissionDetail.pdf</v>
       </c>
       <c r="K148" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="L148" t="s">
         <v>472</v>
@@ -6996,10 +6996,10 @@
     </row>
     <row r="149" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B149" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C149" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D149" t="s">
         <v>183</v>
@@ -7012,14 +7012,14 @@
       </c>
       <c r="G149" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_WZ148_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_WZ148_CommissionSummary.pdf</v>
       </c>
       <c r="H149" t="str">
         <f t="shared" si="5"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_WZ148_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_WZ148_CommissionDetail.pdf</v>
       </c>
       <c r="K149" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="L149" t="s">
         <v>474</v>
@@ -7030,10 +7030,10 @@
     </row>
     <row r="150" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B150" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C150" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D150" t="s">
         <v>183</v>
@@ -7046,14 +7046,14 @@
       </c>
       <c r="G150" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_WZ8GM_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_WZ8GM_CommissionSummary.pdf</v>
       </c>
       <c r="H150" t="str">
         <f t="shared" si="5"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_WZ8GM_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_WZ8GM_CommissionDetail.pdf</v>
       </c>
       <c r="K150" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="L150" t="s">
         <v>476</v>
@@ -7064,10 +7064,10 @@
     </row>
     <row r="151" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B151" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C151" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D151" t="s">
         <v>183</v>
@@ -7080,14 +7080,14 @@
       </c>
       <c r="G151" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_WZ1BH_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_WZ1BH_CommissionSummary.pdf</v>
       </c>
       <c r="H151" t="str">
         <f t="shared" si="5"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_WZ1BH_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_WZ1BH_CommissionDetail.pdf</v>
       </c>
       <c r="K151" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="L151" t="s">
         <v>478</v>
@@ -7098,10 +7098,10 @@
     </row>
     <row r="152" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B152" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C152" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D152" t="s">
         <v>183</v>
@@ -7114,14 +7114,14 @@
       </c>
       <c r="G152" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_WZ114_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_WZ114_CommissionSummary.pdf</v>
       </c>
       <c r="H152" t="str">
         <f t="shared" si="5"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_WZ114_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_WZ114_CommissionDetail.pdf</v>
       </c>
       <c r="K152" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="L152" t="s">
         <v>480</v>
@@ -7132,10 +7132,10 @@
     </row>
     <row r="153" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B153" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C153" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D153" t="s">
         <v>183</v>
@@ -7148,14 +7148,14 @@
       </c>
       <c r="G153" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_WZ1A6_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_WZ1A6_CommissionSummary.pdf</v>
       </c>
       <c r="H153" t="str">
         <f t="shared" si="5"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_WZ1A6_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_WZ1A6_CommissionDetail.pdf</v>
       </c>
       <c r="K153" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="L153" t="s">
         <v>482</v>
@@ -7166,10 +7166,10 @@
     </row>
     <row r="154" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B154" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C154" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D154" t="s">
         <v>183</v>
@@ -7182,14 +7182,14 @@
       </c>
       <c r="G154" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_WZ139_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_WZ139_CommissionSummary.pdf</v>
       </c>
       <c r="H154" t="str">
         <f t="shared" si="5"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_WZ139_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_WZ139_CommissionDetail.pdf</v>
       </c>
       <c r="K154" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="L154" t="s">
         <v>484</v>
@@ -7200,10 +7200,10 @@
     </row>
     <row r="155" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B155" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C155" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D155" t="s">
         <v>183</v>
@@ -7216,14 +7216,14 @@
       </c>
       <c r="G155" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_CZ1VL_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_CZ1VL_CommissionSummary.pdf</v>
       </c>
       <c r="H155" t="str">
         <f t="shared" si="5"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_CZ1VL_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_CZ1VL_CommissionDetail.pdf</v>
       </c>
       <c r="K155" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="L155" t="s">
         <v>486</v>
@@ -7234,10 +7234,10 @@
     </row>
     <row r="156" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B156" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C156" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D156" t="s">
         <v>183</v>
@@ -7250,14 +7250,14 @@
       </c>
       <c r="G156" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_CZ1VK_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_CZ1VK_CommissionSummary.pdf</v>
       </c>
       <c r="H156" t="str">
         <f t="shared" si="5"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_CZ1VK_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_CZ1VK_CommissionDetail.pdf</v>
       </c>
       <c r="K156" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="L156" t="s">
         <v>488</v>
@@ -7268,10 +7268,10 @@
     </row>
     <row r="157" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B157" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C157" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D157" t="s">
         <v>183</v>
@@ -7284,14 +7284,14 @@
       </c>
       <c r="G157" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_CZ1LR_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_CZ1LR_CommissionSummary.pdf</v>
       </c>
       <c r="H157" t="str">
         <f t="shared" si="5"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_CZ1LR_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_CZ1LR_CommissionDetail.pdf</v>
       </c>
       <c r="K157" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="L157" t="s">
         <v>490</v>
@@ -7302,10 +7302,10 @@
     </row>
     <row r="158" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B158" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C158" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D158" t="s">
         <v>183</v>
@@ -7318,14 +7318,14 @@
       </c>
       <c r="G158" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_CZ1UV_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_CZ1UV_CommissionSummary.pdf</v>
       </c>
       <c r="H158" t="str">
         <f t="shared" si="5"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_CZ1UV_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_CZ1UV_CommissionDetail.pdf</v>
       </c>
       <c r="K158" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="L158" t="s">
         <v>492</v>
@@ -7336,10 +7336,10 @@
     </row>
     <row r="159" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B159" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C159" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D159" t="s">
         <v>183</v>
@@ -7352,14 +7352,14 @@
       </c>
       <c r="G159" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_CZ1WV_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_CZ1WV_CommissionSummary.pdf</v>
       </c>
       <c r="H159" t="str">
         <f t="shared" si="5"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_CZ1WV_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_CZ1WV_CommissionDetail.pdf</v>
       </c>
       <c r="K159" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="L159" t="s">
         <v>494</v>
@@ -7370,10 +7370,10 @@
     </row>
     <row r="160" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B160" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C160" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D160" t="s">
         <v>183</v>
@@ -7386,14 +7386,14 @@
       </c>
       <c r="G160" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_CZ1UO_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_CZ1UO_CommissionSummary.pdf</v>
       </c>
       <c r="H160" t="str">
         <f t="shared" si="5"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_CZ1UO_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_CZ1UO_CommissionDetail.pdf</v>
       </c>
       <c r="K160" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="L160" t="s">
         <v>496</v>
@@ -7404,10 +7404,10 @@
     </row>
     <row r="161" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B161" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C161" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D161" t="s">
         <v>183</v>
@@ -7420,14 +7420,14 @@
       </c>
       <c r="G161" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_CZ1XC_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_CZ1XC_CommissionSummary.pdf</v>
       </c>
       <c r="H161" t="str">
         <f t="shared" si="5"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_CZ1XC_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_CZ1XC_CommissionDetail.pdf</v>
       </c>
       <c r="K161" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="L161" t="s">
         <v>498</v>
@@ -7438,10 +7438,10 @@
     </row>
     <row r="162" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B162" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C162" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D162" t="s">
         <v>183</v>
@@ -7454,14 +7454,14 @@
       </c>
       <c r="G162" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_CZ1YN_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_CZ1YN_CommissionSummary.pdf</v>
       </c>
       <c r="H162" t="str">
         <f t="shared" si="5"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_CZ1YN_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_CZ1YN_CommissionDetail.pdf</v>
       </c>
       <c r="K162" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="L162" t="s">
         <v>500</v>
@@ -7472,10 +7472,10 @@
     </row>
     <row r="163" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B163" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C163" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D163" t="s">
         <v>183</v>
@@ -7488,14 +7488,14 @@
       </c>
       <c r="G163" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_CZ1UI_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_CZ1UI_CommissionSummary.pdf</v>
       </c>
       <c r="H163" t="str">
         <f t="shared" si="5"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_CZ1UI_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_CZ1UI_CommissionDetail.pdf</v>
       </c>
       <c r="K163" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="L163" t="s">
         <v>502</v>
@@ -7506,10 +7506,10 @@
     </row>
     <row r="164" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B164" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C164" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D164" t="s">
         <v>183</v>
@@ -7522,14 +7522,14 @@
       </c>
       <c r="G164" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_CZ1UU_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_CZ1UU_CommissionSummary.pdf</v>
       </c>
       <c r="H164" t="str">
         <f t="shared" si="5"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_CZ1UU_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_CZ1UU_CommissionDetail.pdf</v>
       </c>
       <c r="K164" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="L164" t="s">
         <v>504</v>
@@ -7540,10 +7540,10 @@
     </row>
     <row r="165" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B165" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C165" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D165" t="s">
         <v>183</v>
@@ -7556,14 +7556,14 @@
       </c>
       <c r="G165" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_CZ1UW_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_CZ1UW_CommissionSummary.pdf</v>
       </c>
       <c r="H165" t="str">
         <f t="shared" si="5"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_CZ1UW_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_CZ1UW_CommissionDetail.pdf</v>
       </c>
       <c r="K165" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="L165" t="s">
         <v>506</v>
@@ -7574,10 +7574,10 @@
     </row>
     <row r="166" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B166" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C166" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D166" t="s">
         <v>183</v>
@@ -7590,14 +7590,14 @@
       </c>
       <c r="G166" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_CZ1VC_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_CZ1VC_CommissionSummary.pdf</v>
       </c>
       <c r="H166" t="str">
         <f t="shared" si="5"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_CZ1VC_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_CZ1VC_CommissionDetail.pdf</v>
       </c>
       <c r="K166" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="L166" t="s">
         <v>508</v>
@@ -7608,10 +7608,10 @@
     </row>
     <row r="167" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B167" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C167" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D167" t="s">
         <v>183</v>
@@ -7624,14 +7624,14 @@
       </c>
       <c r="G167" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_CZ1UX_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_CZ1UX_CommissionSummary.pdf</v>
       </c>
       <c r="H167" t="str">
         <f t="shared" si="5"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_CZ1UX_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_CZ1UX_CommissionDetail.pdf</v>
       </c>
       <c r="K167" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="L167" t="s">
         <v>510</v>
@@ -7642,10 +7642,10 @@
     </row>
     <row r="168" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B168" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C168" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D168" t="s">
         <v>183</v>
@@ -7658,14 +7658,14 @@
       </c>
       <c r="G168" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_CZ1UZ_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_CZ1UZ_CommissionSummary.pdf</v>
       </c>
       <c r="H168" t="str">
         <f t="shared" si="5"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_CZ1UZ_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_CZ1UZ_CommissionDetail.pdf</v>
       </c>
       <c r="K168" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="L168" t="s">
         <v>512</v>
@@ -7676,10 +7676,10 @@
     </row>
     <row r="169" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B169" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C169" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D169" t="s">
         <v>183</v>
@@ -7692,14 +7692,14 @@
       </c>
       <c r="G169" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_WZ8JP_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_WZ8JP_CommissionSummary.pdf</v>
       </c>
       <c r="H169" t="str">
         <f t="shared" si="5"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201711_WZ8JP_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_WZ8JP_CommissionDetail.pdf</v>
       </c>
       <c r="K169" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="L169" t="s">
         <v>514</v>

--- a/BR_Mailer/J030_COM_FSC/J030_Mailing_List - Excel.xlsx
+++ b/BR_Mailer/J030_COM_FSC/J030_Mailing_List - Excel.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\Business Reporting\ZDEV\BR_Scripts\BRPoSh\BR_Mailer\J030_COM_FSC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\Business Reporting\zDev\BR_Scripts\BRPoSh\BR_Mailer\J030_COM_FSC\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,12 +14,12 @@
   <sheets>
     <sheet name="Trans Page" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1018" uniqueCount="516">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1029" uniqueCount="522">
   <si>
     <t>msg</t>
   </si>
@@ -276,9 +276,6 @@
     <t>Angie.Folk@henryschein.ca</t>
   </si>
   <si>
-    <t>Dan.Valenzuela@henryschein.ca</t>
-  </si>
-  <si>
     <t>Barry.Wolovick@henryschein.ca</t>
   </si>
   <si>
@@ -342,1237 +339,1258 @@
     <t>Maged.Soliman@henryschein.ca</t>
   </si>
   <si>
+    <t>Gerry.Fraser@henryschein.ca</t>
+  </si>
+  <si>
+    <t>Brad.Pelletier@henryschein.ca</t>
+  </si>
+  <si>
+    <t>Jack.Freeborn@henryschein.ca</t>
+  </si>
+  <si>
+    <t>Charles.Ivy@henryschein.ca</t>
+  </si>
+  <si>
+    <t>Kevin.Miller@henryschein.ca</t>
+  </si>
+  <si>
+    <t>Olivia.Vickovich@henryschein.ca</t>
+  </si>
+  <si>
+    <t>Julie.Brosseau@henryschein.ca</t>
+  </si>
+  <si>
+    <t>Bruno.Gascon@henryschein.ca</t>
+  </si>
+  <si>
+    <t>Ted.Moulis@henryschein.ca</t>
+  </si>
+  <si>
+    <t>Barbara.Mcknight@henryschein.ca</t>
+  </si>
+  <si>
+    <t>Melanie.Desjardins@henryschein.ca</t>
+  </si>
+  <si>
+    <t>Janice.Bruce@henryschein.ca</t>
+  </si>
+  <si>
+    <t>Famida.Abrahim@henryschein.ca</t>
+  </si>
+  <si>
+    <t>Simon.Archer@henryschein.ca</t>
+  </si>
+  <si>
+    <t>Suzanne.Lebeau@henryschein.ca</t>
+  </si>
+  <si>
+    <t>Warren.Hayes@henryschein.ca</t>
+  </si>
+  <si>
+    <t>Peter.Sampson@henryschein.ca</t>
+  </si>
+  <si>
+    <t>Jason.Tingley@henryschein.ca</t>
+  </si>
+  <si>
+    <t>Paul.Brown@henryschein.ca</t>
+  </si>
+  <si>
+    <t>Shaun.Sullivan@henryschein.ca</t>
+  </si>
+  <si>
+    <t>Doug.Stevens@henryschein.ca</t>
+  </si>
+  <si>
+    <t>Sebastien.Ferron@henryschein.ca</t>
+  </si>
+  <si>
+    <t>Jocelyn.Brisebois@henryschein.ca</t>
+  </si>
+  <si>
+    <t>Robert.Brunelle@henryschein.ca</t>
+  </si>
+  <si>
+    <t>Joanne.Goulet@henryschein.ca</t>
+  </si>
+  <si>
+    <t>Dominique.Pierrehumbert@henryschein.ca</t>
+  </si>
+  <si>
+    <t>Martine.Pinet@henryschein.ca</t>
+  </si>
+  <si>
+    <t>Stephane.Simard@henryschein.ca</t>
+  </si>
+  <si>
+    <t>Joyce.Galloway-Kent@henryschein.ca</t>
+  </si>
+  <si>
+    <t>Steven.Parker@henryschein.ca</t>
+  </si>
+  <si>
+    <t>Barry.Williams@henryschein.ca</t>
+  </si>
+  <si>
+    <t>Peter.Tario@henryschein.ca</t>
+  </si>
+  <si>
+    <t>Lizabeth.Kemp-Lipnicky@henryschein.ca</t>
+  </si>
+  <si>
+    <t>Laura.Stewart@henryschein.ca</t>
+  </si>
+  <si>
+    <t>Kevin.Riley@henryschein.ca</t>
+  </si>
+  <si>
+    <t>Mark.Scott@henryschein.ca</t>
+  </si>
+  <si>
+    <t>Laurie.Sylvester@henryschein.ca</t>
+  </si>
+  <si>
+    <t>Geoff.Holod@henryschein.ca</t>
+  </si>
+  <si>
+    <t>Karen.Reis@henryschein.ca</t>
+  </si>
+  <si>
+    <t>Kelly.Fradette@henryschein.ca</t>
+  </si>
+  <si>
+    <t>Kathy.Marcia@henryschein.ca</t>
+  </si>
+  <si>
+    <t>Glenn.Maves@henryschein.ca</t>
+  </si>
+  <si>
+    <t>Ron.Poch@henryschein.ca</t>
+  </si>
+  <si>
+    <t>Christine.Park@henryschein.ca</t>
+  </si>
+  <si>
+    <t>Gary.Mitchell@henryschein.ca</t>
+  </si>
+  <si>
+    <t>Glenn.Turko@henryschein.ca</t>
+  </si>
+  <si>
+    <t>Christy.Adamski@henryschein.ca</t>
+  </si>
+  <si>
+    <t>Jennifer.Adamski@henryschein.ca</t>
+  </si>
+  <si>
+    <t>John.Adamski@henryschein.ca</t>
+  </si>
+  <si>
+    <t>Rick.Baxter@henryschein.ca</t>
+  </si>
+  <si>
+    <t>Joe.Clumpus@henryschein.ca</t>
+  </si>
+  <si>
+    <t>Chris.Dynes@henryschein.ca</t>
+  </si>
+  <si>
+    <t>Michael.King@henryschein.ca</t>
+  </si>
+  <si>
+    <t>les.kravitz@henryschein.ca</t>
+  </si>
+  <si>
+    <t>Mark.McCallum@henryschein.ca</t>
+  </si>
+  <si>
+    <t>Janet.Noel@henryschein.ca</t>
+  </si>
+  <si>
+    <t>Tom.Platt@henryschein.ca</t>
+  </si>
+  <si>
+    <t>Eddie.Risi@henryschein.ca</t>
+  </si>
+  <si>
+    <t>Gilda.Wainwright@henryschein.ca</t>
+  </si>
+  <si>
+    <t>John.Wistoski@henryschein.ca</t>
+  </si>
+  <si>
+    <t>Catherine.Morris@henryschein.ca</t>
+  </si>
+  <si>
+    <t>Jamie.Imeson@henryschein.ca</t>
+  </si>
+  <si>
+    <t>Julie.Blackburn@henryschein.ca</t>
+  </si>
+  <si>
+    <t>Megan.Schick@henryschein.ca</t>
+  </si>
+  <si>
+    <t>Jonathan.McKnight@henryschein.ca</t>
+  </si>
+  <si>
+    <t>blank</t>
+  </si>
+  <si>
+    <t>ETU_MSG_FSC_Comm.htm</t>
+  </si>
+  <si>
+    <t>Jessica.Noad@henryschein.ca</t>
+  </si>
+  <si>
+    <t>Carla.Francis@henryschein.ca</t>
+  </si>
+  <si>
+    <t>Marie-Eve.Leclerc@henryschein.ca</t>
+  </si>
+  <si>
+    <t>Rob.Dilallo@henryschein.ca</t>
+  </si>
+  <si>
+    <t>Stephane.Debernardi@henryschein.ca</t>
+  </si>
+  <si>
+    <t>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm</t>
+  </si>
+  <si>
+    <t>Jenna.Plenert@henryschein.ca</t>
+  </si>
+  <si>
+    <t>Alexandra.Zern@henryschein.ca</t>
+  </si>
+  <si>
+    <t>Chris.Murray@henryschein.ca</t>
+  </si>
+  <si>
+    <t>Donnalee.Gilbert@henryschein.ca</t>
+  </si>
+  <si>
+    <t>Lina.Evraire@henryschein.ca</t>
+  </si>
+  <si>
     <t>Don.Fleming@henryschein.ca</t>
   </si>
   <si>
-    <t>Gerry.Fraser@henryschein.ca</t>
-  </si>
-  <si>
-    <t>Brad.Pelletier@henryschein.ca</t>
-  </si>
-  <si>
-    <t>Jack.Freeborn@henryschein.ca</t>
-  </si>
-  <si>
-    <t>Charles.Ivy@henryschein.ca</t>
-  </si>
-  <si>
-    <t>Kevin.Miller@henryschein.ca</t>
-  </si>
-  <si>
-    <t>Olivia.Vickovich@henryschein.ca</t>
-  </si>
-  <si>
-    <t>Julie.Brosseau@henryschein.ca</t>
-  </si>
-  <si>
-    <t>Bruno.Gascon@henryschein.ca</t>
-  </si>
-  <si>
-    <t>Ted.Moulis@henryschein.ca</t>
-  </si>
-  <si>
-    <t>Barbara.Mcknight@henryschein.ca</t>
-  </si>
-  <si>
-    <t>Melanie.Desjardins@henryschein.ca</t>
-  </si>
-  <si>
-    <t>Janice.Bruce@henryschein.ca</t>
-  </si>
-  <si>
-    <t>Famida.Abrahim@henryschein.ca</t>
-  </si>
-  <si>
-    <t>Simon.Archer@henryschein.ca</t>
-  </si>
-  <si>
-    <t>Suzanne.Lebeau@henryschein.ca</t>
-  </si>
-  <si>
-    <t>Warren.Hayes@henryschein.ca</t>
-  </si>
-  <si>
-    <t>Peter.Sampson@henryschein.ca</t>
-  </si>
-  <si>
-    <t>Jason.Tingley@henryschein.ca</t>
-  </si>
-  <si>
-    <t>Paul.Brown@henryschein.ca</t>
-  </si>
-  <si>
-    <t>Shaun.Sullivan@henryschein.ca</t>
-  </si>
-  <si>
-    <t>Doug.Stevens@henryschein.ca</t>
-  </si>
-  <si>
-    <t>Sebastien.Ferron@henryschein.ca</t>
-  </si>
-  <si>
-    <t>Jocelyn.Brisebois@henryschein.ca</t>
-  </si>
-  <si>
-    <t>Robert.Brunelle@henryschein.ca</t>
-  </si>
-  <si>
-    <t>Joanne.Goulet@henryschein.ca</t>
-  </si>
-  <si>
-    <t>Dominique.Pierrehumbert@henryschein.ca</t>
-  </si>
-  <si>
-    <t>Martine.Pinet@henryschein.ca</t>
-  </si>
-  <si>
-    <t>Stephane.Simard@henryschein.ca</t>
-  </si>
-  <si>
-    <t>Joyce.Galloway-Kent@henryschein.ca</t>
-  </si>
-  <si>
-    <t>Steven.Parker@henryschein.ca</t>
-  </si>
-  <si>
-    <t>Barry.Williams@henryschein.ca</t>
-  </si>
-  <si>
-    <t>Peter.Tario@henryschein.ca</t>
-  </si>
-  <si>
-    <t>Lizabeth.Kemp-Lipnicky@henryschein.ca</t>
-  </si>
-  <si>
-    <t>Laura.Stewart@henryschein.ca</t>
-  </si>
-  <si>
-    <t>Kevin.Riley@henryschein.ca</t>
-  </si>
-  <si>
-    <t>Mark.Scott@henryschein.ca</t>
-  </si>
-  <si>
-    <t>Laurie.Sylvester@henryschein.ca</t>
-  </si>
-  <si>
-    <t>Geoff.Holod@henryschein.ca</t>
-  </si>
-  <si>
-    <t>Karen.Reis@henryschein.ca</t>
-  </si>
-  <si>
-    <t>Kelly.Fradette@henryschein.ca</t>
-  </si>
-  <si>
-    <t>Kathy.Marcia@henryschein.ca</t>
-  </si>
-  <si>
-    <t>Glenn.Maves@henryschein.ca</t>
-  </si>
-  <si>
-    <t>Ron.Poch@henryschein.ca</t>
-  </si>
-  <si>
-    <t>Christine.Park@henryschein.ca</t>
-  </si>
-  <si>
-    <t>Gary.Mitchell@henryschein.ca</t>
-  </si>
-  <si>
-    <t>Glenn.Turko@henryschein.ca</t>
-  </si>
-  <si>
-    <t>Christy.Adamski@henryschein.ca</t>
-  </si>
-  <si>
-    <t>Jennifer.Adamski@henryschein.ca</t>
-  </si>
-  <si>
-    <t>John.Adamski@henryschein.ca</t>
-  </si>
-  <si>
-    <t>Rick.Baxter@henryschein.ca</t>
-  </si>
-  <si>
-    <t>Joe.Clumpus@henryschein.ca</t>
-  </si>
-  <si>
-    <t>Chris.Dynes@henryschein.ca</t>
-  </si>
-  <si>
-    <t>Michael.King@henryschein.ca</t>
-  </si>
-  <si>
-    <t>les.kravitz@henryschein.ca</t>
-  </si>
-  <si>
-    <t>Mark.McCallum@henryschein.ca</t>
-  </si>
-  <si>
-    <t>Janet.Noel@henryschein.ca</t>
-  </si>
-  <si>
-    <t>Tom.Platt@henryschein.ca</t>
-  </si>
-  <si>
-    <t>Eddie.Risi@henryschein.ca</t>
-  </si>
-  <si>
-    <t>Gilda.Wainwright@henryschein.ca</t>
-  </si>
-  <si>
-    <t>John.Wistoski@henryschein.ca</t>
-  </si>
-  <si>
-    <t>Catherine.Morris@henryschein.ca</t>
-  </si>
-  <si>
-    <t>Jamie.Imeson@henryschein.ca</t>
-  </si>
-  <si>
-    <t>Julie.Blackburn@henryschein.ca</t>
-  </si>
-  <si>
-    <t>Megan.Schick@henryschein.ca</t>
-  </si>
-  <si>
-    <t>Jonathan.McKnight@henryschein.ca</t>
-  </si>
-  <si>
-    <t>blank</t>
-  </si>
-  <si>
-    <t>ETU_MSG_FSC_Comm.htm</t>
-  </si>
-  <si>
-    <t>Jessica.Noad@henryschein.ca</t>
-  </si>
-  <si>
-    <t>Carla.Francis@henryschein.ca</t>
-  </si>
-  <si>
-    <t>Marie-Eve.Leclerc@henryschein.ca</t>
-  </si>
-  <si>
-    <t>Rob.Dilallo@henryschein.ca</t>
-  </si>
-  <si>
-    <t>Stephane.Debernardi@henryschein.ca</t>
-  </si>
-  <si>
-    <t>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm</t>
-  </si>
-  <si>
-    <t>Jenna.Plenert@henryschein.ca</t>
-  </si>
-  <si>
-    <t>Alexandra.Zern@henryschein.ca</t>
-  </si>
-  <si>
-    <t>Commission Summary and Details for December 2017</t>
-  </si>
-  <si>
-    <t>201712_CZ1SD_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201712_CZ1SD_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201712_CZ125_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201712_CZ125_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201712_CZ124_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201712_CZ124_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201712_QZ132_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201712_QZ132_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201712_CZ128_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201712_CZ128_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201712_CZ144_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201712_CZ144_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201712_CZ165_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201712_CZ165_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201712_QZ178_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201712_QZ178_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201712_CZ183_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201712_CZ183_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201712_CZ107_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201712_CZ107_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201712_CZ109_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201712_CZ109_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201712_AZ112_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201712_AZ112_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201712_CZ1CP_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201712_CZ1CP_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201712_CZ154_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201712_CZ154_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201712_CZ1KD_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201712_CZ1KD_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201712_QZ1CF_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201712_QZ1CF_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201712_CZ1EM_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201712_CZ1EM_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201712_QZ1DP_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201712_QZ1DP_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201712_CZ1DA_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201712_CZ1DA_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201712_QZ1LM_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201712_QZ1LM_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201712_CZ1EE_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201712_CZ1EE_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201712_AZ1EK_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201712_AZ1EK_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201712_AZ1FB_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201712_AZ1FB_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201712_CZ1FP_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201712_CZ1FP_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201712_QZ1FT_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201712_QZ1FT_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201712_QZ1FR_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201712_QZ1FR_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201712_QZ1GO_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201712_QZ1GO_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201712_AZ1KL_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201712_AZ1KL_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201712_QZ1KK_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201712_QZ1KK_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201712_CZ1DN_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201712_CZ1DN_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201712_QZ1EO_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201712_QZ1EO_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201712_CZ1CB_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201712_CZ1CB_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201712_CZ1B8_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201712_CZ1B8_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201712_CZ1C4_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201712_CZ1C4_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201712_QZ1D8_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201712_QZ1D8_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201712_CZ1SW_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201712_CZ1SW_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201712_QZ1AP_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201712_QZ1AP_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201712_CZ2CB_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201712_CZ2CB_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201712_CZ1CG_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201712_CZ1CG_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201712_AZ1PV_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201712_AZ1PV_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201712_CZ3CB_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201712_CZ3CB_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201712_CZ5CS_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201712_CZ5CS_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201712_CZ8JA_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201712_CZ8JA_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201712_QZ7JM_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201712_QZ7JM_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201712_QZ7DO_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201712_QZ7DO_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201712_CZ5TA_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201712_CZ5TA_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201712_CZ2LB_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201712_CZ2LB_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201712_CZ2GB_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201712_CZ2GB_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201712_CZ2LH_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201712_CZ2LH_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201712_CZ2NM_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201712_CZ2NM_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201712_QZ2SB_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201712_QZ2SB_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201712_CZ2BG_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201712_CZ2BG_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201712_CZ1SA_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201712_CZ1SA_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201712_WZ115_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201712_WZ115_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201712_WZ120_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201712_WZ120_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201712_WZ118_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201712_WZ118_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201712_WZ119_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201712_WZ119_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201712_WZ138_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201712_WZ138_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201712_WZ142_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201712_WZ142_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201712_WZ134_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201712_WZ134_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201712_WZ123_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201712_WZ123_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201712_WZ136_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201712_WZ136_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201712_WZ165_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201712_WZ165_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201712_WZ1FF_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201712_WZ1FF_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201712_WZ167_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201712_WZ167_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201712_WZ175_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201712_WZ175_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201712_WZ177_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201712_WZ177_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201712_WZ143_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201712_WZ143_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201712_WZ159_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201712_WZ159_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201712_WZ162_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201712_WZ162_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201712_WZ113_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201712_WZ113_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201712_WZ137_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201712_WZ137_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201712_WZ1G4_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201712_WZ1G4_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201712_WZ1CE_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201712_WZ1CE_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201712_WZBW1_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201712_WZBW1_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201712_WZ9TS_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201712_WZ9TS_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201712_WZ1HM_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201712_WZ1HM_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201712_WZ2RP_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201712_WZ2RP_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201712_WZ1TT_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201712_WZ1TT_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201712_WZ1AM_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201712_WZ1AM_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201712_WZ1JW_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201712_WZ1JW_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201712_WZ1MH_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201712_WZ1MH_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201712_WZ1TM_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201712_WZ1TM_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201712_WZ2AM_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201712_WZ2AM_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201712_WZ1SC_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201712_WZ1SC_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201712_WZ1PB_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201712_WZ1PB_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201712_WZ1JN_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201712_WZ1JN_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201712_WZ1MK_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201712_WZ1MK_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201712_WZ1CA_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201712_WZ1CA_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201712_WZ2TM_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201712_WZ2TM_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201712_WZ1BC_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201712_WZ1BC_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201712_WZ1JL_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201712_WZ1JL_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201712_WZ1AL_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201712_WZ1AL_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201712_WZ1MW_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201712_WZ1MW_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201712_WZ1MS_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201712_WZ1MS_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201712_WZ1DF_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201712_WZ1DF_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201712_WZ1JI_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201712_WZ1JI_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201712_WZ1CM_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201712_WZ1CM_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201712_WZ2MS_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201712_WZ2MS_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201712_WZ2JN_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201712_WZ2JN_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201712_CZ1RD_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201712_CZ1RD_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201712_CZ1GF_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201712_CZ1GF_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201712_QZ1BP_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201712_QZ1BP_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201712_CZ1JF_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201712_CZ1JF_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201712_AZ1CI_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201712_AZ1CI_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201712_CZ1KM_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201712_CZ1KM_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201712_CZ1OV_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201712_CZ1OV_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201712_QZ1JB_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201712_QZ1JB_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201712_QZ1BG_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201712_QZ1BG_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201712_CZ1TM_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201712_CZ1TM_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201712_QZ177_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201712_QZ177_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201712_QZ1BM_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201712_QZ1BM_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201712_QZ1MD_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201712_QZ1MD_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201712_AZ1JB_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201712_AZ1JB_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201712_CZ1AD_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201712_CZ1AD_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201712_QZ1ML_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201712_QZ1ML_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201712_CZ1FA_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201712_CZ1FA_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201712_CZ2SA_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201712_CZ2SA_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201712_QZ1SL_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201712_QZ1SL_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201712_QZ3JB_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201712_QZ3JB_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201712_CZ1CN_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201712_CZ1CN_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201712_AZ1YU_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201712_AZ1YU_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201712_AZ1WX_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201712_AZ1WX_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201712_AZ1XF_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201712_AZ1XF_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201712_AZ1XT_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201712_AZ1XT_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201712_AZ1YP_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201712_AZ1YP_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201712_QZ1XH_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201712_QZ1XH_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201712_QZ1TB_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201712_QZ1TB_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201712_QZ1TD_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201712_QZ1TD_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201712_QZ1TK_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201712_QZ1TK_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201712_QZ1YE_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201712_QZ1YE_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201712_QZ1TE_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201712_QZ1TE_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201712_QZ1TI_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201712_QZ1TI_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201712_CZ1YI_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201712_CZ1YI_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201712_CZ1YW_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201712_CZ1YW_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201712_CZ1UE_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201712_CZ1UE_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201712_CZ1MJ_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201712_CZ1MJ_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201712_CZ1VG_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201712_CZ1VG_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201712_CZ1VJ_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201712_CZ1VJ_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201712_CZ1MI_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201712_CZ1MI_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201712_CZ1XD_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201712_CZ1XD_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201712_CZ1XB_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201712_CZ1XB_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201712_CZ1WT_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201712_CZ1WT_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201712_CZ1XA_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201712_CZ1XA_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201712_WZ2KF_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201712_WZ2KF_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201712_WZ148_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201712_WZ148_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201712_WZ8GM_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201712_WZ8GM_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201712_WZ1BH_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201712_WZ1BH_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201712_WZ114_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201712_WZ114_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201712_WZ1A6_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201712_WZ1A6_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201712_WZ139_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201712_WZ139_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201712_CZ1VL_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201712_CZ1VL_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201712_CZ1VK_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201712_CZ1VK_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201712_CZ1LR_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201712_CZ1LR_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201712_CZ1UV_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201712_CZ1UV_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201712_CZ1WV_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201712_CZ1WV_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201712_CZ1UO_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201712_CZ1UO_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201712_CZ1XC_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201712_CZ1XC_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201712_CZ1YN_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201712_CZ1YN_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201712_CZ1UI_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201712_CZ1UI_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201712_CZ1UU_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201712_CZ1UU_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201712_CZ1UW_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201712_CZ1UW_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201712_CZ1VC_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201712_CZ1VC_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201712_CZ1UX_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201712_CZ1UX_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201712_CZ1UZ_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201712_CZ1UZ_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201712_WZ8JP_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201712_WZ8JP_CommissionDetail.pdf</t>
+    <t>Commission Summary and Details for February 2018</t>
+  </si>
+  <si>
+    <t>201802_CZ1SD_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201802_CZ1SD_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201802_CZ125_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201802_CZ125_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201802_CZ124_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201802_CZ124_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201802_QZ132_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201802_QZ132_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201802_CZ128_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201802_CZ128_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201802_CZ144_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201802_CZ144_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201802_CZ165_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201802_CZ165_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201802_QZ178_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201802_QZ178_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201802_CZ183_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201802_CZ183_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201802_CZ107_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201802_CZ107_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201802_CZ109_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201802_CZ109_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201802_AZ112_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201802_AZ112_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201802_CZ1CP_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201802_CZ1CP_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201802_CZ154_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201802_CZ154_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201802_CZ1KD_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201802_CZ1KD_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201802_QZ1CF_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201802_QZ1CF_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201802_CZ1EM_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201802_CZ1EM_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201802_QZ1DP_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201802_QZ1DP_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201802_CZ1DA_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201802_CZ1DA_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201802_QZ1LM_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201802_QZ1LM_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201802_CZ1EE_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201802_CZ1EE_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201802_AZ1EK_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201802_AZ1EK_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201802_AZ1FB_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201802_AZ1FB_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201802_CZ1FP_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201802_CZ1FP_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201802_QZ1FT_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201802_QZ1FT_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201802_QZ1FR_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201802_QZ1FR_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201802_QZ1GO_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201802_QZ1GO_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201802_AZ1KL_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201802_AZ1KL_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201802_QZ1KK_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201802_QZ1KK_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201802_CZ1DN_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201802_CZ1DN_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201802_QZ1EO_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201802_QZ1EO_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201802_CZ1CB_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201802_CZ1CB_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201802_CZ1B8_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201802_CZ1B8_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201802_CZ1C4_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201802_CZ1C4_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201802_QZ1D8_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201802_QZ1D8_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201802_CZ1SW_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201802_CZ1SW_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201802_QZ1AP_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201802_QZ1AP_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201802_CZ2CB_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201802_CZ2CB_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201802_CZ1CG_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201802_CZ1CG_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201802_AZ1PV_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201802_AZ1PV_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201802_CZ3CB_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201802_CZ3CB_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201802_CZ5CS_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201802_CZ5CS_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201802_CZ8JA_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201802_CZ8JA_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201802_QZ7JM_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201802_QZ7JM_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201802_QZ7DO_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201802_QZ7DO_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201802_CZ5TA_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201802_CZ5TA_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201802_CZ2LB_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201802_CZ2LB_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201802_CZ2GB_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201802_CZ2GB_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201802_CZ2LH_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201802_CZ2LH_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201802_CZ2NM_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201802_CZ2NM_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201802_QZ2SB_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201802_QZ2SB_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201802_CZ2BG_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201802_CZ2BG_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201802_CZ1SA_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201802_CZ1SA_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201802_WZ115_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201802_WZ115_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201802_WZ120_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201802_WZ120_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201802_WZ118_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201802_WZ118_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201802_WZ119_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201802_WZ119_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201802_WZ138_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201802_WZ138_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201802_WZ142_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201802_WZ142_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201802_WZ134_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201802_WZ134_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201802_WZ123_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201802_WZ123_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201802_WZ136_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201802_WZ136_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201802_WZ165_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201802_WZ165_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201802_WZ1FF_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201802_WZ1FF_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201802_WZ167_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201802_WZ167_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201802_WZ175_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201802_WZ175_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201802_WZ177_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201802_WZ177_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201802_WZ143_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201802_WZ143_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201802_WZ159_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201802_WZ159_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201802_WZ162_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201802_WZ162_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201802_WZ113_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201802_WZ113_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201802_WZ137_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201802_WZ137_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201802_WZ1G4_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201802_WZ1G4_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201802_WZBW1_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201802_WZBW1_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201802_WZ9TS_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201802_WZ9TS_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201802_WZ1HM_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201802_WZ1HM_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201802_WZ2RP_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201802_WZ2RP_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201802_WZ1TT_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201802_WZ1TT_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201802_WZ1AM_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201802_WZ1AM_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201802_WZ1JW_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201802_WZ1JW_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201802_WZ1MH_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201802_WZ1MH_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201802_WZ1TM_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201802_WZ1TM_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201802_WZ2AM_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201802_WZ2AM_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201802_WZ1SC_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201802_WZ1SC_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201802_WZ1PB_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201802_WZ1PB_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201802_WZ1JN_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201802_WZ1JN_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201802_WZ1MK_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201802_WZ1MK_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201802_WZ1CA_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201802_WZ1CA_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201802_WZ2TM_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201802_WZ2TM_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201802_WZ1BC_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201802_WZ1BC_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201802_WZ1JL_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201802_WZ1JL_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201802_WZ1AL_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201802_WZ1AL_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201802_WZ1MW_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201802_WZ1MW_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201802_WZ1MS_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201802_WZ1MS_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201802_WZ1DF_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201802_WZ1DF_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201802_WZ1JI_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201802_WZ1JI_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201802_WZ1CM_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201802_WZ1CM_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201802_WZ2MS_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201802_WZ2MS_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201802_WZ2JN_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201802_WZ2JN_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201802_CZ1RD_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201802_CZ1RD_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201802_CZ1GF_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201802_CZ1GF_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201802_QZ1BP_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201802_QZ1BP_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201802_CZ1JF_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201802_CZ1JF_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201802_AZ1CI_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201802_AZ1CI_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201802_CZ1KM_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201802_CZ1KM_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201802_CZ1OV_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201802_CZ1OV_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201802_QZ1JB_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201802_QZ1JB_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201802_QZ1BG_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201802_QZ1BG_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201802_CZ1TM_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201802_CZ1TM_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201802_QZ177_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201802_QZ177_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201802_QZ1BM_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201802_QZ1BM_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201802_QZ1MD_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201802_QZ1MD_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201802_AZ1JB_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201802_AZ1JB_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201802_CZ1AD_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201802_CZ1AD_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201802_QZ1ML_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201802_QZ1ML_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201802_CZ1FA_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201802_CZ1FA_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201802_CZ2SA_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201802_CZ2SA_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201802_QZ1SL_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201802_QZ1SL_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201802_AZ1CM_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201802_AZ1CM_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201802_QZ3JB_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201802_QZ3JB_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201802_CZ1CN_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201802_CZ1CN_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201802_AZ1YU_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201802_AZ1YU_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201802_AZ1WX_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201802_AZ1WX_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201802_AZ1XF_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201802_AZ1XF_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201802_AZ1XT_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201802_AZ1XT_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201802_AZ1YP_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201802_AZ1YP_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201802_QZ1XH_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201802_QZ1XH_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201802_QZ1TB_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201802_QZ1TB_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201802_QZ1TD_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201802_QZ1TD_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201802_QZ1TK_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201802_QZ1TK_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201802_QZ1YE_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201802_QZ1YE_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201802_QZ1TE_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201802_QZ1TE_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201802_QZ1TI_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201802_QZ1TI_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201802_CZ1YI_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201802_CZ1YI_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201802_CZ1YW_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201802_CZ1YW_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201802_CZ1UE_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201802_CZ1UE_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201802_CZ1MJ_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201802_CZ1MJ_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201802_CZ1VG_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201802_CZ1VG_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201802_CZ1VJ_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201802_CZ1VJ_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201802_CZ1MI_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201802_CZ1MI_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201802_CZ1XD_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201802_CZ1XD_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201802_CZ1XB_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201802_CZ1XB_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201802_CZ1WT_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201802_CZ1WT_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201802_CZ1XA_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201802_CZ1XA_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201802_WZ2KF_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201802_WZ2KF_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201802_WZ148_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201802_WZ148_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201802_WZ8GM_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201802_WZ8GM_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201802_WZ1BH_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201802_WZ1BH_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201802_WZ114_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201802_WZ114_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201802_WZ1A6_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201802_WZ1A6_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201802_WZ139_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201802_WZ139_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201802_CZ1VL_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201802_CZ1VL_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201802_CZ1VK_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201802_CZ1VK_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201802_CZ1LR_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201802_CZ1LR_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201802_CZ1UV_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201802_CZ1UV_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201802_CZ1WV_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201802_CZ1WV_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201802_CZ1UO_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201802_CZ1UO_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201802_CZ1XC_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201802_CZ1XC_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201802_CZ1YN_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201802_CZ1YN_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201802_CZ1UI_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201802_CZ1UI_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201802_CZ1UU_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201802_CZ1UU_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201802_CZ1UW_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201802_CZ1UW_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201802_CZ1VC_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201802_CZ1VC_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201802_CZ1UX_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201802_CZ1UX_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201802_CZ1UZ_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201802_CZ1UZ_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201802_WZ9JP_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201802_WZ9JP_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201802_CZ1DG_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201802_CZ1DG_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201802_CZ1LE_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201802_CZ1LE_CommissionDetail.pdf</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1916,19 +1934,23 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:N169"/>
+  <dimension ref="A1:N171"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A134" workbookViewId="0">
+      <selection activeCell="G158" sqref="G158"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="9.5703125" customWidth="1"/>
-    <col min="4" max="4" width="43.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="39.7109375" customWidth="1"/>
+    <col min="4" max="4" width="76.5703125" customWidth="1"/>
     <col min="5" max="6" width="3.28515625" customWidth="1"/>
     <col min="7" max="7" width="9" customWidth="1"/>
     <col min="8" max="8" width="10.5703125" customWidth="1"/>
     <col min="9" max="9" width="3.28515625" customWidth="1"/>
-    <col min="11" max="11" width="6.140625" customWidth="1"/>
+    <col min="10" max="10" width="116.42578125" customWidth="1"/>
+    <col min="11" max="11" width="94.42578125" customWidth="1"/>
     <col min="12" max="12" width="30.42578125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="33.5703125" bestFit="1" customWidth="1"/>
   </cols>
@@ -1962,7 +1984,7 @@
         <v>8</v>
       </c>
       <c r="J1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="K1" t="s">
         <v>11</v>
@@ -1981,11 +2003,11 @@
         <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D2" t="str">
         <f>D3</f>
-        <v>Commission Summary and Details for December 2017</v>
+        <v>Commission Summary and Details for February 2018</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -1995,34 +2017,34 @@
       </c>
       <c r="G2" t="str">
         <f>$K2&amp;"\"&amp;L2</f>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_CZ1SD_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_CZ1SD_CommissionSummary.pdf</v>
       </c>
       <c r="H2" t="str">
         <f>$K2&amp;"\"&amp;M2</f>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_CZ1SD_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_CZ1SD_CommissionDetail.pdf</v>
       </c>
       <c r="K2" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="L2" t="str">
         <f>L3</f>
-        <v>201712_CZ1SD_CommissionSummary.pdf</v>
+        <v>201802_CZ1SD_CommissionSummary.pdf</v>
       </c>
       <c r="M2" t="str">
         <f>M3</f>
-        <v>201712_CZ1SD_CommissionDetail.pdf</v>
+        <v>201802_CZ1SD_CommissionDetail.pdf</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
       <c r="B3" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C3" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D3" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -2032,20 +2054,20 @@
       </c>
       <c r="G3" t="str">
         <f t="shared" ref="G3:G66" si="0">$K3&amp;"\"&amp;L3</f>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_CZ1SD_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_CZ1SD_CommissionSummary.pdf</v>
       </c>
       <c r="H3" t="str">
         <f t="shared" ref="H3:H66" si="1">$K3&amp;"\"&amp;M3</f>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_CZ1SD_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_CZ1SD_CommissionDetail.pdf</v>
       </c>
       <c r="K3" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="L3" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="M3" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
@@ -2054,10 +2076,10 @@
         <v>13</v>
       </c>
       <c r="C4" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D4" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -2067,20 +2089,20 @@
       </c>
       <c r="G4" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_CZ125_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_CZ125_CommissionSummary.pdf</v>
       </c>
       <c r="H4" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_CZ125_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_CZ125_CommissionDetail.pdf</v>
       </c>
       <c r="K4" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="L4" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="M4" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
@@ -2089,10 +2111,10 @@
         <v>14</v>
       </c>
       <c r="C5" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D5" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -2102,20 +2124,20 @@
       </c>
       <c r="G5" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_CZ124_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_CZ124_CommissionSummary.pdf</v>
       </c>
       <c r="H5" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_CZ124_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_CZ124_CommissionDetail.pdf</v>
       </c>
       <c r="K5" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="L5" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="M5" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
@@ -2124,10 +2146,10 @@
         <v>15</v>
       </c>
       <c r="C6" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D6" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -2137,20 +2159,20 @@
       </c>
       <c r="G6" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_QZ132_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_QZ132_CommissionSummary.pdf</v>
       </c>
       <c r="H6" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_QZ132_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_QZ132_CommissionDetail.pdf</v>
       </c>
       <c r="K6" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="L6" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="M6" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
@@ -2159,10 +2181,10 @@
         <v>16</v>
       </c>
       <c r="C7" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -2172,20 +2194,20 @@
       </c>
       <c r="G7" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_CZ128_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_CZ128_CommissionSummary.pdf</v>
       </c>
       <c r="H7" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_CZ128_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_CZ128_CommissionDetail.pdf</v>
       </c>
       <c r="K7" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="L7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="M7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
@@ -2194,10 +2216,10 @@
         <v>17</v>
       </c>
       <c r="C8" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D8" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="E8">
         <v>1</v>
@@ -2207,20 +2229,20 @@
       </c>
       <c r="G8" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_CZ144_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_CZ144_CommissionSummary.pdf</v>
       </c>
       <c r="H8" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_CZ144_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_CZ144_CommissionDetail.pdf</v>
       </c>
       <c r="K8" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="L8" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="M8" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
@@ -2229,10 +2251,10 @@
         <v>18</v>
       </c>
       <c r="C9" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D9" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="E9">
         <v>1</v>
@@ -2242,20 +2264,20 @@
       </c>
       <c r="G9" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_CZ165_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_CZ165_CommissionSummary.pdf</v>
       </c>
       <c r="H9" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_CZ165_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_CZ165_CommissionDetail.pdf</v>
       </c>
       <c r="K9" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="L9" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="M9" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
@@ -2264,10 +2286,10 @@
         <v>20</v>
       </c>
       <c r="C10" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D10" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="E10">
         <v>1</v>
@@ -2277,20 +2299,20 @@
       </c>
       <c r="G10" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_QZ178_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_QZ178_CommissionSummary.pdf</v>
       </c>
       <c r="H10" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_QZ178_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_QZ178_CommissionDetail.pdf</v>
       </c>
       <c r="K10" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="L10" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="M10" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
@@ -2299,10 +2321,10 @@
         <v>21</v>
       </c>
       <c r="C11" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D11" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="E11">
         <v>1</v>
@@ -2312,20 +2334,20 @@
       </c>
       <c r="G11" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_CZ183_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_CZ183_CommissionSummary.pdf</v>
       </c>
       <c r="H11" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_CZ183_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_CZ183_CommissionDetail.pdf</v>
       </c>
       <c r="K11" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="L11" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="M11" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
@@ -2334,10 +2356,10 @@
         <v>22</v>
       </c>
       <c r="C12" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D12" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="E12">
         <v>1</v>
@@ -2347,20 +2369,20 @@
       </c>
       <c r="G12" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_CZ107_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_CZ107_CommissionSummary.pdf</v>
       </c>
       <c r="H12" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_CZ107_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_CZ107_CommissionDetail.pdf</v>
       </c>
       <c r="K12" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="L12" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="M12" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
@@ -2369,10 +2391,10 @@
         <v>23</v>
       </c>
       <c r="C13" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D13" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="E13">
         <v>1</v>
@@ -2382,20 +2404,20 @@
       </c>
       <c r="G13" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_CZ109_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_CZ109_CommissionSummary.pdf</v>
       </c>
       <c r="H13" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_CZ109_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_CZ109_CommissionDetail.pdf</v>
       </c>
       <c r="K13" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="L13" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="M13" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
@@ -2404,10 +2426,10 @@
         <v>24</v>
       </c>
       <c r="C14" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D14" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="E14">
         <v>1</v>
@@ -2417,20 +2439,20 @@
       </c>
       <c r="G14" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_AZ112_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_AZ112_CommissionSummary.pdf</v>
       </c>
       <c r="H14" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_AZ112_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_AZ112_CommissionDetail.pdf</v>
       </c>
       <c r="K14" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="L14" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="M14" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
@@ -2439,10 +2461,10 @@
         <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D15" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="E15">
         <v>1</v>
@@ -2452,20 +2474,20 @@
       </c>
       <c r="G15" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_CZ1CP_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_CZ1CP_CommissionSummary.pdf</v>
       </c>
       <c r="H15" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_CZ1CP_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_CZ1CP_CommissionDetail.pdf</v>
       </c>
       <c r="K15" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="L15" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="M15" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
@@ -2474,10 +2496,10 @@
         <v>26</v>
       </c>
       <c r="C16" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D16" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="E16">
         <v>1</v>
@@ -2487,20 +2509,20 @@
       </c>
       <c r="G16" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_CZ154_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_CZ154_CommissionSummary.pdf</v>
       </c>
       <c r="H16" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_CZ154_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_CZ154_CommissionDetail.pdf</v>
       </c>
       <c r="K16" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="L16" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="M16" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
@@ -2509,10 +2531,10 @@
         <v>27</v>
       </c>
       <c r="C17" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D17" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="E17">
         <v>1</v>
@@ -2522,20 +2544,20 @@
       </c>
       <c r="G17" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_CZ1KD_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_CZ1KD_CommissionSummary.pdf</v>
       </c>
       <c r="H17" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_CZ1KD_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_CZ1KD_CommissionDetail.pdf</v>
       </c>
       <c r="K17" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="L17" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="M17" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
@@ -2544,10 +2566,10 @@
         <v>28</v>
       </c>
       <c r="C18" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D18" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="E18">
         <v>1</v>
@@ -2557,20 +2579,20 @@
       </c>
       <c r="G18" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_QZ1CF_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_QZ1CF_CommissionSummary.pdf</v>
       </c>
       <c r="H18" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_QZ1CF_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_QZ1CF_CommissionDetail.pdf</v>
       </c>
       <c r="K18" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="L18" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="M18" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
@@ -2579,10 +2601,10 @@
         <v>29</v>
       </c>
       <c r="C19" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D19" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="E19">
         <v>1</v>
@@ -2592,20 +2614,20 @@
       </c>
       <c r="G19" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_CZ1EM_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_CZ1EM_CommissionSummary.pdf</v>
       </c>
       <c r="H19" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_CZ1EM_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_CZ1EM_CommissionDetail.pdf</v>
       </c>
       <c r="K19" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="L19" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="M19" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
@@ -2613,10 +2635,10 @@
         <v>30</v>
       </c>
       <c r="C20" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D20" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="E20">
         <v>1</v>
@@ -2626,20 +2648,20 @@
       </c>
       <c r="G20" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_QZ1DP_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_QZ1DP_CommissionSummary.pdf</v>
       </c>
       <c r="H20" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_QZ1DP_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_QZ1DP_CommissionDetail.pdf</v>
       </c>
       <c r="K20" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="L20" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="M20" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
@@ -2647,10 +2669,10 @@
         <v>31</v>
       </c>
       <c r="C21" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D21" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="E21">
         <v>1</v>
@@ -2660,20 +2682,20 @@
       </c>
       <c r="G21" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_CZ1DA_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_CZ1DA_CommissionSummary.pdf</v>
       </c>
       <c r="H21" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_CZ1DA_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_CZ1DA_CommissionDetail.pdf</v>
       </c>
       <c r="K21" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="L21" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="M21" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
@@ -2681,10 +2703,10 @@
         <v>32</v>
       </c>
       <c r="C22" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D22" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="E22">
         <v>1</v>
@@ -2694,20 +2716,20 @@
       </c>
       <c r="G22" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_QZ1LM_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_QZ1LM_CommissionSummary.pdf</v>
       </c>
       <c r="H22" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_QZ1LM_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_QZ1LM_CommissionDetail.pdf</v>
       </c>
       <c r="K22" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="L22" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="M22" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
@@ -2715,10 +2737,10 @@
         <v>33</v>
       </c>
       <c r="C23" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D23" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="E23">
         <v>1</v>
@@ -2728,20 +2750,20 @@
       </c>
       <c r="G23" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_CZ1EE_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_CZ1EE_CommissionSummary.pdf</v>
       </c>
       <c r="H23" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_CZ1EE_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_CZ1EE_CommissionDetail.pdf</v>
       </c>
       <c r="K23" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="L23" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="M23" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
@@ -2749,10 +2771,10 @@
         <v>34</v>
       </c>
       <c r="C24" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D24" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="E24">
         <v>1</v>
@@ -2762,20 +2784,20 @@
       </c>
       <c r="G24" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_AZ1EK_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_AZ1EK_CommissionSummary.pdf</v>
       </c>
       <c r="H24" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_AZ1EK_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_AZ1EK_CommissionDetail.pdf</v>
       </c>
       <c r="K24" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="L24" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="M24" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
@@ -2783,10 +2805,10 @@
         <v>35</v>
       </c>
       <c r="C25" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D25" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="E25">
         <v>1</v>
@@ -2796,20 +2818,20 @@
       </c>
       <c r="G25" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_AZ1FB_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_AZ1FB_CommissionSummary.pdf</v>
       </c>
       <c r="H25" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_AZ1FB_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_AZ1FB_CommissionDetail.pdf</v>
       </c>
       <c r="K25" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="L25" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="M25" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
@@ -2817,10 +2839,10 @@
         <v>36</v>
       </c>
       <c r="C26" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D26" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="E26">
         <v>1</v>
@@ -2830,20 +2852,20 @@
       </c>
       <c r="G26" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_CZ1FP_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_CZ1FP_CommissionSummary.pdf</v>
       </c>
       <c r="H26" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_CZ1FP_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_CZ1FP_CommissionDetail.pdf</v>
       </c>
       <c r="K26" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="L26" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="M26" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
@@ -2851,10 +2873,10 @@
         <v>37</v>
       </c>
       <c r="C27" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D27" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="E27">
         <v>1</v>
@@ -2864,20 +2886,20 @@
       </c>
       <c r="G27" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_QZ1FT_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_QZ1FT_CommissionSummary.pdf</v>
       </c>
       <c r="H27" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_QZ1FT_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_QZ1FT_CommissionDetail.pdf</v>
       </c>
       <c r="K27" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="L27" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="M27" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
@@ -2885,10 +2907,10 @@
         <v>38</v>
       </c>
       <c r="C28" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D28" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="E28">
         <v>1</v>
@@ -2898,20 +2920,20 @@
       </c>
       <c r="G28" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_QZ1FR_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_QZ1FR_CommissionSummary.pdf</v>
       </c>
       <c r="H28" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_QZ1FR_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_QZ1FR_CommissionDetail.pdf</v>
       </c>
       <c r="K28" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="L28" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="M28" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
@@ -2919,10 +2941,10 @@
         <v>39</v>
       </c>
       <c r="C29" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D29" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="E29">
         <v>1</v>
@@ -2932,20 +2954,20 @@
       </c>
       <c r="G29" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_QZ1GO_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_QZ1GO_CommissionSummary.pdf</v>
       </c>
       <c r="H29" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_QZ1GO_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_QZ1GO_CommissionDetail.pdf</v>
       </c>
       <c r="K29" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="L29" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="M29" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
@@ -2953,10 +2975,10 @@
         <v>40</v>
       </c>
       <c r="C30" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D30" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="E30">
         <v>1</v>
@@ -2966,20 +2988,20 @@
       </c>
       <c r="G30" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_AZ1KL_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_AZ1KL_CommissionSummary.pdf</v>
       </c>
       <c r="H30" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_AZ1KL_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_AZ1KL_CommissionDetail.pdf</v>
       </c>
       <c r="K30" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="L30" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="M30" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
@@ -2987,10 +3009,10 @@
         <v>41</v>
       </c>
       <c r="C31" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D31" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="E31">
         <v>1</v>
@@ -3000,20 +3022,20 @@
       </c>
       <c r="G31" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_QZ1KK_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_QZ1KK_CommissionSummary.pdf</v>
       </c>
       <c r="H31" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_QZ1KK_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_QZ1KK_CommissionDetail.pdf</v>
       </c>
       <c r="K31" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="L31" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="M31" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
@@ -3021,10 +3043,10 @@
         <v>42</v>
       </c>
       <c r="C32" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D32" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="E32">
         <v>1</v>
@@ -3034,20 +3056,20 @@
       </c>
       <c r="G32" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_CZ1DN_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_CZ1DN_CommissionSummary.pdf</v>
       </c>
       <c r="H32" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_CZ1DN_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_CZ1DN_CommissionDetail.pdf</v>
       </c>
       <c r="K32" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="L32" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="M32" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
     </row>
     <row r="33" spans="2:13" x14ac:dyDescent="0.25">
@@ -3055,10 +3077,10 @@
         <v>43</v>
       </c>
       <c r="C33" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D33" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="E33">
         <v>1</v>
@@ -3068,20 +3090,20 @@
       </c>
       <c r="G33" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_QZ1EO_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_QZ1EO_CommissionSummary.pdf</v>
       </c>
       <c r="H33" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_QZ1EO_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_QZ1EO_CommissionDetail.pdf</v>
       </c>
       <c r="K33" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="L33" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="M33" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="34" spans="2:13" x14ac:dyDescent="0.25">
@@ -3089,10 +3111,10 @@
         <v>44</v>
       </c>
       <c r="C34" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D34" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="E34">
         <v>1</v>
@@ -3102,20 +3124,20 @@
       </c>
       <c r="G34" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_CZ1CB_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_CZ1CB_CommissionSummary.pdf</v>
       </c>
       <c r="H34" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_CZ1CB_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_CZ1CB_CommissionDetail.pdf</v>
       </c>
       <c r="K34" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="L34" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="M34" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
     </row>
     <row r="35" spans="2:13" x14ac:dyDescent="0.25">
@@ -3123,10 +3145,10 @@
         <v>45</v>
       </c>
       <c r="C35" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D35" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="E35">
         <v>1</v>
@@ -3136,20 +3158,20 @@
       </c>
       <c r="G35" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_CZ1B8_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_CZ1B8_CommissionSummary.pdf</v>
       </c>
       <c r="H35" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_CZ1B8_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_CZ1B8_CommissionDetail.pdf</v>
       </c>
       <c r="K35" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="L35" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="M35" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
     </row>
     <row r="36" spans="2:13" x14ac:dyDescent="0.25">
@@ -3157,10 +3179,10 @@
         <v>46</v>
       </c>
       <c r="C36" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D36" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="E36">
         <v>1</v>
@@ -3170,20 +3192,20 @@
       </c>
       <c r="G36" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_CZ1C4_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_CZ1C4_CommissionSummary.pdf</v>
       </c>
       <c r="H36" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_CZ1C4_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_CZ1C4_CommissionDetail.pdf</v>
       </c>
       <c r="K36" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="L36" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="M36" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
     </row>
     <row r="37" spans="2:13" x14ac:dyDescent="0.25">
@@ -3191,10 +3213,10 @@
         <v>47</v>
       </c>
       <c r="C37" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D37" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="E37">
         <v>1</v>
@@ -3204,20 +3226,20 @@
       </c>
       <c r="G37" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_QZ1D8_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_QZ1D8_CommissionSummary.pdf</v>
       </c>
       <c r="H37" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_QZ1D8_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_QZ1D8_CommissionDetail.pdf</v>
       </c>
       <c r="K37" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="L37" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="M37" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
     </row>
     <row r="38" spans="2:13" x14ac:dyDescent="0.25">
@@ -3225,10 +3247,10 @@
         <v>48</v>
       </c>
       <c r="C38" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D38" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="E38">
         <v>1</v>
@@ -3238,20 +3260,20 @@
       </c>
       <c r="G38" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_CZ1SW_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_CZ1SW_CommissionSummary.pdf</v>
       </c>
       <c r="H38" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_CZ1SW_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_CZ1SW_CommissionDetail.pdf</v>
       </c>
       <c r="K38" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="L38" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="M38" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
     </row>
     <row r="39" spans="2:13" x14ac:dyDescent="0.25">
@@ -3259,10 +3281,10 @@
         <v>49</v>
       </c>
       <c r="C39" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D39" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="E39">
         <v>1</v>
@@ -3272,20 +3294,20 @@
       </c>
       <c r="G39" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_QZ1AP_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_QZ1AP_CommissionSummary.pdf</v>
       </c>
       <c r="H39" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_QZ1AP_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_QZ1AP_CommissionDetail.pdf</v>
       </c>
       <c r="K39" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="L39" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="M39" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
     </row>
     <row r="40" spans="2:13" x14ac:dyDescent="0.25">
@@ -3293,10 +3315,10 @@
         <v>50</v>
       </c>
       <c r="C40" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D40" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="E40">
         <v>1</v>
@@ -3306,20 +3328,20 @@
       </c>
       <c r="G40" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_CZ2CB_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_CZ2CB_CommissionSummary.pdf</v>
       </c>
       <c r="H40" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_CZ2CB_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_CZ2CB_CommissionDetail.pdf</v>
       </c>
       <c r="K40" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="L40" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="M40" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
     </row>
     <row r="41" spans="2:13" x14ac:dyDescent="0.25">
@@ -3327,10 +3349,10 @@
         <v>51</v>
       </c>
       <c r="C41" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D41" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="E41">
         <v>1</v>
@@ -3340,20 +3362,20 @@
       </c>
       <c r="G41" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_CZ1CG_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_CZ1CG_CommissionSummary.pdf</v>
       </c>
       <c r="H41" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_CZ1CG_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_CZ1CG_CommissionDetail.pdf</v>
       </c>
       <c r="K41" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="L41" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="M41" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
     </row>
     <row r="42" spans="2:13" x14ac:dyDescent="0.25">
@@ -3361,10 +3383,10 @@
         <v>52</v>
       </c>
       <c r="C42" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D42" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="E42">
         <v>1</v>
@@ -3374,20 +3396,20 @@
       </c>
       <c r="G42" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_AZ1PV_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_AZ1PV_CommissionSummary.pdf</v>
       </c>
       <c r="H42" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_AZ1PV_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_AZ1PV_CommissionDetail.pdf</v>
       </c>
       <c r="K42" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="L42" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="M42" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
     </row>
     <row r="43" spans="2:13" x14ac:dyDescent="0.25">
@@ -3395,10 +3417,10 @@
         <v>53</v>
       </c>
       <c r="C43" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D43" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="E43">
         <v>1</v>
@@ -3408,20 +3430,20 @@
       </c>
       <c r="G43" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_CZ3CB_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_CZ3CB_CommissionSummary.pdf</v>
       </c>
       <c r="H43" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_CZ3CB_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_CZ3CB_CommissionDetail.pdf</v>
       </c>
       <c r="K43" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="L43" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="M43" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
     </row>
     <row r="44" spans="2:13" x14ac:dyDescent="0.25">
@@ -3429,10 +3451,10 @@
         <v>54</v>
       </c>
       <c r="C44" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D44" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="E44">
         <v>1</v>
@@ -3442,20 +3464,20 @@
       </c>
       <c r="G44" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_CZ5CS_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_CZ5CS_CommissionSummary.pdf</v>
       </c>
       <c r="H44" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_CZ5CS_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_CZ5CS_CommissionDetail.pdf</v>
       </c>
       <c r="K44" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="L44" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="M44" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
     </row>
     <row r="45" spans="2:13" x14ac:dyDescent="0.25">
@@ -3463,10 +3485,10 @@
         <v>55</v>
       </c>
       <c r="C45" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D45" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="E45">
         <v>1</v>
@@ -3476,31 +3498,31 @@
       </c>
       <c r="G45" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_CZ8JA_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_CZ8JA_CommissionSummary.pdf</v>
       </c>
       <c r="H45" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_CZ8JA_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_CZ8JA_CommissionDetail.pdf</v>
       </c>
       <c r="K45" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="L45" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="M45" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
     </row>
     <row r="46" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C46" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D46" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="E46">
         <v>1</v>
@@ -3510,20 +3532,20 @@
       </c>
       <c r="G46" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_QZ7JM_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_QZ7JM_CommissionSummary.pdf</v>
       </c>
       <c r="H46" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_QZ7JM_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_QZ7JM_CommissionDetail.pdf</v>
       </c>
       <c r="K46" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="L46" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="M46" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
     </row>
     <row r="47" spans="2:13" x14ac:dyDescent="0.25">
@@ -3531,10 +3553,10 @@
         <v>56</v>
       </c>
       <c r="C47" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D47" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="E47">
         <v>1</v>
@@ -3544,20 +3566,20 @@
       </c>
       <c r="G47" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_QZ7DO_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_QZ7DO_CommissionSummary.pdf</v>
       </c>
       <c r="H47" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_QZ7DO_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_QZ7DO_CommissionDetail.pdf</v>
       </c>
       <c r="K47" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="L47" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="M47" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
     </row>
     <row r="48" spans="2:13" x14ac:dyDescent="0.25">
@@ -3565,10 +3587,10 @@
         <v>57</v>
       </c>
       <c r="C48" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D48" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="E48">
         <v>1</v>
@@ -3578,20 +3600,20 @@
       </c>
       <c r="G48" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_CZ5TA_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_CZ5TA_CommissionSummary.pdf</v>
       </c>
       <c r="H48" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_CZ5TA_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_CZ5TA_CommissionDetail.pdf</v>
       </c>
       <c r="K48" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="L48" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="M48" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
     </row>
     <row r="49" spans="2:13" x14ac:dyDescent="0.25">
@@ -3599,10 +3621,10 @@
         <v>58</v>
       </c>
       <c r="C49" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D49" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="E49">
         <v>1</v>
@@ -3612,20 +3634,20 @@
       </c>
       <c r="G49" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_CZ2LB_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_CZ2LB_CommissionSummary.pdf</v>
       </c>
       <c r="H49" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_CZ2LB_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_CZ2LB_CommissionDetail.pdf</v>
       </c>
       <c r="K49" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="L49" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="M49" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
     </row>
     <row r="50" spans="2:13" x14ac:dyDescent="0.25">
@@ -3633,10 +3655,10 @@
         <v>59</v>
       </c>
       <c r="C50" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D50" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="E50">
         <v>1</v>
@@ -3646,20 +3668,20 @@
       </c>
       <c r="G50" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_CZ2GB_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_CZ2GB_CommissionSummary.pdf</v>
       </c>
       <c r="H50" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_CZ2GB_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_CZ2GB_CommissionDetail.pdf</v>
       </c>
       <c r="K50" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="L50" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="M50" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
     </row>
     <row r="51" spans="2:13" x14ac:dyDescent="0.25">
@@ -3667,10 +3689,10 @@
         <v>60</v>
       </c>
       <c r="C51" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D51" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="E51">
         <v>1</v>
@@ -3680,20 +3702,20 @@
       </c>
       <c r="G51" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_CZ2LH_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_CZ2LH_CommissionSummary.pdf</v>
       </c>
       <c r="H51" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_CZ2LH_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_CZ2LH_CommissionDetail.pdf</v>
       </c>
       <c r="K51" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="L51" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="M51" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
     </row>
     <row r="52" spans="2:13" x14ac:dyDescent="0.25">
@@ -3701,10 +3723,10 @@
         <v>61</v>
       </c>
       <c r="C52" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D52" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="E52">
         <v>1</v>
@@ -3714,20 +3736,20 @@
       </c>
       <c r="G52" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_CZ2NM_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_CZ2NM_CommissionSummary.pdf</v>
       </c>
       <c r="H52" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_CZ2NM_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_CZ2NM_CommissionDetail.pdf</v>
       </c>
       <c r="K52" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="L52" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="M52" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
     </row>
     <row r="53" spans="2:13" x14ac:dyDescent="0.25">
@@ -3735,10 +3757,10 @@
         <v>62</v>
       </c>
       <c r="C53" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D53" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="E53">
         <v>1</v>
@@ -3748,20 +3770,20 @@
       </c>
       <c r="G53" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_QZ2SB_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_QZ2SB_CommissionSummary.pdf</v>
       </c>
       <c r="H53" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_QZ2SB_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_QZ2SB_CommissionDetail.pdf</v>
       </c>
       <c r="K53" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="L53" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="M53" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
     </row>
     <row r="54" spans="2:13" x14ac:dyDescent="0.25">
@@ -3769,10 +3791,10 @@
         <v>63</v>
       </c>
       <c r="C54" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D54" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="E54">
         <v>1</v>
@@ -3782,20 +3804,20 @@
       </c>
       <c r="G54" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_CZ2BG_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_CZ2BG_CommissionSummary.pdf</v>
       </c>
       <c r="H54" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_CZ2BG_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_CZ2BG_CommissionDetail.pdf</v>
       </c>
       <c r="K54" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="L54" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="M54" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
     </row>
     <row r="55" spans="2:13" x14ac:dyDescent="0.25">
@@ -3803,10 +3825,10 @@
         <v>64</v>
       </c>
       <c r="C55" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D55" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="E55">
         <v>1</v>
@@ -3816,20 +3838,20 @@
       </c>
       <c r="G55" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_CZ1SA_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_CZ1SA_CommissionSummary.pdf</v>
       </c>
       <c r="H55" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_CZ1SA_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_CZ1SA_CommissionDetail.pdf</v>
       </c>
       <c r="K55" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="L55" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="M55" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
     </row>
     <row r="56" spans="2:13" x14ac:dyDescent="0.25">
@@ -3837,10 +3859,10 @@
         <v>65</v>
       </c>
       <c r="C56" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D56" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="E56">
         <v>1</v>
@@ -3850,20 +3872,20 @@
       </c>
       <c r="G56" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_WZ115_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_WZ115_CommissionSummary.pdf</v>
       </c>
       <c r="H56" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_WZ115_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_WZ115_CommissionDetail.pdf</v>
       </c>
       <c r="K56" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="L56" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="M56" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
     </row>
     <row r="57" spans="2:13" x14ac:dyDescent="0.25">
@@ -3871,10 +3893,10 @@
         <v>66</v>
       </c>
       <c r="C57" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D57" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="E57">
         <v>1</v>
@@ -3884,20 +3906,20 @@
       </c>
       <c r="G57" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_WZ120_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_WZ120_CommissionSummary.pdf</v>
       </c>
       <c r="H57" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_WZ120_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_WZ120_CommissionDetail.pdf</v>
       </c>
       <c r="K57" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="L57" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="M57" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
     </row>
     <row r="58" spans="2:13" x14ac:dyDescent="0.25">
@@ -3905,10 +3927,10 @@
         <v>67</v>
       </c>
       <c r="C58" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D58" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="E58">
         <v>1</v>
@@ -3918,20 +3940,20 @@
       </c>
       <c r="G58" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_WZ118_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_WZ118_CommissionSummary.pdf</v>
       </c>
       <c r="H58" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_WZ118_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_WZ118_CommissionDetail.pdf</v>
       </c>
       <c r="K58" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="L58" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="M58" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
     </row>
     <row r="59" spans="2:13" x14ac:dyDescent="0.25">
@@ -3939,10 +3961,10 @@
         <v>68</v>
       </c>
       <c r="C59" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D59" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="E59">
         <v>1</v>
@@ -3952,20 +3974,20 @@
       </c>
       <c r="G59" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_WZ119_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_WZ119_CommissionSummary.pdf</v>
       </c>
       <c r="H59" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_WZ119_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_WZ119_CommissionDetail.pdf</v>
       </c>
       <c r="K59" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="L59" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="M59" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
     </row>
     <row r="60" spans="2:13" x14ac:dyDescent="0.25">
@@ -3973,10 +3995,10 @@
         <v>69</v>
       </c>
       <c r="C60" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D60" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="E60">
         <v>1</v>
@@ -3986,20 +4008,20 @@
       </c>
       <c r="G60" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_WZ138_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_WZ138_CommissionSummary.pdf</v>
       </c>
       <c r="H60" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_WZ138_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_WZ138_CommissionDetail.pdf</v>
       </c>
       <c r="K60" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="L60" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="M60" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
     </row>
     <row r="61" spans="2:13" x14ac:dyDescent="0.25">
@@ -4007,10 +4029,10 @@
         <v>70</v>
       </c>
       <c r="C61" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D61" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="E61">
         <v>1</v>
@@ -4020,20 +4042,20 @@
       </c>
       <c r="G61" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_WZ142_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_WZ142_CommissionSummary.pdf</v>
       </c>
       <c r="H61" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_WZ142_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_WZ142_CommissionDetail.pdf</v>
       </c>
       <c r="K61" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="L61" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="M61" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
     </row>
     <row r="62" spans="2:13" x14ac:dyDescent="0.25">
@@ -4041,10 +4063,10 @@
         <v>71</v>
       </c>
       <c r="C62" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D62" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="E62">
         <v>1</v>
@@ -4054,20 +4076,20 @@
       </c>
       <c r="G62" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_WZ134_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_WZ134_CommissionSummary.pdf</v>
       </c>
       <c r="H62" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_WZ134_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_WZ134_CommissionDetail.pdf</v>
       </c>
       <c r="K62" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="L62" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="M62" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
     </row>
     <row r="63" spans="2:13" x14ac:dyDescent="0.25">
@@ -4075,10 +4097,10 @@
         <v>72</v>
       </c>
       <c r="C63" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D63" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="E63">
         <v>1</v>
@@ -4088,20 +4110,20 @@
       </c>
       <c r="G63" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_WZ123_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_WZ123_CommissionSummary.pdf</v>
       </c>
       <c r="H63" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_WZ123_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_WZ123_CommissionDetail.pdf</v>
       </c>
       <c r="K63" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="L63" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="M63" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
     </row>
     <row r="64" spans="2:13" x14ac:dyDescent="0.25">
@@ -4109,10 +4131,10 @@
         <v>73</v>
       </c>
       <c r="C64" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D64" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="E64">
         <v>1</v>
@@ -4122,20 +4144,20 @@
       </c>
       <c r="G64" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_WZ136_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_WZ136_CommissionSummary.pdf</v>
       </c>
       <c r="H64" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_WZ136_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_WZ136_CommissionDetail.pdf</v>
       </c>
       <c r="K64" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="L64" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="M64" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
     </row>
     <row r="65" spans="2:13" x14ac:dyDescent="0.25">
@@ -4143,10 +4165,10 @@
         <v>74</v>
       </c>
       <c r="C65" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D65" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="E65">
         <v>1</v>
@@ -4156,20 +4178,20 @@
       </c>
       <c r="G65" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_WZ165_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_WZ165_CommissionSummary.pdf</v>
       </c>
       <c r="H65" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_WZ165_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_WZ165_CommissionDetail.pdf</v>
       </c>
       <c r="K65" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="L65" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="M65" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
     </row>
     <row r="66" spans="2:13" x14ac:dyDescent="0.25">
@@ -4177,10 +4199,10 @@
         <v>75</v>
       </c>
       <c r="C66" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D66" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="E66">
         <v>1</v>
@@ -4190,20 +4212,20 @@
       </c>
       <c r="G66" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_WZ1FF_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_WZ1FF_CommissionSummary.pdf</v>
       </c>
       <c r="H66" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_WZ1FF_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_WZ1FF_CommissionDetail.pdf</v>
       </c>
       <c r="K66" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="L66" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="M66" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
     </row>
     <row r="67" spans="2:13" x14ac:dyDescent="0.25">
@@ -4211,10 +4233,10 @@
         <v>76</v>
       </c>
       <c r="C67" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D67" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="E67">
         <v>1</v>
@@ -4224,20 +4246,20 @@
       </c>
       <c r="G67" t="str">
         <f t="shared" ref="G67:G130" si="2">$K67&amp;"\"&amp;L67</f>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_WZ167_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_WZ167_CommissionSummary.pdf</v>
       </c>
       <c r="H67" t="str">
         <f t="shared" ref="H67:H130" si="3">$K67&amp;"\"&amp;M67</f>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_WZ167_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_WZ167_CommissionDetail.pdf</v>
       </c>
       <c r="K67" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="L67" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="M67" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
     </row>
     <row r="68" spans="2:13" x14ac:dyDescent="0.25">
@@ -4245,10 +4267,10 @@
         <v>77</v>
       </c>
       <c r="C68" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D68" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="E68">
         <v>1</v>
@@ -4258,20 +4280,20 @@
       </c>
       <c r="G68" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_WZ175_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_WZ175_CommissionSummary.pdf</v>
       </c>
       <c r="H68" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_WZ175_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_WZ175_CommissionDetail.pdf</v>
       </c>
       <c r="K68" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="L68" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="M68" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
     </row>
     <row r="69" spans="2:13" x14ac:dyDescent="0.25">
@@ -4279,10 +4301,10 @@
         <v>78</v>
       </c>
       <c r="C69" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D69" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="E69">
         <v>1</v>
@@ -4292,20 +4314,20 @@
       </c>
       <c r="G69" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_WZ177_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_WZ177_CommissionSummary.pdf</v>
       </c>
       <c r="H69" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_WZ177_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_WZ177_CommissionDetail.pdf</v>
       </c>
       <c r="K69" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="L69" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="M69" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
     </row>
     <row r="70" spans="2:13" x14ac:dyDescent="0.25">
@@ -4313,10 +4335,10 @@
         <v>79</v>
       </c>
       <c r="C70" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D70" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="E70">
         <v>1</v>
@@ -4326,20 +4348,20 @@
       </c>
       <c r="G70" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_WZ143_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_WZ143_CommissionSummary.pdf</v>
       </c>
       <c r="H70" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_WZ143_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_WZ143_CommissionDetail.pdf</v>
       </c>
       <c r="K70" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="L70" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="M70" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
     </row>
     <row r="71" spans="2:13" x14ac:dyDescent="0.25">
@@ -4347,10 +4369,10 @@
         <v>80</v>
       </c>
       <c r="C71" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D71" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="E71">
         <v>1</v>
@@ -4360,20 +4382,20 @@
       </c>
       <c r="G71" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_WZ159_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_WZ159_CommissionSummary.pdf</v>
       </c>
       <c r="H71" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_WZ159_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_WZ159_CommissionDetail.pdf</v>
       </c>
       <c r="K71" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="L71" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="M71" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
     </row>
     <row r="72" spans="2:13" x14ac:dyDescent="0.25">
@@ -4381,10 +4403,10 @@
         <v>81</v>
       </c>
       <c r="C72" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D72" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="E72">
         <v>1</v>
@@ -4394,20 +4416,20 @@
       </c>
       <c r="G72" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_WZ162_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_WZ162_CommissionSummary.pdf</v>
       </c>
       <c r="H72" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_WZ162_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_WZ162_CommissionDetail.pdf</v>
       </c>
       <c r="K72" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="L72" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="M72" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
     </row>
     <row r="73" spans="2:13" x14ac:dyDescent="0.25">
@@ -4415,10 +4437,10 @@
         <v>82</v>
       </c>
       <c r="C73" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D73" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="E73">
         <v>1</v>
@@ -4428,20 +4450,20 @@
       </c>
       <c r="G73" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_WZ113_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_WZ113_CommissionSummary.pdf</v>
       </c>
       <c r="H73" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_WZ113_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_WZ113_CommissionDetail.pdf</v>
       </c>
       <c r="K73" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="L73" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="M73" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
     </row>
     <row r="74" spans="2:13" x14ac:dyDescent="0.25">
@@ -4449,10 +4471,10 @@
         <v>83</v>
       </c>
       <c r="C74" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D74" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="E74">
         <v>1</v>
@@ -4462,20 +4484,20 @@
       </c>
       <c r="G74" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_WZ137_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_WZ137_CommissionSummary.pdf</v>
       </c>
       <c r="H74" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_WZ137_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_WZ137_CommissionDetail.pdf</v>
       </c>
       <c r="K74" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="L74" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="M74" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
     </row>
     <row r="75" spans="2:13" x14ac:dyDescent="0.25">
@@ -4483,10 +4505,10 @@
         <v>84</v>
       </c>
       <c r="C75" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D75" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="E75">
         <v>1</v>
@@ -4496,20 +4518,20 @@
       </c>
       <c r="G75" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_WZ1G4_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_WZ1G4_CommissionSummary.pdf</v>
       </c>
       <c r="H75" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_WZ1G4_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_WZ1G4_CommissionDetail.pdf</v>
       </c>
       <c r="K75" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="L75" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="M75" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
     </row>
     <row r="76" spans="2:13" x14ac:dyDescent="0.25">
@@ -4517,10 +4539,10 @@
         <v>85</v>
       </c>
       <c r="C76" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D76" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="E76">
         <v>1</v>
@@ -4530,20 +4552,20 @@
       </c>
       <c r="G76" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_WZ1CE_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_WZBW1_CommissionSummary.pdf</v>
       </c>
       <c r="H76" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_WZ1CE_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_WZBW1_CommissionDetail.pdf</v>
       </c>
       <c r="K76" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="L76" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="M76" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
     </row>
     <row r="77" spans="2:13" x14ac:dyDescent="0.25">
@@ -4551,10 +4573,10 @@
         <v>86</v>
       </c>
       <c r="C77" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D77" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="E77">
         <v>1</v>
@@ -4564,20 +4586,20 @@
       </c>
       <c r="G77" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_WZBW1_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_WZ9TS_CommissionSummary.pdf</v>
       </c>
       <c r="H77" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_WZBW1_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_WZ9TS_CommissionDetail.pdf</v>
       </c>
       <c r="K77" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="L77" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="M77" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
     </row>
     <row r="78" spans="2:13" x14ac:dyDescent="0.25">
@@ -4585,10 +4607,10 @@
         <v>87</v>
       </c>
       <c r="C78" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D78" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="E78">
         <v>1</v>
@@ -4598,20 +4620,20 @@
       </c>
       <c r="G78" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_WZ9TS_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_WZ1HM_CommissionSummary.pdf</v>
       </c>
       <c r="H78" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_WZ9TS_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_WZ1HM_CommissionDetail.pdf</v>
       </c>
       <c r="K78" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="L78" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="M78" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
     </row>
     <row r="79" spans="2:13" x14ac:dyDescent="0.25">
@@ -4619,10 +4641,10 @@
         <v>88</v>
       </c>
       <c r="C79" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D79" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="E79">
         <v>1</v>
@@ -4632,14 +4654,14 @@
       </c>
       <c r="G79" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_WZ1HM_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_WZ1HM_CommissionSummary.pdf</v>
       </c>
       <c r="H79" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_WZ1HM_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_WZ1HM_CommissionDetail.pdf</v>
       </c>
       <c r="K79" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="L79" t="s">
         <v>336</v>
@@ -4653,10 +4675,10 @@
         <v>89</v>
       </c>
       <c r="C80" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D80" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="E80">
         <v>1</v>
@@ -4666,20 +4688,20 @@
       </c>
       <c r="G80" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_WZ1HM_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_WZ2RP_CommissionSummary.pdf</v>
       </c>
       <c r="H80" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_WZ1HM_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_WZ2RP_CommissionDetail.pdf</v>
       </c>
       <c r="K80" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="L80" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="M80" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
     </row>
     <row r="81" spans="2:13" x14ac:dyDescent="0.25">
@@ -4687,10 +4709,10 @@
         <v>90</v>
       </c>
       <c r="C81" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D81" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="E81">
         <v>1</v>
@@ -4700,20 +4722,20 @@
       </c>
       <c r="G81" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_WZ2RP_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_WZ1TT_CommissionSummary.pdf</v>
       </c>
       <c r="H81" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_WZ2RP_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_WZ1TT_CommissionDetail.pdf</v>
       </c>
       <c r="K81" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="L81" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="M81" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
     </row>
     <row r="82" spans="2:13" x14ac:dyDescent="0.25">
@@ -4721,10 +4743,10 @@
         <v>91</v>
       </c>
       <c r="C82" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D82" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="E82">
         <v>1</v>
@@ -4734,20 +4756,20 @@
       </c>
       <c r="G82" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_WZ1TT_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_WZ1AM_CommissionSummary.pdf</v>
       </c>
       <c r="H82" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_WZ1TT_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_WZ1AM_CommissionDetail.pdf</v>
       </c>
       <c r="K82" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="L82" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="M82" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
     </row>
     <row r="83" spans="2:13" x14ac:dyDescent="0.25">
@@ -4755,10 +4777,10 @@
         <v>92</v>
       </c>
       <c r="C83" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D83" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="E83">
         <v>1</v>
@@ -4768,20 +4790,20 @@
       </c>
       <c r="G83" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_WZ1AM_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_WZ1JW_CommissionSummary.pdf</v>
       </c>
       <c r="H83" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_WZ1AM_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_WZ1JW_CommissionDetail.pdf</v>
       </c>
       <c r="K83" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="L83" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="M83" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
     </row>
     <row r="84" spans="2:13" x14ac:dyDescent="0.25">
@@ -4789,10 +4811,10 @@
         <v>93</v>
       </c>
       <c r="C84" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D84" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="E84">
         <v>1</v>
@@ -4802,20 +4824,20 @@
       </c>
       <c r="G84" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_WZ1JW_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_WZ1MH_CommissionSummary.pdf</v>
       </c>
       <c r="H84" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_WZ1JW_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_WZ1MH_CommissionDetail.pdf</v>
       </c>
       <c r="K84" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="L84" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="M84" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
     </row>
     <row r="85" spans="2:13" x14ac:dyDescent="0.25">
@@ -4823,10 +4845,10 @@
         <v>94</v>
       </c>
       <c r="C85" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D85" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="E85">
         <v>1</v>
@@ -4836,20 +4858,20 @@
       </c>
       <c r="G85" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_WZ1MH_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_WZ1TM_CommissionSummary.pdf</v>
       </c>
       <c r="H85" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_WZ1MH_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_WZ1TM_CommissionDetail.pdf</v>
       </c>
       <c r="K85" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="L85" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="M85" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
     </row>
     <row r="86" spans="2:13" x14ac:dyDescent="0.25">
@@ -4857,10 +4879,10 @@
         <v>95</v>
       </c>
       <c r="C86" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D86" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="E86">
         <v>1</v>
@@ -4870,20 +4892,20 @@
       </c>
       <c r="G86" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_WZ1TM_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_WZ2AM_CommissionSummary.pdf</v>
       </c>
       <c r="H86" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_WZ1TM_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_WZ2AM_CommissionDetail.pdf</v>
       </c>
       <c r="K86" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="L86" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="M86" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
     </row>
     <row r="87" spans="2:13" x14ac:dyDescent="0.25">
@@ -4891,10 +4913,10 @@
         <v>96</v>
       </c>
       <c r="C87" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D87" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="E87">
         <v>1</v>
@@ -4904,20 +4926,20 @@
       </c>
       <c r="G87" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_WZ2AM_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_WZ1SC_CommissionSummary.pdf</v>
       </c>
       <c r="H87" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_WZ2AM_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_WZ1SC_CommissionDetail.pdf</v>
       </c>
       <c r="K87" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="L87" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="M87" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
     </row>
     <row r="88" spans="2:13" x14ac:dyDescent="0.25">
@@ -4925,10 +4947,10 @@
         <v>97</v>
       </c>
       <c r="C88" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D88" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="E88">
         <v>1</v>
@@ -4938,20 +4960,20 @@
       </c>
       <c r="G88" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_WZ1SC_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_WZ1PB_CommissionSummary.pdf</v>
       </c>
       <c r="H88" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_WZ1SC_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_WZ1PB_CommissionDetail.pdf</v>
       </c>
       <c r="K88" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="L88" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="M88" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
     </row>
     <row r="89" spans="2:13" x14ac:dyDescent="0.25">
@@ -4959,10 +4981,10 @@
         <v>98</v>
       </c>
       <c r="C89" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D89" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="E89">
         <v>1</v>
@@ -4972,20 +4994,20 @@
       </c>
       <c r="G89" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_WZ1PB_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_WZ1JN_CommissionSummary.pdf</v>
       </c>
       <c r="H89" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_WZ1PB_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_WZ1JN_CommissionDetail.pdf</v>
       </c>
       <c r="K89" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="L89" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="M89" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
     </row>
     <row r="90" spans="2:13" x14ac:dyDescent="0.25">
@@ -4993,10 +5015,10 @@
         <v>99</v>
       </c>
       <c r="C90" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D90" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="E90">
         <v>1</v>
@@ -5006,31 +5028,31 @@
       </c>
       <c r="G90" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_WZ1JN_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_WZ1MK_CommissionSummary.pdf</v>
       </c>
       <c r="H90" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_WZ1JN_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_WZ1MK_CommissionDetail.pdf</v>
       </c>
       <c r="K90" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="L90" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="M90" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
     </row>
     <row r="91" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B91" t="s">
-        <v>100</v>
+        <v>174</v>
       </c>
       <c r="C91" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D91" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="E91">
         <v>1</v>
@@ -5040,31 +5062,31 @@
       </c>
       <c r="G91" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_WZ1MK_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_WZ1CA_CommissionSummary.pdf</v>
       </c>
       <c r="H91" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_WZ1MK_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_WZ1CA_CommissionDetail.pdf</v>
       </c>
       <c r="K91" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="L91" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="M91" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
     </row>
     <row r="92" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B92" t="s">
-        <v>176</v>
+        <v>100</v>
       </c>
       <c r="C92" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D92" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="E92">
         <v>1</v>
@@ -5074,20 +5096,20 @@
       </c>
       <c r="G92" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_WZ1CA_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_WZ2TM_CommissionSummary.pdf</v>
       </c>
       <c r="H92" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_WZ1CA_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_WZ2TM_CommissionDetail.pdf</v>
       </c>
       <c r="K92" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="L92" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="M92" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
     </row>
     <row r="93" spans="2:13" x14ac:dyDescent="0.25">
@@ -5095,10 +5117,10 @@
         <v>101</v>
       </c>
       <c r="C93" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D93" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="E93">
         <v>1</v>
@@ -5108,20 +5130,20 @@
       </c>
       <c r="G93" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_WZ2TM_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_WZ1BC_CommissionSummary.pdf</v>
       </c>
       <c r="H93" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_WZ2TM_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_WZ1BC_CommissionDetail.pdf</v>
       </c>
       <c r="K93" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="L93" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="M93" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
     </row>
     <row r="94" spans="2:13" x14ac:dyDescent="0.25">
@@ -5129,10 +5151,10 @@
         <v>102</v>
       </c>
       <c r="C94" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D94" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="E94">
         <v>1</v>
@@ -5142,20 +5164,20 @@
       </c>
       <c r="G94" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_WZ1BC_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_WZ1JL_CommissionSummary.pdf</v>
       </c>
       <c r="H94" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_WZ1BC_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_WZ1JL_CommissionDetail.pdf</v>
       </c>
       <c r="K94" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="L94" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="M94" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
     </row>
     <row r="95" spans="2:13" x14ac:dyDescent="0.25">
@@ -5163,10 +5185,10 @@
         <v>103</v>
       </c>
       <c r="C95" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D95" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="E95">
         <v>1</v>
@@ -5176,20 +5198,20 @@
       </c>
       <c r="G95" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_WZ1JL_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_WZ1AL_CommissionSummary.pdf</v>
       </c>
       <c r="H95" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_WZ1JL_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_WZ1AL_CommissionDetail.pdf</v>
       </c>
       <c r="K95" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="L95" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="M95" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
     </row>
     <row r="96" spans="2:13" x14ac:dyDescent="0.25">
@@ -5197,10 +5219,10 @@
         <v>104</v>
       </c>
       <c r="C96" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D96" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="E96">
         <v>1</v>
@@ -5210,20 +5232,20 @@
       </c>
       <c r="G96" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_WZ1AL_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_WZ1MW_CommissionSummary.pdf</v>
       </c>
       <c r="H96" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_WZ1AL_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_WZ1MW_CommissionDetail.pdf</v>
       </c>
       <c r="K96" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="L96" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="M96" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
     </row>
     <row r="97" spans="2:13" x14ac:dyDescent="0.25">
@@ -5231,10 +5253,10 @@
         <v>105</v>
       </c>
       <c r="C97" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D97" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="E97">
         <v>1</v>
@@ -5244,31 +5266,31 @@
       </c>
       <c r="G97" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_WZ1MW_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_WZ1MS_CommissionSummary.pdf</v>
       </c>
       <c r="H97" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_WZ1MW_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_WZ1MS_CommissionDetail.pdf</v>
       </c>
       <c r="K97" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="L97" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="M97" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
     </row>
     <row r="98" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B98" t="s">
-        <v>106</v>
+        <v>184</v>
       </c>
       <c r="C98" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D98" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="E98">
         <v>1</v>
@@ -5278,31 +5300,31 @@
       </c>
       <c r="G98" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_WZ1MS_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_WZ1DF_CommissionSummary.pdf</v>
       </c>
       <c r="H98" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_WZ1MS_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_WZ1DF_CommissionDetail.pdf</v>
       </c>
       <c r="K98" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="L98" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="M98" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
     </row>
     <row r="99" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B99" t="s">
-        <v>107</v>
+        <v>167</v>
       </c>
       <c r="C99" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D99" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="E99">
         <v>1</v>
@@ -5312,31 +5334,31 @@
       </c>
       <c r="G99" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_WZ1DF_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_WZ1JI_CommissionSummary.pdf</v>
       </c>
       <c r="H99" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_WZ1DF_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_WZ1JI_CommissionDetail.pdf</v>
       </c>
       <c r="K99" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="L99" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="M99" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
     </row>
     <row r="100" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B100" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="C100" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D100" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="E100">
         <v>1</v>
@@ -5346,31 +5368,31 @@
       </c>
       <c r="G100" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_WZ1JI_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_WZ1CM_CommissionSummary.pdf</v>
       </c>
       <c r="H100" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_WZ1JI_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_WZ1CM_CommissionDetail.pdf</v>
       </c>
       <c r="K100" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="L100" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="M100" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
     </row>
     <row r="101" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B101" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C101" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D101" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="E101">
         <v>1</v>
@@ -5380,31 +5402,31 @@
       </c>
       <c r="G101" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_WZ1CM_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_WZ2MS_CommissionSummary.pdf</v>
       </c>
       <c r="H101" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_WZ1CM_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_WZ2MS_CommissionDetail.pdf</v>
       </c>
       <c r="K101" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="L101" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="M101" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
     </row>
     <row r="102" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B102" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="C102" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D102" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="E102">
         <v>1</v>
@@ -5414,31 +5436,31 @@
       </c>
       <c r="G102" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_WZ2MS_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_WZ2JN_CommissionSummary.pdf</v>
       </c>
       <c r="H102" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_WZ2MS_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_WZ2JN_CommissionDetail.pdf</v>
       </c>
       <c r="K102" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="L102" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="M102" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
     </row>
     <row r="103" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B103" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C103" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D103" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="E103">
         <v>1</v>
@@ -5448,31 +5470,31 @@
       </c>
       <c r="G103" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_WZ2JN_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_CZ1RD_CommissionSummary.pdf</v>
       </c>
       <c r="H103" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_WZ2JN_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_CZ1RD_CommissionDetail.pdf</v>
       </c>
       <c r="K103" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="L103" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="M103" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
     </row>
     <row r="104" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B104" t="s">
-        <v>178</v>
+        <v>106</v>
       </c>
       <c r="C104" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D104" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="E104">
         <v>1</v>
@@ -5482,31 +5504,31 @@
       </c>
       <c r="G104" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_CZ1RD_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_CZ1GF_CommissionSummary.pdf</v>
       </c>
       <c r="H104" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_CZ1RD_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_CZ1GF_CommissionDetail.pdf</v>
       </c>
       <c r="K104" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="L104" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="M104" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
     </row>
     <row r="105" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B105" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C105" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D105" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="E105">
         <v>1</v>
@@ -5516,31 +5538,31 @@
       </c>
       <c r="G105" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_CZ1GF_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_QZ1BP_CommissionSummary.pdf</v>
       </c>
       <c r="H105" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_CZ1GF_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_QZ1BP_CommissionDetail.pdf</v>
       </c>
       <c r="K105" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="L105" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="M105" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
     </row>
     <row r="106" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B106" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C106" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D106" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="E106">
         <v>1</v>
@@ -5550,31 +5572,31 @@
       </c>
       <c r="G106" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_QZ1BP_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_CZ1JF_CommissionSummary.pdf</v>
       </c>
       <c r="H106" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_QZ1BP_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_CZ1JF_CommissionDetail.pdf</v>
       </c>
       <c r="K106" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="L106" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="M106" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
     </row>
     <row r="107" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B107" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C107" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D107" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="E107">
         <v>1</v>
@@ -5584,31 +5606,31 @@
       </c>
       <c r="G107" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_CZ1JF_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_AZ1CI_CommissionSummary.pdf</v>
       </c>
       <c r="H107" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_CZ1JF_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_AZ1CI_CommissionDetail.pdf</v>
       </c>
       <c r="K107" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="L107" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="M107" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
     </row>
     <row r="108" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B108" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C108" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D108" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="E108">
         <v>1</v>
@@ -5618,31 +5640,31 @@
       </c>
       <c r="G108" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_AZ1CI_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_CZ1KM_CommissionSummary.pdf</v>
       </c>
       <c r="H108" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_AZ1CI_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_CZ1KM_CommissionDetail.pdf</v>
       </c>
       <c r="K108" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="L108" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="M108" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
     </row>
     <row r="109" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B109" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C109" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D109" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="E109">
         <v>1</v>
@@ -5652,31 +5674,31 @@
       </c>
       <c r="G109" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_CZ1KM_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_CZ1OV_CommissionSummary.pdf</v>
       </c>
       <c r="H109" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_CZ1KM_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_CZ1OV_CommissionDetail.pdf</v>
       </c>
       <c r="K109" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="L109" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="M109" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
     </row>
     <row r="110" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B110" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C110" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D110" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="E110">
         <v>1</v>
@@ -5686,31 +5708,31 @@
       </c>
       <c r="G110" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_CZ1OV_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_QZ1JB_CommissionSummary.pdf</v>
       </c>
       <c r="H110" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_CZ1OV_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_QZ1JB_CommissionDetail.pdf</v>
       </c>
       <c r="K110" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="L110" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="M110" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
     </row>
     <row r="111" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B111" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C111" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D111" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="E111">
         <v>1</v>
@@ -5720,31 +5742,31 @@
       </c>
       <c r="G111" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_QZ1JB_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_QZ1BG_CommissionSummary.pdf</v>
       </c>
       <c r="H111" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_QZ1JB_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_QZ1BG_CommissionDetail.pdf</v>
       </c>
       <c r="K111" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="L111" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="M111" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
     </row>
     <row r="112" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B112" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C112" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D112" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="E112">
         <v>1</v>
@@ -5754,31 +5776,31 @@
       </c>
       <c r="G112" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_QZ1BG_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_CZ1TM_CommissionSummary.pdf</v>
       </c>
       <c r="H112" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_QZ1BG_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_CZ1TM_CommissionDetail.pdf</v>
       </c>
       <c r="K112" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="L112" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="M112" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
     </row>
     <row r="113" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B113" t="s">
-        <v>116</v>
+        <v>19</v>
       </c>
       <c r="C113" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D113" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="E113">
         <v>1</v>
@@ -5788,31 +5810,31 @@
       </c>
       <c r="G113" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_CZ1TM_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_QZ177_CommissionSummary.pdf</v>
       </c>
       <c r="H113" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_CZ1TM_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_QZ177_CommissionDetail.pdf</v>
       </c>
       <c r="K113" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="L113" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="M113" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
     </row>
     <row r="114" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B114" t="s">
-        <v>19</v>
+        <v>115</v>
       </c>
       <c r="C114" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D114" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="E114">
         <v>1</v>
@@ -5822,31 +5844,31 @@
       </c>
       <c r="G114" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_QZ177_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_QZ1BM_CommissionSummary.pdf</v>
       </c>
       <c r="H114" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_QZ177_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_QZ1BM_CommissionDetail.pdf</v>
       </c>
       <c r="K114" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="L114" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="M114" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
     </row>
     <row r="115" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B115" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C115" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D115" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="E115">
         <v>1</v>
@@ -5856,31 +5878,31 @@
       </c>
       <c r="G115" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_QZ1BM_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_QZ1MD_CommissionSummary.pdf</v>
       </c>
       <c r="H115" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_QZ1BM_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_QZ1MD_CommissionDetail.pdf</v>
       </c>
       <c r="K115" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="L115" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="M115" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
     </row>
     <row r="116" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B116" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C116" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D116" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="E116">
         <v>1</v>
@@ -5890,31 +5912,31 @@
       </c>
       <c r="G116" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_QZ1MD_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_AZ1JB_CommissionSummary.pdf</v>
       </c>
       <c r="H116" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_QZ1MD_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_AZ1JB_CommissionDetail.pdf</v>
       </c>
       <c r="K116" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="L116" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="M116" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
     </row>
     <row r="117" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B117" t="s">
-        <v>119</v>
+        <v>180</v>
       </c>
       <c r="C117" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D117" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="E117">
         <v>1</v>
@@ -5924,31 +5946,31 @@
       </c>
       <c r="G117" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_AZ1JB_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_CZ1AD_CommissionSummary.pdf</v>
       </c>
       <c r="H117" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_AZ1JB_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_CZ1AD_CommissionDetail.pdf</v>
       </c>
       <c r="K117" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="L117" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="M117" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
     </row>
     <row r="118" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B118" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="C118" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D118" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="E118">
         <v>1</v>
@@ -5958,31 +5980,31 @@
       </c>
       <c r="G118" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_CZ1AD_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_QZ1ML_CommissionSummary.pdf</v>
       </c>
       <c r="H118" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_CZ1AD_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_QZ1ML_CommissionDetail.pdf</v>
       </c>
       <c r="K118" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="L118" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="M118" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
     </row>
     <row r="119" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B119" t="s">
-        <v>177</v>
+        <v>118</v>
       </c>
       <c r="C119" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D119" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="E119">
         <v>1</v>
@@ -5992,31 +6014,31 @@
       </c>
       <c r="G119" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_QZ1ML_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_CZ1FA_CommissionSummary.pdf</v>
       </c>
       <c r="H119" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_QZ1ML_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_CZ1FA_CommissionDetail.pdf</v>
       </c>
       <c r="K119" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="L119" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="M119" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
     </row>
     <row r="120" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B120" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C120" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D120" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="E120">
         <v>1</v>
@@ -6026,31 +6048,31 @@
       </c>
       <c r="G120" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_CZ1FA_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_CZ2SA_CommissionSummary.pdf</v>
       </c>
       <c r="H120" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_CZ1FA_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_CZ2SA_CommissionDetail.pdf</v>
       </c>
       <c r="K120" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="L120" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="M120" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
     </row>
     <row r="121" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B121" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C121" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D121" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="E121">
         <v>1</v>
@@ -6060,31 +6082,31 @@
       </c>
       <c r="G121" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_CZ2SA_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_QZ1SL_CommissionSummary.pdf</v>
       </c>
       <c r="H121" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_CZ2SA_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_QZ1SL_CommissionDetail.pdf</v>
       </c>
       <c r="K121" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="L121" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="M121" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
     </row>
     <row r="122" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B122" t="s">
-        <v>122</v>
+        <v>181</v>
       </c>
       <c r="C122" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D122" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="E122">
         <v>1</v>
@@ -6094,31 +6116,31 @@
       </c>
       <c r="G122" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_QZ1SL_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_AZ1CM_CommissionSummary.pdf</v>
       </c>
       <c r="H122" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_QZ1SL_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_AZ1CM_CommissionDetail.pdf</v>
       </c>
       <c r="K122" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="L122" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="M122" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
     </row>
     <row r="123" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B123" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C123" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D123" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="E123">
         <v>1</v>
@@ -6128,31 +6150,31 @@
       </c>
       <c r="G123" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_QZ3JB_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_QZ3JB_CommissionSummary.pdf</v>
       </c>
       <c r="H123" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_QZ3JB_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_QZ3JB_CommissionDetail.pdf</v>
       </c>
       <c r="K123" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="L123" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="M123" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
     </row>
     <row r="124" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B124" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C124" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D124" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="E124">
         <v>1</v>
@@ -6162,31 +6184,31 @@
       </c>
       <c r="G124" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_CZ1CN_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_CZ1CN_CommissionSummary.pdf</v>
       </c>
       <c r="H124" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_CZ1CN_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_CZ1CN_CommissionDetail.pdf</v>
       </c>
       <c r="K124" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="L124" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="M124" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
     </row>
     <row r="125" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B125" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C125" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D125" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="E125">
         <v>1</v>
@@ -6196,31 +6218,31 @@
       </c>
       <c r="G125" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_AZ1YU_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_AZ1YU_CommissionSummary.pdf</v>
       </c>
       <c r="H125" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_AZ1YU_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_AZ1YU_CommissionDetail.pdf</v>
       </c>
       <c r="K125" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="L125" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="M125" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
     </row>
     <row r="126" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B126" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C126" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D126" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="E126">
         <v>1</v>
@@ -6230,31 +6252,31 @@
       </c>
       <c r="G126" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_AZ1WX_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_AZ1WX_CommissionSummary.pdf</v>
       </c>
       <c r="H126" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_AZ1WX_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_AZ1WX_CommissionDetail.pdf</v>
       </c>
       <c r="K126" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="L126" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="M126" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
     </row>
     <row r="127" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B127" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C127" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D127" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="E127">
         <v>1</v>
@@ -6264,31 +6286,31 @@
       </c>
       <c r="G127" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_AZ1XF_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_AZ1XF_CommissionSummary.pdf</v>
       </c>
       <c r="H127" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_AZ1XF_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_AZ1XF_CommissionDetail.pdf</v>
       </c>
       <c r="K127" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="L127" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="M127" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
     </row>
     <row r="128" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B128" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C128" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D128" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="E128">
         <v>1</v>
@@ -6298,31 +6320,31 @@
       </c>
       <c r="G128" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_AZ1XT_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_AZ1XT_CommissionSummary.pdf</v>
       </c>
       <c r="H128" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_AZ1XT_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_AZ1XT_CommissionDetail.pdf</v>
       </c>
       <c r="K128" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="L128" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="M128" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
     </row>
     <row r="129" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B129" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C129" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D129" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="E129">
         <v>1</v>
@@ -6332,31 +6354,31 @@
       </c>
       <c r="G129" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_AZ1YP_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_AZ1YP_CommissionSummary.pdf</v>
       </c>
       <c r="H129" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_AZ1YP_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_AZ1YP_CommissionDetail.pdf</v>
       </c>
       <c r="K129" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="L129" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="M129" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
     </row>
     <row r="130" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B130" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C130" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D130" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="E130">
         <v>1</v>
@@ -6366,31 +6388,31 @@
       </c>
       <c r="G130" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_QZ1XH_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_QZ1XH_CommissionSummary.pdf</v>
       </c>
       <c r="H130" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_QZ1XH_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_QZ1XH_CommissionDetail.pdf</v>
       </c>
       <c r="K130" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="L130" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="M130" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
     </row>
     <row r="131" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B131" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C131" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D131" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="E131">
         <v>1</v>
@@ -6400,31 +6422,31 @@
       </c>
       <c r="G131" t="str">
         <f t="shared" ref="G131:G169" si="4">$K131&amp;"\"&amp;L131</f>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_QZ1TB_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_QZ1TB_CommissionSummary.pdf</v>
       </c>
       <c r="H131" t="str">
         <f t="shared" ref="H131:H169" si="5">$K131&amp;"\"&amp;M131</f>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_QZ1TB_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_QZ1TB_CommissionDetail.pdf</v>
       </c>
       <c r="K131" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="L131" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="M131" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
     </row>
     <row r="132" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B132" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C132" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D132" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="E132">
         <v>1</v>
@@ -6434,31 +6456,31 @@
       </c>
       <c r="G132" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_QZ1TD_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_QZ1TD_CommissionSummary.pdf</v>
       </c>
       <c r="H132" t="str">
         <f t="shared" si="5"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_QZ1TD_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_QZ1TD_CommissionDetail.pdf</v>
       </c>
       <c r="K132" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="L132" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="M132" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
     </row>
     <row r="133" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B133" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C133" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D133" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="E133">
         <v>1</v>
@@ -6468,31 +6490,31 @@
       </c>
       <c r="G133" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_QZ1TK_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_QZ1TK_CommissionSummary.pdf</v>
       </c>
       <c r="H133" t="str">
         <f t="shared" si="5"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_QZ1TK_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_QZ1TK_CommissionDetail.pdf</v>
       </c>
       <c r="K133" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="L133" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="M133" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
     </row>
     <row r="134" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B134" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C134" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D134" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="E134">
         <v>1</v>
@@ -6502,31 +6524,31 @@
       </c>
       <c r="G134" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_QZ1YE_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_QZ1YE_CommissionSummary.pdf</v>
       </c>
       <c r="H134" t="str">
         <f t="shared" si="5"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_QZ1YE_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_QZ1YE_CommissionDetail.pdf</v>
       </c>
       <c r="K134" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="L134" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="M134" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
     </row>
     <row r="135" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B135" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C135" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D135" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="E135">
         <v>1</v>
@@ -6536,31 +6558,31 @@
       </c>
       <c r="G135" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_QZ1TE_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_QZ1TE_CommissionSummary.pdf</v>
       </c>
       <c r="H135" t="str">
         <f t="shared" si="5"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_QZ1TE_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_QZ1TE_CommissionDetail.pdf</v>
       </c>
       <c r="K135" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="L135" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="M135" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
     </row>
     <row r="136" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B136" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C136" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D136" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="E136">
         <v>1</v>
@@ -6570,31 +6592,31 @@
       </c>
       <c r="G136" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_QZ1TI_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_QZ1TI_CommissionSummary.pdf</v>
       </c>
       <c r="H136" t="str">
         <f t="shared" si="5"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_QZ1TI_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_QZ1TI_CommissionDetail.pdf</v>
       </c>
       <c r="K136" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="L136" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="M136" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
     </row>
     <row r="137" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B137" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C137" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D137" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="E137">
         <v>1</v>
@@ -6604,31 +6626,31 @@
       </c>
       <c r="G137" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_CZ1YI_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_CZ1YI_CommissionSummary.pdf</v>
       </c>
       <c r="H137" t="str">
         <f t="shared" si="5"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_CZ1YI_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_CZ1YI_CommissionDetail.pdf</v>
       </c>
       <c r="K137" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="L137" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="M137" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
     </row>
     <row r="138" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B138" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C138" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D138" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="E138">
         <v>1</v>
@@ -6638,31 +6660,31 @@
       </c>
       <c r="G138" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_CZ1YW_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_CZ1YW_CommissionSummary.pdf</v>
       </c>
       <c r="H138" t="str">
         <f t="shared" si="5"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_CZ1YW_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_CZ1YW_CommissionDetail.pdf</v>
       </c>
       <c r="K138" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="L138" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="M138" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
     </row>
     <row r="139" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B139" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C139" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D139" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="E139">
         <v>1</v>
@@ -6672,31 +6694,31 @@
       </c>
       <c r="G139" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_CZ1UE_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_CZ1UE_CommissionSummary.pdf</v>
       </c>
       <c r="H139" t="str">
         <f t="shared" si="5"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_CZ1UE_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_CZ1UE_CommissionDetail.pdf</v>
       </c>
       <c r="K139" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="L139" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="M139" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
     </row>
     <row r="140" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B140" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C140" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D140" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="E140">
         <v>1</v>
@@ -6706,31 +6728,31 @@
       </c>
       <c r="G140" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_CZ1MJ_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_CZ1MJ_CommissionSummary.pdf</v>
       </c>
       <c r="H140" t="str">
         <f t="shared" si="5"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_CZ1MJ_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_CZ1MJ_CommissionDetail.pdf</v>
       </c>
       <c r="K140" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="L140" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="M140" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
     </row>
     <row r="141" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B141" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C141" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D141" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="E141">
         <v>1</v>
@@ -6740,31 +6762,31 @@
       </c>
       <c r="G141" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_CZ1VG_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_CZ1VG_CommissionSummary.pdf</v>
       </c>
       <c r="H141" t="str">
         <f t="shared" si="5"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_CZ1VG_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_CZ1VG_CommissionDetail.pdf</v>
       </c>
       <c r="K141" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="L141" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="M141" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
     </row>
     <row r="142" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B142" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C142" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D142" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="E142">
         <v>1</v>
@@ -6774,31 +6796,31 @@
       </c>
       <c r="G142" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_CZ1VJ_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_CZ1VJ_CommissionSummary.pdf</v>
       </c>
       <c r="H142" t="str">
         <f t="shared" si="5"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_CZ1VJ_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_CZ1VJ_CommissionDetail.pdf</v>
       </c>
       <c r="K142" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="L142" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="M142" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
     </row>
     <row r="143" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B143" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C143" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D143" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="E143">
         <v>1</v>
@@ -6808,31 +6830,31 @@
       </c>
       <c r="G143" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_CZ1MI_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_CZ1MI_CommissionSummary.pdf</v>
       </c>
       <c r="H143" t="str">
         <f t="shared" si="5"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_CZ1MI_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_CZ1MI_CommissionDetail.pdf</v>
       </c>
       <c r="K143" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="L143" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="M143" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
     </row>
     <row r="144" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B144" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C144" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D144" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="E144">
         <v>1</v>
@@ -6842,31 +6864,31 @@
       </c>
       <c r="G144" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_CZ1XD_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_CZ1XD_CommissionSummary.pdf</v>
       </c>
       <c r="H144" t="str">
         <f t="shared" si="5"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_CZ1XD_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_CZ1XD_CommissionDetail.pdf</v>
       </c>
       <c r="K144" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="L144" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="M144" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
     </row>
     <row r="145" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B145" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C145" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D145" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="E145">
         <v>1</v>
@@ -6876,31 +6898,31 @@
       </c>
       <c r="G145" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_CZ1XB_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_CZ1XB_CommissionSummary.pdf</v>
       </c>
       <c r="H145" t="str">
         <f t="shared" si="5"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_CZ1XB_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_CZ1XB_CommissionDetail.pdf</v>
       </c>
       <c r="K145" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="L145" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="M145" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
     </row>
     <row r="146" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B146" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C146" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D146" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="E146">
         <v>1</v>
@@ -6910,31 +6932,31 @@
       </c>
       <c r="G146" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_CZ1WT_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_CZ1WT_CommissionSummary.pdf</v>
       </c>
       <c r="H146" t="str">
         <f t="shared" si="5"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_CZ1WT_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_CZ1WT_CommissionDetail.pdf</v>
       </c>
       <c r="K146" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="L146" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="M146" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
     </row>
     <row r="147" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B147" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C147" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D147" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="E147">
         <v>1</v>
@@ -6944,31 +6966,31 @@
       </c>
       <c r="G147" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_CZ1XA_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_CZ1XA_CommissionSummary.pdf</v>
       </c>
       <c r="H147" t="str">
         <f t="shared" si="5"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_CZ1XA_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_CZ1XA_CommissionDetail.pdf</v>
       </c>
       <c r="K147" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="L147" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="M147" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
     </row>
     <row r="148" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B148" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C148" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D148" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="E148">
         <v>1</v>
@@ -6978,31 +7000,31 @@
       </c>
       <c r="G148" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_WZ2KF_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_WZ2KF_CommissionSummary.pdf</v>
       </c>
       <c r="H148" t="str">
         <f t="shared" si="5"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_WZ2KF_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_WZ2KF_CommissionDetail.pdf</v>
       </c>
       <c r="K148" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="L148" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="M148" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
     </row>
     <row r="149" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B149" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C149" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D149" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="E149">
         <v>1</v>
@@ -7012,31 +7034,31 @@
       </c>
       <c r="G149" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_WZ148_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_WZ148_CommissionSummary.pdf</v>
       </c>
       <c r="H149" t="str">
         <f t="shared" si="5"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_WZ148_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_WZ148_CommissionDetail.pdf</v>
       </c>
       <c r="K149" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="L149" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="M149" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
     </row>
     <row r="150" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B150" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C150" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D150" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="E150">
         <v>1</v>
@@ -7046,31 +7068,31 @@
       </c>
       <c r="G150" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_WZ8GM_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_WZ8GM_CommissionSummary.pdf</v>
       </c>
       <c r="H150" t="str">
         <f t="shared" si="5"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_WZ8GM_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_WZ8GM_CommissionDetail.pdf</v>
       </c>
       <c r="K150" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="L150" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="M150" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
     </row>
     <row r="151" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B151" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C151" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D151" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="E151">
         <v>1</v>
@@ -7080,31 +7102,31 @@
       </c>
       <c r="G151" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_WZ1BH_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_WZ1BH_CommissionSummary.pdf</v>
       </c>
       <c r="H151" t="str">
         <f t="shared" si="5"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_WZ1BH_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_WZ1BH_CommissionDetail.pdf</v>
       </c>
       <c r="K151" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="L151" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="M151" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
     </row>
     <row r="152" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B152" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C152" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D152" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="E152">
         <v>1</v>
@@ -7114,31 +7136,31 @@
       </c>
       <c r="G152" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_WZ114_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_WZ114_CommissionSummary.pdf</v>
       </c>
       <c r="H152" t="str">
         <f t="shared" si="5"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_WZ114_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_WZ114_CommissionDetail.pdf</v>
       </c>
       <c r="K152" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="L152" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="M152" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
     </row>
     <row r="153" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B153" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C153" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D153" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="E153">
         <v>1</v>
@@ -7148,31 +7170,31 @@
       </c>
       <c r="G153" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_WZ1A6_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_WZ1A6_CommissionSummary.pdf</v>
       </c>
       <c r="H153" t="str">
         <f t="shared" si="5"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_WZ1A6_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_WZ1A6_CommissionDetail.pdf</v>
       </c>
       <c r="K153" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="L153" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="M153" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
     </row>
     <row r="154" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B154" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C154" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D154" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="E154">
         <v>1</v>
@@ -7182,31 +7204,31 @@
       </c>
       <c r="G154" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_WZ139_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_WZ139_CommissionSummary.pdf</v>
       </c>
       <c r="H154" t="str">
         <f t="shared" si="5"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_WZ139_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_WZ139_CommissionDetail.pdf</v>
       </c>
       <c r="K154" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="L154" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="M154" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
     </row>
     <row r="155" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B155" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C155" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D155" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="E155">
         <v>1</v>
@@ -7216,31 +7238,31 @@
       </c>
       <c r="G155" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_CZ1VL_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_CZ1VL_CommissionSummary.pdf</v>
       </c>
       <c r="H155" t="str">
         <f t="shared" si="5"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_CZ1VL_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_CZ1VL_CommissionDetail.pdf</v>
       </c>
       <c r="K155" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="L155" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="M155" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
     </row>
     <row r="156" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B156" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C156" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D156" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="E156">
         <v>1</v>
@@ -7250,31 +7272,31 @@
       </c>
       <c r="G156" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_CZ1VK_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_CZ1VK_CommissionSummary.pdf</v>
       </c>
       <c r="H156" t="str">
         <f t="shared" si="5"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_CZ1VK_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_CZ1VK_CommissionDetail.pdf</v>
       </c>
       <c r="K156" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="L156" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="M156" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
     </row>
     <row r="157" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B157" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C157" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D157" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="E157">
         <v>1</v>
@@ -7284,31 +7306,31 @@
       </c>
       <c r="G157" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_CZ1LR_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_CZ1LR_CommissionSummary.pdf</v>
       </c>
       <c r="H157" t="str">
         <f t="shared" si="5"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_CZ1LR_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_CZ1LR_CommissionDetail.pdf</v>
       </c>
       <c r="K157" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="L157" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="M157" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
     </row>
     <row r="158" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B158" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C158" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D158" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="E158">
         <v>1</v>
@@ -7318,31 +7340,31 @@
       </c>
       <c r="G158" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_CZ1UV_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_CZ1UV_CommissionSummary.pdf</v>
       </c>
       <c r="H158" t="str">
         <f t="shared" si="5"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_CZ1UV_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_CZ1UV_CommissionDetail.pdf</v>
       </c>
       <c r="K158" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="L158" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="M158" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="159" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B159" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C159" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D159" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="E159">
         <v>1</v>
@@ -7352,31 +7374,31 @@
       </c>
       <c r="G159" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_CZ1WV_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_CZ1WV_CommissionSummary.pdf</v>
       </c>
       <c r="H159" t="str">
         <f t="shared" si="5"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_CZ1WV_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_CZ1WV_CommissionDetail.pdf</v>
       </c>
       <c r="K159" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="L159" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="M159" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
     </row>
     <row r="160" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B160" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C160" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D160" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="E160">
         <v>1</v>
@@ -7386,31 +7408,31 @@
       </c>
       <c r="G160" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_CZ1UO_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_CZ1UO_CommissionSummary.pdf</v>
       </c>
       <c r="H160" t="str">
         <f t="shared" si="5"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_CZ1UO_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_CZ1UO_CommissionDetail.pdf</v>
       </c>
       <c r="K160" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="L160" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="M160" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
     </row>
     <row r="161" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B161" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C161" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D161" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="E161">
         <v>1</v>
@@ -7420,31 +7442,31 @@
       </c>
       <c r="G161" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_CZ1XC_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_CZ1XC_CommissionSummary.pdf</v>
       </c>
       <c r="H161" t="str">
         <f t="shared" si="5"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_CZ1XC_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_CZ1XC_CommissionDetail.pdf</v>
       </c>
       <c r="K161" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="L161" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="M161" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
     </row>
     <row r="162" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B162" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C162" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D162" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="E162">
         <v>1</v>
@@ -7454,31 +7476,31 @@
       </c>
       <c r="G162" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_CZ1YN_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_CZ1YN_CommissionSummary.pdf</v>
       </c>
       <c r="H162" t="str">
         <f t="shared" si="5"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_CZ1YN_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_CZ1YN_CommissionDetail.pdf</v>
       </c>
       <c r="K162" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="L162" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="M162" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
     </row>
     <row r="163" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B163" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C163" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D163" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="E163">
         <v>1</v>
@@ -7488,31 +7510,31 @@
       </c>
       <c r="G163" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_CZ1UI_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_CZ1UI_CommissionSummary.pdf</v>
       </c>
       <c r="H163" t="str">
         <f t="shared" si="5"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_CZ1UI_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_CZ1UI_CommissionDetail.pdf</v>
       </c>
       <c r="K163" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="L163" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="M163" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
     </row>
     <row r="164" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B164" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C164" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D164" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="E164">
         <v>1</v>
@@ -7522,31 +7544,31 @@
       </c>
       <c r="G164" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_CZ1UU_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_CZ1UU_CommissionSummary.pdf</v>
       </c>
       <c r="H164" t="str">
         <f t="shared" si="5"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_CZ1UU_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_CZ1UU_CommissionDetail.pdf</v>
       </c>
       <c r="K164" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="L164" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="M164" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
     </row>
     <row r="165" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B165" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C165" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D165" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="E165">
         <v>1</v>
@@ -7556,31 +7578,31 @@
       </c>
       <c r="G165" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_CZ1UW_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_CZ1UW_CommissionSummary.pdf</v>
       </c>
       <c r="H165" t="str">
         <f t="shared" si="5"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_CZ1UW_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_CZ1UW_CommissionDetail.pdf</v>
       </c>
       <c r="K165" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="L165" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="M165" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
     </row>
     <row r="166" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B166" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C166" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D166" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="E166">
         <v>1</v>
@@ -7590,31 +7612,31 @@
       </c>
       <c r="G166" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_CZ1VC_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_CZ1VC_CommissionSummary.pdf</v>
       </c>
       <c r="H166" t="str">
         <f t="shared" si="5"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_CZ1VC_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_CZ1VC_CommissionDetail.pdf</v>
       </c>
       <c r="K166" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="L166" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="M166" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
     </row>
     <row r="167" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B167" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C167" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D167" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="E167">
         <v>1</v>
@@ -7624,31 +7646,31 @@
       </c>
       <c r="G167" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_CZ1UX_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_CZ1UX_CommissionSummary.pdf</v>
       </c>
       <c r="H167" t="str">
         <f t="shared" si="5"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_CZ1UX_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_CZ1UX_CommissionDetail.pdf</v>
       </c>
       <c r="K167" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="L167" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="M167" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
     </row>
     <row r="168" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B168" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C168" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D168" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="E168">
         <v>1</v>
@@ -7658,31 +7680,31 @@
       </c>
       <c r="G168" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_CZ1UZ_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_CZ1UZ_CommissionSummary.pdf</v>
       </c>
       <c r="H168" t="str">
         <f t="shared" si="5"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_CZ1UZ_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_CZ1UZ_CommissionDetail.pdf</v>
       </c>
       <c r="K168" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="L168" t="s">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="M168" t="s">
-        <v>513</v>
+        <v>515</v>
       </c>
     </row>
     <row r="169" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B169" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C169" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D169" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="E169">
         <v>1</v>
@@ -7692,20 +7714,85 @@
       </c>
       <c r="G169" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_WZ8JP_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_WZ9JP_CommissionSummary.pdf</v>
       </c>
       <c r="H169" t="str">
         <f t="shared" si="5"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201712_WZ8JP_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_WZ9JP_CommissionDetail.pdf</v>
       </c>
       <c r="K169" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="L169" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="M169" t="s">
-        <v>515</v>
+        <v>517</v>
+      </c>
+    </row>
+    <row r="170" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B170" t="s">
+        <v>182</v>
+      </c>
+      <c r="C170" t="s">
+        <v>172</v>
+      </c>
+      <c r="D170" t="s">
+        <v>185</v>
+      </c>
+      <c r="E170">
+        <v>1</v>
+      </c>
+      <c r="F170">
+        <v>2</v>
+      </c>
+      <c r="G170" t="str">
+        <f t="shared" ref="G170:G171" si="6">$K170&amp;"\"&amp;L170</f>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_CZ1DG_CommissionSummary.pdf</v>
+      </c>
+      <c r="H170" t="str">
+        <f t="shared" ref="H170" si="7">$K170&amp;"\"&amp;M170</f>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_CZ1DG_CommissionDetail.pdf</v>
+      </c>
+      <c r="K170" t="s">
+        <v>178</v>
+      </c>
+      <c r="L170" t="s">
+        <v>518</v>
+      </c>
+      <c r="M170" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="171" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B171" t="s">
+        <v>183</v>
+      </c>
+      <c r="D171" t="s">
+        <v>185</v>
+      </c>
+      <c r="E171">
+        <v>1</v>
+      </c>
+      <c r="F171">
+        <v>2</v>
+      </c>
+      <c r="G171" t="str">
+        <f t="shared" ref="G171" si="8">$K171&amp;"\"&amp;L171</f>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_CZ1LE_CommissionSummary.pdf</v>
+      </c>
+      <c r="H171" t="str">
+        <f t="shared" ref="H171" si="9">$K171&amp;"\"&amp;M171</f>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_CZ1LE_CommissionDetail.pdf</v>
+      </c>
+      <c r="K171" t="s">
+        <v>178</v>
+      </c>
+      <c r="L171" t="s">
+        <v>520</v>
+      </c>
+      <c r="M171" t="s">
+        <v>521</v>
       </c>
     </row>
   </sheetData>

--- a/BR_Mailer/J030_COM_FSC/J030_Mailing_List - Excel.xlsx
+++ b/BR_Mailer/J030_COM_FSC/J030_Mailing_List - Excel.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1029" uniqueCount="522">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1018" uniqueCount="516">
   <si>
     <t>msg</t>
   </si>
@@ -96,9 +96,6 @@
     <t>Kyle.White@henryschein.ca</t>
   </si>
   <si>
-    <t>Cindy.Petrie@henryschein.ca</t>
-  </si>
-  <si>
     <t>Bev.Robertson@henryschein.ca</t>
   </si>
   <si>
@@ -306,9 +303,6 @@
     <t>Tyler.Mcclendon@henryschein.ca</t>
   </si>
   <si>
-    <t>Al.Mawji@henryschein.ca</t>
-  </si>
-  <si>
     <t>Scott.Cosper@henryschein.ca</t>
   </si>
   <si>
@@ -576,1015 +570,1003 @@
     <t>Don.Fleming@henryschein.ca</t>
   </si>
   <si>
-    <t>Commission Summary and Details for February 2018</t>
-  </si>
-  <si>
-    <t>201802_CZ1SD_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201802_CZ1SD_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201802_CZ125_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201802_CZ125_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201802_CZ124_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201802_CZ124_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201802_QZ132_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201802_QZ132_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201802_CZ128_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201802_CZ128_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201802_CZ144_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201802_CZ144_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201802_CZ165_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201802_CZ165_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201802_QZ178_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201802_QZ178_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201802_CZ183_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201802_CZ183_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201802_CZ107_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201802_CZ107_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201802_CZ109_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201802_CZ109_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201802_AZ112_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201802_AZ112_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201802_CZ1CP_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201802_CZ1CP_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201802_CZ154_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201802_CZ154_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201802_CZ1KD_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201802_CZ1KD_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201802_QZ1CF_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201802_QZ1CF_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201802_CZ1EM_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201802_CZ1EM_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201802_QZ1DP_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201802_QZ1DP_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201802_CZ1DA_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201802_CZ1DA_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201802_QZ1LM_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201802_QZ1LM_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201802_CZ1EE_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201802_CZ1EE_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201802_AZ1EK_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201802_AZ1EK_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201802_AZ1FB_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201802_AZ1FB_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201802_CZ1FP_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201802_CZ1FP_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201802_QZ1FT_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201802_QZ1FT_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201802_QZ1FR_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201802_QZ1FR_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201802_QZ1GO_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201802_QZ1GO_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201802_AZ1KL_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201802_AZ1KL_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201802_QZ1KK_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201802_QZ1KK_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201802_CZ1DN_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201802_CZ1DN_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201802_QZ1EO_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201802_QZ1EO_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201802_CZ1CB_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201802_CZ1CB_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201802_CZ1B8_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201802_CZ1B8_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201802_CZ1C4_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201802_CZ1C4_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201802_QZ1D8_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201802_QZ1D8_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201802_CZ1SW_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201802_CZ1SW_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201802_QZ1AP_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201802_QZ1AP_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201802_CZ2CB_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201802_CZ2CB_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201802_CZ1CG_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201802_CZ1CG_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201802_AZ1PV_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201802_AZ1PV_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201802_CZ3CB_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201802_CZ3CB_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201802_CZ5CS_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201802_CZ5CS_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201802_CZ8JA_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201802_CZ8JA_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201802_QZ7JM_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201802_QZ7JM_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201802_QZ7DO_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201802_QZ7DO_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201802_CZ5TA_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201802_CZ5TA_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201802_CZ2LB_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201802_CZ2LB_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201802_CZ2GB_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201802_CZ2GB_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201802_CZ2LH_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201802_CZ2LH_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201802_CZ2NM_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201802_CZ2NM_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201802_QZ2SB_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201802_QZ2SB_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201802_CZ2BG_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201802_CZ2BG_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201802_CZ1SA_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201802_CZ1SA_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201802_WZ115_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201802_WZ115_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201802_WZ120_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201802_WZ120_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201802_WZ118_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201802_WZ118_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201802_WZ119_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201802_WZ119_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201802_WZ138_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201802_WZ138_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201802_WZ142_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201802_WZ142_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201802_WZ134_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201802_WZ134_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201802_WZ123_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201802_WZ123_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201802_WZ136_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201802_WZ136_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201802_WZ165_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201802_WZ165_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201802_WZ1FF_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201802_WZ1FF_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201802_WZ167_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201802_WZ167_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201802_WZ175_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201802_WZ175_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201802_WZ177_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201802_WZ177_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201802_WZ143_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201802_WZ143_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201802_WZ159_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201802_WZ159_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201802_WZ162_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201802_WZ162_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201802_WZ113_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201802_WZ113_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201802_WZ137_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201802_WZ137_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201802_WZ1G4_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201802_WZ1G4_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201802_WZBW1_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201802_WZBW1_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201802_WZ9TS_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201802_WZ9TS_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201802_WZ1HM_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201802_WZ1HM_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201802_WZ2RP_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201802_WZ2RP_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201802_WZ1TT_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201802_WZ1TT_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201802_WZ1AM_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201802_WZ1AM_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201802_WZ1JW_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201802_WZ1JW_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201802_WZ1MH_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201802_WZ1MH_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201802_WZ1TM_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201802_WZ1TM_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201802_WZ2AM_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201802_WZ2AM_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201802_WZ1SC_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201802_WZ1SC_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201802_WZ1PB_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201802_WZ1PB_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201802_WZ1JN_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201802_WZ1JN_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201802_WZ1MK_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201802_WZ1MK_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201802_WZ1CA_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201802_WZ1CA_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201802_WZ2TM_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201802_WZ2TM_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201802_WZ1BC_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201802_WZ1BC_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201802_WZ1JL_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201802_WZ1JL_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201802_WZ1AL_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201802_WZ1AL_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201802_WZ1MW_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201802_WZ1MW_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201802_WZ1MS_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201802_WZ1MS_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201802_WZ1DF_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201802_WZ1DF_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201802_WZ1JI_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201802_WZ1JI_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201802_WZ1CM_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201802_WZ1CM_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201802_WZ2MS_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201802_WZ2MS_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201802_WZ2JN_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201802_WZ2JN_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201802_CZ1RD_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201802_CZ1RD_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201802_CZ1GF_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201802_CZ1GF_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201802_QZ1BP_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201802_QZ1BP_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201802_CZ1JF_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201802_CZ1JF_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201802_AZ1CI_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201802_AZ1CI_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201802_CZ1KM_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201802_CZ1KM_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201802_CZ1OV_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201802_CZ1OV_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201802_QZ1JB_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201802_QZ1JB_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201802_QZ1BG_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201802_QZ1BG_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201802_CZ1TM_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201802_CZ1TM_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201802_QZ177_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201802_QZ177_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201802_QZ1BM_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201802_QZ1BM_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201802_QZ1MD_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201802_QZ1MD_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201802_AZ1JB_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201802_AZ1JB_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201802_CZ1AD_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201802_CZ1AD_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201802_QZ1ML_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201802_QZ1ML_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201802_CZ1FA_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201802_CZ1FA_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201802_CZ2SA_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201802_CZ2SA_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201802_QZ1SL_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201802_QZ1SL_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201802_AZ1CM_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201802_AZ1CM_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201802_QZ3JB_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201802_QZ3JB_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201802_CZ1CN_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201802_CZ1CN_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201802_AZ1YU_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201802_AZ1YU_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201802_AZ1WX_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201802_AZ1WX_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201802_AZ1XF_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201802_AZ1XF_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201802_AZ1XT_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201802_AZ1XT_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201802_AZ1YP_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201802_AZ1YP_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201802_QZ1XH_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201802_QZ1XH_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201802_QZ1TB_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201802_QZ1TB_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201802_QZ1TD_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201802_QZ1TD_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201802_QZ1TK_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201802_QZ1TK_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201802_QZ1YE_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201802_QZ1YE_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201802_QZ1TE_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201802_QZ1TE_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201802_QZ1TI_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201802_QZ1TI_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201802_CZ1YI_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201802_CZ1YI_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201802_CZ1YW_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201802_CZ1YW_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201802_CZ1UE_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201802_CZ1UE_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201802_CZ1MJ_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201802_CZ1MJ_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201802_CZ1VG_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201802_CZ1VG_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201802_CZ1VJ_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201802_CZ1VJ_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201802_CZ1MI_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201802_CZ1MI_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201802_CZ1XD_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201802_CZ1XD_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201802_CZ1XB_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201802_CZ1XB_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201802_CZ1WT_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201802_CZ1WT_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201802_CZ1XA_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201802_CZ1XA_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201802_WZ2KF_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201802_WZ2KF_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201802_WZ148_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201802_WZ148_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201802_WZ8GM_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201802_WZ8GM_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201802_WZ1BH_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201802_WZ1BH_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201802_WZ114_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201802_WZ114_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201802_WZ1A6_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201802_WZ1A6_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201802_WZ139_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201802_WZ139_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201802_CZ1VL_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201802_CZ1VL_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201802_CZ1VK_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201802_CZ1VK_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201802_CZ1LR_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201802_CZ1LR_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201802_CZ1UV_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201802_CZ1UV_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201802_CZ1WV_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201802_CZ1WV_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201802_CZ1UO_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201802_CZ1UO_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201802_CZ1XC_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201802_CZ1XC_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201802_CZ1YN_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201802_CZ1YN_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201802_CZ1UI_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201802_CZ1UI_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201802_CZ1UU_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201802_CZ1UU_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201802_CZ1UW_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201802_CZ1UW_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201802_CZ1VC_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201802_CZ1VC_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201802_CZ1UX_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201802_CZ1UX_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201802_CZ1UZ_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201802_CZ1UZ_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201802_WZ9JP_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201802_WZ9JP_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201802_CZ1DG_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201802_CZ1DG_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201802_CZ1LE_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201802_CZ1LE_CommissionDetail.pdf</t>
+    <t>Commission Summary and Details for March 2018</t>
+  </si>
+  <si>
+    <t>201803_CZ1SD_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201803_CZ1SD_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201803_CZ125_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201803_CZ125_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201803_CZ124_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201803_CZ124_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201803_QZ132_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201803_QZ132_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201803_CZ128_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201803_CZ128_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201803_CZ144_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201803_CZ144_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201803_CZ165_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201803_CZ165_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201803_QZ178_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201803_QZ178_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201803_CZ183_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201803_CZ183_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201803_CZ107_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201803_CZ107_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201803_CZ109_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201803_CZ109_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201803_AZ112_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201803_AZ112_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201803_CZ154_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201803_CZ154_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201803_CZ1KD_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201803_CZ1KD_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201803_QZ1CF_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201803_QZ1CF_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201803_CZ1EM_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201803_CZ1EM_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201803_QZ1DP_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201803_QZ1DP_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201803_CZ1DA_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201803_CZ1DA_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201803_QZ1LM_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201803_QZ1LM_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201803_CZ1EE_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201803_CZ1EE_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201803_AZ1EK_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201803_AZ1EK_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201803_AZ1FB_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201803_AZ1FB_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201803_CZ1FP_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201803_CZ1FP_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201803_QZ1FT_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201803_QZ1FT_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201803_QZ1FR_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201803_QZ1FR_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201803_QZ1GO_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201803_QZ1GO_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201803_AZ1KL_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201803_AZ1KL_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201803_QZ1KK_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201803_QZ1KK_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201803_CZ1DN_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201803_CZ1DN_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201803_QZ1EO_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201803_QZ1EO_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201803_CZ1CB_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201803_CZ1CB_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201803_CZ1B8_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201803_CZ1B8_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201803_CZ1C4_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201803_CZ1C4_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201803_QZ1D8_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201803_QZ1D8_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201803_CZ1SW_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201803_CZ1SW_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201803_QZ1AP_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201803_QZ1AP_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201803_CZ2CB_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201803_CZ2CB_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201803_CZ1CG_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201803_CZ1CG_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201803_AZ1PV_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201803_AZ1PV_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201803_CZ3CB_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201803_CZ3CB_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201803_CZ5CS_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201803_CZ5CS_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201803_CZ8JA_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201803_CZ8JA_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201803_QZ7JM_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201803_QZ7JM_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201803_QZ7DO_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201803_QZ7DO_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201803_CZ5TA_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201803_CZ5TA_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201803_CZ2LB_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201803_CZ2LB_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201803_CZ2GB_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201803_CZ2GB_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201803_CZ2LH_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201803_CZ2LH_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201803_CZ2NM_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201803_CZ2NM_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201803_QZ2SB_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201803_QZ2SB_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201803_CZ2BG_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201803_CZ2BG_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201803_CZ1SA_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201803_CZ1SA_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201803_WZ115_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201803_WZ115_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201803_WZ120_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201803_WZ120_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201803_WZ118_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201803_WZ118_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201803_WZ119_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201803_WZ119_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201803_WZ138_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201803_WZ138_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201803_WZ142_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201803_WZ142_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201803_WZ134_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201803_WZ134_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201803_WZ123_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201803_WZ123_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201803_WZ136_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201803_WZ136_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201803_WZ165_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201803_WZ165_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201803_WZ1FF_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201803_WZ1FF_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201803_WZ167_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201803_WZ167_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201803_WZ175_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201803_WZ175_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201803_WZ177_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201803_WZ177_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201803_WZ143_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201803_WZ143_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201803_WZ159_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201803_WZ159_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201803_WZ162_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201803_WZ162_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201803_WZ113_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201803_WZ113_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201803_WZ137_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201803_WZ137_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201803_WZ1G4_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201803_WZ1G4_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201803_WZBW1_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201803_WZBW1_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201803_WZ9TS_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201803_WZ9TS_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201803_WZ1HM_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201803_WZ1HM_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201803_WZ2RP_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201803_WZ2RP_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201803_WZ1TT_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201803_WZ1TT_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201803_WZ1AM_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201803_WZ1AM_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201803_WZ1JW_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201803_WZ1JW_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201803_WZ1MH_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201803_WZ1MH_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201803_WZ1TM_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201803_WZ1TM_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201803_WZ1SC_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201803_WZ1SC_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201803_WZ1PB_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201803_WZ1PB_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201803_WZ1JN_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201803_WZ1JN_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201803_WZ1MK_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201803_WZ1MK_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201803_WZ1CA_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201803_WZ1CA_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201803_WZ2TM_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201803_WZ2TM_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201803_WZ1BC_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201803_WZ1BC_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201803_WZ1JL_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201803_WZ1JL_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201803_WZ1AL_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201803_WZ1AL_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201803_WZ1MW_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201803_WZ1MW_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201803_WZ1MS_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201803_WZ1MS_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201803_WZ1DF_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201803_WZ1DF_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201803_WZ1JI_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201803_WZ1JI_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201803_WZ1CM_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201803_WZ1CM_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201803_WZ2MS_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201803_WZ2MS_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201803_WZ2JN_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201803_WZ2JN_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201803_CZ1RD_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201803_CZ1RD_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201803_CZ1GF_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201803_CZ1GF_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201803_QZ1BP_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201803_QZ1BP_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201803_CZ1JF_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201803_CZ1JF_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201803_AZ1CI_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201803_AZ1CI_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201803_CZ1KM_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201803_CZ1KM_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201803_CZ1OV_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201803_CZ1OV_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201803_QZ1JB_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201803_QZ1JB_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201803_QZ1BG_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201803_QZ1BG_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201803_CZ1TM_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201803_CZ1TM_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201803_QZ177_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201803_QZ177_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201803_QZ1BM_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201803_QZ1BM_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201803_QZ1MD_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201803_QZ1MD_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201803_AZ1JB_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201803_AZ1JB_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201803_CZ1AD_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201803_CZ1AD_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201803_QZ1ML_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201803_QZ1ML_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201803_CZ1FA_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201803_CZ1FA_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201803_CZ2SA_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201803_CZ2SA_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201803_QZ1SL_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201803_QZ1SL_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201803_AZ1CM_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201803_AZ1CM_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201803_QZ3JB_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201803_QZ3JB_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201803_CZ1CN_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201803_CZ1CN_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201803_AZ1YU_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201803_AZ1YU_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201803_AZ1WX_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201803_AZ1WX_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201803_AZ1XF_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201803_AZ1XF_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201803_AZ1XT_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201803_AZ1XT_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201803_AZ1YP_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201803_AZ1YP_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201803_QZ1XH_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201803_QZ1XH_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201803_QZ1TB_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201803_QZ1TB_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201803_QZ1TD_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201803_QZ1TD_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201803_QZ1TK_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201803_QZ1TK_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201803_QZ1YE_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201803_QZ1YE_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201803_QZ1TE_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201803_QZ1TE_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201803_QZ1TI_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201803_QZ1TI_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201803_CZ1YI_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201803_CZ1YI_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201803_CZ1YW_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201803_CZ1YW_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201803_CZ1UE_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201803_CZ1UE_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201803_CZ1MJ_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201803_CZ1MJ_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201803_CZ1VG_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201803_CZ1VG_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201803_CZ1VJ_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201803_CZ1VJ_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201803_CZ1MI_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201803_CZ1MI_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201803_CZ1XD_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201803_CZ1XD_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201803_CZ1XB_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201803_CZ1XB_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201803_CZ1WT_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201803_CZ1WT_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201803_CZ1XA_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201803_CZ1XA_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201803_WZ2KF_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201803_WZ2KF_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201803_WZ148_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201803_WZ148_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201803_WZ8GM_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201803_WZ8GM_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201803_WZ1BH_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201803_WZ1BH_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201803_WZ114_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201803_WZ114_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201803_WZ1A6_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201803_WZ1A6_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201803_WZ139_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201803_WZ139_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201803_CZ1VL_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201803_CZ1VL_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201803_CZ1VK_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201803_CZ1VK_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201803_CZ1LR_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201803_CZ1LR_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201803_CZ1UV_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201803_CZ1UV_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201803_CZ1WV_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201803_CZ1WV_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201803_CZ1UO_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201803_CZ1UO_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201803_CZ1XC_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201803_CZ1XC_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201803_CZ1YN_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201803_CZ1YN_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201803_CZ1UI_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201803_CZ1UI_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201803_CZ1UU_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201803_CZ1UU_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201803_CZ1UW_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201803_CZ1UW_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201803_CZ1VC_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201803_CZ1VC_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201803_CZ1UX_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201803_CZ1UX_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201803_CZ1UZ_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201803_CZ1UZ_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201803_WZ9JP_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201803_WZ9JP_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201803_CZ1DG_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201803_CZ1DG_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201803_CZ1LE_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201803_CZ1LE_CommissionDetail.pdf</t>
   </si>
 </sst>
 </file>
@@ -1934,19 +1916,17 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:N171"/>
+  <dimension ref="A1:N169"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A134" workbookViewId="0">
-      <selection activeCell="G158" sqref="G158"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="9.5703125" customWidth="1"/>
-    <col min="3" max="3" width="39.7109375" customWidth="1"/>
-    <col min="4" max="4" width="76.5703125" customWidth="1"/>
+    <col min="2" max="2" width="34.140625" customWidth="1"/>
+    <col min="3" max="3" width="24.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="45.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="3.28515625" customWidth="1"/>
-    <col min="7" max="7" width="9" customWidth="1"/>
+    <col min="7" max="7" width="16.5703125" customWidth="1"/>
     <col min="8" max="8" width="10.5703125" customWidth="1"/>
     <col min="9" max="9" width="3.28515625" customWidth="1"/>
     <col min="10" max="10" width="116.42578125" customWidth="1"/>
@@ -1984,7 +1964,7 @@
         <v>8</v>
       </c>
       <c r="J1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="K1" t="s">
         <v>11</v>
@@ -2003,11 +1983,11 @@
         <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D2" t="str">
         <f>D3</f>
-        <v>Commission Summary and Details for February 2018</v>
+        <v>Commission Summary and Details for March 2018</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -2017,34 +1997,34 @@
       </c>
       <c r="G2" t="str">
         <f>$K2&amp;"\"&amp;L2</f>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_CZ1SD_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_CZ1SD_CommissionSummary.pdf</v>
       </c>
       <c r="H2" t="str">
         <f>$K2&amp;"\"&amp;M2</f>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_CZ1SD_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_CZ1SD_CommissionDetail.pdf</v>
       </c>
       <c r="K2" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="L2" t="str">
         <f>L3</f>
-        <v>201802_CZ1SD_CommissionSummary.pdf</v>
+        <v>201803_CZ1SD_CommissionSummary.pdf</v>
       </c>
       <c r="M2" t="str">
         <f>M3</f>
-        <v>201802_CZ1SD_CommissionDetail.pdf</v>
+        <v>201803_CZ1SD_CommissionDetail.pdf</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
       <c r="B3" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C3" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D3" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -2054,20 +2034,20 @@
       </c>
       <c r="G3" t="str">
         <f t="shared" ref="G3:G66" si="0">$K3&amp;"\"&amp;L3</f>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_CZ1SD_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_CZ1SD_CommissionSummary.pdf</v>
       </c>
       <c r="H3" t="str">
         <f t="shared" ref="H3:H66" si="1">$K3&amp;"\"&amp;M3</f>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_CZ1SD_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_CZ1SD_CommissionDetail.pdf</v>
       </c>
       <c r="K3" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="L3" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="M3" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
@@ -2076,10 +2056,10 @@
         <v>13</v>
       </c>
       <c r="C4" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D4" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -2089,20 +2069,20 @@
       </c>
       <c r="G4" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_CZ125_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_CZ125_CommissionSummary.pdf</v>
       </c>
       <c r="H4" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_CZ125_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_CZ125_CommissionDetail.pdf</v>
       </c>
       <c r="K4" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="L4" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="M4" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
@@ -2111,10 +2091,10 @@
         <v>14</v>
       </c>
       <c r="C5" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D5" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -2124,20 +2104,20 @@
       </c>
       <c r="G5" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_CZ124_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_CZ124_CommissionSummary.pdf</v>
       </c>
       <c r="H5" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_CZ124_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_CZ124_CommissionDetail.pdf</v>
       </c>
       <c r="K5" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="L5" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="M5" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
@@ -2146,10 +2126,10 @@
         <v>15</v>
       </c>
       <c r="C6" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D6" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -2159,20 +2139,20 @@
       </c>
       <c r="G6" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_QZ132_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_QZ132_CommissionSummary.pdf</v>
       </c>
       <c r="H6" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_QZ132_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_QZ132_CommissionDetail.pdf</v>
       </c>
       <c r="K6" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="L6" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="M6" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
@@ -2181,10 +2161,10 @@
         <v>16</v>
       </c>
       <c r="C7" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D7" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -2194,20 +2174,20 @@
       </c>
       <c r="G7" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_CZ128_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_CZ128_CommissionSummary.pdf</v>
       </c>
       <c r="H7" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_CZ128_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_CZ128_CommissionDetail.pdf</v>
       </c>
       <c r="K7" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="L7" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="M7" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
@@ -2216,10 +2196,10 @@
         <v>17</v>
       </c>
       <c r="C8" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D8" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E8">
         <v>1</v>
@@ -2229,20 +2209,20 @@
       </c>
       <c r="G8" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_CZ144_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_CZ144_CommissionSummary.pdf</v>
       </c>
       <c r="H8" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_CZ144_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_CZ144_CommissionDetail.pdf</v>
       </c>
       <c r="K8" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="L8" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="M8" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
@@ -2251,10 +2231,10 @@
         <v>18</v>
       </c>
       <c r="C9" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D9" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E9">
         <v>1</v>
@@ -2264,20 +2244,20 @@
       </c>
       <c r="G9" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_CZ165_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_CZ165_CommissionSummary.pdf</v>
       </c>
       <c r="H9" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_CZ165_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_CZ165_CommissionDetail.pdf</v>
       </c>
       <c r="K9" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="L9" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="M9" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
@@ -2286,10 +2266,10 @@
         <v>20</v>
       </c>
       <c r="C10" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D10" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E10">
         <v>1</v>
@@ -2299,20 +2279,20 @@
       </c>
       <c r="G10" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_QZ178_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_QZ178_CommissionSummary.pdf</v>
       </c>
       <c r="H10" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_QZ178_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_QZ178_CommissionDetail.pdf</v>
       </c>
       <c r="K10" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="L10" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="M10" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
@@ -2321,10 +2301,10 @@
         <v>21</v>
       </c>
       <c r="C11" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D11" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E11">
         <v>1</v>
@@ -2334,20 +2314,20 @@
       </c>
       <c r="G11" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_CZ183_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_CZ183_CommissionSummary.pdf</v>
       </c>
       <c r="H11" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_CZ183_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_CZ183_CommissionDetail.pdf</v>
       </c>
       <c r="K11" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="L11" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="M11" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
@@ -2356,10 +2336,10 @@
         <v>22</v>
       </c>
       <c r="C12" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D12" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E12">
         <v>1</v>
@@ -2369,20 +2349,20 @@
       </c>
       <c r="G12" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_CZ107_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_CZ107_CommissionSummary.pdf</v>
       </c>
       <c r="H12" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_CZ107_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_CZ107_CommissionDetail.pdf</v>
       </c>
       <c r="K12" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="L12" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="M12" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
@@ -2391,10 +2371,10 @@
         <v>23</v>
       </c>
       <c r="C13" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D13" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E13">
         <v>1</v>
@@ -2404,20 +2384,20 @@
       </c>
       <c r="G13" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_CZ109_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_CZ109_CommissionSummary.pdf</v>
       </c>
       <c r="H13" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_CZ109_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_CZ109_CommissionDetail.pdf</v>
       </c>
       <c r="K13" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="L13" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="M13" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
@@ -2426,10 +2406,10 @@
         <v>24</v>
       </c>
       <c r="C14" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D14" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E14">
         <v>1</v>
@@ -2439,20 +2419,20 @@
       </c>
       <c r="G14" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_AZ112_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_AZ112_CommissionSummary.pdf</v>
       </c>
       <c r="H14" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_AZ112_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_AZ112_CommissionDetail.pdf</v>
       </c>
       <c r="K14" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="L14" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="M14" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
@@ -2461,10 +2441,10 @@
         <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D15" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E15">
         <v>1</v>
@@ -2474,20 +2454,20 @@
       </c>
       <c r="G15" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_CZ1CP_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_CZ154_CommissionSummary.pdf</v>
       </c>
       <c r="H15" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_CZ1CP_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_CZ154_CommissionDetail.pdf</v>
       </c>
       <c r="K15" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="L15" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="M15" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
@@ -2496,10 +2476,10 @@
         <v>26</v>
       </c>
       <c r="C16" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D16" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E16">
         <v>1</v>
@@ -2509,20 +2489,20 @@
       </c>
       <c r="G16" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_CZ154_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_CZ1KD_CommissionSummary.pdf</v>
       </c>
       <c r="H16" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_CZ154_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_CZ1KD_CommissionDetail.pdf</v>
       </c>
       <c r="K16" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="L16" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="M16" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
@@ -2531,10 +2511,10 @@
         <v>27</v>
       </c>
       <c r="C17" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D17" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E17">
         <v>1</v>
@@ -2544,20 +2524,20 @@
       </c>
       <c r="G17" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_CZ1KD_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_QZ1CF_CommissionSummary.pdf</v>
       </c>
       <c r="H17" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_CZ1KD_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_QZ1CF_CommissionDetail.pdf</v>
       </c>
       <c r="K17" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="L17" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="M17" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
@@ -2566,10 +2546,10 @@
         <v>28</v>
       </c>
       <c r="C18" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D18" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E18">
         <v>1</v>
@@ -2579,20 +2559,20 @@
       </c>
       <c r="G18" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_QZ1CF_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_CZ1EM_CommissionSummary.pdf</v>
       </c>
       <c r="H18" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_QZ1CF_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_CZ1EM_CommissionDetail.pdf</v>
       </c>
       <c r="K18" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="L18" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="M18" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
@@ -2601,10 +2581,10 @@
         <v>29</v>
       </c>
       <c r="C19" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D19" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E19">
         <v>1</v>
@@ -2614,20 +2594,20 @@
       </c>
       <c r="G19" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_CZ1EM_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_QZ1DP_CommissionSummary.pdf</v>
       </c>
       <c r="H19" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_CZ1EM_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_QZ1DP_CommissionDetail.pdf</v>
       </c>
       <c r="K19" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="L19" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="M19" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
@@ -2635,10 +2615,10 @@
         <v>30</v>
       </c>
       <c r="C20" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D20" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E20">
         <v>1</v>
@@ -2648,20 +2628,20 @@
       </c>
       <c r="G20" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_QZ1DP_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_CZ1DA_CommissionSummary.pdf</v>
       </c>
       <c r="H20" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_QZ1DP_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_CZ1DA_CommissionDetail.pdf</v>
       </c>
       <c r="K20" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="L20" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="M20" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
@@ -2669,10 +2649,10 @@
         <v>31</v>
       </c>
       <c r="C21" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D21" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E21">
         <v>1</v>
@@ -2682,20 +2662,20 @@
       </c>
       <c r="G21" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_CZ1DA_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_QZ1LM_CommissionSummary.pdf</v>
       </c>
       <c r="H21" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_CZ1DA_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_QZ1LM_CommissionDetail.pdf</v>
       </c>
       <c r="K21" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="L21" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="M21" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
@@ -2703,10 +2683,10 @@
         <v>32</v>
       </c>
       <c r="C22" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D22" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E22">
         <v>1</v>
@@ -2716,20 +2696,20 @@
       </c>
       <c r="G22" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_QZ1LM_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_CZ1EE_CommissionSummary.pdf</v>
       </c>
       <c r="H22" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_QZ1LM_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_CZ1EE_CommissionDetail.pdf</v>
       </c>
       <c r="K22" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="L22" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="M22" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
@@ -2737,10 +2717,10 @@
         <v>33</v>
       </c>
       <c r="C23" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D23" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E23">
         <v>1</v>
@@ -2750,20 +2730,20 @@
       </c>
       <c r="G23" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_CZ1EE_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_AZ1EK_CommissionSummary.pdf</v>
       </c>
       <c r="H23" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_CZ1EE_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_AZ1EK_CommissionDetail.pdf</v>
       </c>
       <c r="K23" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="L23" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="M23" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
@@ -2771,10 +2751,10 @@
         <v>34</v>
       </c>
       <c r="C24" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D24" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E24">
         <v>1</v>
@@ -2784,20 +2764,20 @@
       </c>
       <c r="G24" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_AZ1EK_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_AZ1FB_CommissionSummary.pdf</v>
       </c>
       <c r="H24" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_AZ1EK_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_AZ1FB_CommissionDetail.pdf</v>
       </c>
       <c r="K24" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="L24" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="M24" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
@@ -2805,10 +2785,10 @@
         <v>35</v>
       </c>
       <c r="C25" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D25" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E25">
         <v>1</v>
@@ -2818,20 +2798,20 @@
       </c>
       <c r="G25" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_AZ1FB_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_CZ1FP_CommissionSummary.pdf</v>
       </c>
       <c r="H25" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_AZ1FB_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_CZ1FP_CommissionDetail.pdf</v>
       </c>
       <c r="K25" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="L25" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="M25" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
@@ -2839,10 +2819,10 @@
         <v>36</v>
       </c>
       <c r="C26" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D26" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E26">
         <v>1</v>
@@ -2852,20 +2832,20 @@
       </c>
       <c r="G26" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_CZ1FP_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_QZ1FT_CommissionSummary.pdf</v>
       </c>
       <c r="H26" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_CZ1FP_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_QZ1FT_CommissionDetail.pdf</v>
       </c>
       <c r="K26" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="L26" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="M26" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
@@ -2873,10 +2853,10 @@
         <v>37</v>
       </c>
       <c r="C27" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D27" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E27">
         <v>1</v>
@@ -2886,20 +2866,20 @@
       </c>
       <c r="G27" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_QZ1FT_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_QZ1FR_CommissionSummary.pdf</v>
       </c>
       <c r="H27" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_QZ1FT_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_QZ1FR_CommissionDetail.pdf</v>
       </c>
       <c r="K27" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="L27" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="M27" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
@@ -2907,10 +2887,10 @@
         <v>38</v>
       </c>
       <c r="C28" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D28" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E28">
         <v>1</v>
@@ -2920,20 +2900,20 @@
       </c>
       <c r="G28" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_QZ1FR_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_QZ1GO_CommissionSummary.pdf</v>
       </c>
       <c r="H28" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_QZ1FR_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_QZ1GO_CommissionDetail.pdf</v>
       </c>
       <c r="K28" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="L28" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="M28" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
@@ -2941,10 +2921,10 @@
         <v>39</v>
       </c>
       <c r="C29" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D29" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E29">
         <v>1</v>
@@ -2954,20 +2934,20 @@
       </c>
       <c r="G29" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_QZ1GO_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_AZ1KL_CommissionSummary.pdf</v>
       </c>
       <c r="H29" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_QZ1GO_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_AZ1KL_CommissionDetail.pdf</v>
       </c>
       <c r="K29" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="L29" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="M29" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
@@ -2975,10 +2955,10 @@
         <v>40</v>
       </c>
       <c r="C30" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D30" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E30">
         <v>1</v>
@@ -2988,20 +2968,20 @@
       </c>
       <c r="G30" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_AZ1KL_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_QZ1KK_CommissionSummary.pdf</v>
       </c>
       <c r="H30" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_AZ1KL_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_QZ1KK_CommissionDetail.pdf</v>
       </c>
       <c r="K30" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="L30" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="M30" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
@@ -3009,10 +2989,10 @@
         <v>41</v>
       </c>
       <c r="C31" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D31" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E31">
         <v>1</v>
@@ -3022,20 +3002,20 @@
       </c>
       <c r="G31" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_QZ1KK_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_CZ1DN_CommissionSummary.pdf</v>
       </c>
       <c r="H31" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_QZ1KK_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_CZ1DN_CommissionDetail.pdf</v>
       </c>
       <c r="K31" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="L31" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="M31" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
@@ -3043,10 +3023,10 @@
         <v>42</v>
       </c>
       <c r="C32" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D32" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E32">
         <v>1</v>
@@ -3056,20 +3036,20 @@
       </c>
       <c r="G32" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_CZ1DN_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_QZ1EO_CommissionSummary.pdf</v>
       </c>
       <c r="H32" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_CZ1DN_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_QZ1EO_CommissionDetail.pdf</v>
       </c>
       <c r="K32" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="L32" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="M32" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="33" spans="2:13" x14ac:dyDescent="0.25">
@@ -3077,10 +3057,10 @@
         <v>43</v>
       </c>
       <c r="C33" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D33" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E33">
         <v>1</v>
@@ -3090,20 +3070,20 @@
       </c>
       <c r="G33" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_QZ1EO_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_CZ1CB_CommissionSummary.pdf</v>
       </c>
       <c r="H33" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_QZ1EO_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_CZ1CB_CommissionDetail.pdf</v>
       </c>
       <c r="K33" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="L33" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="M33" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="34" spans="2:13" x14ac:dyDescent="0.25">
@@ -3111,10 +3091,10 @@
         <v>44</v>
       </c>
       <c r="C34" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D34" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E34">
         <v>1</v>
@@ -3124,20 +3104,20 @@
       </c>
       <c r="G34" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_CZ1CB_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_CZ1B8_CommissionSummary.pdf</v>
       </c>
       <c r="H34" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_CZ1CB_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_CZ1B8_CommissionDetail.pdf</v>
       </c>
       <c r="K34" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="L34" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="M34" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="35" spans="2:13" x14ac:dyDescent="0.25">
@@ -3145,10 +3125,10 @@
         <v>45</v>
       </c>
       <c r="C35" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D35" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E35">
         <v>1</v>
@@ -3158,20 +3138,20 @@
       </c>
       <c r="G35" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_CZ1B8_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_CZ1C4_CommissionSummary.pdf</v>
       </c>
       <c r="H35" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_CZ1B8_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_CZ1C4_CommissionDetail.pdf</v>
       </c>
       <c r="K35" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="L35" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="M35" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="36" spans="2:13" x14ac:dyDescent="0.25">
@@ -3179,10 +3159,10 @@
         <v>46</v>
       </c>
       <c r="C36" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D36" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E36">
         <v>1</v>
@@ -3192,20 +3172,20 @@
       </c>
       <c r="G36" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_CZ1C4_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_QZ1D8_CommissionSummary.pdf</v>
       </c>
       <c r="H36" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_CZ1C4_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_QZ1D8_CommissionDetail.pdf</v>
       </c>
       <c r="K36" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="L36" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="M36" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="37" spans="2:13" x14ac:dyDescent="0.25">
@@ -3213,10 +3193,10 @@
         <v>47</v>
       </c>
       <c r="C37" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D37" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E37">
         <v>1</v>
@@ -3226,20 +3206,20 @@
       </c>
       <c r="G37" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_QZ1D8_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_CZ1SW_CommissionSummary.pdf</v>
       </c>
       <c r="H37" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_QZ1D8_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_CZ1SW_CommissionDetail.pdf</v>
       </c>
       <c r="K37" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="L37" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="M37" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="38" spans="2:13" x14ac:dyDescent="0.25">
@@ -3247,10 +3227,10 @@
         <v>48</v>
       </c>
       <c r="C38" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D38" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E38">
         <v>1</v>
@@ -3260,20 +3240,20 @@
       </c>
       <c r="G38" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_CZ1SW_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_QZ1AP_CommissionSummary.pdf</v>
       </c>
       <c r="H38" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_CZ1SW_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_QZ1AP_CommissionDetail.pdf</v>
       </c>
       <c r="K38" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="L38" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="M38" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="39" spans="2:13" x14ac:dyDescent="0.25">
@@ -3281,10 +3261,10 @@
         <v>49</v>
       </c>
       <c r="C39" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D39" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E39">
         <v>1</v>
@@ -3294,20 +3274,20 @@
       </c>
       <c r="G39" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_QZ1AP_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_CZ2CB_CommissionSummary.pdf</v>
       </c>
       <c r="H39" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_QZ1AP_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_CZ2CB_CommissionDetail.pdf</v>
       </c>
       <c r="K39" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="L39" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="M39" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="40" spans="2:13" x14ac:dyDescent="0.25">
@@ -3315,10 +3295,10 @@
         <v>50</v>
       </c>
       <c r="C40" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D40" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E40">
         <v>1</v>
@@ -3328,20 +3308,20 @@
       </c>
       <c r="G40" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_CZ2CB_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_CZ1CG_CommissionSummary.pdf</v>
       </c>
       <c r="H40" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_CZ2CB_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_CZ1CG_CommissionDetail.pdf</v>
       </c>
       <c r="K40" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="L40" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="M40" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="41" spans="2:13" x14ac:dyDescent="0.25">
@@ -3349,10 +3329,10 @@
         <v>51</v>
       </c>
       <c r="C41" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D41" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E41">
         <v>1</v>
@@ -3362,20 +3342,20 @@
       </c>
       <c r="G41" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_CZ1CG_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_AZ1PV_CommissionSummary.pdf</v>
       </c>
       <c r="H41" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_CZ1CG_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_AZ1PV_CommissionDetail.pdf</v>
       </c>
       <c r="K41" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="L41" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="M41" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="42" spans="2:13" x14ac:dyDescent="0.25">
@@ -3383,10 +3363,10 @@
         <v>52</v>
       </c>
       <c r="C42" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D42" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E42">
         <v>1</v>
@@ -3396,20 +3376,20 @@
       </c>
       <c r="G42" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_AZ1PV_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_CZ3CB_CommissionSummary.pdf</v>
       </c>
       <c r="H42" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_AZ1PV_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_CZ3CB_CommissionDetail.pdf</v>
       </c>
       <c r="K42" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="L42" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="M42" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="43" spans="2:13" x14ac:dyDescent="0.25">
@@ -3417,10 +3397,10 @@
         <v>53</v>
       </c>
       <c r="C43" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D43" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E43">
         <v>1</v>
@@ -3430,20 +3410,20 @@
       </c>
       <c r="G43" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_CZ3CB_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_CZ5CS_CommissionSummary.pdf</v>
       </c>
       <c r="H43" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_CZ3CB_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_CZ5CS_CommissionDetail.pdf</v>
       </c>
       <c r="K43" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="L43" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="M43" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="44" spans="2:13" x14ac:dyDescent="0.25">
@@ -3451,10 +3431,10 @@
         <v>54</v>
       </c>
       <c r="C44" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D44" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E44">
         <v>1</v>
@@ -3464,31 +3444,31 @@
       </c>
       <c r="G44" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_CZ5CS_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_CZ8JA_CommissionSummary.pdf</v>
       </c>
       <c r="H44" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_CZ5CS_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_CZ8JA_CommissionDetail.pdf</v>
       </c>
       <c r="K44" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="L44" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="M44" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="45" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
-        <v>55</v>
+        <v>168</v>
       </c>
       <c r="C45" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D45" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E45">
         <v>1</v>
@@ -3498,31 +3478,31 @@
       </c>
       <c r="G45" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_CZ8JA_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_QZ7JM_CommissionSummary.pdf</v>
       </c>
       <c r="H45" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_CZ8JA_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_QZ7JM_CommissionDetail.pdf</v>
       </c>
       <c r="K45" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="L45" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="M45" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="46" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
-        <v>170</v>
+        <v>55</v>
       </c>
       <c r="C46" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D46" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E46">
         <v>1</v>
@@ -3532,20 +3512,20 @@
       </c>
       <c r="G46" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_QZ7JM_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_QZ7DO_CommissionSummary.pdf</v>
       </c>
       <c r="H46" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_QZ7JM_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_QZ7DO_CommissionDetail.pdf</v>
       </c>
       <c r="K46" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="L46" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="M46" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="47" spans="2:13" x14ac:dyDescent="0.25">
@@ -3553,10 +3533,10 @@
         <v>56</v>
       </c>
       <c r="C47" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D47" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E47">
         <v>1</v>
@@ -3566,20 +3546,20 @@
       </c>
       <c r="G47" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_QZ7DO_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_CZ5TA_CommissionSummary.pdf</v>
       </c>
       <c r="H47" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_QZ7DO_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_CZ5TA_CommissionDetail.pdf</v>
       </c>
       <c r="K47" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="L47" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="M47" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="48" spans="2:13" x14ac:dyDescent="0.25">
@@ -3587,10 +3567,10 @@
         <v>57</v>
       </c>
       <c r="C48" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D48" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E48">
         <v>1</v>
@@ -3600,20 +3580,20 @@
       </c>
       <c r="G48" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_CZ5TA_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_CZ2LB_CommissionSummary.pdf</v>
       </c>
       <c r="H48" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_CZ5TA_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_CZ2LB_CommissionDetail.pdf</v>
       </c>
       <c r="K48" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="L48" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="M48" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="49" spans="2:13" x14ac:dyDescent="0.25">
@@ -3621,10 +3601,10 @@
         <v>58</v>
       </c>
       <c r="C49" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D49" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E49">
         <v>1</v>
@@ -3634,20 +3614,20 @@
       </c>
       <c r="G49" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_CZ2LB_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_CZ2GB_CommissionSummary.pdf</v>
       </c>
       <c r="H49" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_CZ2LB_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_CZ2GB_CommissionDetail.pdf</v>
       </c>
       <c r="K49" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="L49" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="M49" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="50" spans="2:13" x14ac:dyDescent="0.25">
@@ -3655,10 +3635,10 @@
         <v>59</v>
       </c>
       <c r="C50" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D50" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E50">
         <v>1</v>
@@ -3668,20 +3648,20 @@
       </c>
       <c r="G50" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_CZ2GB_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_CZ2LH_CommissionSummary.pdf</v>
       </c>
       <c r="H50" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_CZ2GB_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_CZ2LH_CommissionDetail.pdf</v>
       </c>
       <c r="K50" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="L50" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="M50" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="51" spans="2:13" x14ac:dyDescent="0.25">
@@ -3689,10 +3669,10 @@
         <v>60</v>
       </c>
       <c r="C51" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D51" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E51">
         <v>1</v>
@@ -3702,20 +3682,20 @@
       </c>
       <c r="G51" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_CZ2LH_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_CZ2NM_CommissionSummary.pdf</v>
       </c>
       <c r="H51" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_CZ2LH_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_CZ2NM_CommissionDetail.pdf</v>
       </c>
       <c r="K51" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="L51" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="M51" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="52" spans="2:13" x14ac:dyDescent="0.25">
@@ -3723,10 +3703,10 @@
         <v>61</v>
       </c>
       <c r="C52" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D52" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E52">
         <v>1</v>
@@ -3736,20 +3716,20 @@
       </c>
       <c r="G52" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_CZ2NM_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_QZ2SB_CommissionSummary.pdf</v>
       </c>
       <c r="H52" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_CZ2NM_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_QZ2SB_CommissionDetail.pdf</v>
       </c>
       <c r="K52" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="L52" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="M52" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="53" spans="2:13" x14ac:dyDescent="0.25">
@@ -3757,10 +3737,10 @@
         <v>62</v>
       </c>
       <c r="C53" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D53" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E53">
         <v>1</v>
@@ -3770,20 +3750,20 @@
       </c>
       <c r="G53" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_QZ2SB_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_CZ2BG_CommissionSummary.pdf</v>
       </c>
       <c r="H53" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_QZ2SB_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_CZ2BG_CommissionDetail.pdf</v>
       </c>
       <c r="K53" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="L53" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="M53" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="54" spans="2:13" x14ac:dyDescent="0.25">
@@ -3791,10 +3771,10 @@
         <v>63</v>
       </c>
       <c r="C54" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D54" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E54">
         <v>1</v>
@@ -3804,20 +3784,20 @@
       </c>
       <c r="G54" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_CZ2BG_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_CZ1SA_CommissionSummary.pdf</v>
       </c>
       <c r="H54" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_CZ2BG_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_CZ1SA_CommissionDetail.pdf</v>
       </c>
       <c r="K54" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="L54" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="M54" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="55" spans="2:13" x14ac:dyDescent="0.25">
@@ -3825,10 +3805,10 @@
         <v>64</v>
       </c>
       <c r="C55" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D55" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E55">
         <v>1</v>
@@ -3838,20 +3818,20 @@
       </c>
       <c r="G55" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_CZ1SA_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_WZ115_CommissionSummary.pdf</v>
       </c>
       <c r="H55" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_CZ1SA_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_WZ115_CommissionDetail.pdf</v>
       </c>
       <c r="K55" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="L55" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="M55" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="56" spans="2:13" x14ac:dyDescent="0.25">
@@ -3859,10 +3839,10 @@
         <v>65</v>
       </c>
       <c r="C56" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D56" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E56">
         <v>1</v>
@@ -3872,20 +3852,20 @@
       </c>
       <c r="G56" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_WZ115_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_WZ120_CommissionSummary.pdf</v>
       </c>
       <c r="H56" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_WZ115_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_WZ120_CommissionDetail.pdf</v>
       </c>
       <c r="K56" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="L56" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="M56" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="57" spans="2:13" x14ac:dyDescent="0.25">
@@ -3893,10 +3873,10 @@
         <v>66</v>
       </c>
       <c r="C57" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D57" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E57">
         <v>1</v>
@@ -3906,20 +3886,20 @@
       </c>
       <c r="G57" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_WZ120_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_WZ118_CommissionSummary.pdf</v>
       </c>
       <c r="H57" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_WZ120_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_WZ118_CommissionDetail.pdf</v>
       </c>
       <c r="K57" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="L57" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="M57" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="58" spans="2:13" x14ac:dyDescent="0.25">
@@ -3927,10 +3907,10 @@
         <v>67</v>
       </c>
       <c r="C58" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D58" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E58">
         <v>1</v>
@@ -3940,20 +3920,20 @@
       </c>
       <c r="G58" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_WZ118_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_WZ119_CommissionSummary.pdf</v>
       </c>
       <c r="H58" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_WZ118_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_WZ119_CommissionDetail.pdf</v>
       </c>
       <c r="K58" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="L58" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="M58" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="59" spans="2:13" x14ac:dyDescent="0.25">
@@ -3961,10 +3941,10 @@
         <v>68</v>
       </c>
       <c r="C59" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D59" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E59">
         <v>1</v>
@@ -3974,20 +3954,20 @@
       </c>
       <c r="G59" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_WZ119_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_WZ138_CommissionSummary.pdf</v>
       </c>
       <c r="H59" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_WZ119_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_WZ138_CommissionDetail.pdf</v>
       </c>
       <c r="K59" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="L59" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="M59" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="60" spans="2:13" x14ac:dyDescent="0.25">
@@ -3995,10 +3975,10 @@
         <v>69</v>
       </c>
       <c r="C60" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D60" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E60">
         <v>1</v>
@@ -4008,20 +3988,20 @@
       </c>
       <c r="G60" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_WZ138_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_WZ142_CommissionSummary.pdf</v>
       </c>
       <c r="H60" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_WZ138_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_WZ142_CommissionDetail.pdf</v>
       </c>
       <c r="K60" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="L60" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="M60" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="61" spans="2:13" x14ac:dyDescent="0.25">
@@ -4029,10 +4009,10 @@
         <v>70</v>
       </c>
       <c r="C61" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D61" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E61">
         <v>1</v>
@@ -4042,20 +4022,20 @@
       </c>
       <c r="G61" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_WZ142_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_WZ134_CommissionSummary.pdf</v>
       </c>
       <c r="H61" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_WZ142_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_WZ134_CommissionDetail.pdf</v>
       </c>
       <c r="K61" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="L61" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="M61" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="62" spans="2:13" x14ac:dyDescent="0.25">
@@ -4063,10 +4043,10 @@
         <v>71</v>
       </c>
       <c r="C62" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D62" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E62">
         <v>1</v>
@@ -4076,20 +4056,20 @@
       </c>
       <c r="G62" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_WZ134_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_WZ123_CommissionSummary.pdf</v>
       </c>
       <c r="H62" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_WZ134_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_WZ123_CommissionDetail.pdf</v>
       </c>
       <c r="K62" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="L62" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="M62" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
     </row>
     <row r="63" spans="2:13" x14ac:dyDescent="0.25">
@@ -4097,10 +4077,10 @@
         <v>72</v>
       </c>
       <c r="C63" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D63" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E63">
         <v>1</v>
@@ -4110,20 +4090,20 @@
       </c>
       <c r="G63" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_WZ123_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_WZ136_CommissionSummary.pdf</v>
       </c>
       <c r="H63" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_WZ123_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_WZ136_CommissionDetail.pdf</v>
       </c>
       <c r="K63" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="L63" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="M63" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="64" spans="2:13" x14ac:dyDescent="0.25">
@@ -4131,10 +4111,10 @@
         <v>73</v>
       </c>
       <c r="C64" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D64" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E64">
         <v>1</v>
@@ -4144,20 +4124,20 @@
       </c>
       <c r="G64" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_WZ136_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_WZ165_CommissionSummary.pdf</v>
       </c>
       <c r="H64" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_WZ136_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_WZ165_CommissionDetail.pdf</v>
       </c>
       <c r="K64" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="L64" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="M64" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
     </row>
     <row r="65" spans="2:13" x14ac:dyDescent="0.25">
@@ -4165,10 +4145,10 @@
         <v>74</v>
       </c>
       <c r="C65" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D65" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E65">
         <v>1</v>
@@ -4178,20 +4158,20 @@
       </c>
       <c r="G65" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_WZ165_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_WZ1FF_CommissionSummary.pdf</v>
       </c>
       <c r="H65" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_WZ165_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_WZ1FF_CommissionDetail.pdf</v>
       </c>
       <c r="K65" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="L65" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="M65" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
     </row>
     <row r="66" spans="2:13" x14ac:dyDescent="0.25">
@@ -4199,10 +4179,10 @@
         <v>75</v>
       </c>
       <c r="C66" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D66" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E66">
         <v>1</v>
@@ -4212,20 +4192,20 @@
       </c>
       <c r="G66" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_WZ1FF_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_WZ167_CommissionSummary.pdf</v>
       </c>
       <c r="H66" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_WZ1FF_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_WZ167_CommissionDetail.pdf</v>
       </c>
       <c r="K66" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="L66" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="M66" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
     </row>
     <row r="67" spans="2:13" x14ac:dyDescent="0.25">
@@ -4233,10 +4213,10 @@
         <v>76</v>
       </c>
       <c r="C67" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D67" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E67">
         <v>1</v>
@@ -4246,20 +4226,20 @@
       </c>
       <c r="G67" t="str">
         <f t="shared" ref="G67:G130" si="2">$K67&amp;"\"&amp;L67</f>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_WZ167_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_WZ175_CommissionSummary.pdf</v>
       </c>
       <c r="H67" t="str">
         <f t="shared" ref="H67:H130" si="3">$K67&amp;"\"&amp;M67</f>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_WZ167_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_WZ175_CommissionDetail.pdf</v>
       </c>
       <c r="K67" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="L67" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="M67" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="68" spans="2:13" x14ac:dyDescent="0.25">
@@ -4267,10 +4247,10 @@
         <v>77</v>
       </c>
       <c r="C68" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D68" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E68">
         <v>1</v>
@@ -4280,20 +4260,20 @@
       </c>
       <c r="G68" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_WZ175_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_WZ177_CommissionSummary.pdf</v>
       </c>
       <c r="H68" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_WZ175_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_WZ177_CommissionDetail.pdf</v>
       </c>
       <c r="K68" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="L68" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="M68" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
     </row>
     <row r="69" spans="2:13" x14ac:dyDescent="0.25">
@@ -4301,10 +4281,10 @@
         <v>78</v>
       </c>
       <c r="C69" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D69" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E69">
         <v>1</v>
@@ -4314,20 +4294,20 @@
       </c>
       <c r="G69" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_WZ177_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_WZ143_CommissionSummary.pdf</v>
       </c>
       <c r="H69" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_WZ177_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_WZ143_CommissionDetail.pdf</v>
       </c>
       <c r="K69" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="L69" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="M69" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
     </row>
     <row r="70" spans="2:13" x14ac:dyDescent="0.25">
@@ -4335,10 +4315,10 @@
         <v>79</v>
       </c>
       <c r="C70" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D70" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E70">
         <v>1</v>
@@ -4348,20 +4328,20 @@
       </c>
       <c r="G70" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_WZ143_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_WZ159_CommissionSummary.pdf</v>
       </c>
       <c r="H70" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_WZ143_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_WZ159_CommissionDetail.pdf</v>
       </c>
       <c r="K70" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="L70" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="M70" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="71" spans="2:13" x14ac:dyDescent="0.25">
@@ -4369,10 +4349,10 @@
         <v>80</v>
       </c>
       <c r="C71" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D71" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E71">
         <v>1</v>
@@ -4382,20 +4362,20 @@
       </c>
       <c r="G71" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_WZ159_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_WZ162_CommissionSummary.pdf</v>
       </c>
       <c r="H71" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_WZ159_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_WZ162_CommissionDetail.pdf</v>
       </c>
       <c r="K71" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="L71" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="M71" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
     <row r="72" spans="2:13" x14ac:dyDescent="0.25">
@@ -4403,10 +4383,10 @@
         <v>81</v>
       </c>
       <c r="C72" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D72" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E72">
         <v>1</v>
@@ -4416,20 +4396,20 @@
       </c>
       <c r="G72" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_WZ162_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_WZ113_CommissionSummary.pdf</v>
       </c>
       <c r="H72" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_WZ162_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_WZ113_CommissionDetail.pdf</v>
       </c>
       <c r="K72" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="L72" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="M72" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
     <row r="73" spans="2:13" x14ac:dyDescent="0.25">
@@ -4437,10 +4417,10 @@
         <v>82</v>
       </c>
       <c r="C73" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D73" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E73">
         <v>1</v>
@@ -4450,20 +4430,20 @@
       </c>
       <c r="G73" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_WZ113_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_WZ137_CommissionSummary.pdf</v>
       </c>
       <c r="H73" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_WZ113_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_WZ137_CommissionDetail.pdf</v>
       </c>
       <c r="K73" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="L73" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="M73" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
     </row>
     <row r="74" spans="2:13" x14ac:dyDescent="0.25">
@@ -4471,10 +4451,10 @@
         <v>83</v>
       </c>
       <c r="C74" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D74" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E74">
         <v>1</v>
@@ -4484,20 +4464,20 @@
       </c>
       <c r="G74" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_WZ137_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_WZ1G4_CommissionSummary.pdf</v>
       </c>
       <c r="H74" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_WZ137_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_WZ1G4_CommissionDetail.pdf</v>
       </c>
       <c r="K74" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="L74" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="M74" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
     </row>
     <row r="75" spans="2:13" x14ac:dyDescent="0.25">
@@ -4505,10 +4485,10 @@
         <v>84</v>
       </c>
       <c r="C75" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D75" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E75">
         <v>1</v>
@@ -4518,20 +4498,20 @@
       </c>
       <c r="G75" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_WZ1G4_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_WZBW1_CommissionSummary.pdf</v>
       </c>
       <c r="H75" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_WZ1G4_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_WZBW1_CommissionDetail.pdf</v>
       </c>
       <c r="K75" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="L75" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="M75" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="76" spans="2:13" x14ac:dyDescent="0.25">
@@ -4539,10 +4519,10 @@
         <v>85</v>
       </c>
       <c r="C76" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D76" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E76">
         <v>1</v>
@@ -4552,20 +4532,20 @@
       </c>
       <c r="G76" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_WZBW1_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_WZ9TS_CommissionSummary.pdf</v>
       </c>
       <c r="H76" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_WZBW1_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_WZ9TS_CommissionDetail.pdf</v>
       </c>
       <c r="K76" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="L76" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="M76" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="77" spans="2:13" x14ac:dyDescent="0.25">
@@ -4573,10 +4553,10 @@
         <v>86</v>
       </c>
       <c r="C77" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D77" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E77">
         <v>1</v>
@@ -4586,20 +4566,20 @@
       </c>
       <c r="G77" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_WZ9TS_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_WZ1HM_CommissionSummary.pdf</v>
       </c>
       <c r="H77" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_WZ9TS_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_WZ1HM_CommissionDetail.pdf</v>
       </c>
       <c r="K77" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="L77" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="M77" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
     </row>
     <row r="78" spans="2:13" x14ac:dyDescent="0.25">
@@ -4607,10 +4587,10 @@
         <v>87</v>
       </c>
       <c r="C78" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D78" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E78">
         <v>1</v>
@@ -4620,20 +4600,20 @@
       </c>
       <c r="G78" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_WZ1HM_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_WZ1HM_CommissionSummary.pdf</v>
       </c>
       <c r="H78" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_WZ1HM_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_WZ1HM_CommissionDetail.pdf</v>
       </c>
       <c r="K78" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="L78" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="M78" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
     </row>
     <row r="79" spans="2:13" x14ac:dyDescent="0.25">
@@ -4641,10 +4621,10 @@
         <v>88</v>
       </c>
       <c r="C79" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D79" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E79">
         <v>1</v>
@@ -4654,20 +4634,20 @@
       </c>
       <c r="G79" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_WZ1HM_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_WZ2RP_CommissionSummary.pdf</v>
       </c>
       <c r="H79" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_WZ1HM_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_WZ2RP_CommissionDetail.pdf</v>
       </c>
       <c r="K79" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="L79" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="M79" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
     </row>
     <row r="80" spans="2:13" x14ac:dyDescent="0.25">
@@ -4675,10 +4655,10 @@
         <v>89</v>
       </c>
       <c r="C80" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D80" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E80">
         <v>1</v>
@@ -4688,20 +4668,20 @@
       </c>
       <c r="G80" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_WZ2RP_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_WZ1TT_CommissionSummary.pdf</v>
       </c>
       <c r="H80" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_WZ2RP_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_WZ1TT_CommissionDetail.pdf</v>
       </c>
       <c r="K80" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="L80" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="M80" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
     </row>
     <row r="81" spans="2:13" x14ac:dyDescent="0.25">
@@ -4709,10 +4689,10 @@
         <v>90</v>
       </c>
       <c r="C81" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D81" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E81">
         <v>1</v>
@@ -4722,20 +4702,20 @@
       </c>
       <c r="G81" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_WZ1TT_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_WZ1AM_CommissionSummary.pdf</v>
       </c>
       <c r="H81" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_WZ1TT_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_WZ1AM_CommissionDetail.pdf</v>
       </c>
       <c r="K81" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="L81" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="M81" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="82" spans="2:13" x14ac:dyDescent="0.25">
@@ -4743,10 +4723,10 @@
         <v>91</v>
       </c>
       <c r="C82" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D82" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E82">
         <v>1</v>
@@ -4756,20 +4736,20 @@
       </c>
       <c r="G82" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_WZ1AM_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_WZ1JW_CommissionSummary.pdf</v>
       </c>
       <c r="H82" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_WZ1AM_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_WZ1JW_CommissionDetail.pdf</v>
       </c>
       <c r="K82" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="L82" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="M82" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="83" spans="2:13" x14ac:dyDescent="0.25">
@@ -4777,10 +4757,10 @@
         <v>92</v>
       </c>
       <c r="C83" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D83" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E83">
         <v>1</v>
@@ -4790,20 +4770,20 @@
       </c>
       <c r="G83" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_WZ1JW_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_WZ1MH_CommissionSummary.pdf</v>
       </c>
       <c r="H83" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_WZ1JW_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_WZ1MH_CommissionDetail.pdf</v>
       </c>
       <c r="K83" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="L83" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="M83" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
     </row>
     <row r="84" spans="2:13" x14ac:dyDescent="0.25">
@@ -4811,10 +4791,10 @@
         <v>93</v>
       </c>
       <c r="C84" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D84" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E84">
         <v>1</v>
@@ -4824,20 +4804,20 @@
       </c>
       <c r="G84" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_WZ1MH_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_WZ1TM_CommissionSummary.pdf</v>
       </c>
       <c r="H84" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_WZ1MH_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_WZ1TM_CommissionDetail.pdf</v>
       </c>
       <c r="K84" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="L84" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="M84" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
     </row>
     <row r="85" spans="2:13" x14ac:dyDescent="0.25">
@@ -4845,10 +4825,10 @@
         <v>94</v>
       </c>
       <c r="C85" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D85" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E85">
         <v>1</v>
@@ -4858,20 +4838,20 @@
       </c>
       <c r="G85" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_WZ1TM_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_WZ1SC_CommissionSummary.pdf</v>
       </c>
       <c r="H85" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_WZ1TM_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_WZ1SC_CommissionDetail.pdf</v>
       </c>
       <c r="K85" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="L85" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="M85" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
     </row>
     <row r="86" spans="2:13" x14ac:dyDescent="0.25">
@@ -4879,10 +4859,10 @@
         <v>95</v>
       </c>
       <c r="C86" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D86" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E86">
         <v>1</v>
@@ -4892,20 +4872,20 @@
       </c>
       <c r="G86" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_WZ2AM_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_WZ1PB_CommissionSummary.pdf</v>
       </c>
       <c r="H86" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_WZ2AM_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_WZ1PB_CommissionDetail.pdf</v>
       </c>
       <c r="K86" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="L86" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="M86" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
     </row>
     <row r="87" spans="2:13" x14ac:dyDescent="0.25">
@@ -4913,10 +4893,10 @@
         <v>96</v>
       </c>
       <c r="C87" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D87" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E87">
         <v>1</v>
@@ -4926,20 +4906,20 @@
       </c>
       <c r="G87" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_WZ1SC_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_WZ1JN_CommissionSummary.pdf</v>
       </c>
       <c r="H87" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_WZ1SC_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_WZ1JN_CommissionDetail.pdf</v>
       </c>
       <c r="K87" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="L87" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="M87" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
     </row>
     <row r="88" spans="2:13" x14ac:dyDescent="0.25">
@@ -4947,10 +4927,10 @@
         <v>97</v>
       </c>
       <c r="C88" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D88" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E88">
         <v>1</v>
@@ -4960,31 +4940,31 @@
       </c>
       <c r="G88" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_WZ1PB_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_WZ1MK_CommissionSummary.pdf</v>
       </c>
       <c r="H88" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_WZ1PB_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_WZ1MK_CommissionDetail.pdf</v>
       </c>
       <c r="K88" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="L88" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="M88" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
     </row>
     <row r="89" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B89" t="s">
-        <v>98</v>
+        <v>172</v>
       </c>
       <c r="C89" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D89" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E89">
         <v>1</v>
@@ -4994,31 +4974,31 @@
       </c>
       <c r="G89" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_WZ1JN_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_WZ1CA_CommissionSummary.pdf</v>
       </c>
       <c r="H89" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_WZ1JN_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_WZ1CA_CommissionDetail.pdf</v>
       </c>
       <c r="K89" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="L89" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="M89" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="90" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B90" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C90" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D90" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E90">
         <v>1</v>
@@ -5028,31 +5008,31 @@
       </c>
       <c r="G90" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_WZ1MK_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_WZ2TM_CommissionSummary.pdf</v>
       </c>
       <c r="H90" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_WZ1MK_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_WZ2TM_CommissionDetail.pdf</v>
       </c>
       <c r="K90" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="L90" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="M90" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
     </row>
     <row r="91" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B91" t="s">
-        <v>174</v>
+        <v>99</v>
       </c>
       <c r="C91" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D91" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E91">
         <v>1</v>
@@ -5062,20 +5042,20 @@
       </c>
       <c r="G91" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_WZ1CA_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_WZ1BC_CommissionSummary.pdf</v>
       </c>
       <c r="H91" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_WZ1CA_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_WZ1BC_CommissionDetail.pdf</v>
       </c>
       <c r="K91" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="L91" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="M91" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
     </row>
     <row r="92" spans="2:13" x14ac:dyDescent="0.25">
@@ -5083,10 +5063,10 @@
         <v>100</v>
       </c>
       <c r="C92" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D92" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E92">
         <v>1</v>
@@ -5096,20 +5076,20 @@
       </c>
       <c r="G92" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_WZ2TM_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_WZ1JL_CommissionSummary.pdf</v>
       </c>
       <c r="H92" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_WZ2TM_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_WZ1JL_CommissionDetail.pdf</v>
       </c>
       <c r="K92" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="L92" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="M92" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
     </row>
     <row r="93" spans="2:13" x14ac:dyDescent="0.25">
@@ -5117,10 +5097,10 @@
         <v>101</v>
       </c>
       <c r="C93" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D93" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E93">
         <v>1</v>
@@ -5130,20 +5110,20 @@
       </c>
       <c r="G93" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_WZ1BC_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_WZ1AL_CommissionSummary.pdf</v>
       </c>
       <c r="H93" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_WZ1BC_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_WZ1AL_CommissionDetail.pdf</v>
       </c>
       <c r="K93" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="L93" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="M93" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
     </row>
     <row r="94" spans="2:13" x14ac:dyDescent="0.25">
@@ -5151,10 +5131,10 @@
         <v>102</v>
       </c>
       <c r="C94" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D94" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E94">
         <v>1</v>
@@ -5164,20 +5144,20 @@
       </c>
       <c r="G94" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_WZ1JL_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_WZ1MW_CommissionSummary.pdf</v>
       </c>
       <c r="H94" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_WZ1JL_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_WZ1MW_CommissionDetail.pdf</v>
       </c>
       <c r="K94" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="L94" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="M94" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="95" spans="2:13" x14ac:dyDescent="0.25">
@@ -5185,10 +5165,10 @@
         <v>103</v>
       </c>
       <c r="C95" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D95" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E95">
         <v>1</v>
@@ -5198,31 +5178,31 @@
       </c>
       <c r="G95" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_WZ1AL_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_WZ1MS_CommissionSummary.pdf</v>
       </c>
       <c r="H95" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_WZ1AL_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_WZ1MS_CommissionDetail.pdf</v>
       </c>
       <c r="K95" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="L95" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="M95" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
     </row>
     <row r="96" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B96" t="s">
-        <v>104</v>
+        <v>182</v>
       </c>
       <c r="C96" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D96" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E96">
         <v>1</v>
@@ -5232,31 +5212,31 @@
       </c>
       <c r="G96" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_WZ1MW_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_WZ1DF_CommissionSummary.pdf</v>
       </c>
       <c r="H96" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_WZ1MW_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_WZ1DF_CommissionDetail.pdf</v>
       </c>
       <c r="K96" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="L96" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="M96" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
     </row>
     <row r="97" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B97" t="s">
-        <v>105</v>
+        <v>165</v>
       </c>
       <c r="C97" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D97" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E97">
         <v>1</v>
@@ -5266,31 +5246,31 @@
       </c>
       <c r="G97" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_WZ1MS_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_WZ1JI_CommissionSummary.pdf</v>
       </c>
       <c r="H97" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_WZ1MS_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_WZ1JI_CommissionDetail.pdf</v>
       </c>
       <c r="K97" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="L97" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="M97" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
     </row>
     <row r="98" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B98" t="s">
-        <v>184</v>
+        <v>164</v>
       </c>
       <c r="C98" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D98" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E98">
         <v>1</v>
@@ -5300,20 +5280,20 @@
       </c>
       <c r="G98" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_WZ1DF_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_WZ1CM_CommissionSummary.pdf</v>
       </c>
       <c r="H98" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_WZ1DF_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_WZ1CM_CommissionDetail.pdf</v>
       </c>
       <c r="K98" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="L98" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="M98" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
     </row>
     <row r="99" spans="2:13" x14ac:dyDescent="0.25">
@@ -5321,10 +5301,10 @@
         <v>167</v>
       </c>
       <c r="C99" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D99" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E99">
         <v>1</v>
@@ -5334,31 +5314,31 @@
       </c>
       <c r="G99" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_WZ1JI_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_WZ2MS_CommissionSummary.pdf</v>
       </c>
       <c r="H99" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_WZ1JI_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_WZ2MS_CommissionDetail.pdf</v>
       </c>
       <c r="K99" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="L99" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="M99" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
     </row>
     <row r="100" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B100" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="C100" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D100" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E100">
         <v>1</v>
@@ -5368,31 +5348,31 @@
       </c>
       <c r="G100" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_WZ1CM_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_WZ2JN_CommissionSummary.pdf</v>
       </c>
       <c r="H100" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_WZ1CM_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_WZ2JN_CommissionDetail.pdf</v>
       </c>
       <c r="K100" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="L100" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="M100" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
     </row>
     <row r="101" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B101" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="C101" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D101" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E101">
         <v>1</v>
@@ -5402,31 +5382,31 @@
       </c>
       <c r="G101" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_WZ2MS_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_CZ1RD_CommissionSummary.pdf</v>
       </c>
       <c r="H101" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_WZ2MS_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_CZ1RD_CommissionDetail.pdf</v>
       </c>
       <c r="K101" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="L101" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="M101" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="102" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B102" t="s">
-        <v>173</v>
+        <v>104</v>
       </c>
       <c r="C102" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D102" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E102">
         <v>1</v>
@@ -5436,31 +5416,31 @@
       </c>
       <c r="G102" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_WZ2JN_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_CZ1GF_CommissionSummary.pdf</v>
       </c>
       <c r="H102" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_WZ2JN_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_CZ1GF_CommissionDetail.pdf</v>
       </c>
       <c r="K102" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="L102" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="M102" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
     </row>
     <row r="103" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B103" t="s">
-        <v>176</v>
+        <v>105</v>
       </c>
       <c r="C103" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D103" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E103">
         <v>1</v>
@@ -5470,20 +5450,20 @@
       </c>
       <c r="G103" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_CZ1RD_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_QZ1BP_CommissionSummary.pdf</v>
       </c>
       <c r="H103" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_CZ1RD_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_QZ1BP_CommissionDetail.pdf</v>
       </c>
       <c r="K103" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="L103" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="M103" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
     </row>
     <row r="104" spans="2:13" x14ac:dyDescent="0.25">
@@ -5491,10 +5471,10 @@
         <v>106</v>
       </c>
       <c r="C104" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D104" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E104">
         <v>1</v>
@@ -5504,20 +5484,20 @@
       </c>
       <c r="G104" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_CZ1GF_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_CZ1JF_CommissionSummary.pdf</v>
       </c>
       <c r="H104" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_CZ1GF_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_CZ1JF_CommissionDetail.pdf</v>
       </c>
       <c r="K104" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="L104" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="M104" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
     </row>
     <row r="105" spans="2:13" x14ac:dyDescent="0.25">
@@ -5525,10 +5505,10 @@
         <v>107</v>
       </c>
       <c r="C105" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D105" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E105">
         <v>1</v>
@@ -5538,20 +5518,20 @@
       </c>
       <c r="G105" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_QZ1BP_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_AZ1CI_CommissionSummary.pdf</v>
       </c>
       <c r="H105" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_QZ1BP_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_AZ1CI_CommissionDetail.pdf</v>
       </c>
       <c r="K105" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="L105" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="M105" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
     </row>
     <row r="106" spans="2:13" x14ac:dyDescent="0.25">
@@ -5559,10 +5539,10 @@
         <v>108</v>
       </c>
       <c r="C106" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D106" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E106">
         <v>1</v>
@@ -5572,20 +5552,20 @@
       </c>
       <c r="G106" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_CZ1JF_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_CZ1KM_CommissionSummary.pdf</v>
       </c>
       <c r="H106" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_CZ1JF_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_CZ1KM_CommissionDetail.pdf</v>
       </c>
       <c r="K106" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="L106" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="M106" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
     </row>
     <row r="107" spans="2:13" x14ac:dyDescent="0.25">
@@ -5593,10 +5573,10 @@
         <v>109</v>
       </c>
       <c r="C107" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D107" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E107">
         <v>1</v>
@@ -5606,20 +5586,20 @@
       </c>
       <c r="G107" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_AZ1CI_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_CZ1OV_CommissionSummary.pdf</v>
       </c>
       <c r="H107" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_AZ1CI_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_CZ1OV_CommissionDetail.pdf</v>
       </c>
       <c r="K107" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="L107" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="M107" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
     </row>
     <row r="108" spans="2:13" x14ac:dyDescent="0.25">
@@ -5627,10 +5607,10 @@
         <v>110</v>
       </c>
       <c r="C108" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D108" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E108">
         <v>1</v>
@@ -5640,20 +5620,20 @@
       </c>
       <c r="G108" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_CZ1KM_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_QZ1JB_CommissionSummary.pdf</v>
       </c>
       <c r="H108" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_CZ1KM_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_QZ1JB_CommissionDetail.pdf</v>
       </c>
       <c r="K108" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="L108" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="M108" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
     </row>
     <row r="109" spans="2:13" x14ac:dyDescent="0.25">
@@ -5661,10 +5641,10 @@
         <v>111</v>
       </c>
       <c r="C109" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D109" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E109">
         <v>1</v>
@@ -5674,20 +5654,20 @@
       </c>
       <c r="G109" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_CZ1OV_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_QZ1BG_CommissionSummary.pdf</v>
       </c>
       <c r="H109" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_CZ1OV_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_QZ1BG_CommissionDetail.pdf</v>
       </c>
       <c r="K109" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="L109" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="M109" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="110" spans="2:13" x14ac:dyDescent="0.25">
@@ -5695,10 +5675,10 @@
         <v>112</v>
       </c>
       <c r="C110" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D110" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E110">
         <v>1</v>
@@ -5708,31 +5688,31 @@
       </c>
       <c r="G110" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_QZ1JB_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_CZ1TM_CommissionSummary.pdf</v>
       </c>
       <c r="H110" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_QZ1JB_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_CZ1TM_CommissionDetail.pdf</v>
       </c>
       <c r="K110" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="L110" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="M110" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
     </row>
     <row r="111" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B111" t="s">
-        <v>113</v>
+        <v>19</v>
       </c>
       <c r="C111" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D111" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E111">
         <v>1</v>
@@ -5742,31 +5722,31 @@
       </c>
       <c r="G111" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_QZ1BG_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_QZ177_CommissionSummary.pdf</v>
       </c>
       <c r="H111" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_QZ1BG_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_QZ177_CommissionDetail.pdf</v>
       </c>
       <c r="K111" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="L111" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="M111" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
     </row>
     <row r="112" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B112" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C112" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D112" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E112">
         <v>1</v>
@@ -5776,31 +5756,31 @@
       </c>
       <c r="G112" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_CZ1TM_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_QZ1BM_CommissionSummary.pdf</v>
       </c>
       <c r="H112" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_CZ1TM_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_QZ1BM_CommissionDetail.pdf</v>
       </c>
       <c r="K112" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="L112" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="M112" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
     </row>
     <row r="113" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B113" t="s">
-        <v>19</v>
+        <v>114</v>
       </c>
       <c r="C113" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D113" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E113">
         <v>1</v>
@@ -5810,20 +5790,20 @@
       </c>
       <c r="G113" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_QZ177_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_QZ1MD_CommissionSummary.pdf</v>
       </c>
       <c r="H113" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_QZ177_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_QZ1MD_CommissionDetail.pdf</v>
       </c>
       <c r="K113" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="L113" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="M113" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
     </row>
     <row r="114" spans="2:13" x14ac:dyDescent="0.25">
@@ -5831,10 +5811,10 @@
         <v>115</v>
       </c>
       <c r="C114" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D114" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E114">
         <v>1</v>
@@ -5844,31 +5824,31 @@
       </c>
       <c r="G114" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_QZ1BM_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_AZ1JB_CommissionSummary.pdf</v>
       </c>
       <c r="H114" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_QZ1BM_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_AZ1JB_CommissionDetail.pdf</v>
       </c>
       <c r="K114" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="L114" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="M114" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
     </row>
     <row r="115" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B115" t="s">
-        <v>116</v>
+        <v>178</v>
       </c>
       <c r="C115" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D115" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E115">
         <v>1</v>
@@ -5878,31 +5858,31 @@
       </c>
       <c r="G115" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_QZ1MD_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_CZ1AD_CommissionSummary.pdf</v>
       </c>
       <c r="H115" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_QZ1MD_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_CZ1AD_CommissionDetail.pdf</v>
       </c>
       <c r="K115" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="L115" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="M115" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
     </row>
     <row r="116" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B116" t="s">
-        <v>117</v>
+        <v>173</v>
       </c>
       <c r="C116" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D116" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E116">
         <v>1</v>
@@ -5912,31 +5892,31 @@
       </c>
       <c r="G116" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_AZ1JB_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_QZ1ML_CommissionSummary.pdf</v>
       </c>
       <c r="H116" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_AZ1JB_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_QZ1ML_CommissionDetail.pdf</v>
       </c>
       <c r="K116" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="L116" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="M116" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
     </row>
     <row r="117" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B117" t="s">
-        <v>180</v>
+        <v>116</v>
       </c>
       <c r="C117" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D117" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E117">
         <v>1</v>
@@ -5946,31 +5926,31 @@
       </c>
       <c r="G117" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_CZ1AD_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_CZ1FA_CommissionSummary.pdf</v>
       </c>
       <c r="H117" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_CZ1AD_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_CZ1FA_CommissionDetail.pdf</v>
       </c>
       <c r="K117" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="L117" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="M117" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
     </row>
     <row r="118" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B118" t="s">
-        <v>175</v>
+        <v>117</v>
       </c>
       <c r="C118" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D118" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E118">
         <v>1</v>
@@ -5980,20 +5960,20 @@
       </c>
       <c r="G118" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_QZ1ML_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_CZ2SA_CommissionSummary.pdf</v>
       </c>
       <c r="H118" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_QZ1ML_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_CZ2SA_CommissionDetail.pdf</v>
       </c>
       <c r="K118" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="L118" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="M118" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
     </row>
     <row r="119" spans="2:13" x14ac:dyDescent="0.25">
@@ -6001,10 +5981,10 @@
         <v>118</v>
       </c>
       <c r="C119" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D119" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E119">
         <v>1</v>
@@ -6014,31 +5994,31 @@
       </c>
       <c r="G119" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_CZ1FA_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_QZ1SL_CommissionSummary.pdf</v>
       </c>
       <c r="H119" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_CZ1FA_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_QZ1SL_CommissionDetail.pdf</v>
       </c>
       <c r="K119" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="L119" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="M119" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
     </row>
     <row r="120" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B120" t="s">
-        <v>119</v>
+        <v>179</v>
       </c>
       <c r="C120" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D120" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E120">
         <v>1</v>
@@ -6048,31 +6028,31 @@
       </c>
       <c r="G120" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_CZ2SA_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_AZ1CM_CommissionSummary.pdf</v>
       </c>
       <c r="H120" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_CZ2SA_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_AZ1CM_CommissionDetail.pdf</v>
       </c>
       <c r="K120" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="L120" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="M120" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
     </row>
     <row r="121" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B121" t="s">
-        <v>120</v>
+        <v>166</v>
       </c>
       <c r="C121" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D121" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E121">
         <v>1</v>
@@ -6082,31 +6062,31 @@
       </c>
       <c r="G121" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_QZ1SL_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_QZ3JB_CommissionSummary.pdf</v>
       </c>
       <c r="H121" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_QZ1SL_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_QZ3JB_CommissionDetail.pdf</v>
       </c>
       <c r="K121" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="L121" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="M121" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
     </row>
     <row r="122" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B122" t="s">
-        <v>181</v>
+        <v>119</v>
       </c>
       <c r="C122" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D122" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E122">
         <v>1</v>
@@ -6116,31 +6096,31 @@
       </c>
       <c r="G122" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_AZ1CM_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_CZ1CN_CommissionSummary.pdf</v>
       </c>
       <c r="H122" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_AZ1CM_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_CZ1CN_CommissionDetail.pdf</v>
       </c>
       <c r="K122" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="L122" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="M122" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
     </row>
     <row r="123" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B123" t="s">
-        <v>168</v>
+        <v>120</v>
       </c>
       <c r="C123" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D123" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E123">
         <v>1</v>
@@ -6150,20 +6130,20 @@
       </c>
       <c r="G123" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_QZ3JB_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_AZ1YU_CommissionSummary.pdf</v>
       </c>
       <c r="H123" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_QZ3JB_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_AZ1YU_CommissionDetail.pdf</v>
       </c>
       <c r="K123" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="L123" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="M123" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
     </row>
     <row r="124" spans="2:13" x14ac:dyDescent="0.25">
@@ -6171,10 +6151,10 @@
         <v>121</v>
       </c>
       <c r="C124" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D124" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E124">
         <v>1</v>
@@ -6184,20 +6164,20 @@
       </c>
       <c r="G124" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_CZ1CN_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_AZ1WX_CommissionSummary.pdf</v>
       </c>
       <c r="H124" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_CZ1CN_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_AZ1WX_CommissionDetail.pdf</v>
       </c>
       <c r="K124" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="L124" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="M124" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
     </row>
     <row r="125" spans="2:13" x14ac:dyDescent="0.25">
@@ -6205,10 +6185,10 @@
         <v>122</v>
       </c>
       <c r="C125" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D125" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E125">
         <v>1</v>
@@ -6218,20 +6198,20 @@
       </c>
       <c r="G125" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_AZ1YU_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_AZ1XF_CommissionSummary.pdf</v>
       </c>
       <c r="H125" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_AZ1YU_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_AZ1XF_CommissionDetail.pdf</v>
       </c>
       <c r="K125" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="L125" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="M125" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
     </row>
     <row r="126" spans="2:13" x14ac:dyDescent="0.25">
@@ -6239,10 +6219,10 @@
         <v>123</v>
       </c>
       <c r="C126" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D126" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E126">
         <v>1</v>
@@ -6252,20 +6232,20 @@
       </c>
       <c r="G126" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_AZ1WX_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_AZ1XT_CommissionSummary.pdf</v>
       </c>
       <c r="H126" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_AZ1WX_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_AZ1XT_CommissionDetail.pdf</v>
       </c>
       <c r="K126" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="L126" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="M126" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
     </row>
     <row r="127" spans="2:13" x14ac:dyDescent="0.25">
@@ -6273,10 +6253,10 @@
         <v>124</v>
       </c>
       <c r="C127" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D127" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E127">
         <v>1</v>
@@ -6286,20 +6266,20 @@
       </c>
       <c r="G127" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_AZ1XF_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_AZ1YP_CommissionSummary.pdf</v>
       </c>
       <c r="H127" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_AZ1XF_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_AZ1YP_CommissionDetail.pdf</v>
       </c>
       <c r="K127" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="L127" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="M127" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
     </row>
     <row r="128" spans="2:13" x14ac:dyDescent="0.25">
@@ -6307,10 +6287,10 @@
         <v>125</v>
       </c>
       <c r="C128" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D128" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E128">
         <v>1</v>
@@ -6320,20 +6300,20 @@
       </c>
       <c r="G128" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_AZ1XT_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_QZ1XH_CommissionSummary.pdf</v>
       </c>
       <c r="H128" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_AZ1XT_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_QZ1XH_CommissionDetail.pdf</v>
       </c>
       <c r="K128" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="L128" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="M128" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
     </row>
     <row r="129" spans="2:13" x14ac:dyDescent="0.25">
@@ -6341,10 +6321,10 @@
         <v>126</v>
       </c>
       <c r="C129" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D129" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E129">
         <v>1</v>
@@ -6354,20 +6334,20 @@
       </c>
       <c r="G129" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_AZ1YP_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_QZ1TB_CommissionSummary.pdf</v>
       </c>
       <c r="H129" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_AZ1YP_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_QZ1TB_CommissionDetail.pdf</v>
       </c>
       <c r="K129" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="L129" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="M129" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
     </row>
     <row r="130" spans="2:13" x14ac:dyDescent="0.25">
@@ -6375,10 +6355,10 @@
         <v>127</v>
       </c>
       <c r="C130" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D130" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E130">
         <v>1</v>
@@ -6388,20 +6368,20 @@
       </c>
       <c r="G130" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_QZ1XH_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_QZ1TD_CommissionSummary.pdf</v>
       </c>
       <c r="H130" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_QZ1XH_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_QZ1TD_CommissionDetail.pdf</v>
       </c>
       <c r="K130" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="L130" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="M130" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
     </row>
     <row r="131" spans="2:13" x14ac:dyDescent="0.25">
@@ -6409,10 +6389,10 @@
         <v>128</v>
       </c>
       <c r="C131" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D131" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E131">
         <v>1</v>
@@ -6422,20 +6402,20 @@
       </c>
       <c r="G131" t="str">
         <f t="shared" ref="G131:G169" si="4">$K131&amp;"\"&amp;L131</f>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_QZ1TB_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_QZ1TK_CommissionSummary.pdf</v>
       </c>
       <c r="H131" t="str">
         <f t="shared" ref="H131:H169" si="5">$K131&amp;"\"&amp;M131</f>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_QZ1TB_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_QZ1TK_CommissionDetail.pdf</v>
       </c>
       <c r="K131" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="L131" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="M131" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="132" spans="2:13" x14ac:dyDescent="0.25">
@@ -6443,10 +6423,10 @@
         <v>129</v>
       </c>
       <c r="C132" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D132" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E132">
         <v>1</v>
@@ -6456,20 +6436,20 @@
       </c>
       <c r="G132" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_QZ1TD_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_QZ1YE_CommissionSummary.pdf</v>
       </c>
       <c r="H132" t="str">
         <f t="shared" si="5"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_QZ1TD_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_QZ1YE_CommissionDetail.pdf</v>
       </c>
       <c r="K132" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="L132" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="M132" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
     </row>
     <row r="133" spans="2:13" x14ac:dyDescent="0.25">
@@ -6477,10 +6457,10 @@
         <v>130</v>
       </c>
       <c r="C133" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D133" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E133">
         <v>1</v>
@@ -6490,20 +6470,20 @@
       </c>
       <c r="G133" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_QZ1TK_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_QZ1TE_CommissionSummary.pdf</v>
       </c>
       <c r="H133" t="str">
         <f t="shared" si="5"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_QZ1TK_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_QZ1TE_CommissionDetail.pdf</v>
       </c>
       <c r="K133" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="L133" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="M133" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
     </row>
     <row r="134" spans="2:13" x14ac:dyDescent="0.25">
@@ -6511,10 +6491,10 @@
         <v>131</v>
       </c>
       <c r="C134" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D134" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E134">
         <v>1</v>
@@ -6524,20 +6504,20 @@
       </c>
       <c r="G134" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_QZ1YE_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_QZ1TI_CommissionSummary.pdf</v>
       </c>
       <c r="H134" t="str">
         <f t="shared" si="5"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_QZ1YE_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_QZ1TI_CommissionDetail.pdf</v>
       </c>
       <c r="K134" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="L134" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="M134" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="135" spans="2:13" x14ac:dyDescent="0.25">
@@ -6545,10 +6525,10 @@
         <v>132</v>
       </c>
       <c r="C135" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D135" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E135">
         <v>1</v>
@@ -6558,20 +6538,20 @@
       </c>
       <c r="G135" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_QZ1TE_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_CZ1YI_CommissionSummary.pdf</v>
       </c>
       <c r="H135" t="str">
         <f t="shared" si="5"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_QZ1TE_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_CZ1YI_CommissionDetail.pdf</v>
       </c>
       <c r="K135" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="L135" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="M135" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
     </row>
     <row r="136" spans="2:13" x14ac:dyDescent="0.25">
@@ -6579,10 +6559,10 @@
         <v>133</v>
       </c>
       <c r="C136" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D136" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E136">
         <v>1</v>
@@ -6592,20 +6572,20 @@
       </c>
       <c r="G136" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_QZ1TI_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_CZ1YW_CommissionSummary.pdf</v>
       </c>
       <c r="H136" t="str">
         <f t="shared" si="5"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_QZ1TI_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_CZ1YW_CommissionDetail.pdf</v>
       </c>
       <c r="K136" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="L136" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="M136" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
     </row>
     <row r="137" spans="2:13" x14ac:dyDescent="0.25">
@@ -6613,10 +6593,10 @@
         <v>134</v>
       </c>
       <c r="C137" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D137" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E137">
         <v>1</v>
@@ -6626,20 +6606,20 @@
       </c>
       <c r="G137" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_CZ1YI_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_CZ1UE_CommissionSummary.pdf</v>
       </c>
       <c r="H137" t="str">
         <f t="shared" si="5"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_CZ1YI_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_CZ1UE_CommissionDetail.pdf</v>
       </c>
       <c r="K137" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="L137" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="M137" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="138" spans="2:13" x14ac:dyDescent="0.25">
@@ -6647,10 +6627,10 @@
         <v>135</v>
       </c>
       <c r="C138" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D138" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E138">
         <v>1</v>
@@ -6660,20 +6640,20 @@
       </c>
       <c r="G138" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_CZ1YW_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_CZ1MJ_CommissionSummary.pdf</v>
       </c>
       <c r="H138" t="str">
         <f t="shared" si="5"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_CZ1YW_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_CZ1MJ_CommissionDetail.pdf</v>
       </c>
       <c r="K138" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="L138" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="M138" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
     </row>
     <row r="139" spans="2:13" x14ac:dyDescent="0.25">
@@ -6681,10 +6661,10 @@
         <v>136</v>
       </c>
       <c r="C139" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D139" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E139">
         <v>1</v>
@@ -6694,20 +6674,20 @@
       </c>
       <c r="G139" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_CZ1UE_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_CZ1VG_CommissionSummary.pdf</v>
       </c>
       <c r="H139" t="str">
         <f t="shared" si="5"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_CZ1UE_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_CZ1VG_CommissionDetail.pdf</v>
       </c>
       <c r="K139" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="L139" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="M139" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="140" spans="2:13" x14ac:dyDescent="0.25">
@@ -6715,10 +6695,10 @@
         <v>137</v>
       </c>
       <c r="C140" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D140" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E140">
         <v>1</v>
@@ -6728,20 +6708,20 @@
       </c>
       <c r="G140" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_CZ1MJ_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_CZ1VJ_CommissionSummary.pdf</v>
       </c>
       <c r="H140" t="str">
         <f t="shared" si="5"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_CZ1MJ_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_CZ1VJ_CommissionDetail.pdf</v>
       </c>
       <c r="K140" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="L140" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="M140" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
     </row>
     <row r="141" spans="2:13" x14ac:dyDescent="0.25">
@@ -6749,10 +6729,10 @@
         <v>138</v>
       </c>
       <c r="C141" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D141" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E141">
         <v>1</v>
@@ -6762,20 +6742,20 @@
       </c>
       <c r="G141" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_CZ1VG_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_CZ1MI_CommissionSummary.pdf</v>
       </c>
       <c r="H141" t="str">
         <f t="shared" si="5"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_CZ1VG_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_CZ1MI_CommissionDetail.pdf</v>
       </c>
       <c r="K141" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="L141" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="M141" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
     </row>
     <row r="142" spans="2:13" x14ac:dyDescent="0.25">
@@ -6783,10 +6763,10 @@
         <v>139</v>
       </c>
       <c r="C142" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D142" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E142">
         <v>1</v>
@@ -6796,20 +6776,20 @@
       </c>
       <c r="G142" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_CZ1VJ_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_CZ1XD_CommissionSummary.pdf</v>
       </c>
       <c r="H142" t="str">
         <f t="shared" si="5"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_CZ1VJ_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_CZ1XD_CommissionDetail.pdf</v>
       </c>
       <c r="K142" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="L142" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="M142" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
     </row>
     <row r="143" spans="2:13" x14ac:dyDescent="0.25">
@@ -6817,10 +6797,10 @@
         <v>140</v>
       </c>
       <c r="C143" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D143" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E143">
         <v>1</v>
@@ -6830,20 +6810,20 @@
       </c>
       <c r="G143" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_CZ1MI_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_CZ1XB_CommissionSummary.pdf</v>
       </c>
       <c r="H143" t="str">
         <f t="shared" si="5"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_CZ1MI_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_CZ1XB_CommissionDetail.pdf</v>
       </c>
       <c r="K143" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="L143" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="M143" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
     </row>
     <row r="144" spans="2:13" x14ac:dyDescent="0.25">
@@ -6851,10 +6831,10 @@
         <v>141</v>
       </c>
       <c r="C144" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D144" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E144">
         <v>1</v>
@@ -6864,20 +6844,20 @@
       </c>
       <c r="G144" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_CZ1XD_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_CZ1WT_CommissionSummary.pdf</v>
       </c>
       <c r="H144" t="str">
         <f t="shared" si="5"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_CZ1XD_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_CZ1WT_CommissionDetail.pdf</v>
       </c>
       <c r="K144" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="L144" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="M144" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
     </row>
     <row r="145" spans="2:13" x14ac:dyDescent="0.25">
@@ -6885,10 +6865,10 @@
         <v>142</v>
       </c>
       <c r="C145" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D145" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E145">
         <v>1</v>
@@ -6898,20 +6878,20 @@
       </c>
       <c r="G145" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_CZ1XB_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_CZ1XA_CommissionSummary.pdf</v>
       </c>
       <c r="H145" t="str">
         <f t="shared" si="5"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_CZ1XB_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_CZ1XA_CommissionDetail.pdf</v>
       </c>
       <c r="K145" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="L145" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="M145" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
     </row>
     <row r="146" spans="2:13" x14ac:dyDescent="0.25">
@@ -6919,10 +6899,10 @@
         <v>143</v>
       </c>
       <c r="C146" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D146" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E146">
         <v>1</v>
@@ -6932,20 +6912,20 @@
       </c>
       <c r="G146" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_CZ1WT_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_WZ2KF_CommissionSummary.pdf</v>
       </c>
       <c r="H146" t="str">
         <f t="shared" si="5"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_CZ1WT_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_WZ2KF_CommissionDetail.pdf</v>
       </c>
       <c r="K146" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="L146" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="M146" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
     </row>
     <row r="147" spans="2:13" x14ac:dyDescent="0.25">
@@ -6953,10 +6933,10 @@
         <v>144</v>
       </c>
       <c r="C147" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D147" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E147">
         <v>1</v>
@@ -6966,20 +6946,20 @@
       </c>
       <c r="G147" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_CZ1XA_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_WZ148_CommissionSummary.pdf</v>
       </c>
       <c r="H147" t="str">
         <f t="shared" si="5"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_CZ1XA_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_WZ148_CommissionDetail.pdf</v>
       </c>
       <c r="K147" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="L147" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="M147" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
     </row>
     <row r="148" spans="2:13" x14ac:dyDescent="0.25">
@@ -6987,10 +6967,10 @@
         <v>145</v>
       </c>
       <c r="C148" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D148" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E148">
         <v>1</v>
@@ -7000,20 +6980,20 @@
       </c>
       <c r="G148" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_WZ2KF_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_WZ8GM_CommissionSummary.pdf</v>
       </c>
       <c r="H148" t="str">
         <f t="shared" si="5"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_WZ2KF_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_WZ8GM_CommissionDetail.pdf</v>
       </c>
       <c r="K148" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="L148" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="M148" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
     </row>
     <row r="149" spans="2:13" x14ac:dyDescent="0.25">
@@ -7021,10 +7001,10 @@
         <v>146</v>
       </c>
       <c r="C149" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D149" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E149">
         <v>1</v>
@@ -7034,20 +7014,20 @@
       </c>
       <c r="G149" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_WZ148_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_WZ1BH_CommissionSummary.pdf</v>
       </c>
       <c r="H149" t="str">
         <f t="shared" si="5"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_WZ148_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_WZ1BH_CommissionDetail.pdf</v>
       </c>
       <c r="K149" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="L149" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="M149" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
     </row>
     <row r="150" spans="2:13" x14ac:dyDescent="0.25">
@@ -7055,10 +7035,10 @@
         <v>147</v>
       </c>
       <c r="C150" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D150" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E150">
         <v>1</v>
@@ -7068,20 +7048,20 @@
       </c>
       <c r="G150" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_WZ8GM_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_WZ114_CommissionSummary.pdf</v>
       </c>
       <c r="H150" t="str">
         <f t="shared" si="5"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_WZ8GM_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_WZ114_CommissionDetail.pdf</v>
       </c>
       <c r="K150" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="L150" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="M150" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
     </row>
     <row r="151" spans="2:13" x14ac:dyDescent="0.25">
@@ -7089,10 +7069,10 @@
         <v>148</v>
       </c>
       <c r="C151" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D151" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E151">
         <v>1</v>
@@ -7102,20 +7082,20 @@
       </c>
       <c r="G151" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_WZ1BH_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_WZ1A6_CommissionSummary.pdf</v>
       </c>
       <c r="H151" t="str">
         <f t="shared" si="5"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_WZ1BH_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_WZ1A6_CommissionDetail.pdf</v>
       </c>
       <c r="K151" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="L151" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="M151" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
     </row>
     <row r="152" spans="2:13" x14ac:dyDescent="0.25">
@@ -7123,10 +7103,10 @@
         <v>149</v>
       </c>
       <c r="C152" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D152" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E152">
         <v>1</v>
@@ -7136,20 +7116,20 @@
       </c>
       <c r="G152" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_WZ114_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_WZ139_CommissionSummary.pdf</v>
       </c>
       <c r="H152" t="str">
         <f t="shared" si="5"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_WZ114_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_WZ139_CommissionDetail.pdf</v>
       </c>
       <c r="K152" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="L152" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="M152" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
     </row>
     <row r="153" spans="2:13" x14ac:dyDescent="0.25">
@@ -7157,10 +7137,10 @@
         <v>150</v>
       </c>
       <c r="C153" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D153" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E153">
         <v>1</v>
@@ -7170,20 +7150,20 @@
       </c>
       <c r="G153" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_WZ1A6_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_CZ1VL_CommissionSummary.pdf</v>
       </c>
       <c r="H153" t="str">
         <f t="shared" si="5"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_WZ1A6_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_CZ1VL_CommissionDetail.pdf</v>
       </c>
       <c r="K153" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="L153" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="M153" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
     </row>
     <row r="154" spans="2:13" x14ac:dyDescent="0.25">
@@ -7191,10 +7171,10 @@
         <v>151</v>
       </c>
       <c r="C154" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D154" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E154">
         <v>1</v>
@@ -7204,20 +7184,20 @@
       </c>
       <c r="G154" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_WZ139_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_CZ1VK_CommissionSummary.pdf</v>
       </c>
       <c r="H154" t="str">
         <f t="shared" si="5"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_WZ139_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_CZ1VK_CommissionDetail.pdf</v>
       </c>
       <c r="K154" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="L154" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="M154" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
     </row>
     <row r="155" spans="2:13" x14ac:dyDescent="0.25">
@@ -7225,10 +7205,10 @@
         <v>152</v>
       </c>
       <c r="C155" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D155" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E155">
         <v>1</v>
@@ -7238,20 +7218,20 @@
       </c>
       <c r="G155" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_CZ1VL_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_CZ1LR_CommissionSummary.pdf</v>
       </c>
       <c r="H155" t="str">
         <f t="shared" si="5"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_CZ1VL_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_CZ1LR_CommissionDetail.pdf</v>
       </c>
       <c r="K155" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="L155" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="M155" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
     </row>
     <row r="156" spans="2:13" x14ac:dyDescent="0.25">
@@ -7259,10 +7239,10 @@
         <v>153</v>
       </c>
       <c r="C156" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D156" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E156">
         <v>1</v>
@@ -7272,20 +7252,20 @@
       </c>
       <c r="G156" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_CZ1VK_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_CZ1UV_CommissionSummary.pdf</v>
       </c>
       <c r="H156" t="str">
         <f t="shared" si="5"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_CZ1VK_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_CZ1UV_CommissionDetail.pdf</v>
       </c>
       <c r="K156" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="L156" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="M156" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
     </row>
     <row r="157" spans="2:13" x14ac:dyDescent="0.25">
@@ -7293,10 +7273,10 @@
         <v>154</v>
       </c>
       <c r="C157" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D157" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E157">
         <v>1</v>
@@ -7306,20 +7286,20 @@
       </c>
       <c r="G157" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_CZ1LR_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_CZ1WV_CommissionSummary.pdf</v>
       </c>
       <c r="H157" t="str">
         <f t="shared" si="5"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_CZ1LR_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_CZ1WV_CommissionDetail.pdf</v>
       </c>
       <c r="K157" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="L157" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="M157" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
     </row>
     <row r="158" spans="2:13" x14ac:dyDescent="0.25">
@@ -7327,10 +7307,10 @@
         <v>155</v>
       </c>
       <c r="C158" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D158" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E158">
         <v>1</v>
@@ -7340,20 +7320,20 @@
       </c>
       <c r="G158" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_CZ1UV_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_CZ1UO_CommissionSummary.pdf</v>
       </c>
       <c r="H158" t="str">
         <f t="shared" si="5"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_CZ1UV_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_CZ1UO_CommissionDetail.pdf</v>
       </c>
       <c r="K158" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="L158" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="M158" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
     </row>
     <row r="159" spans="2:13" x14ac:dyDescent="0.25">
@@ -7361,10 +7341,10 @@
         <v>156</v>
       </c>
       <c r="C159" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D159" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E159">
         <v>1</v>
@@ -7374,20 +7354,20 @@
       </c>
       <c r="G159" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_CZ1WV_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_CZ1XC_CommissionSummary.pdf</v>
       </c>
       <c r="H159" t="str">
         <f t="shared" si="5"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_CZ1WV_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_CZ1XC_CommissionDetail.pdf</v>
       </c>
       <c r="K159" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="L159" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="M159" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
     </row>
     <row r="160" spans="2:13" x14ac:dyDescent="0.25">
@@ -7395,10 +7375,10 @@
         <v>157</v>
       </c>
       <c r="C160" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D160" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E160">
         <v>1</v>
@@ -7408,20 +7388,20 @@
       </c>
       <c r="G160" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_CZ1UO_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_CZ1YN_CommissionSummary.pdf</v>
       </c>
       <c r="H160" t="str">
         <f t="shared" si="5"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_CZ1UO_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_CZ1YN_CommissionDetail.pdf</v>
       </c>
       <c r="K160" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="L160" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="M160" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
     </row>
     <row r="161" spans="2:13" x14ac:dyDescent="0.25">
@@ -7429,10 +7409,10 @@
         <v>158</v>
       </c>
       <c r="C161" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D161" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E161">
         <v>1</v>
@@ -7442,20 +7422,20 @@
       </c>
       <c r="G161" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_CZ1XC_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_CZ1UI_CommissionSummary.pdf</v>
       </c>
       <c r="H161" t="str">
         <f t="shared" si="5"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_CZ1XC_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_CZ1UI_CommissionDetail.pdf</v>
       </c>
       <c r="K161" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="L161" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="M161" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
     </row>
     <row r="162" spans="2:13" x14ac:dyDescent="0.25">
@@ -7463,10 +7443,10 @@
         <v>159</v>
       </c>
       <c r="C162" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D162" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E162">
         <v>1</v>
@@ -7476,20 +7456,20 @@
       </c>
       <c r="G162" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_CZ1YN_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_CZ1UU_CommissionSummary.pdf</v>
       </c>
       <c r="H162" t="str">
         <f t="shared" si="5"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_CZ1YN_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_CZ1UU_CommissionDetail.pdf</v>
       </c>
       <c r="K162" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="L162" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="M162" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
     </row>
     <row r="163" spans="2:13" x14ac:dyDescent="0.25">
@@ -7497,10 +7477,10 @@
         <v>160</v>
       </c>
       <c r="C163" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D163" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E163">
         <v>1</v>
@@ -7510,20 +7490,20 @@
       </c>
       <c r="G163" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_CZ1UI_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_CZ1UW_CommissionSummary.pdf</v>
       </c>
       <c r="H163" t="str">
         <f t="shared" si="5"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_CZ1UI_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_CZ1UW_CommissionDetail.pdf</v>
       </c>
       <c r="K163" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="L163" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="M163" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
     </row>
     <row r="164" spans="2:13" x14ac:dyDescent="0.25">
@@ -7531,10 +7511,10 @@
         <v>161</v>
       </c>
       <c r="C164" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D164" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E164">
         <v>1</v>
@@ -7544,20 +7524,20 @@
       </c>
       <c r="G164" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_CZ1UU_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_CZ1VC_CommissionSummary.pdf</v>
       </c>
       <c r="H164" t="str">
         <f t="shared" si="5"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_CZ1UU_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_CZ1VC_CommissionDetail.pdf</v>
       </c>
       <c r="K164" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="L164" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="M164" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="165" spans="2:13" x14ac:dyDescent="0.25">
@@ -7565,10 +7545,10 @@
         <v>162</v>
       </c>
       <c r="C165" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D165" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E165">
         <v>1</v>
@@ -7578,20 +7558,20 @@
       </c>
       <c r="G165" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_CZ1UW_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_CZ1UX_CommissionSummary.pdf</v>
       </c>
       <c r="H165" t="str">
         <f t="shared" si="5"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_CZ1UW_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_CZ1UX_CommissionDetail.pdf</v>
       </c>
       <c r="K165" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="L165" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="M165" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
     </row>
     <row r="166" spans="2:13" x14ac:dyDescent="0.25">
@@ -7599,10 +7579,10 @@
         <v>163</v>
       </c>
       <c r="C166" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D166" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E166">
         <v>1</v>
@@ -7612,31 +7592,31 @@
       </c>
       <c r="G166" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_CZ1VC_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_CZ1UZ_CommissionSummary.pdf</v>
       </c>
       <c r="H166" t="str">
         <f t="shared" si="5"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_CZ1VC_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_CZ1UZ_CommissionDetail.pdf</v>
       </c>
       <c r="K166" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="L166" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="M166" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
     </row>
     <row r="167" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B167" t="s">
-        <v>164</v>
+        <v>177</v>
       </c>
       <c r="C167" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D167" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E167">
         <v>1</v>
@@ -7646,31 +7626,31 @@
       </c>
       <c r="G167" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_CZ1UX_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_WZ9JP_CommissionSummary.pdf</v>
       </c>
       <c r="H167" t="str">
         <f t="shared" si="5"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_CZ1UX_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_WZ9JP_CommissionDetail.pdf</v>
       </c>
       <c r="K167" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="L167" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="M167" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
     </row>
     <row r="168" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B168" t="s">
-        <v>165</v>
+        <v>180</v>
       </c>
       <c r="C168" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D168" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E168">
         <v>1</v>
@@ -7680,31 +7660,31 @@
       </c>
       <c r="G168" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_CZ1UZ_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_CZ1DG_CommissionSummary.pdf</v>
       </c>
       <c r="H168" t="str">
         <f t="shared" si="5"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_CZ1UZ_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_CZ1DG_CommissionDetail.pdf</v>
       </c>
       <c r="K168" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="L168" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="M168" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
     </row>
     <row r="169" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B169" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="C169" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D169" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E169">
         <v>1</v>
@@ -7714,85 +7694,20 @@
       </c>
       <c r="G169" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_WZ9JP_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_CZ1LE_CommissionSummary.pdf</v>
       </c>
       <c r="H169" t="str">
         <f t="shared" si="5"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_WZ9JP_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_CZ1LE_CommissionDetail.pdf</v>
       </c>
       <c r="K169" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="L169" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="M169" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="170" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B170" t="s">
-        <v>182</v>
-      </c>
-      <c r="C170" t="s">
-        <v>172</v>
-      </c>
-      <c r="D170" t="s">
-        <v>185</v>
-      </c>
-      <c r="E170">
-        <v>1</v>
-      </c>
-      <c r="F170">
-        <v>2</v>
-      </c>
-      <c r="G170" t="str">
-        <f t="shared" ref="G170:G171" si="6">$K170&amp;"\"&amp;L170</f>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_CZ1DG_CommissionSummary.pdf</v>
-      </c>
-      <c r="H170" t="str">
-        <f t="shared" ref="H170" si="7">$K170&amp;"\"&amp;M170</f>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_CZ1DG_CommissionDetail.pdf</v>
-      </c>
-      <c r="K170" t="s">
-        <v>178</v>
-      </c>
-      <c r="L170" t="s">
-        <v>518</v>
-      </c>
-      <c r="M170" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="171" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B171" t="s">
-        <v>183</v>
-      </c>
-      <c r="D171" t="s">
-        <v>185</v>
-      </c>
-      <c r="E171">
-        <v>1</v>
-      </c>
-      <c r="F171">
-        <v>2</v>
-      </c>
-      <c r="G171" t="str">
-        <f t="shared" ref="G171" si="8">$K171&amp;"\"&amp;L171</f>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_CZ1LE_CommissionSummary.pdf</v>
-      </c>
-      <c r="H171" t="str">
-        <f t="shared" ref="H171" si="9">$K171&amp;"\"&amp;M171</f>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201802_CZ1LE_CommissionDetail.pdf</v>
-      </c>
-      <c r="K171" t="s">
-        <v>178</v>
-      </c>
-      <c r="L171" t="s">
-        <v>520</v>
-      </c>
-      <c r="M171" t="s">
-        <v>521</v>
+        <v>515</v>
       </c>
     </row>
   </sheetData>

--- a/BR_Mailer/J030_COM_FSC/J030_Mailing_List - Excel.xlsx
+++ b/BR_Mailer/J030_COM_FSC/J030_Mailing_List - Excel.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\Business Reporting\zDev\BR_Scripts\BRPoSh\BR_Mailer\J030_COM_FSC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\Business Reporting\ZDEV\BR_Scripts\BRPoSh\BR_Mailer\J030_COM_FSC\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,12 +14,12 @@
   <sheets>
     <sheet name="Trans Page" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1018" uniqueCount="516">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1024" uniqueCount="519">
   <si>
     <t>msg</t>
   </si>
@@ -570,1009 +570,1018 @@
     <t>Don.Fleming@henryschein.ca</t>
   </si>
   <si>
-    <t>Commission Summary and Details for March 2018</t>
-  </si>
-  <si>
-    <t>201803_CZ1SD_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201803_CZ1SD_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201803_CZ125_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201803_CZ125_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201803_CZ124_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201803_CZ124_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201803_QZ132_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201803_QZ132_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201803_CZ128_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201803_CZ128_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201803_CZ144_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201803_CZ144_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201803_CZ165_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201803_CZ165_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201803_QZ178_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201803_QZ178_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201803_CZ183_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201803_CZ183_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201803_CZ107_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201803_CZ107_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201803_CZ109_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201803_CZ109_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201803_AZ112_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201803_AZ112_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201803_CZ154_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201803_CZ154_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201803_CZ1KD_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201803_CZ1KD_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201803_QZ1CF_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201803_QZ1CF_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201803_CZ1EM_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201803_CZ1EM_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201803_QZ1DP_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201803_QZ1DP_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201803_CZ1DA_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201803_CZ1DA_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201803_QZ1LM_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201803_QZ1LM_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201803_CZ1EE_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201803_CZ1EE_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201803_AZ1EK_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201803_AZ1EK_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201803_AZ1FB_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201803_AZ1FB_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201803_CZ1FP_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201803_CZ1FP_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201803_QZ1FT_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201803_QZ1FT_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201803_QZ1FR_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201803_QZ1FR_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201803_QZ1GO_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201803_QZ1GO_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201803_AZ1KL_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201803_AZ1KL_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201803_QZ1KK_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201803_QZ1KK_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201803_CZ1DN_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201803_CZ1DN_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201803_QZ1EO_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201803_QZ1EO_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201803_CZ1CB_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201803_CZ1CB_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201803_CZ1B8_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201803_CZ1B8_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201803_CZ1C4_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201803_CZ1C4_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201803_QZ1D8_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201803_QZ1D8_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201803_CZ1SW_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201803_CZ1SW_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201803_QZ1AP_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201803_QZ1AP_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201803_CZ2CB_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201803_CZ2CB_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201803_CZ1CG_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201803_CZ1CG_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201803_AZ1PV_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201803_AZ1PV_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201803_CZ3CB_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201803_CZ3CB_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201803_CZ5CS_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201803_CZ5CS_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201803_CZ8JA_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201803_CZ8JA_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201803_QZ7JM_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201803_QZ7JM_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201803_QZ7DO_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201803_QZ7DO_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201803_CZ5TA_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201803_CZ5TA_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201803_CZ2LB_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201803_CZ2LB_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201803_CZ2GB_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201803_CZ2GB_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201803_CZ2LH_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201803_CZ2LH_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201803_CZ2NM_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201803_CZ2NM_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201803_QZ2SB_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201803_QZ2SB_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201803_CZ2BG_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201803_CZ2BG_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201803_CZ1SA_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201803_CZ1SA_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201803_WZ115_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201803_WZ115_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201803_WZ120_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201803_WZ120_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201803_WZ118_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201803_WZ118_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201803_WZ119_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201803_WZ119_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201803_WZ138_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201803_WZ138_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201803_WZ142_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201803_WZ142_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201803_WZ134_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201803_WZ134_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201803_WZ123_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201803_WZ123_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201803_WZ136_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201803_WZ136_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201803_WZ165_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201803_WZ165_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201803_WZ1FF_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201803_WZ1FF_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201803_WZ167_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201803_WZ167_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201803_WZ175_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201803_WZ175_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201803_WZ177_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201803_WZ177_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201803_WZ143_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201803_WZ143_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201803_WZ159_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201803_WZ159_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201803_WZ162_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201803_WZ162_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201803_WZ113_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201803_WZ113_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201803_WZ137_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201803_WZ137_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201803_WZ1G4_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201803_WZ1G4_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201803_WZBW1_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201803_WZBW1_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201803_WZ9TS_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201803_WZ9TS_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201803_WZ1HM_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201803_WZ1HM_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201803_WZ2RP_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201803_WZ2RP_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201803_WZ1TT_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201803_WZ1TT_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201803_WZ1AM_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201803_WZ1AM_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201803_WZ1JW_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201803_WZ1JW_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201803_WZ1MH_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201803_WZ1MH_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201803_WZ1TM_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201803_WZ1TM_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201803_WZ1SC_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201803_WZ1SC_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201803_WZ1PB_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201803_WZ1PB_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201803_WZ1JN_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201803_WZ1JN_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201803_WZ1MK_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201803_WZ1MK_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201803_WZ1CA_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201803_WZ1CA_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201803_WZ2TM_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201803_WZ2TM_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201803_WZ1BC_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201803_WZ1BC_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201803_WZ1JL_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201803_WZ1JL_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201803_WZ1AL_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201803_WZ1AL_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201803_WZ1MW_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201803_WZ1MW_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201803_WZ1MS_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201803_WZ1MS_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201803_WZ1DF_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201803_WZ1DF_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201803_WZ1JI_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201803_WZ1JI_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201803_WZ1CM_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201803_WZ1CM_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201803_WZ2MS_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201803_WZ2MS_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201803_WZ2JN_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201803_WZ2JN_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201803_CZ1RD_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201803_CZ1RD_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201803_CZ1GF_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201803_CZ1GF_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201803_QZ1BP_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201803_QZ1BP_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201803_CZ1JF_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201803_CZ1JF_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201803_AZ1CI_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201803_AZ1CI_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201803_CZ1KM_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201803_CZ1KM_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201803_CZ1OV_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201803_CZ1OV_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201803_QZ1JB_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201803_QZ1JB_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201803_QZ1BG_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201803_QZ1BG_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201803_CZ1TM_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201803_CZ1TM_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201803_QZ177_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201803_QZ177_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201803_QZ1BM_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201803_QZ1BM_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201803_QZ1MD_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201803_QZ1MD_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201803_AZ1JB_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201803_AZ1JB_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201803_CZ1AD_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201803_CZ1AD_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201803_QZ1ML_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201803_QZ1ML_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201803_CZ1FA_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201803_CZ1FA_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201803_CZ2SA_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201803_CZ2SA_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201803_QZ1SL_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201803_QZ1SL_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201803_AZ1CM_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201803_AZ1CM_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201803_QZ3JB_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201803_QZ3JB_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201803_CZ1CN_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201803_CZ1CN_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201803_AZ1YU_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201803_AZ1YU_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201803_AZ1WX_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201803_AZ1WX_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201803_AZ1XF_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201803_AZ1XF_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201803_AZ1XT_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201803_AZ1XT_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201803_AZ1YP_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201803_AZ1YP_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201803_QZ1XH_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201803_QZ1XH_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201803_QZ1TB_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201803_QZ1TB_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201803_QZ1TD_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201803_QZ1TD_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201803_QZ1TK_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201803_QZ1TK_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201803_QZ1YE_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201803_QZ1YE_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201803_QZ1TE_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201803_QZ1TE_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201803_QZ1TI_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201803_QZ1TI_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201803_CZ1YI_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201803_CZ1YI_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201803_CZ1YW_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201803_CZ1YW_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201803_CZ1UE_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201803_CZ1UE_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201803_CZ1MJ_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201803_CZ1MJ_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201803_CZ1VG_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201803_CZ1VG_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201803_CZ1VJ_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201803_CZ1VJ_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201803_CZ1MI_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201803_CZ1MI_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201803_CZ1XD_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201803_CZ1XD_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201803_CZ1XB_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201803_CZ1XB_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201803_CZ1WT_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201803_CZ1WT_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201803_CZ1XA_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201803_CZ1XA_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201803_WZ2KF_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201803_WZ2KF_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201803_WZ148_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201803_WZ148_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201803_WZ8GM_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201803_WZ8GM_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201803_WZ1BH_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201803_WZ1BH_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201803_WZ114_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201803_WZ114_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201803_WZ1A6_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201803_WZ1A6_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201803_WZ139_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201803_WZ139_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201803_CZ1VL_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201803_CZ1VL_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201803_CZ1VK_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201803_CZ1VK_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201803_CZ1LR_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201803_CZ1LR_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201803_CZ1UV_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201803_CZ1UV_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201803_CZ1WV_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201803_CZ1WV_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201803_CZ1UO_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201803_CZ1UO_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201803_CZ1XC_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201803_CZ1XC_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201803_CZ1YN_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201803_CZ1YN_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201803_CZ1UI_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201803_CZ1UI_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201803_CZ1UU_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201803_CZ1UU_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201803_CZ1UW_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201803_CZ1UW_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201803_CZ1VC_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201803_CZ1VC_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201803_CZ1UX_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201803_CZ1UX_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201803_CZ1UZ_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201803_CZ1UZ_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201803_WZ9JP_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201803_WZ9JP_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201803_CZ1DG_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201803_CZ1DG_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201803_CZ1LE_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201803_CZ1LE_CommissionDetail.pdf</t>
+    <t>Olivier.Marsolais@henryschein.ca</t>
+  </si>
+  <si>
+    <t>Commission Summary and Details for April 2018</t>
+  </si>
+  <si>
+    <t>201804_CZ1SD_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201804_CZ1SD_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201804_CZ125_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201804_CZ125_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201804_CZ124_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201804_CZ124_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201804_QZ132_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201804_QZ132_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201804_CZ128_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201804_CZ128_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201804_CZ144_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201804_CZ144_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201804_CZ165_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201804_CZ165_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201804_QZ178_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201804_QZ178_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201804_CZ183_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201804_CZ183_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201804_CZ107_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201804_CZ107_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201804_CZ109_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201804_CZ109_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201804_AZ112_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201804_AZ112_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201804_CZ154_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201804_CZ154_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201804_CZ1KD_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201804_CZ1KD_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201804_QZ1CF_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201804_QZ1CF_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201804_CZ1EM_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201804_CZ1EM_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201804_QZ1DP_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201804_QZ1DP_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201804_CZ1DA_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201804_CZ1DA_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201804_QZ1LM_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201804_QZ1LM_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201804_CZ1EE_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201804_CZ1EE_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201804_AZ1EK_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201804_AZ1EK_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201804_AZ1FB_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201804_AZ1FB_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201804_CZ1FP_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201804_CZ1FP_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201804_QZ1FT_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201804_QZ1FT_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201804_QZ1FR_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201804_QZ1FR_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201804_QZ1GO_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201804_QZ1GO_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201804_AZ1KL_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201804_AZ1KL_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201804_QZ1KK_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201804_QZ1KK_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201804_CZ1DN_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201804_CZ1DN_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201804_QZ1EO_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201804_QZ1EO_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201804_CZ1CB_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201804_CZ1CB_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201804_CZ1B8_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201804_CZ1B8_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201804_CZ1C4_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201804_CZ1C4_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201804_QZ1D8_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201804_QZ1D8_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201804_CZ1SW_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201804_CZ1SW_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201804_QZ1AP_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201804_QZ1AP_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201804_CZ2CB_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201804_CZ2CB_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201804_CZ1CG_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201804_CZ1CG_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201804_AZ1PV_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201804_AZ1PV_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201804_CZ3CB_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201804_CZ3CB_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201804_CZ5CS_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201804_CZ5CS_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201804_CZ8JA_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201804_CZ8JA_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201804_QZ7JM_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201804_QZ7JM_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201804_QZ7DO_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201804_QZ7DO_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201804_CZ5TA_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201804_CZ5TA_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201804_CZ2LB_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201804_CZ2LB_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201804_CZ2GB_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201804_CZ2GB_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201804_CZ2LH_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201804_CZ2LH_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201804_CZ2NM_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201804_CZ2NM_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201804_QZ2SB_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201804_QZ2SB_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201804_CZ2BG_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201804_CZ2BG_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201804_CZ1SA_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201804_CZ1SA_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201804_WZ115_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201804_WZ115_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201804_WZ120_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201804_WZ120_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201804_WZ118_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201804_WZ118_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201804_WZ119_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201804_WZ119_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201804_WZ138_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201804_WZ138_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201804_WZ142_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201804_WZ142_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201804_WZ134_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201804_WZ134_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201804_WZ123_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201804_WZ123_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201804_WZ136_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201804_WZ136_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201804_WZ165_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201804_WZ165_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201804_WZ1FF_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201804_WZ1FF_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201804_WZ167_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201804_WZ167_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201804_WZ175_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201804_WZ175_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201804_WZ177_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201804_WZ177_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201804_WZ143_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201804_WZ143_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201804_WZ159_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201804_WZ159_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201804_WZ162_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201804_WZ162_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201804_WZ113_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201804_WZ113_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201804_WZ137_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201804_WZ137_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201804_WZ1G4_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201804_WZ1G4_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201804_WZBW1_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201804_WZBW1_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201804_WZ9TS_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201804_WZ9TS_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201804_WZ1HM_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201804_WZ1HM_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201804_WZ2RP_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201804_WZ2RP_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201804_WZ1TT_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201804_WZ1TT_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201804_WZ1AM_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201804_WZ1AM_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201804_WZ1JW_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201804_WZ1JW_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201804_WZ1MH_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201804_WZ1MH_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201804_WZ1TM_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201804_WZ1TM_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201804_WZ1SC_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201804_WZ1SC_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201804_WZ1PB_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201804_WZ1PB_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201804_WZ1JN_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201804_WZ1JN_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201804_WZ1MK_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201804_WZ1MK_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201804_WZ1CA_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201804_WZ1CA_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201804_WZ2TM_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201804_WZ2TM_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201804_WZ1BC_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201804_WZ1BC_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201804_WZ1JL_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201804_WZ1JL_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201804_WZ1AL_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201804_WZ1AL_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201804_WZ1MW_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201804_WZ1MW_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201804_WZ1MS_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201804_WZ1MS_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201804_WZ1DF_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201804_WZ1DF_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201804_WZ1JI_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201804_WZ1JI_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201804_WZ1CM_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201804_WZ1CM_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201804_WZ2MS_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201804_WZ2MS_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201804_WZ2JN_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201804_WZ2JN_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201804_CZ1RD_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201804_CZ1RD_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201804_CZ1GF_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201804_CZ1GF_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201804_QZ1BP_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201804_QZ1BP_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201804_CZ1JF_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201804_CZ1JF_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201804_AZ1CI_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201804_AZ1CI_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201804_CZ1KM_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201804_CZ1KM_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201804_CZ1OV_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201804_CZ1OV_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201804_QZ1JB_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201804_QZ1JB_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201804_QZ1BG_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201804_QZ1BG_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201804_CZ1TM_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201804_CZ1TM_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201804_QZ177_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201804_QZ177_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201804_QZ1BM_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201804_QZ1BM_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201804_QZ1MD_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201804_QZ1MD_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201804_AZ1JB_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201804_AZ1JB_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201804_CZ1AD_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201804_CZ1AD_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201804_QZ1ML_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201804_QZ1ML_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201804_CZ1FA_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201804_CZ1FA_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201804_CZ2SA_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201804_CZ2SA_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201804_QZ1SL_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201804_QZ1SL_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201804_AZ1CM_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201804_AZ1CM_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201804_QZ3JB_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201804_QZ3JB_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201804_CZ1CN_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201804_CZ1CN_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201804_AZ1YU_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201804_AZ1YU_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201804_AZ1WX_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201804_AZ1WX_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201804_AZ1XF_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201804_AZ1XF_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201804_AZ1XT_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201804_AZ1XT_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201804_AZ1YP_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201804_AZ1YP_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201804_QZ1XH_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201804_QZ1XH_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201804_QZ1TB_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201804_QZ1TB_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201804_QZ1TD_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201804_QZ1TD_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201804_QZ1TK_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201804_QZ1TK_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201804_QZ1YE_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201804_QZ1YE_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201804_QZ1TE_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201804_QZ1TE_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201804_QZ1TI_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201804_QZ1TI_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201804_CZ1YI_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201804_CZ1YI_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201804_CZ1YW_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201804_CZ1YW_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201804_CZ1UE_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201804_CZ1UE_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201804_CZ1MJ_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201804_CZ1MJ_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201804_CZ1VG_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201804_CZ1VG_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201804_CZ1VJ_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201804_CZ1VJ_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201804_CZ1MI_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201804_CZ1MI_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201804_CZ1XD_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201804_CZ1XD_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201804_CZ1XB_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201804_CZ1XB_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201804_CZ1WT_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201804_CZ1WT_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201804_CZ1XA_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201804_CZ1XA_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201804_WZ2KF_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201804_WZ2KF_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201804_WZ148_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201804_WZ148_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201804_WZ8GM_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201804_WZ8GM_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201804_WZ1BH_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201804_WZ1BH_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201804_WZ114_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201804_WZ114_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201804_WZ1A6_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201804_WZ1A6_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201804_WZ139_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201804_WZ139_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201804_CZ1VL_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201804_CZ1VL_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201804_CZ1VK_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201804_CZ1VK_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201804_CZ1LR_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201804_CZ1LR_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201804_CZ1UV_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201804_CZ1UV_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201804_CZ1WV_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201804_CZ1WV_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201804_CZ1UO_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201804_CZ1UO_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201804_CZ1XC_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201804_CZ1XC_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201804_CZ1YN_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201804_CZ1YN_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201804_CZ1UI_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201804_CZ1UI_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201804_CZ1UU_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201804_CZ1UU_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201804_CZ1UW_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201804_CZ1UW_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201804_CZ1VC_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201804_CZ1VC_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201804_CZ1UX_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201804_CZ1UX_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201804_CZ1UZ_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201804_CZ1UZ_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201804_WZ9JP_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201804_WZ9JP_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201804_CZ1DG_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201804_CZ1DG_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201804_CZ1LE_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201804_CZ1LE_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201804_QZ1OM_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201804_QZ1OM_CommissionDetail.pdf</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1916,7 +1925,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:N169"/>
+  <dimension ref="A1:N170"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1929,8 +1938,8 @@
     <col min="7" max="7" width="16.5703125" customWidth="1"/>
     <col min="8" max="8" width="10.5703125" customWidth="1"/>
     <col min="9" max="9" width="3.28515625" customWidth="1"/>
-    <col min="10" max="10" width="116.42578125" customWidth="1"/>
-    <col min="11" max="11" width="94.42578125" customWidth="1"/>
+    <col min="10" max="10" width="6.5703125" customWidth="1"/>
+    <col min="11" max="11" width="17" customWidth="1"/>
     <col min="12" max="12" width="30.42578125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="33.5703125" bestFit="1" customWidth="1"/>
   </cols>
@@ -1987,7 +1996,7 @@
       </c>
       <c r="D2" t="str">
         <f>D3</f>
-        <v>Commission Summary and Details for March 2018</v>
+        <v>Commission Summary and Details for April 2018</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -1997,22 +2006,22 @@
       </c>
       <c r="G2" t="str">
         <f>$K2&amp;"\"&amp;L2</f>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_CZ1SD_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_CZ1SD_CommissionSummary.pdf</v>
       </c>
       <c r="H2" t="str">
         <f>$K2&amp;"\"&amp;M2</f>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_CZ1SD_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_CZ1SD_CommissionDetail.pdf</v>
       </c>
       <c r="K2" t="s">
         <v>176</v>
       </c>
       <c r="L2" t="str">
         <f>L3</f>
-        <v>201803_CZ1SD_CommissionSummary.pdf</v>
+        <v>201804_CZ1SD_CommissionSummary.pdf</v>
       </c>
       <c r="M2" t="str">
         <f>M3</f>
-        <v>201803_CZ1SD_CommissionDetail.pdf</v>
+        <v>201804_CZ1SD_CommissionDetail.pdf</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
@@ -2024,7 +2033,7 @@
         <v>170</v>
       </c>
       <c r="D3" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -2034,20 +2043,20 @@
       </c>
       <c r="G3" t="str">
         <f t="shared" ref="G3:G66" si="0">$K3&amp;"\"&amp;L3</f>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_CZ1SD_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_CZ1SD_CommissionSummary.pdf</v>
       </c>
       <c r="H3" t="str">
         <f t="shared" ref="H3:H66" si="1">$K3&amp;"\"&amp;M3</f>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_CZ1SD_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_CZ1SD_CommissionDetail.pdf</v>
       </c>
       <c r="K3" t="s">
         <v>176</v>
       </c>
       <c r="L3" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="M3" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
@@ -2059,7 +2068,7 @@
         <v>170</v>
       </c>
       <c r="D4" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -2069,20 +2078,20 @@
       </c>
       <c r="G4" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_CZ125_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_CZ125_CommissionSummary.pdf</v>
       </c>
       <c r="H4" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_CZ125_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_CZ125_CommissionDetail.pdf</v>
       </c>
       <c r="K4" t="s">
         <v>176</v>
       </c>
       <c r="L4" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="M4" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
@@ -2094,7 +2103,7 @@
         <v>170</v>
       </c>
       <c r="D5" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -2104,20 +2113,20 @@
       </c>
       <c r="G5" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_CZ124_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_CZ124_CommissionSummary.pdf</v>
       </c>
       <c r="H5" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_CZ124_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_CZ124_CommissionDetail.pdf</v>
       </c>
       <c r="K5" t="s">
         <v>176</v>
       </c>
       <c r="L5" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="M5" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
@@ -2129,7 +2138,7 @@
         <v>170</v>
       </c>
       <c r="D6" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -2139,20 +2148,20 @@
       </c>
       <c r="G6" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_QZ132_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_QZ132_CommissionSummary.pdf</v>
       </c>
       <c r="H6" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_QZ132_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_QZ132_CommissionDetail.pdf</v>
       </c>
       <c r="K6" t="s">
         <v>176</v>
       </c>
       <c r="L6" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="M6" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
@@ -2164,7 +2173,7 @@
         <v>170</v>
       </c>
       <c r="D7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -2174,20 +2183,20 @@
       </c>
       <c r="G7" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_CZ128_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_CZ128_CommissionSummary.pdf</v>
       </c>
       <c r="H7" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_CZ128_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_CZ128_CommissionDetail.pdf</v>
       </c>
       <c r="K7" t="s">
         <v>176</v>
       </c>
       <c r="L7" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="M7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
@@ -2199,7 +2208,7 @@
         <v>170</v>
       </c>
       <c r="D8" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E8">
         <v>1</v>
@@ -2209,20 +2218,20 @@
       </c>
       <c r="G8" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_CZ144_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_CZ144_CommissionSummary.pdf</v>
       </c>
       <c r="H8" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_CZ144_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_CZ144_CommissionDetail.pdf</v>
       </c>
       <c r="K8" t="s">
         <v>176</v>
       </c>
       <c r="L8" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="M8" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
@@ -2234,7 +2243,7 @@
         <v>170</v>
       </c>
       <c r="D9" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E9">
         <v>1</v>
@@ -2244,20 +2253,20 @@
       </c>
       <c r="G9" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_CZ165_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_CZ165_CommissionSummary.pdf</v>
       </c>
       <c r="H9" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_CZ165_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_CZ165_CommissionDetail.pdf</v>
       </c>
       <c r="K9" t="s">
         <v>176</v>
       </c>
       <c r="L9" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="M9" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
@@ -2269,7 +2278,7 @@
         <v>170</v>
       </c>
       <c r="D10" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E10">
         <v>1</v>
@@ -2279,20 +2288,20 @@
       </c>
       <c r="G10" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_QZ178_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_QZ178_CommissionSummary.pdf</v>
       </c>
       <c r="H10" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_QZ178_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_QZ178_CommissionDetail.pdf</v>
       </c>
       <c r="K10" t="s">
         <v>176</v>
       </c>
       <c r="L10" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="M10" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
@@ -2304,7 +2313,7 @@
         <v>170</v>
       </c>
       <c r="D11" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E11">
         <v>1</v>
@@ -2314,20 +2323,20 @@
       </c>
       <c r="G11" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_CZ183_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_CZ183_CommissionSummary.pdf</v>
       </c>
       <c r="H11" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_CZ183_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_CZ183_CommissionDetail.pdf</v>
       </c>
       <c r="K11" t="s">
         <v>176</v>
       </c>
       <c r="L11" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="M11" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
@@ -2339,7 +2348,7 @@
         <v>170</v>
       </c>
       <c r="D12" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E12">
         <v>1</v>
@@ -2349,20 +2358,20 @@
       </c>
       <c r="G12" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_CZ107_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_CZ107_CommissionSummary.pdf</v>
       </c>
       <c r="H12" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_CZ107_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_CZ107_CommissionDetail.pdf</v>
       </c>
       <c r="K12" t="s">
         <v>176</v>
       </c>
       <c r="L12" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="M12" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
@@ -2374,7 +2383,7 @@
         <v>170</v>
       </c>
       <c r="D13" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E13">
         <v>1</v>
@@ -2384,20 +2393,20 @@
       </c>
       <c r="G13" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_CZ109_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_CZ109_CommissionSummary.pdf</v>
       </c>
       <c r="H13" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_CZ109_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_CZ109_CommissionDetail.pdf</v>
       </c>
       <c r="K13" t="s">
         <v>176</v>
       </c>
       <c r="L13" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="M13" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
@@ -2409,7 +2418,7 @@
         <v>170</v>
       </c>
       <c r="D14" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E14">
         <v>1</v>
@@ -2419,20 +2428,20 @@
       </c>
       <c r="G14" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_AZ112_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_AZ112_CommissionSummary.pdf</v>
       </c>
       <c r="H14" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_AZ112_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_AZ112_CommissionDetail.pdf</v>
       </c>
       <c r="K14" t="s">
         <v>176</v>
       </c>
       <c r="L14" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="M14" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
@@ -2444,7 +2453,7 @@
         <v>170</v>
       </c>
       <c r="D15" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E15">
         <v>1</v>
@@ -2454,20 +2463,20 @@
       </c>
       <c r="G15" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_CZ154_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_CZ154_CommissionSummary.pdf</v>
       </c>
       <c r="H15" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_CZ154_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_CZ154_CommissionDetail.pdf</v>
       </c>
       <c r="K15" t="s">
         <v>176</v>
       </c>
       <c r="L15" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="M15" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
@@ -2479,7 +2488,7 @@
         <v>170</v>
       </c>
       <c r="D16" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E16">
         <v>1</v>
@@ -2489,20 +2498,20 @@
       </c>
       <c r="G16" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_CZ1KD_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_CZ1KD_CommissionSummary.pdf</v>
       </c>
       <c r="H16" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_CZ1KD_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_CZ1KD_CommissionDetail.pdf</v>
       </c>
       <c r="K16" t="s">
         <v>176</v>
       </c>
       <c r="L16" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="M16" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
@@ -2514,7 +2523,7 @@
         <v>170</v>
       </c>
       <c r="D17" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E17">
         <v>1</v>
@@ -2524,20 +2533,20 @@
       </c>
       <c r="G17" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_QZ1CF_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_QZ1CF_CommissionSummary.pdf</v>
       </c>
       <c r="H17" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_QZ1CF_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_QZ1CF_CommissionDetail.pdf</v>
       </c>
       <c r="K17" t="s">
         <v>176</v>
       </c>
       <c r="L17" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="M17" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
@@ -2549,7 +2558,7 @@
         <v>170</v>
       </c>
       <c r="D18" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E18">
         <v>1</v>
@@ -2559,20 +2568,20 @@
       </c>
       <c r="G18" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_CZ1EM_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_CZ1EM_CommissionSummary.pdf</v>
       </c>
       <c r="H18" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_CZ1EM_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_CZ1EM_CommissionDetail.pdf</v>
       </c>
       <c r="K18" t="s">
         <v>176</v>
       </c>
       <c r="L18" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="M18" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
@@ -2584,7 +2593,7 @@
         <v>170</v>
       </c>
       <c r="D19" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E19">
         <v>1</v>
@@ -2594,20 +2603,20 @@
       </c>
       <c r="G19" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_QZ1DP_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_QZ1DP_CommissionSummary.pdf</v>
       </c>
       <c r="H19" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_QZ1DP_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_QZ1DP_CommissionDetail.pdf</v>
       </c>
       <c r="K19" t="s">
         <v>176</v>
       </c>
       <c r="L19" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="M19" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
@@ -2618,7 +2627,7 @@
         <v>170</v>
       </c>
       <c r="D20" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E20">
         <v>1</v>
@@ -2628,20 +2637,20 @@
       </c>
       <c r="G20" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_CZ1DA_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_CZ1DA_CommissionSummary.pdf</v>
       </c>
       <c r="H20" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_CZ1DA_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_CZ1DA_CommissionDetail.pdf</v>
       </c>
       <c r="K20" t="s">
         <v>176</v>
       </c>
       <c r="L20" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="M20" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
@@ -2652,7 +2661,7 @@
         <v>170</v>
       </c>
       <c r="D21" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E21">
         <v>1</v>
@@ -2662,20 +2671,20 @@
       </c>
       <c r="G21" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_QZ1LM_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_QZ1LM_CommissionSummary.pdf</v>
       </c>
       <c r="H21" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_QZ1LM_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_QZ1LM_CommissionDetail.pdf</v>
       </c>
       <c r="K21" t="s">
         <v>176</v>
       </c>
       <c r="L21" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="M21" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
@@ -2686,7 +2695,7 @@
         <v>170</v>
       </c>
       <c r="D22" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E22">
         <v>1</v>
@@ -2696,20 +2705,20 @@
       </c>
       <c r="G22" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_CZ1EE_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_CZ1EE_CommissionSummary.pdf</v>
       </c>
       <c r="H22" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_CZ1EE_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_CZ1EE_CommissionDetail.pdf</v>
       </c>
       <c r="K22" t="s">
         <v>176</v>
       </c>
       <c r="L22" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="M22" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
@@ -2720,7 +2729,7 @@
         <v>170</v>
       </c>
       <c r="D23" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E23">
         <v>1</v>
@@ -2730,20 +2739,20 @@
       </c>
       <c r="G23" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_AZ1EK_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_AZ1EK_CommissionSummary.pdf</v>
       </c>
       <c r="H23" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_AZ1EK_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_AZ1EK_CommissionDetail.pdf</v>
       </c>
       <c r="K23" t="s">
         <v>176</v>
       </c>
       <c r="L23" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="M23" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
@@ -2754,7 +2763,7 @@
         <v>170</v>
       </c>
       <c r="D24" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E24">
         <v>1</v>
@@ -2764,20 +2773,20 @@
       </c>
       <c r="G24" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_AZ1FB_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_AZ1FB_CommissionSummary.pdf</v>
       </c>
       <c r="H24" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_AZ1FB_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_AZ1FB_CommissionDetail.pdf</v>
       </c>
       <c r="K24" t="s">
         <v>176</v>
       </c>
       <c r="L24" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="M24" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
@@ -2788,7 +2797,7 @@
         <v>170</v>
       </c>
       <c r="D25" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E25">
         <v>1</v>
@@ -2798,20 +2807,20 @@
       </c>
       <c r="G25" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_CZ1FP_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_CZ1FP_CommissionSummary.pdf</v>
       </c>
       <c r="H25" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_CZ1FP_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_CZ1FP_CommissionDetail.pdf</v>
       </c>
       <c r="K25" t="s">
         <v>176</v>
       </c>
       <c r="L25" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="M25" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
@@ -2822,7 +2831,7 @@
         <v>170</v>
       </c>
       <c r="D26" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E26">
         <v>1</v>
@@ -2832,20 +2841,20 @@
       </c>
       <c r="G26" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_QZ1FT_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_QZ1FT_CommissionSummary.pdf</v>
       </c>
       <c r="H26" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_QZ1FT_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_QZ1FT_CommissionDetail.pdf</v>
       </c>
       <c r="K26" t="s">
         <v>176</v>
       </c>
       <c r="L26" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="M26" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
@@ -2856,7 +2865,7 @@
         <v>170</v>
       </c>
       <c r="D27" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E27">
         <v>1</v>
@@ -2866,20 +2875,20 @@
       </c>
       <c r="G27" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_QZ1FR_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_QZ1FR_CommissionSummary.pdf</v>
       </c>
       <c r="H27" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_QZ1FR_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_QZ1FR_CommissionDetail.pdf</v>
       </c>
       <c r="K27" t="s">
         <v>176</v>
       </c>
       <c r="L27" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="M27" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
@@ -2890,7 +2899,7 @@
         <v>170</v>
       </c>
       <c r="D28" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E28">
         <v>1</v>
@@ -2900,20 +2909,20 @@
       </c>
       <c r="G28" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_QZ1GO_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_QZ1GO_CommissionSummary.pdf</v>
       </c>
       <c r="H28" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_QZ1GO_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_QZ1GO_CommissionDetail.pdf</v>
       </c>
       <c r="K28" t="s">
         <v>176</v>
       </c>
       <c r="L28" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="M28" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
@@ -2924,7 +2933,7 @@
         <v>170</v>
       </c>
       <c r="D29" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E29">
         <v>1</v>
@@ -2934,20 +2943,20 @@
       </c>
       <c r="G29" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_AZ1KL_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_AZ1KL_CommissionSummary.pdf</v>
       </c>
       <c r="H29" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_AZ1KL_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_AZ1KL_CommissionDetail.pdf</v>
       </c>
       <c r="K29" t="s">
         <v>176</v>
       </c>
       <c r="L29" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="M29" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
@@ -2958,7 +2967,7 @@
         <v>170</v>
       </c>
       <c r="D30" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E30">
         <v>1</v>
@@ -2968,20 +2977,20 @@
       </c>
       <c r="G30" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_QZ1KK_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_QZ1KK_CommissionSummary.pdf</v>
       </c>
       <c r="H30" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_QZ1KK_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_QZ1KK_CommissionDetail.pdf</v>
       </c>
       <c r="K30" t="s">
         <v>176</v>
       </c>
       <c r="L30" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="M30" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
@@ -2992,7 +3001,7 @@
         <v>170</v>
       </c>
       <c r="D31" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E31">
         <v>1</v>
@@ -3002,20 +3011,20 @@
       </c>
       <c r="G31" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_CZ1DN_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_CZ1DN_CommissionSummary.pdf</v>
       </c>
       <c r="H31" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_CZ1DN_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_CZ1DN_CommissionDetail.pdf</v>
       </c>
       <c r="K31" t="s">
         <v>176</v>
       </c>
       <c r="L31" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="M31" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
@@ -3026,7 +3035,7 @@
         <v>170</v>
       </c>
       <c r="D32" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E32">
         <v>1</v>
@@ -3036,20 +3045,20 @@
       </c>
       <c r="G32" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_QZ1EO_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_QZ1EO_CommissionSummary.pdf</v>
       </c>
       <c r="H32" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_QZ1EO_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_QZ1EO_CommissionDetail.pdf</v>
       </c>
       <c r="K32" t="s">
         <v>176</v>
       </c>
       <c r="L32" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="M32" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="33" spans="2:13" x14ac:dyDescent="0.25">
@@ -3060,7 +3069,7 @@
         <v>170</v>
       </c>
       <c r="D33" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E33">
         <v>1</v>
@@ -3070,20 +3079,20 @@
       </c>
       <c r="G33" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_CZ1CB_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_CZ1CB_CommissionSummary.pdf</v>
       </c>
       <c r="H33" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_CZ1CB_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_CZ1CB_CommissionDetail.pdf</v>
       </c>
       <c r="K33" t="s">
         <v>176</v>
       </c>
       <c r="L33" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="M33" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="34" spans="2:13" x14ac:dyDescent="0.25">
@@ -3094,7 +3103,7 @@
         <v>170</v>
       </c>
       <c r="D34" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E34">
         <v>1</v>
@@ -3104,20 +3113,20 @@
       </c>
       <c r="G34" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_CZ1B8_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_CZ1B8_CommissionSummary.pdf</v>
       </c>
       <c r="H34" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_CZ1B8_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_CZ1B8_CommissionDetail.pdf</v>
       </c>
       <c r="K34" t="s">
         <v>176</v>
       </c>
       <c r="L34" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="M34" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="35" spans="2:13" x14ac:dyDescent="0.25">
@@ -3128,7 +3137,7 @@
         <v>170</v>
       </c>
       <c r="D35" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E35">
         <v>1</v>
@@ -3138,20 +3147,20 @@
       </c>
       <c r="G35" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_CZ1C4_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_CZ1C4_CommissionSummary.pdf</v>
       </c>
       <c r="H35" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_CZ1C4_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_CZ1C4_CommissionDetail.pdf</v>
       </c>
       <c r="K35" t="s">
         <v>176</v>
       </c>
       <c r="L35" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="M35" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="36" spans="2:13" x14ac:dyDescent="0.25">
@@ -3162,7 +3171,7 @@
         <v>170</v>
       </c>
       <c r="D36" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E36">
         <v>1</v>
@@ -3172,20 +3181,20 @@
       </c>
       <c r="G36" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_QZ1D8_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_QZ1D8_CommissionSummary.pdf</v>
       </c>
       <c r="H36" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_QZ1D8_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_QZ1D8_CommissionDetail.pdf</v>
       </c>
       <c r="K36" t="s">
         <v>176</v>
       </c>
       <c r="L36" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="M36" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="37" spans="2:13" x14ac:dyDescent="0.25">
@@ -3196,7 +3205,7 @@
         <v>170</v>
       </c>
       <c r="D37" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E37">
         <v>1</v>
@@ -3206,20 +3215,20 @@
       </c>
       <c r="G37" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_CZ1SW_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_CZ1SW_CommissionSummary.pdf</v>
       </c>
       <c r="H37" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_CZ1SW_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_CZ1SW_CommissionDetail.pdf</v>
       </c>
       <c r="K37" t="s">
         <v>176</v>
       </c>
       <c r="L37" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="M37" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="38" spans="2:13" x14ac:dyDescent="0.25">
@@ -3230,7 +3239,7 @@
         <v>170</v>
       </c>
       <c r="D38" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E38">
         <v>1</v>
@@ -3240,20 +3249,20 @@
       </c>
       <c r="G38" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_QZ1AP_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_QZ1AP_CommissionSummary.pdf</v>
       </c>
       <c r="H38" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_QZ1AP_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_QZ1AP_CommissionDetail.pdf</v>
       </c>
       <c r="K38" t="s">
         <v>176</v>
       </c>
       <c r="L38" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="M38" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="39" spans="2:13" x14ac:dyDescent="0.25">
@@ -3264,7 +3273,7 @@
         <v>170</v>
       </c>
       <c r="D39" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E39">
         <v>1</v>
@@ -3274,20 +3283,20 @@
       </c>
       <c r="G39" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_CZ2CB_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_CZ2CB_CommissionSummary.pdf</v>
       </c>
       <c r="H39" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_CZ2CB_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_CZ2CB_CommissionDetail.pdf</v>
       </c>
       <c r="K39" t="s">
         <v>176</v>
       </c>
       <c r="L39" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="M39" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="40" spans="2:13" x14ac:dyDescent="0.25">
@@ -3298,7 +3307,7 @@
         <v>170</v>
       </c>
       <c r="D40" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E40">
         <v>1</v>
@@ -3308,20 +3317,20 @@
       </c>
       <c r="G40" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_CZ1CG_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_CZ1CG_CommissionSummary.pdf</v>
       </c>
       <c r="H40" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_CZ1CG_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_CZ1CG_CommissionDetail.pdf</v>
       </c>
       <c r="K40" t="s">
         <v>176</v>
       </c>
       <c r="L40" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="M40" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="41" spans="2:13" x14ac:dyDescent="0.25">
@@ -3332,7 +3341,7 @@
         <v>170</v>
       </c>
       <c r="D41" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E41">
         <v>1</v>
@@ -3342,20 +3351,20 @@
       </c>
       <c r="G41" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_AZ1PV_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_AZ1PV_CommissionSummary.pdf</v>
       </c>
       <c r="H41" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_AZ1PV_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_AZ1PV_CommissionDetail.pdf</v>
       </c>
       <c r="K41" t="s">
         <v>176</v>
       </c>
       <c r="L41" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="M41" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="42" spans="2:13" x14ac:dyDescent="0.25">
@@ -3366,7 +3375,7 @@
         <v>170</v>
       </c>
       <c r="D42" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E42">
         <v>1</v>
@@ -3376,20 +3385,20 @@
       </c>
       <c r="G42" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_CZ3CB_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_CZ3CB_CommissionSummary.pdf</v>
       </c>
       <c r="H42" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_CZ3CB_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_CZ3CB_CommissionDetail.pdf</v>
       </c>
       <c r="K42" t="s">
         <v>176</v>
       </c>
       <c r="L42" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="M42" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
     </row>
     <row r="43" spans="2:13" x14ac:dyDescent="0.25">
@@ -3400,7 +3409,7 @@
         <v>170</v>
       </c>
       <c r="D43" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E43">
         <v>1</v>
@@ -3410,20 +3419,20 @@
       </c>
       <c r="G43" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_CZ5CS_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_CZ5CS_CommissionSummary.pdf</v>
       </c>
       <c r="H43" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_CZ5CS_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_CZ5CS_CommissionDetail.pdf</v>
       </c>
       <c r="K43" t="s">
         <v>176</v>
       </c>
       <c r="L43" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="M43" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="44" spans="2:13" x14ac:dyDescent="0.25">
@@ -3434,7 +3443,7 @@
         <v>170</v>
       </c>
       <c r="D44" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E44">
         <v>1</v>
@@ -3444,20 +3453,20 @@
       </c>
       <c r="G44" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_CZ8JA_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_CZ8JA_CommissionSummary.pdf</v>
       </c>
       <c r="H44" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_CZ8JA_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_CZ8JA_CommissionDetail.pdf</v>
       </c>
       <c r="K44" t="s">
         <v>176</v>
       </c>
       <c r="L44" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="M44" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="45" spans="2:13" x14ac:dyDescent="0.25">
@@ -3468,7 +3477,7 @@
         <v>170</v>
       </c>
       <c r="D45" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E45">
         <v>1</v>
@@ -3478,20 +3487,20 @@
       </c>
       <c r="G45" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_QZ7JM_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_QZ7JM_CommissionSummary.pdf</v>
       </c>
       <c r="H45" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_QZ7JM_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_QZ7JM_CommissionDetail.pdf</v>
       </c>
       <c r="K45" t="s">
         <v>176</v>
       </c>
       <c r="L45" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="M45" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
     </row>
     <row r="46" spans="2:13" x14ac:dyDescent="0.25">
@@ -3502,7 +3511,7 @@
         <v>170</v>
       </c>
       <c r="D46" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E46">
         <v>1</v>
@@ -3512,20 +3521,20 @@
       </c>
       <c r="G46" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_QZ7DO_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_QZ7DO_CommissionSummary.pdf</v>
       </c>
       <c r="H46" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_QZ7DO_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_QZ7DO_CommissionDetail.pdf</v>
       </c>
       <c r="K46" t="s">
         <v>176</v>
       </c>
       <c r="L46" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="M46" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
     </row>
     <row r="47" spans="2:13" x14ac:dyDescent="0.25">
@@ -3536,7 +3545,7 @@
         <v>170</v>
       </c>
       <c r="D47" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E47">
         <v>1</v>
@@ -3546,20 +3555,20 @@
       </c>
       <c r="G47" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_CZ5TA_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_CZ5TA_CommissionSummary.pdf</v>
       </c>
       <c r="H47" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_CZ5TA_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_CZ5TA_CommissionDetail.pdf</v>
       </c>
       <c r="K47" t="s">
         <v>176</v>
       </c>
       <c r="L47" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="M47" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
     </row>
     <row r="48" spans="2:13" x14ac:dyDescent="0.25">
@@ -3570,7 +3579,7 @@
         <v>170</v>
       </c>
       <c r="D48" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E48">
         <v>1</v>
@@ -3580,20 +3589,20 @@
       </c>
       <c r="G48" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_CZ2LB_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_CZ2LB_CommissionSummary.pdf</v>
       </c>
       <c r="H48" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_CZ2LB_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_CZ2LB_CommissionDetail.pdf</v>
       </c>
       <c r="K48" t="s">
         <v>176</v>
       </c>
       <c r="L48" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="M48" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
     </row>
     <row r="49" spans="2:13" x14ac:dyDescent="0.25">
@@ -3604,7 +3613,7 @@
         <v>170</v>
       </c>
       <c r="D49" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E49">
         <v>1</v>
@@ -3614,20 +3623,20 @@
       </c>
       <c r="G49" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_CZ2GB_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_CZ2GB_CommissionSummary.pdf</v>
       </c>
       <c r="H49" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_CZ2GB_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_CZ2GB_CommissionDetail.pdf</v>
       </c>
       <c r="K49" t="s">
         <v>176</v>
       </c>
       <c r="L49" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="M49" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
     </row>
     <row r="50" spans="2:13" x14ac:dyDescent="0.25">
@@ -3638,7 +3647,7 @@
         <v>170</v>
       </c>
       <c r="D50" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E50">
         <v>1</v>
@@ -3648,20 +3657,20 @@
       </c>
       <c r="G50" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_CZ2LH_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_CZ2LH_CommissionSummary.pdf</v>
       </c>
       <c r="H50" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_CZ2LH_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_CZ2LH_CommissionDetail.pdf</v>
       </c>
       <c r="K50" t="s">
         <v>176</v>
       </c>
       <c r="L50" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="M50" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
     </row>
     <row r="51" spans="2:13" x14ac:dyDescent="0.25">
@@ -3672,7 +3681,7 @@
         <v>170</v>
       </c>
       <c r="D51" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E51">
         <v>1</v>
@@ -3682,20 +3691,20 @@
       </c>
       <c r="G51" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_CZ2NM_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_CZ2NM_CommissionSummary.pdf</v>
       </c>
       <c r="H51" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_CZ2NM_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_CZ2NM_CommissionDetail.pdf</v>
       </c>
       <c r="K51" t="s">
         <v>176</v>
       </c>
       <c r="L51" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="M51" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
     </row>
     <row r="52" spans="2:13" x14ac:dyDescent="0.25">
@@ -3706,7 +3715,7 @@
         <v>170</v>
       </c>
       <c r="D52" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E52">
         <v>1</v>
@@ -3716,20 +3725,20 @@
       </c>
       <c r="G52" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_QZ2SB_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_QZ2SB_CommissionSummary.pdf</v>
       </c>
       <c r="H52" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_QZ2SB_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_QZ2SB_CommissionDetail.pdf</v>
       </c>
       <c r="K52" t="s">
         <v>176</v>
       </c>
       <c r="L52" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="M52" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
     </row>
     <row r="53" spans="2:13" x14ac:dyDescent="0.25">
@@ -3740,7 +3749,7 @@
         <v>170</v>
       </c>
       <c r="D53" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E53">
         <v>1</v>
@@ -3750,20 +3759,20 @@
       </c>
       <c r="G53" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_CZ2BG_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_CZ2BG_CommissionSummary.pdf</v>
       </c>
       <c r="H53" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_CZ2BG_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_CZ2BG_CommissionDetail.pdf</v>
       </c>
       <c r="K53" t="s">
         <v>176</v>
       </c>
       <c r="L53" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="M53" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="54" spans="2:13" x14ac:dyDescent="0.25">
@@ -3774,7 +3783,7 @@
         <v>170</v>
       </c>
       <c r="D54" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E54">
         <v>1</v>
@@ -3784,20 +3793,20 @@
       </c>
       <c r="G54" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_CZ1SA_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_CZ1SA_CommissionSummary.pdf</v>
       </c>
       <c r="H54" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_CZ1SA_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_CZ1SA_CommissionDetail.pdf</v>
       </c>
       <c r="K54" t="s">
         <v>176</v>
       </c>
       <c r="L54" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="M54" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
     </row>
     <row r="55" spans="2:13" x14ac:dyDescent="0.25">
@@ -3808,7 +3817,7 @@
         <v>170</v>
       </c>
       <c r="D55" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E55">
         <v>1</v>
@@ -3818,20 +3827,20 @@
       </c>
       <c r="G55" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_WZ115_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_WZ115_CommissionSummary.pdf</v>
       </c>
       <c r="H55" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_WZ115_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_WZ115_CommissionDetail.pdf</v>
       </c>
       <c r="K55" t="s">
         <v>176</v>
       </c>
       <c r="L55" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="M55" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
     </row>
     <row r="56" spans="2:13" x14ac:dyDescent="0.25">
@@ -3842,7 +3851,7 @@
         <v>170</v>
       </c>
       <c r="D56" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E56">
         <v>1</v>
@@ -3852,20 +3861,20 @@
       </c>
       <c r="G56" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_WZ120_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_WZ120_CommissionSummary.pdf</v>
       </c>
       <c r="H56" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_WZ120_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_WZ120_CommissionDetail.pdf</v>
       </c>
       <c r="K56" t="s">
         <v>176</v>
       </c>
       <c r="L56" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="M56" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
     </row>
     <row r="57" spans="2:13" x14ac:dyDescent="0.25">
@@ -3876,7 +3885,7 @@
         <v>170</v>
       </c>
       <c r="D57" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E57">
         <v>1</v>
@@ -3886,20 +3895,20 @@
       </c>
       <c r="G57" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_WZ118_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_WZ118_CommissionSummary.pdf</v>
       </c>
       <c r="H57" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_WZ118_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_WZ118_CommissionDetail.pdf</v>
       </c>
       <c r="K57" t="s">
         <v>176</v>
       </c>
       <c r="L57" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="M57" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="58" spans="2:13" x14ac:dyDescent="0.25">
@@ -3910,7 +3919,7 @@
         <v>170</v>
       </c>
       <c r="D58" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E58">
         <v>1</v>
@@ -3920,20 +3929,20 @@
       </c>
       <c r="G58" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_WZ119_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_WZ119_CommissionSummary.pdf</v>
       </c>
       <c r="H58" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_WZ119_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_WZ119_CommissionDetail.pdf</v>
       </c>
       <c r="K58" t="s">
         <v>176</v>
       </c>
       <c r="L58" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="M58" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
     </row>
     <row r="59" spans="2:13" x14ac:dyDescent="0.25">
@@ -3944,7 +3953,7 @@
         <v>170</v>
       </c>
       <c r="D59" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E59">
         <v>1</v>
@@ -3954,20 +3963,20 @@
       </c>
       <c r="G59" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_WZ138_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_WZ138_CommissionSummary.pdf</v>
       </c>
       <c r="H59" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_WZ138_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_WZ138_CommissionDetail.pdf</v>
       </c>
       <c r="K59" t="s">
         <v>176</v>
       </c>
       <c r="L59" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="M59" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
     </row>
     <row r="60" spans="2:13" x14ac:dyDescent="0.25">
@@ -3978,7 +3987,7 @@
         <v>170</v>
       </c>
       <c r="D60" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E60">
         <v>1</v>
@@ -3988,20 +3997,20 @@
       </c>
       <c r="G60" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_WZ142_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_WZ142_CommissionSummary.pdf</v>
       </c>
       <c r="H60" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_WZ142_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_WZ142_CommissionDetail.pdf</v>
       </c>
       <c r="K60" t="s">
         <v>176</v>
       </c>
       <c r="L60" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="M60" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
     </row>
     <row r="61" spans="2:13" x14ac:dyDescent="0.25">
@@ -4012,7 +4021,7 @@
         <v>170</v>
       </c>
       <c r="D61" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E61">
         <v>1</v>
@@ -4022,20 +4031,20 @@
       </c>
       <c r="G61" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_WZ134_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_WZ134_CommissionSummary.pdf</v>
       </c>
       <c r="H61" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_WZ134_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_WZ134_CommissionDetail.pdf</v>
       </c>
       <c r="K61" t="s">
         <v>176</v>
       </c>
       <c r="L61" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="M61" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="62" spans="2:13" x14ac:dyDescent="0.25">
@@ -4046,7 +4055,7 @@
         <v>170</v>
       </c>
       <c r="D62" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E62">
         <v>1</v>
@@ -4056,20 +4065,20 @@
       </c>
       <c r="G62" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_WZ123_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_WZ123_CommissionSummary.pdf</v>
       </c>
       <c r="H62" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_WZ123_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_WZ123_CommissionDetail.pdf</v>
       </c>
       <c r="K62" t="s">
         <v>176</v>
       </c>
       <c r="L62" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="M62" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
     </row>
     <row r="63" spans="2:13" x14ac:dyDescent="0.25">
@@ -4080,7 +4089,7 @@
         <v>170</v>
       </c>
       <c r="D63" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E63">
         <v>1</v>
@@ -4090,20 +4099,20 @@
       </c>
       <c r="G63" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_WZ136_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_WZ136_CommissionSummary.pdf</v>
       </c>
       <c r="H63" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_WZ136_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_WZ136_CommissionDetail.pdf</v>
       </c>
       <c r="K63" t="s">
         <v>176</v>
       </c>
       <c r="L63" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="M63" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
     </row>
     <row r="64" spans="2:13" x14ac:dyDescent="0.25">
@@ -4114,7 +4123,7 @@
         <v>170</v>
       </c>
       <c r="D64" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E64">
         <v>1</v>
@@ -4124,20 +4133,20 @@
       </c>
       <c r="G64" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_WZ165_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_WZ165_CommissionSummary.pdf</v>
       </c>
       <c r="H64" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_WZ165_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_WZ165_CommissionDetail.pdf</v>
       </c>
       <c r="K64" t="s">
         <v>176</v>
       </c>
       <c r="L64" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="M64" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
     </row>
     <row r="65" spans="2:13" x14ac:dyDescent="0.25">
@@ -4148,7 +4157,7 @@
         <v>170</v>
       </c>
       <c r="D65" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E65">
         <v>1</v>
@@ -4158,20 +4167,20 @@
       </c>
       <c r="G65" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_WZ1FF_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_WZ1FF_CommissionSummary.pdf</v>
       </c>
       <c r="H65" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_WZ1FF_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_WZ1FF_CommissionDetail.pdf</v>
       </c>
       <c r="K65" t="s">
         <v>176</v>
       </c>
       <c r="L65" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="M65" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
     </row>
     <row r="66" spans="2:13" x14ac:dyDescent="0.25">
@@ -4182,7 +4191,7 @@
         <v>170</v>
       </c>
       <c r="D66" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E66">
         <v>1</v>
@@ -4192,20 +4201,20 @@
       </c>
       <c r="G66" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_WZ167_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_WZ167_CommissionSummary.pdf</v>
       </c>
       <c r="H66" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_WZ167_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_WZ167_CommissionDetail.pdf</v>
       </c>
       <c r="K66" t="s">
         <v>176</v>
       </c>
       <c r="L66" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="M66" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
     </row>
     <row r="67" spans="2:13" x14ac:dyDescent="0.25">
@@ -4216,7 +4225,7 @@
         <v>170</v>
       </c>
       <c r="D67" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E67">
         <v>1</v>
@@ -4226,20 +4235,20 @@
       </c>
       <c r="G67" t="str">
         <f t="shared" ref="G67:G130" si="2">$K67&amp;"\"&amp;L67</f>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_WZ175_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_WZ175_CommissionSummary.pdf</v>
       </c>
       <c r="H67" t="str">
         <f t="shared" ref="H67:H130" si="3">$K67&amp;"\"&amp;M67</f>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_WZ175_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_WZ175_CommissionDetail.pdf</v>
       </c>
       <c r="K67" t="s">
         <v>176</v>
       </c>
       <c r="L67" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="M67" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
     </row>
     <row r="68" spans="2:13" x14ac:dyDescent="0.25">
@@ -4250,7 +4259,7 @@
         <v>170</v>
       </c>
       <c r="D68" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E68">
         <v>1</v>
@@ -4260,20 +4269,20 @@
       </c>
       <c r="G68" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_WZ177_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_WZ177_CommissionSummary.pdf</v>
       </c>
       <c r="H68" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_WZ177_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_WZ177_CommissionDetail.pdf</v>
       </c>
       <c r="K68" t="s">
         <v>176</v>
       </c>
       <c r="L68" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="M68" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
     </row>
     <row r="69" spans="2:13" x14ac:dyDescent="0.25">
@@ -4284,7 +4293,7 @@
         <v>170</v>
       </c>
       <c r="D69" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E69">
         <v>1</v>
@@ -4294,20 +4303,20 @@
       </c>
       <c r="G69" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_WZ143_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_WZ143_CommissionSummary.pdf</v>
       </c>
       <c r="H69" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_WZ143_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_WZ143_CommissionDetail.pdf</v>
       </c>
       <c r="K69" t="s">
         <v>176</v>
       </c>
       <c r="L69" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="M69" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
     </row>
     <row r="70" spans="2:13" x14ac:dyDescent="0.25">
@@ -4318,7 +4327,7 @@
         <v>170</v>
       </c>
       <c r="D70" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E70">
         <v>1</v>
@@ -4328,20 +4337,20 @@
       </c>
       <c r="G70" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_WZ159_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_WZ159_CommissionSummary.pdf</v>
       </c>
       <c r="H70" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_WZ159_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_WZ159_CommissionDetail.pdf</v>
       </c>
       <c r="K70" t="s">
         <v>176</v>
       </c>
       <c r="L70" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="M70" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
     </row>
     <row r="71" spans="2:13" x14ac:dyDescent="0.25">
@@ -4352,7 +4361,7 @@
         <v>170</v>
       </c>
       <c r="D71" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E71">
         <v>1</v>
@@ -4362,20 +4371,20 @@
       </c>
       <c r="G71" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_WZ162_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_WZ162_CommissionSummary.pdf</v>
       </c>
       <c r="H71" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_WZ162_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_WZ162_CommissionDetail.pdf</v>
       </c>
       <c r="K71" t="s">
         <v>176</v>
       </c>
       <c r="L71" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="M71" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
     </row>
     <row r="72" spans="2:13" x14ac:dyDescent="0.25">
@@ -4386,7 +4395,7 @@
         <v>170</v>
       </c>
       <c r="D72" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E72">
         <v>1</v>
@@ -4396,20 +4405,20 @@
       </c>
       <c r="G72" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_WZ113_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_WZ113_CommissionSummary.pdf</v>
       </c>
       <c r="H72" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_WZ113_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_WZ113_CommissionDetail.pdf</v>
       </c>
       <c r="K72" t="s">
         <v>176</v>
       </c>
       <c r="L72" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="M72" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="73" spans="2:13" x14ac:dyDescent="0.25">
@@ -4420,7 +4429,7 @@
         <v>170</v>
       </c>
       <c r="D73" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E73">
         <v>1</v>
@@ -4430,20 +4439,20 @@
       </c>
       <c r="G73" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_WZ137_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_WZ137_CommissionSummary.pdf</v>
       </c>
       <c r="H73" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_WZ137_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_WZ137_CommissionDetail.pdf</v>
       </c>
       <c r="K73" t="s">
         <v>176</v>
       </c>
       <c r="L73" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="M73" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="74" spans="2:13" x14ac:dyDescent="0.25">
@@ -4454,7 +4463,7 @@
         <v>170</v>
       </c>
       <c r="D74" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E74">
         <v>1</v>
@@ -4464,20 +4473,20 @@
       </c>
       <c r="G74" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_WZ1G4_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_WZ1G4_CommissionSummary.pdf</v>
       </c>
       <c r="H74" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_WZ1G4_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_WZ1G4_CommissionDetail.pdf</v>
       </c>
       <c r="K74" t="s">
         <v>176</v>
       </c>
       <c r="L74" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="M74" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="75" spans="2:13" x14ac:dyDescent="0.25">
@@ -4488,7 +4497,7 @@
         <v>170</v>
       </c>
       <c r="D75" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E75">
         <v>1</v>
@@ -4498,20 +4507,20 @@
       </c>
       <c r="G75" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_WZBW1_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_WZBW1_CommissionSummary.pdf</v>
       </c>
       <c r="H75" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_WZBW1_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_WZBW1_CommissionDetail.pdf</v>
       </c>
       <c r="K75" t="s">
         <v>176</v>
       </c>
       <c r="L75" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="M75" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="76" spans="2:13" x14ac:dyDescent="0.25">
@@ -4522,7 +4531,7 @@
         <v>170</v>
       </c>
       <c r="D76" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E76">
         <v>1</v>
@@ -4532,20 +4541,20 @@
       </c>
       <c r="G76" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_WZ9TS_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_WZ9TS_CommissionSummary.pdf</v>
       </c>
       <c r="H76" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_WZ9TS_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_WZ9TS_CommissionDetail.pdf</v>
       </c>
       <c r="K76" t="s">
         <v>176</v>
       </c>
       <c r="L76" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="M76" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
     </row>
     <row r="77" spans="2:13" x14ac:dyDescent="0.25">
@@ -4556,7 +4565,7 @@
         <v>170</v>
       </c>
       <c r="D77" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E77">
         <v>1</v>
@@ -4566,20 +4575,20 @@
       </c>
       <c r="G77" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_WZ1HM_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_WZ1HM_CommissionSummary.pdf</v>
       </c>
       <c r="H77" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_WZ1HM_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_WZ1HM_CommissionDetail.pdf</v>
       </c>
       <c r="K77" t="s">
         <v>176</v>
       </c>
       <c r="L77" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="M77" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
     </row>
     <row r="78" spans="2:13" x14ac:dyDescent="0.25">
@@ -4590,7 +4599,7 @@
         <v>170</v>
       </c>
       <c r="D78" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E78">
         <v>1</v>
@@ -4600,20 +4609,20 @@
       </c>
       <c r="G78" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_WZ1HM_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_WZ1HM_CommissionSummary.pdf</v>
       </c>
       <c r="H78" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_WZ1HM_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_WZ1HM_CommissionDetail.pdf</v>
       </c>
       <c r="K78" t="s">
         <v>176</v>
       </c>
       <c r="L78" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="M78" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
     </row>
     <row r="79" spans="2:13" x14ac:dyDescent="0.25">
@@ -4624,7 +4633,7 @@
         <v>170</v>
       </c>
       <c r="D79" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E79">
         <v>1</v>
@@ -4634,20 +4643,20 @@
       </c>
       <c r="G79" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_WZ2RP_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_WZ2RP_CommissionSummary.pdf</v>
       </c>
       <c r="H79" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_WZ2RP_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_WZ2RP_CommissionDetail.pdf</v>
       </c>
       <c r="K79" t="s">
         <v>176</v>
       </c>
       <c r="L79" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="M79" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
     </row>
     <row r="80" spans="2:13" x14ac:dyDescent="0.25">
@@ -4658,7 +4667,7 @@
         <v>170</v>
       </c>
       <c r="D80" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E80">
         <v>1</v>
@@ -4668,20 +4677,20 @@
       </c>
       <c r="G80" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_WZ1TT_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_WZ1TT_CommissionSummary.pdf</v>
       </c>
       <c r="H80" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_WZ1TT_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_WZ1TT_CommissionDetail.pdf</v>
       </c>
       <c r="K80" t="s">
         <v>176</v>
       </c>
       <c r="L80" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="M80" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
     </row>
     <row r="81" spans="2:13" x14ac:dyDescent="0.25">
@@ -4692,7 +4701,7 @@
         <v>170</v>
       </c>
       <c r="D81" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E81">
         <v>1</v>
@@ -4702,20 +4711,20 @@
       </c>
       <c r="G81" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_WZ1AM_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_WZ1AM_CommissionSummary.pdf</v>
       </c>
       <c r="H81" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_WZ1AM_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_WZ1AM_CommissionDetail.pdf</v>
       </c>
       <c r="K81" t="s">
         <v>176</v>
       </c>
       <c r="L81" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="M81" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
     </row>
     <row r="82" spans="2:13" x14ac:dyDescent="0.25">
@@ -4726,7 +4735,7 @@
         <v>170</v>
       </c>
       <c r="D82" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E82">
         <v>1</v>
@@ -4736,20 +4745,20 @@
       </c>
       <c r="G82" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_WZ1JW_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_WZ1JW_CommissionSummary.pdf</v>
       </c>
       <c r="H82" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_WZ1JW_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_WZ1JW_CommissionDetail.pdf</v>
       </c>
       <c r="K82" t="s">
         <v>176</v>
       </c>
       <c r="L82" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="M82" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
     </row>
     <row r="83" spans="2:13" x14ac:dyDescent="0.25">
@@ -4760,7 +4769,7 @@
         <v>170</v>
       </c>
       <c r="D83" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E83">
         <v>1</v>
@@ -4770,20 +4779,20 @@
       </c>
       <c r="G83" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_WZ1MH_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_WZ1MH_CommissionSummary.pdf</v>
       </c>
       <c r="H83" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_WZ1MH_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_WZ1MH_CommissionDetail.pdf</v>
       </c>
       <c r="K83" t="s">
         <v>176</v>
       </c>
       <c r="L83" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="M83" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
     </row>
     <row r="84" spans="2:13" x14ac:dyDescent="0.25">
@@ -4794,7 +4803,7 @@
         <v>170</v>
       </c>
       <c r="D84" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E84">
         <v>1</v>
@@ -4804,20 +4813,20 @@
       </c>
       <c r="G84" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_WZ1TM_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_WZ1TM_CommissionSummary.pdf</v>
       </c>
       <c r="H84" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_WZ1TM_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_WZ1TM_CommissionDetail.pdf</v>
       </c>
       <c r="K84" t="s">
         <v>176</v>
       </c>
       <c r="L84" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="M84" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="85" spans="2:13" x14ac:dyDescent="0.25">
@@ -4828,7 +4837,7 @@
         <v>170</v>
       </c>
       <c r="D85" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E85">
         <v>1</v>
@@ -4838,20 +4847,20 @@
       </c>
       <c r="G85" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_WZ1SC_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_WZ1SC_CommissionSummary.pdf</v>
       </c>
       <c r="H85" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_WZ1SC_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_WZ1SC_CommissionDetail.pdf</v>
       </c>
       <c r="K85" t="s">
         <v>176</v>
       </c>
       <c r="L85" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="M85" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="86" spans="2:13" x14ac:dyDescent="0.25">
@@ -4862,7 +4871,7 @@
         <v>170</v>
       </c>
       <c r="D86" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E86">
         <v>1</v>
@@ -4872,20 +4881,20 @@
       </c>
       <c r="G86" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_WZ1PB_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_WZ1PB_CommissionSummary.pdf</v>
       </c>
       <c r="H86" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_WZ1PB_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_WZ1PB_CommissionDetail.pdf</v>
       </c>
       <c r="K86" t="s">
         <v>176</v>
       </c>
       <c r="L86" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="M86" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
     </row>
     <row r="87" spans="2:13" x14ac:dyDescent="0.25">
@@ -4896,7 +4905,7 @@
         <v>170</v>
       </c>
       <c r="D87" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E87">
         <v>1</v>
@@ -4906,20 +4915,20 @@
       </c>
       <c r="G87" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_WZ1JN_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_WZ1JN_CommissionSummary.pdf</v>
       </c>
       <c r="H87" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_WZ1JN_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_WZ1JN_CommissionDetail.pdf</v>
       </c>
       <c r="K87" t="s">
         <v>176</v>
       </c>
       <c r="L87" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="M87" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
     </row>
     <row r="88" spans="2:13" x14ac:dyDescent="0.25">
@@ -4930,7 +4939,7 @@
         <v>170</v>
       </c>
       <c r="D88" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E88">
         <v>1</v>
@@ -4940,20 +4949,20 @@
       </c>
       <c r="G88" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_WZ1MK_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_WZ1MK_CommissionSummary.pdf</v>
       </c>
       <c r="H88" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_WZ1MK_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_WZ1MK_CommissionDetail.pdf</v>
       </c>
       <c r="K88" t="s">
         <v>176</v>
       </c>
       <c r="L88" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="M88" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
     </row>
     <row r="89" spans="2:13" x14ac:dyDescent="0.25">
@@ -4964,7 +4973,7 @@
         <v>170</v>
       </c>
       <c r="D89" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E89">
         <v>1</v>
@@ -4974,20 +4983,20 @@
       </c>
       <c r="G89" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_WZ1CA_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_WZ1CA_CommissionSummary.pdf</v>
       </c>
       <c r="H89" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_WZ1CA_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_WZ1CA_CommissionDetail.pdf</v>
       </c>
       <c r="K89" t="s">
         <v>176</v>
       </c>
       <c r="L89" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="M89" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
     </row>
     <row r="90" spans="2:13" x14ac:dyDescent="0.25">
@@ -4998,7 +5007,7 @@
         <v>170</v>
       </c>
       <c r="D90" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E90">
         <v>1</v>
@@ -5008,20 +5017,20 @@
       </c>
       <c r="G90" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_WZ2TM_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_WZ2TM_CommissionSummary.pdf</v>
       </c>
       <c r="H90" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_WZ2TM_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_WZ2TM_CommissionDetail.pdf</v>
       </c>
       <c r="K90" t="s">
         <v>176</v>
       </c>
       <c r="L90" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="M90" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
     </row>
     <row r="91" spans="2:13" x14ac:dyDescent="0.25">
@@ -5032,7 +5041,7 @@
         <v>170</v>
       </c>
       <c r="D91" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E91">
         <v>1</v>
@@ -5042,20 +5051,20 @@
       </c>
       <c r="G91" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_WZ1BC_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_WZ1BC_CommissionSummary.pdf</v>
       </c>
       <c r="H91" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_WZ1BC_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_WZ1BC_CommissionDetail.pdf</v>
       </c>
       <c r="K91" t="s">
         <v>176</v>
       </c>
       <c r="L91" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="M91" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
     </row>
     <row r="92" spans="2:13" x14ac:dyDescent="0.25">
@@ -5066,7 +5075,7 @@
         <v>170</v>
       </c>
       <c r="D92" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E92">
         <v>1</v>
@@ -5076,20 +5085,20 @@
       </c>
       <c r="G92" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_WZ1JL_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_WZ1JL_CommissionSummary.pdf</v>
       </c>
       <c r="H92" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_WZ1JL_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_WZ1JL_CommissionDetail.pdf</v>
       </c>
       <c r="K92" t="s">
         <v>176</v>
       </c>
       <c r="L92" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="M92" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
     </row>
     <row r="93" spans="2:13" x14ac:dyDescent="0.25">
@@ -5100,7 +5109,7 @@
         <v>170</v>
       </c>
       <c r="D93" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E93">
         <v>1</v>
@@ -5110,20 +5119,20 @@
       </c>
       <c r="G93" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_WZ1AL_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_WZ1AL_CommissionSummary.pdf</v>
       </c>
       <c r="H93" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_WZ1AL_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_WZ1AL_CommissionDetail.pdf</v>
       </c>
       <c r="K93" t="s">
         <v>176</v>
       </c>
       <c r="L93" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="M93" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
     </row>
     <row r="94" spans="2:13" x14ac:dyDescent="0.25">
@@ -5134,7 +5143,7 @@
         <v>170</v>
       </c>
       <c r="D94" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E94">
         <v>1</v>
@@ -5144,20 +5153,20 @@
       </c>
       <c r="G94" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_WZ1MW_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_WZ1MW_CommissionSummary.pdf</v>
       </c>
       <c r="H94" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_WZ1MW_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_WZ1MW_CommissionDetail.pdf</v>
       </c>
       <c r="K94" t="s">
         <v>176</v>
       </c>
       <c r="L94" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="M94" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
     </row>
     <row r="95" spans="2:13" x14ac:dyDescent="0.25">
@@ -5168,7 +5177,7 @@
         <v>170</v>
       </c>
       <c r="D95" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E95">
         <v>1</v>
@@ -5178,20 +5187,20 @@
       </c>
       <c r="G95" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_WZ1MS_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_WZ1MS_CommissionSummary.pdf</v>
       </c>
       <c r="H95" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_WZ1MS_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_WZ1MS_CommissionDetail.pdf</v>
       </c>
       <c r="K95" t="s">
         <v>176</v>
       </c>
       <c r="L95" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="M95" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
     </row>
     <row r="96" spans="2:13" x14ac:dyDescent="0.25">
@@ -5202,7 +5211,7 @@
         <v>170</v>
       </c>
       <c r="D96" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E96">
         <v>1</v>
@@ -5212,20 +5221,20 @@
       </c>
       <c r="G96" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_WZ1DF_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_WZ1DF_CommissionSummary.pdf</v>
       </c>
       <c r="H96" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_WZ1DF_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_WZ1DF_CommissionDetail.pdf</v>
       </c>
       <c r="K96" t="s">
         <v>176</v>
       </c>
       <c r="L96" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="M96" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
     </row>
     <row r="97" spans="2:13" x14ac:dyDescent="0.25">
@@ -5236,7 +5245,7 @@
         <v>170</v>
       </c>
       <c r="D97" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E97">
         <v>1</v>
@@ -5246,20 +5255,20 @@
       </c>
       <c r="G97" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_WZ1JI_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_WZ1JI_CommissionSummary.pdf</v>
       </c>
       <c r="H97" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_WZ1JI_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_WZ1JI_CommissionDetail.pdf</v>
       </c>
       <c r="K97" t="s">
         <v>176</v>
       </c>
       <c r="L97" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="M97" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="98" spans="2:13" x14ac:dyDescent="0.25">
@@ -5270,7 +5279,7 @@
         <v>170</v>
       </c>
       <c r="D98" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E98">
         <v>1</v>
@@ -5280,20 +5289,20 @@
       </c>
       <c r="G98" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_WZ1CM_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_WZ1CM_CommissionSummary.pdf</v>
       </c>
       <c r="H98" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_WZ1CM_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_WZ1CM_CommissionDetail.pdf</v>
       </c>
       <c r="K98" t="s">
         <v>176</v>
       </c>
       <c r="L98" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="M98" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
     </row>
     <row r="99" spans="2:13" x14ac:dyDescent="0.25">
@@ -5304,7 +5313,7 @@
         <v>170</v>
       </c>
       <c r="D99" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E99">
         <v>1</v>
@@ -5314,20 +5323,20 @@
       </c>
       <c r="G99" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_WZ2MS_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_WZ2MS_CommissionSummary.pdf</v>
       </c>
       <c r="H99" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_WZ2MS_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_WZ2MS_CommissionDetail.pdf</v>
       </c>
       <c r="K99" t="s">
         <v>176</v>
       </c>
       <c r="L99" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="M99" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
     </row>
     <row r="100" spans="2:13" x14ac:dyDescent="0.25">
@@ -5338,7 +5347,7 @@
         <v>170</v>
       </c>
       <c r="D100" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E100">
         <v>1</v>
@@ -5348,20 +5357,20 @@
       </c>
       <c r="G100" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_WZ2JN_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_WZ2JN_CommissionSummary.pdf</v>
       </c>
       <c r="H100" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_WZ2JN_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_WZ2JN_CommissionDetail.pdf</v>
       </c>
       <c r="K100" t="s">
         <v>176</v>
       </c>
       <c r="L100" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="M100" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
     </row>
     <row r="101" spans="2:13" x14ac:dyDescent="0.25">
@@ -5372,7 +5381,7 @@
         <v>170</v>
       </c>
       <c r="D101" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E101">
         <v>1</v>
@@ -5382,20 +5391,20 @@
       </c>
       <c r="G101" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_CZ1RD_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_CZ1RD_CommissionSummary.pdf</v>
       </c>
       <c r="H101" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_CZ1RD_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_CZ1RD_CommissionDetail.pdf</v>
       </c>
       <c r="K101" t="s">
         <v>176</v>
       </c>
       <c r="L101" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="M101" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
     </row>
     <row r="102" spans="2:13" x14ac:dyDescent="0.25">
@@ -5406,7 +5415,7 @@
         <v>170</v>
       </c>
       <c r="D102" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E102">
         <v>1</v>
@@ -5416,20 +5425,20 @@
       </c>
       <c r="G102" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_CZ1GF_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_CZ1GF_CommissionSummary.pdf</v>
       </c>
       <c r="H102" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_CZ1GF_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_CZ1GF_CommissionDetail.pdf</v>
       </c>
       <c r="K102" t="s">
         <v>176</v>
       </c>
       <c r="L102" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="M102" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
     </row>
     <row r="103" spans="2:13" x14ac:dyDescent="0.25">
@@ -5440,7 +5449,7 @@
         <v>170</v>
       </c>
       <c r="D103" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E103">
         <v>1</v>
@@ -5450,20 +5459,20 @@
       </c>
       <c r="G103" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_QZ1BP_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_QZ1BP_CommissionSummary.pdf</v>
       </c>
       <c r="H103" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_QZ1BP_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_QZ1BP_CommissionDetail.pdf</v>
       </c>
       <c r="K103" t="s">
         <v>176</v>
       </c>
       <c r="L103" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="M103" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
     </row>
     <row r="104" spans="2:13" x14ac:dyDescent="0.25">
@@ -5474,7 +5483,7 @@
         <v>170</v>
       </c>
       <c r="D104" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E104">
         <v>1</v>
@@ -5484,20 +5493,20 @@
       </c>
       <c r="G104" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_CZ1JF_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_CZ1JF_CommissionSummary.pdf</v>
       </c>
       <c r="H104" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_CZ1JF_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_CZ1JF_CommissionDetail.pdf</v>
       </c>
       <c r="K104" t="s">
         <v>176</v>
       </c>
       <c r="L104" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="M104" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
     </row>
     <row r="105" spans="2:13" x14ac:dyDescent="0.25">
@@ -5508,7 +5517,7 @@
         <v>170</v>
       </c>
       <c r="D105" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E105">
         <v>1</v>
@@ -5518,20 +5527,20 @@
       </c>
       <c r="G105" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_AZ1CI_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_AZ1CI_CommissionSummary.pdf</v>
       </c>
       <c r="H105" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_AZ1CI_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_AZ1CI_CommissionDetail.pdf</v>
       </c>
       <c r="K105" t="s">
         <v>176</v>
       </c>
       <c r="L105" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="M105" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
     </row>
     <row r="106" spans="2:13" x14ac:dyDescent="0.25">
@@ -5542,7 +5551,7 @@
         <v>170</v>
       </c>
       <c r="D106" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E106">
         <v>1</v>
@@ -5552,20 +5561,20 @@
       </c>
       <c r="G106" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_CZ1KM_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_CZ1KM_CommissionSummary.pdf</v>
       </c>
       <c r="H106" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_CZ1KM_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_CZ1KM_CommissionDetail.pdf</v>
       </c>
       <c r="K106" t="s">
         <v>176</v>
       </c>
       <c r="L106" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="M106" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
     </row>
     <row r="107" spans="2:13" x14ac:dyDescent="0.25">
@@ -5576,7 +5585,7 @@
         <v>170</v>
       </c>
       <c r="D107" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E107">
         <v>1</v>
@@ -5586,20 +5595,20 @@
       </c>
       <c r="G107" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_CZ1OV_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_CZ1OV_CommissionSummary.pdf</v>
       </c>
       <c r="H107" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_CZ1OV_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_CZ1OV_CommissionDetail.pdf</v>
       </c>
       <c r="K107" t="s">
         <v>176</v>
       </c>
       <c r="L107" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="M107" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="108" spans="2:13" x14ac:dyDescent="0.25">
@@ -5610,7 +5619,7 @@
         <v>170</v>
       </c>
       <c r="D108" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E108">
         <v>1</v>
@@ -5620,20 +5629,20 @@
       </c>
       <c r="G108" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_QZ1JB_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_QZ1JB_CommissionSummary.pdf</v>
       </c>
       <c r="H108" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_QZ1JB_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_QZ1JB_CommissionDetail.pdf</v>
       </c>
       <c r="K108" t="s">
         <v>176</v>
       </c>
       <c r="L108" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="M108" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
     </row>
     <row r="109" spans="2:13" x14ac:dyDescent="0.25">
@@ -5644,7 +5653,7 @@
         <v>170</v>
       </c>
       <c r="D109" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E109">
         <v>1</v>
@@ -5654,20 +5663,20 @@
       </c>
       <c r="G109" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_QZ1BG_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_QZ1BG_CommissionSummary.pdf</v>
       </c>
       <c r="H109" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_QZ1BG_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_QZ1BG_CommissionDetail.pdf</v>
       </c>
       <c r="K109" t="s">
         <v>176</v>
       </c>
       <c r="L109" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="M109" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
     </row>
     <row r="110" spans="2:13" x14ac:dyDescent="0.25">
@@ -5678,7 +5687,7 @@
         <v>170</v>
       </c>
       <c r="D110" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E110">
         <v>1</v>
@@ -5688,20 +5697,20 @@
       </c>
       <c r="G110" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_CZ1TM_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_CZ1TM_CommissionSummary.pdf</v>
       </c>
       <c r="H110" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_CZ1TM_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_CZ1TM_CommissionDetail.pdf</v>
       </c>
       <c r="K110" t="s">
         <v>176</v>
       </c>
       <c r="L110" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="M110" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
     </row>
     <row r="111" spans="2:13" x14ac:dyDescent="0.25">
@@ -5712,7 +5721,7 @@
         <v>170</v>
       </c>
       <c r="D111" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E111">
         <v>1</v>
@@ -5722,20 +5731,20 @@
       </c>
       <c r="G111" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_QZ177_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_QZ177_CommissionSummary.pdf</v>
       </c>
       <c r="H111" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_QZ177_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_QZ177_CommissionDetail.pdf</v>
       </c>
       <c r="K111" t="s">
         <v>176</v>
       </c>
       <c r="L111" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="M111" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
     </row>
     <row r="112" spans="2:13" x14ac:dyDescent="0.25">
@@ -5746,7 +5755,7 @@
         <v>170</v>
       </c>
       <c r="D112" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E112">
         <v>1</v>
@@ -5756,20 +5765,20 @@
       </c>
       <c r="G112" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_QZ1BM_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_QZ1BM_CommissionSummary.pdf</v>
       </c>
       <c r="H112" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_QZ1BM_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_QZ1BM_CommissionDetail.pdf</v>
       </c>
       <c r="K112" t="s">
         <v>176</v>
       </c>
       <c r="L112" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="M112" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
     </row>
     <row r="113" spans="2:13" x14ac:dyDescent="0.25">
@@ -5780,7 +5789,7 @@
         <v>170</v>
       </c>
       <c r="D113" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E113">
         <v>1</v>
@@ -5790,20 +5799,20 @@
       </c>
       <c r="G113" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_QZ1MD_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_QZ1MD_CommissionSummary.pdf</v>
       </c>
       <c r="H113" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_QZ1MD_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_QZ1MD_CommissionDetail.pdf</v>
       </c>
       <c r="K113" t="s">
         <v>176</v>
       </c>
       <c r="L113" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="M113" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
     </row>
     <row r="114" spans="2:13" x14ac:dyDescent="0.25">
@@ -5814,7 +5823,7 @@
         <v>170</v>
       </c>
       <c r="D114" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E114">
         <v>1</v>
@@ -5824,20 +5833,20 @@
       </c>
       <c r="G114" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_AZ1JB_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_AZ1JB_CommissionSummary.pdf</v>
       </c>
       <c r="H114" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_AZ1JB_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_AZ1JB_CommissionDetail.pdf</v>
       </c>
       <c r="K114" t="s">
         <v>176</v>
       </c>
       <c r="L114" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="M114" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="115" spans="2:13" x14ac:dyDescent="0.25">
@@ -5848,7 +5857,7 @@
         <v>170</v>
       </c>
       <c r="D115" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E115">
         <v>1</v>
@@ -5858,20 +5867,20 @@
       </c>
       <c r="G115" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_CZ1AD_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_CZ1AD_CommissionSummary.pdf</v>
       </c>
       <c r="H115" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_CZ1AD_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_CZ1AD_CommissionDetail.pdf</v>
       </c>
       <c r="K115" t="s">
         <v>176</v>
       </c>
       <c r="L115" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="M115" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
     </row>
     <row r="116" spans="2:13" x14ac:dyDescent="0.25">
@@ -5882,7 +5891,7 @@
         <v>170</v>
       </c>
       <c r="D116" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E116">
         <v>1</v>
@@ -5892,20 +5901,20 @@
       </c>
       <c r="G116" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_QZ1ML_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_QZ1ML_CommissionSummary.pdf</v>
       </c>
       <c r="H116" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_QZ1ML_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_QZ1ML_CommissionDetail.pdf</v>
       </c>
       <c r="K116" t="s">
         <v>176</v>
       </c>
       <c r="L116" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="M116" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
     </row>
     <row r="117" spans="2:13" x14ac:dyDescent="0.25">
@@ -5916,7 +5925,7 @@
         <v>170</v>
       </c>
       <c r="D117" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E117">
         <v>1</v>
@@ -5926,20 +5935,20 @@
       </c>
       <c r="G117" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_CZ1FA_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_CZ1FA_CommissionSummary.pdf</v>
       </c>
       <c r="H117" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_CZ1FA_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_CZ1FA_CommissionDetail.pdf</v>
       </c>
       <c r="K117" t="s">
         <v>176</v>
       </c>
       <c r="L117" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="M117" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
     </row>
     <row r="118" spans="2:13" x14ac:dyDescent="0.25">
@@ -5950,7 +5959,7 @@
         <v>170</v>
       </c>
       <c r="D118" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E118">
         <v>1</v>
@@ -5960,20 +5969,20 @@
       </c>
       <c r="G118" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_CZ2SA_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_CZ2SA_CommissionSummary.pdf</v>
       </c>
       <c r="H118" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_CZ2SA_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_CZ2SA_CommissionDetail.pdf</v>
       </c>
       <c r="K118" t="s">
         <v>176</v>
       </c>
       <c r="L118" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="M118" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="119" spans="2:13" x14ac:dyDescent="0.25">
@@ -5984,7 +5993,7 @@
         <v>170</v>
       </c>
       <c r="D119" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E119">
         <v>1</v>
@@ -5994,20 +6003,20 @@
       </c>
       <c r="G119" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_QZ1SL_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_QZ1SL_CommissionSummary.pdf</v>
       </c>
       <c r="H119" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_QZ1SL_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_QZ1SL_CommissionDetail.pdf</v>
       </c>
       <c r="K119" t="s">
         <v>176</v>
       </c>
       <c r="L119" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="M119" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
     </row>
     <row r="120" spans="2:13" x14ac:dyDescent="0.25">
@@ -6018,7 +6027,7 @@
         <v>170</v>
       </c>
       <c r="D120" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E120">
         <v>1</v>
@@ -6028,20 +6037,20 @@
       </c>
       <c r="G120" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_AZ1CM_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_AZ1CM_CommissionSummary.pdf</v>
       </c>
       <c r="H120" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_AZ1CM_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_AZ1CM_CommissionDetail.pdf</v>
       </c>
       <c r="K120" t="s">
         <v>176</v>
       </c>
       <c r="L120" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="M120" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
     </row>
     <row r="121" spans="2:13" x14ac:dyDescent="0.25">
@@ -6052,7 +6061,7 @@
         <v>170</v>
       </c>
       <c r="D121" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E121">
         <v>1</v>
@@ -6062,20 +6071,20 @@
       </c>
       <c r="G121" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_QZ3JB_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_QZ3JB_CommissionSummary.pdf</v>
       </c>
       <c r="H121" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_QZ3JB_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_QZ3JB_CommissionDetail.pdf</v>
       </c>
       <c r="K121" t="s">
         <v>176</v>
       </c>
       <c r="L121" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="M121" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
     </row>
     <row r="122" spans="2:13" x14ac:dyDescent="0.25">
@@ -6086,7 +6095,7 @@
         <v>170</v>
       </c>
       <c r="D122" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E122">
         <v>1</v>
@@ -6096,20 +6105,20 @@
       </c>
       <c r="G122" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_CZ1CN_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_CZ1CN_CommissionSummary.pdf</v>
       </c>
       <c r="H122" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_CZ1CN_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_CZ1CN_CommissionDetail.pdf</v>
       </c>
       <c r="K122" t="s">
         <v>176</v>
       </c>
       <c r="L122" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="M122" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
     </row>
     <row r="123" spans="2:13" x14ac:dyDescent="0.25">
@@ -6120,7 +6129,7 @@
         <v>170</v>
       </c>
       <c r="D123" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E123">
         <v>1</v>
@@ -6130,20 +6139,20 @@
       </c>
       <c r="G123" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_AZ1YU_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_AZ1YU_CommissionSummary.pdf</v>
       </c>
       <c r="H123" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_AZ1YU_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_AZ1YU_CommissionDetail.pdf</v>
       </c>
       <c r="K123" t="s">
         <v>176</v>
       </c>
       <c r="L123" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="M123" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
     </row>
     <row r="124" spans="2:13" x14ac:dyDescent="0.25">
@@ -6154,7 +6163,7 @@
         <v>170</v>
       </c>
       <c r="D124" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E124">
         <v>1</v>
@@ -6164,20 +6173,20 @@
       </c>
       <c r="G124" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_AZ1WX_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_AZ1WX_CommissionSummary.pdf</v>
       </c>
       <c r="H124" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_AZ1WX_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_AZ1WX_CommissionDetail.pdf</v>
       </c>
       <c r="K124" t="s">
         <v>176</v>
       </c>
       <c r="L124" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="M124" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
     </row>
     <row r="125" spans="2:13" x14ac:dyDescent="0.25">
@@ -6188,7 +6197,7 @@
         <v>170</v>
       </c>
       <c r="D125" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E125">
         <v>1</v>
@@ -6198,20 +6207,20 @@
       </c>
       <c r="G125" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_AZ1XF_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_AZ1XF_CommissionSummary.pdf</v>
       </c>
       <c r="H125" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_AZ1XF_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_AZ1XF_CommissionDetail.pdf</v>
       </c>
       <c r="K125" t="s">
         <v>176</v>
       </c>
       <c r="L125" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="M125" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
     </row>
     <row r="126" spans="2:13" x14ac:dyDescent="0.25">
@@ -6222,7 +6231,7 @@
         <v>170</v>
       </c>
       <c r="D126" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E126">
         <v>1</v>
@@ -6232,20 +6241,20 @@
       </c>
       <c r="G126" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_AZ1XT_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_AZ1XT_CommissionSummary.pdf</v>
       </c>
       <c r="H126" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_AZ1XT_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_AZ1XT_CommissionDetail.pdf</v>
       </c>
       <c r="K126" t="s">
         <v>176</v>
       </c>
       <c r="L126" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="M126" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
     </row>
     <row r="127" spans="2:13" x14ac:dyDescent="0.25">
@@ -6256,7 +6265,7 @@
         <v>170</v>
       </c>
       <c r="D127" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E127">
         <v>1</v>
@@ -6266,20 +6275,20 @@
       </c>
       <c r="G127" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_AZ1YP_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_AZ1YP_CommissionSummary.pdf</v>
       </c>
       <c r="H127" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_AZ1YP_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_AZ1YP_CommissionDetail.pdf</v>
       </c>
       <c r="K127" t="s">
         <v>176</v>
       </c>
       <c r="L127" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="M127" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
     </row>
     <row r="128" spans="2:13" x14ac:dyDescent="0.25">
@@ -6290,7 +6299,7 @@
         <v>170</v>
       </c>
       <c r="D128" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E128">
         <v>1</v>
@@ -6300,20 +6309,20 @@
       </c>
       <c r="G128" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_QZ1XH_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_QZ1XH_CommissionSummary.pdf</v>
       </c>
       <c r="H128" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_QZ1XH_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_QZ1XH_CommissionDetail.pdf</v>
       </c>
       <c r="K128" t="s">
         <v>176</v>
       </c>
       <c r="L128" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="M128" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
     </row>
     <row r="129" spans="2:13" x14ac:dyDescent="0.25">
@@ -6324,7 +6333,7 @@
         <v>170</v>
       </c>
       <c r="D129" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E129">
         <v>1</v>
@@ -6334,20 +6343,20 @@
       </c>
       <c r="G129" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_QZ1TB_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_QZ1TB_CommissionSummary.pdf</v>
       </c>
       <c r="H129" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_QZ1TB_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_QZ1TB_CommissionDetail.pdf</v>
       </c>
       <c r="K129" t="s">
         <v>176</v>
       </c>
       <c r="L129" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="M129" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
     </row>
     <row r="130" spans="2:13" x14ac:dyDescent="0.25">
@@ -6358,7 +6367,7 @@
         <v>170</v>
       </c>
       <c r="D130" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E130">
         <v>1</v>
@@ -6368,20 +6377,20 @@
       </c>
       <c r="G130" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_QZ1TD_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_QZ1TD_CommissionSummary.pdf</v>
       </c>
       <c r="H130" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_QZ1TD_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_QZ1TD_CommissionDetail.pdf</v>
       </c>
       <c r="K130" t="s">
         <v>176</v>
       </c>
       <c r="L130" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="M130" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
     </row>
     <row r="131" spans="2:13" x14ac:dyDescent="0.25">
@@ -6392,7 +6401,7 @@
         <v>170</v>
       </c>
       <c r="D131" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E131">
         <v>1</v>
@@ -6402,20 +6411,20 @@
       </c>
       <c r="G131" t="str">
         <f t="shared" ref="G131:G169" si="4">$K131&amp;"\"&amp;L131</f>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_QZ1TK_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_QZ1TK_CommissionSummary.pdf</v>
       </c>
       <c r="H131" t="str">
         <f t="shared" ref="H131:H169" si="5">$K131&amp;"\"&amp;M131</f>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_QZ1TK_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_QZ1TK_CommissionDetail.pdf</v>
       </c>
       <c r="K131" t="s">
         <v>176</v>
       </c>
       <c r="L131" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="M131" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
     </row>
     <row r="132" spans="2:13" x14ac:dyDescent="0.25">
@@ -6426,7 +6435,7 @@
         <v>170</v>
       </c>
       <c r="D132" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E132">
         <v>1</v>
@@ -6436,20 +6445,20 @@
       </c>
       <c r="G132" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_QZ1YE_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_QZ1YE_CommissionSummary.pdf</v>
       </c>
       <c r="H132" t="str">
         <f t="shared" si="5"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_QZ1YE_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_QZ1YE_CommissionDetail.pdf</v>
       </c>
       <c r="K132" t="s">
         <v>176</v>
       </c>
       <c r="L132" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="M132" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
     </row>
     <row r="133" spans="2:13" x14ac:dyDescent="0.25">
@@ -6460,7 +6469,7 @@
         <v>170</v>
       </c>
       <c r="D133" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E133">
         <v>1</v>
@@ -6470,20 +6479,20 @@
       </c>
       <c r="G133" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_QZ1TE_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_QZ1TE_CommissionSummary.pdf</v>
       </c>
       <c r="H133" t="str">
         <f t="shared" si="5"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_QZ1TE_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_QZ1TE_CommissionDetail.pdf</v>
       </c>
       <c r="K133" t="s">
         <v>176</v>
       </c>
       <c r="L133" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="M133" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
     </row>
     <row r="134" spans="2:13" x14ac:dyDescent="0.25">
@@ -6494,7 +6503,7 @@
         <v>170</v>
       </c>
       <c r="D134" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E134">
         <v>1</v>
@@ -6504,20 +6513,20 @@
       </c>
       <c r="G134" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_QZ1TI_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_QZ1TI_CommissionSummary.pdf</v>
       </c>
       <c r="H134" t="str">
         <f t="shared" si="5"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_QZ1TI_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_QZ1TI_CommissionDetail.pdf</v>
       </c>
       <c r="K134" t="s">
         <v>176</v>
       </c>
       <c r="L134" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="M134" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
     </row>
     <row r="135" spans="2:13" x14ac:dyDescent="0.25">
@@ -6528,7 +6537,7 @@
         <v>170</v>
       </c>
       <c r="D135" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E135">
         <v>1</v>
@@ -6538,20 +6547,20 @@
       </c>
       <c r="G135" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_CZ1YI_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_CZ1YI_CommissionSummary.pdf</v>
       </c>
       <c r="H135" t="str">
         <f t="shared" si="5"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_CZ1YI_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_CZ1YI_CommissionDetail.pdf</v>
       </c>
       <c r="K135" t="s">
         <v>176</v>
       </c>
       <c r="L135" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="M135" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
     </row>
     <row r="136" spans="2:13" x14ac:dyDescent="0.25">
@@ -6562,7 +6571,7 @@
         <v>170</v>
       </c>
       <c r="D136" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E136">
         <v>1</v>
@@ -6572,20 +6581,20 @@
       </c>
       <c r="G136" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_CZ1YW_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_CZ1YW_CommissionSummary.pdf</v>
       </c>
       <c r="H136" t="str">
         <f t="shared" si="5"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_CZ1YW_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_CZ1YW_CommissionDetail.pdf</v>
       </c>
       <c r="K136" t="s">
         <v>176</v>
       </c>
       <c r="L136" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="M136" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
     </row>
     <row r="137" spans="2:13" x14ac:dyDescent="0.25">
@@ -6596,7 +6605,7 @@
         <v>170</v>
       </c>
       <c r="D137" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E137">
         <v>1</v>
@@ -6606,20 +6615,20 @@
       </c>
       <c r="G137" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_CZ1UE_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_CZ1UE_CommissionSummary.pdf</v>
       </c>
       <c r="H137" t="str">
         <f t="shared" si="5"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_CZ1UE_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_CZ1UE_CommissionDetail.pdf</v>
       </c>
       <c r="K137" t="s">
         <v>176</v>
       </c>
       <c r="L137" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="M137" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="138" spans="2:13" x14ac:dyDescent="0.25">
@@ -6630,7 +6639,7 @@
         <v>170</v>
       </c>
       <c r="D138" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E138">
         <v>1</v>
@@ -6640,20 +6649,20 @@
       </c>
       <c r="G138" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_CZ1MJ_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_CZ1MJ_CommissionSummary.pdf</v>
       </c>
       <c r="H138" t="str">
         <f t="shared" si="5"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_CZ1MJ_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_CZ1MJ_CommissionDetail.pdf</v>
       </c>
       <c r="K138" t="s">
         <v>176</v>
       </c>
       <c r="L138" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="M138" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
     </row>
     <row r="139" spans="2:13" x14ac:dyDescent="0.25">
@@ -6664,7 +6673,7 @@
         <v>170</v>
       </c>
       <c r="D139" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E139">
         <v>1</v>
@@ -6674,20 +6683,20 @@
       </c>
       <c r="G139" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_CZ1VG_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_CZ1VG_CommissionSummary.pdf</v>
       </c>
       <c r="H139" t="str">
         <f t="shared" si="5"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_CZ1VG_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_CZ1VG_CommissionDetail.pdf</v>
       </c>
       <c r="K139" t="s">
         <v>176</v>
       </c>
       <c r="L139" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="M139" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
     </row>
     <row r="140" spans="2:13" x14ac:dyDescent="0.25">
@@ -6698,7 +6707,7 @@
         <v>170</v>
       </c>
       <c r="D140" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E140">
         <v>1</v>
@@ -6708,20 +6717,20 @@
       </c>
       <c r="G140" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_CZ1VJ_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_CZ1VJ_CommissionSummary.pdf</v>
       </c>
       <c r="H140" t="str">
         <f t="shared" si="5"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_CZ1VJ_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_CZ1VJ_CommissionDetail.pdf</v>
       </c>
       <c r="K140" t="s">
         <v>176</v>
       </c>
       <c r="L140" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="M140" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
     </row>
     <row r="141" spans="2:13" x14ac:dyDescent="0.25">
@@ -6732,7 +6741,7 @@
         <v>170</v>
       </c>
       <c r="D141" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E141">
         <v>1</v>
@@ -6742,20 +6751,20 @@
       </c>
       <c r="G141" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_CZ1MI_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_CZ1MI_CommissionSummary.pdf</v>
       </c>
       <c r="H141" t="str">
         <f t="shared" si="5"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_CZ1MI_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_CZ1MI_CommissionDetail.pdf</v>
       </c>
       <c r="K141" t="s">
         <v>176</v>
       </c>
       <c r="L141" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="M141" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
     </row>
     <row r="142" spans="2:13" x14ac:dyDescent="0.25">
@@ -6766,7 +6775,7 @@
         <v>170</v>
       </c>
       <c r="D142" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E142">
         <v>1</v>
@@ -6776,20 +6785,20 @@
       </c>
       <c r="G142" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_CZ1XD_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_CZ1XD_CommissionSummary.pdf</v>
       </c>
       <c r="H142" t="str">
         <f t="shared" si="5"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_CZ1XD_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_CZ1XD_CommissionDetail.pdf</v>
       </c>
       <c r="K142" t="s">
         <v>176</v>
       </c>
       <c r="L142" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="M142" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
     </row>
     <row r="143" spans="2:13" x14ac:dyDescent="0.25">
@@ -6800,7 +6809,7 @@
         <v>170</v>
       </c>
       <c r="D143" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E143">
         <v>1</v>
@@ -6810,20 +6819,20 @@
       </c>
       <c r="G143" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_CZ1XB_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_CZ1XB_CommissionSummary.pdf</v>
       </c>
       <c r="H143" t="str">
         <f t="shared" si="5"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_CZ1XB_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_CZ1XB_CommissionDetail.pdf</v>
       </c>
       <c r="K143" t="s">
         <v>176</v>
       </c>
       <c r="L143" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="M143" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="144" spans="2:13" x14ac:dyDescent="0.25">
@@ -6834,7 +6843,7 @@
         <v>170</v>
       </c>
       <c r="D144" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E144">
         <v>1</v>
@@ -6844,20 +6853,20 @@
       </c>
       <c r="G144" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_CZ1WT_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_CZ1WT_CommissionSummary.pdf</v>
       </c>
       <c r="H144" t="str">
         <f t="shared" si="5"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_CZ1WT_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_CZ1WT_CommissionDetail.pdf</v>
       </c>
       <c r="K144" t="s">
         <v>176</v>
       </c>
       <c r="L144" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="M144" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
     </row>
     <row r="145" spans="2:13" x14ac:dyDescent="0.25">
@@ -6868,7 +6877,7 @@
         <v>170</v>
       </c>
       <c r="D145" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E145">
         <v>1</v>
@@ -6878,20 +6887,20 @@
       </c>
       <c r="G145" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_CZ1XA_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_CZ1XA_CommissionSummary.pdf</v>
       </c>
       <c r="H145" t="str">
         <f t="shared" si="5"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_CZ1XA_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_CZ1XA_CommissionDetail.pdf</v>
       </c>
       <c r="K145" t="s">
         <v>176</v>
       </c>
       <c r="L145" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="M145" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
     </row>
     <row r="146" spans="2:13" x14ac:dyDescent="0.25">
@@ -6902,7 +6911,7 @@
         <v>170</v>
       </c>
       <c r="D146" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E146">
         <v>1</v>
@@ -6912,20 +6921,20 @@
       </c>
       <c r="G146" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_WZ2KF_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_WZ2KF_CommissionSummary.pdf</v>
       </c>
       <c r="H146" t="str">
         <f t="shared" si="5"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_WZ2KF_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_WZ2KF_CommissionDetail.pdf</v>
       </c>
       <c r="K146" t="s">
         <v>176</v>
       </c>
       <c r="L146" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="M146" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
     </row>
     <row r="147" spans="2:13" x14ac:dyDescent="0.25">
@@ -6936,7 +6945,7 @@
         <v>170</v>
       </c>
       <c r="D147" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E147">
         <v>1</v>
@@ -6946,20 +6955,20 @@
       </c>
       <c r="G147" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_WZ148_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_WZ148_CommissionSummary.pdf</v>
       </c>
       <c r="H147" t="str">
         <f t="shared" si="5"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_WZ148_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_WZ148_CommissionDetail.pdf</v>
       </c>
       <c r="K147" t="s">
         <v>176</v>
       </c>
       <c r="L147" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="M147" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
     </row>
     <row r="148" spans="2:13" x14ac:dyDescent="0.25">
@@ -6970,7 +6979,7 @@
         <v>170</v>
       </c>
       <c r="D148" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E148">
         <v>1</v>
@@ -6980,20 +6989,20 @@
       </c>
       <c r="G148" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_WZ8GM_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_WZ8GM_CommissionSummary.pdf</v>
       </c>
       <c r="H148" t="str">
         <f t="shared" si="5"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_WZ8GM_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_WZ8GM_CommissionDetail.pdf</v>
       </c>
       <c r="K148" t="s">
         <v>176</v>
       </c>
       <c r="L148" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="M148" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
     <row r="149" spans="2:13" x14ac:dyDescent="0.25">
@@ -7004,7 +7013,7 @@
         <v>170</v>
       </c>
       <c r="D149" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E149">
         <v>1</v>
@@ -7014,20 +7023,20 @@
       </c>
       <c r="G149" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_WZ1BH_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_WZ1BH_CommissionSummary.pdf</v>
       </c>
       <c r="H149" t="str">
         <f t="shared" si="5"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_WZ1BH_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_WZ1BH_CommissionDetail.pdf</v>
       </c>
       <c r="K149" t="s">
         <v>176</v>
       </c>
       <c r="L149" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="M149" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="150" spans="2:13" x14ac:dyDescent="0.25">
@@ -7038,7 +7047,7 @@
         <v>170</v>
       </c>
       <c r="D150" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E150">
         <v>1</v>
@@ -7048,20 +7057,20 @@
       </c>
       <c r="G150" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_WZ114_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_WZ114_CommissionSummary.pdf</v>
       </c>
       <c r="H150" t="str">
         <f t="shared" si="5"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_WZ114_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_WZ114_CommissionDetail.pdf</v>
       </c>
       <c r="K150" t="s">
         <v>176</v>
       </c>
       <c r="L150" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="M150" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="151" spans="2:13" x14ac:dyDescent="0.25">
@@ -7072,7 +7081,7 @@
         <v>170</v>
       </c>
       <c r="D151" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E151">
         <v>1</v>
@@ -7082,20 +7091,20 @@
       </c>
       <c r="G151" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_WZ1A6_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_WZ1A6_CommissionSummary.pdf</v>
       </c>
       <c r="H151" t="str">
         <f t="shared" si="5"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_WZ1A6_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_WZ1A6_CommissionDetail.pdf</v>
       </c>
       <c r="K151" t="s">
         <v>176</v>
       </c>
       <c r="L151" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="M151" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="152" spans="2:13" x14ac:dyDescent="0.25">
@@ -7106,7 +7115,7 @@
         <v>170</v>
       </c>
       <c r="D152" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E152">
         <v>1</v>
@@ -7116,20 +7125,20 @@
       </c>
       <c r="G152" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_WZ139_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_WZ139_CommissionSummary.pdf</v>
       </c>
       <c r="H152" t="str">
         <f t="shared" si="5"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_WZ139_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_WZ139_CommissionDetail.pdf</v>
       </c>
       <c r="K152" t="s">
         <v>176</v>
       </c>
       <c r="L152" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="M152" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
     </row>
     <row r="153" spans="2:13" x14ac:dyDescent="0.25">
@@ -7140,7 +7149,7 @@
         <v>170</v>
       </c>
       <c r="D153" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E153">
         <v>1</v>
@@ -7150,20 +7159,20 @@
       </c>
       <c r="G153" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_CZ1VL_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_CZ1VL_CommissionSummary.pdf</v>
       </c>
       <c r="H153" t="str">
         <f t="shared" si="5"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_CZ1VL_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_CZ1VL_CommissionDetail.pdf</v>
       </c>
       <c r="K153" t="s">
         <v>176</v>
       </c>
       <c r="L153" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="M153" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
     </row>
     <row r="154" spans="2:13" x14ac:dyDescent="0.25">
@@ -7174,7 +7183,7 @@
         <v>170</v>
       </c>
       <c r="D154" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E154">
         <v>1</v>
@@ -7184,20 +7193,20 @@
       </c>
       <c r="G154" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_CZ1VK_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_CZ1VK_CommissionSummary.pdf</v>
       </c>
       <c r="H154" t="str">
         <f t="shared" si="5"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_CZ1VK_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_CZ1VK_CommissionDetail.pdf</v>
       </c>
       <c r="K154" t="s">
         <v>176</v>
       </c>
       <c r="L154" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="M154" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
     </row>
     <row r="155" spans="2:13" x14ac:dyDescent="0.25">
@@ -7208,7 +7217,7 @@
         <v>170</v>
       </c>
       <c r="D155" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E155">
         <v>1</v>
@@ -7218,20 +7227,20 @@
       </c>
       <c r="G155" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_CZ1LR_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_CZ1LR_CommissionSummary.pdf</v>
       </c>
       <c r="H155" t="str">
         <f t="shared" si="5"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_CZ1LR_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_CZ1LR_CommissionDetail.pdf</v>
       </c>
       <c r="K155" t="s">
         <v>176</v>
       </c>
       <c r="L155" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="M155" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="156" spans="2:13" x14ac:dyDescent="0.25">
@@ -7242,7 +7251,7 @@
         <v>170</v>
       </c>
       <c r="D156" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E156">
         <v>1</v>
@@ -7252,20 +7261,20 @@
       </c>
       <c r="G156" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_CZ1UV_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_CZ1UV_CommissionSummary.pdf</v>
       </c>
       <c r="H156" t="str">
         <f t="shared" si="5"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_CZ1UV_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_CZ1UV_CommissionDetail.pdf</v>
       </c>
       <c r="K156" t="s">
         <v>176</v>
       </c>
       <c r="L156" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="M156" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="157" spans="2:13" x14ac:dyDescent="0.25">
@@ -7276,7 +7285,7 @@
         <v>170</v>
       </c>
       <c r="D157" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E157">
         <v>1</v>
@@ -7286,20 +7295,20 @@
       </c>
       <c r="G157" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_CZ1WV_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_CZ1WV_CommissionSummary.pdf</v>
       </c>
       <c r="H157" t="str">
         <f t="shared" si="5"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_CZ1WV_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_CZ1WV_CommissionDetail.pdf</v>
       </c>
       <c r="K157" t="s">
         <v>176</v>
       </c>
       <c r="L157" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="M157" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="158" spans="2:13" x14ac:dyDescent="0.25">
@@ -7310,7 +7319,7 @@
         <v>170</v>
       </c>
       <c r="D158" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E158">
         <v>1</v>
@@ -7320,20 +7329,20 @@
       </c>
       <c r="G158" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_CZ1UO_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_CZ1UO_CommissionSummary.pdf</v>
       </c>
       <c r="H158" t="str">
         <f t="shared" si="5"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_CZ1UO_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_CZ1UO_CommissionDetail.pdf</v>
       </c>
       <c r="K158" t="s">
         <v>176</v>
       </c>
       <c r="L158" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="M158" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="159" spans="2:13" x14ac:dyDescent="0.25">
@@ -7344,7 +7353,7 @@
         <v>170</v>
       </c>
       <c r="D159" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E159">
         <v>1</v>
@@ -7354,20 +7363,20 @@
       </c>
       <c r="G159" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_CZ1XC_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_CZ1XC_CommissionSummary.pdf</v>
       </c>
       <c r="H159" t="str">
         <f t="shared" si="5"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_CZ1XC_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_CZ1XC_CommissionDetail.pdf</v>
       </c>
       <c r="K159" t="s">
         <v>176</v>
       </c>
       <c r="L159" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="M159" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="160" spans="2:13" x14ac:dyDescent="0.25">
@@ -7378,7 +7387,7 @@
         <v>170</v>
       </c>
       <c r="D160" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E160">
         <v>1</v>
@@ -7388,20 +7397,20 @@
       </c>
       <c r="G160" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_CZ1YN_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_CZ1YN_CommissionSummary.pdf</v>
       </c>
       <c r="H160" t="str">
         <f t="shared" si="5"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_CZ1YN_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_CZ1YN_CommissionDetail.pdf</v>
       </c>
       <c r="K160" t="s">
         <v>176</v>
       </c>
       <c r="L160" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="M160" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="161" spans="2:13" x14ac:dyDescent="0.25">
@@ -7412,7 +7421,7 @@
         <v>170</v>
       </c>
       <c r="D161" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E161">
         <v>1</v>
@@ -7422,20 +7431,20 @@
       </c>
       <c r="G161" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_CZ1UI_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_CZ1UI_CommissionSummary.pdf</v>
       </c>
       <c r="H161" t="str">
         <f t="shared" si="5"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_CZ1UI_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_CZ1UI_CommissionDetail.pdf</v>
       </c>
       <c r="K161" t="s">
         <v>176</v>
       </c>
       <c r="L161" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="M161" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="162" spans="2:13" x14ac:dyDescent="0.25">
@@ -7446,7 +7455,7 @@
         <v>170</v>
       </c>
       <c r="D162" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E162">
         <v>1</v>
@@ -7456,20 +7465,20 @@
       </c>
       <c r="G162" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_CZ1UU_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_CZ1UU_CommissionSummary.pdf</v>
       </c>
       <c r="H162" t="str">
         <f t="shared" si="5"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_CZ1UU_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_CZ1UU_CommissionDetail.pdf</v>
       </c>
       <c r="K162" t="s">
         <v>176</v>
       </c>
       <c r="L162" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="M162" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="163" spans="2:13" x14ac:dyDescent="0.25">
@@ -7480,7 +7489,7 @@
         <v>170</v>
       </c>
       <c r="D163" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E163">
         <v>1</v>
@@ -7490,20 +7499,20 @@
       </c>
       <c r="G163" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_CZ1UW_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_CZ1UW_CommissionSummary.pdf</v>
       </c>
       <c r="H163" t="str">
         <f t="shared" si="5"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_CZ1UW_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_CZ1UW_CommissionDetail.pdf</v>
       </c>
       <c r="K163" t="s">
         <v>176</v>
       </c>
       <c r="L163" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="M163" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
     </row>
     <row r="164" spans="2:13" x14ac:dyDescent="0.25">
@@ -7514,7 +7523,7 @@
         <v>170</v>
       </c>
       <c r="D164" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E164">
         <v>1</v>
@@ -7524,20 +7533,20 @@
       </c>
       <c r="G164" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_CZ1VC_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_CZ1VC_CommissionSummary.pdf</v>
       </c>
       <c r="H164" t="str">
         <f t="shared" si="5"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_CZ1VC_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_CZ1VC_CommissionDetail.pdf</v>
       </c>
       <c r="K164" t="s">
         <v>176</v>
       </c>
       <c r="L164" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="M164" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
     </row>
     <row r="165" spans="2:13" x14ac:dyDescent="0.25">
@@ -7548,7 +7557,7 @@
         <v>170</v>
       </c>
       <c r="D165" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E165">
         <v>1</v>
@@ -7558,20 +7567,20 @@
       </c>
       <c r="G165" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_CZ1UX_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_CZ1UX_CommissionSummary.pdf</v>
       </c>
       <c r="H165" t="str">
         <f t="shared" si="5"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_CZ1UX_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_CZ1UX_CommissionDetail.pdf</v>
       </c>
       <c r="K165" t="s">
         <v>176</v>
       </c>
       <c r="L165" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="M165" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
     </row>
     <row r="166" spans="2:13" x14ac:dyDescent="0.25">
@@ -7582,7 +7591,7 @@
         <v>170</v>
       </c>
       <c r="D166" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E166">
         <v>1</v>
@@ -7592,20 +7601,20 @@
       </c>
       <c r="G166" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_CZ1UZ_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_CZ1UZ_CommissionSummary.pdf</v>
       </c>
       <c r="H166" t="str">
         <f t="shared" si="5"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_CZ1UZ_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_CZ1UZ_CommissionDetail.pdf</v>
       </c>
       <c r="K166" t="s">
         <v>176</v>
       </c>
       <c r="L166" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="M166" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
     </row>
     <row r="167" spans="2:13" x14ac:dyDescent="0.25">
@@ -7616,7 +7625,7 @@
         <v>170</v>
       </c>
       <c r="D167" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E167">
         <v>1</v>
@@ -7626,20 +7635,20 @@
       </c>
       <c r="G167" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_WZ9JP_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_WZ9JP_CommissionSummary.pdf</v>
       </c>
       <c r="H167" t="str">
         <f t="shared" si="5"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_WZ9JP_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_WZ9JP_CommissionDetail.pdf</v>
       </c>
       <c r="K167" t="s">
         <v>176</v>
       </c>
       <c r="L167" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="M167" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
     </row>
     <row r="168" spans="2:13" x14ac:dyDescent="0.25">
@@ -7650,7 +7659,7 @@
         <v>170</v>
       </c>
       <c r="D168" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E168">
         <v>1</v>
@@ -7660,20 +7669,20 @@
       </c>
       <c r="G168" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_CZ1DG_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_CZ1DG_CommissionSummary.pdf</v>
       </c>
       <c r="H168" t="str">
         <f t="shared" si="5"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_CZ1DG_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_CZ1DG_CommissionDetail.pdf</v>
       </c>
       <c r="K168" t="s">
         <v>176</v>
       </c>
       <c r="L168" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="M168" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
     </row>
     <row r="169" spans="2:13" x14ac:dyDescent="0.25">
@@ -7684,7 +7693,7 @@
         <v>170</v>
       </c>
       <c r="D169" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E169">
         <v>1</v>
@@ -7694,20 +7703,54 @@
       </c>
       <c r="G169" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_CZ1LE_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_CZ1LE_CommissionSummary.pdf</v>
       </c>
       <c r="H169" t="str">
         <f t="shared" si="5"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201803_CZ1LE_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_CZ1LE_CommissionDetail.pdf</v>
       </c>
       <c r="K169" t="s">
         <v>176</v>
       </c>
       <c r="L169" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="M169" t="s">
-        <v>515</v>
+        <v>516</v>
+      </c>
+    </row>
+    <row r="170" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B170" t="s">
+        <v>183</v>
+      </c>
+      <c r="C170" t="s">
+        <v>170</v>
+      </c>
+      <c r="D170" t="s">
+        <v>184</v>
+      </c>
+      <c r="E170">
+        <v>1</v>
+      </c>
+      <c r="F170">
+        <v>2</v>
+      </c>
+      <c r="G170" t="str">
+        <f t="shared" ref="G170" si="6">$K170&amp;"\"&amp;L170</f>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_QZ1OM_CommissionSummary.pdf</v>
+      </c>
+      <c r="H170" t="str">
+        <f t="shared" ref="H170" si="7">$K170&amp;"\"&amp;M170</f>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_QZ1OM_CommissionDetail.pdf</v>
+      </c>
+      <c r="K170" t="s">
+        <v>176</v>
+      </c>
+      <c r="L170" t="s">
+        <v>517</v>
+      </c>
+      <c r="M170" t="s">
+        <v>518</v>
       </c>
     </row>
   </sheetData>

--- a/BR_Mailer/J030_COM_FSC/J030_Mailing_List - Excel.xlsx
+++ b/BR_Mailer/J030_COM_FSC/J030_Mailing_List - Excel.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1024" uniqueCount="519">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1033" uniqueCount="522">
   <si>
     <t>msg</t>
   </si>
@@ -573,1009 +573,1018 @@
     <t>Olivier.Marsolais@henryschein.ca</t>
   </si>
   <si>
-    <t>Commission Summary and Details for April 2018</t>
-  </si>
-  <si>
-    <t>201804_CZ1SD_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201804_CZ1SD_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201804_CZ125_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201804_CZ125_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201804_CZ124_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201804_CZ124_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201804_QZ132_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201804_QZ132_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201804_CZ128_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201804_CZ128_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201804_CZ144_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201804_CZ144_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201804_CZ165_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201804_CZ165_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201804_QZ178_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201804_QZ178_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201804_CZ183_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201804_CZ183_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201804_CZ107_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201804_CZ107_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201804_CZ109_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201804_CZ109_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201804_AZ112_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201804_AZ112_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201804_CZ154_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201804_CZ154_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201804_CZ1KD_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201804_CZ1KD_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201804_QZ1CF_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201804_QZ1CF_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201804_CZ1EM_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201804_CZ1EM_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201804_QZ1DP_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201804_QZ1DP_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201804_CZ1DA_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201804_CZ1DA_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201804_QZ1LM_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201804_QZ1LM_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201804_CZ1EE_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201804_CZ1EE_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201804_AZ1EK_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201804_AZ1EK_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201804_AZ1FB_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201804_AZ1FB_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201804_CZ1FP_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201804_CZ1FP_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201804_QZ1FT_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201804_QZ1FT_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201804_QZ1FR_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201804_QZ1FR_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201804_QZ1GO_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201804_QZ1GO_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201804_AZ1KL_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201804_AZ1KL_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201804_QZ1KK_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201804_QZ1KK_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201804_CZ1DN_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201804_CZ1DN_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201804_QZ1EO_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201804_QZ1EO_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201804_CZ1CB_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201804_CZ1CB_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201804_CZ1B8_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201804_CZ1B8_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201804_CZ1C4_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201804_CZ1C4_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201804_QZ1D8_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201804_QZ1D8_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201804_CZ1SW_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201804_CZ1SW_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201804_QZ1AP_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201804_QZ1AP_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201804_CZ2CB_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201804_CZ2CB_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201804_CZ1CG_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201804_CZ1CG_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201804_AZ1PV_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201804_AZ1PV_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201804_CZ3CB_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201804_CZ3CB_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201804_CZ5CS_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201804_CZ5CS_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201804_CZ8JA_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201804_CZ8JA_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201804_QZ7JM_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201804_QZ7JM_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201804_QZ7DO_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201804_QZ7DO_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201804_CZ5TA_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201804_CZ5TA_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201804_CZ2LB_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201804_CZ2LB_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201804_CZ2GB_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201804_CZ2GB_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201804_CZ2LH_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201804_CZ2LH_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201804_CZ2NM_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201804_CZ2NM_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201804_QZ2SB_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201804_QZ2SB_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201804_CZ2BG_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201804_CZ2BG_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201804_CZ1SA_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201804_CZ1SA_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201804_WZ115_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201804_WZ115_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201804_WZ120_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201804_WZ120_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201804_WZ118_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201804_WZ118_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201804_WZ119_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201804_WZ119_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201804_WZ138_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201804_WZ138_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201804_WZ142_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201804_WZ142_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201804_WZ134_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201804_WZ134_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201804_WZ123_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201804_WZ123_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201804_WZ136_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201804_WZ136_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201804_WZ165_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201804_WZ165_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201804_WZ1FF_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201804_WZ1FF_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201804_WZ167_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201804_WZ167_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201804_WZ175_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201804_WZ175_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201804_WZ177_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201804_WZ177_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201804_WZ143_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201804_WZ143_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201804_WZ159_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201804_WZ159_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201804_WZ162_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201804_WZ162_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201804_WZ113_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201804_WZ113_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201804_WZ137_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201804_WZ137_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201804_WZ1G4_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201804_WZ1G4_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201804_WZBW1_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201804_WZBW1_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201804_WZ9TS_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201804_WZ9TS_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201804_WZ1HM_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201804_WZ1HM_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201804_WZ2RP_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201804_WZ2RP_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201804_WZ1TT_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201804_WZ1TT_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201804_WZ1AM_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201804_WZ1AM_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201804_WZ1JW_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201804_WZ1JW_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201804_WZ1MH_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201804_WZ1MH_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201804_WZ1TM_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201804_WZ1TM_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201804_WZ1SC_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201804_WZ1SC_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201804_WZ1PB_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201804_WZ1PB_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201804_WZ1JN_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201804_WZ1JN_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201804_WZ1MK_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201804_WZ1MK_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201804_WZ1CA_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201804_WZ1CA_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201804_WZ2TM_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201804_WZ2TM_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201804_WZ1BC_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201804_WZ1BC_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201804_WZ1JL_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201804_WZ1JL_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201804_WZ1AL_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201804_WZ1AL_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201804_WZ1MW_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201804_WZ1MW_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201804_WZ1MS_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201804_WZ1MS_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201804_WZ1DF_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201804_WZ1DF_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201804_WZ1JI_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201804_WZ1JI_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201804_WZ1CM_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201804_WZ1CM_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201804_WZ2MS_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201804_WZ2MS_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201804_WZ2JN_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201804_WZ2JN_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201804_CZ1RD_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201804_CZ1RD_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201804_CZ1GF_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201804_CZ1GF_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201804_QZ1BP_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201804_QZ1BP_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201804_CZ1JF_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201804_CZ1JF_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201804_AZ1CI_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201804_AZ1CI_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201804_CZ1KM_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201804_CZ1KM_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201804_CZ1OV_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201804_CZ1OV_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201804_QZ1JB_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201804_QZ1JB_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201804_QZ1BG_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201804_QZ1BG_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201804_CZ1TM_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201804_CZ1TM_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201804_QZ177_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201804_QZ177_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201804_QZ1BM_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201804_QZ1BM_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201804_QZ1MD_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201804_QZ1MD_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201804_AZ1JB_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201804_AZ1JB_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201804_CZ1AD_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201804_CZ1AD_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201804_QZ1ML_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201804_QZ1ML_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201804_CZ1FA_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201804_CZ1FA_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201804_CZ2SA_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201804_CZ2SA_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201804_QZ1SL_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201804_QZ1SL_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201804_AZ1CM_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201804_AZ1CM_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201804_QZ3JB_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201804_QZ3JB_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201804_CZ1CN_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201804_CZ1CN_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201804_AZ1YU_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201804_AZ1YU_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201804_AZ1WX_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201804_AZ1WX_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201804_AZ1XF_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201804_AZ1XF_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201804_AZ1XT_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201804_AZ1XT_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201804_AZ1YP_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201804_AZ1YP_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201804_QZ1XH_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201804_QZ1XH_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201804_QZ1TB_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201804_QZ1TB_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201804_QZ1TD_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201804_QZ1TD_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201804_QZ1TK_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201804_QZ1TK_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201804_QZ1YE_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201804_QZ1YE_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201804_QZ1TE_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201804_QZ1TE_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201804_QZ1TI_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201804_QZ1TI_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201804_CZ1YI_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201804_CZ1YI_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201804_CZ1YW_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201804_CZ1YW_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201804_CZ1UE_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201804_CZ1UE_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201804_CZ1MJ_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201804_CZ1MJ_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201804_CZ1VG_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201804_CZ1VG_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201804_CZ1VJ_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201804_CZ1VJ_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201804_CZ1MI_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201804_CZ1MI_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201804_CZ1XD_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201804_CZ1XD_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201804_CZ1XB_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201804_CZ1XB_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201804_CZ1WT_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201804_CZ1WT_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201804_CZ1XA_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201804_CZ1XA_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201804_WZ2KF_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201804_WZ2KF_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201804_WZ148_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201804_WZ148_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201804_WZ8GM_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201804_WZ8GM_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201804_WZ1BH_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201804_WZ1BH_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201804_WZ114_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201804_WZ114_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201804_WZ1A6_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201804_WZ1A6_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201804_WZ139_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201804_WZ139_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201804_CZ1VL_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201804_CZ1VL_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201804_CZ1VK_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201804_CZ1VK_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201804_CZ1LR_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201804_CZ1LR_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201804_CZ1UV_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201804_CZ1UV_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201804_CZ1WV_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201804_CZ1WV_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201804_CZ1UO_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201804_CZ1UO_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201804_CZ1XC_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201804_CZ1XC_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201804_CZ1YN_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201804_CZ1YN_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201804_CZ1UI_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201804_CZ1UI_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201804_CZ1UU_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201804_CZ1UU_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201804_CZ1UW_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201804_CZ1UW_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201804_CZ1VC_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201804_CZ1VC_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201804_CZ1UX_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201804_CZ1UX_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201804_CZ1UZ_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201804_CZ1UZ_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201804_WZ9JP_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201804_WZ9JP_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201804_CZ1DG_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201804_CZ1DG_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201804_CZ1LE_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201804_CZ1LE_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201804_QZ1OM_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201804_QZ1OM_CommissionDetail.pdf</t>
+    <t>Jeff.Vandamme@zahncanada.ca</t>
+  </si>
+  <si>
+    <t>Commission Summary and Details for May 2018</t>
+  </si>
+  <si>
+    <t>201805_CZ1SD_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201805_CZ1SD_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201805_CZ125_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201805_CZ125_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201805_CZ124_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201805_CZ124_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201805_QZ132_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201805_QZ132_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201805_CZ128_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201805_CZ128_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201805_CZ144_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201805_CZ144_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201805_CZ165_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201805_CZ165_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201805_QZ178_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201805_QZ178_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201805_CZ183_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201805_CZ183_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201805_CZ107_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201805_CZ107_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201805_CZ109_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201805_CZ109_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201805_AZ112_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201805_AZ112_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201805_CZ154_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201805_CZ154_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201805_CZ1KD_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201805_CZ1KD_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201805_QZ1CF_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201805_QZ1CF_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201805_CZ1EM_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201805_CZ1EM_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201805_QZ1DP_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201805_QZ1DP_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201805_CZ1DA_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201805_CZ1DA_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201805_QZ1LM_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201805_QZ1LM_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201805_CZ1EE_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201805_CZ1EE_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201805_AZ1EK_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201805_AZ1EK_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201805_AZ1FB_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201805_AZ1FB_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201805_CZ1FP_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201805_CZ1FP_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201805_QZ1FT_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201805_QZ1FT_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201805_QZ1FR_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201805_QZ1FR_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201805_QZ1GO_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201805_QZ1GO_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201805_AZ1KL_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201805_AZ1KL_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201805_QZ1KK_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201805_QZ1KK_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201805_CZ1DN_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201805_CZ1DN_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201805_QZ1EO_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201805_QZ1EO_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201805_CZ1CB_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201805_CZ1CB_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201805_CZ1B8_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201805_CZ1B8_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201805_CZ1C4_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201805_CZ1C4_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201805_QZ1D8_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201805_QZ1D8_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201805_CZ1SW_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201805_CZ1SW_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201805_QZ1AP_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201805_QZ1AP_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201805_CZ2CB_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201805_CZ2CB_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201805_CZ1CG_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201805_CZ1CG_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201805_AZ1PV_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201805_AZ1PV_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201805_CZ3CB_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201805_CZ3CB_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201805_CZ5CS_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201805_CZ5CS_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201805_CZ8JA_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201805_CZ8JA_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201805_QZ7JM_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201805_QZ7JM_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201805_QZ7DO_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201805_QZ7DO_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201805_CZ5TA_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201805_CZ5TA_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201805_CZ2LB_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201805_CZ2LB_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201805_CZ2GB_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201805_CZ2GB_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201805_CZ2LH_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201805_CZ2LH_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201805_CZ2NM_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201805_CZ2NM_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201805_QZ2SB_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201805_QZ2SB_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201805_CZ2BG_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201805_CZ2BG_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201805_CZ1SA_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201805_CZ1SA_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201805_WZ115_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201805_WZ115_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201805_WZ120_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201805_WZ120_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201805_WZ118_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201805_WZ118_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201805_WZ119_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201805_WZ119_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201805_WZ138_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201805_WZ138_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201805_WZ142_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201805_WZ142_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201805_WZ134_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201805_WZ134_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201805_WZ123_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201805_WZ123_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201805_WZ136_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201805_WZ136_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201805_WZ165_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201805_WZ165_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201805_WZ1FF_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201805_WZ1FF_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201805_WZ167_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201805_WZ167_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201805_WZ175_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201805_WZ175_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201805_WZ177_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201805_WZ177_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201805_WZ143_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201805_WZ143_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201805_WZ159_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201805_WZ159_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201805_WZ162_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201805_WZ162_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201805_WZ113_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201805_WZ113_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201805_WZ137_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201805_WZ137_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201805_WZ1G4_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201805_WZ1G4_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201805_WZBW1_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201805_WZBW1_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201805_WZ9TS_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201805_WZ9TS_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201805_WZ1HM_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201805_WZ1HM_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201805_WZ2RP_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201805_WZ2RP_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201805_WZ1TT_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201805_WZ1TT_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201805_WZ1AM_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201805_WZ1AM_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201805_WZ1JW_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201805_WZ1JW_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201805_WZ1MH_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201805_WZ1MH_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201805_WZ1TM_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201805_WZ1TM_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201805_WZ1SC_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201805_WZ1SC_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201805_WZ1PB_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201805_WZ1PB_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201805_WZ1JN_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201805_WZ1JN_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201805_WZ1MK_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201805_WZ1MK_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201805_WZ1CA_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201805_WZ1CA_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201805_WZ2TM_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201805_WZ2TM_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201805_WZ1BC_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201805_WZ1BC_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201805_WZ1JL_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201805_WZ1JL_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201805_WZ1AL_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201805_WZ1AL_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201805_WZ1MW_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201805_WZ1MW_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201805_WZ1MS_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201805_WZ1MS_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201805_WZ1DF_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201805_WZ1DF_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201805_WZ1JI_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201805_WZ1JI_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201805_WZ1CM_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201805_WZ1CM_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201805_WZ2MS_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201805_WZ2MS_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201805_WZ2JN_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201805_WZ2JN_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201805_CZ1RD_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201805_CZ1RD_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201805_CZ1GF_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201805_CZ1GF_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201805_QZ1BP_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201805_QZ1BP_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201805_CZ1JF_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201805_CZ1JF_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201805_AZ1CI_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201805_AZ1CI_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201805_CZ1KM_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201805_CZ1KM_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201805_CZ1OV_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201805_CZ1OV_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201805_QZ1JB_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201805_QZ1JB_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201805_QZ1BG_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201805_QZ1BG_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201805_CZ1TM_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201805_CZ1TM_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201805_QZ177_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201805_QZ177_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201805_QZ1BM_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201805_QZ1BM_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201805_QZ1MD_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201805_QZ1MD_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201805_AZ1JB_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201805_AZ1JB_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201805_CZ1AD_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201805_CZ1AD_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201805_QZ1ML_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201805_QZ1ML_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201805_CZ1FA_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201805_CZ1FA_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201805_CZ2SA_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201805_CZ2SA_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201805_QZ1SL_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201805_QZ1SL_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201805_AZ1CM_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201805_AZ1CM_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201805_QZ3JB_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201805_QZ3JB_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201805_CZ1CN_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201805_CZ1CN_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201805_AZ1YU_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201805_AZ1YU_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201805_AZ1WX_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201805_AZ1WX_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201805_AZ1XF_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201805_AZ1XF_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201805_AZ1XT_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201805_AZ1XT_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201805_AZ1YP_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201805_AZ1YP_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201805_QZ1XH_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201805_QZ1XH_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201805_QZ1TB_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201805_QZ1TB_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201805_QZ1TD_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201805_QZ1TD_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201805_QZ1TK_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201805_QZ1TK_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201805_QZ1YE_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201805_QZ1YE_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201805_QZ1TE_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201805_QZ1TE_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201805_QZ1TI_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201805_QZ1TI_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201805_CZ1YI_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201805_CZ1YI_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201805_CZ1YW_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201805_CZ1YW_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201805_CZ1UE_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201805_CZ1UE_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201805_CZ1MJ_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201805_CZ1MJ_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201805_CZ1VG_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201805_CZ1VG_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201805_CZ1VJ_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201805_CZ1VJ_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201805_CZ1MI_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201805_CZ1MI_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201805_CZ1XD_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201805_CZ1XD_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201805_CZ1XB_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201805_CZ1XB_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201805_CZ1WT_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201805_CZ1WT_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201805_CZ1XA_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201805_CZ1XA_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201805_WZ2KF_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201805_WZ2KF_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201805_WZ148_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201805_WZ148_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201805_WZ8GM_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201805_WZ8GM_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201805_WZ1BH_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201805_WZ1BH_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201805_WZ114_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201805_WZ114_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201805_WZ1A6_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201805_WZ1A6_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201805_WZ139_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201805_WZ139_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201805_CZ1VL_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201805_CZ1VL_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201805_CZ1VK_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201805_CZ1VK_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201805_CZ1LR_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201805_CZ1LR_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201805_CZ1UV_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201805_CZ1UV_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201805_CZ1WV_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201805_CZ1WV_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201805_CZ1UO_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201805_CZ1UO_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201805_CZ1XC_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201805_CZ1XC_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201805_CZ1YN_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201805_CZ1YN_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201805_CZ1UI_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201805_CZ1UI_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201805_CZ1UU_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201805_CZ1UU_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201805_CZ1UW_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201805_CZ1UW_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201805_CZ1VC_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201805_CZ1VC_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201805_CZ1UX_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201805_CZ1UX_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201805_CZ1UZ_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201805_CZ1UZ_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201805_WZ9JP_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201805_WZ9JP_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201805_CZ1DG_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201805_CZ1DG_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201805_CZ1LE_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201805_CZ1LE_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201805_QZ1OM_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201805_QZ1OM_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201805_WZ1JV_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201805_WZ1JV_CommissionDetail.pdf</t>
   </si>
 </sst>
 </file>
@@ -1925,7 +1934,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:N170"/>
+  <dimension ref="A1:N171"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1994,9 +2003,8 @@
       <c r="C2" t="s">
         <v>170</v>
       </c>
-      <c r="D2" t="str">
-        <f>D3</f>
-        <v>Commission Summary and Details for April 2018</v>
+      <c r="D2" t="s">
+        <v>185</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -2006,22 +2014,20 @@
       </c>
       <c r="G2" t="str">
         <f>$K2&amp;"\"&amp;L2</f>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_CZ1SD_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201805_CZ1SD_CommissionSummary.pdf</v>
       </c>
       <c r="H2" t="str">
         <f>$K2&amp;"\"&amp;M2</f>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_CZ1SD_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201805_CZ1SD_CommissionDetail.pdf</v>
       </c>
       <c r="K2" t="s">
         <v>176</v>
       </c>
-      <c r="L2" t="str">
-        <f>L3</f>
-        <v>201804_CZ1SD_CommissionSummary.pdf</v>
-      </c>
-      <c r="M2" t="str">
-        <f>M3</f>
-        <v>201804_CZ1SD_CommissionDetail.pdf</v>
+      <c r="L2" t="s">
+        <v>186</v>
+      </c>
+      <c r="M2" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
@@ -2033,7 +2039,7 @@
         <v>170</v>
       </c>
       <c r="D3" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -2043,20 +2049,20 @@
       </c>
       <c r="G3" t="str">
         <f t="shared" ref="G3:G66" si="0">$K3&amp;"\"&amp;L3</f>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_CZ1SD_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201805_CZ1SD_CommissionSummary.pdf</v>
       </c>
       <c r="H3" t="str">
         <f t="shared" ref="H3:H66" si="1">$K3&amp;"\"&amp;M3</f>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_CZ1SD_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201805_CZ1SD_CommissionDetail.pdf</v>
       </c>
       <c r="K3" t="s">
         <v>176</v>
       </c>
       <c r="L3" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="M3" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
@@ -2068,7 +2074,7 @@
         <v>170</v>
       </c>
       <c r="D4" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -2078,20 +2084,20 @@
       </c>
       <c r="G4" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_CZ125_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201805_CZ125_CommissionSummary.pdf</v>
       </c>
       <c r="H4" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_CZ125_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201805_CZ125_CommissionDetail.pdf</v>
       </c>
       <c r="K4" t="s">
         <v>176</v>
       </c>
       <c r="L4" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="M4" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
@@ -2103,7 +2109,7 @@
         <v>170</v>
       </c>
       <c r="D5" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -2113,20 +2119,20 @@
       </c>
       <c r="G5" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_CZ124_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201805_CZ124_CommissionSummary.pdf</v>
       </c>
       <c r="H5" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_CZ124_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201805_CZ124_CommissionDetail.pdf</v>
       </c>
       <c r="K5" t="s">
         <v>176</v>
       </c>
       <c r="L5" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="M5" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
@@ -2138,7 +2144,7 @@
         <v>170</v>
       </c>
       <c r="D6" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -2148,20 +2154,20 @@
       </c>
       <c r="G6" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_QZ132_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201805_QZ132_CommissionSummary.pdf</v>
       </c>
       <c r="H6" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_QZ132_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201805_QZ132_CommissionDetail.pdf</v>
       </c>
       <c r="K6" t="s">
         <v>176</v>
       </c>
       <c r="L6" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="M6" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
@@ -2173,7 +2179,7 @@
         <v>170</v>
       </c>
       <c r="D7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -2183,20 +2189,20 @@
       </c>
       <c r="G7" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_CZ128_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201805_CZ128_CommissionSummary.pdf</v>
       </c>
       <c r="H7" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_CZ128_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201805_CZ128_CommissionDetail.pdf</v>
       </c>
       <c r="K7" t="s">
         <v>176</v>
       </c>
       <c r="L7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="M7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
@@ -2208,7 +2214,7 @@
         <v>170</v>
       </c>
       <c r="D8" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E8">
         <v>1</v>
@@ -2218,20 +2224,20 @@
       </c>
       <c r="G8" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_CZ144_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201805_CZ144_CommissionSummary.pdf</v>
       </c>
       <c r="H8" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_CZ144_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201805_CZ144_CommissionDetail.pdf</v>
       </c>
       <c r="K8" t="s">
         <v>176</v>
       </c>
       <c r="L8" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="M8" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
@@ -2243,7 +2249,7 @@
         <v>170</v>
       </c>
       <c r="D9" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E9">
         <v>1</v>
@@ -2253,20 +2259,20 @@
       </c>
       <c r="G9" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_CZ165_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201805_CZ165_CommissionSummary.pdf</v>
       </c>
       <c r="H9" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_CZ165_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201805_CZ165_CommissionDetail.pdf</v>
       </c>
       <c r="K9" t="s">
         <v>176</v>
       </c>
       <c r="L9" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="M9" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
@@ -2278,7 +2284,7 @@
         <v>170</v>
       </c>
       <c r="D10" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E10">
         <v>1</v>
@@ -2288,20 +2294,20 @@
       </c>
       <c r="G10" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_QZ178_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201805_QZ178_CommissionSummary.pdf</v>
       </c>
       <c r="H10" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_QZ178_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201805_QZ178_CommissionDetail.pdf</v>
       </c>
       <c r="K10" t="s">
         <v>176</v>
       </c>
       <c r="L10" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="M10" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
@@ -2313,7 +2319,7 @@
         <v>170</v>
       </c>
       <c r="D11" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E11">
         <v>1</v>
@@ -2323,20 +2329,20 @@
       </c>
       <c r="G11" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_CZ183_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201805_CZ183_CommissionSummary.pdf</v>
       </c>
       <c r="H11" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_CZ183_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201805_CZ183_CommissionDetail.pdf</v>
       </c>
       <c r="K11" t="s">
         <v>176</v>
       </c>
       <c r="L11" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="M11" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
@@ -2348,7 +2354,7 @@
         <v>170</v>
       </c>
       <c r="D12" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E12">
         <v>1</v>
@@ -2358,20 +2364,20 @@
       </c>
       <c r="G12" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_CZ107_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201805_CZ107_CommissionSummary.pdf</v>
       </c>
       <c r="H12" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_CZ107_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201805_CZ107_CommissionDetail.pdf</v>
       </c>
       <c r="K12" t="s">
         <v>176</v>
       </c>
       <c r="L12" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="M12" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
@@ -2383,7 +2389,7 @@
         <v>170</v>
       </c>
       <c r="D13" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E13">
         <v>1</v>
@@ -2393,20 +2399,20 @@
       </c>
       <c r="G13" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_CZ109_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201805_CZ109_CommissionSummary.pdf</v>
       </c>
       <c r="H13" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_CZ109_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201805_CZ109_CommissionDetail.pdf</v>
       </c>
       <c r="K13" t="s">
         <v>176</v>
       </c>
       <c r="L13" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="M13" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
@@ -2418,7 +2424,7 @@
         <v>170</v>
       </c>
       <c r="D14" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E14">
         <v>1</v>
@@ -2428,20 +2434,20 @@
       </c>
       <c r="G14" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_AZ112_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201805_AZ112_CommissionSummary.pdf</v>
       </c>
       <c r="H14" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_AZ112_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201805_AZ112_CommissionDetail.pdf</v>
       </c>
       <c r="K14" t="s">
         <v>176</v>
       </c>
       <c r="L14" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="M14" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
@@ -2453,7 +2459,7 @@
         <v>170</v>
       </c>
       <c r="D15" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E15">
         <v>1</v>
@@ -2463,20 +2469,20 @@
       </c>
       <c r="G15" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_CZ154_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201805_CZ154_CommissionSummary.pdf</v>
       </c>
       <c r="H15" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_CZ154_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201805_CZ154_CommissionDetail.pdf</v>
       </c>
       <c r="K15" t="s">
         <v>176</v>
       </c>
       <c r="L15" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="M15" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
@@ -2488,7 +2494,7 @@
         <v>170</v>
       </c>
       <c r="D16" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E16">
         <v>1</v>
@@ -2498,20 +2504,20 @@
       </c>
       <c r="G16" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_CZ1KD_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201805_CZ1KD_CommissionSummary.pdf</v>
       </c>
       <c r="H16" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_CZ1KD_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201805_CZ1KD_CommissionDetail.pdf</v>
       </c>
       <c r="K16" t="s">
         <v>176</v>
       </c>
       <c r="L16" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="M16" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
@@ -2523,7 +2529,7 @@
         <v>170</v>
       </c>
       <c r="D17" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E17">
         <v>1</v>
@@ -2533,20 +2539,20 @@
       </c>
       <c r="G17" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_QZ1CF_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201805_QZ1CF_CommissionSummary.pdf</v>
       </c>
       <c r="H17" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_QZ1CF_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201805_QZ1CF_CommissionDetail.pdf</v>
       </c>
       <c r="K17" t="s">
         <v>176</v>
       </c>
       <c r="L17" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="M17" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
@@ -2558,7 +2564,7 @@
         <v>170</v>
       </c>
       <c r="D18" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E18">
         <v>1</v>
@@ -2568,20 +2574,20 @@
       </c>
       <c r="G18" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_CZ1EM_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201805_CZ1EM_CommissionSummary.pdf</v>
       </c>
       <c r="H18" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_CZ1EM_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201805_CZ1EM_CommissionDetail.pdf</v>
       </c>
       <c r="K18" t="s">
         <v>176</v>
       </c>
       <c r="L18" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="M18" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
@@ -2593,7 +2599,7 @@
         <v>170</v>
       </c>
       <c r="D19" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E19">
         <v>1</v>
@@ -2603,20 +2609,20 @@
       </c>
       <c r="G19" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_QZ1DP_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201805_QZ1DP_CommissionSummary.pdf</v>
       </c>
       <c r="H19" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_QZ1DP_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201805_QZ1DP_CommissionDetail.pdf</v>
       </c>
       <c r="K19" t="s">
         <v>176</v>
       </c>
       <c r="L19" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="M19" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
@@ -2627,7 +2633,7 @@
         <v>170</v>
       </c>
       <c r="D20" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E20">
         <v>1</v>
@@ -2637,20 +2643,20 @@
       </c>
       <c r="G20" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_CZ1DA_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201805_CZ1DA_CommissionSummary.pdf</v>
       </c>
       <c r="H20" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_CZ1DA_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201805_CZ1DA_CommissionDetail.pdf</v>
       </c>
       <c r="K20" t="s">
         <v>176</v>
       </c>
       <c r="L20" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="M20" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
@@ -2661,7 +2667,7 @@
         <v>170</v>
       </c>
       <c r="D21" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E21">
         <v>1</v>
@@ -2671,20 +2677,20 @@
       </c>
       <c r="G21" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_QZ1LM_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201805_QZ1LM_CommissionSummary.pdf</v>
       </c>
       <c r="H21" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_QZ1LM_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201805_QZ1LM_CommissionDetail.pdf</v>
       </c>
       <c r="K21" t="s">
         <v>176</v>
       </c>
       <c r="L21" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="M21" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
@@ -2695,7 +2701,7 @@
         <v>170</v>
       </c>
       <c r="D22" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E22">
         <v>1</v>
@@ -2705,20 +2711,20 @@
       </c>
       <c r="G22" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_CZ1EE_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201805_CZ1EE_CommissionSummary.pdf</v>
       </c>
       <c r="H22" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_CZ1EE_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201805_CZ1EE_CommissionDetail.pdf</v>
       </c>
       <c r="K22" t="s">
         <v>176</v>
       </c>
       <c r="L22" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="M22" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
@@ -2729,7 +2735,7 @@
         <v>170</v>
       </c>
       <c r="D23" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E23">
         <v>1</v>
@@ -2739,20 +2745,20 @@
       </c>
       <c r="G23" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_AZ1EK_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201805_AZ1EK_CommissionSummary.pdf</v>
       </c>
       <c r="H23" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_AZ1EK_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201805_AZ1EK_CommissionDetail.pdf</v>
       </c>
       <c r="K23" t="s">
         <v>176</v>
       </c>
       <c r="L23" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="M23" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
@@ -2763,7 +2769,7 @@
         <v>170</v>
       </c>
       <c r="D24" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E24">
         <v>1</v>
@@ -2773,20 +2779,20 @@
       </c>
       <c r="G24" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_AZ1FB_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201805_AZ1FB_CommissionSummary.pdf</v>
       </c>
       <c r="H24" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_AZ1FB_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201805_AZ1FB_CommissionDetail.pdf</v>
       </c>
       <c r="K24" t="s">
         <v>176</v>
       </c>
       <c r="L24" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="M24" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
@@ -2797,7 +2803,7 @@
         <v>170</v>
       </c>
       <c r="D25" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E25">
         <v>1</v>
@@ -2807,20 +2813,20 @@
       </c>
       <c r="G25" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_CZ1FP_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201805_CZ1FP_CommissionSummary.pdf</v>
       </c>
       <c r="H25" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_CZ1FP_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201805_CZ1FP_CommissionDetail.pdf</v>
       </c>
       <c r="K25" t="s">
         <v>176</v>
       </c>
       <c r="L25" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="M25" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
@@ -2831,7 +2837,7 @@
         <v>170</v>
       </c>
       <c r="D26" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E26">
         <v>1</v>
@@ -2841,20 +2847,20 @@
       </c>
       <c r="G26" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_QZ1FT_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201805_QZ1FT_CommissionSummary.pdf</v>
       </c>
       <c r="H26" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_QZ1FT_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201805_QZ1FT_CommissionDetail.pdf</v>
       </c>
       <c r="K26" t="s">
         <v>176</v>
       </c>
       <c r="L26" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="M26" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
@@ -2865,7 +2871,7 @@
         <v>170</v>
       </c>
       <c r="D27" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E27">
         <v>1</v>
@@ -2875,20 +2881,20 @@
       </c>
       <c r="G27" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_QZ1FR_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201805_QZ1FR_CommissionSummary.pdf</v>
       </c>
       <c r="H27" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_QZ1FR_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201805_QZ1FR_CommissionDetail.pdf</v>
       </c>
       <c r="K27" t="s">
         <v>176</v>
       </c>
       <c r="L27" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="M27" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
@@ -2899,7 +2905,7 @@
         <v>170</v>
       </c>
       <c r="D28" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E28">
         <v>1</v>
@@ -2909,20 +2915,20 @@
       </c>
       <c r="G28" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_QZ1GO_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201805_QZ1GO_CommissionSummary.pdf</v>
       </c>
       <c r="H28" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_QZ1GO_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201805_QZ1GO_CommissionDetail.pdf</v>
       </c>
       <c r="K28" t="s">
         <v>176</v>
       </c>
       <c r="L28" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="M28" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
@@ -2933,7 +2939,7 @@
         <v>170</v>
       </c>
       <c r="D29" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E29">
         <v>1</v>
@@ -2943,20 +2949,20 @@
       </c>
       <c r="G29" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_AZ1KL_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201805_AZ1KL_CommissionSummary.pdf</v>
       </c>
       <c r="H29" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_AZ1KL_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201805_AZ1KL_CommissionDetail.pdf</v>
       </c>
       <c r="K29" t="s">
         <v>176</v>
       </c>
       <c r="L29" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="M29" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
@@ -2967,7 +2973,7 @@
         <v>170</v>
       </c>
       <c r="D30" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E30">
         <v>1</v>
@@ -2977,20 +2983,20 @@
       </c>
       <c r="G30" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_QZ1KK_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201805_QZ1KK_CommissionSummary.pdf</v>
       </c>
       <c r="H30" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_QZ1KK_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201805_QZ1KK_CommissionDetail.pdf</v>
       </c>
       <c r="K30" t="s">
         <v>176</v>
       </c>
       <c r="L30" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="M30" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
@@ -3001,7 +3007,7 @@
         <v>170</v>
       </c>
       <c r="D31" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E31">
         <v>1</v>
@@ -3011,20 +3017,20 @@
       </c>
       <c r="G31" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_CZ1DN_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201805_CZ1DN_CommissionSummary.pdf</v>
       </c>
       <c r="H31" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_CZ1DN_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201805_CZ1DN_CommissionDetail.pdf</v>
       </c>
       <c r="K31" t="s">
         <v>176</v>
       </c>
       <c r="L31" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="M31" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
@@ -3035,7 +3041,7 @@
         <v>170</v>
       </c>
       <c r="D32" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E32">
         <v>1</v>
@@ -3045,20 +3051,20 @@
       </c>
       <c r="G32" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_QZ1EO_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201805_QZ1EO_CommissionSummary.pdf</v>
       </c>
       <c r="H32" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_QZ1EO_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201805_QZ1EO_CommissionDetail.pdf</v>
       </c>
       <c r="K32" t="s">
         <v>176</v>
       </c>
       <c r="L32" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="M32" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="33" spans="2:13" x14ac:dyDescent="0.25">
@@ -3069,7 +3075,7 @@
         <v>170</v>
       </c>
       <c r="D33" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E33">
         <v>1</v>
@@ -3079,20 +3085,20 @@
       </c>
       <c r="G33" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_CZ1CB_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201805_CZ1CB_CommissionSummary.pdf</v>
       </c>
       <c r="H33" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_CZ1CB_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201805_CZ1CB_CommissionDetail.pdf</v>
       </c>
       <c r="K33" t="s">
         <v>176</v>
       </c>
       <c r="L33" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="M33" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="34" spans="2:13" x14ac:dyDescent="0.25">
@@ -3103,7 +3109,7 @@
         <v>170</v>
       </c>
       <c r="D34" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E34">
         <v>1</v>
@@ -3113,20 +3119,20 @@
       </c>
       <c r="G34" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_CZ1B8_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201805_CZ1B8_CommissionSummary.pdf</v>
       </c>
       <c r="H34" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_CZ1B8_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201805_CZ1B8_CommissionDetail.pdf</v>
       </c>
       <c r="K34" t="s">
         <v>176</v>
       </c>
       <c r="L34" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="M34" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="35" spans="2:13" x14ac:dyDescent="0.25">
@@ -3137,7 +3143,7 @@
         <v>170</v>
       </c>
       <c r="D35" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E35">
         <v>1</v>
@@ -3147,20 +3153,20 @@
       </c>
       <c r="G35" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_CZ1C4_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201805_CZ1C4_CommissionSummary.pdf</v>
       </c>
       <c r="H35" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_CZ1C4_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201805_CZ1C4_CommissionDetail.pdf</v>
       </c>
       <c r="K35" t="s">
         <v>176</v>
       </c>
       <c r="L35" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="M35" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="36" spans="2:13" x14ac:dyDescent="0.25">
@@ -3171,7 +3177,7 @@
         <v>170</v>
       </c>
       <c r="D36" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E36">
         <v>1</v>
@@ -3181,20 +3187,20 @@
       </c>
       <c r="G36" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_QZ1D8_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201805_QZ1D8_CommissionSummary.pdf</v>
       </c>
       <c r="H36" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_QZ1D8_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201805_QZ1D8_CommissionDetail.pdf</v>
       </c>
       <c r="K36" t="s">
         <v>176</v>
       </c>
       <c r="L36" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="M36" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="37" spans="2:13" x14ac:dyDescent="0.25">
@@ -3205,7 +3211,7 @@
         <v>170</v>
       </c>
       <c r="D37" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E37">
         <v>1</v>
@@ -3215,20 +3221,20 @@
       </c>
       <c r="G37" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_CZ1SW_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201805_CZ1SW_CommissionSummary.pdf</v>
       </c>
       <c r="H37" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_CZ1SW_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201805_CZ1SW_CommissionDetail.pdf</v>
       </c>
       <c r="K37" t="s">
         <v>176</v>
       </c>
       <c r="L37" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="M37" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="38" spans="2:13" x14ac:dyDescent="0.25">
@@ -3239,7 +3245,7 @@
         <v>170</v>
       </c>
       <c r="D38" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E38">
         <v>1</v>
@@ -3249,20 +3255,20 @@
       </c>
       <c r="G38" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_QZ1AP_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201805_QZ1AP_CommissionSummary.pdf</v>
       </c>
       <c r="H38" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_QZ1AP_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201805_QZ1AP_CommissionDetail.pdf</v>
       </c>
       <c r="K38" t="s">
         <v>176</v>
       </c>
       <c r="L38" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="M38" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="39" spans="2:13" x14ac:dyDescent="0.25">
@@ -3273,7 +3279,7 @@
         <v>170</v>
       </c>
       <c r="D39" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E39">
         <v>1</v>
@@ -3283,20 +3289,20 @@
       </c>
       <c r="G39" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_CZ2CB_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201805_CZ2CB_CommissionSummary.pdf</v>
       </c>
       <c r="H39" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_CZ2CB_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201805_CZ2CB_CommissionDetail.pdf</v>
       </c>
       <c r="K39" t="s">
         <v>176</v>
       </c>
       <c r="L39" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="M39" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="40" spans="2:13" x14ac:dyDescent="0.25">
@@ -3307,7 +3313,7 @@
         <v>170</v>
       </c>
       <c r="D40" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E40">
         <v>1</v>
@@ -3317,20 +3323,20 @@
       </c>
       <c r="G40" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_CZ1CG_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201805_CZ1CG_CommissionSummary.pdf</v>
       </c>
       <c r="H40" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_CZ1CG_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201805_CZ1CG_CommissionDetail.pdf</v>
       </c>
       <c r="K40" t="s">
         <v>176</v>
       </c>
       <c r="L40" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="M40" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="41" spans="2:13" x14ac:dyDescent="0.25">
@@ -3341,7 +3347,7 @@
         <v>170</v>
       </c>
       <c r="D41" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E41">
         <v>1</v>
@@ -3351,20 +3357,20 @@
       </c>
       <c r="G41" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_AZ1PV_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201805_AZ1PV_CommissionSummary.pdf</v>
       </c>
       <c r="H41" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_AZ1PV_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201805_AZ1PV_CommissionDetail.pdf</v>
       </c>
       <c r="K41" t="s">
         <v>176</v>
       </c>
       <c r="L41" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="M41" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
     <row r="42" spans="2:13" x14ac:dyDescent="0.25">
@@ -3375,7 +3381,7 @@
         <v>170</v>
       </c>
       <c r="D42" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E42">
         <v>1</v>
@@ -3385,20 +3391,20 @@
       </c>
       <c r="G42" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_CZ3CB_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201805_CZ3CB_CommissionSummary.pdf</v>
       </c>
       <c r="H42" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_CZ3CB_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201805_CZ3CB_CommissionDetail.pdf</v>
       </c>
       <c r="K42" t="s">
         <v>176</v>
       </c>
       <c r="L42" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="M42" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="43" spans="2:13" x14ac:dyDescent="0.25">
@@ -3409,7 +3415,7 @@
         <v>170</v>
       </c>
       <c r="D43" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E43">
         <v>1</v>
@@ -3419,20 +3425,20 @@
       </c>
       <c r="G43" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_CZ5CS_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201805_CZ5CS_CommissionSummary.pdf</v>
       </c>
       <c r="H43" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_CZ5CS_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201805_CZ5CS_CommissionDetail.pdf</v>
       </c>
       <c r="K43" t="s">
         <v>176</v>
       </c>
       <c r="L43" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="M43" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
     </row>
     <row r="44" spans="2:13" x14ac:dyDescent="0.25">
@@ -3443,7 +3449,7 @@
         <v>170</v>
       </c>
       <c r="D44" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E44">
         <v>1</v>
@@ -3453,20 +3459,20 @@
       </c>
       <c r="G44" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_CZ8JA_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201805_CZ8JA_CommissionSummary.pdf</v>
       </c>
       <c r="H44" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_CZ8JA_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201805_CZ8JA_CommissionDetail.pdf</v>
       </c>
       <c r="K44" t="s">
         <v>176</v>
       </c>
       <c r="L44" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="M44" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="45" spans="2:13" x14ac:dyDescent="0.25">
@@ -3477,7 +3483,7 @@
         <v>170</v>
       </c>
       <c r="D45" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E45">
         <v>1</v>
@@ -3487,20 +3493,20 @@
       </c>
       <c r="G45" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_QZ7JM_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201805_QZ7JM_CommissionSummary.pdf</v>
       </c>
       <c r="H45" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_QZ7JM_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201805_QZ7JM_CommissionDetail.pdf</v>
       </c>
       <c r="K45" t="s">
         <v>176</v>
       </c>
       <c r="L45" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="M45" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
     </row>
     <row r="46" spans="2:13" x14ac:dyDescent="0.25">
@@ -3511,7 +3517,7 @@
         <v>170</v>
       </c>
       <c r="D46" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E46">
         <v>1</v>
@@ -3521,20 +3527,20 @@
       </c>
       <c r="G46" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_QZ7DO_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201805_QZ7DO_CommissionSummary.pdf</v>
       </c>
       <c r="H46" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_QZ7DO_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201805_QZ7DO_CommissionDetail.pdf</v>
       </c>
       <c r="K46" t="s">
         <v>176</v>
       </c>
       <c r="L46" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="M46" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
     </row>
     <row r="47" spans="2:13" x14ac:dyDescent="0.25">
@@ -3545,7 +3551,7 @@
         <v>170</v>
       </c>
       <c r="D47" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E47">
         <v>1</v>
@@ -3555,20 +3561,20 @@
       </c>
       <c r="G47" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_CZ5TA_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201805_CZ5TA_CommissionSummary.pdf</v>
       </c>
       <c r="H47" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_CZ5TA_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201805_CZ5TA_CommissionDetail.pdf</v>
       </c>
       <c r="K47" t="s">
         <v>176</v>
       </c>
       <c r="L47" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="M47" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
     </row>
     <row r="48" spans="2:13" x14ac:dyDescent="0.25">
@@ -3579,7 +3585,7 @@
         <v>170</v>
       </c>
       <c r="D48" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E48">
         <v>1</v>
@@ -3589,20 +3595,20 @@
       </c>
       <c r="G48" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_CZ2LB_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201805_CZ2LB_CommissionSummary.pdf</v>
       </c>
       <c r="H48" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_CZ2LB_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201805_CZ2LB_CommissionDetail.pdf</v>
       </c>
       <c r="K48" t="s">
         <v>176</v>
       </c>
       <c r="L48" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="M48" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
     </row>
     <row r="49" spans="2:13" x14ac:dyDescent="0.25">
@@ -3613,7 +3619,7 @@
         <v>170</v>
       </c>
       <c r="D49" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E49">
         <v>1</v>
@@ -3623,20 +3629,20 @@
       </c>
       <c r="G49" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_CZ2GB_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201805_CZ2GB_CommissionSummary.pdf</v>
       </c>
       <c r="H49" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_CZ2GB_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201805_CZ2GB_CommissionDetail.pdf</v>
       </c>
       <c r="K49" t="s">
         <v>176</v>
       </c>
       <c r="L49" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="M49" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
     </row>
     <row r="50" spans="2:13" x14ac:dyDescent="0.25">
@@ -3647,7 +3653,7 @@
         <v>170</v>
       </c>
       <c r="D50" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E50">
         <v>1</v>
@@ -3657,20 +3663,20 @@
       </c>
       <c r="G50" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_CZ2LH_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201805_CZ2LH_CommissionSummary.pdf</v>
       </c>
       <c r="H50" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_CZ2LH_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201805_CZ2LH_CommissionDetail.pdf</v>
       </c>
       <c r="K50" t="s">
         <v>176</v>
       </c>
       <c r="L50" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="M50" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
     <row r="51" spans="2:13" x14ac:dyDescent="0.25">
@@ -3681,7 +3687,7 @@
         <v>170</v>
       </c>
       <c r="D51" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E51">
         <v>1</v>
@@ -3691,20 +3697,20 @@
       </c>
       <c r="G51" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_CZ2NM_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201805_CZ2NM_CommissionSummary.pdf</v>
       </c>
       <c r="H51" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_CZ2NM_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201805_CZ2NM_CommissionDetail.pdf</v>
       </c>
       <c r="K51" t="s">
         <v>176</v>
       </c>
       <c r="L51" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="M51" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
     </row>
     <row r="52" spans="2:13" x14ac:dyDescent="0.25">
@@ -3715,7 +3721,7 @@
         <v>170</v>
       </c>
       <c r="D52" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E52">
         <v>1</v>
@@ -3725,20 +3731,20 @@
       </c>
       <c r="G52" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_QZ2SB_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201805_QZ2SB_CommissionSummary.pdf</v>
       </c>
       <c r="H52" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_QZ2SB_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201805_QZ2SB_CommissionDetail.pdf</v>
       </c>
       <c r="K52" t="s">
         <v>176</v>
       </c>
       <c r="L52" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="M52" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
     </row>
     <row r="53" spans="2:13" x14ac:dyDescent="0.25">
@@ -3749,7 +3755,7 @@
         <v>170</v>
       </c>
       <c r="D53" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E53">
         <v>1</v>
@@ -3759,20 +3765,20 @@
       </c>
       <c r="G53" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_CZ2BG_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201805_CZ2BG_CommissionSummary.pdf</v>
       </c>
       <c r="H53" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_CZ2BG_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201805_CZ2BG_CommissionDetail.pdf</v>
       </c>
       <c r="K53" t="s">
         <v>176</v>
       </c>
       <c r="L53" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="M53" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
     </row>
     <row r="54" spans="2:13" x14ac:dyDescent="0.25">
@@ -3783,7 +3789,7 @@
         <v>170</v>
       </c>
       <c r="D54" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E54">
         <v>1</v>
@@ -3793,20 +3799,20 @@
       </c>
       <c r="G54" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_CZ1SA_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201805_CZ1SA_CommissionSummary.pdf</v>
       </c>
       <c r="H54" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_CZ1SA_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201805_CZ1SA_CommissionDetail.pdf</v>
       </c>
       <c r="K54" t="s">
         <v>176</v>
       </c>
       <c r="L54" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="M54" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
     </row>
     <row r="55" spans="2:13" x14ac:dyDescent="0.25">
@@ -3817,7 +3823,7 @@
         <v>170</v>
       </c>
       <c r="D55" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E55">
         <v>1</v>
@@ -3827,20 +3833,20 @@
       </c>
       <c r="G55" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_WZ115_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201805_WZ115_CommissionSummary.pdf</v>
       </c>
       <c r="H55" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_WZ115_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201805_WZ115_CommissionDetail.pdf</v>
       </c>
       <c r="K55" t="s">
         <v>176</v>
       </c>
       <c r="L55" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="M55" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
     </row>
     <row r="56" spans="2:13" x14ac:dyDescent="0.25">
@@ -3851,7 +3857,7 @@
         <v>170</v>
       </c>
       <c r="D56" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E56">
         <v>1</v>
@@ -3861,20 +3867,20 @@
       </c>
       <c r="G56" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_WZ120_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201805_WZ120_CommissionSummary.pdf</v>
       </c>
       <c r="H56" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_WZ120_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201805_WZ120_CommissionDetail.pdf</v>
       </c>
       <c r="K56" t="s">
         <v>176</v>
       </c>
       <c r="L56" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="M56" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="57" spans="2:13" x14ac:dyDescent="0.25">
@@ -3885,7 +3891,7 @@
         <v>170</v>
       </c>
       <c r="D57" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E57">
         <v>1</v>
@@ -3895,20 +3901,20 @@
       </c>
       <c r="G57" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_WZ118_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201805_WZ118_CommissionSummary.pdf</v>
       </c>
       <c r="H57" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_WZ118_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201805_WZ118_CommissionDetail.pdf</v>
       </c>
       <c r="K57" t="s">
         <v>176</v>
       </c>
       <c r="L57" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="M57" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
     </row>
     <row r="58" spans="2:13" x14ac:dyDescent="0.25">
@@ -3919,7 +3925,7 @@
         <v>170</v>
       </c>
       <c r="D58" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E58">
         <v>1</v>
@@ -3929,20 +3935,20 @@
       </c>
       <c r="G58" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_WZ119_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201805_WZ119_CommissionSummary.pdf</v>
       </c>
       <c r="H58" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_WZ119_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201805_WZ119_CommissionDetail.pdf</v>
       </c>
       <c r="K58" t="s">
         <v>176</v>
       </c>
       <c r="L58" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="M58" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
     </row>
     <row r="59" spans="2:13" x14ac:dyDescent="0.25">
@@ -3953,7 +3959,7 @@
         <v>170</v>
       </c>
       <c r="D59" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E59">
         <v>1</v>
@@ -3963,20 +3969,20 @@
       </c>
       <c r="G59" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_WZ138_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201805_WZ138_CommissionSummary.pdf</v>
       </c>
       <c r="H59" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_WZ138_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201805_WZ138_CommissionDetail.pdf</v>
       </c>
       <c r="K59" t="s">
         <v>176</v>
       </c>
       <c r="L59" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="M59" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
     </row>
     <row r="60" spans="2:13" x14ac:dyDescent="0.25">
@@ -3987,7 +3993,7 @@
         <v>170</v>
       </c>
       <c r="D60" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E60">
         <v>1</v>
@@ -3997,20 +4003,20 @@
       </c>
       <c r="G60" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_WZ142_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201805_WZ142_CommissionSummary.pdf</v>
       </c>
       <c r="H60" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_WZ142_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201805_WZ142_CommissionDetail.pdf</v>
       </c>
       <c r="K60" t="s">
         <v>176</v>
       </c>
       <c r="L60" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="M60" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="61" spans="2:13" x14ac:dyDescent="0.25">
@@ -4021,7 +4027,7 @@
         <v>170</v>
       </c>
       <c r="D61" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E61">
         <v>1</v>
@@ -4031,20 +4037,20 @@
       </c>
       <c r="G61" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_WZ134_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201805_WZ134_CommissionSummary.pdf</v>
       </c>
       <c r="H61" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_WZ134_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201805_WZ134_CommissionDetail.pdf</v>
       </c>
       <c r="K61" t="s">
         <v>176</v>
       </c>
       <c r="L61" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="M61" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
     </row>
     <row r="62" spans="2:13" x14ac:dyDescent="0.25">
@@ -4055,7 +4061,7 @@
         <v>170</v>
       </c>
       <c r="D62" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E62">
         <v>1</v>
@@ -4065,20 +4071,20 @@
       </c>
       <c r="G62" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_WZ123_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201805_WZ123_CommissionSummary.pdf</v>
       </c>
       <c r="H62" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_WZ123_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201805_WZ123_CommissionDetail.pdf</v>
       </c>
       <c r="K62" t="s">
         <v>176</v>
       </c>
       <c r="L62" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="M62" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
     </row>
     <row r="63" spans="2:13" x14ac:dyDescent="0.25">
@@ -4089,7 +4095,7 @@
         <v>170</v>
       </c>
       <c r="D63" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E63">
         <v>1</v>
@@ -4099,20 +4105,20 @@
       </c>
       <c r="G63" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_WZ136_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201805_WZ136_CommissionSummary.pdf</v>
       </c>
       <c r="H63" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_WZ136_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201805_WZ136_CommissionDetail.pdf</v>
       </c>
       <c r="K63" t="s">
         <v>176</v>
       </c>
       <c r="L63" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="M63" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
     </row>
     <row r="64" spans="2:13" x14ac:dyDescent="0.25">
@@ -4123,7 +4129,7 @@
         <v>170</v>
       </c>
       <c r="D64" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E64">
         <v>1</v>
@@ -4133,20 +4139,20 @@
       </c>
       <c r="G64" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_WZ165_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201805_WZ165_CommissionSummary.pdf</v>
       </c>
       <c r="H64" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_WZ165_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201805_WZ165_CommissionDetail.pdf</v>
       </c>
       <c r="K64" t="s">
         <v>176</v>
       </c>
       <c r="L64" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="M64" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
     </row>
     <row r="65" spans="2:13" x14ac:dyDescent="0.25">
@@ -4157,7 +4163,7 @@
         <v>170</v>
       </c>
       <c r="D65" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E65">
         <v>1</v>
@@ -4167,20 +4173,20 @@
       </c>
       <c r="G65" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_WZ1FF_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201805_WZ1FF_CommissionSummary.pdf</v>
       </c>
       <c r="H65" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_WZ1FF_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201805_WZ1FF_CommissionDetail.pdf</v>
       </c>
       <c r="K65" t="s">
         <v>176</v>
       </c>
       <c r="L65" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="M65" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="66" spans="2:13" x14ac:dyDescent="0.25">
@@ -4191,7 +4197,7 @@
         <v>170</v>
       </c>
       <c r="D66" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E66">
         <v>1</v>
@@ -4201,20 +4207,20 @@
       </c>
       <c r="G66" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_WZ167_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201805_WZ167_CommissionSummary.pdf</v>
       </c>
       <c r="H66" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_WZ167_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201805_WZ167_CommissionDetail.pdf</v>
       </c>
       <c r="K66" t="s">
         <v>176</v>
       </c>
       <c r="L66" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="M66" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
     </row>
     <row r="67" spans="2:13" x14ac:dyDescent="0.25">
@@ -4225,7 +4231,7 @@
         <v>170</v>
       </c>
       <c r="D67" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E67">
         <v>1</v>
@@ -4235,20 +4241,20 @@
       </c>
       <c r="G67" t="str">
         <f t="shared" ref="G67:G130" si="2">$K67&amp;"\"&amp;L67</f>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_WZ175_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201805_WZ175_CommissionSummary.pdf</v>
       </c>
       <c r="H67" t="str">
         <f t="shared" ref="H67:H130" si="3">$K67&amp;"\"&amp;M67</f>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_WZ175_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201805_WZ175_CommissionDetail.pdf</v>
       </c>
       <c r="K67" t="s">
         <v>176</v>
       </c>
       <c r="L67" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="M67" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
     </row>
     <row r="68" spans="2:13" x14ac:dyDescent="0.25">
@@ -4259,7 +4265,7 @@
         <v>170</v>
       </c>
       <c r="D68" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E68">
         <v>1</v>
@@ -4269,20 +4275,20 @@
       </c>
       <c r="G68" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_WZ177_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201805_WZ177_CommissionSummary.pdf</v>
       </c>
       <c r="H68" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_WZ177_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201805_WZ177_CommissionDetail.pdf</v>
       </c>
       <c r="K68" t="s">
         <v>176</v>
       </c>
       <c r="L68" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="M68" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
     </row>
     <row r="69" spans="2:13" x14ac:dyDescent="0.25">
@@ -4293,7 +4299,7 @@
         <v>170</v>
       </c>
       <c r="D69" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E69">
         <v>1</v>
@@ -4303,20 +4309,20 @@
       </c>
       <c r="G69" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_WZ143_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201805_WZ143_CommissionSummary.pdf</v>
       </c>
       <c r="H69" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_WZ143_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201805_WZ143_CommissionDetail.pdf</v>
       </c>
       <c r="K69" t="s">
         <v>176</v>
       </c>
       <c r="L69" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="M69" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="70" spans="2:13" x14ac:dyDescent="0.25">
@@ -4327,7 +4333,7 @@
         <v>170</v>
       </c>
       <c r="D70" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E70">
         <v>1</v>
@@ -4337,20 +4343,20 @@
       </c>
       <c r="G70" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_WZ159_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201805_WZ159_CommissionSummary.pdf</v>
       </c>
       <c r="H70" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_WZ159_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201805_WZ159_CommissionDetail.pdf</v>
       </c>
       <c r="K70" t="s">
         <v>176</v>
       </c>
       <c r="L70" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="M70" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="71" spans="2:13" x14ac:dyDescent="0.25">
@@ -4361,7 +4367,7 @@
         <v>170</v>
       </c>
       <c r="D71" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E71">
         <v>1</v>
@@ -4371,20 +4377,20 @@
       </c>
       <c r="G71" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_WZ162_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201805_WZ162_CommissionSummary.pdf</v>
       </c>
       <c r="H71" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_WZ162_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201805_WZ162_CommissionDetail.pdf</v>
       </c>
       <c r="K71" t="s">
         <v>176</v>
       </c>
       <c r="L71" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="M71" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="72" spans="2:13" x14ac:dyDescent="0.25">
@@ -4395,7 +4401,7 @@
         <v>170</v>
       </c>
       <c r="D72" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E72">
         <v>1</v>
@@ -4405,20 +4411,20 @@
       </c>
       <c r="G72" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_WZ113_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201805_WZ113_CommissionSummary.pdf</v>
       </c>
       <c r="H72" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_WZ113_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201805_WZ113_CommissionDetail.pdf</v>
       </c>
       <c r="K72" t="s">
         <v>176</v>
       </c>
       <c r="L72" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="M72" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="73" spans="2:13" x14ac:dyDescent="0.25">
@@ -4429,7 +4435,7 @@
         <v>170</v>
       </c>
       <c r="D73" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E73">
         <v>1</v>
@@ -4439,20 +4445,20 @@
       </c>
       <c r="G73" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_WZ137_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201805_WZ137_CommissionSummary.pdf</v>
       </c>
       <c r="H73" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_WZ137_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201805_WZ137_CommissionDetail.pdf</v>
       </c>
       <c r="K73" t="s">
         <v>176</v>
       </c>
       <c r="L73" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="M73" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
     </row>
     <row r="74" spans="2:13" x14ac:dyDescent="0.25">
@@ -4463,7 +4469,7 @@
         <v>170</v>
       </c>
       <c r="D74" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E74">
         <v>1</v>
@@ -4473,20 +4479,20 @@
       </c>
       <c r="G74" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_WZ1G4_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201805_WZ1G4_CommissionSummary.pdf</v>
       </c>
       <c r="H74" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_WZ1G4_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201805_WZ1G4_CommissionDetail.pdf</v>
       </c>
       <c r="K74" t="s">
         <v>176</v>
       </c>
       <c r="L74" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="M74" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
     </row>
     <row r="75" spans="2:13" x14ac:dyDescent="0.25">
@@ -4497,7 +4503,7 @@
         <v>170</v>
       </c>
       <c r="D75" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E75">
         <v>1</v>
@@ -4507,20 +4513,20 @@
       </c>
       <c r="G75" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_WZBW1_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201805_WZBW1_CommissionSummary.pdf</v>
       </c>
       <c r="H75" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_WZBW1_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201805_WZBW1_CommissionDetail.pdf</v>
       </c>
       <c r="K75" t="s">
         <v>176</v>
       </c>
       <c r="L75" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="M75" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
     </row>
     <row r="76" spans="2:13" x14ac:dyDescent="0.25">
@@ -4531,7 +4537,7 @@
         <v>170</v>
       </c>
       <c r="D76" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E76">
         <v>1</v>
@@ -4541,20 +4547,20 @@
       </c>
       <c r="G76" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_WZ9TS_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201805_WZ9TS_CommissionSummary.pdf</v>
       </c>
       <c r="H76" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_WZ9TS_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201805_WZ9TS_CommissionDetail.pdf</v>
       </c>
       <c r="K76" t="s">
         <v>176</v>
       </c>
       <c r="L76" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="M76" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
     </row>
     <row r="77" spans="2:13" x14ac:dyDescent="0.25">
@@ -4565,7 +4571,7 @@
         <v>170</v>
       </c>
       <c r="D77" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E77">
         <v>1</v>
@@ -4575,20 +4581,20 @@
       </c>
       <c r="G77" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_WZ1HM_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201805_WZ1HM_CommissionSummary.pdf</v>
       </c>
       <c r="H77" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_WZ1HM_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201805_WZ1HM_CommissionDetail.pdf</v>
       </c>
       <c r="K77" t="s">
         <v>176</v>
       </c>
       <c r="L77" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="M77" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
     </row>
     <row r="78" spans="2:13" x14ac:dyDescent="0.25">
@@ -4599,7 +4605,7 @@
         <v>170</v>
       </c>
       <c r="D78" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E78">
         <v>1</v>
@@ -4609,20 +4615,20 @@
       </c>
       <c r="G78" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_WZ1HM_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201805_WZ1HM_CommissionSummary.pdf</v>
       </c>
       <c r="H78" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_WZ1HM_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201805_WZ1HM_CommissionDetail.pdf</v>
       </c>
       <c r="K78" t="s">
         <v>176</v>
       </c>
       <c r="L78" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="M78" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
     </row>
     <row r="79" spans="2:13" x14ac:dyDescent="0.25">
@@ -4633,7 +4639,7 @@
         <v>170</v>
       </c>
       <c r="D79" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E79">
         <v>1</v>
@@ -4643,20 +4649,20 @@
       </c>
       <c r="G79" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_WZ2RP_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201805_WZ2RP_CommissionSummary.pdf</v>
       </c>
       <c r="H79" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_WZ2RP_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201805_WZ2RP_CommissionDetail.pdf</v>
       </c>
       <c r="K79" t="s">
         <v>176</v>
       </c>
       <c r="L79" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="M79" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
     </row>
     <row r="80" spans="2:13" x14ac:dyDescent="0.25">
@@ -4667,7 +4673,7 @@
         <v>170</v>
       </c>
       <c r="D80" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E80">
         <v>1</v>
@@ -4677,20 +4683,20 @@
       </c>
       <c r="G80" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_WZ1TT_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201805_WZ1TT_CommissionSummary.pdf</v>
       </c>
       <c r="H80" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_WZ1TT_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201805_WZ1TT_CommissionDetail.pdf</v>
       </c>
       <c r="K80" t="s">
         <v>176</v>
       </c>
       <c r="L80" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="M80" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
     </row>
     <row r="81" spans="2:13" x14ac:dyDescent="0.25">
@@ -4701,7 +4707,7 @@
         <v>170</v>
       </c>
       <c r="D81" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E81">
         <v>1</v>
@@ -4711,20 +4717,20 @@
       </c>
       <c r="G81" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_WZ1AM_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201805_WZ1AM_CommissionSummary.pdf</v>
       </c>
       <c r="H81" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_WZ1AM_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201805_WZ1AM_CommissionDetail.pdf</v>
       </c>
       <c r="K81" t="s">
         <v>176</v>
       </c>
       <c r="L81" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="M81" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
     </row>
     <row r="82" spans="2:13" x14ac:dyDescent="0.25">
@@ -4735,7 +4741,7 @@
         <v>170</v>
       </c>
       <c r="D82" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E82">
         <v>1</v>
@@ -4745,20 +4751,20 @@
       </c>
       <c r="G82" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_WZ1JW_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201805_WZ1JW_CommissionSummary.pdf</v>
       </c>
       <c r="H82" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_WZ1JW_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201805_WZ1JW_CommissionDetail.pdf</v>
       </c>
       <c r="K82" t="s">
         <v>176</v>
       </c>
       <c r="L82" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="M82" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
     </row>
     <row r="83" spans="2:13" x14ac:dyDescent="0.25">
@@ -4769,7 +4775,7 @@
         <v>170</v>
       </c>
       <c r="D83" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E83">
         <v>1</v>
@@ -4779,20 +4785,20 @@
       </c>
       <c r="G83" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_WZ1MH_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201805_WZ1MH_CommissionSummary.pdf</v>
       </c>
       <c r="H83" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_WZ1MH_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201805_WZ1MH_CommissionDetail.pdf</v>
       </c>
       <c r="K83" t="s">
         <v>176</v>
       </c>
       <c r="L83" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="M83" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
     </row>
     <row r="84" spans="2:13" x14ac:dyDescent="0.25">
@@ -4803,7 +4809,7 @@
         <v>170</v>
       </c>
       <c r="D84" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E84">
         <v>1</v>
@@ -4813,20 +4819,20 @@
       </c>
       <c r="G84" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_WZ1TM_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201805_WZ1TM_CommissionSummary.pdf</v>
       </c>
       <c r="H84" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_WZ1TM_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201805_WZ1TM_CommissionDetail.pdf</v>
       </c>
       <c r="K84" t="s">
         <v>176</v>
       </c>
       <c r="L84" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="M84" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
     </row>
     <row r="85" spans="2:13" x14ac:dyDescent="0.25">
@@ -4837,7 +4843,7 @@
         <v>170</v>
       </c>
       <c r="D85" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E85">
         <v>1</v>
@@ -4847,20 +4853,20 @@
       </c>
       <c r="G85" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_WZ1SC_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201805_WZ1SC_CommissionSummary.pdf</v>
       </c>
       <c r="H85" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_WZ1SC_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201805_WZ1SC_CommissionDetail.pdf</v>
       </c>
       <c r="K85" t="s">
         <v>176</v>
       </c>
       <c r="L85" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="M85" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
     </row>
     <row r="86" spans="2:13" x14ac:dyDescent="0.25">
@@ -4871,7 +4877,7 @@
         <v>170</v>
       </c>
       <c r="D86" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E86">
         <v>1</v>
@@ -4881,20 +4887,20 @@
       </c>
       <c r="G86" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_WZ1PB_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201805_WZ1PB_CommissionSummary.pdf</v>
       </c>
       <c r="H86" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_WZ1PB_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201805_WZ1PB_CommissionDetail.pdf</v>
       </c>
       <c r="K86" t="s">
         <v>176</v>
       </c>
       <c r="L86" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="M86" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
     </row>
     <row r="87" spans="2:13" x14ac:dyDescent="0.25">
@@ -4905,7 +4911,7 @@
         <v>170</v>
       </c>
       <c r="D87" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E87">
         <v>1</v>
@@ -4915,20 +4921,20 @@
       </c>
       <c r="G87" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_WZ1JN_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201805_WZ1JN_CommissionSummary.pdf</v>
       </c>
       <c r="H87" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_WZ1JN_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201805_WZ1JN_CommissionDetail.pdf</v>
       </c>
       <c r="K87" t="s">
         <v>176</v>
       </c>
       <c r="L87" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="M87" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
     </row>
     <row r="88" spans="2:13" x14ac:dyDescent="0.25">
@@ -4939,7 +4945,7 @@
         <v>170</v>
       </c>
       <c r="D88" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E88">
         <v>1</v>
@@ -4949,20 +4955,20 @@
       </c>
       <c r="G88" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_WZ1MK_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201805_WZ1MK_CommissionSummary.pdf</v>
       </c>
       <c r="H88" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_WZ1MK_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201805_WZ1MK_CommissionDetail.pdf</v>
       </c>
       <c r="K88" t="s">
         <v>176</v>
       </c>
       <c r="L88" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="M88" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
     </row>
     <row r="89" spans="2:13" x14ac:dyDescent="0.25">
@@ -4973,7 +4979,7 @@
         <v>170</v>
       </c>
       <c r="D89" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E89">
         <v>1</v>
@@ -4983,20 +4989,20 @@
       </c>
       <c r="G89" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_WZ1CA_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201805_WZ1CA_CommissionSummary.pdf</v>
       </c>
       <c r="H89" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_WZ1CA_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201805_WZ1CA_CommissionDetail.pdf</v>
       </c>
       <c r="K89" t="s">
         <v>176</v>
       </c>
       <c r="L89" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="M89" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
     </row>
     <row r="90" spans="2:13" x14ac:dyDescent="0.25">
@@ -5007,7 +5013,7 @@
         <v>170</v>
       </c>
       <c r="D90" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E90">
         <v>1</v>
@@ -5017,20 +5023,20 @@
       </c>
       <c r="G90" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_WZ2TM_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201805_WZ2TM_CommissionSummary.pdf</v>
       </c>
       <c r="H90" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_WZ2TM_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201805_WZ2TM_CommissionDetail.pdf</v>
       </c>
       <c r="K90" t="s">
         <v>176</v>
       </c>
       <c r="L90" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="M90" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
     </row>
     <row r="91" spans="2:13" x14ac:dyDescent="0.25">
@@ -5041,7 +5047,7 @@
         <v>170</v>
       </c>
       <c r="D91" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E91">
         <v>1</v>
@@ -5051,20 +5057,20 @@
       </c>
       <c r="G91" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_WZ1BC_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201805_WZ1BC_CommissionSummary.pdf</v>
       </c>
       <c r="H91" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_WZ1BC_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201805_WZ1BC_CommissionDetail.pdf</v>
       </c>
       <c r="K91" t="s">
         <v>176</v>
       </c>
       <c r="L91" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="M91" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
     </row>
     <row r="92" spans="2:13" x14ac:dyDescent="0.25">
@@ -5075,7 +5081,7 @@
         <v>170</v>
       </c>
       <c r="D92" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E92">
         <v>1</v>
@@ -5085,20 +5091,20 @@
       </c>
       <c r="G92" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_WZ1JL_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201805_WZ1JL_CommissionSummary.pdf</v>
       </c>
       <c r="H92" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_WZ1JL_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201805_WZ1JL_CommissionDetail.pdf</v>
       </c>
       <c r="K92" t="s">
         <v>176</v>
       </c>
       <c r="L92" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="M92" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
     </row>
     <row r="93" spans="2:13" x14ac:dyDescent="0.25">
@@ -5109,7 +5115,7 @@
         <v>170</v>
       </c>
       <c r="D93" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E93">
         <v>1</v>
@@ -5119,20 +5125,20 @@
       </c>
       <c r="G93" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_WZ1AL_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201805_WZ1AL_CommissionSummary.pdf</v>
       </c>
       <c r="H93" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_WZ1AL_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201805_WZ1AL_CommissionDetail.pdf</v>
       </c>
       <c r="K93" t="s">
         <v>176</v>
       </c>
       <c r="L93" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="M93" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
     </row>
     <row r="94" spans="2:13" x14ac:dyDescent="0.25">
@@ -5143,7 +5149,7 @@
         <v>170</v>
       </c>
       <c r="D94" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E94">
         <v>1</v>
@@ -5153,20 +5159,20 @@
       </c>
       <c r="G94" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_WZ1MW_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201805_WZ1MW_CommissionSummary.pdf</v>
       </c>
       <c r="H94" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_WZ1MW_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201805_WZ1MW_CommissionDetail.pdf</v>
       </c>
       <c r="K94" t="s">
         <v>176</v>
       </c>
       <c r="L94" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="M94" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
     </row>
     <row r="95" spans="2:13" x14ac:dyDescent="0.25">
@@ -5177,7 +5183,7 @@
         <v>170</v>
       </c>
       <c r="D95" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E95">
         <v>1</v>
@@ -5187,20 +5193,20 @@
       </c>
       <c r="G95" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_WZ1MS_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201805_WZ1MS_CommissionSummary.pdf</v>
       </c>
       <c r="H95" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_WZ1MS_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201805_WZ1MS_CommissionDetail.pdf</v>
       </c>
       <c r="K95" t="s">
         <v>176</v>
       </c>
       <c r="L95" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="M95" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
     </row>
     <row r="96" spans="2:13" x14ac:dyDescent="0.25">
@@ -5211,7 +5217,7 @@
         <v>170</v>
       </c>
       <c r="D96" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E96">
         <v>1</v>
@@ -5221,20 +5227,20 @@
       </c>
       <c r="G96" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_WZ1DF_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201805_WZ1DF_CommissionSummary.pdf</v>
       </c>
       <c r="H96" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_WZ1DF_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201805_WZ1DF_CommissionDetail.pdf</v>
       </c>
       <c r="K96" t="s">
         <v>176</v>
       </c>
       <c r="L96" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="M96" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
     </row>
     <row r="97" spans="2:13" x14ac:dyDescent="0.25">
@@ -5245,7 +5251,7 @@
         <v>170</v>
       </c>
       <c r="D97" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E97">
         <v>1</v>
@@ -5255,20 +5261,20 @@
       </c>
       <c r="G97" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_WZ1JI_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201805_WZ1JI_CommissionSummary.pdf</v>
       </c>
       <c r="H97" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_WZ1JI_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201805_WZ1JI_CommissionDetail.pdf</v>
       </c>
       <c r="K97" t="s">
         <v>176</v>
       </c>
       <c r="L97" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="M97" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
     </row>
     <row r="98" spans="2:13" x14ac:dyDescent="0.25">
@@ -5279,7 +5285,7 @@
         <v>170</v>
       </c>
       <c r="D98" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E98">
         <v>1</v>
@@ -5289,20 +5295,20 @@
       </c>
       <c r="G98" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_WZ1CM_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201805_WZ1CM_CommissionSummary.pdf</v>
       </c>
       <c r="H98" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_WZ1CM_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201805_WZ1CM_CommissionDetail.pdf</v>
       </c>
       <c r="K98" t="s">
         <v>176</v>
       </c>
       <c r="L98" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="M98" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
     </row>
     <row r="99" spans="2:13" x14ac:dyDescent="0.25">
@@ -5313,7 +5319,7 @@
         <v>170</v>
       </c>
       <c r="D99" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E99">
         <v>1</v>
@@ -5323,20 +5329,20 @@
       </c>
       <c r="G99" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_WZ2MS_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201805_WZ2MS_CommissionSummary.pdf</v>
       </c>
       <c r="H99" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_WZ2MS_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201805_WZ2MS_CommissionDetail.pdf</v>
       </c>
       <c r="K99" t="s">
         <v>176</v>
       </c>
       <c r="L99" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="M99" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
     </row>
     <row r="100" spans="2:13" x14ac:dyDescent="0.25">
@@ -5347,7 +5353,7 @@
         <v>170</v>
       </c>
       <c r="D100" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E100">
         <v>1</v>
@@ -5357,20 +5363,20 @@
       </c>
       <c r="G100" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_WZ2JN_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201805_WZ2JN_CommissionSummary.pdf</v>
       </c>
       <c r="H100" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_WZ2JN_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201805_WZ2JN_CommissionDetail.pdf</v>
       </c>
       <c r="K100" t="s">
         <v>176</v>
       </c>
       <c r="L100" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="M100" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
     </row>
     <row r="101" spans="2:13" x14ac:dyDescent="0.25">
@@ -5381,7 +5387,7 @@
         <v>170</v>
       </c>
       <c r="D101" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E101">
         <v>1</v>
@@ -5391,20 +5397,20 @@
       </c>
       <c r="G101" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_CZ1RD_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201805_CZ1RD_CommissionSummary.pdf</v>
       </c>
       <c r="H101" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_CZ1RD_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201805_CZ1RD_CommissionDetail.pdf</v>
       </c>
       <c r="K101" t="s">
         <v>176</v>
       </c>
       <c r="L101" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="M101" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
     </row>
     <row r="102" spans="2:13" x14ac:dyDescent="0.25">
@@ -5415,7 +5421,7 @@
         <v>170</v>
       </c>
       <c r="D102" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E102">
         <v>1</v>
@@ -5425,20 +5431,20 @@
       </c>
       <c r="G102" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_CZ1GF_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201805_CZ1GF_CommissionSummary.pdf</v>
       </c>
       <c r="H102" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_CZ1GF_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201805_CZ1GF_CommissionDetail.pdf</v>
       </c>
       <c r="K102" t="s">
         <v>176</v>
       </c>
       <c r="L102" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="M102" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
     </row>
     <row r="103" spans="2:13" x14ac:dyDescent="0.25">
@@ -5449,7 +5455,7 @@
         <v>170</v>
       </c>
       <c r="D103" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E103">
         <v>1</v>
@@ -5459,20 +5465,20 @@
       </c>
       <c r="G103" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_QZ1BP_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201805_QZ1BP_CommissionSummary.pdf</v>
       </c>
       <c r="H103" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_QZ1BP_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201805_QZ1BP_CommissionDetail.pdf</v>
       </c>
       <c r="K103" t="s">
         <v>176</v>
       </c>
       <c r="L103" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="M103" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
     </row>
     <row r="104" spans="2:13" x14ac:dyDescent="0.25">
@@ -5483,7 +5489,7 @@
         <v>170</v>
       </c>
       <c r="D104" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E104">
         <v>1</v>
@@ -5493,20 +5499,20 @@
       </c>
       <c r="G104" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_CZ1JF_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201805_CZ1JF_CommissionSummary.pdf</v>
       </c>
       <c r="H104" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_CZ1JF_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201805_CZ1JF_CommissionDetail.pdf</v>
       </c>
       <c r="K104" t="s">
         <v>176</v>
       </c>
       <c r="L104" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="M104" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
     </row>
     <row r="105" spans="2:13" x14ac:dyDescent="0.25">
@@ -5517,7 +5523,7 @@
         <v>170</v>
       </c>
       <c r="D105" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E105">
         <v>1</v>
@@ -5527,20 +5533,20 @@
       </c>
       <c r="G105" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_AZ1CI_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201805_AZ1CI_CommissionSummary.pdf</v>
       </c>
       <c r="H105" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_AZ1CI_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201805_AZ1CI_CommissionDetail.pdf</v>
       </c>
       <c r="K105" t="s">
         <v>176</v>
       </c>
       <c r="L105" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="M105" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
     </row>
     <row r="106" spans="2:13" x14ac:dyDescent="0.25">
@@ -5551,7 +5557,7 @@
         <v>170</v>
       </c>
       <c r="D106" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E106">
         <v>1</v>
@@ -5561,20 +5567,20 @@
       </c>
       <c r="G106" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_CZ1KM_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201805_CZ1KM_CommissionSummary.pdf</v>
       </c>
       <c r="H106" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_CZ1KM_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201805_CZ1KM_CommissionDetail.pdf</v>
       </c>
       <c r="K106" t="s">
         <v>176</v>
       </c>
       <c r="L106" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="M106" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
     </row>
     <row r="107" spans="2:13" x14ac:dyDescent="0.25">
@@ -5585,7 +5591,7 @@
         <v>170</v>
       </c>
       <c r="D107" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E107">
         <v>1</v>
@@ -5595,20 +5601,20 @@
       </c>
       <c r="G107" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_CZ1OV_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201805_CZ1OV_CommissionSummary.pdf</v>
       </c>
       <c r="H107" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_CZ1OV_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201805_CZ1OV_CommissionDetail.pdf</v>
       </c>
       <c r="K107" t="s">
         <v>176</v>
       </c>
       <c r="L107" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="M107" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="108" spans="2:13" x14ac:dyDescent="0.25">
@@ -5619,7 +5625,7 @@
         <v>170</v>
       </c>
       <c r="D108" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E108">
         <v>1</v>
@@ -5629,20 +5635,20 @@
       </c>
       <c r="G108" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_QZ1JB_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201805_QZ1JB_CommissionSummary.pdf</v>
       </c>
       <c r="H108" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_QZ1JB_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201805_QZ1JB_CommissionDetail.pdf</v>
       </c>
       <c r="K108" t="s">
         <v>176</v>
       </c>
       <c r="L108" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="M108" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
     </row>
     <row r="109" spans="2:13" x14ac:dyDescent="0.25">
@@ -5653,7 +5659,7 @@
         <v>170</v>
       </c>
       <c r="D109" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E109">
         <v>1</v>
@@ -5663,20 +5669,20 @@
       </c>
       <c r="G109" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_QZ1BG_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201805_QZ1BG_CommissionSummary.pdf</v>
       </c>
       <c r="H109" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_QZ1BG_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201805_QZ1BG_CommissionDetail.pdf</v>
       </c>
       <c r="K109" t="s">
         <v>176</v>
       </c>
       <c r="L109" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="M109" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="110" spans="2:13" x14ac:dyDescent="0.25">
@@ -5687,7 +5693,7 @@
         <v>170</v>
       </c>
       <c r="D110" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E110">
         <v>1</v>
@@ -5697,20 +5703,20 @@
       </c>
       <c r="G110" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_CZ1TM_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201805_CZ1TM_CommissionSummary.pdf</v>
       </c>
       <c r="H110" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_CZ1TM_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201805_CZ1TM_CommissionDetail.pdf</v>
       </c>
       <c r="K110" t="s">
         <v>176</v>
       </c>
       <c r="L110" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="M110" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
     </row>
     <row r="111" spans="2:13" x14ac:dyDescent="0.25">
@@ -5721,7 +5727,7 @@
         <v>170</v>
       </c>
       <c r="D111" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E111">
         <v>1</v>
@@ -5731,20 +5737,20 @@
       </c>
       <c r="G111" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_QZ177_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201805_QZ177_CommissionSummary.pdf</v>
       </c>
       <c r="H111" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_QZ177_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201805_QZ177_CommissionDetail.pdf</v>
       </c>
       <c r="K111" t="s">
         <v>176</v>
       </c>
       <c r="L111" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="M111" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
     </row>
     <row r="112" spans="2:13" x14ac:dyDescent="0.25">
@@ -5755,7 +5761,7 @@
         <v>170</v>
       </c>
       <c r="D112" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E112">
         <v>1</v>
@@ -5765,20 +5771,20 @@
       </c>
       <c r="G112" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_QZ1BM_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201805_QZ1BM_CommissionSummary.pdf</v>
       </c>
       <c r="H112" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_QZ1BM_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201805_QZ1BM_CommissionDetail.pdf</v>
       </c>
       <c r="K112" t="s">
         <v>176</v>
       </c>
       <c r="L112" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="M112" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
     </row>
     <row r="113" spans="2:13" x14ac:dyDescent="0.25">
@@ -5789,7 +5795,7 @@
         <v>170</v>
       </c>
       <c r="D113" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E113">
         <v>1</v>
@@ -5799,20 +5805,20 @@
       </c>
       <c r="G113" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_QZ1MD_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201805_QZ1MD_CommissionSummary.pdf</v>
       </c>
       <c r="H113" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_QZ1MD_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201805_QZ1MD_CommissionDetail.pdf</v>
       </c>
       <c r="K113" t="s">
         <v>176</v>
       </c>
       <c r="L113" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="M113" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
     </row>
     <row r="114" spans="2:13" x14ac:dyDescent="0.25">
@@ -5823,7 +5829,7 @@
         <v>170</v>
       </c>
       <c r="D114" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E114">
         <v>1</v>
@@ -5833,20 +5839,20 @@
       </c>
       <c r="G114" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_AZ1JB_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201805_AZ1JB_CommissionSummary.pdf</v>
       </c>
       <c r="H114" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_AZ1JB_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201805_AZ1JB_CommissionDetail.pdf</v>
       </c>
       <c r="K114" t="s">
         <v>176</v>
       </c>
       <c r="L114" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="M114" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
     </row>
     <row r="115" spans="2:13" x14ac:dyDescent="0.25">
@@ -5857,7 +5863,7 @@
         <v>170</v>
       </c>
       <c r="D115" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E115">
         <v>1</v>
@@ -5867,20 +5873,20 @@
       </c>
       <c r="G115" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_CZ1AD_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201805_CZ1AD_CommissionSummary.pdf</v>
       </c>
       <c r="H115" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_CZ1AD_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201805_CZ1AD_CommissionDetail.pdf</v>
       </c>
       <c r="K115" t="s">
         <v>176</v>
       </c>
       <c r="L115" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="M115" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
     </row>
     <row r="116" spans="2:13" x14ac:dyDescent="0.25">
@@ -5891,7 +5897,7 @@
         <v>170</v>
       </c>
       <c r="D116" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E116">
         <v>1</v>
@@ -5901,20 +5907,20 @@
       </c>
       <c r="G116" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_QZ1ML_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201805_QZ1ML_CommissionSummary.pdf</v>
       </c>
       <c r="H116" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_QZ1ML_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201805_QZ1ML_CommissionDetail.pdf</v>
       </c>
       <c r="K116" t="s">
         <v>176</v>
       </c>
       <c r="L116" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="M116" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
     </row>
     <row r="117" spans="2:13" x14ac:dyDescent="0.25">
@@ -5925,7 +5931,7 @@
         <v>170</v>
       </c>
       <c r="D117" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E117">
         <v>1</v>
@@ -5935,20 +5941,20 @@
       </c>
       <c r="G117" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_CZ1FA_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201805_CZ1FA_CommissionSummary.pdf</v>
       </c>
       <c r="H117" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_CZ1FA_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201805_CZ1FA_CommissionDetail.pdf</v>
       </c>
       <c r="K117" t="s">
         <v>176</v>
       </c>
       <c r="L117" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="M117" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
     </row>
     <row r="118" spans="2:13" x14ac:dyDescent="0.25">
@@ -5959,7 +5965,7 @@
         <v>170</v>
       </c>
       <c r="D118" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E118">
         <v>1</v>
@@ -5969,20 +5975,20 @@
       </c>
       <c r="G118" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_CZ2SA_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201805_CZ2SA_CommissionSummary.pdf</v>
       </c>
       <c r="H118" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_CZ2SA_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201805_CZ2SA_CommissionDetail.pdf</v>
       </c>
       <c r="K118" t="s">
         <v>176</v>
       </c>
       <c r="L118" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="M118" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
     </row>
     <row r="119" spans="2:13" x14ac:dyDescent="0.25">
@@ -5993,7 +5999,7 @@
         <v>170</v>
       </c>
       <c r="D119" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E119">
         <v>1</v>
@@ -6003,20 +6009,20 @@
       </c>
       <c r="G119" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_QZ1SL_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201805_QZ1SL_CommissionSummary.pdf</v>
       </c>
       <c r="H119" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_QZ1SL_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201805_QZ1SL_CommissionDetail.pdf</v>
       </c>
       <c r="K119" t="s">
         <v>176</v>
       </c>
       <c r="L119" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="M119" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
     </row>
     <row r="120" spans="2:13" x14ac:dyDescent="0.25">
@@ -6027,7 +6033,7 @@
         <v>170</v>
       </c>
       <c r="D120" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E120">
         <v>1</v>
@@ -6037,20 +6043,20 @@
       </c>
       <c r="G120" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_AZ1CM_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201805_AZ1CM_CommissionSummary.pdf</v>
       </c>
       <c r="H120" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_AZ1CM_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201805_AZ1CM_CommissionDetail.pdf</v>
       </c>
       <c r="K120" t="s">
         <v>176</v>
       </c>
       <c r="L120" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="M120" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
     </row>
     <row r="121" spans="2:13" x14ac:dyDescent="0.25">
@@ -6061,7 +6067,7 @@
         <v>170</v>
       </c>
       <c r="D121" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E121">
         <v>1</v>
@@ -6071,20 +6077,20 @@
       </c>
       <c r="G121" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_QZ3JB_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201805_QZ3JB_CommissionSummary.pdf</v>
       </c>
       <c r="H121" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_QZ3JB_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201805_QZ3JB_CommissionDetail.pdf</v>
       </c>
       <c r="K121" t="s">
         <v>176</v>
       </c>
       <c r="L121" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="M121" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
     </row>
     <row r="122" spans="2:13" x14ac:dyDescent="0.25">
@@ -6095,7 +6101,7 @@
         <v>170</v>
       </c>
       <c r="D122" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E122">
         <v>1</v>
@@ -6105,20 +6111,20 @@
       </c>
       <c r="G122" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_CZ1CN_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201805_CZ1CN_CommissionSummary.pdf</v>
       </c>
       <c r="H122" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_CZ1CN_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201805_CZ1CN_CommissionDetail.pdf</v>
       </c>
       <c r="K122" t="s">
         <v>176</v>
       </c>
       <c r="L122" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="M122" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
     </row>
     <row r="123" spans="2:13" x14ac:dyDescent="0.25">
@@ -6129,7 +6135,7 @@
         <v>170</v>
       </c>
       <c r="D123" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E123">
         <v>1</v>
@@ -6139,20 +6145,20 @@
       </c>
       <c r="G123" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_AZ1YU_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201805_AZ1YU_CommissionSummary.pdf</v>
       </c>
       <c r="H123" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_AZ1YU_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201805_AZ1YU_CommissionDetail.pdf</v>
       </c>
       <c r="K123" t="s">
         <v>176</v>
       </c>
       <c r="L123" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="M123" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
     </row>
     <row r="124" spans="2:13" x14ac:dyDescent="0.25">
@@ -6163,7 +6169,7 @@
         <v>170</v>
       </c>
       <c r="D124" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E124">
         <v>1</v>
@@ -6173,20 +6179,20 @@
       </c>
       <c r="G124" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_AZ1WX_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201805_AZ1WX_CommissionSummary.pdf</v>
       </c>
       <c r="H124" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_AZ1WX_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201805_AZ1WX_CommissionDetail.pdf</v>
       </c>
       <c r="K124" t="s">
         <v>176</v>
       </c>
       <c r="L124" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="M124" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="125" spans="2:13" x14ac:dyDescent="0.25">
@@ -6197,7 +6203,7 @@
         <v>170</v>
       </c>
       <c r="D125" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E125">
         <v>1</v>
@@ -6207,20 +6213,20 @@
       </c>
       <c r="G125" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_AZ1XF_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201805_AZ1XF_CommissionSummary.pdf</v>
       </c>
       <c r="H125" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_AZ1XF_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201805_AZ1XF_CommissionDetail.pdf</v>
       </c>
       <c r="K125" t="s">
         <v>176</v>
       </c>
       <c r="L125" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="M125" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
     </row>
     <row r="126" spans="2:13" x14ac:dyDescent="0.25">
@@ -6231,7 +6237,7 @@
         <v>170</v>
       </c>
       <c r="D126" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E126">
         <v>1</v>
@@ -6241,20 +6247,20 @@
       </c>
       <c r="G126" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_AZ1XT_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201805_AZ1XT_CommissionSummary.pdf</v>
       </c>
       <c r="H126" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_AZ1XT_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201805_AZ1XT_CommissionDetail.pdf</v>
       </c>
       <c r="K126" t="s">
         <v>176</v>
       </c>
       <c r="L126" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="M126" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
     </row>
     <row r="127" spans="2:13" x14ac:dyDescent="0.25">
@@ -6265,7 +6271,7 @@
         <v>170</v>
       </c>
       <c r="D127" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E127">
         <v>1</v>
@@ -6275,20 +6281,20 @@
       </c>
       <c r="G127" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_AZ1YP_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201805_AZ1YP_CommissionSummary.pdf</v>
       </c>
       <c r="H127" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_AZ1YP_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201805_AZ1YP_CommissionDetail.pdf</v>
       </c>
       <c r="K127" t="s">
         <v>176</v>
       </c>
       <c r="L127" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="M127" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
     </row>
     <row r="128" spans="2:13" x14ac:dyDescent="0.25">
@@ -6299,7 +6305,7 @@
         <v>170</v>
       </c>
       <c r="D128" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E128">
         <v>1</v>
@@ -6309,20 +6315,20 @@
       </c>
       <c r="G128" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_QZ1XH_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201805_QZ1XH_CommissionSummary.pdf</v>
       </c>
       <c r="H128" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_QZ1XH_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201805_QZ1XH_CommissionDetail.pdf</v>
       </c>
       <c r="K128" t="s">
         <v>176</v>
       </c>
       <c r="L128" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="M128" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
     </row>
     <row r="129" spans="2:13" x14ac:dyDescent="0.25">
@@ -6333,7 +6339,7 @@
         <v>170</v>
       </c>
       <c r="D129" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E129">
         <v>1</v>
@@ -6343,20 +6349,20 @@
       </c>
       <c r="G129" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_QZ1TB_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201805_QZ1TB_CommissionSummary.pdf</v>
       </c>
       <c r="H129" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_QZ1TB_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201805_QZ1TB_CommissionDetail.pdf</v>
       </c>
       <c r="K129" t="s">
         <v>176</v>
       </c>
       <c r="L129" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="M129" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
     </row>
     <row r="130" spans="2:13" x14ac:dyDescent="0.25">
@@ -6367,7 +6373,7 @@
         <v>170</v>
       </c>
       <c r="D130" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E130">
         <v>1</v>
@@ -6377,20 +6383,20 @@
       </c>
       <c r="G130" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_QZ1TD_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201805_QZ1TD_CommissionSummary.pdf</v>
       </c>
       <c r="H130" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_QZ1TD_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201805_QZ1TD_CommissionDetail.pdf</v>
       </c>
       <c r="K130" t="s">
         <v>176</v>
       </c>
       <c r="L130" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="M130" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
     </row>
     <row r="131" spans="2:13" x14ac:dyDescent="0.25">
@@ -6401,7 +6407,7 @@
         <v>170</v>
       </c>
       <c r="D131" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E131">
         <v>1</v>
@@ -6411,20 +6417,20 @@
       </c>
       <c r="G131" t="str">
         <f t="shared" ref="G131:G169" si="4">$K131&amp;"\"&amp;L131</f>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_QZ1TK_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201805_QZ1TK_CommissionSummary.pdf</v>
       </c>
       <c r="H131" t="str">
         <f t="shared" ref="H131:H169" si="5">$K131&amp;"\"&amp;M131</f>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_QZ1TK_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201805_QZ1TK_CommissionDetail.pdf</v>
       </c>
       <c r="K131" t="s">
         <v>176</v>
       </c>
       <c r="L131" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="M131" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
     </row>
     <row r="132" spans="2:13" x14ac:dyDescent="0.25">
@@ -6435,7 +6441,7 @@
         <v>170</v>
       </c>
       <c r="D132" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E132">
         <v>1</v>
@@ -6445,20 +6451,20 @@
       </c>
       <c r="G132" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_QZ1YE_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201805_QZ1YE_CommissionSummary.pdf</v>
       </c>
       <c r="H132" t="str">
         <f t="shared" si="5"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_QZ1YE_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201805_QZ1YE_CommissionDetail.pdf</v>
       </c>
       <c r="K132" t="s">
         <v>176</v>
       </c>
       <c r="L132" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="M132" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
     </row>
     <row r="133" spans="2:13" x14ac:dyDescent="0.25">
@@ -6469,7 +6475,7 @@
         <v>170</v>
       </c>
       <c r="D133" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E133">
         <v>1</v>
@@ -6479,20 +6485,20 @@
       </c>
       <c r="G133" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_QZ1TE_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201805_QZ1TE_CommissionSummary.pdf</v>
       </c>
       <c r="H133" t="str">
         <f t="shared" si="5"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_QZ1TE_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201805_QZ1TE_CommissionDetail.pdf</v>
       </c>
       <c r="K133" t="s">
         <v>176</v>
       </c>
       <c r="L133" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="M133" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="134" spans="2:13" x14ac:dyDescent="0.25">
@@ -6503,7 +6509,7 @@
         <v>170</v>
       </c>
       <c r="D134" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E134">
         <v>1</v>
@@ -6513,20 +6519,20 @@
       </c>
       <c r="G134" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_QZ1TI_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201805_QZ1TI_CommissionSummary.pdf</v>
       </c>
       <c r="H134" t="str">
         <f t="shared" si="5"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_QZ1TI_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201805_QZ1TI_CommissionDetail.pdf</v>
       </c>
       <c r="K134" t="s">
         <v>176</v>
       </c>
       <c r="L134" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="M134" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
     </row>
     <row r="135" spans="2:13" x14ac:dyDescent="0.25">
@@ -6537,7 +6543,7 @@
         <v>170</v>
       </c>
       <c r="D135" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E135">
         <v>1</v>
@@ -6547,20 +6553,20 @@
       </c>
       <c r="G135" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_CZ1YI_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201805_CZ1YI_CommissionSummary.pdf</v>
       </c>
       <c r="H135" t="str">
         <f t="shared" si="5"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_CZ1YI_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201805_CZ1YI_CommissionDetail.pdf</v>
       </c>
       <c r="K135" t="s">
         <v>176</v>
       </c>
       <c r="L135" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="M135" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
     </row>
     <row r="136" spans="2:13" x14ac:dyDescent="0.25">
@@ -6571,7 +6577,7 @@
         <v>170</v>
       </c>
       <c r="D136" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E136">
         <v>1</v>
@@ -6581,20 +6587,20 @@
       </c>
       <c r="G136" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_CZ1YW_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201805_CZ1YW_CommissionSummary.pdf</v>
       </c>
       <c r="H136" t="str">
         <f t="shared" si="5"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_CZ1YW_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201805_CZ1YW_CommissionDetail.pdf</v>
       </c>
       <c r="K136" t="s">
         <v>176</v>
       </c>
       <c r="L136" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="M136" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
     </row>
     <row r="137" spans="2:13" x14ac:dyDescent="0.25">
@@ -6605,7 +6611,7 @@
         <v>170</v>
       </c>
       <c r="D137" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E137">
         <v>1</v>
@@ -6615,20 +6621,20 @@
       </c>
       <c r="G137" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_CZ1UE_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201805_CZ1UE_CommissionSummary.pdf</v>
       </c>
       <c r="H137" t="str">
         <f t="shared" si="5"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_CZ1UE_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201805_CZ1UE_CommissionDetail.pdf</v>
       </c>
       <c r="K137" t="s">
         <v>176</v>
       </c>
       <c r="L137" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="M137" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
     </row>
     <row r="138" spans="2:13" x14ac:dyDescent="0.25">
@@ -6639,7 +6645,7 @@
         <v>170</v>
       </c>
       <c r="D138" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E138">
         <v>1</v>
@@ -6649,20 +6655,20 @@
       </c>
       <c r="G138" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_CZ1MJ_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201805_CZ1MJ_CommissionSummary.pdf</v>
       </c>
       <c r="H138" t="str">
         <f t="shared" si="5"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_CZ1MJ_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201805_CZ1MJ_CommissionDetail.pdf</v>
       </c>
       <c r="K138" t="s">
         <v>176</v>
       </c>
       <c r="L138" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="M138" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
     </row>
     <row r="139" spans="2:13" x14ac:dyDescent="0.25">
@@ -6673,7 +6679,7 @@
         <v>170</v>
       </c>
       <c r="D139" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E139">
         <v>1</v>
@@ -6683,20 +6689,20 @@
       </c>
       <c r="G139" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_CZ1VG_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201805_CZ1VG_CommissionSummary.pdf</v>
       </c>
       <c r="H139" t="str">
         <f t="shared" si="5"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_CZ1VG_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201805_CZ1VG_CommissionDetail.pdf</v>
       </c>
       <c r="K139" t="s">
         <v>176</v>
       </c>
       <c r="L139" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="M139" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
     </row>
     <row r="140" spans="2:13" x14ac:dyDescent="0.25">
@@ -6707,7 +6713,7 @@
         <v>170</v>
       </c>
       <c r="D140" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E140">
         <v>1</v>
@@ -6717,20 +6723,20 @@
       </c>
       <c r="G140" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_CZ1VJ_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201805_CZ1VJ_CommissionSummary.pdf</v>
       </c>
       <c r="H140" t="str">
         <f t="shared" si="5"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_CZ1VJ_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201805_CZ1VJ_CommissionDetail.pdf</v>
       </c>
       <c r="K140" t="s">
         <v>176</v>
       </c>
       <c r="L140" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="M140" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
     </row>
     <row r="141" spans="2:13" x14ac:dyDescent="0.25">
@@ -6741,7 +6747,7 @@
         <v>170</v>
       </c>
       <c r="D141" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E141">
         <v>1</v>
@@ -6751,20 +6757,20 @@
       </c>
       <c r="G141" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_CZ1MI_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201805_CZ1MI_CommissionSummary.pdf</v>
       </c>
       <c r="H141" t="str">
         <f t="shared" si="5"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_CZ1MI_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201805_CZ1MI_CommissionDetail.pdf</v>
       </c>
       <c r="K141" t="s">
         <v>176</v>
       </c>
       <c r="L141" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="M141" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
     </row>
     <row r="142" spans="2:13" x14ac:dyDescent="0.25">
@@ -6775,7 +6781,7 @@
         <v>170</v>
       </c>
       <c r="D142" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E142">
         <v>1</v>
@@ -6785,20 +6791,20 @@
       </c>
       <c r="G142" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_CZ1XD_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201805_CZ1XD_CommissionSummary.pdf</v>
       </c>
       <c r="H142" t="str">
         <f t="shared" si="5"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_CZ1XD_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201805_CZ1XD_CommissionDetail.pdf</v>
       </c>
       <c r="K142" t="s">
         <v>176</v>
       </c>
       <c r="L142" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="M142" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
     </row>
     <row r="143" spans="2:13" x14ac:dyDescent="0.25">
@@ -6809,7 +6815,7 @@
         <v>170</v>
       </c>
       <c r="D143" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E143">
         <v>1</v>
@@ -6819,20 +6825,20 @@
       </c>
       <c r="G143" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_CZ1XB_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201805_CZ1XB_CommissionSummary.pdf</v>
       </c>
       <c r="H143" t="str">
         <f t="shared" si="5"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_CZ1XB_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201805_CZ1XB_CommissionDetail.pdf</v>
       </c>
       <c r="K143" t="s">
         <v>176</v>
       </c>
       <c r="L143" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="M143" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
     </row>
     <row r="144" spans="2:13" x14ac:dyDescent="0.25">
@@ -6843,7 +6849,7 @@
         <v>170</v>
       </c>
       <c r="D144" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E144">
         <v>1</v>
@@ -6853,20 +6859,20 @@
       </c>
       <c r="G144" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_CZ1WT_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201805_CZ1WT_CommissionSummary.pdf</v>
       </c>
       <c r="H144" t="str">
         <f t="shared" si="5"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_CZ1WT_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201805_CZ1WT_CommissionDetail.pdf</v>
       </c>
       <c r="K144" t="s">
         <v>176</v>
       </c>
       <c r="L144" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="M144" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
     </row>
     <row r="145" spans="2:13" x14ac:dyDescent="0.25">
@@ -6877,7 +6883,7 @@
         <v>170</v>
       </c>
       <c r="D145" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E145">
         <v>1</v>
@@ -6887,20 +6893,20 @@
       </c>
       <c r="G145" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_CZ1XA_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201805_CZ1XA_CommissionSummary.pdf</v>
       </c>
       <c r="H145" t="str">
         <f t="shared" si="5"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_CZ1XA_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201805_CZ1XA_CommissionDetail.pdf</v>
       </c>
       <c r="K145" t="s">
         <v>176</v>
       </c>
       <c r="L145" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="M145" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
     </row>
     <row r="146" spans="2:13" x14ac:dyDescent="0.25">
@@ -6911,7 +6917,7 @@
         <v>170</v>
       </c>
       <c r="D146" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E146">
         <v>1</v>
@@ -6921,20 +6927,20 @@
       </c>
       <c r="G146" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_WZ2KF_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201805_WZ2KF_CommissionSummary.pdf</v>
       </c>
       <c r="H146" t="str">
         <f t="shared" si="5"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_WZ2KF_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201805_WZ2KF_CommissionDetail.pdf</v>
       </c>
       <c r="K146" t="s">
         <v>176</v>
       </c>
       <c r="L146" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="M146" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
     </row>
     <row r="147" spans="2:13" x14ac:dyDescent="0.25">
@@ -6945,7 +6951,7 @@
         <v>170</v>
       </c>
       <c r="D147" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E147">
         <v>1</v>
@@ -6955,20 +6961,20 @@
       </c>
       <c r="G147" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_WZ148_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201805_WZ148_CommissionSummary.pdf</v>
       </c>
       <c r="H147" t="str">
         <f t="shared" si="5"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_WZ148_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201805_WZ148_CommissionDetail.pdf</v>
       </c>
       <c r="K147" t="s">
         <v>176</v>
       </c>
       <c r="L147" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="M147" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="148" spans="2:13" x14ac:dyDescent="0.25">
@@ -6979,7 +6985,7 @@
         <v>170</v>
       </c>
       <c r="D148" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E148">
         <v>1</v>
@@ -6989,20 +6995,20 @@
       </c>
       <c r="G148" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_WZ8GM_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201805_WZ8GM_CommissionSummary.pdf</v>
       </c>
       <c r="H148" t="str">
         <f t="shared" si="5"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_WZ8GM_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201805_WZ8GM_CommissionDetail.pdf</v>
       </c>
       <c r="K148" t="s">
         <v>176</v>
       </c>
       <c r="L148" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="M148" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="149" spans="2:13" x14ac:dyDescent="0.25">
@@ -7013,7 +7019,7 @@
         <v>170</v>
       </c>
       <c r="D149" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E149">
         <v>1</v>
@@ -7023,20 +7029,20 @@
       </c>
       <c r="G149" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_WZ1BH_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201805_WZ1BH_CommissionSummary.pdf</v>
       </c>
       <c r="H149" t="str">
         <f t="shared" si="5"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_WZ1BH_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201805_WZ1BH_CommissionDetail.pdf</v>
       </c>
       <c r="K149" t="s">
         <v>176</v>
       </c>
       <c r="L149" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="M149" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="150" spans="2:13" x14ac:dyDescent="0.25">
@@ -7047,7 +7053,7 @@
         <v>170</v>
       </c>
       <c r="D150" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E150">
         <v>1</v>
@@ -7057,20 +7063,20 @@
       </c>
       <c r="G150" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_WZ114_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201805_WZ114_CommissionSummary.pdf</v>
       </c>
       <c r="H150" t="str">
         <f t="shared" si="5"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_WZ114_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201805_WZ114_CommissionDetail.pdf</v>
       </c>
       <c r="K150" t="s">
         <v>176</v>
       </c>
       <c r="L150" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="M150" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="151" spans="2:13" x14ac:dyDescent="0.25">
@@ -7081,7 +7087,7 @@
         <v>170</v>
       </c>
       <c r="D151" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E151">
         <v>1</v>
@@ -7091,20 +7097,20 @@
       </c>
       <c r="G151" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_WZ1A6_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201805_WZ1A6_CommissionSummary.pdf</v>
       </c>
       <c r="H151" t="str">
         <f t="shared" si="5"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_WZ1A6_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201805_WZ1A6_CommissionDetail.pdf</v>
       </c>
       <c r="K151" t="s">
         <v>176</v>
       </c>
       <c r="L151" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="M151" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="152" spans="2:13" x14ac:dyDescent="0.25">
@@ -7115,7 +7121,7 @@
         <v>170</v>
       </c>
       <c r="D152" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E152">
         <v>1</v>
@@ -7125,20 +7131,20 @@
       </c>
       <c r="G152" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_WZ139_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201805_WZ139_CommissionSummary.pdf</v>
       </c>
       <c r="H152" t="str">
         <f t="shared" si="5"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_WZ139_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201805_WZ139_CommissionDetail.pdf</v>
       </c>
       <c r="K152" t="s">
         <v>176</v>
       </c>
       <c r="L152" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="M152" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row r="153" spans="2:13" x14ac:dyDescent="0.25">
@@ -7149,7 +7155,7 @@
         <v>170</v>
       </c>
       <c r="D153" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E153">
         <v>1</v>
@@ -7159,20 +7165,20 @@
       </c>
       <c r="G153" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_CZ1VL_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201805_CZ1VL_CommissionSummary.pdf</v>
       </c>
       <c r="H153" t="str">
         <f t="shared" si="5"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_CZ1VL_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201805_CZ1VL_CommissionDetail.pdf</v>
       </c>
       <c r="K153" t="s">
         <v>176</v>
       </c>
       <c r="L153" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="M153" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
     </row>
     <row r="154" spans="2:13" x14ac:dyDescent="0.25">
@@ -7183,7 +7189,7 @@
         <v>170</v>
       </c>
       <c r="D154" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E154">
         <v>1</v>
@@ -7193,20 +7199,20 @@
       </c>
       <c r="G154" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_CZ1VK_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201805_CZ1VK_CommissionSummary.pdf</v>
       </c>
       <c r="H154" t="str">
         <f t="shared" si="5"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_CZ1VK_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201805_CZ1VK_CommissionDetail.pdf</v>
       </c>
       <c r="K154" t="s">
         <v>176</v>
       </c>
       <c r="L154" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="M154" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
     </row>
     <row r="155" spans="2:13" x14ac:dyDescent="0.25">
@@ -7217,7 +7223,7 @@
         <v>170</v>
       </c>
       <c r="D155" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E155">
         <v>1</v>
@@ -7227,20 +7233,20 @@
       </c>
       <c r="G155" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_CZ1LR_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201805_CZ1LR_CommissionSummary.pdf</v>
       </c>
       <c r="H155" t="str">
         <f t="shared" si="5"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_CZ1LR_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201805_CZ1LR_CommissionDetail.pdf</v>
       </c>
       <c r="K155" t="s">
         <v>176</v>
       </c>
       <c r="L155" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="M155" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="156" spans="2:13" x14ac:dyDescent="0.25">
@@ -7251,7 +7257,7 @@
         <v>170</v>
       </c>
       <c r="D156" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E156">
         <v>1</v>
@@ -7261,20 +7267,20 @@
       </c>
       <c r="G156" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_CZ1UV_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201805_CZ1UV_CommissionSummary.pdf</v>
       </c>
       <c r="H156" t="str">
         <f t="shared" si="5"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_CZ1UV_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201805_CZ1UV_CommissionDetail.pdf</v>
       </c>
       <c r="K156" t="s">
         <v>176</v>
       </c>
       <c r="L156" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="M156" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="157" spans="2:13" x14ac:dyDescent="0.25">
@@ -7285,7 +7291,7 @@
         <v>170</v>
       </c>
       <c r="D157" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E157">
         <v>1</v>
@@ -7295,20 +7301,20 @@
       </c>
       <c r="G157" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_CZ1WV_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201805_CZ1WV_CommissionSummary.pdf</v>
       </c>
       <c r="H157" t="str">
         <f t="shared" si="5"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_CZ1WV_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201805_CZ1WV_CommissionDetail.pdf</v>
       </c>
       <c r="K157" t="s">
         <v>176</v>
       </c>
       <c r="L157" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="M157" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="158" spans="2:13" x14ac:dyDescent="0.25">
@@ -7319,7 +7325,7 @@
         <v>170</v>
       </c>
       <c r="D158" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E158">
         <v>1</v>
@@ -7329,20 +7335,20 @@
       </c>
       <c r="G158" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_CZ1UO_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201805_CZ1UO_CommissionSummary.pdf</v>
       </c>
       <c r="H158" t="str">
         <f t="shared" si="5"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_CZ1UO_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201805_CZ1UO_CommissionDetail.pdf</v>
       </c>
       <c r="K158" t="s">
         <v>176</v>
       </c>
       <c r="L158" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="M158" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="159" spans="2:13" x14ac:dyDescent="0.25">
@@ -7353,7 +7359,7 @@
         <v>170</v>
       </c>
       <c r="D159" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E159">
         <v>1</v>
@@ -7363,20 +7369,20 @@
       </c>
       <c r="G159" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_CZ1XC_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201805_CZ1XC_CommissionSummary.pdf</v>
       </c>
       <c r="H159" t="str">
         <f t="shared" si="5"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_CZ1XC_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201805_CZ1XC_CommissionDetail.pdf</v>
       </c>
       <c r="K159" t="s">
         <v>176</v>
       </c>
       <c r="L159" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="M159" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="160" spans="2:13" x14ac:dyDescent="0.25">
@@ -7387,7 +7393,7 @@
         <v>170</v>
       </c>
       <c r="D160" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E160">
         <v>1</v>
@@ -7397,20 +7403,20 @@
       </c>
       <c r="G160" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_CZ1YN_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201805_CZ1YN_CommissionSummary.pdf</v>
       </c>
       <c r="H160" t="str">
         <f t="shared" si="5"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_CZ1YN_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201805_CZ1YN_CommissionDetail.pdf</v>
       </c>
       <c r="K160" t="s">
         <v>176</v>
       </c>
       <c r="L160" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="M160" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="161" spans="2:13" x14ac:dyDescent="0.25">
@@ -7421,7 +7427,7 @@
         <v>170</v>
       </c>
       <c r="D161" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E161">
         <v>1</v>
@@ -7431,20 +7437,20 @@
       </c>
       <c r="G161" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_CZ1UI_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201805_CZ1UI_CommissionSummary.pdf</v>
       </c>
       <c r="H161" t="str">
         <f t="shared" si="5"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_CZ1UI_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201805_CZ1UI_CommissionDetail.pdf</v>
       </c>
       <c r="K161" t="s">
         <v>176</v>
       </c>
       <c r="L161" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="M161" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="162" spans="2:13" x14ac:dyDescent="0.25">
@@ -7455,7 +7461,7 @@
         <v>170</v>
       </c>
       <c r="D162" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E162">
         <v>1</v>
@@ -7465,20 +7471,20 @@
       </c>
       <c r="G162" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_CZ1UU_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201805_CZ1UU_CommissionSummary.pdf</v>
       </c>
       <c r="H162" t="str">
         <f t="shared" si="5"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_CZ1UU_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201805_CZ1UU_CommissionDetail.pdf</v>
       </c>
       <c r="K162" t="s">
         <v>176</v>
       </c>
       <c r="L162" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="M162" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="163" spans="2:13" x14ac:dyDescent="0.25">
@@ -7489,7 +7495,7 @@
         <v>170</v>
       </c>
       <c r="D163" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E163">
         <v>1</v>
@@ -7499,20 +7505,20 @@
       </c>
       <c r="G163" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_CZ1UW_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201805_CZ1UW_CommissionSummary.pdf</v>
       </c>
       <c r="H163" t="str">
         <f t="shared" si="5"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_CZ1UW_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201805_CZ1UW_CommissionDetail.pdf</v>
       </c>
       <c r="K163" t="s">
         <v>176</v>
       </c>
       <c r="L163" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="M163" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
     </row>
     <row r="164" spans="2:13" x14ac:dyDescent="0.25">
@@ -7523,7 +7529,7 @@
         <v>170</v>
       </c>
       <c r="D164" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E164">
         <v>1</v>
@@ -7533,20 +7539,20 @@
       </c>
       <c r="G164" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_CZ1VC_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201805_CZ1VC_CommissionSummary.pdf</v>
       </c>
       <c r="H164" t="str">
         <f t="shared" si="5"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_CZ1VC_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201805_CZ1VC_CommissionDetail.pdf</v>
       </c>
       <c r="K164" t="s">
         <v>176</v>
       </c>
       <c r="L164" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="M164" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
     </row>
     <row r="165" spans="2:13" x14ac:dyDescent="0.25">
@@ -7557,7 +7563,7 @@
         <v>170</v>
       </c>
       <c r="D165" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E165">
         <v>1</v>
@@ -7567,20 +7573,20 @@
       </c>
       <c r="G165" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_CZ1UX_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201805_CZ1UX_CommissionSummary.pdf</v>
       </c>
       <c r="H165" t="str">
         <f t="shared" si="5"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_CZ1UX_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201805_CZ1UX_CommissionDetail.pdf</v>
       </c>
       <c r="K165" t="s">
         <v>176</v>
       </c>
       <c r="L165" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="M165" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
     </row>
     <row r="166" spans="2:13" x14ac:dyDescent="0.25">
@@ -7591,7 +7597,7 @@
         <v>170</v>
       </c>
       <c r="D166" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E166">
         <v>1</v>
@@ -7601,20 +7607,20 @@
       </c>
       <c r="G166" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_CZ1UZ_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201805_CZ1UZ_CommissionSummary.pdf</v>
       </c>
       <c r="H166" t="str">
         <f t="shared" si="5"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_CZ1UZ_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201805_CZ1UZ_CommissionDetail.pdf</v>
       </c>
       <c r="K166" t="s">
         <v>176</v>
       </c>
       <c r="L166" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="M166" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
     </row>
     <row r="167" spans="2:13" x14ac:dyDescent="0.25">
@@ -7625,7 +7631,7 @@
         <v>170</v>
       </c>
       <c r="D167" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E167">
         <v>1</v>
@@ -7635,20 +7641,20 @@
       </c>
       <c r="G167" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_WZ9JP_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201805_WZ9JP_CommissionSummary.pdf</v>
       </c>
       <c r="H167" t="str">
         <f t="shared" si="5"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_WZ9JP_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201805_WZ9JP_CommissionDetail.pdf</v>
       </c>
       <c r="K167" t="s">
         <v>176</v>
       </c>
       <c r="L167" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="M167" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
     </row>
     <row r="168" spans="2:13" x14ac:dyDescent="0.25">
@@ -7659,7 +7665,7 @@
         <v>170</v>
       </c>
       <c r="D168" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E168">
         <v>1</v>
@@ -7669,20 +7675,20 @@
       </c>
       <c r="G168" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_CZ1DG_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201805_CZ1DG_CommissionSummary.pdf</v>
       </c>
       <c r="H168" t="str">
         <f t="shared" si="5"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_CZ1DG_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201805_CZ1DG_CommissionDetail.pdf</v>
       </c>
       <c r="K168" t="s">
         <v>176</v>
       </c>
       <c r="L168" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="M168" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
     </row>
     <row r="169" spans="2:13" x14ac:dyDescent="0.25">
@@ -7693,7 +7699,7 @@
         <v>170</v>
       </c>
       <c r="D169" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E169">
         <v>1</v>
@@ -7703,20 +7709,20 @@
       </c>
       <c r="G169" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_CZ1LE_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201805_CZ1LE_CommissionSummary.pdf</v>
       </c>
       <c r="H169" t="str">
         <f t="shared" si="5"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_CZ1LE_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201805_CZ1LE_CommissionDetail.pdf</v>
       </c>
       <c r="K169" t="s">
         <v>176</v>
       </c>
       <c r="L169" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="M169" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
     </row>
     <row r="170" spans="2:13" x14ac:dyDescent="0.25">
@@ -7727,7 +7733,7 @@
         <v>170</v>
       </c>
       <c r="D170" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E170">
         <v>1</v>
@@ -7737,20 +7743,54 @@
       </c>
       <c r="G170" t="str">
         <f t="shared" ref="G170" si="6">$K170&amp;"\"&amp;L170</f>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_QZ1OM_CommissionSummary.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201805_QZ1OM_CommissionSummary.pdf</v>
       </c>
       <c r="H170" t="str">
         <f t="shared" ref="H170" si="7">$K170&amp;"\"&amp;M170</f>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201804_QZ1OM_CommissionDetail.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201805_QZ1OM_CommissionDetail.pdf</v>
       </c>
       <c r="K170" t="s">
         <v>176</v>
       </c>
       <c r="L170" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="M170" t="s">
-        <v>518</v>
+        <v>519</v>
+      </c>
+    </row>
+    <row r="171" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B171" t="s">
+        <v>184</v>
+      </c>
+      <c r="C171" t="s">
+        <v>170</v>
+      </c>
+      <c r="D171" t="s">
+        <v>185</v>
+      </c>
+      <c r="E171">
+        <v>1</v>
+      </c>
+      <c r="F171">
+        <v>2</v>
+      </c>
+      <c r="G171" t="str">
+        <f t="shared" ref="G171" si="8">$K171&amp;"\"&amp;L171</f>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201805_WZ1JV_CommissionSummary.pdf</v>
+      </c>
+      <c r="H171" t="str">
+        <f t="shared" ref="H171" si="9">$K171&amp;"\"&amp;M171</f>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201805_WZ1JV_CommissionDetail.pdf</v>
+      </c>
+      <c r="K171" t="s">
+        <v>176</v>
+      </c>
+      <c r="L171" t="s">
+        <v>520</v>
+      </c>
+      <c r="M171" t="s">
+        <v>521</v>
       </c>
     </row>
   </sheetData>

--- a/BR_Mailer/J030_COM_FSC/J030_Mailing_List - Excel.xlsx
+++ b/BR_Mailer/J030_COM_FSC/J030_Mailing_List - Excel.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\Business Reporting\ZDEV\BR_Scripts\BRPoSh\BR_Mailer\J030_COM_FSC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\BR\zDev\BR_Scripts\BRPoSh\BR_Mailer\J030_COM_FSC\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1033" uniqueCount="522">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1045" uniqueCount="528">
   <si>
     <t>msg</t>
   </si>
@@ -549,9 +549,6 @@
     <t>Stephane.Debernardi@henryschein.ca</t>
   </si>
   <si>
-    <t>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm</t>
-  </si>
-  <si>
     <t>Jenna.Plenert@henryschein.ca</t>
   </si>
   <si>
@@ -576,1015 +573,1036 @@
     <t>Jeff.Vandamme@zahncanada.ca</t>
   </si>
   <si>
-    <t>Commission Summary and Details for May 2018</t>
-  </si>
-  <si>
-    <t>201805_CZ1SD_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201805_CZ1SD_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201805_CZ125_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201805_CZ125_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201805_CZ124_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201805_CZ124_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201805_QZ132_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201805_QZ132_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201805_CZ128_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201805_CZ128_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201805_CZ144_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201805_CZ144_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201805_CZ165_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201805_CZ165_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201805_QZ178_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201805_QZ178_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201805_CZ183_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201805_CZ183_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201805_CZ107_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201805_CZ107_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201805_CZ109_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201805_CZ109_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201805_AZ112_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201805_AZ112_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201805_CZ154_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201805_CZ154_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201805_CZ1KD_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201805_CZ1KD_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201805_QZ1CF_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201805_QZ1CF_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201805_CZ1EM_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201805_CZ1EM_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201805_QZ1DP_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201805_QZ1DP_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201805_CZ1DA_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201805_CZ1DA_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201805_QZ1LM_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201805_QZ1LM_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201805_CZ1EE_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201805_CZ1EE_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201805_AZ1EK_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201805_AZ1EK_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201805_AZ1FB_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201805_AZ1FB_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201805_CZ1FP_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201805_CZ1FP_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201805_QZ1FT_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201805_QZ1FT_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201805_QZ1FR_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201805_QZ1FR_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201805_QZ1GO_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201805_QZ1GO_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201805_AZ1KL_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201805_AZ1KL_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201805_QZ1KK_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201805_QZ1KK_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201805_CZ1DN_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201805_CZ1DN_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201805_QZ1EO_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201805_QZ1EO_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201805_CZ1CB_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201805_CZ1CB_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201805_CZ1B8_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201805_CZ1B8_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201805_CZ1C4_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201805_CZ1C4_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201805_QZ1D8_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201805_QZ1D8_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201805_CZ1SW_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201805_CZ1SW_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201805_QZ1AP_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201805_QZ1AP_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201805_CZ2CB_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201805_CZ2CB_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201805_CZ1CG_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201805_CZ1CG_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201805_AZ1PV_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201805_AZ1PV_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201805_CZ3CB_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201805_CZ3CB_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201805_CZ5CS_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201805_CZ5CS_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201805_CZ8JA_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201805_CZ8JA_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201805_QZ7JM_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201805_QZ7JM_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201805_QZ7DO_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201805_QZ7DO_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201805_CZ5TA_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201805_CZ5TA_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201805_CZ2LB_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201805_CZ2LB_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201805_CZ2GB_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201805_CZ2GB_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201805_CZ2LH_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201805_CZ2LH_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201805_CZ2NM_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201805_CZ2NM_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201805_QZ2SB_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201805_QZ2SB_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201805_CZ2BG_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201805_CZ2BG_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201805_CZ1SA_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201805_CZ1SA_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201805_WZ115_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201805_WZ115_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201805_WZ120_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201805_WZ120_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201805_WZ118_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201805_WZ118_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201805_WZ119_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201805_WZ119_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201805_WZ138_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201805_WZ138_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201805_WZ142_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201805_WZ142_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201805_WZ134_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201805_WZ134_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201805_WZ123_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201805_WZ123_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201805_WZ136_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201805_WZ136_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201805_WZ165_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201805_WZ165_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201805_WZ1FF_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201805_WZ1FF_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201805_WZ167_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201805_WZ167_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201805_WZ175_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201805_WZ175_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201805_WZ177_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201805_WZ177_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201805_WZ143_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201805_WZ143_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201805_WZ159_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201805_WZ159_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201805_WZ162_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201805_WZ162_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201805_WZ113_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201805_WZ113_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201805_WZ137_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201805_WZ137_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201805_WZ1G4_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201805_WZ1G4_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201805_WZBW1_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201805_WZBW1_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201805_WZ9TS_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201805_WZ9TS_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201805_WZ1HM_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201805_WZ1HM_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201805_WZ2RP_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201805_WZ2RP_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201805_WZ1TT_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201805_WZ1TT_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201805_WZ1AM_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201805_WZ1AM_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201805_WZ1JW_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201805_WZ1JW_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201805_WZ1MH_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201805_WZ1MH_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201805_WZ1TM_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201805_WZ1TM_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201805_WZ1SC_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201805_WZ1SC_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201805_WZ1PB_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201805_WZ1PB_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201805_WZ1JN_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201805_WZ1JN_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201805_WZ1MK_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201805_WZ1MK_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201805_WZ1CA_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201805_WZ1CA_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201805_WZ2TM_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201805_WZ2TM_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201805_WZ1BC_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201805_WZ1BC_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201805_WZ1JL_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201805_WZ1JL_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201805_WZ1AL_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201805_WZ1AL_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201805_WZ1MW_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201805_WZ1MW_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201805_WZ1MS_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201805_WZ1MS_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201805_WZ1DF_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201805_WZ1DF_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201805_WZ1JI_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201805_WZ1JI_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201805_WZ1CM_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201805_WZ1CM_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201805_WZ2MS_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201805_WZ2MS_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201805_WZ2JN_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201805_WZ2JN_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201805_CZ1RD_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201805_CZ1RD_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201805_CZ1GF_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201805_CZ1GF_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201805_QZ1BP_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201805_QZ1BP_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201805_CZ1JF_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201805_CZ1JF_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201805_AZ1CI_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201805_AZ1CI_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201805_CZ1KM_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201805_CZ1KM_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201805_CZ1OV_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201805_CZ1OV_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201805_QZ1JB_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201805_QZ1JB_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201805_QZ1BG_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201805_QZ1BG_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201805_CZ1TM_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201805_CZ1TM_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201805_QZ177_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201805_QZ177_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201805_QZ1BM_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201805_QZ1BM_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201805_QZ1MD_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201805_QZ1MD_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201805_AZ1JB_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201805_AZ1JB_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201805_CZ1AD_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201805_CZ1AD_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201805_QZ1ML_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201805_QZ1ML_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201805_CZ1FA_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201805_CZ1FA_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201805_CZ2SA_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201805_CZ2SA_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201805_QZ1SL_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201805_QZ1SL_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201805_AZ1CM_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201805_AZ1CM_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201805_QZ3JB_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201805_QZ3JB_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201805_CZ1CN_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201805_CZ1CN_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201805_AZ1YU_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201805_AZ1YU_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201805_AZ1WX_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201805_AZ1WX_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201805_AZ1XF_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201805_AZ1XF_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201805_AZ1XT_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201805_AZ1XT_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201805_AZ1YP_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201805_AZ1YP_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201805_QZ1XH_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201805_QZ1XH_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201805_QZ1TB_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201805_QZ1TB_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201805_QZ1TD_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201805_QZ1TD_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201805_QZ1TK_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201805_QZ1TK_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201805_QZ1YE_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201805_QZ1YE_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201805_QZ1TE_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201805_QZ1TE_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201805_QZ1TI_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201805_QZ1TI_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201805_CZ1YI_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201805_CZ1YI_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201805_CZ1YW_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201805_CZ1YW_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201805_CZ1UE_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201805_CZ1UE_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201805_CZ1MJ_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201805_CZ1MJ_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201805_CZ1VG_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201805_CZ1VG_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201805_CZ1VJ_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201805_CZ1VJ_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201805_CZ1MI_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201805_CZ1MI_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201805_CZ1XD_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201805_CZ1XD_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201805_CZ1XB_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201805_CZ1XB_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201805_CZ1WT_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201805_CZ1WT_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201805_CZ1XA_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201805_CZ1XA_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201805_WZ2KF_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201805_WZ2KF_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201805_WZ148_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201805_WZ148_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201805_WZ8GM_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201805_WZ8GM_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201805_WZ1BH_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201805_WZ1BH_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201805_WZ114_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201805_WZ114_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201805_WZ1A6_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201805_WZ1A6_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201805_WZ139_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201805_WZ139_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201805_CZ1VL_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201805_CZ1VL_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201805_CZ1VK_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201805_CZ1VK_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201805_CZ1LR_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201805_CZ1LR_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201805_CZ1UV_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201805_CZ1UV_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201805_CZ1WV_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201805_CZ1WV_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201805_CZ1UO_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201805_CZ1UO_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201805_CZ1XC_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201805_CZ1XC_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201805_CZ1YN_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201805_CZ1YN_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201805_CZ1UI_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201805_CZ1UI_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201805_CZ1UU_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201805_CZ1UU_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201805_CZ1UW_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201805_CZ1UW_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201805_CZ1VC_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201805_CZ1VC_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201805_CZ1UX_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201805_CZ1UX_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201805_CZ1UZ_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201805_CZ1UZ_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201805_WZ9JP_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201805_WZ9JP_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201805_CZ1DG_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201805_CZ1DG_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201805_CZ1LE_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201805_CZ1LE_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201805_QZ1OM_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201805_QZ1OM_CommissionDetail.pdf</t>
-  </si>
-  <si>
-    <t>201805_WZ1JV_CommissionSummary.pdf</t>
-  </si>
-  <si>
-    <t>201805_WZ1JV_CommissionDetail.pdf</t>
+    <t>Jesse.Sale@henryschein.ca</t>
+  </si>
+  <si>
+    <t>Janet.Squires@henryschein.ca</t>
+  </si>
+  <si>
+    <t>Commission Summary and Details for June 2018</t>
+  </si>
+  <si>
+    <t>201806_CZ1SD_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201806_CZ1SD_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201806_CZ125_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201806_CZ125_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201806_CZ124_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201806_CZ124_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201806_QZ132_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201806_QZ132_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201806_CZ128_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201806_CZ128_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201806_CZ144_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201806_CZ144_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201806_CZ165_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201806_CZ165_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201806_QZ178_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201806_QZ178_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201806_CZ183_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201806_CZ183_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201806_CZ107_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201806_CZ107_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201806_CZ109_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201806_CZ109_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201806_AZ112_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201806_AZ112_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201806_CZ154_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201806_CZ154_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201806_CZ1KD_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201806_CZ1KD_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201806_QZ1CF_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201806_QZ1CF_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201806_CZ1EM_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201806_CZ1EM_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201806_QZ1DP_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201806_QZ1DP_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201806_CZ1DA_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201806_CZ1DA_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201806_QZ1LM_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201806_QZ1LM_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201806_CZ1EE_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201806_CZ1EE_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201806_AZ1EK_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201806_AZ1EK_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201806_AZ1FB_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201806_AZ1FB_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201806_CZ1FP_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201806_CZ1FP_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201806_QZ1FT_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201806_QZ1FT_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201806_QZ1FR_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201806_QZ1FR_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201806_QZ1GO_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201806_QZ1GO_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201806_AZ1KL_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201806_AZ1KL_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201806_QZ1KK_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201806_QZ1KK_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201806_CZ1DN_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201806_CZ1DN_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201806_QZ1EO_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201806_QZ1EO_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201806_CZ1CB_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201806_CZ1CB_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201806_WZ1JV_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201806_WZ1JV_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201806_CZ1B8_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201806_CZ1B8_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201806_CZ1C4_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201806_CZ1C4_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201806_QZ1D8_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201806_QZ1D8_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201806_CZ1SW_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201806_CZ1SW_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201806_QZ1AP_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201806_QZ1AP_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201806_CZ2CB_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201806_CZ2CB_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201806_CZ1CG_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201806_CZ1CG_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201806_AZ1PV_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201806_AZ1PV_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201806_CZ3CB_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201806_CZ3CB_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201806_CZ5CS_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201806_CZ5CS_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201806_CZ8JA_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201806_CZ8JA_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201806_QZ7JM_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201806_QZ7JM_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201806_QZ7DO_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201806_QZ7DO_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201806_CZ5TA_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201806_CZ5TA_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201806_CZ2LB_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201806_CZ2LB_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201806_CZ2GB_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201806_CZ2GB_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201806_CZ2LH_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201806_CZ2LH_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201806_CZ2NM_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201806_CZ2NM_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201806_QZ2SB_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201806_QZ2SB_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201806_CZ2BG_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201806_CZ2BG_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201806_CZ1SA_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201806_CZ1SA_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201806_WZ115_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201806_WZ115_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201806_WZ120_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201806_WZ120_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201806_WZ118_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201806_WZ118_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201806_WZ119_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201806_WZ119_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201806_WZ138_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201806_WZ138_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201806_WZ142_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201806_WZ142_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201806_WZ134_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201806_WZ134_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201806_WZ123_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201806_WZ123_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201806_WZ136_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201806_WZ136_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201806_WZ165_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201806_WZ165_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201806_WZ1FF_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201806_WZ1FF_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201806_WZ167_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201806_WZ167_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201806_WZ175_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201806_WZ175_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201806_WZ177_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201806_WZ177_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201806_WZ143_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201806_WZ143_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201806_WZ159_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201806_WZ159_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201806_WZ162_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201806_WZ162_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201806_WZ113_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201806_WZ113_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201806_WZ137_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201806_WZ137_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201806_WZ1G4_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201806_WZ1G4_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201806_WZBW1_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201806_WZBW1_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201806_WZ9TS_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201806_WZ9TS_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201806_WZ1HM_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201806_WZ1HM_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201806_WZ2RP_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201806_WZ2RP_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201806_WZ1TT_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201806_WZ1TT_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201806_WZ1AM_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201806_WZ1AM_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201806_WZ1JW_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201806_WZ1JW_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201806_WZ1MH_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201806_WZ1MH_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201806_WZ1TM_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201806_WZ1TM_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201806_WZ1SC_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201806_WZ1SC_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201806_WZ1PB_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201806_WZ1PB_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201806_WZ1JN_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201806_WZ1JN_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201806_WZ1MK_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201806_WZ1MK_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201806_WZ1CA_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201806_WZ1CA_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201806_WZ2TM_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201806_WZ2TM_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201806_WZ1BC_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201806_WZ1BC_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201806_WZ1JL_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201806_WZ1JL_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201806_WZ1AL_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201806_WZ1AL_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201806_WZ1MW_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201806_WZ1MW_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201806_WZ1MS_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201806_WZ1MS_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201806_WZ1DF_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201806_WZ1DF_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201806_WZ1JI_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201806_WZ1JI_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201806_WZ1CM_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201806_WZ1CM_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201806_WZ2MS_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201806_WZ2MS_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201806_WZ2JN_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201806_WZ2JN_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201806_CZ1RD_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201806_CZ1RD_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201806_CZ1GF_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201806_CZ1GF_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201806_QZ1BP_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201806_QZ1BP_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201806_CZ1JF_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201806_CZ1JF_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201806_AZ1CI_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201806_AZ1CI_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201806_CZ1KM_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201806_CZ1KM_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201806_CZ1OV_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201806_CZ1OV_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201806_QZ1JB_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201806_QZ1JB_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201806_QZ1BG_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201806_QZ1BG_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201806_CZ1TM_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201806_CZ1TM_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201806_QZ177_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201806_QZ177_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201806_CZ1JS_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201806_CZ1JS_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201806_QZ1BM_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201806_QZ1BM_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201806_QZ1MD_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201806_QZ1MD_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201806_AZ1JB_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201806_AZ1JB_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201806_CZ1AD_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201806_CZ1AD_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201806_QZ1ML_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201806_QZ1ML_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201806_CZ1FA_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201806_CZ1FA_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201806_CZ2SA_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201806_CZ2SA_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201806_QZ1SL_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201806_QZ1SL_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201806_AZ1CM_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201806_AZ1CM_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201806_QZ3JB_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201806_QZ3JB_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201806_CZ1CN_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201806_CZ1CN_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201806_AZ1YU_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201806_AZ1YU_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201806_AZ1WX_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201806_AZ1WX_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201806_AZ1XF_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201806_AZ1XF_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201806_AZ1XT_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201806_AZ1XT_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201806_AZ1YP_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201806_AZ1YP_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201806_QZ1XH_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201806_QZ1XH_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201806_QZ1TB_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201806_QZ1TB_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201806_QZ1TD_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201806_QZ1TD_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201806_QZ1TK_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201806_QZ1TK_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201806_QZ1YE_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201806_QZ1YE_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201806_QZ1TE_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201806_QZ1TE_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201806_QZ1TI_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201806_QZ1TI_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201806_CZ1YI_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201806_CZ1YI_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201806_CZ1YW_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201806_CZ1YW_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201806_CZ1UE_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201806_CZ1UE_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201806_CZ1MJ_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201806_CZ1MJ_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201806_CZ1VG_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201806_CZ1VG_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201806_CZ1VJ_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201806_CZ1VJ_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201806_CZ1MI_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201806_CZ1MI_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201806_CZ1XD_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201806_CZ1XD_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201806_CZ1XB_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201806_CZ1XB_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201806_CZ1WT_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201806_CZ1WT_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201806_CZ1XA_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201806_CZ1XA_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201806_WZ2KF_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201806_WZ2KF_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201806_WZ148_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201806_WZ148_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201806_WZ8GM_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201806_WZ8GM_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201806_WZ1BH_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201806_WZ1BH_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201806_WZ114_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201806_WZ114_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201806_WZ1A6_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201806_WZ1A6_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201806_WZ139_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201806_WZ139_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201806_CZ1VL_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201806_CZ1VL_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201806_CZ1VK_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201806_CZ1VK_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201806_CZ1LR_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201806_CZ1LR_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201806_CZ1UV_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201806_CZ1UV_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201806_CZ1WV_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201806_CZ1WV_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201806_CZ1UO_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201806_CZ1UO_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201806_CZ1XC_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201806_CZ1XC_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201806_CZ1YN_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201806_CZ1YN_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201806_CZ1UI_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201806_CZ1UI_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201806_CZ1UU_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201806_CZ1UU_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201806_CZ1UW_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201806_CZ1UW_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201806_CZ1VC_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201806_CZ1VC_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201806_CZ1UX_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201806_CZ1UX_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201806_CZ1UZ_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201806_CZ1UZ_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201806_WZ9JP_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201806_WZ9JP_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201806_CZ1DG_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201806_CZ1DG_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201806_CZ1LE_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201806_CZ1LE_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201806_QZ1OM_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201806_QZ1OM_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>201806_CZ2JS_CommissionSummary.pdf</t>
+  </si>
+  <si>
+    <t>201806_CZ2JS_CommissionDetail.pdf</t>
+  </si>
+  <si>
+    <t>S:\BR\Utilities\Email Master Send\ETU_FSC_Comm</t>
   </si>
 </sst>
 </file>
@@ -1934,9 +1952,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:N171"/>
+  <dimension ref="A1:N173"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K2" sqref="K2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2004,7 +2024,7 @@
         <v>170</v>
       </c>
       <c r="D2" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -2014,20 +2034,20 @@
       </c>
       <c r="G2" t="str">
         <f>$K2&amp;"\"&amp;L2</f>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201805_CZ1SD_CommissionSummary.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Comm\201806_CZ1SD_CommissionSummary.pdf</v>
       </c>
       <c r="H2" t="str">
         <f>$K2&amp;"\"&amp;M2</f>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201805_CZ1SD_CommissionDetail.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Comm\201806_CZ1SD_CommissionDetail.pdf</v>
       </c>
       <c r="K2" t="s">
-        <v>176</v>
+        <v>527</v>
       </c>
       <c r="L2" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="M2" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
@@ -2039,7 +2059,7 @@
         <v>170</v>
       </c>
       <c r="D3" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -2049,20 +2069,20 @@
       </c>
       <c r="G3" t="str">
         <f t="shared" ref="G3:G66" si="0">$K3&amp;"\"&amp;L3</f>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201805_CZ1SD_CommissionSummary.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Comm\201806_CZ1SD_CommissionSummary.pdf</v>
       </c>
       <c r="H3" t="str">
         <f t="shared" ref="H3:H66" si="1">$K3&amp;"\"&amp;M3</f>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201805_CZ1SD_CommissionDetail.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Comm\201806_CZ1SD_CommissionDetail.pdf</v>
       </c>
       <c r="K3" t="s">
-        <v>176</v>
+        <v>527</v>
       </c>
       <c r="L3" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="M3" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
@@ -2074,7 +2094,7 @@
         <v>170</v>
       </c>
       <c r="D4" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -2084,20 +2104,20 @@
       </c>
       <c r="G4" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201805_CZ125_CommissionSummary.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Comm\201806_CZ125_CommissionSummary.pdf</v>
       </c>
       <c r="H4" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201805_CZ125_CommissionDetail.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Comm\201806_CZ125_CommissionDetail.pdf</v>
       </c>
       <c r="K4" t="s">
-        <v>176</v>
+        <v>527</v>
       </c>
       <c r="L4" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="M4" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
@@ -2109,7 +2129,7 @@
         <v>170</v>
       </c>
       <c r="D5" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -2119,20 +2139,20 @@
       </c>
       <c r="G5" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201805_CZ124_CommissionSummary.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Comm\201806_CZ124_CommissionSummary.pdf</v>
       </c>
       <c r="H5" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201805_CZ124_CommissionDetail.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Comm\201806_CZ124_CommissionDetail.pdf</v>
       </c>
       <c r="K5" t="s">
-        <v>176</v>
+        <v>527</v>
       </c>
       <c r="L5" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="M5" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
@@ -2144,7 +2164,7 @@
         <v>170</v>
       </c>
       <c r="D6" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -2154,20 +2174,20 @@
       </c>
       <c r="G6" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201805_QZ132_CommissionSummary.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Comm\201806_QZ132_CommissionSummary.pdf</v>
       </c>
       <c r="H6" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201805_QZ132_CommissionDetail.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Comm\201806_QZ132_CommissionDetail.pdf</v>
       </c>
       <c r="K6" t="s">
-        <v>176</v>
+        <v>527</v>
       </c>
       <c r="L6" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="M6" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
@@ -2179,7 +2199,7 @@
         <v>170</v>
       </c>
       <c r="D7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -2189,20 +2209,20 @@
       </c>
       <c r="G7" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201805_CZ128_CommissionSummary.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Comm\201806_CZ128_CommissionSummary.pdf</v>
       </c>
       <c r="H7" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201805_CZ128_CommissionDetail.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Comm\201806_CZ128_CommissionDetail.pdf</v>
       </c>
       <c r="K7" t="s">
-        <v>176</v>
+        <v>527</v>
       </c>
       <c r="L7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="M7" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
@@ -2214,7 +2234,7 @@
         <v>170</v>
       </c>
       <c r="D8" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="E8">
         <v>1</v>
@@ -2224,20 +2244,20 @@
       </c>
       <c r="G8" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201805_CZ144_CommissionSummary.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Comm\201806_CZ144_CommissionSummary.pdf</v>
       </c>
       <c r="H8" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201805_CZ144_CommissionDetail.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Comm\201806_CZ144_CommissionDetail.pdf</v>
       </c>
       <c r="K8" t="s">
-        <v>176</v>
+        <v>527</v>
       </c>
       <c r="L8" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="M8" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
@@ -2249,7 +2269,7 @@
         <v>170</v>
       </c>
       <c r="D9" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="E9">
         <v>1</v>
@@ -2259,20 +2279,20 @@
       </c>
       <c r="G9" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201805_CZ165_CommissionSummary.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Comm\201806_CZ165_CommissionSummary.pdf</v>
       </c>
       <c r="H9" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201805_CZ165_CommissionDetail.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Comm\201806_CZ165_CommissionDetail.pdf</v>
       </c>
       <c r="K9" t="s">
-        <v>176</v>
+        <v>527</v>
       </c>
       <c r="L9" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="M9" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
@@ -2284,7 +2304,7 @@
         <v>170</v>
       </c>
       <c r="D10" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="E10">
         <v>1</v>
@@ -2294,20 +2314,20 @@
       </c>
       <c r="G10" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201805_QZ178_CommissionSummary.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Comm\201806_QZ178_CommissionSummary.pdf</v>
       </c>
       <c r="H10" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201805_QZ178_CommissionDetail.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Comm\201806_QZ178_CommissionDetail.pdf</v>
       </c>
       <c r="K10" t="s">
-        <v>176</v>
+        <v>527</v>
       </c>
       <c r="L10" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="M10" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
@@ -2319,7 +2339,7 @@
         <v>170</v>
       </c>
       <c r="D11" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="E11">
         <v>1</v>
@@ -2329,20 +2349,20 @@
       </c>
       <c r="G11" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201805_CZ183_CommissionSummary.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Comm\201806_CZ183_CommissionSummary.pdf</v>
       </c>
       <c r="H11" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201805_CZ183_CommissionDetail.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Comm\201806_CZ183_CommissionDetail.pdf</v>
       </c>
       <c r="K11" t="s">
-        <v>176</v>
+        <v>527</v>
       </c>
       <c r="L11" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="M11" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
@@ -2354,7 +2374,7 @@
         <v>170</v>
       </c>
       <c r="D12" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="E12">
         <v>1</v>
@@ -2364,20 +2384,20 @@
       </c>
       <c r="G12" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201805_CZ107_CommissionSummary.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Comm\201806_CZ107_CommissionSummary.pdf</v>
       </c>
       <c r="H12" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201805_CZ107_CommissionDetail.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Comm\201806_CZ107_CommissionDetail.pdf</v>
       </c>
       <c r="K12" t="s">
-        <v>176</v>
+        <v>527</v>
       </c>
       <c r="L12" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="M12" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
@@ -2389,7 +2409,7 @@
         <v>170</v>
       </c>
       <c r="D13" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="E13">
         <v>1</v>
@@ -2399,20 +2419,20 @@
       </c>
       <c r="G13" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201805_CZ109_CommissionSummary.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Comm\201806_CZ109_CommissionSummary.pdf</v>
       </c>
       <c r="H13" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201805_CZ109_CommissionDetail.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Comm\201806_CZ109_CommissionDetail.pdf</v>
       </c>
       <c r="K13" t="s">
-        <v>176</v>
+        <v>527</v>
       </c>
       <c r="L13" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="M13" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
@@ -2424,7 +2444,7 @@
         <v>170</v>
       </c>
       <c r="D14" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="E14">
         <v>1</v>
@@ -2434,20 +2454,20 @@
       </c>
       <c r="G14" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201805_AZ112_CommissionSummary.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Comm\201806_AZ112_CommissionSummary.pdf</v>
       </c>
       <c r="H14" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201805_AZ112_CommissionDetail.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Comm\201806_AZ112_CommissionDetail.pdf</v>
       </c>
       <c r="K14" t="s">
-        <v>176</v>
+        <v>527</v>
       </c>
       <c r="L14" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="M14" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
@@ -2459,7 +2479,7 @@
         <v>170</v>
       </c>
       <c r="D15" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="E15">
         <v>1</v>
@@ -2469,20 +2489,20 @@
       </c>
       <c r="G15" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201805_CZ154_CommissionSummary.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Comm\201806_CZ154_CommissionSummary.pdf</v>
       </c>
       <c r="H15" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201805_CZ154_CommissionDetail.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Comm\201806_CZ154_CommissionDetail.pdf</v>
       </c>
       <c r="K15" t="s">
-        <v>176</v>
+        <v>527</v>
       </c>
       <c r="L15" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="M15" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
@@ -2494,7 +2514,7 @@
         <v>170</v>
       </c>
       <c r="D16" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="E16">
         <v>1</v>
@@ -2504,20 +2524,20 @@
       </c>
       <c r="G16" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201805_CZ1KD_CommissionSummary.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Comm\201806_CZ1KD_CommissionSummary.pdf</v>
       </c>
       <c r="H16" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201805_CZ1KD_CommissionDetail.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Comm\201806_CZ1KD_CommissionDetail.pdf</v>
       </c>
       <c r="K16" t="s">
-        <v>176</v>
+        <v>527</v>
       </c>
       <c r="L16" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="M16" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
@@ -2529,7 +2549,7 @@
         <v>170</v>
       </c>
       <c r="D17" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="E17">
         <v>1</v>
@@ -2539,20 +2559,20 @@
       </c>
       <c r="G17" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201805_QZ1CF_CommissionSummary.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Comm\201806_QZ1CF_CommissionSummary.pdf</v>
       </c>
       <c r="H17" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201805_QZ1CF_CommissionDetail.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Comm\201806_QZ1CF_CommissionDetail.pdf</v>
       </c>
       <c r="K17" t="s">
-        <v>176</v>
+        <v>527</v>
       </c>
       <c r="L17" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="M17" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
@@ -2564,7 +2584,7 @@
         <v>170</v>
       </c>
       <c r="D18" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="E18">
         <v>1</v>
@@ -2574,20 +2594,20 @@
       </c>
       <c r="G18" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201805_CZ1EM_CommissionSummary.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Comm\201806_CZ1EM_CommissionSummary.pdf</v>
       </c>
       <c r="H18" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201805_CZ1EM_CommissionDetail.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Comm\201806_CZ1EM_CommissionDetail.pdf</v>
       </c>
       <c r="K18" t="s">
-        <v>176</v>
+        <v>527</v>
       </c>
       <c r="L18" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="M18" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
@@ -2599,7 +2619,7 @@
         <v>170</v>
       </c>
       <c r="D19" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="E19">
         <v>1</v>
@@ -2609,20 +2629,20 @@
       </c>
       <c r="G19" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201805_QZ1DP_CommissionSummary.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Comm\201806_QZ1DP_CommissionSummary.pdf</v>
       </c>
       <c r="H19" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201805_QZ1DP_CommissionDetail.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Comm\201806_QZ1DP_CommissionDetail.pdf</v>
       </c>
       <c r="K19" t="s">
-        <v>176</v>
+        <v>527</v>
       </c>
       <c r="L19" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="M19" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
@@ -2633,7 +2653,7 @@
         <v>170</v>
       </c>
       <c r="D20" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="E20">
         <v>1</v>
@@ -2643,20 +2663,20 @@
       </c>
       <c r="G20" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201805_CZ1DA_CommissionSummary.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Comm\201806_CZ1DA_CommissionSummary.pdf</v>
       </c>
       <c r="H20" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201805_CZ1DA_CommissionDetail.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Comm\201806_CZ1DA_CommissionDetail.pdf</v>
       </c>
       <c r="K20" t="s">
-        <v>176</v>
+        <v>527</v>
       </c>
       <c r="L20" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="M20" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
@@ -2667,7 +2687,7 @@
         <v>170</v>
       </c>
       <c r="D21" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="E21">
         <v>1</v>
@@ -2677,20 +2697,20 @@
       </c>
       <c r="G21" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201805_QZ1LM_CommissionSummary.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Comm\201806_QZ1LM_CommissionSummary.pdf</v>
       </c>
       <c r="H21" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201805_QZ1LM_CommissionDetail.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Comm\201806_QZ1LM_CommissionDetail.pdf</v>
       </c>
       <c r="K21" t="s">
-        <v>176</v>
+        <v>527</v>
       </c>
       <c r="L21" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="M21" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
@@ -2701,7 +2721,7 @@
         <v>170</v>
       </c>
       <c r="D22" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="E22">
         <v>1</v>
@@ -2711,20 +2731,20 @@
       </c>
       <c r="G22" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201805_CZ1EE_CommissionSummary.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Comm\201806_CZ1EE_CommissionSummary.pdf</v>
       </c>
       <c r="H22" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201805_CZ1EE_CommissionDetail.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Comm\201806_CZ1EE_CommissionDetail.pdf</v>
       </c>
       <c r="K22" t="s">
-        <v>176</v>
+        <v>527</v>
       </c>
       <c r="L22" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="M22" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
@@ -2735,7 +2755,7 @@
         <v>170</v>
       </c>
       <c r="D23" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="E23">
         <v>1</v>
@@ -2745,20 +2765,20 @@
       </c>
       <c r="G23" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201805_AZ1EK_CommissionSummary.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Comm\201806_AZ1EK_CommissionSummary.pdf</v>
       </c>
       <c r="H23" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201805_AZ1EK_CommissionDetail.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Comm\201806_AZ1EK_CommissionDetail.pdf</v>
       </c>
       <c r="K23" t="s">
-        <v>176</v>
+        <v>527</v>
       </c>
       <c r="L23" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="M23" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
@@ -2769,7 +2789,7 @@
         <v>170</v>
       </c>
       <c r="D24" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="E24">
         <v>1</v>
@@ -2779,20 +2799,20 @@
       </c>
       <c r="G24" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201805_AZ1FB_CommissionSummary.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Comm\201806_AZ1FB_CommissionSummary.pdf</v>
       </c>
       <c r="H24" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201805_AZ1FB_CommissionDetail.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Comm\201806_AZ1FB_CommissionDetail.pdf</v>
       </c>
       <c r="K24" t="s">
-        <v>176</v>
+        <v>527</v>
       </c>
       <c r="L24" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="M24" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
@@ -2803,7 +2823,7 @@
         <v>170</v>
       </c>
       <c r="D25" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="E25">
         <v>1</v>
@@ -2813,20 +2833,20 @@
       </c>
       <c r="G25" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201805_CZ1FP_CommissionSummary.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Comm\201806_CZ1FP_CommissionSummary.pdf</v>
       </c>
       <c r="H25" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201805_CZ1FP_CommissionDetail.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Comm\201806_CZ1FP_CommissionDetail.pdf</v>
       </c>
       <c r="K25" t="s">
-        <v>176</v>
+        <v>527</v>
       </c>
       <c r="L25" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="M25" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
@@ -2837,7 +2857,7 @@
         <v>170</v>
       </c>
       <c r="D26" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="E26">
         <v>1</v>
@@ -2847,20 +2867,20 @@
       </c>
       <c r="G26" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201805_QZ1FT_CommissionSummary.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Comm\201806_QZ1FT_CommissionSummary.pdf</v>
       </c>
       <c r="H26" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201805_QZ1FT_CommissionDetail.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Comm\201806_QZ1FT_CommissionDetail.pdf</v>
       </c>
       <c r="K26" t="s">
-        <v>176</v>
+        <v>527</v>
       </c>
       <c r="L26" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="M26" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
@@ -2871,7 +2891,7 @@
         <v>170</v>
       </c>
       <c r="D27" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="E27">
         <v>1</v>
@@ -2881,20 +2901,20 @@
       </c>
       <c r="G27" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201805_QZ1FR_CommissionSummary.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Comm\201806_QZ1FR_CommissionSummary.pdf</v>
       </c>
       <c r="H27" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201805_QZ1FR_CommissionDetail.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Comm\201806_QZ1FR_CommissionDetail.pdf</v>
       </c>
       <c r="K27" t="s">
-        <v>176</v>
+        <v>527</v>
       </c>
       <c r="L27" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="M27" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
@@ -2905,7 +2925,7 @@
         <v>170</v>
       </c>
       <c r="D28" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="E28">
         <v>1</v>
@@ -2915,20 +2935,20 @@
       </c>
       <c r="G28" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201805_QZ1GO_CommissionSummary.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Comm\201806_QZ1GO_CommissionSummary.pdf</v>
       </c>
       <c r="H28" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201805_QZ1GO_CommissionDetail.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Comm\201806_QZ1GO_CommissionDetail.pdf</v>
       </c>
       <c r="K28" t="s">
-        <v>176</v>
+        <v>527</v>
       </c>
       <c r="L28" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="M28" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
@@ -2939,7 +2959,7 @@
         <v>170</v>
       </c>
       <c r="D29" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="E29">
         <v>1</v>
@@ -2949,20 +2969,20 @@
       </c>
       <c r="G29" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201805_AZ1KL_CommissionSummary.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Comm\201806_AZ1KL_CommissionSummary.pdf</v>
       </c>
       <c r="H29" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201805_AZ1KL_CommissionDetail.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Comm\201806_AZ1KL_CommissionDetail.pdf</v>
       </c>
       <c r="K29" t="s">
-        <v>176</v>
+        <v>527</v>
       </c>
       <c r="L29" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="M29" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
@@ -2973,7 +2993,7 @@
         <v>170</v>
       </c>
       <c r="D30" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="E30">
         <v>1</v>
@@ -2983,20 +3003,20 @@
       </c>
       <c r="G30" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201805_QZ1KK_CommissionSummary.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Comm\201806_QZ1KK_CommissionSummary.pdf</v>
       </c>
       <c r="H30" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201805_QZ1KK_CommissionDetail.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Comm\201806_QZ1KK_CommissionDetail.pdf</v>
       </c>
       <c r="K30" t="s">
-        <v>176</v>
+        <v>527</v>
       </c>
       <c r="L30" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="M30" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
@@ -3007,7 +3027,7 @@
         <v>170</v>
       </c>
       <c r="D31" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="E31">
         <v>1</v>
@@ -3017,20 +3037,20 @@
       </c>
       <c r="G31" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201805_CZ1DN_CommissionSummary.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Comm\201806_CZ1DN_CommissionSummary.pdf</v>
       </c>
       <c r="H31" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201805_CZ1DN_CommissionDetail.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Comm\201806_CZ1DN_CommissionDetail.pdf</v>
       </c>
       <c r="K31" t="s">
-        <v>176</v>
+        <v>527</v>
       </c>
       <c r="L31" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="M31" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
@@ -3041,7 +3061,7 @@
         <v>170</v>
       </c>
       <c r="D32" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="E32">
         <v>1</v>
@@ -3051,20 +3071,20 @@
       </c>
       <c r="G32" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201805_QZ1EO_CommissionSummary.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Comm\201806_QZ1EO_CommissionSummary.pdf</v>
       </c>
       <c r="H32" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201805_QZ1EO_CommissionDetail.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Comm\201806_QZ1EO_CommissionDetail.pdf</v>
       </c>
       <c r="K32" t="s">
-        <v>176</v>
+        <v>527</v>
       </c>
       <c r="L32" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="M32" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="33" spans="2:13" x14ac:dyDescent="0.25">
@@ -3075,7 +3095,7 @@
         <v>170</v>
       </c>
       <c r="D33" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="E33">
         <v>1</v>
@@ -3085,31 +3105,31 @@
       </c>
       <c r="G33" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201805_CZ1CB_CommissionSummary.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Comm\201806_CZ1CB_CommissionSummary.pdf</v>
       </c>
       <c r="H33" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201805_CZ1CB_CommissionDetail.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Comm\201806_CZ1CB_CommissionDetail.pdf</v>
       </c>
       <c r="K33" t="s">
-        <v>176</v>
+        <v>527</v>
       </c>
       <c r="L33" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="M33" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="34" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
-        <v>44</v>
+        <v>183</v>
       </c>
       <c r="C34" t="s">
         <v>170</v>
       </c>
       <c r="D34" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="E34">
         <v>1</v>
@@ -3119,31 +3139,31 @@
       </c>
       <c r="G34" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201805_CZ1B8_CommissionSummary.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Comm\201806_WZ1JV_CommissionSummary.pdf</v>
       </c>
       <c r="H34" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201805_CZ1B8_CommissionDetail.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Comm\201806_WZ1JV_CommissionDetail.pdf</v>
       </c>
       <c r="K34" t="s">
-        <v>176</v>
+        <v>527</v>
       </c>
       <c r="L34" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="M34" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="35" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C35" t="s">
         <v>170</v>
       </c>
       <c r="D35" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="E35">
         <v>1</v>
@@ -3153,31 +3173,31 @@
       </c>
       <c r="G35" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201805_CZ1C4_CommissionSummary.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Comm\201806_CZ1B8_CommissionSummary.pdf</v>
       </c>
       <c r="H35" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201805_CZ1C4_CommissionDetail.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Comm\201806_CZ1B8_CommissionDetail.pdf</v>
       </c>
       <c r="K35" t="s">
-        <v>176</v>
+        <v>527</v>
       </c>
       <c r="L35" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="M35" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="36" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C36" t="s">
         <v>170</v>
       </c>
       <c r="D36" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="E36">
         <v>1</v>
@@ -3187,31 +3207,31 @@
       </c>
       <c r="G36" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201805_QZ1D8_CommissionSummary.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Comm\201806_CZ1C4_CommissionSummary.pdf</v>
       </c>
       <c r="H36" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201805_QZ1D8_CommissionDetail.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Comm\201806_CZ1C4_CommissionDetail.pdf</v>
       </c>
       <c r="K36" t="s">
-        <v>176</v>
+        <v>527</v>
       </c>
       <c r="L36" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="M36" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="37" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C37" t="s">
         <v>170</v>
       </c>
       <c r="D37" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="E37">
         <v>1</v>
@@ -3221,31 +3241,31 @@
       </c>
       <c r="G37" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201805_CZ1SW_CommissionSummary.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Comm\201806_QZ1D8_CommissionSummary.pdf</v>
       </c>
       <c r="H37" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201805_CZ1SW_CommissionDetail.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Comm\201806_QZ1D8_CommissionDetail.pdf</v>
       </c>
       <c r="K37" t="s">
-        <v>176</v>
+        <v>527</v>
       </c>
       <c r="L37" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="M37" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="38" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C38" t="s">
         <v>170</v>
       </c>
       <c r="D38" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="E38">
         <v>1</v>
@@ -3255,31 +3275,31 @@
       </c>
       <c r="G38" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201805_QZ1AP_CommissionSummary.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Comm\201806_CZ1SW_CommissionSummary.pdf</v>
       </c>
       <c r="H38" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201805_QZ1AP_CommissionDetail.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Comm\201806_CZ1SW_CommissionDetail.pdf</v>
       </c>
       <c r="K38" t="s">
-        <v>176</v>
+        <v>527</v>
       </c>
       <c r="L38" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="M38" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="39" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C39" t="s">
         <v>170</v>
       </c>
       <c r="D39" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="E39">
         <v>1</v>
@@ -3289,31 +3309,31 @@
       </c>
       <c r="G39" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201805_CZ2CB_CommissionSummary.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Comm\201806_QZ1AP_CommissionSummary.pdf</v>
       </c>
       <c r="H39" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201805_CZ2CB_CommissionDetail.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Comm\201806_QZ1AP_CommissionDetail.pdf</v>
       </c>
       <c r="K39" t="s">
-        <v>176</v>
+        <v>527</v>
       </c>
       <c r="L39" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="M39" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="40" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C40" t="s">
         <v>170</v>
       </c>
       <c r="D40" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="E40">
         <v>1</v>
@@ -3323,31 +3343,31 @@
       </c>
       <c r="G40" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201805_CZ1CG_CommissionSummary.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Comm\201806_CZ2CB_CommissionSummary.pdf</v>
       </c>
       <c r="H40" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201805_CZ1CG_CommissionDetail.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Comm\201806_CZ2CB_CommissionDetail.pdf</v>
       </c>
       <c r="K40" t="s">
-        <v>176</v>
+        <v>527</v>
       </c>
       <c r="L40" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="M40" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="41" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C41" t="s">
         <v>170</v>
       </c>
       <c r="D41" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="E41">
         <v>1</v>
@@ -3357,31 +3377,31 @@
       </c>
       <c r="G41" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201805_AZ1PV_CommissionSummary.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Comm\201806_CZ1CG_CommissionSummary.pdf</v>
       </c>
       <c r="H41" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201805_AZ1PV_CommissionDetail.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Comm\201806_CZ1CG_CommissionDetail.pdf</v>
       </c>
       <c r="K41" t="s">
-        <v>176</v>
+        <v>527</v>
       </c>
       <c r="L41" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="M41" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
     </row>
     <row r="42" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C42" t="s">
         <v>170</v>
       </c>
       <c r="D42" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="E42">
         <v>1</v>
@@ -3391,31 +3411,31 @@
       </c>
       <c r="G42" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201805_CZ3CB_CommissionSummary.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Comm\201806_AZ1PV_CommissionSummary.pdf</v>
       </c>
       <c r="H42" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201805_CZ3CB_CommissionDetail.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Comm\201806_AZ1PV_CommissionDetail.pdf</v>
       </c>
       <c r="K42" t="s">
-        <v>176</v>
+        <v>527</v>
       </c>
       <c r="L42" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="M42" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="43" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C43" t="s">
         <v>170</v>
       </c>
       <c r="D43" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="E43">
         <v>1</v>
@@ -3425,31 +3445,31 @@
       </c>
       <c r="G43" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201805_CZ5CS_CommissionSummary.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Comm\201806_CZ3CB_CommissionSummary.pdf</v>
       </c>
       <c r="H43" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201805_CZ5CS_CommissionDetail.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Comm\201806_CZ3CB_CommissionDetail.pdf</v>
       </c>
       <c r="K43" t="s">
-        <v>176</v>
+        <v>527</v>
       </c>
       <c r="L43" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="M43" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="44" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C44" t="s">
         <v>170</v>
       </c>
       <c r="D44" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="E44">
         <v>1</v>
@@ -3459,31 +3479,31 @@
       </c>
       <c r="G44" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201805_CZ8JA_CommissionSummary.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Comm\201806_CZ5CS_CommissionSummary.pdf</v>
       </c>
       <c r="H44" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201805_CZ8JA_CommissionDetail.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Comm\201806_CZ5CS_CommissionDetail.pdf</v>
       </c>
       <c r="K44" t="s">
-        <v>176</v>
+        <v>527</v>
       </c>
       <c r="L44" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="M44" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
     </row>
     <row r="45" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
-        <v>168</v>
+        <v>54</v>
       </c>
       <c r="C45" t="s">
         <v>170</v>
       </c>
       <c r="D45" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="E45">
         <v>1</v>
@@ -3493,31 +3513,31 @@
       </c>
       <c r="G45" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201805_QZ7JM_CommissionSummary.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Comm\201806_CZ8JA_CommissionSummary.pdf</v>
       </c>
       <c r="H45" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201805_QZ7JM_CommissionDetail.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Comm\201806_CZ8JA_CommissionDetail.pdf</v>
       </c>
       <c r="K45" t="s">
-        <v>176</v>
+        <v>527</v>
       </c>
       <c r="L45" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="M45" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
     </row>
     <row r="46" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
-        <v>55</v>
+        <v>168</v>
       </c>
       <c r="C46" t="s">
         <v>170</v>
       </c>
       <c r="D46" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="E46">
         <v>1</v>
@@ -3527,31 +3547,31 @@
       </c>
       <c r="G46" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201805_QZ7DO_CommissionSummary.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Comm\201806_QZ7JM_CommissionSummary.pdf</v>
       </c>
       <c r="H46" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201805_QZ7DO_CommissionDetail.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Comm\201806_QZ7JM_CommissionDetail.pdf</v>
       </c>
       <c r="K46" t="s">
-        <v>176</v>
+        <v>527</v>
       </c>
       <c r="L46" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="M46" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
     </row>
     <row r="47" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C47" t="s">
         <v>170</v>
       </c>
       <c r="D47" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="E47">
         <v>1</v>
@@ -3561,31 +3581,31 @@
       </c>
       <c r="G47" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201805_CZ5TA_CommissionSummary.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Comm\201806_QZ7DO_CommissionSummary.pdf</v>
       </c>
       <c r="H47" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Comm\201805_CZ5TA_CommissionDetail.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Comm\201806_QZ7DO_CommissionDetail.pdf</v>
       </c>
       <c r="K47" t="s">
-        <v>176</v>
+        <v>5